--- a/内科学笔记/病和方剂汇总.xlsx
+++ b/内科学笔记/病和方剂汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="335">
   <si>
     <t xml:space="preserve">肺系统 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -846,15 +846,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>景岳全书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>燥湿化痰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缓解期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1054,64 +1046,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>六味地黄丸  隔下逐瘀汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">附子理中丸 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 五苓散</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">茵陈五苓散 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 甘露消毒丹</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>半夏厚朴汤   左金丸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>小半夏汤   苓桂术甘汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失笑散   丹参饮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二陈汤   三子养亲汤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>脉沉细数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1165,6 +1103,311 @@
   </si>
   <si>
     <t>补阴剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风寒湿痹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行痹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛痹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>着痹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风湿热痹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防风汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乌头汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薏苡仁汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肢体关节酸痛，游走不定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肢体关节疼痛较剧，痛有定处</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苔薄白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉弦紧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肢体关节重着，酸痛。痛有定位，手足沉重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外感咳嗽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热痹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白虎桂枝汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关节疼痛，局部灼热红肿，痛不可触</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苔黄燥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉滑数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心悸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心虚胆怯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心血不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴虚火旺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心阳不振</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水饮凌心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心血瘀阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痰浊壅塞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴寒凝滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心肾阴虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气阴两虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳气虚衰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸痹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不寐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝郁化火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痰热内扰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心脾两虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心胆气虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>善惊易恐，坐卧不安</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安神定志丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《景岳全书》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《医学心悟》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归脾汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补血剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面色无华，倦怠乏力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌质淡红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉细弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天王补心丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安神剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心悸不宁，头晕目眩，手足心热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌红少苔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(肾)阴虚火旺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小半夏汤。苓桂术甘汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半夏厚朴汤。左金丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二陈汤。三子养亲汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失笑散。丹参饮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茵陈五苓散。甘露消毒丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附子理中丸。五苓散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六味地黄丸。隔下逐瘀汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂枝甘草龙骨牡蛎汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心悸不安，面色苍白，形寒肢冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苓桂术甘汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温化寒湿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸脘痞满，形寒肢冷，小便短少下肢浮肿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苔白滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉弦滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃仁红花煎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《素阉医案》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸闷不舒，心痛时作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌质暗紫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉涩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缓解期
+虚证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1172,7 +1415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1211,8 +1454,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1261,8 +1521,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1285,13 +1557,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1316,13 +1634,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1331,23 +1661,50 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1616,24 +1973,24 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I122"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D120" sqref="D120"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="20.5" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.625" customWidth="1"/>
+    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1653,23 +2010,23 @@
         <v>193</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>231</v>
-      </c>
       <c r="I1" s="3" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1687,8 +2044,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
         <v>149</v>
       </c>
@@ -1704,8 +2061,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="1" t="s">
         <v>152</v>
       </c>
@@ -1719,8 +2076,8 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="10" t="s">
         <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1735,11 +2092,13 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="I5" s="19" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15"/>
-      <c r="B6" s="9"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
         <v>156</v>
       </c>
@@ -1752,11 +2111,11 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="20"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="1" t="s">
         <v>158</v>
       </c>
@@ -1769,30 +2128,30 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="15"/>
-      <c r="B8" s="9"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
         <v>160</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>210</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="10" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="15"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
         <v>162</v>
       </c>
@@ -1802,14 +2161,14 @@
       <c r="E9" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="15"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
         <v>164</v>
       </c>
@@ -1819,14 +2178,14 @@
       <c r="E10" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="10"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
-      <c r="B11" s="9"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
         <v>166</v>
       </c>
@@ -1836,14 +2195,14 @@
       <c r="E11" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="10"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="14"/>
+      <c r="B12" s="10" t="s">
         <v>147</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1859,8 +2218,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15"/>
-      <c r="B13" s="9"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="1" t="s">
         <v>169</v>
       </c>
@@ -1874,8 +2233,8 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15"/>
-      <c r="B14" s="9"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="1" t="s">
         <v>170</v>
       </c>
@@ -1891,8 +2250,8 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
-      <c r="B15" s="9"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="10"/>
       <c r="C15" s="1" t="s">
         <v>172</v>
       </c>
@@ -1906,8 +2265,8 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15"/>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="10" t="s">
         <v>145</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1919,16 +2278,16 @@
       <c r="E16" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>212</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="I16" s="10" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="15"/>
-      <c r="B17" s="9"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="1" t="s">
         <v>177</v>
       </c>
@@ -1938,14 +2297,14 @@
       <c r="E17" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15"/>
-      <c r="B18" s="9"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
         <v>179</v>
       </c>
@@ -1955,16 +2314,16 @@
       <c r="E18" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>209</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="31" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
-      <c r="B19" s="9"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="1" t="s">
         <v>181</v>
       </c>
@@ -1974,14 +2333,14 @@
       <c r="E19" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F19" s="13"/>
+      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="15"/>
-      <c r="B20" s="9"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="1" t="s">
         <v>183</v>
       </c>
@@ -1991,14 +2350,14 @@
       <c r="E20" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="13"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="9" t="s">
+      <c r="A21" s="14"/>
+      <c r="B21" s="10" t="s">
         <v>146</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2013,11 +2372,13 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="19" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="15"/>
-      <c r="B22" s="9"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="1" t="s">
         <v>185</v>
       </c>
@@ -2030,28 +2391,28 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="23"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="15"/>
-      <c r="B23" s="9"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="1" t="s">
         <v>162</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>207</v>
+      <c r="E23" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="15"/>
-      <c r="B24" s="9"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
         <v>188</v>
       </c>
@@ -2059,16 +2420,16 @@
         <v>161</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="15"/>
-      <c r="B25" s="9"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="1" t="s">
         <v>189</v>
       </c>
@@ -2081,11 +2442,13 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="I25" s="19" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="15"/>
-      <c r="B26" s="9"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="10"/>
       <c r="C26" s="1" t="s">
         <v>179</v>
       </c>
@@ -2098,11 +2461,11 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="I26" s="20"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="15"/>
-      <c r="B27" s="9"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="1" t="s">
         <v>183</v>
       </c>
@@ -2115,619 +2478,689 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="I27" s="21"/>
     </row>
     <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="B28" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>323</v>
+      </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="I28" s="19" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="I29" s="23"/>
     </row>
     <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>102</v>
-      </c>
+      <c r="A30" s="26"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="4" t="s">
-        <v>107</v>
+        <v>312</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
+        <v>307</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="I30" s="23"/>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="17"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="4" t="s">
-        <v>108</v>
+        <v>282</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
+        <v>320</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="17"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="4" t="s">
-        <v>109</v>
+        <v>283</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+        <v>324</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="I32" s="19" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="17"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="4" t="s">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+        <v>329</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="17"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="19" t="s">
+        <v>290</v>
+      </c>
       <c r="C34" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>73</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="17"/>
-      <c r="B35" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="A35" s="26"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>117</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="17"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>120</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="17"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>73</v>
-      </c>
+        <v>287</v>
+      </c>
+      <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="17"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="A38" s="26"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="17"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>252</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="17"/>
-      <c r="B40" s="14"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="19" t="s">
+        <v>291</v>
+      </c>
       <c r="C40" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="17"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="20"/>
       <c r="C41" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>122</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="17"/>
-      <c r="B42" s="14" t="s">
-        <v>103</v>
-      </c>
+      <c r="A42" s="26"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>124</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="17"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>120</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="17"/>
-      <c r="B44" s="14"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>251</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="17"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>249</v>
-      </c>
+      <c r="A45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="17"/>
-      <c r="B46" s="14"/>
+      <c r="A46" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="C46" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>127</v>
+        <v>107</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
+      <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="17"/>
-      <c r="B47" s="14"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="11"/>
       <c r="C47" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="17"/>
-      <c r="B48" s="14" t="s">
-        <v>104</v>
-      </c>
+      <c r="A48" s="13"/>
+      <c r="B48" s="11"/>
       <c r="C48" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>131</v>
+        <v>109</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="17"/>
-      <c r="B49" s="14"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="11"/>
       <c r="C49" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>133</v>
+        <v>110</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
+      <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="17"/>
-      <c r="B50" s="14"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="11"/>
       <c r="C50" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>120</v>
+        <v>111</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
+      <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="17"/>
-      <c r="B51" s="14"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="C51" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>136</v>
+        <v>112</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
+      <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="17"/>
-      <c r="B52" s="14"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="11"/>
       <c r="C52" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>138</v>
+        <v>110</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="17"/>
-      <c r="B53" s="14"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="11"/>
       <c r="C53" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>250</v>
+        <v>113</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="17"/>
-      <c r="B54" s="14" t="s">
+      <c r="A54" s="13"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" s="1"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="13"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E55" s="1"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="13"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="13"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E57" s="1"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="13"/>
+      <c r="B58" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E58" s="1"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="13"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E59" s="1"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="13"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="13"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="13"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="13"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="13"/>
+      <c r="B64" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="13"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="13"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="13"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="13"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="13"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="13"/>
+      <c r="B70" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="17"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="17"/>
-      <c r="B56" s="14"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="17"/>
-      <c r="B57" s="14"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="17"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="17"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="17"/>
-      <c r="B60" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="17"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="17"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="17"/>
-      <c r="B63" s="14"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="17"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="12"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="12"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="12"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="12"/>
-      <c r="B69" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-    </row>
-    <row r="70" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="12"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>248</v>
-      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -2735,14 +3168,10 @@
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="12"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>85</v>
-      </c>
+      <c r="A71" s="13"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -2750,14 +3179,10 @@
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="12"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="A72" s="13"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -2765,16 +3190,10 @@
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="12"/>
-      <c r="B73" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A73" s="13"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -2782,14 +3201,10 @@
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="12"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="A74" s="13"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -2797,14 +3212,10 @@
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="12"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>82</v>
-      </c>
+      <c r="A75" s="13"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -2812,14 +3223,12 @@
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="12"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>94</v>
-      </c>
+      <c r="A76" s="13"/>
+      <c r="B76" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -2827,14 +3236,10 @@
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="12"/>
-      <c r="B77" s="9"/>
-      <c r="C77" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>247</v>
-      </c>
+      <c r="A77" s="13"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -2842,14 +3247,10 @@
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="12"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>246</v>
-      </c>
+      <c r="A78" s="13"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -2857,18 +3258,10 @@
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A79" s="13"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -2876,14 +3269,10 @@
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="11"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A80" s="13"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -2891,13 +3280,17 @@
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="11"/>
-      <c r="B81" s="9"/>
+      <c r="A81" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>71</v>
+      </c>
       <c r="C81" s="1" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -2906,13 +3299,13 @@
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="11"/>
-      <c r="B82" s="9"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="10"/>
       <c r="C82" s="1" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -2921,13 +3314,13 @@
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="11"/>
-      <c r="B83" s="9"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="10"/>
       <c r="C83" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -2936,13 +3329,13 @@
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="11"/>
-      <c r="B84" s="9"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="10"/>
       <c r="C84" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>245</v>
+        <v>78</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -2951,217 +3344,201 @@
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="11"/>
-      <c r="B85" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>61</v>
+      <c r="A85" s="16"/>
+      <c r="B85" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="11"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>63</v>
+      <c r="A86" s="16"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="11"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>65</v>
+      <c r="A87" s="16"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="11"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>244</v>
+      <c r="A88" s="16"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="11"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>69</v>
+      <c r="A89" s="16"/>
+      <c r="B89" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="11"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>70</v>
+      <c r="A90" s="16"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B91" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="A91" s="16"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="8"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>243</v>
+      <c r="A92" s="16"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="8"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="8"/>
-      <c r="B94" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>220</v>
+      <c r="A94" s="16"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="8"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>223</v>
-      </c>
+      <c r="A95" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="8"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="A96" s="15"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B97" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A97" s="15"/>
+      <c r="B97" s="10"/>
       <c r="C97" s="1" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -3170,13 +3547,13 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="10"/>
-      <c r="B98" s="9"/>
+      <c r="A98" s="15"/>
+      <c r="B98" s="10"/>
       <c r="C98" s="1" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -3185,13 +3562,13 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="10"/>
-      <c r="B99" s="9"/>
+      <c r="A99" s="15"/>
+      <c r="B99" s="10"/>
       <c r="C99" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -3200,13 +3577,13 @@
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="10"/>
-      <c r="B100" s="9"/>
+      <c r="A100" s="15"/>
+      <c r="B100" s="10"/>
       <c r="C100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>15</v>
+        <v>58</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -3215,203 +3592,217 @@
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="10"/>
-      <c r="B101" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="1" t="s">
-        <v>17</v>
+      <c r="A101" s="15"/>
+      <c r="B101" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="10"/>
-      <c r="B102" s="9"/>
-      <c r="C102" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>19</v>
+      <c r="A102" s="15"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E102" s="1"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="1"/>
-      <c r="H102" s="1"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="10"/>
-      <c r="B103" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>22</v>
+      <c r="A103" s="15"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E103" s="1"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="10"/>
-      <c r="B104" s="9"/>
-      <c r="C104" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D104" s="4" t="s">
+      <c r="A104" s="15"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" s="7" t="s">
         <v>242</v>
       </c>
       <c r="E104" s="1"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="10"/>
-      <c r="B105" s="9"/>
-      <c r="C105" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>25</v>
+      <c r="A105" s="15"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="H105" s="1"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="10"/>
-      <c r="B106" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>28</v>
+      <c r="A106" s="15"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="10"/>
-      <c r="B107" s="9"/>
-      <c r="C107" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E107" s="1"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1"/>
+      <c r="A107" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="10"/>
-      <c r="B108" s="9"/>
-      <c r="C108" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>15</v>
+      <c r="A108" s="17"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="E108" s="1"/>
-      <c r="F108" s="1"/>
-      <c r="G108" s="1"/>
-      <c r="H108" s="1"/>
-      <c r="I108" s="1"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="1" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="10"/>
-      <c r="B109" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E109" s="1"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="1"/>
-      <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
+      <c r="A109" s="17"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="110" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="10"/>
-      <c r="B110" s="9"/>
-      <c r="C110" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>35</v>
+      <c r="A110" s="17"/>
+      <c r="B110" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="10"/>
-      <c r="B111" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E111" s="1"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="1"/>
-      <c r="H111" s="1"/>
+      <c r="A111" s="17"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="10"/>
-      <c r="B112" s="9"/>
-      <c r="C112" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
+      <c r="A112" s="17"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="10"/>
-      <c r="B113" s="9"/>
+      <c r="A113" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="C113" s="1" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -3420,15 +3811,13 @@
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="10"/>
-      <c r="B114" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="A114" s="18"/>
+      <c r="B114" s="10"/>
       <c r="C114" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -3437,13 +3826,13 @@
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="10"/>
-      <c r="B115" s="9"/>
+      <c r="A115" s="18"/>
+      <c r="B115" s="10"/>
       <c r="C115" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -3452,10 +3841,10 @@
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="10"/>
-      <c r="B116" s="9"/>
+      <c r="A116" s="18"/>
+      <c r="B116" s="10"/>
       <c r="C116" s="1" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>15</v>
@@ -3467,100 +3856,78 @@
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>259</v>
+      <c r="A117" s="18"/>
+      <c r="B117" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="I117" s="2" t="s">
-        <v>234</v>
-      </c>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="18"/>
-      <c r="B118" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>265</v>
-      </c>
+      <c r="B118" s="10"/>
+      <c r="C118" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118" s="1"/>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
-      <c r="H118" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I118" s="4" t="s">
-        <v>238</v>
-      </c>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="18"/>
-      <c r="B119" s="14" t="s">
-        <v>240</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="B119" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E119" s="1"/>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
-      <c r="H119" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>254</v>
-      </c>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="18"/>
-      <c r="B120" s="14"/>
-      <c r="C120" s="4" t="s">
-        <v>255</v>
+      <c r="B120" s="10"/>
+      <c r="C120" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
-      <c r="H120" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>258</v>
-      </c>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
+      <c r="A121" s="18"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -3568,54 +3935,397 @@
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-      <c r="D122" s="1"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
+    <row r="123" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="18"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="18"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" s="1"/>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="18"/>
+      <c r="B125" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="18"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E126" s="1"/>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="18"/>
+      <c r="B127" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="18"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E128" s="1"/>
+      <c r="F128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="18"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="18"/>
+      <c r="B130" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E130" s="1"/>
+      <c r="F130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="18"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E131" s="1"/>
+      <c r="F131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="18"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E133" s="1"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="28"/>
+      <c r="B134" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" s="1"/>
+      <c r="G134" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="28"/>
+      <c r="B135" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F135" s="1"/>
+      <c r="G135" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="28"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G137" s="1"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="30"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E138" s="1"/>
+      <c r="F138" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="30"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E139" s="1"/>
+      <c r="F139" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="30"/>
+      <c r="B140" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="I140" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="F18:F20"/>
-    <mergeCell ref="F8:F11"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B60:B64"/>
-    <mergeCell ref="A30:A64"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="B35:B41"/>
-    <mergeCell ref="B42:B47"/>
-    <mergeCell ref="B48:B53"/>
-    <mergeCell ref="B54:B59"/>
+  <mergeCells count="47">
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A28:A44"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="I21:I24"/>
+    <mergeCell ref="B107:B109"/>
+    <mergeCell ref="B110:B112"/>
+    <mergeCell ref="A107:A112"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="A113:A132"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B129"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="A95:A106"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="A81:A94"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="A46:A80"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="B70:B75"/>
     <mergeCell ref="A2:A27"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B27"/>
-    <mergeCell ref="B79:B84"/>
-    <mergeCell ref="B85:B90"/>
-    <mergeCell ref="A79:A90"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="A65:A78"/>
-    <mergeCell ref="B91:B93"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="A91:A96"/>
-    <mergeCell ref="B119:B120"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="B114:B116"/>
-    <mergeCell ref="A97:A116"/>
-    <mergeCell ref="B97:B100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="B103:B105"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="B111:B113"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/内科学笔记/病和方剂汇总.xlsx
+++ b/内科学笔记/病和方剂汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="364">
   <si>
     <t xml:space="preserve">肺系统 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1408,6 +1408,122 @@
   <si>
     <t>缓解期
 虚证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血府逐瘀汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理血剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸部刺痛，固定不移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉沉涩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《伤寒论》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸闷气短，肢体沉重，痰多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苔浊腻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爪蒌薤白半夏汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爪蒌薤白折酒汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸痛彻背，感寒痛甚，面色苍白，四肢冷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苔白滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉沉细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左归饮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补阴剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸闷且痛，心悸盗汗。腰膝酸软，耳鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生脉散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补气剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸闷隐痛，时作时止。心悸气短，面色无华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细弱无力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参附汤。右归饮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温里剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸闷气短，胃寒肢冷，乏力，面色苍白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌淡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1609,7 +1725,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1637,13 +1753,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1655,56 +1822,8 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1976,8 +2095,8 @@
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2023,10 +2142,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2044,8 +2163,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="1" t="s">
         <v>149</v>
       </c>
@@ -2061,8 +2180,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="1" t="s">
         <v>152</v>
       </c>
@@ -2076,8 +2195,8 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="12" t="s">
         <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2092,13 +2211,13 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="13" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="1" t="s">
         <v>156</v>
       </c>
@@ -2111,11 +2230,11 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="20"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="1" t="s">
         <v>158</v>
       </c>
@@ -2128,11 +2247,11 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="21"/>
+      <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="1" t="s">
         <v>160</v>
       </c>
@@ -2145,13 +2264,13 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="12" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="1" t="s">
         <v>162</v>
       </c>
@@ -2164,11 +2283,11 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="10"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="1" t="s">
         <v>164</v>
       </c>
@@ -2181,11 +2300,11 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="10"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="1" t="s">
         <v>166</v>
       </c>
@@ -2198,11 +2317,11 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="10"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="14"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="12" t="s">
         <v>147</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2218,8 +2337,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="1" t="s">
         <v>169</v>
       </c>
@@ -2233,8 +2352,8 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="1" t="s">
         <v>170</v>
       </c>
@@ -2250,8 +2369,8 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="14"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="1" t="s">
         <v>172</v>
       </c>
@@ -2265,8 +2384,8 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="14"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="12" t="s">
         <v>145</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2281,13 +2400,13 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="12" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="14"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="1" t="s">
         <v>177</v>
       </c>
@@ -2300,11 +2419,11 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="14"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="1" t="s">
         <v>179</v>
       </c>
@@ -2317,13 +2436,13 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="27" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="14"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="1" t="s">
         <v>181</v>
       </c>
@@ -2336,11 +2455,11 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="9"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="14"/>
-      <c r="B20" s="10"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="1" t="s">
         <v>183</v>
       </c>
@@ -2353,11 +2472,11 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="9"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="14"/>
-      <c r="B21" s="10" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="12" t="s">
         <v>146</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2372,13 +2491,13 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="19" t="s">
+      <c r="I21" s="13" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="14"/>
-      <c r="B22" s="10"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="1" t="s">
         <v>185</v>
       </c>
@@ -2391,11 +2510,11 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="23"/>
+      <c r="I22" s="19"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="14"/>
-      <c r="B23" s="10"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="1" t="s">
         <v>162</v>
       </c>
@@ -2408,11 +2527,11 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="23"/>
+      <c r="I23" s="19"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="14"/>
-      <c r="B24" s="10"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="1" t="s">
         <v>188</v>
       </c>
@@ -2425,11 +2544,11 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="24"/>
+      <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="14"/>
-      <c r="B25" s="10"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="1" t="s">
         <v>189</v>
       </c>
@@ -2442,13 +2561,13 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="19" t="s">
+      <c r="I25" s="13" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="14"/>
-      <c r="B26" s="10"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="1" t="s">
         <v>179</v>
       </c>
@@ -2461,11 +2580,11 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="14"/>
-      <c r="B27" s="10"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="1" t="s">
         <v>183</v>
       </c>
@@ -2478,13 +2597,13 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="21"/>
+      <c r="I27" s="15"/>
     </row>
     <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="13" t="s">
         <v>278</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2503,13 +2622,13 @@
         <v>323</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="19" t="s">
+      <c r="I28" s="13" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="26"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="4" t="s">
         <v>280</v>
       </c>
@@ -2528,11 +2647,11 @@
       <c r="H29" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="I29" s="23"/>
+      <c r="I29" s="19"/>
     </row>
     <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="26"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="4" t="s">
         <v>312</v>
       </c>
@@ -2551,11 +2670,11 @@
       <c r="H30" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="I30" s="23"/>
+      <c r="I30" s="19"/>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="26"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="4" t="s">
         <v>282</v>
       </c>
@@ -2574,11 +2693,11 @@
       <c r="H31" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="I31" s="24"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="26"/>
-      <c r="B32" s="20"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="4" t="s">
         <v>283</v>
       </c>
@@ -2597,13 +2716,13 @@
       <c r="H32" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="I32" s="19" t="s">
+      <c r="I32" s="13" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="26"/>
-      <c r="B33" s="21"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="15"/>
       <c r="C33" s="4" t="s">
         <v>284</v>
       </c>
@@ -2622,91 +2741,153 @@
       <c r="H33" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="I33" s="24"/>
+      <c r="I33" s="20"/>
     </row>
     <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="26"/>
-      <c r="B34" s="19" t="s">
+      <c r="A34" s="17"/>
+      <c r="B34" s="13" t="s">
         <v>290</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="26"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="I35" s="19"/>
     </row>
     <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="26"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="14"/>
       <c r="C36" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I36" s="20"/>
     </row>
     <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="26"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="26"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="22" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="I38" s="19"/>
     </row>
     <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="26"/>
-      <c r="B39" s="21"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="15"/>
       <c r="C39" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="I39" s="20"/>
     </row>
     <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="26"/>
-      <c r="B40" s="19" t="s">
+      <c r="A40" s="17"/>
+      <c r="B40" s="13" t="s">
         <v>291</v>
       </c>
       <c r="C40" s="4" t="s">
@@ -2720,8 +2901,8 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="26"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="4" t="s">
         <v>293</v>
       </c>
@@ -2733,8 +2914,8 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="26"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="14"/>
       <c r="C42" s="4" t="s">
         <v>281</v>
       </c>
@@ -2746,8 +2927,8 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="26"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="14"/>
       <c r="C43" s="4" t="s">
         <v>294</v>
       </c>
@@ -2759,8 +2940,8 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="27"/>
-      <c r="B44" s="21"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="15"/>
       <c r="C44" s="4" t="s">
         <v>295</v>
       </c>
@@ -2785,10 +2966,10 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="22" t="s">
         <v>102</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -2804,8 +2985,8 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="13"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="30"/>
+      <c r="B47" s="22"/>
       <c r="C47" s="4" t="s">
         <v>108</v>
       </c>
@@ -2819,8 +3000,8 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="13"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="4" t="s">
         <v>109</v>
       </c>
@@ -2834,8 +3015,8 @@
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="13"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="30"/>
+      <c r="B49" s="22"/>
       <c r="C49" s="4" t="s">
         <v>110</v>
       </c>
@@ -2849,8 +3030,8 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="13"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="30"/>
+      <c r="B50" s="22"/>
       <c r="C50" s="4" t="s">
         <v>111</v>
       </c>
@@ -2864,8 +3045,8 @@
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="13"/>
-      <c r="B51" s="11" t="s">
+      <c r="A51" s="30"/>
+      <c r="B51" s="22" t="s">
         <v>101</v>
       </c>
       <c r="C51" s="4" t="s">
@@ -2881,8 +3062,8 @@
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="13"/>
-      <c r="B52" s="11"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="22"/>
       <c r="C52" s="4" t="s">
         <v>110</v>
       </c>
@@ -2896,8 +3077,8 @@
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="13"/>
-      <c r="B53" s="11"/>
+      <c r="A53" s="30"/>
+      <c r="B53" s="22"/>
       <c r="C53" s="4" t="s">
         <v>113</v>
       </c>
@@ -2911,8 +3092,8 @@
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="13"/>
-      <c r="B54" s="11"/>
+      <c r="A54" s="30"/>
+      <c r="B54" s="22"/>
       <c r="C54" s="4" t="s">
         <v>114</v>
       </c>
@@ -2926,8 +3107,8 @@
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="13"/>
-      <c r="B55" s="11"/>
+      <c r="A55" s="30"/>
+      <c r="B55" s="22"/>
       <c r="C55" s="4" t="s">
         <v>74</v>
       </c>
@@ -2941,8 +3122,8 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="13"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="30"/>
+      <c r="B56" s="22"/>
       <c r="C56" s="4" t="s">
         <v>115</v>
       </c>
@@ -2956,8 +3137,8 @@
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="13"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="30"/>
+      <c r="B57" s="22"/>
       <c r="C57" s="4" t="s">
         <v>116</v>
       </c>
@@ -2971,8 +3152,8 @@
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="13"/>
-      <c r="B58" s="11" t="s">
+      <c r="A58" s="30"/>
+      <c r="B58" s="22" t="s">
         <v>103</v>
       </c>
       <c r="C58" s="4" t="s">
@@ -2988,8 +3169,8 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="13"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="30"/>
+      <c r="B59" s="22"/>
       <c r="C59" s="4" t="s">
         <v>110</v>
       </c>
@@ -3003,8 +3184,8 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="13"/>
-      <c r="B60" s="11"/>
+      <c r="A60" s="30"/>
+      <c r="B60" s="22"/>
       <c r="C60" s="4" t="s">
         <v>125</v>
       </c>
@@ -3018,8 +3199,8 @@
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="13"/>
-      <c r="B61" s="11"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="22"/>
       <c r="C61" s="4" t="s">
         <v>126</v>
       </c>
@@ -3033,8 +3214,8 @@
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="13"/>
-      <c r="B62" s="11"/>
+      <c r="A62" s="30"/>
+      <c r="B62" s="22"/>
       <c r="C62" s="4" t="s">
         <v>116</v>
       </c>
@@ -3048,8 +3229,8 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="13"/>
-      <c r="B63" s="11"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="22"/>
       <c r="C63" s="4" t="s">
         <v>128</v>
       </c>
@@ -3063,8 +3244,8 @@
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="13"/>
-      <c r="B64" s="11" t="s">
+      <c r="A64" s="30"/>
+      <c r="B64" s="22" t="s">
         <v>104</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3080,8 +3261,8 @@
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="13"/>
-      <c r="B65" s="11"/>
+      <c r="A65" s="30"/>
+      <c r="B65" s="22"/>
       <c r="C65" s="4" t="s">
         <v>132</v>
       </c>
@@ -3095,8 +3276,8 @@
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="13"/>
-      <c r="B66" s="11"/>
+      <c r="A66" s="30"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="4" t="s">
         <v>134</v>
       </c>
@@ -3110,8 +3291,8 @@
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="13"/>
-      <c r="B67" s="11"/>
+      <c r="A67" s="30"/>
+      <c r="B67" s="22"/>
       <c r="C67" s="4" t="s">
         <v>135</v>
       </c>
@@ -3125,8 +3306,8 @@
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="13"/>
-      <c r="B68" s="11"/>
+      <c r="A68" s="30"/>
+      <c r="B68" s="22"/>
       <c r="C68" s="4" t="s">
         <v>137</v>
       </c>
@@ -3140,8 +3321,8 @@
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="13"/>
-      <c r="B69" s="11"/>
+      <c r="A69" s="30"/>
+      <c r="B69" s="22"/>
       <c r="C69" s="4" t="s">
         <v>139</v>
       </c>
@@ -3155,8 +3336,8 @@
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="13"/>
-      <c r="B70" s="11" t="s">
+      <c r="A70" s="30"/>
+      <c r="B70" s="22" t="s">
         <v>105</v>
       </c>
       <c r="C70" s="1"/>
@@ -3168,8 +3349,8 @@
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="13"/>
-      <c r="B71" s="11"/>
+      <c r="A71" s="30"/>
+      <c r="B71" s="22"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -3179,8 +3360,8 @@
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="13"/>
-      <c r="B72" s="11"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="22"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -3190,8 +3371,8 @@
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="13"/>
-      <c r="B73" s="11"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="22"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -3201,8 +3382,8 @@
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="13"/>
-      <c r="B74" s="11"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="22"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3212,8 +3393,8 @@
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="13"/>
-      <c r="B75" s="11"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="22"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -3223,8 +3404,8 @@
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="13"/>
-      <c r="B76" s="11" t="s">
+      <c r="A76" s="30"/>
+      <c r="B76" s="22" t="s">
         <v>106</v>
       </c>
       <c r="C76" s="1"/>
@@ -3236,8 +3417,8 @@
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="13"/>
-      <c r="B77" s="11"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="22"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -3247,8 +3428,8 @@
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="13"/>
-      <c r="B78" s="11"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="22"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -3258,8 +3439,8 @@
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="13"/>
-      <c r="B79" s="11"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="22"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -3269,8 +3450,8 @@
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="13"/>
-      <c r="B80" s="11"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="22"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -3280,10 +3461,10 @@
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="16" t="s">
+      <c r="A81" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -3299,8 +3480,8 @@
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="16"/>
-      <c r="B82" s="10"/>
+      <c r="A82" s="26"/>
+      <c r="B82" s="12"/>
       <c r="C82" s="1" t="s">
         <v>74</v>
       </c>
@@ -3314,8 +3495,8 @@
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="16"/>
-      <c r="B83" s="10"/>
+      <c r="A83" s="26"/>
+      <c r="B83" s="12"/>
       <c r="C83" s="1" t="s">
         <v>76</v>
       </c>
@@ -3329,8 +3510,8 @@
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="16"/>
-      <c r="B84" s="10"/>
+      <c r="A84" s="26"/>
+      <c r="B84" s="12"/>
       <c r="C84" s="1" t="s">
         <v>78</v>
       </c>
@@ -3344,8 +3525,8 @@
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="16"/>
-      <c r="B85" s="10" t="s">
+      <c r="A85" s="26"/>
+      <c r="B85" s="12" t="s">
         <v>80</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -3361,8 +3542,8 @@
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="16"/>
-      <c r="B86" s="10"/>
+      <c r="A86" s="26"/>
+      <c r="B86" s="12"/>
       <c r="C86" s="1" t="s">
         <v>83</v>
       </c>
@@ -3376,8 +3557,8 @@
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="16"/>
-      <c r="B87" s="10"/>
+      <c r="A87" s="26"/>
+      <c r="B87" s="12"/>
       <c r="C87" s="1" t="s">
         <v>84</v>
       </c>
@@ -3391,8 +3572,8 @@
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="16"/>
-      <c r="B88" s="10"/>
+      <c r="A88" s="26"/>
+      <c r="B88" s="12"/>
       <c r="C88" s="1" t="s">
         <v>86</v>
       </c>
@@ -3406,8 +3587,8 @@
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="16"/>
-      <c r="B89" s="10" t="s">
+      <c r="A89" s="26"/>
+      <c r="B89" s="12" t="s">
         <v>88</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -3423,8 +3604,8 @@
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="16"/>
-      <c r="B90" s="10"/>
+      <c r="A90" s="26"/>
+      <c r="B90" s="12"/>
       <c r="C90" s="1" t="s">
         <v>90</v>
       </c>
@@ -3438,8 +3619,8 @@
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="16"/>
-      <c r="B91" s="10"/>
+      <c r="A91" s="26"/>
+      <c r="B91" s="12"/>
       <c r="C91" s="1" t="s">
         <v>92</v>
       </c>
@@ -3453,8 +3634,8 @@
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="16"/>
-      <c r="B92" s="10"/>
+      <c r="A92" s="26"/>
+      <c r="B92" s="12"/>
       <c r="C92" s="1" t="s">
         <v>93</v>
       </c>
@@ -3468,8 +3649,8 @@
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="16"/>
-      <c r="B93" s="10"/>
+      <c r="A93" s="26"/>
+      <c r="B93" s="12"/>
       <c r="C93" s="1" t="s">
         <v>95</v>
       </c>
@@ -3483,8 +3664,8 @@
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="16"/>
-      <c r="B94" s="10"/>
+      <c r="A94" s="26"/>
+      <c r="B94" s="12"/>
       <c r="C94" s="1" t="s">
         <v>96</v>
       </c>
@@ -3498,10 +3679,10 @@
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B95" s="10" t="s">
+      <c r="B95" s="12" t="s">
         <v>47</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -3517,8 +3698,8 @@
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="15"/>
-      <c r="B96" s="10"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="12"/>
       <c r="C96" s="1" t="s">
         <v>49</v>
       </c>
@@ -3532,8 +3713,8 @@
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="15"/>
-      <c r="B97" s="10"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="12"/>
       <c r="C97" s="1" t="s">
         <v>51</v>
       </c>
@@ -3547,8 +3728,8 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="15"/>
-      <c r="B98" s="10"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="12"/>
       <c r="C98" s="1" t="s">
         <v>54</v>
       </c>
@@ -3562,8 +3743,8 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="15"/>
-      <c r="B99" s="10"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="12"/>
       <c r="C99" s="1" t="s">
         <v>56</v>
       </c>
@@ -3577,8 +3758,8 @@
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="15"/>
-      <c r="B100" s="10"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="12"/>
       <c r="C100" s="1" t="s">
         <v>58</v>
       </c>
@@ -3592,8 +3773,8 @@
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="15"/>
-      <c r="B101" s="10" t="s">
+      <c r="A101" s="25"/>
+      <c r="B101" s="12" t="s">
         <v>59</v>
       </c>
       <c r="C101" s="2" t="s">
@@ -3609,8 +3790,8 @@
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="15"/>
-      <c r="B102" s="10"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="12"/>
       <c r="C102" s="2" t="s">
         <v>62</v>
       </c>
@@ -3624,8 +3805,8 @@
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="15"/>
-      <c r="B103" s="10"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="12"/>
       <c r="C103" s="2" t="s">
         <v>64</v>
       </c>
@@ -3639,8 +3820,8 @@
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="15"/>
-      <c r="B104" s="10"/>
+      <c r="A104" s="25"/>
+      <c r="B104" s="12"/>
       <c r="C104" s="2" t="s">
         <v>66</v>
       </c>
@@ -3654,8 +3835,8 @@
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="15"/>
-      <c r="B105" s="10"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="12"/>
       <c r="C105" s="2" t="s">
         <v>67</v>
       </c>
@@ -3669,8 +3850,8 @@
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="15"/>
-      <c r="B106" s="10"/>
+      <c r="A106" s="25"/>
+      <c r="B106" s="12"/>
       <c r="C106" s="2" t="s">
         <v>68</v>
       </c>
@@ -3684,10 +3865,10 @@
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B107" s="10" t="s">
+      <c r="B107" s="12" t="s">
         <v>211</v>
       </c>
       <c r="C107" s="2" t="s">
@@ -3705,8 +3886,8 @@
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="17"/>
-      <c r="B108" s="10"/>
+      <c r="A108" s="21"/>
+      <c r="B108" s="12"/>
       <c r="C108" s="2" t="s">
         <v>214</v>
       </c>
@@ -3722,8 +3903,8 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="17"/>
-      <c r="B109" s="10"/>
+      <c r="A109" s="21"/>
+      <c r="B109" s="12"/>
       <c r="C109" s="2" t="s">
         <v>252</v>
       </c>
@@ -3741,8 +3922,8 @@
       </c>
     </row>
     <row r="110" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="17"/>
-      <c r="B110" s="10" t="s">
+      <c r="A110" s="21"/>
+      <c r="B110" s="12" t="s">
         <v>217</v>
       </c>
       <c r="C110" s="2" t="s">
@@ -3758,8 +3939,8 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="17"/>
-      <c r="B111" s="10"/>
+      <c r="A111" s="21"/>
+      <c r="B111" s="12"/>
       <c r="C111" s="2" t="s">
         <v>219</v>
       </c>
@@ -3775,8 +3956,8 @@
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="17"/>
-      <c r="B112" s="10"/>
+      <c r="A112" s="21"/>
+      <c r="B112" s="12"/>
       <c r="C112" s="2" t="s">
         <v>222</v>
       </c>
@@ -3792,10 +3973,10 @@
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="18" t="s">
+      <c r="A113" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -3811,8 +3992,8 @@
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="18"/>
-      <c r="B114" s="10"/>
+      <c r="A114" s="24"/>
+      <c r="B114" s="12"/>
       <c r="C114" s="1" t="s">
         <v>10</v>
       </c>
@@ -3826,8 +4007,8 @@
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="18"/>
-      <c r="B115" s="10"/>
+      <c r="A115" s="24"/>
+      <c r="B115" s="12"/>
       <c r="C115" s="1" t="s">
         <v>12</v>
       </c>
@@ -3841,8 +4022,8 @@
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="18"/>
-      <c r="B116" s="10"/>
+      <c r="A116" s="24"/>
+      <c r="B116" s="12"/>
       <c r="C116" s="1" t="s">
         <v>14</v>
       </c>
@@ -3856,8 +4037,8 @@
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="18"/>
-      <c r="B117" s="10" t="s">
+      <c r="A117" s="24"/>
+      <c r="B117" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -3873,8 +4054,8 @@
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="18"/>
-      <c r="B118" s="10"/>
+      <c r="A118" s="24"/>
+      <c r="B118" s="12"/>
       <c r="C118" s="1" t="s">
         <v>18</v>
       </c>
@@ -3888,8 +4069,8 @@
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="18"/>
-      <c r="B119" s="10" t="s">
+      <c r="A119" s="24"/>
+      <c r="B119" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -3905,8 +4086,8 @@
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="18"/>
-      <c r="B120" s="10"/>
+      <c r="A120" s="24"/>
+      <c r="B120" s="12"/>
       <c r="C120" s="1" t="s">
         <v>23</v>
       </c>
@@ -3920,8 +4101,8 @@
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="18"/>
-      <c r="B121" s="10"/>
+      <c r="A121" s="24"/>
+      <c r="B121" s="12"/>
       <c r="C121" s="1" t="s">
         <v>24</v>
       </c>
@@ -3935,8 +4116,8 @@
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="18"/>
-      <c r="B122" s="10" t="s">
+      <c r="A122" s="24"/>
+      <c r="B122" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -3952,8 +4133,8 @@
       <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="18"/>
-      <c r="B123" s="10"/>
+      <c r="A123" s="24"/>
+      <c r="B123" s="12"/>
       <c r="C123" s="1" t="s">
         <v>29</v>
       </c>
@@ -3967,8 +4148,8 @@
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="18"/>
-      <c r="B124" s="10"/>
+      <c r="A124" s="24"/>
+      <c r="B124" s="12"/>
       <c r="C124" s="1" t="s">
         <v>30</v>
       </c>
@@ -3982,8 +4163,8 @@
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="18"/>
-      <c r="B125" s="10" t="s">
+      <c r="A125" s="24"/>
+      <c r="B125" s="12" t="s">
         <v>31</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -3999,8 +4180,8 @@
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="18"/>
-      <c r="B126" s="10"/>
+      <c r="A126" s="24"/>
+      <c r="B126" s="12"/>
       <c r="C126" s="1" t="s">
         <v>34</v>
       </c>
@@ -4014,8 +4195,8 @@
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="18"/>
-      <c r="B127" s="10" t="s">
+      <c r="A127" s="24"/>
+      <c r="B127" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -4031,8 +4212,8 @@
       <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="18"/>
-      <c r="B128" s="10"/>
+      <c r="A128" s="24"/>
+      <c r="B128" s="12"/>
       <c r="C128" s="1" t="s">
         <v>39</v>
       </c>
@@ -4046,8 +4227,8 @@
       <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="18"/>
-      <c r="B129" s="10"/>
+      <c r="A129" s="24"/>
+      <c r="B129" s="12"/>
       <c r="C129" s="1" t="s">
         <v>41</v>
       </c>
@@ -4061,8 +4242,8 @@
       <c r="I129" s="1"/>
     </row>
     <row r="130" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="18"/>
-      <c r="B130" s="10" t="s">
+      <c r="A130" s="24"/>
+      <c r="B130" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -4078,8 +4259,8 @@
       <c r="I130" s="1"/>
     </row>
     <row r="131" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="18"/>
-      <c r="B131" s="10"/>
+      <c r="A131" s="24"/>
+      <c r="B131" s="12"/>
       <c r="C131" s="1" t="s">
         <v>18</v>
       </c>
@@ -4093,8 +4274,8 @@
       <c r="I131" s="1"/>
     </row>
     <row r="132" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="18"/>
-      <c r="B132" s="10"/>
+      <c r="A132" s="24"/>
+      <c r="B132" s="12"/>
       <c r="C132" s="1" t="s">
         <v>46</v>
       </c>
@@ -4108,7 +4289,7 @@
       <c r="I132" s="1"/>
     </row>
     <row r="133" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="28" t="s">
+      <c r="A133" s="23" t="s">
         <v>5</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -4131,7 +4312,7 @@
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="28"/>
+      <c r="A134" s="23"/>
       <c r="B134" s="6" t="s">
         <v>233</v>
       </c>
@@ -4154,8 +4335,8 @@
       <c r="I134" s="1"/>
     </row>
     <row r="135" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="28"/>
-      <c r="B135" s="11" t="s">
+      <c r="A135" s="23"/>
+      <c r="B135" s="22" t="s">
         <v>238</v>
       </c>
       <c r="C135" s="4" t="s">
@@ -4177,8 +4358,8 @@
       <c r="I135" s="1"/>
     </row>
     <row r="136" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="28"/>
-      <c r="B136" s="11"/>
+      <c r="A136" s="23"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="4" t="s">
         <v>246</v>
       </c>
@@ -4196,10 +4377,10 @@
       <c r="I136" s="1"/>
     </row>
     <row r="137" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="29" t="s">
+      <c r="A137" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B137" s="10" t="s">
+      <c r="B137" s="12" t="s">
         <v>259</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -4217,8 +4398,8 @@
       <c r="I137" s="1"/>
     </row>
     <row r="138" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="30"/>
-      <c r="B138" s="10"/>
+      <c r="A138" s="11"/>
+      <c r="B138" s="12"/>
       <c r="C138" s="1" t="s">
         <v>261</v>
       </c>
@@ -4238,8 +4419,8 @@
       <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="30"/>
-      <c r="B139" s="10"/>
+      <c r="A139" s="11"/>
+      <c r="B139" s="12"/>
       <c r="C139" s="2" t="s">
         <v>262</v>
       </c>
@@ -4255,7 +4436,7 @@
       <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="30"/>
+      <c r="A140" s="11"/>
       <c r="B140" s="8" t="s">
         <v>263</v>
       </c>
@@ -4278,7 +4459,40 @@
       <c r="I140" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="49">
+    <mergeCell ref="I34:I36"/>
+    <mergeCell ref="I37:I39"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="B76:B80"/>
+    <mergeCell ref="A46:A80"/>
+    <mergeCell ref="B46:B50"/>
+    <mergeCell ref="B51:B57"/>
+    <mergeCell ref="B58:B63"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="B101:B106"/>
+    <mergeCell ref="A95:A106"/>
+    <mergeCell ref="B81:B84"/>
+    <mergeCell ref="B85:B88"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="A81:A94"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="A113:A132"/>
+    <mergeCell ref="B113:B116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="B122:B124"/>
+    <mergeCell ref="B125:B126"/>
+    <mergeCell ref="B127:B129"/>
     <mergeCell ref="A137:A140"/>
     <mergeCell ref="B137:B139"/>
     <mergeCell ref="I5:I7"/>
@@ -4295,37 +4509,6 @@
     <mergeCell ref="A107:A112"/>
     <mergeCell ref="B135:B136"/>
     <mergeCell ref="A133:A136"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="A113:A132"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="A95:A106"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="A81:A94"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="A46:A80"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="B70:B75"/>
-    <mergeCell ref="A2:A27"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/内科学笔记/病和方剂汇总.xlsx
+++ b/内科学笔记/病和方剂汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="410">
   <si>
     <t xml:space="preserve">肺系统 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1524,6 +1524,190 @@
   </si>
   <si>
     <t>沉细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙胆泻肝汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清热剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>急燥易怒，不思饮食，目赤口苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌红苔黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉弦数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温胆汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燥湿化痰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痰多胸闷，恶食恶心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苔腻而黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉滑数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄连阿胶汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心悸，头晕，五心烦热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉细数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归脾汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补血剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心悸，头晕。倦怠乏力，面色无华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌淡苔薄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉细弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安神定志丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌淡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉弦细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>癫狂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痫证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风寒头痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风热头痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川芎茶调散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治风剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头痛而胀，面红目赤，或发热恶风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌红苔薄黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉浮数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头痛连及项背，时有拘急感，伴恶风畏寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌淡苔薄白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芎芷石膏汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《和局剂方》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风湿头痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羌活胜湿汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袪湿剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头痛，头身困重。小便不利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌淡苔白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉濡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1588,7 +1772,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1646,6 +1830,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1725,7 +1915,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1755,6 +1945,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1807,10 +2000,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1819,10 +2009,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2092,11 +2294,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I140"/>
+  <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2142,10 +2344,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>143</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2163,8 +2365,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1" t="s">
         <v>149</v>
       </c>
@@ -2180,8 +2382,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="31"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
         <v>152</v>
       </c>
@@ -2195,8 +2397,8 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="13" t="s">
         <v>144</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2211,13 +2413,13 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="14" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="31"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="1" t="s">
         <v>156</v>
       </c>
@@ -2230,11 +2432,11 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="14"/>
+      <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1" t="s">
         <v>158</v>
       </c>
@@ -2247,11 +2449,11 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="15"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="31"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="1" t="s">
         <v>160</v>
       </c>
@@ -2264,13 +2466,13 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="13" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="31"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="1" t="s">
         <v>162</v>
       </c>
@@ -2283,11 +2485,11 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="12"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="31"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="1" t="s">
         <v>164</v>
       </c>
@@ -2300,11 +2502,11 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="12"/>
+      <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="1" t="s">
         <v>166</v>
       </c>
@@ -2317,11 +2519,11 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="12"/>
+      <c r="I11" s="13"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="31"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="13" t="s">
         <v>147</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2337,8 +2539,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="1" t="s">
         <v>169</v>
       </c>
@@ -2352,8 +2554,8 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="1" t="s">
         <v>170</v>
       </c>
@@ -2369,8 +2571,8 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="31"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="1" t="s">
         <v>172</v>
       </c>
@@ -2384,8 +2586,8 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="28"/>
+      <c r="B16" s="13" t="s">
         <v>145</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2400,13 +2602,13 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="13" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="1" t="s">
         <v>177</v>
       </c>
@@ -2419,11 +2621,11 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="12"/>
+      <c r="I17" s="13"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="1" t="s">
         <v>179</v>
       </c>
@@ -2436,13 +2638,13 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="27" t="s">
+      <c r="I18" s="32" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="31"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="1" t="s">
         <v>181</v>
       </c>
@@ -2455,11 +2657,11 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="28"/>
+      <c r="I19" s="33"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="31"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="1" t="s">
         <v>183</v>
       </c>
@@ -2472,11 +2674,11 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="28"/>
+      <c r="I20" s="33"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="31"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="13" t="s">
         <v>146</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -2491,13 +2693,13 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="13" t="s">
+      <c r="I21" s="14" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="31"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="1" t="s">
         <v>185</v>
       </c>
@@ -2510,11 +2712,11 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="19"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="31"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="1" t="s">
         <v>162</v>
       </c>
@@ -2527,11 +2729,11 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="19"/>
+      <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="31"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="1" t="s">
         <v>188</v>
       </c>
@@ -2544,11 +2746,11 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="21"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="31"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="1" t="s">
         <v>189</v>
       </c>
@@ -2561,13 +2763,13 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="14" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="1" t="s">
         <v>179</v>
       </c>
@@ -2580,11 +2782,11 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="14"/>
+      <c r="I26" s="15"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="1" t="s">
         <v>183</v>
       </c>
@@ -2597,13 +2799,13 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="15"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="14" t="s">
         <v>278</v>
       </c>
       <c r="C28" s="4" t="s">
@@ -2622,13 +2824,13 @@
         <v>323</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="14" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="17"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="15"/>
       <c r="C29" s="4" t="s">
         <v>280</v>
       </c>
@@ -2647,11 +2849,11 @@
       <c r="H29" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="I29" s="19"/>
+      <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="17"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="15"/>
       <c r="C30" s="4" t="s">
         <v>312</v>
       </c>
@@ -2670,11 +2872,11 @@
       <c r="H30" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="I30" s="19"/>
+      <c r="I30" s="20"/>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="17"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="4" t="s">
         <v>282</v>
       </c>
@@ -2693,11 +2895,11 @@
       <c r="H31" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="I31" s="20"/>
+      <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="17"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="4" t="s">
         <v>283</v>
       </c>
@@ -2716,13 +2918,13 @@
       <c r="H32" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="I32" s="13" t="s">
+      <c r="I32" s="14" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="17"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="4" t="s">
         <v>284</v>
       </c>
@@ -2741,11 +2943,11 @@
       <c r="H33" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="I33" s="20"/>
+      <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="17"/>
-      <c r="B34" s="13" t="s">
+      <c r="A34" s="18"/>
+      <c r="B34" s="14" t="s">
         <v>290</v>
       </c>
       <c r="C34" s="4" t="s">
@@ -2764,13 +2966,13 @@
       <c r="H34" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I34" s="31" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="17"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="15"/>
       <c r="C35" s="4" t="s">
         <v>285</v>
       </c>
@@ -2789,11 +2991,11 @@
       <c r="H35" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="I35" s="19"/>
+      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="17"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="15"/>
       <c r="C36" s="4" t="s">
         <v>286</v>
       </c>
@@ -2812,11 +3014,11 @@
       <c r="H36" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="I36" s="20"/>
+      <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="17"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="15"/>
       <c r="C37" s="4" t="s">
         <v>287</v>
       </c>
@@ -2835,13 +3037,13 @@
       <c r="H37" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I37" s="32" t="s">
+      <c r="I37" s="31" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="17"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="9" t="s">
         <v>288</v>
       </c>
@@ -2860,11 +3062,11 @@
       <c r="H38" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="I38" s="19"/>
+      <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="17"/>
-      <c r="B39" s="15"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="16"/>
       <c r="C39" s="4" t="s">
         <v>289</v>
       </c>
@@ -2883,451 +3085,451 @@
       <c r="H39" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="I39" s="20"/>
+      <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="17"/>
-      <c r="B40" s="13" t="s">
+      <c r="A40" s="18"/>
+      <c r="B40" s="14" t="s">
         <v>291</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="I40" s="31" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="17"/>
-      <c r="B41" s="14"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="17"/>
-      <c r="B42" s="14"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="15"/>
       <c r="C42" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="F42" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="I42" s="31" t="s">
+        <v>375</v>
+      </c>
     </row>
     <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="17"/>
-      <c r="B43" s="14"/>
+      <c r="A43" s="18"/>
+      <c r="B43" s="15"/>
       <c r="C43" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="18"/>
-      <c r="B44" s="15"/>
+      <c r="A44" s="19"/>
+      <c r="B44" s="16"/>
       <c r="C44" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+      <c r="B45" s="14" t="s">
+        <v>388</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I45" s="10"/>
     </row>
     <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="29" t="s">
+      <c r="A46" s="35"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I46" s="10"/>
+    </row>
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="35"/>
+      <c r="B47" s="15"/>
+      <c r="C47" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="I47" s="10"/>
+    </row>
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="35"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="10"/>
+    </row>
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="35"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="10"/>
+    </row>
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="35"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="10"/>
+    </row>
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="35"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="10"/>
+    </row>
+    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="35"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="10"/>
+    </row>
+    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="35"/>
+      <c r="B53" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="10"/>
+    </row>
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="35"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="10"/>
+    </row>
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="35"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="10"/>
+    </row>
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="35"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="10"/>
+    </row>
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="35"/>
+      <c r="B57" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="10"/>
+    </row>
+    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="35"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="10"/>
+    </row>
+    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="35"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="10"/>
+    </row>
+    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="35"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="10"/>
+    </row>
+    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="35"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="10"/>
+    </row>
+    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="35"/>
+      <c r="B62" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="C62" s="4"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="10"/>
+    </row>
+    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="35"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="10"/>
+    </row>
+    <row r="64" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="35"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="10"/>
+    </row>
+    <row r="65" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="35"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="10"/>
+    </row>
+    <row r="66" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="35"/>
+      <c r="B66" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="10"/>
+    </row>
+    <row r="67" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="35"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="10"/>
+    </row>
+    <row r="68" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="36"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="10"/>
+    </row>
+    <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B69" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C69" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="E46" s="1"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="1"/>
-    </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="30"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="1"/>
-    </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="30"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="1"/>
-    </row>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="30"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E49" s="1"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="30"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="30"/>
-      <c r="B51" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="30"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E52" s="1"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="30"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E53" s="1"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="30"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="30"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="1"/>
-    </row>
-    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="30"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="30"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="1"/>
-    </row>
-    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="30"/>
-      <c r="B58" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="1"/>
-    </row>
-    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="30"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="30"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="30"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="30"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="1"/>
-    </row>
-    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="30"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E63" s="1"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="30"/>
-      <c r="B64" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="30"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E65" s="1"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="30"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E66" s="1"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="30"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E67" s="1"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="30"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="30"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="4"/>
@@ -3337,326 +3539,362 @@
     </row>
     <row r="70" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="30"/>
-      <c r="B70" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="B70" s="23"/>
+      <c r="C70" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="30"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="B71" s="23"/>
+      <c r="C71" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>119</v>
+      </c>
       <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="30"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="B72" s="23"/>
+      <c r="C72" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="1"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="30"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="B73" s="23"/>
+      <c r="C73" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="1"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="30"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="B74" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="30"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="1"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="30"/>
-      <c r="B76" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>73</v>
+      </c>
       <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="30"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="30"/>
-      <c r="B78" s="22"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="B78" s="23"/>
+      <c r="C78" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>316</v>
+      </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="1"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="30"/>
-      <c r="B79" s="22"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="B79" s="23"/>
+      <c r="C79" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="30"/>
-      <c r="B80" s="22"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>73</v>
+      <c r="A81" s="30"/>
+      <c r="B81" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="26"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>75</v>
+      <c r="A82" s="30"/>
+      <c r="B82" s="23"/>
+      <c r="C82" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="1"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="26"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>77</v>
+      <c r="A83" s="30"/>
+      <c r="B83" s="23"/>
+      <c r="C83" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="26"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>79</v>
+      <c r="A84" s="30"/>
+      <c r="B84" s="23"/>
+      <c r="C84" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="26"/>
-      <c r="B85" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>82</v>
+      <c r="A85" s="30"/>
+      <c r="B85" s="23"/>
+      <c r="C85" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="26"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>317</v>
+      <c r="A86" s="30"/>
+      <c r="B86" s="23"/>
+      <c r="C86" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="26"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>85</v>
+      <c r="A87" s="30"/>
+      <c r="B87" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="26"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>87</v>
+      <c r="A88" s="30"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="26"/>
-      <c r="B89" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>73</v>
+      <c r="A89" s="30"/>
+      <c r="B89" s="23"/>
+      <c r="C89" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="26"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>91</v>
+      <c r="A90" s="30"/>
+      <c r="B90" s="23"/>
+      <c r="C90" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>136</v>
       </c>
       <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="26"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>82</v>
+      <c r="A91" s="30"/>
+      <c r="B91" s="23"/>
+      <c r="C91" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>138</v>
       </c>
       <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="26"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>94</v>
+      <c r="A92" s="30"/>
+      <c r="B92" s="23"/>
+      <c r="C92" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="26"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>318</v>
-      </c>
+      <c r="A93" s="30"/>
+      <c r="B93" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -3664,14 +3902,10 @@
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="26"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>319</v>
-      </c>
+      <c r="A94" s="30"/>
+      <c r="B94" s="23"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -3679,18 +3913,10 @@
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A95" s="30"/>
+      <c r="B95" s="23"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -3698,14 +3924,10 @@
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="25"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="A96" s="30"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -3713,14 +3935,10 @@
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="25"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D97" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="A97" s="30"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -3728,14 +3946,10 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="25"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A98" s="30"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -3743,14 +3957,12 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="25"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="A99" s="30"/>
+      <c r="B99" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -3758,14 +3970,10 @@
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="25"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>243</v>
-      </c>
+      <c r="A100" s="30"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -3773,217 +3981,189 @@
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="25"/>
-      <c r="B101" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="A101" s="30"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="25"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="A102" s="30"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
+      <c r="F102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="25"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="A103" s="30"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
+      <c r="F103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="25"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D104" s="7" t="s">
-        <v>242</v>
+      <c r="A104" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E104" s="1"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
+      <c r="F104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="25"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>69</v>
+      <c r="A105" s="27"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="E105" s="1"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
+      <c r="F105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="25"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>70</v>
+      <c r="A106" s="27"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="E106" s="1"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
+      <c r="F106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B107" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
+      <c r="A107" s="27"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E107" s="1"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="21"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>241</v>
+      <c r="A108" s="27"/>
+      <c r="B108" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E108" s="1"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="1" t="s">
-        <v>254</v>
-      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="21"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="A109" s="27"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="21"/>
-      <c r="B110" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>218</v>
+      <c r="A110" s="27"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="E110" s="1"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
+      <c r="F110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="21"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
+      <c r="A111" s="27"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="21"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
+      <c r="A112" s="27"/>
+      <c r="B112" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="B113" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="A113" s="27"/>
+      <c r="B113" s="13"/>
       <c r="C113" s="1" t="s">
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
@@ -3992,13 +4172,13 @@
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="24"/>
-      <c r="B114" s="12"/>
+      <c r="A114" s="27"/>
+      <c r="B114" s="13"/>
       <c r="C114" s="1" t="s">
-        <v>10</v>
+        <v>92</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>11</v>
+        <v>82</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -4007,13 +4187,13 @@
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="24"/>
-      <c r="B115" s="12"/>
+      <c r="A115" s="27"/>
+      <c r="B115" s="13"/>
       <c r="C115" s="1" t="s">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
@@ -4022,13 +4202,13 @@
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="24"/>
-      <c r="B116" s="12"/>
+      <c r="A116" s="27"/>
+      <c r="B116" s="13"/>
       <c r="C116" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>15</v>
+        <v>95</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
@@ -4037,15 +4217,13 @@
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="24"/>
-      <c r="B117" s="12" t="s">
-        <v>16</v>
-      </c>
+      <c r="A117" s="27"/>
+      <c r="B117" s="13"/>
       <c r="C117" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>17</v>
+        <v>96</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>319</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -4054,13 +4232,17 @@
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="24"/>
-      <c r="B118" s="12"/>
+      <c r="A118" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>47</v>
+      </c>
       <c r="C118" s="1" t="s">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -4069,15 +4251,13 @@
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="24"/>
-      <c r="B119" s="12" t="s">
-        <v>20</v>
-      </c>
+      <c r="A119" s="26"/>
+      <c r="B119" s="13"/>
       <c r="C119" s="1" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -4086,13 +4266,13 @@
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="24"/>
-      <c r="B120" s="12"/>
+      <c r="A120" s="26"/>
+      <c r="B120" s="13"/>
       <c r="C120" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>240</v>
+        <v>51</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -4101,13 +4281,13 @@
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="24"/>
-      <c r="B121" s="12"/>
+      <c r="A121" s="26"/>
+      <c r="B121" s="13"/>
       <c r="C121" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -4116,15 +4296,13 @@
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="24"/>
-      <c r="B122" s="12" t="s">
-        <v>26</v>
-      </c>
+      <c r="A122" s="26"/>
+      <c r="B122" s="13"/>
       <c r="C122" s="1" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -4133,13 +4311,13 @@
       <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="24"/>
-      <c r="B123" s="12"/>
+      <c r="A123" s="26"/>
+      <c r="B123" s="13"/>
       <c r="C123" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>13</v>
+        <v>58</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>243</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -4148,353 +4326,736 @@
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="24"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>15</v>
+      <c r="A124" s="26"/>
+      <c r="B124" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E124" s="1"/>
-      <c r="F124" s="1"/>
-      <c r="G124" s="1"/>
-      <c r="H124" s="1"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="24"/>
-      <c r="B125" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>33</v>
+      <c r="A125" s="26"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E125" s="1"/>
-      <c r="F125" s="1"/>
-      <c r="G125" s="1"/>
-      <c r="H125" s="1"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="24"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>35</v>
+      <c r="A126" s="26"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E126" s="1"/>
-      <c r="F126" s="1"/>
-      <c r="G126" s="1"/>
-      <c r="H126" s="1"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
       <c r="I126" s="1"/>
     </row>
     <row r="127" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="24"/>
-      <c r="B127" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D127" s="1" t="s">
-        <v>38</v>
+      <c r="A127" s="26"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D127" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="E127" s="1"/>
-      <c r="F127" s="1"/>
-      <c r="G127" s="1"/>
-      <c r="H127" s="1"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
       <c r="I127" s="1"/>
     </row>
     <row r="128" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="24"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D128" s="1" t="s">
-        <v>40</v>
+      <c r="A128" s="26"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="E128" s="1"/>
-      <c r="F128" s="1"/>
-      <c r="G128" s="1"/>
-      <c r="H128" s="1"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
       <c r="I128" s="1"/>
     </row>
     <row r="129" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="24"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>15</v>
+      <c r="A129" s="26"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E129" s="1"/>
-      <c r="F129" s="1"/>
-      <c r="G129" s="1"/>
-      <c r="H129" s="1"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
       <c r="I129" s="1"/>
     </row>
     <row r="130" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="24"/>
-      <c r="B130" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
+      <c r="A130" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
       <c r="I130" s="1"/>
     </row>
     <row r="131" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="24"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>45</v>
+      <c r="A131" s="22"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="E131" s="1"/>
-      <c r="F131" s="1"/>
-      <c r="G131" s="1"/>
-      <c r="H131" s="1"/>
-      <c r="I131" s="1"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="1" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="132" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="24"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1"/>
-      <c r="G132" s="1"/>
-      <c r="H132" s="1"/>
-      <c r="I132" s="1"/>
+      <c r="A132" s="22"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="1" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="133" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>226</v>
+      <c r="A133" s="22"/>
+      <c r="B133" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="2"/>
-      <c r="G133" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
       <c r="I133" s="1"/>
     </row>
     <row r="134" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="23"/>
-      <c r="B134" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>237</v>
+      <c r="A134" s="22"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F134" s="1"/>
-      <c r="G134" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>236</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
       <c r="I134" s="1"/>
     </row>
     <row r="135" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="23"/>
-      <c r="B135" s="22" t="s">
-        <v>238</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="D135" s="4" t="s">
-        <v>257</v>
+      <c r="A135" s="22"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="F135" s="1"/>
-      <c r="G135" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>245</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
       <c r="I135" s="1"/>
     </row>
     <row r="136" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="23"/>
-      <c r="B136" s="22"/>
-      <c r="C136" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D136" s="4" t="s">
-        <v>247</v>
+      <c r="A136" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-      <c r="G136" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="H136" s="4" t="s">
-        <v>249</v>
-      </c>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
       <c r="I136" s="1"/>
     </row>
     <row r="137" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B137" s="12" t="s">
-        <v>259</v>
-      </c>
+      <c r="A137" s="25"/>
+      <c r="B137" s="13"/>
       <c r="C137" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>264</v>
+        <v>10</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E137" s="1"/>
-      <c r="F137" s="4" t="s">
-        <v>267</v>
-      </c>
+      <c r="F137" s="1"/>
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
     <row r="138" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="11"/>
-      <c r="B138" s="12"/>
+      <c r="A138" s="25"/>
+      <c r="B138" s="13"/>
       <c r="C138" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D138" s="4" t="s">
-        <v>265</v>
+        <v>12</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E138" s="1"/>
-      <c r="F138" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G138" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H138" s="4" t="s">
-        <v>270</v>
-      </c>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="11"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>266</v>
+      <c r="A139" s="25"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E139" s="1"/>
-      <c r="F139" s="4" t="s">
-        <v>271</v>
-      </c>
+      <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="11"/>
-      <c r="B140" s="8" t="s">
+      <c r="A140" s="25"/>
+      <c r="B140" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140" s="1"/>
+      <c r="F140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="25"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141" s="1"/>
+      <c r="F141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="25"/>
+      <c r="B142" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="25"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="E143" s="1"/>
+      <c r="F143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="25"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="25"/>
+      <c r="B145" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="25"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="25"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E147" s="1"/>
+      <c r="F147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="25"/>
+      <c r="B148" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E148" s="1"/>
+      <c r="F148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="25"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="25"/>
+      <c r="B150" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E150" s="1"/>
+      <c r="F150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="25"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E151" s="1"/>
+      <c r="F151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="25"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="25"/>
+      <c r="B153" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E153" s="1"/>
+      <c r="F153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="25"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="25"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="1"/>
+      <c r="F155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="24"/>
+      <c r="B157" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F157" s="1"/>
+      <c r="G157" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="H157" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="24"/>
+      <c r="B158" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F158" s="1"/>
+      <c r="G158" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H158" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="24"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E159" s="1"/>
+      <c r="F159" s="1"/>
+      <c r="G159" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H159" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I159" s="1"/>
+    </row>
+    <row r="160" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="E160" s="1"/>
+      <c r="F160" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="12"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E161" s="1"/>
+      <c r="F161" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H161" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="12"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="12"/>
+      <c r="B163" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C163" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D140" s="4" t="s">
+      <c r="D163" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E140" s="1"/>
-      <c r="F140" s="4" t="s">
+      <c r="E163" s="1"/>
+      <c r="F163" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G140" s="4" t="s">
+      <c r="G163" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="H140" s="4" t="s">
+      <c r="H163" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="I140" s="1"/>
+      <c r="I163" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="57">
+    <mergeCell ref="B62:B65"/>
+    <mergeCell ref="B66:B68"/>
+    <mergeCell ref="A45:A68"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="I42:I44"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B61"/>
     <mergeCell ref="I34:I36"/>
     <mergeCell ref="I37:I39"/>
     <mergeCell ref="I18:I20"/>
     <mergeCell ref="I8:I11"/>
     <mergeCell ref="I16:I17"/>
-    <mergeCell ref="B76:B80"/>
-    <mergeCell ref="A46:A80"/>
-    <mergeCell ref="B46:B50"/>
-    <mergeCell ref="B51:B57"/>
-    <mergeCell ref="B58:B63"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="A69:A103"/>
+    <mergeCell ref="B69:B73"/>
+    <mergeCell ref="B74:B80"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="B87:B92"/>
+    <mergeCell ref="B93:B98"/>
     <mergeCell ref="A2:A27"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B27"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="B101:B106"/>
-    <mergeCell ref="A95:A106"/>
-    <mergeCell ref="B81:B84"/>
-    <mergeCell ref="B85:B88"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="A81:A94"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="A113:A132"/>
-    <mergeCell ref="B113:B116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="B122:B124"/>
-    <mergeCell ref="B125:B126"/>
-    <mergeCell ref="B127:B129"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="B137:B139"/>
+    <mergeCell ref="B118:B123"/>
+    <mergeCell ref="B124:B129"/>
+    <mergeCell ref="A118:A129"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="B112:B117"/>
+    <mergeCell ref="A104:A117"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="A136:A155"/>
+    <mergeCell ref="B136:B139"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B142:B144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="B150:B152"/>
+    <mergeCell ref="A160:A163"/>
+    <mergeCell ref="B160:B162"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="B28:B33"/>
     <mergeCell ref="B34:B39"/>
@@ -4504,11 +5065,11 @@
     <mergeCell ref="I32:I33"/>
     <mergeCell ref="I25:I27"/>
     <mergeCell ref="I21:I24"/>
-    <mergeCell ref="B107:B109"/>
-    <mergeCell ref="B110:B112"/>
-    <mergeCell ref="A107:A112"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="A130:A135"/>
+    <mergeCell ref="B158:B159"/>
+    <mergeCell ref="A156:A159"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/内科学笔记/病和方剂汇总.xlsx
+++ b/内科学笔记/病和方剂汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="482">
   <si>
     <t xml:space="preserve">肺系统 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1710,12 +1710,314 @@
     <t>脉濡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>天麻钩藤饮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治风剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头痛而眩，心烦易怒，或胁痛，面红口苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苔薄黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉弦有力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肾虚头痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头痛且空，腰膝酸软，神疲乏力，耳鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌红少苔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细而无力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大补元煎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血虚头痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加味四物汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补血剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头痛而晕，神疲乏力，面色无华</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌淡苔白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>细弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半夏白术天麻汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治风化痰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸脘满闷，呕恶痰涎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苔白腻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝阳上亢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风痰上扰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘀血内阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头痛日久，痛处不移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌紫苔白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉涩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通窍活血汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《医林改错》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痰浊中阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气血亏虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕耳鸣，急燥易怒，口苦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌红苔黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉弦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>归脾汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补血剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动则加剧，劳累而发。面白，神疲懒言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌淡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉弱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左归丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肾精不足(肾虚)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补阴刘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕，精神萎靡，腰膝酸软，耳鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕，头身困重，胸闷恶心食少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风痰入络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>半夏白术天麻汤/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>桃仁红花煎</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉弦滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中经络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肌肤不仁，口舌歪斜，言语不利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌红苔薄黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴虚风动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镇肝息风汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平息内风剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半身不遂，口舌歪斜。急燥易怒，眩晕耳鸣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半身不遂，口舌歪斜，言语不利。腰膝酸软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉细</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痰热府实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃仁承气汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《伤寒论》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平素头痛眩晕，中风是突发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痰火瘀闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羚角钩藤汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>突然晕仆，不省人事。牙关紧闭，两手握掌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痰浊瘀闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>涤痰汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中脏腑
+闭证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脱证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参附汤。生脉散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目合口张，肢体软瘫，二便自遗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1766,6 +2068,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1915,7 +2225,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1949,13 +2259,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1967,6 +2292,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1976,56 +2337,14 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2294,24 +2613,24 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I163"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H47" sqref="H47"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="4" width="20.5" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="37.625" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="7" max="7" width="37.625" customWidth="1"/>
+    <col min="8" max="8" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2322,75 +2641,75 @@
         <v>98</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="28"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="24"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
@@ -2398,141 +2717,141 @@
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28"/>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="14" t="s">
-        <v>272</v>
-      </c>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="24"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="15"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="24"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="16"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="28"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="13" t="s">
-        <v>208</v>
-      </c>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="13"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="28"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="I10" s="13"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="13"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="28"/>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -2540,14 +2859,14 @@
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -2555,31 +2874,31 @@
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="28"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="24"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="28"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="24"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -2587,1334 +2906,1528 @@
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="28"/>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="13" t="s">
-        <v>210</v>
-      </c>
+      <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="28"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="13"/>
+      <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="28"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="24"/>
+      <c r="C18" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="32" t="s">
-        <v>334</v>
-      </c>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="28"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="24"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="33"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="28"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="24"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="33"/>
+      <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="28"/>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="14" t="s">
-        <v>306</v>
-      </c>
+      <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="28"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="24"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="28"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="24"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="21"/>
+      <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="28"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="24"/>
+      <c r="C25" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="14" t="s">
-        <v>305</v>
-      </c>
+      <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="28"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="24"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="15"/>
+      <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="28"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="24"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="16"/>
+      <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="G28" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="G28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="14" t="s">
-        <v>305</v>
-      </c>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="18"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="4" t="s">
+      <c r="A29" s="35"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="G29" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="H29" s="4" t="s">
+      <c r="I29" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="18"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="4" t="s">
+      <c r="A30" s="35"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="G30" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="H30" s="4" t="s">
+      <c r="I30" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="I30" s="20"/>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="18"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="G31" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="18"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="4" t="s">
+      <c r="A32" s="35"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="G32" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="H32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="I32" s="14" t="s">
-        <v>306</v>
-      </c>
     </row>
     <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="18"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="4" t="s">
+      <c r="A33" s="35"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="H33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="18"/>
-      <c r="B34" s="14" t="s">
+      <c r="A34" s="35"/>
+      <c r="B34" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="I34" s="31" t="s">
-        <v>353</v>
-      </c>
     </row>
     <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="18"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="4" t="s">
+      <c r="A35" s="35"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="18"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="4" t="s">
+      <c r="A36" s="35"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="I36" s="21"/>
     </row>
     <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="4" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="I37" s="31" t="s">
-        <v>354</v>
-      </c>
     </row>
     <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="18"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="9" t="s">
+      <c r="A38" s="35"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="18"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="4" t="s">
+      <c r="A39" s="35"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="18"/>
-      <c r="B40" s="14" t="s">
+      <c r="A40" s="35"/>
+      <c r="B40" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="I40" s="31" t="s">
-        <v>374</v>
-      </c>
     </row>
     <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="18"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="4" t="s">
+      <c r="A41" s="35"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="18"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="4" t="s">
+      <c r="A42" s="35"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I42" s="31" t="s">
-        <v>375</v>
-      </c>
     </row>
     <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="18"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="4" t="s">
+      <c r="A43" s="35"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="I43" s="20"/>
     </row>
     <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="19"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="4" t="s">
+      <c r="A44" s="36"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="G44" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="I45" s="10"/>
     </row>
     <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="35"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="4" t="s">
+      <c r="A46" s="17"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="G46" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="I46" s="10"/>
     </row>
     <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="35"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="4" t="s">
+      <c r="A47" s="17"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="G47" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I47" s="10"/>
     </row>
     <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="35"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="10"/>
+      <c r="A48" s="17"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="35"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="10"/>
+      <c r="A49" s="17"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="35"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="10"/>
+      <c r="A50" s="17"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="35"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="10"/>
+      <c r="A51" s="17"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="35"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="10"/>
+      <c r="A52" s="17"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="35"/>
-      <c r="B53" s="31" t="s">
+      <c r="A53" s="17"/>
+      <c r="B53" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="C53" s="4"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="10"/>
+      <c r="C53" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="35"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="10"/>
+      <c r="A54" s="17"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="35"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="10"/>
+      <c r="A55" s="17"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="35"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="10"/>
+      <c r="A56" s="17"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="35"/>
-      <c r="B57" s="31" t="s">
+      <c r="A57" s="17"/>
+      <c r="B57" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="10"/>
+      <c r="C57" s="19" t="s">
+        <v>459</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="35"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="10"/>
+      <c r="A58" s="17"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="35"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="10"/>
+      <c r="A59" s="17"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="35"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="1"/>
+      <c r="A60" s="17"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="39" t="s">
+        <v>477</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>471</v>
+      </c>
       <c r="H60" s="1"/>
-      <c r="I60" s="10"/>
+      <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="35"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="1"/>
+      <c r="A61" s="17"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>474</v>
+      </c>
       <c r="H61" s="1"/>
-      <c r="I61" s="10"/>
+      <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="35"/>
-      <c r="B62" s="31" t="s">
+      <c r="A62" s="17"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="17"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="17"/>
+      <c r="B64" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="10"/>
-    </row>
-    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="35"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="10"/>
-    </row>
-    <row r="64" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="35"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="4"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="1"/>
       <c r="F64" s="4"/>
-      <c r="G64" s="1"/>
+      <c r="G64" s="4"/>
       <c r="H64" s="1"/>
-      <c r="I64" s="10"/>
-    </row>
-    <row r="65" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="35"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="4"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="17"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="1"/>
       <c r="F65" s="4"/>
-      <c r="G65" s="1"/>
+      <c r="G65" s="4"/>
       <c r="H65" s="1"/>
-      <c r="I65" s="10"/>
+      <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="35"/>
-      <c r="B66" s="31" t="s">
+      <c r="A66" s="17"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="17"/>
+      <c r="B67" s="15"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="17"/>
+      <c r="B68" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="C66" s="4"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-      <c r="I66" s="10"/>
-    </row>
-    <row r="67" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="35"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="10"/>
-    </row>
-    <row r="68" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="36"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="4"/>
+      <c r="C68" s="10"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="1"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="1"/>
+      <c r="G68" s="4"/>
       <c r="H68" s="1"/>
-      <c r="I68" s="10"/>
-    </row>
-    <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="29" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="17"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="1"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+      <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="30"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>118</v>
-      </c>
+    <row r="70" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="18"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="1"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
+      <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="30"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="4" t="s">
-        <v>109</v>
+      <c r="A71" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E71" s="1"/>
-      <c r="F71" s="4"/>
+        <v>107</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" s="1"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="1"/>
+      <c r="I71" s="4"/>
     </row>
     <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="30"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="4" t="s">
-        <v>110</v>
-      </c>
+      <c r="A72" s="27"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="14"/>
       <c r="D72" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E72" s="1"/>
-      <c r="F72" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F72" s="1"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="1"/>
+      <c r="I72" s="4"/>
     </row>
     <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="30"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="4" t="s">
+      <c r="A73" s="27"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F73" s="1"/>
+      <c r="G73" s="4"/>
+    </row>
+    <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="27"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="E74" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E73" s="1"/>
-      <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="1"/>
-    </row>
-    <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="30"/>
-      <c r="B74" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E74" s="1"/>
-      <c r="F74" s="4"/>
+      <c r="F74" s="1"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="1"/>
+      <c r="I74" s="4"/>
     </row>
     <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="30"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="4" t="s">
-        <v>110</v>
+      <c r="A75" s="27"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="11" t="s">
+        <v>426</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E75" s="1"/>
-      <c r="F75" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F75" s="1"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="1"/>
+      <c r="I75" s="4"/>
     </row>
     <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="30"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="4" t="s">
-        <v>113</v>
+      <c r="A76" s="27"/>
+      <c r="B76" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>435</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E76" s="1"/>
-      <c r="F76" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F76" s="1"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="1"/>
+      <c r="I76" s="4"/>
     </row>
     <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="30"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="A77" s="27"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="14"/>
       <c r="D77" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E77" s="1"/>
-      <c r="F77" s="4"/>
+        <v>110</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F77" s="1"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="1"/>
+      <c r="I77" s="4"/>
     </row>
     <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="30"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="4" t="s">
-        <v>74</v>
-      </c>
+      <c r="A78" s="27"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="14"/>
       <c r="D78" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="E78" s="1"/>
-      <c r="F78" s="4"/>
+        <v>113</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F78" s="1"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="1"/>
+      <c r="I78" s="4"/>
     </row>
     <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="30"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="A79" s="27"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="14"/>
       <c r="D79" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E79" s="1"/>
-      <c r="F79" s="4"/>
+        <v>114</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F79" s="1"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="1"/>
+      <c r="I79" s="4"/>
     </row>
     <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="30"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="A80" s="27"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="15"/>
       <c r="D80" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="F80" s="1"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="1"/>
+      <c r="I80" s="4"/>
     </row>
     <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="30"/>
-      <c r="B81" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E81" s="1"/>
-      <c r="F81" s="4"/>
+      <c r="A81" s="27"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" s="1"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="1"/>
+      <c r="I81" s="4"/>
     </row>
     <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="30"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E82" s="1"/>
-      <c r="F82" s="4"/>
+      <c r="A82" s="27"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F82" s="1"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="1"/>
+      <c r="I82" s="4"/>
     </row>
     <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="30"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E83" s="1"/>
-      <c r="F83" s="4"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F83" s="1"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="1"/>
+      <c r="I83" s="4"/>
     </row>
     <row r="84" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="30"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E84" s="1"/>
-      <c r="F84" s="4"/>
+      <c r="A84" s="27"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F84" s="1"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="1"/>
+      <c r="I84" s="4"/>
     </row>
     <row r="85" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="30"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="D85" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E85" s="1"/>
-      <c r="F85" s="4"/>
+      <c r="A85" s="27"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="F85" s="1"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="1"/>
+      <c r="I85" s="4"/>
     </row>
     <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="30"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="4"/>
+      <c r="A86" s="27"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F86" s="1"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
-      <c r="I86" s="1"/>
+      <c r="I86" s="4"/>
     </row>
     <row r="87" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="30"/>
-      <c r="B87" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E87" s="1"/>
-      <c r="F87" s="4"/>
+      <c r="A87" s="27"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F87" s="1"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
-      <c r="I87" s="1"/>
+      <c r="I87" s="4"/>
     </row>
     <row r="88" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="30"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E88" s="1"/>
-      <c r="F88" s="4"/>
+      <c r="A88" s="27"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F88" s="1"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="1"/>
+      <c r="I88" s="4"/>
     </row>
     <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="30"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="4"/>
+      <c r="A89" s="27"/>
+      <c r="B89" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" s="1"/>
+      <c r="D89" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F89" s="1"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="1"/>
+      <c r="I89" s="4"/>
     </row>
     <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="30"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="4"/>
+      <c r="A90" s="27"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F90" s="1"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
-      <c r="I90" s="1"/>
+      <c r="I90" s="4"/>
     </row>
     <row r="91" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="30"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="4"/>
+      <c r="A91" s="27"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F91" s="1"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
-      <c r="I91" s="1"/>
+      <c r="I91" s="4"/>
     </row>
     <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="30"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="4"/>
+      <c r="A92" s="27"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F92" s="1"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="1"/>
+      <c r="I92" s="4"/>
     </row>
     <row r="93" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="30"/>
-      <c r="B93" s="23" t="s">
+      <c r="A93" s="27"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F93" s="1"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+    </row>
+    <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="27"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F94" s="1"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+    </row>
+    <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="27"/>
+      <c r="B95" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-    </row>
-    <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="30"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="30"/>
-      <c r="B95" s="23"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
@@ -3924,8 +4437,8 @@
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="30"/>
-      <c r="B96" s="23"/>
+      <c r="A96" s="27"/>
+      <c r="B96" s="25"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -3935,8 +4448,8 @@
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="30"/>
-      <c r="B97" s="23"/>
+      <c r="A97" s="27"/>
+      <c r="B97" s="25"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -3946,8 +4459,8 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="30"/>
-      <c r="B98" s="23"/>
+      <c r="A98" s="27"/>
+      <c r="B98" s="25"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -3957,10 +4470,8 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="30"/>
-      <c r="B99" s="23" t="s">
-        <v>106</v>
-      </c>
+      <c r="A99" s="27"/>
+      <c r="B99" s="25"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -3970,8 +4481,8 @@
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="30"/>
-      <c r="B100" s="23"/>
+      <c r="A100" s="27"/>
+      <c r="B100" s="25"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -3981,8 +4492,10 @@
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="30"/>
-      <c r="B101" s="23"/>
+      <c r="A101" s="27"/>
+      <c r="B101" s="25" t="s">
+        <v>106</v>
+      </c>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -3992,8 +4505,8 @@
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="30"/>
-      <c r="B102" s="23"/>
+      <c r="A102" s="27"/>
+      <c r="B102" s="25"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4003,8 +4516,8 @@
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="30"/>
-      <c r="B103" s="23"/>
+      <c r="A103" s="27"/>
+      <c r="B103" s="25"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4014,18 +4527,10 @@
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="A104" s="27"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -4034,13 +4539,9 @@
     </row>
     <row r="105" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="27"/>
-      <c r="B105" s="13"/>
-      <c r="C105" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D105" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="B105" s="25"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -4048,1028 +4549,1073 @@
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="27"/>
-      <c r="B106" s="13"/>
-      <c r="C106" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="A106" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C106" s="1"/>
       <c r="D106" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E106" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="27"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="A107" s="30"/>
+      <c r="B107" s="24"/>
+      <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E107" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="27"/>
-      <c r="B108" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="A108" s="30"/>
+      <c r="B108" s="24"/>
+      <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E108" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="27"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E109" s="1"/>
+      <c r="A109" s="30"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="27"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="1" t="s">
-        <v>84</v>
-      </c>
+      <c r="A110" s="30"/>
+      <c r="B110" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E110" s="1"/>
+        <v>81</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="27"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A111" s="30"/>
+      <c r="B111" s="24"/>
+      <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E111" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>317</v>
+      </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="27"/>
-      <c r="B112" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="A112" s="30"/>
+      <c r="B112" s="24"/>
+      <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E112" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="27"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A113" s="30"/>
+      <c r="B113" s="24"/>
+      <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E113" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>87</v>
+      </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="27"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="1" t="s">
-        <v>92</v>
-      </c>
+      <c r="A114" s="30"/>
+      <c r="B114" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E114" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="27"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="1" t="s">
-        <v>93</v>
-      </c>
+      <c r="A115" s="30"/>
+      <c r="B115" s="24"/>
+      <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E115" s="1"/>
+        <v>90</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>91</v>
+      </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="27"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="E116" s="1"/>
+      <c r="A116" s="30"/>
+      <c r="B116" s="24"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="27"/>
-      <c r="B117" s="13"/>
-      <c r="C117" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="E117" s="1"/>
+      <c r="A117" s="30"/>
+      <c r="B117" s="24"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="A118" s="30"/>
+      <c r="B118" s="24"/>
+      <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E118" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="26"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="A119" s="30"/>
+      <c r="B119" s="24"/>
+      <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E119" s="1"/>
+        <v>96</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="26"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="1" t="s">
-        <v>51</v>
-      </c>
+      <c r="A120" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B120" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E120" s="1"/>
+        <v>53</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="26"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="A121" s="29"/>
+      <c r="B121" s="24"/>
+      <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E121" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="26"/>
-      <c r="B122" s="13"/>
-      <c r="C122" s="1" t="s">
-        <v>56</v>
-      </c>
+      <c r="A122" s="29"/>
+      <c r="B122" s="24"/>
+      <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E122" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="26"/>
-      <c r="B123" s="13"/>
-      <c r="C123" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E123" s="1"/>
+      <c r="A123" s="29"/>
+      <c r="B123" s="24"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="26"/>
-      <c r="B124" s="13" t="s">
+      <c r="A124" s="29"/>
+      <c r="B124" s="24"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="29"/>
+      <c r="B125" s="24"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="29"/>
+      <c r="B126" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C126" s="1"/>
+      <c r="D126" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="E126" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E124" s="1"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="26"/>
-      <c r="B125" s="13"/>
-      <c r="C125" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E125" s="1"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="1"/>
-    </row>
-    <row r="126" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="26"/>
-      <c r="B126" s="13"/>
-      <c r="C126" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E126" s="1"/>
-      <c r="F126" s="2"/>
+      <c r="F126" s="1"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
-      <c r="I126" s="1"/>
+      <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="26"/>
-      <c r="B127" s="13"/>
-      <c r="C127" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D127" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="E127" s="1"/>
-      <c r="F127" s="2"/>
+      <c r="A127" s="29"/>
+      <c r="B127" s="24"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F127" s="1"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
-      <c r="I127" s="1"/>
+      <c r="I127" s="2"/>
     </row>
     <row r="128" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="26"/>
-      <c r="B128" s="13"/>
-      <c r="C128" s="2" t="s">
-        <v>67</v>
-      </c>
+      <c r="A128" s="29"/>
+      <c r="B128" s="24"/>
+      <c r="C128" s="1"/>
       <c r="D128" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E128" s="1"/>
-      <c r="F128" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F128" s="1"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2"/>
-      <c r="I128" s="1"/>
+      <c r="I128" s="2"/>
     </row>
     <row r="129" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="26"/>
-      <c r="B129" s="13"/>
-      <c r="C129" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="A129" s="29"/>
+      <c r="B129" s="24"/>
+      <c r="C129" s="1"/>
       <c r="D129" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E129" s="1"/>
-      <c r="F129" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F129" s="1"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2"/>
-      <c r="I129" s="1"/>
+      <c r="I129" s="2"/>
     </row>
     <row r="130" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>212</v>
-      </c>
+      <c r="A130" s="29"/>
+      <c r="B130" s="24"/>
+      <c r="C130" s="1"/>
       <c r="D130" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="F130" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F130" s="1"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2"/>
-      <c r="I130" s="1"/>
+      <c r="I130" s="2"/>
     </row>
     <row r="131" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="22"/>
-      <c r="B131" s="13"/>
-      <c r="C131" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E131" s="1"/>
-      <c r="F131" s="2"/>
+      <c r="A131" s="29"/>
+      <c r="B131" s="24"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F131" s="1"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2"/>
-      <c r="I131" s="1" t="s">
-        <v>254</v>
-      </c>
+      <c r="I131" s="2"/>
     </row>
     <row r="132" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="22"/>
-      <c r="B132" s="13"/>
-      <c r="C132" s="2" t="s">
-        <v>252</v>
-      </c>
+      <c r="A132" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="C132" s="1"/>
       <c r="D132" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F132" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
-      <c r="I132" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="I132" s="2"/>
     </row>
     <row r="133" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="22"/>
-      <c r="B133" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>253</v>
+      <c r="A133" s="37"/>
+      <c r="B133" s="24"/>
+      <c r="C133" s="1" t="s">
+        <v>254</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="E133" s="1"/>
-      <c r="F133" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F133" s="1"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
-      <c r="I133" s="1"/>
+      <c r="I133" s="2"/>
     </row>
     <row r="134" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="22"/>
-      <c r="B134" s="13"/>
-      <c r="C134" s="2" t="s">
-        <v>219</v>
+      <c r="A134" s="37"/>
+      <c r="B134" s="24"/>
+      <c r="C134" s="1" t="s">
+        <v>255</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F134" s="2"/>
+        <v>252</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
-      <c r="I134" s="1"/>
+      <c r="I134" s="2"/>
     </row>
     <row r="135" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="22"/>
-      <c r="B135" s="13"/>
-      <c r="C135" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="A135" s="37"/>
+      <c r="B135" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C135" s="1"/>
       <c r="D135" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="F135" s="2"/>
+        <v>253</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F135" s="1"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
-      <c r="I135" s="1"/>
+      <c r="I135" s="2"/>
     </row>
     <row r="136" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="25" t="s">
+      <c r="A136" s="37"/>
+      <c r="B136" s="24"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="37"/>
+      <c r="B137" s="24"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+    </row>
+    <row r="138" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B138" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="C138" s="1"/>
+      <c r="D138" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="E138" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
-      <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="25"/>
-      <c r="B137" s="13"/>
-      <c r="C137" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="25"/>
-      <c r="B138" s="13"/>
-      <c r="C138" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E138" s="1"/>
       <c r="F138" s="1"/>
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="25"/>
-      <c r="B139" s="13"/>
-      <c r="C139" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A139" s="31"/>
+      <c r="B139" s="24"/>
+      <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E139" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="25"/>
-      <c r="B140" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A140" s="31"/>
+      <c r="B140" s="24"/>
+      <c r="C140" s="1"/>
       <c r="D140" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E140" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
     <row r="141" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="25"/>
-      <c r="B141" s="13"/>
-      <c r="C141" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A141" s="31"/>
+      <c r="B141" s="24"/>
+      <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E141" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
     <row r="142" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="25"/>
-      <c r="B142" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="A142" s="31"/>
+      <c r="B142" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142" s="1"/>
       <c r="D142" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E142" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
     <row r="143" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="25"/>
-      <c r="B143" s="13"/>
-      <c r="C143" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D143" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="E143" s="1"/>
+      <c r="A143" s="31"/>
+      <c r="B143" s="24"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
     <row r="144" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="25"/>
-      <c r="B144" s="13"/>
-      <c r="C144" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A144" s="31"/>
+      <c r="B144" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E144" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
     <row r="145" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="25"/>
-      <c r="B145" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A145" s="31"/>
+      <c r="B145" s="24"/>
+      <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E145" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
     <row r="146" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="25"/>
-      <c r="B146" s="13"/>
-      <c r="C146" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="A146" s="31"/>
+      <c r="B146" s="24"/>
+      <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E146" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
     <row r="147" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="25"/>
-      <c r="B147" s="13"/>
-      <c r="C147" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A147" s="31"/>
+      <c r="B147" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E147" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
     <row r="148" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="25"/>
-      <c r="B148" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A148" s="31"/>
+      <c r="B148" s="24"/>
+      <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E148" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
     <row r="149" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="25"/>
-      <c r="B149" s="13"/>
-      <c r="C149" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A149" s="31"/>
+      <c r="B149" s="24"/>
+      <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E149" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
     <row r="150" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="25"/>
-      <c r="B150" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A150" s="31"/>
+      <c r="B150" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C150" s="1"/>
       <c r="D150" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E150" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
     <row r="151" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="25"/>
-      <c r="B151" s="13"/>
-      <c r="C151" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A151" s="31"/>
+      <c r="B151" s="24"/>
+      <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E151" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
     <row r="152" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="25"/>
-      <c r="B152" s="13"/>
-      <c r="C152" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="A152" s="31"/>
+      <c r="B152" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E152" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
     <row r="153" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="25"/>
-      <c r="B153" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="A153" s="31"/>
+      <c r="B153" s="24"/>
+      <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E153" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="25"/>
-      <c r="B154" s="13"/>
-      <c r="C154" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A154" s="31"/>
+      <c r="B154" s="24"/>
+      <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E154" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
     <row r="155" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="25"/>
-      <c r="B155" s="13"/>
-      <c r="C155" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="A155" s="31"/>
+      <c r="B155" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E155" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
     <row r="156" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="24" t="s">
+      <c r="A156" s="31"/>
+      <c r="B156" s="24"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="31"/>
+      <c r="B157" s="24"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B158" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C158" s="1"/>
+      <c r="D158" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="E158" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E156" s="1"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2" t="s">
+      <c r="F158" s="1"/>
+      <c r="G158" s="2"/>
+      <c r="H158" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="H156" s="2" t="s">
+      <c r="I158" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="I156" s="1"/>
-    </row>
-    <row r="157" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="24"/>
-      <c r="B157" s="6" t="s">
+    </row>
+    <row r="159" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="38"/>
+      <c r="B159" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C159" s="1"/>
+      <c r="D159" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="E159" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="F159" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="F157" s="1"/>
-      <c r="G157" s="4" t="s">
+      <c r="G159" s="1"/>
+      <c r="H159" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="H157" s="4" t="s">
+      <c r="I159" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="I157" s="1"/>
-    </row>
-    <row r="158" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="24"/>
-      <c r="B158" s="23" t="s">
+    </row>
+    <row r="160" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="38"/>
+      <c r="B160" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C160" s="1"/>
+      <c r="D160" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="D158" s="4" t="s">
+      <c r="E160" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="F160" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F158" s="1"/>
-      <c r="G158" s="4" t="s">
+      <c r="G160" s="1"/>
+      <c r="H160" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="H158" s="4" t="s">
+      <c r="I160" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="I158" s="1"/>
-    </row>
-    <row r="159" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="24"/>
-      <c r="B159" s="23"/>
-      <c r="C159" s="4" t="s">
+    </row>
+    <row r="161" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="38"/>
+      <c r="B161" s="25"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D159" s="4" t="s">
+      <c r="E161" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E159" s="1"/>
-      <c r="F159" s="1"/>
-      <c r="G159" s="4" t="s">
+      <c r="F161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="H159" s="4" t="s">
+      <c r="I161" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="I159" s="1"/>
-    </row>
-    <row r="160" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="11" t="s">
+    </row>
+    <row r="162" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B160" s="13" t="s">
+      <c r="B162" s="24" t="s">
         <v>259</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C162" s="1"/>
+      <c r="D162" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D160" s="4" t="s">
+      <c r="E162" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E160" s="1"/>
-      <c r="F160" s="4" t="s">
+      <c r="F162" s="1"/>
+      <c r="G162" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="G160" s="1"/>
-      <c r="H160" s="1"/>
-      <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="12"/>
-      <c r="B161" s="13"/>
-      <c r="C161" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E161" s="1"/>
-      <c r="F161" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="G161" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="H161" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="12"/>
-      <c r="B162" s="13"/>
-      <c r="C162" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="E162" s="1"/>
-      <c r="F162" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="G162" s="1"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
     <row r="163" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="12"/>
-      <c r="B163" s="8" t="s">
+      <c r="A163" s="33"/>
+      <c r="B163" s="24"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F163" s="1"/>
+      <c r="G163" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I163" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="33"/>
+      <c r="B164" s="24"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F164" s="1"/>
+      <c r="G164" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="H164" s="1"/>
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="33"/>
+      <c r="B165" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C165" s="1"/>
+      <c r="D165" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="D163" s="4" t="s">
+      <c r="E165" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E163" s="1"/>
-      <c r="F163" s="4" t="s">
+      <c r="F165" s="1"/>
+      <c r="G165" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="G163" s="4" t="s">
+      <c r="H165" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="H163" s="4" t="s">
+      <c r="I165" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="I163" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="B62:B65"/>
-    <mergeCell ref="B66:B68"/>
-    <mergeCell ref="A45:A68"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="I42:I44"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="I34:I36"/>
-    <mergeCell ref="I37:I39"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="A69:A103"/>
-    <mergeCell ref="B69:B73"/>
-    <mergeCell ref="B74:B80"/>
-    <mergeCell ref="B81:B86"/>
-    <mergeCell ref="B87:B92"/>
-    <mergeCell ref="B93:B98"/>
+  <mergeCells count="68">
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="A162:A165"/>
+    <mergeCell ref="B162:B164"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A28:A44"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B132:B134"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="A132:A137"/>
+    <mergeCell ref="B160:B161"/>
+    <mergeCell ref="A158:A161"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="A138:A157"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B152:B154"/>
+    <mergeCell ref="B120:B125"/>
+    <mergeCell ref="B126:B131"/>
+    <mergeCell ref="A120:A131"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="B114:B119"/>
+    <mergeCell ref="A106:A119"/>
     <mergeCell ref="A2:A27"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B11"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="B16:B20"/>
     <mergeCell ref="B21:B27"/>
-    <mergeCell ref="B118:B123"/>
-    <mergeCell ref="B124:B129"/>
-    <mergeCell ref="A118:A129"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="B108:B111"/>
-    <mergeCell ref="B112:B117"/>
-    <mergeCell ref="A104:A117"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="A136:A155"/>
-    <mergeCell ref="B136:B139"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B142:B144"/>
-    <mergeCell ref="B145:B147"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="B150:B152"/>
-    <mergeCell ref="A160:A163"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A28:A44"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="I21:I24"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="B133:B135"/>
-    <mergeCell ref="A130:A135"/>
-    <mergeCell ref="B158:B159"/>
-    <mergeCell ref="A156:A159"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="A71:A105"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="B76:B82"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A45:A70"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C62"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/内科学笔记/病和方剂汇总.xlsx
+++ b/内科学笔记/病和方剂汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="507">
   <si>
     <t xml:space="preserve">肺系统 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2010,6 +2010,106 @@
   </si>
   <si>
     <t>重症</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛温解表剂证候辨识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外感风寒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶寒发热，脉浮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无汗而喘，表实证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻黄汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头痛恶风汗出，表虚证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桂枝汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痰多而稀，或兼水肿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小青龙汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辛凉解表剂证候辨识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风热壅肺，风寒化热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发热重，恶寒轻，口渴脉浮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但咳，身热不甚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑菊饮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无汗或有汗不畅，咽痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银翘散</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发热重，咳喘，苔薄黄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻杏石甘汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒下证候辨识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大便秘结，苔黄厚，脉实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大承气汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大黄牡丹汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>里热积滞证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痞、满、燥、实四证及苔黄燥、脉实</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右下腹疼痛拒按，苔薄腻而黄，脉滑数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2082,7 +2182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2149,8 +2249,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2219,13 +2325,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2265,6 +2397,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2291,6 +2429,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2343,8 +2484,11 @@
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2615,7 +2759,7 @@
   </sheetPr>
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
@@ -2663,10 +2807,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="27" t="s">
         <v>143</v>
       </c>
       <c r="C2" s="1"/>
@@ -2684,8 +2828,8 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="28"/>
-      <c r="B3" s="24"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>149</v>
@@ -2701,8 +2845,8 @@
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="28"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>152</v>
@@ -2716,11 +2860,11 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="28"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="31"/>
+      <c r="B5" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="21" t="s">
         <v>272</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2737,9 +2881,9 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="28"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="20"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="22"/>
       <c r="D6" s="1" t="s">
         <v>156</v>
       </c>
@@ -2754,9 +2898,9 @@
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="28"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="21"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="1" t="s">
         <v>158</v>
       </c>
@@ -2771,9 +2915,9 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="28"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27" t="s">
         <v>208</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2790,9 +2934,9 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="28"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="1" t="s">
         <v>162</v>
       </c>
@@ -2807,9 +2951,9 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="28"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="1" t="s">
         <v>164</v>
       </c>
@@ -2824,9 +2968,9 @@
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="1" t="s">
         <v>166</v>
       </c>
@@ -2841,8 +2985,8 @@
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="28"/>
-      <c r="B12" s="24" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="27" t="s">
         <v>147</v>
       </c>
       <c r="C12" s="1"/>
@@ -2858,8 +3002,8 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="28"/>
-      <c r="B13" s="24"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>169</v>
@@ -2873,8 +3017,8 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="28"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>170</v>
@@ -2890,8 +3034,8 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="28"/>
-      <c r="B15" s="24"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>172</v>
@@ -2905,11 +3049,11 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="28"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="31"/>
+      <c r="B16" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="27" t="s">
         <v>210</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2926,9 +3070,9 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="28"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="1" t="s">
         <v>177</v>
       </c>
@@ -2943,9 +3087,9 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="28"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="22" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="25" t="s">
         <v>334</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2962,9 +3106,9 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="28"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="1" t="s">
         <v>181</v>
       </c>
@@ -2979,9 +3123,9 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="28"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="23"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="1" t="s">
         <v>183</v>
       </c>
@@ -2996,11 +3140,11 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="28"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="31"/>
+      <c r="B21" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="21" t="s">
         <v>306</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -3017,9 +3161,9 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="28"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="16"/>
       <c r="D22" s="1" t="s">
         <v>185</v>
       </c>
@@ -3034,9 +3178,9 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="28"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="14"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="16"/>
       <c r="D23" s="1" t="s">
         <v>162</v>
       </c>
@@ -3051,9 +3195,9 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="28"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="15"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="1" t="s">
         <v>188</v>
       </c>
@@ -3068,9 +3212,9 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="28"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="19" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="21" t="s">
         <v>305</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -3087,9 +3231,9 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="20"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="1" t="s">
         <v>179</v>
       </c>
@@ -3104,9 +3248,9 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="28"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="21"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="1" t="s">
         <v>183</v>
       </c>
@@ -3121,13 +3265,13 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="21" t="s">
         <v>278</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="21" t="s">
         <v>305</v>
       </c>
       <c r="D28" s="4" t="s">
@@ -3148,9 +3292,9 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="14"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="4" t="s">
         <v>280</v>
       </c>
@@ -3171,9 +3315,9 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="35"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="14"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="16"/>
       <c r="D30" s="4" t="s">
         <v>312</v>
       </c>
@@ -3194,9 +3338,9 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="35"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="15"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="4" t="s">
         <v>282</v>
       </c>
@@ -3217,9 +3361,9 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="35"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="19" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="21" t="s">
         <v>306</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -3242,9 +3386,9 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="35"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="15"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="4" t="s">
         <v>284</v>
       </c>
@@ -3265,11 +3409,11 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="35"/>
-      <c r="B34" s="19" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="21" t="s">
         <v>290</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="15" t="s">
         <v>353</v>
       </c>
       <c r="D34" s="4" t="s">
@@ -3290,9 +3434,9 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="35"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="14"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="16"/>
       <c r="D35" s="4" t="s">
         <v>285</v>
       </c>
@@ -3313,9 +3457,9 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="35"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="15"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="4" t="s">
         <v>286</v>
       </c>
@@ -3336,9 +3480,9 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="35"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="13" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="15" t="s">
         <v>354</v>
       </c>
       <c r="D37" s="4" t="s">
@@ -3361,9 +3505,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="35"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="14"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="9" t="s">
         <v>288</v>
       </c>
@@ -3384,9 +3528,9 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="35"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="15"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="4" t="s">
         <v>289</v>
       </c>
@@ -3407,11 +3551,11 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="35"/>
-      <c r="B40" s="19" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="15" t="s">
         <v>374</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -3434,9 +3578,9 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="35"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="15"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="17"/>
       <c r="D41" s="4" t="s">
         <v>293</v>
       </c>
@@ -3457,9 +3601,9 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="35"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="13" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="15" t="s">
         <v>375</v>
       </c>
       <c r="D42" s="4" t="s">
@@ -3480,9 +3624,9 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="35"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="14"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="16"/>
       <c r="D43" s="4" t="s">
         <v>294</v>
       </c>
@@ -3503,9 +3647,9 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="36"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="15"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="17"/>
       <c r="D44" s="4" t="s">
         <v>295</v>
       </c>
@@ -3526,13 +3670,13 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="21" t="s">
         <v>388</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="15" t="s">
         <v>435</v>
       </c>
       <c r="D45" s="4" t="s">
@@ -3555,9 +3699,9 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="17"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="14"/>
+      <c r="A46" s="19"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="16"/>
       <c r="D46" s="4" t="s">
         <v>394</v>
       </c>
@@ -3578,9 +3722,9 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="17"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="14"/>
+      <c r="A47" s="19"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="16"/>
       <c r="D47" s="4" t="s">
         <v>404</v>
       </c>
@@ -3601,9 +3745,9 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="17"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="14"/>
+      <c r="A48" s="19"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="4" t="s">
         <v>432</v>
       </c>
@@ -3624,9 +3768,9 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="17"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="14"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="16"/>
       <c r="D49" s="1" t="s">
         <v>433</v>
       </c>
@@ -3647,9 +3791,9 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="17"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="15"/>
+      <c r="A50" s="19"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="4" t="s">
         <v>434</v>
       </c>
@@ -3670,9 +3814,9 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="17"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="13" t="s">
+      <c r="A51" s="19"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="15" t="s">
         <v>426</v>
       </c>
       <c r="D51" s="4" t="s">
@@ -3695,9 +3839,9 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="17"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="15"/>
+      <c r="A52" s="19"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="4" t="s">
         <v>415</v>
       </c>
@@ -3718,11 +3862,11 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="17"/>
-      <c r="B53" s="13" t="s">
+      <c r="A53" s="19"/>
+      <c r="B53" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="21" t="s">
         <v>435</v>
       </c>
       <c r="D53" s="4" t="s">
@@ -3745,9 +3889,9 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="17"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="21"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="23"/>
       <c r="D54" s="4" t="s">
         <v>441</v>
       </c>
@@ -3768,9 +3912,9 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="17"/>
-      <c r="B55" s="14"/>
-      <c r="C55" s="13" t="s">
+      <c r="A55" s="19"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="15" t="s">
         <v>426</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -3793,9 +3937,9 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="17"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="4" t="s">
         <v>452</v>
       </c>
@@ -3816,11 +3960,11 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="17"/>
-      <c r="B57" s="13" t="s">
+      <c r="A57" s="19"/>
+      <c r="B57" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="21" t="s">
         <v>459</v>
       </c>
       <c r="D57" s="4" t="s">
@@ -3843,9 +3987,9 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="17"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="20"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="22"/>
       <c r="D58" s="4" t="s">
         <v>432</v>
       </c>
@@ -3866,9 +4010,9 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="17"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="21"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="23"/>
       <c r="D59" s="4" t="s">
         <v>462</v>
       </c>
@@ -3889,9 +4033,9 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="17"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="39" t="s">
+      <c r="A60" s="19"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="24" t="s">
         <v>477</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -3910,9 +4054,9 @@
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="17"/>
-      <c r="B61" s="14"/>
-      <c r="C61" s="14"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="4" t="s">
         <v>472</v>
       </c>
@@ -3929,9 +4073,9 @@
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="17"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="17"/>
       <c r="D62" s="4" t="s">
         <v>475</v>
       </c>
@@ -3944,8 +4088,8 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="17"/>
-      <c r="B63" s="15"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="17"/>
       <c r="C63" s="12" t="s">
         <v>478</v>
       </c>
@@ -3963,8 +4107,8 @@
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="17"/>
-      <c r="B64" s="13" t="s">
+      <c r="A64" s="19"/>
+      <c r="B64" s="15" t="s">
         <v>391</v>
       </c>
       <c r="C64" s="10"/>
@@ -3976,8 +4120,8 @@
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="17"/>
-      <c r="B65" s="14"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="10"/>
       <c r="D65" s="4"/>
       <c r="E65" s="1"/>
@@ -3987,8 +4131,8 @@
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="17"/>
-      <c r="B66" s="14"/>
+      <c r="A66" s="19"/>
+      <c r="B66" s="16"/>
       <c r="C66" s="10"/>
       <c r="D66" s="4"/>
       <c r="E66" s="1"/>
@@ -3998,8 +4142,8 @@
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="17"/>
-      <c r="B67" s="15"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="17"/>
       <c r="C67" s="10"/>
       <c r="D67" s="4"/>
       <c r="E67" s="1"/>
@@ -4009,8 +4153,8 @@
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="17"/>
-      <c r="B68" s="13" t="s">
+      <c r="A68" s="19"/>
+      <c r="B68" s="15" t="s">
         <v>392</v>
       </c>
       <c r="C68" s="10"/>
@@ -4022,8 +4166,8 @@
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="17"/>
-      <c r="B69" s="14"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="10"/>
       <c r="D69" s="4"/>
       <c r="E69" s="1"/>
@@ -4033,8 +4177,8 @@
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="18"/>
-      <c r="B70" s="15"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="17"/>
       <c r="C70" s="10"/>
       <c r="D70" s="4"/>
       <c r="E70" s="1"/>
@@ -4044,13 +4188,13 @@
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="26" t="s">
+      <c r="A71" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="B71" s="25" t="s">
+      <c r="B71" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="15" t="s">
         <v>435</v>
       </c>
       <c r="D71" s="4" t="s">
@@ -4065,9 +4209,9 @@
       <c r="I71" s="4"/>
     </row>
     <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="27"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="14"/>
+      <c r="A72" s="30"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="16"/>
       <c r="D72" s="4" t="s">
         <v>108</v>
       </c>
@@ -4080,9 +4224,9 @@
       <c r="I72" s="4"/>
     </row>
     <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="27"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="14"/>
+      <c r="A73" s="30"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="16"/>
       <c r="D73" s="4" t="s">
         <v>110</v>
       </c>
@@ -4093,9 +4237,9 @@
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="27"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="15"/>
+      <c r="A74" s="30"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="17"/>
       <c r="D74" s="4" t="s">
         <v>111</v>
       </c>
@@ -4108,8 +4252,8 @@
       <c r="I74" s="4"/>
     </row>
     <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="27"/>
-      <c r="B75" s="25"/>
+      <c r="A75" s="30"/>
+      <c r="B75" s="28"/>
       <c r="C75" s="11" t="s">
         <v>426</v>
       </c>
@@ -4125,11 +4269,11 @@
       <c r="I75" s="4"/>
     </row>
     <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="27"/>
-      <c r="B76" s="25" t="s">
+      <c r="A76" s="30"/>
+      <c r="B76" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="15" t="s">
         <v>435</v>
       </c>
       <c r="D76" s="4" t="s">
@@ -4144,9 +4288,9 @@
       <c r="I76" s="4"/>
     </row>
     <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="27"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="14"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="16"/>
       <c r="D77" s="4" t="s">
         <v>110</v>
       </c>
@@ -4159,9 +4303,9 @@
       <c r="I77" s="4"/>
     </row>
     <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="27"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="14"/>
+      <c r="A78" s="30"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="16"/>
       <c r="D78" s="4" t="s">
         <v>113</v>
       </c>
@@ -4174,9 +4318,9 @@
       <c r="I78" s="4"/>
     </row>
     <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="27"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="14"/>
+      <c r="A79" s="30"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="16"/>
       <c r="D79" s="4" t="s">
         <v>114</v>
       </c>
@@ -4189,9 +4333,9 @@
       <c r="I79" s="4"/>
     </row>
     <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="27"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="15"/>
+      <c r="A80" s="30"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="17"/>
       <c r="D80" s="4" t="s">
         <v>74</v>
       </c>
@@ -4204,9 +4348,9 @@
       <c r="I80" s="4"/>
     </row>
     <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="27"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="13" t="s">
+      <c r="A81" s="30"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="15" t="s">
         <v>426</v>
       </c>
       <c r="D81" s="4" t="s">
@@ -4221,9 +4365,9 @@
       <c r="I81" s="4"/>
     </row>
     <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="27"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="15"/>
+      <c r="A82" s="30"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="17"/>
       <c r="D82" s="4" t="s">
         <v>116</v>
       </c>
@@ -4236,11 +4380,11 @@
       <c r="I82" s="4"/>
     </row>
     <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="27"/>
-      <c r="B83" s="25" t="s">
+      <c r="A83" s="30"/>
+      <c r="B83" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="15" t="s">
         <v>435</v>
       </c>
       <c r="D83" s="4" t="s">
@@ -4255,9 +4399,9 @@
       <c r="I83" s="4"/>
     </row>
     <row r="84" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="27"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="14"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="16"/>
       <c r="D84" s="4" t="s">
         <v>110</v>
       </c>
@@ -4270,9 +4414,9 @@
       <c r="I84" s="4"/>
     </row>
     <row r="85" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="27"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="14"/>
+      <c r="A85" s="30"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="16"/>
       <c r="D85" s="4" t="s">
         <v>125</v>
       </c>
@@ -4285,9 +4429,9 @@
       <c r="I85" s="4"/>
     </row>
     <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="27"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="15"/>
+      <c r="A86" s="30"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="17"/>
       <c r="D86" s="4" t="s">
         <v>126</v>
       </c>
@@ -4300,9 +4444,9 @@
       <c r="I86" s="4"/>
     </row>
     <row r="87" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="27"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="13" t="s">
+      <c r="A87" s="30"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="15" t="s">
         <v>426</v>
       </c>
       <c r="D87" s="4" t="s">
@@ -4317,9 +4461,9 @@
       <c r="I87" s="4"/>
     </row>
     <row r="88" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="27"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="15"/>
+      <c r="A88" s="30"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="17"/>
       <c r="D88" s="4" t="s">
         <v>128</v>
       </c>
@@ -4332,8 +4476,8 @@
       <c r="I88" s="4"/>
     </row>
     <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="27"/>
-      <c r="B89" s="25" t="s">
+      <c r="A89" s="30"/>
+      <c r="B89" s="28" t="s">
         <v>104</v>
       </c>
       <c r="C89" s="1"/>
@@ -4349,8 +4493,8 @@
       <c r="I89" s="4"/>
     </row>
     <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="27"/>
-      <c r="B90" s="25"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="28"/>
       <c r="C90" s="1"/>
       <c r="D90" s="4" t="s">
         <v>132</v>
@@ -4364,8 +4508,8 @@
       <c r="I90" s="4"/>
     </row>
     <row r="91" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="27"/>
-      <c r="B91" s="25"/>
+      <c r="A91" s="30"/>
+      <c r="B91" s="28"/>
       <c r="C91" s="1"/>
       <c r="D91" s="4" t="s">
         <v>134</v>
@@ -4379,8 +4523,8 @@
       <c r="I91" s="4"/>
     </row>
     <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="27"/>
-      <c r="B92" s="25"/>
+      <c r="A92" s="30"/>
+      <c r="B92" s="28"/>
       <c r="C92" s="1"/>
       <c r="D92" s="4" t="s">
         <v>135</v>
@@ -4394,8 +4538,8 @@
       <c r="I92" s="4"/>
     </row>
     <row r="93" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="27"/>
-      <c r="B93" s="25"/>
+      <c r="A93" s="30"/>
+      <c r="B93" s="28"/>
       <c r="C93" s="1"/>
       <c r="D93" s="4" t="s">
         <v>137</v>
@@ -4409,8 +4553,8 @@
       <c r="I93" s="4"/>
     </row>
     <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="27"/>
-      <c r="B94" s="25"/>
+      <c r="A94" s="30"/>
+      <c r="B94" s="28"/>
       <c r="C94" s="1"/>
       <c r="D94" s="4" t="s">
         <v>139</v>
@@ -4424,8 +4568,8 @@
       <c r="I94" s="4"/>
     </row>
     <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="27"/>
-      <c r="B95" s="25" t="s">
+      <c r="A95" s="30"/>
+      <c r="B95" s="28" t="s">
         <v>105</v>
       </c>
       <c r="C95" s="1"/>
@@ -4437,8 +4581,8 @@
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="27"/>
-      <c r="B96" s="25"/>
+      <c r="A96" s="30"/>
+      <c r="B96" s="28"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4448,8 +4592,8 @@
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="27"/>
-      <c r="B97" s="25"/>
+      <c r="A97" s="30"/>
+      <c r="B97" s="28"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
@@ -4459,8 +4603,8 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="27"/>
-      <c r="B98" s="25"/>
+      <c r="A98" s="30"/>
+      <c r="B98" s="28"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
@@ -4470,8 +4614,8 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="27"/>
-      <c r="B99" s="25"/>
+      <c r="A99" s="30"/>
+      <c r="B99" s="28"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
@@ -4481,8 +4625,8 @@
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="27"/>
-      <c r="B100" s="25"/>
+      <c r="A100" s="30"/>
+      <c r="B100" s="28"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
@@ -4492,8 +4636,8 @@
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="27"/>
-      <c r="B101" s="25" t="s">
+      <c r="A101" s="30"/>
+      <c r="B101" s="28" t="s">
         <v>106</v>
       </c>
       <c r="C101" s="1"/>
@@ -4505,8 +4649,8 @@
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="27"/>
-      <c r="B102" s="25"/>
+      <c r="A102" s="30"/>
+      <c r="B102" s="28"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4516,8 +4660,8 @@
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="27"/>
-      <c r="B103" s="25"/>
+      <c r="A103" s="30"/>
+      <c r="B103" s="28"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
@@ -4527,8 +4671,8 @@
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="27"/>
-      <c r="B104" s="25"/>
+      <c r="A104" s="30"/>
+      <c r="B104" s="28"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
@@ -4538,8 +4682,8 @@
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="27"/>
-      <c r="B105" s="25"/>
+      <c r="A105" s="30"/>
+      <c r="B105" s="28"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
@@ -4549,10 +4693,10 @@
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="30" t="s">
+      <c r="A106" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="24" t="s">
+      <c r="B106" s="27" t="s">
         <v>71</v>
       </c>
       <c r="C106" s="1"/>
@@ -4568,8 +4712,8 @@
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="30"/>
-      <c r="B107" s="24"/>
+      <c r="A107" s="33"/>
+      <c r="B107" s="27"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
         <v>74</v>
@@ -4583,8 +4727,8 @@
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="30"/>
-      <c r="B108" s="24"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="27"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
         <v>76</v>
@@ -4598,8 +4742,8 @@
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="30"/>
-      <c r="B109" s="24"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="27"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
         <v>78</v>
@@ -4613,8 +4757,8 @@
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="30"/>
-      <c r="B110" s="24" t="s">
+      <c r="A110" s="33"/>
+      <c r="B110" s="27" t="s">
         <v>80</v>
       </c>
       <c r="C110" s="1"/>
@@ -4630,8 +4774,8 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="30"/>
-      <c r="B111" s="24"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="27"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
         <v>83</v>
@@ -4645,8 +4789,8 @@
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="30"/>
-      <c r="B112" s="24"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="27"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
         <v>84</v>
@@ -4660,8 +4804,8 @@
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="30"/>
-      <c r="B113" s="24"/>
+      <c r="A113" s="33"/>
+      <c r="B113" s="27"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
         <v>86</v>
@@ -4675,8 +4819,8 @@
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="30"/>
-      <c r="B114" s="24" t="s">
+      <c r="A114" s="33"/>
+      <c r="B114" s="27" t="s">
         <v>88</v>
       </c>
       <c r="C114" s="1"/>
@@ -4692,8 +4836,8 @@
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="30"/>
-      <c r="B115" s="24"/>
+      <c r="A115" s="33"/>
+      <c r="B115" s="27"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
         <v>90</v>
@@ -4707,8 +4851,8 @@
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="30"/>
-      <c r="B116" s="24"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="27"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
         <v>92</v>
@@ -4722,8 +4866,8 @@
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="30"/>
-      <c r="B117" s="24"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="27"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
         <v>93</v>
@@ -4737,8 +4881,8 @@
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="30"/>
-      <c r="B118" s="24"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="27"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
         <v>95</v>
@@ -4752,8 +4896,8 @@
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="30"/>
-      <c r="B119" s="24"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="27"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
         <v>96</v>
@@ -4767,10 +4911,10 @@
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="29" t="s">
+      <c r="A120" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="B120" s="24" t="s">
+      <c r="B120" s="27" t="s">
         <v>47</v>
       </c>
       <c r="C120" s="1"/>
@@ -4786,8 +4930,8 @@
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="29"/>
-      <c r="B121" s="24"/>
+      <c r="A121" s="32"/>
+      <c r="B121" s="27"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
         <v>49</v>
@@ -4801,8 +4945,8 @@
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="29"/>
-      <c r="B122" s="24"/>
+      <c r="A122" s="32"/>
+      <c r="B122" s="27"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
         <v>51</v>
@@ -4816,8 +4960,8 @@
       <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="29"/>
-      <c r="B123" s="24"/>
+      <c r="A123" s="32"/>
+      <c r="B123" s="27"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
         <v>54</v>
@@ -4831,8 +4975,8 @@
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="29"/>
-      <c r="B124" s="24"/>
+      <c r="A124" s="32"/>
+      <c r="B124" s="27"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1" t="s">
         <v>56</v>
@@ -4846,8 +4990,8 @@
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="29"/>
-      <c r="B125" s="24"/>
+      <c r="A125" s="32"/>
+      <c r="B125" s="27"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
         <v>58</v>
@@ -4861,8 +5005,8 @@
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="29"/>
-      <c r="B126" s="24" t="s">
+      <c r="A126" s="32"/>
+      <c r="B126" s="27" t="s">
         <v>59</v>
       </c>
       <c r="C126" s="1"/>
@@ -4878,8 +5022,8 @@
       <c r="I126" s="2"/>
     </row>
     <row r="127" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="29"/>
-      <c r="B127" s="24"/>
+      <c r="A127" s="32"/>
+      <c r="B127" s="27"/>
       <c r="C127" s="1"/>
       <c r="D127" s="2" t="s">
         <v>62</v>
@@ -4893,8 +5037,8 @@
       <c r="I127" s="2"/>
     </row>
     <row r="128" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="29"/>
-      <c r="B128" s="24"/>
+      <c r="A128" s="32"/>
+      <c r="B128" s="27"/>
       <c r="C128" s="1"/>
       <c r="D128" s="2" t="s">
         <v>64</v>
@@ -4908,8 +5052,8 @@
       <c r="I128" s="2"/>
     </row>
     <row r="129" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="29"/>
-      <c r="B129" s="24"/>
+      <c r="A129" s="32"/>
+      <c r="B129" s="27"/>
       <c r="C129" s="1"/>
       <c r="D129" s="2" t="s">
         <v>66</v>
@@ -4923,8 +5067,8 @@
       <c r="I129" s="2"/>
     </row>
     <row r="130" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="29"/>
-      <c r="B130" s="24"/>
+      <c r="A130" s="32"/>
+      <c r="B130" s="27"/>
       <c r="C130" s="1"/>
       <c r="D130" s="2" t="s">
         <v>67</v>
@@ -4938,8 +5082,8 @@
       <c r="I130" s="2"/>
     </row>
     <row r="131" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="29"/>
-      <c r="B131" s="24"/>
+      <c r="A131" s="32"/>
+      <c r="B131" s="27"/>
       <c r="C131" s="1"/>
       <c r="D131" s="2" t="s">
         <v>68</v>
@@ -4953,10 +5097,10 @@
       <c r="I131" s="2"/>
     </row>
     <row r="132" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="37" t="s">
+      <c r="A132" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B132" s="24" t="s">
+      <c r="B132" s="27" t="s">
         <v>211</v>
       </c>
       <c r="C132" s="1"/>
@@ -4974,8 +5118,8 @@
       <c r="I132" s="2"/>
     </row>
     <row r="133" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="37"/>
-      <c r="B133" s="24"/>
+      <c r="A133" s="40"/>
+      <c r="B133" s="27"/>
       <c r="C133" s="1" t="s">
         <v>254</v>
       </c>
@@ -4991,8 +5135,8 @@
       <c r="I133" s="2"/>
     </row>
     <row r="134" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="37"/>
-      <c r="B134" s="24"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="27"/>
       <c r="C134" s="1" t="s">
         <v>255</v>
       </c>
@@ -5010,8 +5154,8 @@
       <c r="I134" s="2"/>
     </row>
     <row r="135" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="37"/>
-      <c r="B135" s="24" t="s">
+      <c r="A135" s="40"/>
+      <c r="B135" s="27" t="s">
         <v>217</v>
       </c>
       <c r="C135" s="1"/>
@@ -5027,8 +5171,8 @@
       <c r="I135" s="2"/>
     </row>
     <row r="136" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="37"/>
-      <c r="B136" s="24"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="27"/>
       <c r="C136" s="1"/>
       <c r="D136" s="2" t="s">
         <v>219</v>
@@ -5044,8 +5188,8 @@
       <c r="I136" s="2"/>
     </row>
     <row r="137" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="37"/>
-      <c r="B137" s="24"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="27"/>
       <c r="C137" s="1"/>
       <c r="D137" s="2" t="s">
         <v>222</v>
@@ -5061,10 +5205,10 @@
       <c r="I137" s="2"/>
     </row>
     <row r="138" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="31" t="s">
+      <c r="A138" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="B138" s="24" t="s">
+      <c r="B138" s="27" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="1"/>
@@ -5080,8 +5224,8 @@
       <c r="I138" s="1"/>
     </row>
     <row r="139" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="31"/>
-      <c r="B139" s="24"/>
+      <c r="A139" s="34"/>
+      <c r="B139" s="27"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
         <v>10</v>
@@ -5095,8 +5239,8 @@
       <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="31"/>
-      <c r="B140" s="24"/>
+      <c r="A140" s="34"/>
+      <c r="B140" s="27"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1" t="s">
         <v>12</v>
@@ -5110,8 +5254,8 @@
       <c r="I140" s="1"/>
     </row>
     <row r="141" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="31"/>
-      <c r="B141" s="24"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="27"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
         <v>14</v>
@@ -5125,8 +5269,8 @@
       <c r="I141" s="1"/>
     </row>
     <row r="142" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="31"/>
-      <c r="B142" s="24" t="s">
+      <c r="A142" s="34"/>
+      <c r="B142" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C142" s="1"/>
@@ -5142,8 +5286,8 @@
       <c r="I142" s="1"/>
     </row>
     <row r="143" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="31"/>
-      <c r="B143" s="24"/>
+      <c r="A143" s="34"/>
+      <c r="B143" s="27"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1" t="s">
         <v>18</v>
@@ -5157,8 +5301,8 @@
       <c r="I143" s="1"/>
     </row>
     <row r="144" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="31"/>
-      <c r="B144" s="24" t="s">
+      <c r="A144" s="34"/>
+      <c r="B144" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C144" s="1"/>
@@ -5174,8 +5318,8 @@
       <c r="I144" s="1"/>
     </row>
     <row r="145" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="31"/>
-      <c r="B145" s="24"/>
+      <c r="A145" s="34"/>
+      <c r="B145" s="27"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
         <v>23</v>
@@ -5189,8 +5333,8 @@
       <c r="I145" s="1"/>
     </row>
     <row r="146" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="31"/>
-      <c r="B146" s="24"/>
+      <c r="A146" s="34"/>
+      <c r="B146" s="27"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
         <v>24</v>
@@ -5204,8 +5348,8 @@
       <c r="I146" s="1"/>
     </row>
     <row r="147" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="31"/>
-      <c r="B147" s="24" t="s">
+      <c r="A147" s="34"/>
+      <c r="B147" s="27" t="s">
         <v>26</v>
       </c>
       <c r="C147" s="1"/>
@@ -5221,8 +5365,8 @@
       <c r="I147" s="1"/>
     </row>
     <row r="148" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="31"/>
-      <c r="B148" s="24"/>
+      <c r="A148" s="34"/>
+      <c r="B148" s="27"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
         <v>29</v>
@@ -5236,8 +5380,8 @@
       <c r="I148" s="1"/>
     </row>
     <row r="149" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="31"/>
-      <c r="B149" s="24"/>
+      <c r="A149" s="34"/>
+      <c r="B149" s="27"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
         <v>30</v>
@@ -5251,8 +5395,8 @@
       <c r="I149" s="1"/>
     </row>
     <row r="150" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="31"/>
-      <c r="B150" s="24" t="s">
+      <c r="A150" s="34"/>
+      <c r="B150" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C150" s="1"/>
@@ -5268,8 +5412,8 @@
       <c r="I150" s="1"/>
     </row>
     <row r="151" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="31"/>
-      <c r="B151" s="24"/>
+      <c r="A151" s="34"/>
+      <c r="B151" s="27"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
         <v>34</v>
@@ -5283,8 +5427,8 @@
       <c r="I151" s="1"/>
     </row>
     <row r="152" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="31"/>
-      <c r="B152" s="24" t="s">
+      <c r="A152" s="34"/>
+      <c r="B152" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C152" s="1"/>
@@ -5300,8 +5444,8 @@
       <c r="I152" s="1"/>
     </row>
     <row r="153" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="31"/>
-      <c r="B153" s="24"/>
+      <c r="A153" s="34"/>
+      <c r="B153" s="27"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
         <v>39</v>
@@ -5315,8 +5459,8 @@
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="31"/>
-      <c r="B154" s="24"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="27"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
         <v>41</v>
@@ -5330,8 +5474,8 @@
       <c r="I154" s="1"/>
     </row>
     <row r="155" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="31"/>
-      <c r="B155" s="24" t="s">
+      <c r="A155" s="34"/>
+      <c r="B155" s="27" t="s">
         <v>42</v>
       </c>
       <c r="C155" s="1"/>
@@ -5347,8 +5491,8 @@
       <c r="I155" s="1"/>
     </row>
     <row r="156" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="31"/>
-      <c r="B156" s="24"/>
+      <c r="A156" s="34"/>
+      <c r="B156" s="27"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1" t="s">
         <v>18</v>
@@ -5362,8 +5506,8 @@
       <c r="I156" s="1"/>
     </row>
     <row r="157" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="31"/>
-      <c r="B157" s="24"/>
+      <c r="A157" s="34"/>
+      <c r="B157" s="27"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
         <v>46</v>
@@ -5377,7 +5521,7 @@
       <c r="I157" s="1"/>
     </row>
     <row r="158" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="38" t="s">
+      <c r="A158" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -5400,7 +5544,7 @@
       </c>
     </row>
     <row r="159" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="38"/>
+      <c r="A159" s="41"/>
       <c r="B159" s="6" t="s">
         <v>233</v>
       </c>
@@ -5423,8 +5567,8 @@
       </c>
     </row>
     <row r="160" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="38"/>
-      <c r="B160" s="25" t="s">
+      <c r="A160" s="41"/>
+      <c r="B160" s="28" t="s">
         <v>238</v>
       </c>
       <c r="C160" s="1"/>
@@ -5446,8 +5590,8 @@
       </c>
     </row>
     <row r="161" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="38"/>
-      <c r="B161" s="25"/>
+      <c r="A161" s="41"/>
+      <c r="B161" s="28"/>
       <c r="C161" s="1"/>
       <c r="D161" s="4" t="s">
         <v>246</v>
@@ -5465,10 +5609,10 @@
       </c>
     </row>
     <row r="162" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="32" t="s">
+      <c r="A162" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B162" s="24" t="s">
+      <c r="B162" s="27" t="s">
         <v>259</v>
       </c>
       <c r="C162" s="1"/>
@@ -5486,8 +5630,8 @@
       <c r="I162" s="1"/>
     </row>
     <row r="163" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="33"/>
-      <c r="B163" s="24"/>
+      <c r="A163" s="36"/>
+      <c r="B163" s="27"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1" t="s">
         <v>261</v>
@@ -5507,8 +5651,8 @@
       </c>
     </row>
     <row r="164" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="33"/>
-      <c r="B164" s="24"/>
+      <c r="A164" s="36"/>
+      <c r="B164" s="27"/>
       <c r="C164" s="1"/>
       <c r="D164" s="2" t="s">
         <v>262</v>
@@ -5524,7 +5668,7 @@
       <c r="I164" s="1"/>
     </row>
     <row r="165" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="33"/>
+      <c r="A165" s="36"/>
       <c r="B165" s="8" t="s">
         <v>263</v>
       </c>
@@ -5625,12 +5769,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="B1" s="27"/>
+    </row>
+    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+    </row>
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="B7" s="43"/>
+    </row>
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="42" t="s">
+        <v>500</v>
+      </c>
+      <c r="B13" s="43"/>
+    </row>
+    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="13" t="s">
+        <v>505</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A13:B13"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/内科学笔记/病和方剂汇总.xlsx
+++ b/内科学笔记/病和方剂汇总.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="507">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="542">
   <si>
     <t xml:space="preserve">肺系统 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2112,12 +2112,152 @@
     <t>右下腹疼痛拒按，苔薄腻而黄，脉滑数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>痰气郁闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺气导痰汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>袪痰剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精神抑郁，表情淡漠，神志疾呆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心脾两虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养心汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神思恍惚，心悸易惊，肢体困乏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌淡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>癲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痰火上扰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生铁落饮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发病急，狂乱无知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火盛伤阴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二阴煎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂病日久成虚证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风痰闭阻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定痫丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痰火内盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发作前有眩晕、胸闷等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清热</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心肾亏虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大补元煎。六群子汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发作后心悸，头晕目眩，腰膝酸软</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因寒而腹痛急，得温痛减。小便清利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苔白腻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉沉紧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行气剂附方</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泻下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腹痛拒按，胸闷不舒，大便秘结烦渴欲引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苔黄腻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>濡数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2388,9 +2528,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2403,6 +2540,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2412,13 +2552,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2428,45 +2568,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2481,8 +2582,47 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2753,18 +2893,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:I165"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I73" sqref="H73:I73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
@@ -2777,7 +2917,7 @@
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="30.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>97</v>
       </c>
@@ -2806,11 +2946,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="20" t="s">
         <v>143</v>
       </c>
       <c r="C2" s="1"/>
@@ -2827,9 +2967,9 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="31"/>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="33"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
         <v>149</v>
@@ -2844,9 +2984,9 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="31"/>
-      <c r="B4" s="27"/>
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="33"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
         <v>152</v>
@@ -2859,9 +2999,9 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31"/>
-      <c r="B5" s="27" t="s">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="33"/>
+      <c r="B5" s="20" t="s">
         <v>144</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -2880,9 +3020,9 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="31"/>
-      <c r="B6" s="27"/>
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="33"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="22"/>
       <c r="D6" s="1" t="s">
         <v>156</v>
@@ -2897,9 +3037,9 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
-      <c r="B7" s="27"/>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="33"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="23"/>
       <c r="D7" s="1" t="s">
         <v>158</v>
@@ -2914,10 +3054,10 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="31"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27" t="s">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="33"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
         <v>208</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -2933,10 +3073,10 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="31"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="33"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="1" t="s">
         <v>162</v>
       </c>
@@ -2950,10 +3090,10 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="31"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="33"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="1" t="s">
         <v>164</v>
       </c>
@@ -2967,10 +3107,10 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="31"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="33"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="1" t="s">
         <v>166</v>
       </c>
@@ -2984,9 +3124,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="31"/>
-      <c r="B12" s="27" t="s">
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="33"/>
+      <c r="B12" s="20" t="s">
         <v>147</v>
       </c>
       <c r="C12" s="1"/>
@@ -3001,9 +3141,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="31"/>
-      <c r="B13" s="27"/>
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="33"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>169</v>
@@ -3016,9 +3156,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="31"/>
-      <c r="B14" s="27"/>
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="33"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
         <v>170</v>
@@ -3033,9 +3173,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="31"/>
-      <c r="B15" s="27"/>
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="33"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
         <v>172</v>
@@ -3048,12 +3188,12 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
-      <c r="B16" s="27" t="s">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="33"/>
+      <c r="B16" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="20" t="s">
         <v>210</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -3069,10 +3209,10 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="31"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="33"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="1" t="s">
         <v>177</v>
       </c>
@@ -3086,10 +3226,10 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="31"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="25" t="s">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="33"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="36" t="s">
         <v>334</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -3105,10 +3245,10 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="31"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="26"/>
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="33"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="1" t="s">
         <v>181</v>
       </c>
@@ -3122,10 +3262,10 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="31"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="26"/>
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="33"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="1" t="s">
         <v>183</v>
       </c>
@@ -3139,9 +3279,9 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="31"/>
-      <c r="B21" s="27" t="s">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="33"/>
+      <c r="B21" s="20" t="s">
         <v>146</v>
       </c>
       <c r="C21" s="21" t="s">
@@ -3160,9 +3300,9 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="31"/>
-      <c r="B22" s="27"/>
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="33"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="16"/>
       <c r="D22" s="1" t="s">
         <v>185</v>
@@ -3177,9 +3317,9 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="31"/>
-      <c r="B23" s="27"/>
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A23" s="33"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="16"/>
       <c r="D23" s="1" t="s">
         <v>162</v>
@@ -3194,9 +3334,9 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="31"/>
-      <c r="B24" s="27"/>
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="33"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="17"/>
       <c r="D24" s="1" t="s">
         <v>188</v>
@@ -3211,9 +3351,9 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="31"/>
-      <c r="B25" s="27"/>
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="33"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="21" t="s">
         <v>305</v>
       </c>
@@ -3230,9 +3370,9 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="27"/>
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="33"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="22"/>
       <c r="D26" s="1" t="s">
         <v>179</v>
@@ -3247,9 +3387,9 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="31"/>
-      <c r="B27" s="27"/>
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="33"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="23"/>
       <c r="D27" s="1" t="s">
         <v>183</v>
@@ -3264,8 +3404,8 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="37" t="s">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="24" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="21" t="s">
@@ -3291,8 +3431,8 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="38"/>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="25"/>
       <c r="B29" s="22"/>
       <c r="C29" s="16"/>
       <c r="D29" s="4" t="s">
@@ -3314,8 +3454,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="38"/>
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="25"/>
       <c r="B30" s="22"/>
       <c r="C30" s="16"/>
       <c r="D30" s="4" t="s">
@@ -3337,8 +3477,8 @@
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="38"/>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="25"/>
       <c r="B31" s="22"/>
       <c r="C31" s="17"/>
       <c r="D31" s="4" t="s">
@@ -3360,8 +3500,8 @@
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="38"/>
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="25"/>
       <c r="B32" s="22"/>
       <c r="C32" s="21" t="s">
         <v>306</v>
@@ -3385,8 +3525,8 @@
         <v>328</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="38"/>
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="25"/>
       <c r="B33" s="23"/>
       <c r="C33" s="17"/>
       <c r="D33" s="4" t="s">
@@ -3408,8 +3548,8 @@
         <v>333</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="38"/>
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="25"/>
       <c r="B34" s="21" t="s">
         <v>290</v>
       </c>
@@ -3433,8 +3573,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="38"/>
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="25"/>
       <c r="B35" s="22"/>
       <c r="C35" s="16"/>
       <c r="D35" s="4" t="s">
@@ -3456,8 +3596,8 @@
         <v>342</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="38"/>
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="25"/>
       <c r="B36" s="22"/>
       <c r="C36" s="17"/>
       <c r="D36" s="4" t="s">
@@ -3479,8 +3619,8 @@
         <v>347</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="38"/>
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="25"/>
       <c r="B37" s="22"/>
       <c r="C37" s="15" t="s">
         <v>354</v>
@@ -3504,8 +3644,8 @@
         <v>352</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="38"/>
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="25"/>
       <c r="B38" s="22"/>
       <c r="C38" s="16"/>
       <c r="D38" s="9" t="s">
@@ -3527,8 +3667,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="38"/>
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="25"/>
       <c r="B39" s="23"/>
       <c r="C39" s="17"/>
       <c r="D39" s="4" t="s">
@@ -3550,8 +3690,8 @@
         <v>363</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="38"/>
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="25"/>
       <c r="B40" s="21" t="s">
         <v>291</v>
       </c>
@@ -3577,8 +3717,8 @@
         <v>368</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="38"/>
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="25"/>
       <c r="B41" s="22"/>
       <c r="C41" s="17"/>
       <c r="D41" s="4" t="s">
@@ -3600,8 +3740,8 @@
         <v>373</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="38"/>
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="25"/>
       <c r="B42" s="22"/>
       <c r="C42" s="15" t="s">
         <v>375</v>
@@ -3623,8 +3763,8 @@
         <v>379</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="38"/>
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="25"/>
       <c r="B43" s="22"/>
       <c r="C43" s="16"/>
       <c r="D43" s="4" t="s">
@@ -3646,8 +3786,8 @@
         <v>384</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="39"/>
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="26"/>
       <c r="B44" s="23"/>
       <c r="C44" s="17"/>
       <c r="D44" s="4" t="s">
@@ -3669,8 +3809,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="18" t="s">
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="38" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="21" t="s">
@@ -3698,8 +3838,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="19"/>
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="39"/>
       <c r="B46" s="22"/>
       <c r="C46" s="16"/>
       <c r="D46" s="4" t="s">
@@ -3721,8 +3861,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="19"/>
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="39"/>
       <c r="B47" s="22"/>
       <c r="C47" s="16"/>
       <c r="D47" s="4" t="s">
@@ -3744,8 +3884,8 @@
         <v>409</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="19"/>
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="39"/>
       <c r="B48" s="22"/>
       <c r="C48" s="16"/>
       <c r="D48" s="4" t="s">
@@ -3767,8 +3907,8 @@
         <v>414</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="19"/>
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="39"/>
       <c r="B49" s="22"/>
       <c r="C49" s="16"/>
       <c r="D49" s="1" t="s">
@@ -3790,8 +3930,8 @@
         <v>431</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="19"/>
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="39"/>
       <c r="B50" s="22"/>
       <c r="C50" s="17"/>
       <c r="D50" s="4" t="s">
@@ -3813,8 +3953,8 @@
         <v>438</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="19"/>
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="39"/>
       <c r="B51" s="22"/>
       <c r="C51" s="15" t="s">
         <v>426</v>
@@ -3838,8 +3978,8 @@
         <v>425</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="19"/>
+    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A52" s="39"/>
       <c r="B52" s="23"/>
       <c r="C52" s="17"/>
       <c r="D52" s="4" t="s">
@@ -3861,8 +4001,8 @@
         <v>418</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="19"/>
+    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="39"/>
       <c r="B53" s="15" t="s">
         <v>389</v>
       </c>
@@ -3888,8 +4028,8 @@
         <v>445</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="19"/>
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="39"/>
       <c r="B54" s="16"/>
       <c r="C54" s="23"/>
       <c r="D54" s="4" t="s">
@@ -3911,8 +4051,8 @@
         <v>431</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="19"/>
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="39"/>
       <c r="B55" s="16"/>
       <c r="C55" s="15" t="s">
         <v>426</v>
@@ -3936,8 +4076,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="19"/>
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="39"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
       <c r="D56" s="4" t="s">
@@ -3959,8 +4099,8 @@
         <v>450</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="19"/>
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="39"/>
       <c r="B57" s="15" t="s">
         <v>390</v>
       </c>
@@ -3986,8 +4126,8 @@
         <v>458</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="19"/>
+    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="39"/>
       <c r="B58" s="16"/>
       <c r="C58" s="22"/>
       <c r="D58" s="4" t="s">
@@ -4009,8 +4149,8 @@
         <v>414</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="19"/>
+    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="39"/>
       <c r="B59" s="16"/>
       <c r="C59" s="23"/>
       <c r="D59" s="4" t="s">
@@ -4032,10 +4172,10 @@
         <v>467</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="19"/>
+    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="39"/>
       <c r="B60" s="16"/>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="41" t="s">
         <v>477</v>
       </c>
       <c r="D60" s="4" t="s">
@@ -4053,8 +4193,8 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="19"/>
+    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="39"/>
       <c r="B61" s="16"/>
       <c r="C61" s="16"/>
       <c r="D61" s="4" t="s">
@@ -4072,8 +4212,8 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="19"/>
+    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="39"/>
       <c r="B62" s="16"/>
       <c r="C62" s="17"/>
       <c r="D62" s="4" t="s">
@@ -4087,10 +4227,10 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="19"/>
+    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="39"/>
       <c r="B63" s="17"/>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="11" t="s">
         <v>478</v>
       </c>
       <c r="D63" s="4" t="s">
@@ -4106,89 +4246,147 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="19"/>
+    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="39"/>
       <c r="B64" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
+      <c r="C64" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>510</v>
+      </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="19"/>
+    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="39"/>
       <c r="B65" s="16"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="1"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>512</v>
+      </c>
       <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="19"/>
+      <c r="G65" s="4" t="s">
+        <v>513</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A66" s="39"/>
       <c r="B66" s="16"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="1"/>
+      <c r="C66" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
+      <c r="G66" s="4" t="s">
+        <v>519</v>
+      </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="19"/>
+    <row r="67" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A67" s="39"/>
       <c r="B67" s="17"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="1"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
+      <c r="G67" s="4" t="s">
+        <v>522</v>
+      </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="19"/>
+    <row r="68" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A68" s="39"/>
       <c r="B68" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="1"/>
+      <c r="C68" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>524</v>
+      </c>
       <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
+      <c r="G68" s="4" t="s">
+        <v>526</v>
+      </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="19"/>
+    <row r="69" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A69" s="39"/>
       <c r="B69" s="16"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="4"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>527</v>
+      </c>
       <c r="G69" s="4"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="20"/>
+    <row r="70" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A70" s="40"/>
       <c r="B70" s="17"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
+      <c r="C70" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>533</v>
+      </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="29" t="s">
+    <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="34" t="s">
         <v>140</v>
       </c>
       <c r="B71" s="28" t="s">
@@ -4203,13 +4401,21 @@
       <c r="E71" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-      <c r="I71" s="4"/>
-    </row>
-    <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="30"/>
+      <c r="F71" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="35"/>
       <c r="B72" s="28"/>
       <c r="C72" s="16"/>
       <c r="D72" s="4" t="s">
@@ -4218,13 +4424,21 @@
       <c r="E72" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-    </row>
-    <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="30"/>
+      <c r="F72" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="35"/>
       <c r="B73" s="28"/>
       <c r="C73" s="16"/>
       <c r="D73" s="4" t="s">
@@ -4235,9 +4449,11 @@
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="30"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="35"/>
       <c r="B74" s="28"/>
       <c r="C74" s="17"/>
       <c r="D74" s="4" t="s">
@@ -4251,10 +4467,10 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="30"/>
+    <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="35"/>
       <c r="B75" s="28"/>
-      <c r="C75" s="11" t="s">
+      <c r="C75" s="10" t="s">
         <v>426</v>
       </c>
       <c r="D75" s="4" t="s">
@@ -4268,8 +4484,8 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="30"/>
+    <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="35"/>
       <c r="B76" s="28" t="s">
         <v>101</v>
       </c>
@@ -4287,8 +4503,8 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="30"/>
+    <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="35"/>
       <c r="B77" s="28"/>
       <c r="C77" s="16"/>
       <c r="D77" s="4" t="s">
@@ -4302,8 +4518,8 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="30"/>
+    <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A78" s="35"/>
       <c r="B78" s="28"/>
       <c r="C78" s="16"/>
       <c r="D78" s="4" t="s">
@@ -4317,8 +4533,8 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="30"/>
+    <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A79" s="35"/>
       <c r="B79" s="28"/>
       <c r="C79" s="16"/>
       <c r="D79" s="4" t="s">
@@ -4332,8 +4548,8 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="30"/>
+    <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A80" s="35"/>
       <c r="B80" s="28"/>
       <c r="C80" s="17"/>
       <c r="D80" s="4" t="s">
@@ -4347,8 +4563,8 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="30"/>
+    <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A81" s="35"/>
       <c r="B81" s="28"/>
       <c r="C81" s="15" t="s">
         <v>426</v>
@@ -4364,8 +4580,8 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="30"/>
+    <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="35"/>
       <c r="B82" s="28"/>
       <c r="C82" s="17"/>
       <c r="D82" s="4" t="s">
@@ -4379,8 +4595,8 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="30"/>
+    <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A83" s="35"/>
       <c r="B83" s="28" t="s">
         <v>103</v>
       </c>
@@ -4398,8 +4614,8 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="30"/>
+    <row r="84" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="35"/>
       <c r="B84" s="28"/>
       <c r="C84" s="16"/>
       <c r="D84" s="4" t="s">
@@ -4413,8 +4629,8 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="30"/>
+    <row r="85" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A85" s="35"/>
       <c r="B85" s="28"/>
       <c r="C85" s="16"/>
       <c r="D85" s="4" t="s">
@@ -4428,8 +4644,8 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="30"/>
+    <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A86" s="35"/>
       <c r="B86" s="28"/>
       <c r="C86" s="17"/>
       <c r="D86" s="4" t="s">
@@ -4443,8 +4659,8 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="30"/>
+    <row r="87" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A87" s="35"/>
       <c r="B87" s="28"/>
       <c r="C87" s="15" t="s">
         <v>426</v>
@@ -4460,8 +4676,8 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="30"/>
+    <row r="88" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A88" s="35"/>
       <c r="B88" s="28"/>
       <c r="C88" s="17"/>
       <c r="D88" s="4" t="s">
@@ -4475,8 +4691,8 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="30"/>
+    <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A89" s="35"/>
       <c r="B89" s="28" t="s">
         <v>104</v>
       </c>
@@ -4492,8 +4708,8 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="30"/>
+    <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A90" s="35"/>
       <c r="B90" s="28"/>
       <c r="C90" s="1"/>
       <c r="D90" s="4" t="s">
@@ -4507,8 +4723,8 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="30"/>
+    <row r="91" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A91" s="35"/>
       <c r="B91" s="28"/>
       <c r="C91" s="1"/>
       <c r="D91" s="4" t="s">
@@ -4522,8 +4738,8 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="30"/>
+    <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A92" s="35"/>
       <c r="B92" s="28"/>
       <c r="C92" s="1"/>
       <c r="D92" s="4" t="s">
@@ -4537,8 +4753,8 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="30"/>
+    <row r="93" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A93" s="35"/>
       <c r="B93" s="28"/>
       <c r="C93" s="1"/>
       <c r="D93" s="4" t="s">
@@ -4552,8 +4768,8 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="30"/>
+    <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A94" s="35"/>
       <c r="B94" s="28"/>
       <c r="C94" s="1"/>
       <c r="D94" s="4" t="s">
@@ -4567,8 +4783,8 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="30"/>
+    <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A95" s="35"/>
       <c r="B95" s="28" t="s">
         <v>105</v>
       </c>
@@ -4580,8 +4796,8 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="30"/>
+    <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A96" s="35"/>
       <c r="B96" s="28"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -4591,8 +4807,8 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="30"/>
+    <row r="97" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A97" s="35"/>
       <c r="B97" s="28"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4602,8 +4818,8 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="30"/>
+    <row r="98" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A98" s="35"/>
       <c r="B98" s="28"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -4613,8 +4829,8 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="30"/>
+    <row r="99" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A99" s="35"/>
       <c r="B99" s="28"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -4624,8 +4840,8 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="30"/>
+    <row r="100" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A100" s="35"/>
       <c r="B100" s="28"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -4635,8 +4851,8 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="30"/>
+    <row r="101" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A101" s="35"/>
       <c r="B101" s="28" t="s">
         <v>106</v>
       </c>
@@ -4648,8 +4864,8 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="30"/>
+    <row r="102" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A102" s="35"/>
       <c r="B102" s="28"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -4659,8 +4875,8 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="30"/>
+    <row r="103" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A103" s="35"/>
       <c r="B103" s="28"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4670,8 +4886,8 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="30"/>
+    <row r="104" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A104" s="35"/>
       <c r="B104" s="28"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4681,8 +4897,8 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="30"/>
+    <row r="105" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A105" s="35"/>
       <c r="B105" s="28"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4692,11 +4908,11 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="33" t="s">
+    <row r="106" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A106" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="27" t="s">
+      <c r="B106" s="20" t="s">
         <v>71</v>
       </c>
       <c r="C106" s="1"/>
@@ -4711,9 +4927,9 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="33"/>
-      <c r="B107" s="27"/>
+    <row r="107" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A107" s="32"/>
+      <c r="B107" s="20"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
         <v>74</v>
@@ -4726,9 +4942,9 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="33"/>
-      <c r="B108" s="27"/>
+    <row r="108" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A108" s="32"/>
+      <c r="B108" s="20"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
         <v>76</v>
@@ -4741,9 +4957,9 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="33"/>
-      <c r="B109" s="27"/>
+    <row r="109" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A109" s="32"/>
+      <c r="B109" s="20"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
         <v>78</v>
@@ -4756,9 +4972,9 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="33"/>
-      <c r="B110" s="27" t="s">
+    <row r="110" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A110" s="32"/>
+      <c r="B110" s="20" t="s">
         <v>80</v>
       </c>
       <c r="C110" s="1"/>
@@ -4773,9 +4989,9 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="33"/>
-      <c r="B111" s="27"/>
+    <row r="111" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A111" s="32"/>
+      <c r="B111" s="20"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
         <v>83</v>
@@ -4788,9 +5004,9 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="33"/>
-      <c r="B112" s="27"/>
+    <row r="112" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A112" s="32"/>
+      <c r="B112" s="20"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
         <v>84</v>
@@ -4803,9 +5019,9 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="33"/>
-      <c r="B113" s="27"/>
+    <row r="113" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A113" s="32"/>
+      <c r="B113" s="20"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
         <v>86</v>
@@ -4818,9 +5034,9 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="33"/>
-      <c r="B114" s="27" t="s">
+    <row r="114" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A114" s="32"/>
+      <c r="B114" s="20" t="s">
         <v>88</v>
       </c>
       <c r="C114" s="1"/>
@@ -4835,9 +5051,9 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="33"/>
-      <c r="B115" s="27"/>
+    <row r="115" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A115" s="32"/>
+      <c r="B115" s="20"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
         <v>90</v>
@@ -4850,9 +5066,9 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="33"/>
-      <c r="B116" s="27"/>
+    <row r="116" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A116" s="32"/>
+      <c r="B116" s="20"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
         <v>92</v>
@@ -4865,9 +5081,9 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="33"/>
-      <c r="B117" s="27"/>
+    <row r="117" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A117" s="32"/>
+      <c r="B117" s="20"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
         <v>93</v>
@@ -4880,9 +5096,9 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="33"/>
-      <c r="B118" s="27"/>
+    <row r="118" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A118" s="32"/>
+      <c r="B118" s="20"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
         <v>95</v>
@@ -4895,9 +5111,9 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="33"/>
-      <c r="B119" s="27"/>
+    <row r="119" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A119" s="32"/>
+      <c r="B119" s="20"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
         <v>96</v>
@@ -4910,11 +5126,11 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="32" t="s">
+    <row r="120" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A120" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="B120" s="27" t="s">
+      <c r="B120" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C120" s="1"/>
@@ -4929,9 +5145,9 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="32"/>
-      <c r="B121" s="27"/>
+    <row r="121" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A121" s="31"/>
+      <c r="B121" s="20"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
         <v>49</v>
@@ -4944,9 +5160,9 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="32"/>
-      <c r="B122" s="27"/>
+    <row r="122" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A122" s="31"/>
+      <c r="B122" s="20"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
         <v>51</v>
@@ -4959,9 +5175,9 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="32"/>
-      <c r="B123" s="27"/>
+    <row r="123" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A123" s="31"/>
+      <c r="B123" s="20"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
         <v>54</v>
@@ -4974,9 +5190,9 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="32"/>
-      <c r="B124" s="27"/>
+    <row r="124" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A124" s="31"/>
+      <c r="B124" s="20"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1" t="s">
         <v>56</v>
@@ -4989,9 +5205,9 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="32"/>
-      <c r="B125" s="27"/>
+    <row r="125" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A125" s="31"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
         <v>58</v>
@@ -5004,9 +5220,9 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="32"/>
-      <c r="B126" s="27" t="s">
+    <row r="126" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A126" s="31"/>
+      <c r="B126" s="20" t="s">
         <v>59</v>
       </c>
       <c r="C126" s="1"/>
@@ -5021,9 +5237,9 @@
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
     </row>
-    <row r="127" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="32"/>
-      <c r="B127" s="27"/>
+    <row r="127" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A127" s="31"/>
+      <c r="B127" s="20"/>
       <c r="C127" s="1"/>
       <c r="D127" s="2" t="s">
         <v>62</v>
@@ -5036,9 +5252,9 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="32"/>
-      <c r="B128" s="27"/>
+    <row r="128" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A128" s="31"/>
+      <c r="B128" s="20"/>
       <c r="C128" s="1"/>
       <c r="D128" s="2" t="s">
         <v>64</v>
@@ -5051,9 +5267,9 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="32"/>
-      <c r="B129" s="27"/>
+    <row r="129" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A129" s="31"/>
+      <c r="B129" s="20"/>
       <c r="C129" s="1"/>
       <c r="D129" s="2" t="s">
         <v>66</v>
@@ -5066,9 +5282,9 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="32"/>
-      <c r="B130" s="27"/>
+    <row r="130" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A130" s="31"/>
+      <c r="B130" s="20"/>
       <c r="C130" s="1"/>
       <c r="D130" s="2" t="s">
         <v>67</v>
@@ -5081,9 +5297,9 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="32"/>
-      <c r="B131" s="27"/>
+    <row r="131" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A131" s="31"/>
+      <c r="B131" s="20"/>
       <c r="C131" s="1"/>
       <c r="D131" s="2" t="s">
         <v>68</v>
@@ -5096,11 +5312,11 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="40" t="s">
+    <row r="132" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A132" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B132" s="27" t="s">
+      <c r="B132" s="20" t="s">
         <v>211</v>
       </c>
       <c r="C132" s="1"/>
@@ -5117,9 +5333,9 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="40"/>
-      <c r="B133" s="27"/>
+    <row r="133" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A133" s="27"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="1" t="s">
         <v>254</v>
       </c>
@@ -5134,9 +5350,9 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="40"/>
-      <c r="B134" s="27"/>
+    <row r="134" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A134" s="27"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="1" t="s">
         <v>255</v>
       </c>
@@ -5153,9 +5369,9 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="40"/>
-      <c r="B135" s="27" t="s">
+    <row r="135" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A135" s="27"/>
+      <c r="B135" s="20" t="s">
         <v>217</v>
       </c>
       <c r="C135" s="1"/>
@@ -5170,9 +5386,9 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="40"/>
-      <c r="B136" s="27"/>
+    <row r="136" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A136" s="27"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="1"/>
       <c r="D136" s="2" t="s">
         <v>219</v>
@@ -5187,9 +5403,9 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="40"/>
-      <c r="B137" s="27"/>
+    <row r="137" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A137" s="27"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="1"/>
       <c r="D137" s="2" t="s">
         <v>222</v>
@@ -5204,11 +5420,11 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="34" t="s">
+    <row r="138" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A138" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="B138" s="27" t="s">
+      <c r="B138" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="1"/>
@@ -5223,9 +5439,9 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="34"/>
-      <c r="B139" s="27"/>
+    <row r="139" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A139" s="30"/>
+      <c r="B139" s="20"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
         <v>10</v>
@@ -5238,9 +5454,9 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="34"/>
-      <c r="B140" s="27"/>
+    <row r="140" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A140" s="30"/>
+      <c r="B140" s="20"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1" t="s">
         <v>12</v>
@@ -5253,9 +5469,9 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="34"/>
-      <c r="B141" s="27"/>
+    <row r="141" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A141" s="30"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
         <v>14</v>
@@ -5268,9 +5484,9 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="34"/>
-      <c r="B142" s="27" t="s">
+    <row r="142" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A142" s="30"/>
+      <c r="B142" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C142" s="1"/>
@@ -5285,9 +5501,9 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="34"/>
-      <c r="B143" s="27"/>
+    <row r="143" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A143" s="30"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1" t="s">
         <v>18</v>
@@ -5300,9 +5516,9 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="34"/>
-      <c r="B144" s="27" t="s">
+    <row r="144" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A144" s="30"/>
+      <c r="B144" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C144" s="1"/>
@@ -5317,9 +5533,9 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="34"/>
-      <c r="B145" s="27"/>
+    <row r="145" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A145" s="30"/>
+      <c r="B145" s="20"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
         <v>23</v>
@@ -5332,9 +5548,9 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="34"/>
-      <c r="B146" s="27"/>
+    <row r="146" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A146" s="30"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
         <v>24</v>
@@ -5347,9 +5563,9 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="34"/>
-      <c r="B147" s="27" t="s">
+    <row r="147" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A147" s="30"/>
+      <c r="B147" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C147" s="1"/>
@@ -5364,9 +5580,9 @@
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="34"/>
-      <c r="B148" s="27"/>
+    <row r="148" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A148" s="30"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
         <v>29</v>
@@ -5379,9 +5595,9 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="34"/>
-      <c r="B149" s="27"/>
+    <row r="149" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A149" s="30"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
         <v>30</v>
@@ -5394,9 +5610,9 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="34"/>
-      <c r="B150" s="27" t="s">
+    <row r="150" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A150" s="30"/>
+      <c r="B150" s="20" t="s">
         <v>31</v>
       </c>
       <c r="C150" s="1"/>
@@ -5411,9 +5627,9 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="34"/>
-      <c r="B151" s="27"/>
+    <row r="151" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A151" s="30"/>
+      <c r="B151" s="20"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
         <v>34</v>
@@ -5426,9 +5642,9 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="34"/>
-      <c r="B152" s="27" t="s">
+    <row r="152" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A152" s="30"/>
+      <c r="B152" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C152" s="1"/>
@@ -5443,9 +5659,9 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="34"/>
-      <c r="B153" s="27"/>
+    <row r="153" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A153" s="30"/>
+      <c r="B153" s="20"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
         <v>39</v>
@@ -5458,9 +5674,9 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="34"/>
-      <c r="B154" s="27"/>
+    <row r="154" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A154" s="30"/>
+      <c r="B154" s="20"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
         <v>41</v>
@@ -5473,9 +5689,9 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="34"/>
-      <c r="B155" s="27" t="s">
+    <row r="155" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A155" s="30"/>
+      <c r="B155" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C155" s="1"/>
@@ -5490,9 +5706,9 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="34"/>
-      <c r="B156" s="27"/>
+    <row r="156" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A156" s="30"/>
+      <c r="B156" s="20"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1" t="s">
         <v>18</v>
@@ -5505,9 +5721,9 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="34"/>
-      <c r="B157" s="27"/>
+    <row r="157" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A157" s="30"/>
+      <c r="B157" s="20"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
         <v>46</v>
@@ -5520,8 +5736,8 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="41" t="s">
+    <row r="158" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A158" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B158" s="5" t="s">
@@ -5543,8 +5759,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="41"/>
+    <row r="159" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A159" s="29"/>
       <c r="B159" s="6" t="s">
         <v>233</v>
       </c>
@@ -5566,8 +5782,8 @@
         <v>236</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="41"/>
+    <row r="160" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A160" s="29"/>
       <c r="B160" s="28" t="s">
         <v>238</v>
       </c>
@@ -5589,8 +5805,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="41"/>
+    <row r="161" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A161" s="29"/>
       <c r="B161" s="28"/>
       <c r="C161" s="1"/>
       <c r="D161" s="4" t="s">
@@ -5608,11 +5824,11 @@
         <v>249</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="35" t="s">
+    <row r="162" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A162" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B162" s="27" t="s">
+      <c r="B162" s="20" t="s">
         <v>259</v>
       </c>
       <c r="C162" s="1"/>
@@ -5629,9 +5845,9 @@
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
     </row>
-    <row r="163" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="36"/>
-      <c r="B163" s="27"/>
+    <row r="163" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A163" s="19"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1" t="s">
         <v>261</v>
@@ -5650,9 +5866,9 @@
         <v>270</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="36"/>
-      <c r="B164" s="27"/>
+    <row r="164" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A164" s="19"/>
+      <c r="B164" s="20"/>
       <c r="C164" s="1"/>
       <c r="D164" s="2" t="s">
         <v>262</v>
@@ -5667,8 +5883,8 @@
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
     </row>
-    <row r="165" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="36"/>
+    <row r="165" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A165" s="19"/>
       <c r="B165" s="8" t="s">
         <v>263</v>
       </c>
@@ -5691,12 +5907,57 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="C87:C88"/>
+  <mergeCells count="71">
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B68:B70"/>
+    <mergeCell ref="A45:A70"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="B45:B52"/>
+    <mergeCell ref="B53:B56"/>
+    <mergeCell ref="B57:B63"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C45:C50"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="B101:B105"/>
+    <mergeCell ref="A71:A105"/>
+    <mergeCell ref="B71:B75"/>
+    <mergeCell ref="B76:B82"/>
+    <mergeCell ref="B83:B88"/>
+    <mergeCell ref="B89:B94"/>
+    <mergeCell ref="B95:B100"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="B120:B125"/>
+    <mergeCell ref="B126:B131"/>
+    <mergeCell ref="A120:A131"/>
+    <mergeCell ref="B106:B109"/>
+    <mergeCell ref="B110:B113"/>
+    <mergeCell ref="B114:B119"/>
+    <mergeCell ref="A106:A119"/>
+    <mergeCell ref="B155:B157"/>
+    <mergeCell ref="A138:A157"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="B144:B146"/>
+    <mergeCell ref="B147:B149"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="B152:B154"/>
     <mergeCell ref="A162:A165"/>
     <mergeCell ref="B162:B164"/>
     <mergeCell ref="C5:C7"/>
@@ -5713,53 +5974,11 @@
     <mergeCell ref="A132:A137"/>
     <mergeCell ref="B160:B161"/>
     <mergeCell ref="A158:A161"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="A138:A157"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="B120:B125"/>
-    <mergeCell ref="B126:B131"/>
-    <mergeCell ref="A120:A131"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="B114:B119"/>
-    <mergeCell ref="A106:A119"/>
-    <mergeCell ref="A2:A27"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="A71:A105"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="B76:B82"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="A45:A70"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="B45:B52"/>
-    <mergeCell ref="B53:B56"/>
-    <mergeCell ref="B57:B63"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C45:C50"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="C57:C59"/>
-    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C71:C74"/>
+    <mergeCell ref="C76:C80"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C86"/>
+    <mergeCell ref="C87:C88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5768,138 +5987,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:2" ht="28.5" customHeight="1">
+      <c r="A1" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="B1" s="27"/>
-    </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="20"/>
+    </row>
+    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="12" t="s">
         <v>483</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="12" t="s">
         <v>485</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="12" t="s">
         <v>487</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="12" t="s">
         <v>489</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-    </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+    </row>
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="42" t="s">
         <v>491</v>
       </c>
       <c r="B7" s="43"/>
     </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="12" t="s">
         <v>492</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>494</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="12" t="s">
         <v>496</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="12" t="s">
         <v>498</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="42" t="s">
         <v>500</v>
       </c>
       <c r="B13" s="43"/>
     </row>
-    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="12" t="s">
         <v>504</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="12" t="s">
         <v>505</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13" t="s">
+    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="12" t="s">
         <v>506</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
     </row>
@@ -5916,12 +6135,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/内科学笔记/病和方剂汇总.xlsx
+++ b/内科学笔记/病和方剂汇总.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="559">
   <si>
     <t xml:space="preserve">肺系统 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,15 +462,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>气滞血瘀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>寒邪客胃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胆气犯胃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2250,6 +2242,82 @@
   </si>
   <si>
     <t>濡数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枳实导滞丸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脘腹胀疼拒按，喛腐吞酸，厌食恶心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苔厚腻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉滑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理气剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腹痛闷胀，疼不定处，兼两胁疼痛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝郁气滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苔薄白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉弦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瘀血内停</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少腹逐瘀汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理血剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>痛如针刺，痛处固定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉细涩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温里剂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腹疼绵绵，时作时止，喜暖喜按</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>舌淡苔白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脉沉细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2546,19 +2614,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2568,6 +2636,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2582,47 +2689,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2897,11 +2965,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:I165"/>
+  <dimension ref="A1:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I73" sqref="H73:I73"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2925,7 +2993,7 @@
         <v>98</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>99</v>
@@ -2934,65 +3002,65 @@
         <v>100</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>143</v>
+      <c r="B2" s="27" t="s">
+        <v>141</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="27"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="27"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -3000,141 +3068,141 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="33"/>
-      <c r="B5" s="20" t="s">
-        <v>144</v>
+      <c r="A5" s="31"/>
+      <c r="B5" s="27" t="s">
+        <v>142</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="33"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="27"/>
       <c r="C6" s="22"/>
       <c r="D6" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="33"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="23"/>
       <c r="D7" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20" t="s">
-        <v>208</v>
+      <c r="A8" s="31"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27" t="s">
+        <v>206</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="33"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="33"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="33"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="33"/>
-      <c r="B12" s="20" t="s">
-        <v>147</v>
+      <c r="A12" s="31"/>
+      <c r="B12" s="27" t="s">
+        <v>145</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -3142,14 +3210,14 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="33"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="27"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -3157,31 +3225,31 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="33"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="33"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="27"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -3189,1038 +3257,1038 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="33"/>
-      <c r="B16" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>210</v>
+      <c r="A16" s="31"/>
+      <c r="B16" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>208</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="33"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="33"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="36" t="s">
-        <v>334</v>
+      <c r="A18" s="31"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="25" t="s">
+        <v>332</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="33"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="33"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="33"/>
-      <c r="B21" s="20" t="s">
-        <v>146</v>
+      <c r="A21" s="31"/>
+      <c r="B21" s="27" t="s">
+        <v>144</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="33"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="16"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="33"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="16"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="33"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="17"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="33"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="27"/>
       <c r="C25" s="21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="33"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="27"/>
       <c r="C26" s="22"/>
       <c r="D26" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="33"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="27"/>
       <c r="C27" s="23"/>
       <c r="D27" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="37" t="s">
         <v>1</v>
       </c>
       <c r="B28" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="38"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="E29" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="38"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="D28" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="4" t="s">
+      <c r="F30" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="38"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="F29" s="4" t="s">
+      <c r="E31" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="H31" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="25"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E31" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="F31" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>322</v>
-      </c>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="25"/>
+      <c r="A32" s="38"/>
       <c r="B32" s="22"/>
       <c r="C32" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E32" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="G32" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="I32" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="H32" s="4" t="s">
+    </row>
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="38"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="I32" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="25"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E33" s="4" t="s">
+      <c r="G33" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="I33" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="I33" s="4" t="s">
+    </row>
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="38"/>
+      <c r="B34" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>337</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="38"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="25"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="E35" s="1" t="s">
+      <c r="H35" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="38"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="G36" s="1" t="s">
+      <c r="I36" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>347</v>
-      </c>
     </row>
     <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="25"/>
+      <c r="A37" s="38"/>
       <c r="B37" s="22"/>
       <c r="C37" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="38"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="G38" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A39" s="38"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="25"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="25"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="4" t="s">
+      <c r="G39" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="38"/>
+      <c r="B40" s="21" t="s">
         <v>289</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H39" s="1" t="s">
+      <c r="C40" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="25"/>
-      <c r="B40" s="21" t="s">
+      <c r="G40" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="38"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="H40" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="25"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="H41" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="I41" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>373</v>
-      </c>
     </row>
     <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="25"/>
+      <c r="A42" s="38"/>
       <c r="B42" s="22"/>
       <c r="C42" s="15" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="I42" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H42" s="1" t="s">
+    </row>
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="38"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="25"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="4" t="s">
+      <c r="G43" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="39"/>
+      <c r="B44" s="23"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G44" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="I43" s="1" t="s">
+      <c r="H44" s="1" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="26"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="E44" s="1" t="s">
+      <c r="I44" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H44" s="1" t="s">
+    </row>
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>388</v>
-      </c>
       <c r="C45" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="19"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="19"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="19"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="19"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="19"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="39"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="4" t="s">
-        <v>394</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="39"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>406</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>407</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="39"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>412</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="39"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="39"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>440</v>
-      </c>
-      <c r="G50" s="4" t="s">
+      <c r="I50" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>438</v>
-      </c>
     </row>
     <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="39"/>
+      <c r="A51" s="19"/>
       <c r="B51" s="22"/>
       <c r="C51" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="G51" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="H51" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="G51" s="4" t="s">
+      <c r="I51" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>425</v>
-      </c>
     </row>
     <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="39"/>
+      <c r="A52" s="19"/>
       <c r="B52" s="23"/>
-      <c r="C52" s="17"/>
+      <c r="C52" s="16"/>
       <c r="D52" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>298</v>
-      </c>
-      <c r="G52" s="4" t="s">
+      <c r="I52" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>418</v>
-      </c>
     </row>
     <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="39"/>
+      <c r="A53" s="19"/>
       <c r="B53" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G53" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="I53" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>445</v>
-      </c>
     </row>
     <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="39"/>
-      <c r="B54" s="16"/>
+      <c r="A54" s="19"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="23"/>
       <c r="D54" s="4" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F54" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="I54" s="1" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="19"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="19"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="19"/>
+      <c r="B57" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E57" s="4" t="s">
         <v>455</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="39"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="15" t="s">
+      <c r="F57" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="39"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="39"/>
-      <c r="B57" s="15" t="s">
-        <v>390</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="D57" s="4" t="s">
+      <c r="G57" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="I57" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>460</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>430</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>458</v>
-      </c>
     </row>
     <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="39"/>
-      <c r="B58" s="16"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="22"/>
       <c r="D58" s="4" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="39"/>
-      <c r="B59" s="16"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="17"/>
       <c r="C59" s="23"/>
       <c r="D59" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="F59" s="4" t="s">
         <v>462</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="F59" s="4" t="s">
+      <c r="G59" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="H59" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="19"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="H59" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="I59" s="4" t="s">
+      <c r="E60" s="4" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="39"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="41" t="s">
-        <v>477</v>
-      </c>
-      <c r="D60" s="4" t="s">
+      <c r="F60" s="4" t="s">
         <v>468</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="G60" s="4" t="s">
         <v>469</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>470</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>471</v>
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="39"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
+      <c r="A61" s="19"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
       <c r="D61" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>462</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>473</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>474</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="39"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17"/>
+      <c r="A62" s="19"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
@@ -4228,290 +4296,322 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="39"/>
-      <c r="B63" s="17"/>
+      <c r="A63" s="19"/>
+      <c r="B63" s="16"/>
       <c r="C63" s="11" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="39"/>
+      <c r="A64" s="19"/>
       <c r="B64" s="15" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F64" s="4" t="s">
         <v>507</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="G64" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>509</v>
-      </c>
-      <c r="G64" s="4" t="s">
-        <v>510</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="39"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="17"/>
+      <c r="A65" s="19"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H65" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A66" s="19"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A66" s="39"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="15" t="s">
+      <c r="D66" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>518</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A67" s="39"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
+      <c r="A67" s="19"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
       <c r="D67" s="4" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A68" s="39"/>
+      <c r="A68" s="19"/>
       <c r="B68" s="15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A69" s="39"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17"/>
+      <c r="A69" s="19"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="16"/>
       <c r="D69" s="4" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G69" s="4"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A70" s="40"/>
-      <c r="B70" s="17"/>
+      <c r="A70" s="20"/>
+      <c r="B70" s="16"/>
       <c r="C70" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>530</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>532</v>
-      </c>
       <c r="G70" s="4" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="34" t="s">
-        <v>140</v>
+      <c r="A71" s="29" t="s">
+        <v>138</v>
       </c>
       <c r="B71" s="28" t="s">
         <v>102</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G71" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="I71" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="H71" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>536</v>
-      </c>
     </row>
     <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="35"/>
+      <c r="A72" s="30"/>
       <c r="B72" s="28"/>
-      <c r="C72" s="16"/>
+      <c r="C72" s="17"/>
       <c r="D72" s="4" t="s">
         <v>108</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F72" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="H72" s="4" t="s">
         <v>538</v>
       </c>
-      <c r="G72" s="4" t="s">
+      <c r="I72" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="H72" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>541</v>
-      </c>
     </row>
     <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="35"/>
+      <c r="A73" s="30"/>
       <c r="B73" s="28"/>
-      <c r="C73" s="16"/>
+      <c r="C73" s="17"/>
       <c r="D73" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="4"/>
-      <c r="H73" s="1"/>
-      <c r="I73" s="1"/>
+        <v>541</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="35"/>
+      <c r="A74" s="30"/>
       <c r="B74" s="28"/>
       <c r="C74" s="17"/>
       <c r="D74" s="4" t="s">
-        <v>111</v>
+        <v>547</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
+      <c r="F74" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>549</v>
+      </c>
     </row>
     <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="35"/>
+      <c r="A75" s="30"/>
       <c r="B75" s="28"/>
-      <c r="C75" s="10" t="s">
-        <v>426</v>
-      </c>
+      <c r="C75" s="16"/>
       <c r="D75" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="30"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-    </row>
-    <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="35"/>
-      <c r="B76" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
+      <c r="F76" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>557</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="35"/>
-      <c r="B77" s="28"/>
-      <c r="C77" s="16"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>433</v>
+      </c>
       <c r="D77" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="4"/>
@@ -4519,14 +4619,14 @@
       <c r="I77" s="4"/>
     </row>
     <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="35"/>
+      <c r="A78" s="30"/>
       <c r="B78" s="28"/>
-      <c r="C78" s="16"/>
+      <c r="C78" s="17"/>
       <c r="D78" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="4"/>
@@ -4534,14 +4634,14 @@
       <c r="I78" s="4"/>
     </row>
     <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="35"/>
+      <c r="A79" s="30"/>
       <c r="B79" s="28"/>
-      <c r="C79" s="16"/>
+      <c r="C79" s="17"/>
       <c r="D79" s="4" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="4"/>
@@ -4549,14 +4649,14 @@
       <c r="I79" s="4"/>
     </row>
     <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="35"/>
+      <c r="A80" s="30"/>
       <c r="B80" s="28"/>
       <c r="C80" s="17"/>
       <c r="D80" s="4" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>316</v>
+        <v>119</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="4"/>
@@ -4564,16 +4664,14 @@
       <c r="I80" s="4"/>
     </row>
     <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="35"/>
+      <c r="A81" s="30"/>
       <c r="B81" s="28"/>
-      <c r="C81" s="15" t="s">
-        <v>426</v>
-      </c>
+      <c r="C81" s="16"/>
       <c r="D81" s="4" t="s">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="4"/>
@@ -4581,14 +4679,16 @@
       <c r="I81" s="4"/>
     </row>
     <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="35"/>
+      <c r="A82" s="30"/>
       <c r="B82" s="28"/>
-      <c r="C82" s="17"/>
+      <c r="C82" s="15" t="s">
+        <v>424</v>
+      </c>
       <c r="D82" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="4"/>
@@ -4596,18 +4696,14 @@
       <c r="I82" s="4"/>
     </row>
     <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="35"/>
-      <c r="B83" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>435</v>
-      </c>
+      <c r="A83" s="30"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="16"/>
       <c r="D83" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>124</v>
+        <v>114</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="4"/>
@@ -4615,14 +4711,18 @@
       <c r="I83" s="4"/>
     </row>
     <row r="84" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="35"/>
-      <c r="B84" s="28"/>
-      <c r="C84" s="16"/>
+      <c r="A84" s="30"/>
+      <c r="B84" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>433</v>
+      </c>
       <c r="D84" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F84" s="1"/>
       <c r="G84" s="4"/>
@@ -4630,14 +4730,14 @@
       <c r="I84" s="4"/>
     </row>
     <row r="85" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="35"/>
+      <c r="A85" s="30"/>
       <c r="B85" s="28"/>
-      <c r="C85" s="16"/>
+      <c r="C85" s="17"/>
       <c r="D85" s="4" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>313</v>
+        <v>118</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="4"/>
@@ -4645,14 +4745,14 @@
       <c r="I85" s="4"/>
     </row>
     <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="35"/>
+      <c r="A86" s="30"/>
       <c r="B86" s="28"/>
       <c r="C86" s="17"/>
       <c r="D86" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="4"/>
@@ -4660,16 +4760,14 @@
       <c r="I86" s="4"/>
     </row>
     <row r="87" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="35"/>
+      <c r="A87" s="30"/>
       <c r="B87" s="28"/>
-      <c r="C87" s="15" t="s">
-        <v>426</v>
-      </c>
+      <c r="C87" s="16"/>
       <c r="D87" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>127</v>
+        <v>312</v>
       </c>
       <c r="F87" s="1"/>
       <c r="G87" s="4"/>
@@ -4677,14 +4775,16 @@
       <c r="I87" s="4"/>
     </row>
     <row r="88" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="35"/>
+      <c r="A88" s="30"/>
       <c r="B88" s="28"/>
-      <c r="C88" s="17"/>
+      <c r="C88" s="15" t="s">
+        <v>424</v>
+      </c>
       <c r="D88" s="4" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F88" s="1"/>
       <c r="G88" s="4"/>
@@ -4692,16 +4792,14 @@
       <c r="I88" s="4"/>
     </row>
     <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="35"/>
-      <c r="B89" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="C89" s="1"/>
+      <c r="A89" s="30"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="16"/>
       <c r="D89" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="4"/>
@@ -4709,14 +4807,16 @@
       <c r="I89" s="4"/>
     </row>
     <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="35"/>
-      <c r="B90" s="28"/>
+      <c r="A90" s="30"/>
+      <c r="B90" s="28" t="s">
+        <v>104</v>
+      </c>
       <c r="C90" s="1"/>
       <c r="D90" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="4"/>
@@ -4724,14 +4824,14 @@
       <c r="I90" s="4"/>
     </row>
     <row r="91" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="35"/>
+      <c r="A91" s="30"/>
       <c r="B91" s="28"/>
       <c r="C91" s="1"/>
       <c r="D91" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="4"/>
@@ -4739,14 +4839,14 @@
       <c r="I91" s="4"/>
     </row>
     <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="35"/>
+      <c r="A92" s="30"/>
       <c r="B92" s="28"/>
       <c r="C92" s="1"/>
       <c r="D92" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="4"/>
@@ -4754,14 +4854,14 @@
       <c r="I92" s="4"/>
     </row>
     <row r="93" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="35"/>
+      <c r="A93" s="30"/>
       <c r="B93" s="28"/>
       <c r="C93" s="1"/>
       <c r="D93" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="4"/>
@@ -4769,14 +4869,14 @@
       <c r="I93" s="4"/>
     </row>
     <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="35"/>
+      <c r="A94" s="30"/>
       <c r="B94" s="28"/>
       <c r="C94" s="1"/>
       <c r="D94" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="4"/>
@@ -4784,21 +4884,25 @@
       <c r="I94" s="4"/>
     </row>
     <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="35"/>
-      <c r="B95" s="28" t="s">
+      <c r="A95" s="30"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F95" s="1"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+    </row>
+    <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A96" s="30"/>
+      <c r="B96" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="35"/>
-      <c r="B96" s="28"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -4808,7 +4912,7 @@
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="35"/>
+      <c r="A97" s="30"/>
       <c r="B97" s="28"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -4819,7 +4923,7 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="35"/>
+      <c r="A98" s="30"/>
       <c r="B98" s="28"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -4830,7 +4934,7 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="35"/>
+      <c r="A99" s="30"/>
       <c r="B99" s="28"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -4841,7 +4945,7 @@
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="35"/>
+      <c r="A100" s="30"/>
       <c r="B100" s="28"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -4852,10 +4956,8 @@
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="35"/>
-      <c r="B101" s="28" t="s">
-        <v>106</v>
-      </c>
+      <c r="A101" s="30"/>
+      <c r="B101" s="28"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
@@ -4865,8 +4967,10 @@
       <c r="I101" s="1"/>
     </row>
     <row r="102" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="35"/>
-      <c r="B102" s="28"/>
+      <c r="A102" s="30"/>
+      <c r="B102" s="28" t="s">
+        <v>106</v>
+      </c>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
@@ -4876,7 +4980,7 @@
       <c r="I102" s="1"/>
     </row>
     <row r="103" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="35"/>
+      <c r="A103" s="30"/>
       <c r="B103" s="28"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4887,7 +4991,7 @@
       <c r="I103" s="1"/>
     </row>
     <row r="104" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="35"/>
+      <c r="A104" s="30"/>
       <c r="B104" s="28"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4898,7 +5002,7 @@
       <c r="I104" s="1"/>
     </row>
     <row r="105" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="35"/>
+      <c r="A105" s="30"/>
       <c r="B105" s="28"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4909,33 +5013,29 @@
       <c r="I105" s="1"/>
     </row>
     <row r="106" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="B106" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="A106" s="30"/>
+      <c r="B106" s="28"/>
       <c r="C106" s="1"/>
-      <c r="D106" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
     <row r="107" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="32"/>
-      <c r="B107" s="20"/>
+      <c r="A107" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" s="27" t="s">
+        <v>71</v>
+      </c>
       <c r="C107" s="1"/>
       <c r="D107" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -4943,14 +5043,14 @@
       <c r="I107" s="1"/>
     </row>
     <row r="108" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="32"/>
-      <c r="B108" s="20"/>
+      <c r="A108" s="33"/>
+      <c r="B108" s="27"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -4958,14 +5058,14 @@
       <c r="I108" s="1"/>
     </row>
     <row r="109" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="32"/>
-      <c r="B109" s="20"/>
+      <c r="A109" s="33"/>
+      <c r="B109" s="27"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -4973,16 +5073,14 @@
       <c r="I109" s="1"/>
     </row>
     <row r="110" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="32"/>
-      <c r="B110" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="A110" s="33"/>
+      <c r="B110" s="27"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -4990,14 +5088,16 @@
       <c r="I110" s="1"/>
     </row>
     <row r="111" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="32"/>
-      <c r="B111" s="20"/>
+      <c r="A111" s="33"/>
+      <c r="B111" s="27" t="s">
+        <v>80</v>
+      </c>
       <c r="C111" s="1"/>
       <c r="D111" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E111" s="4" t="s">
-        <v>317</v>
+        <v>81</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -5005,14 +5105,14 @@
       <c r="I111" s="1"/>
     </row>
     <row r="112" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="32"/>
-      <c r="B112" s="20"/>
+      <c r="A112" s="33"/>
+      <c r="B112" s="27"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>315</v>
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -5020,14 +5120,14 @@
       <c r="I112" s="1"/>
     </row>
     <row r="113" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="32"/>
-      <c r="B113" s="20"/>
+      <c r="A113" s="33"/>
+      <c r="B113" s="27"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
@@ -5035,16 +5135,14 @@
       <c r="I113" s="1"/>
     </row>
     <row r="114" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="32"/>
-      <c r="B114" s="20" t="s">
-        <v>88</v>
-      </c>
+      <c r="A114" s="33"/>
+      <c r="B114" s="27"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -5052,14 +5150,16 @@
       <c r="I114" s="1"/>
     </row>
     <row r="115" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="32"/>
-      <c r="B115" s="20"/>
+      <c r="A115" s="33"/>
+      <c r="B115" s="27" t="s">
+        <v>88</v>
+      </c>
       <c r="C115" s="1"/>
       <c r="D115" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1"/>
@@ -5067,14 +5167,14 @@
       <c r="I115" s="1"/>
     </row>
     <row r="116" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="32"/>
-      <c r="B116" s="20"/>
+      <c r="A116" s="33"/>
+      <c r="B116" s="27"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -5082,14 +5182,14 @@
       <c r="I116" s="1"/>
     </row>
     <row r="117" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="32"/>
-      <c r="B117" s="20"/>
+      <c r="A117" s="33"/>
+      <c r="B117" s="27"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1"/>
@@ -5097,14 +5197,14 @@
       <c r="I117" s="1"/>
     </row>
     <row r="118" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="32"/>
-      <c r="B118" s="20"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="27"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>318</v>
+        <v>93</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -5112,14 +5212,14 @@
       <c r="I118" s="1"/>
     </row>
     <row r="119" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="32"/>
-      <c r="B119" s="20"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="27"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F119" s="1"/>
       <c r="G119" s="1"/>
@@ -5127,18 +5227,14 @@
       <c r="I119" s="1"/>
     </row>
     <row r="120" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B120" s="20" t="s">
-        <v>47</v>
-      </c>
+      <c r="A120" s="33"/>
+      <c r="B120" s="27"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>48</v>
+        <v>96</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>317</v>
       </c>
       <c r="F120" s="1"/>
       <c r="G120" s="1"/>
@@ -5146,14 +5242,18 @@
       <c r="I120" s="1"/>
     </row>
     <row r="121" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="31"/>
-      <c r="B121" s="20"/>
+      <c r="A121" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>47</v>
+      </c>
       <c r="C121" s="1"/>
       <c r="D121" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F121" s="1"/>
       <c r="G121" s="1"/>
@@ -5161,14 +5261,14 @@
       <c r="I121" s="1"/>
     </row>
     <row r="122" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A122" s="31"/>
-      <c r="B122" s="20"/>
+      <c r="A122" s="32"/>
+      <c r="B122" s="27"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F122" s="1"/>
       <c r="G122" s="1"/>
@@ -5176,14 +5276,14 @@
       <c r="I122" s="1"/>
     </row>
     <row r="123" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="31"/>
-      <c r="B123" s="20"/>
+      <c r="A123" s="32"/>
+      <c r="B123" s="27"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F123" s="1"/>
       <c r="G123" s="1"/>
@@ -5191,14 +5291,14 @@
       <c r="I123" s="1"/>
     </row>
     <row r="124" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="31"/>
-      <c r="B124" s="20"/>
+      <c r="A124" s="32"/>
+      <c r="B124" s="27"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F124" s="1"/>
       <c r="G124" s="1"/>
@@ -5206,14 +5306,14 @@
       <c r="I124" s="1"/>
     </row>
     <row r="125" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="31"/>
-      <c r="B125" s="20"/>
+      <c r="A125" s="32"/>
+      <c r="B125" s="27"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>243</v>
+        <v>56</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="F125" s="1"/>
       <c r="G125" s="1"/>
@@ -5221,31 +5321,31 @@
       <c r="I125" s="1"/>
     </row>
     <row r="126" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A126" s="31"/>
-      <c r="B126" s="20" t="s">
+      <c r="A126" s="32"/>
+      <c r="B126" s="27"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A127" s="32"/>
+      <c r="B127" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C126" s="1"/>
-      <c r="D126" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F126" s="1"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="31"/>
-      <c r="B127" s="20"/>
       <c r="C127" s="1"/>
       <c r="D127" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F127" s="1"/>
       <c r="G127" s="2"/>
@@ -5253,14 +5353,14 @@
       <c r="I127" s="2"/>
     </row>
     <row r="128" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="31"/>
-      <c r="B128" s="20"/>
+      <c r="A128" s="32"/>
+      <c r="B128" s="27"/>
       <c r="C128" s="1"/>
       <c r="D128" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F128" s="1"/>
       <c r="G128" s="2"/>
@@ -5268,14 +5368,14 @@
       <c r="I128" s="2"/>
     </row>
     <row r="129" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A129" s="31"/>
-      <c r="B129" s="20"/>
+      <c r="A129" s="32"/>
+      <c r="B129" s="27"/>
       <c r="C129" s="1"/>
       <c r="D129" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>242</v>
+        <v>64</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="F129" s="1"/>
       <c r="G129" s="2"/>
@@ -5283,14 +5383,14 @@
       <c r="I129" s="2"/>
     </row>
     <row r="130" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A130" s="31"/>
-      <c r="B130" s="20"/>
+      <c r="A130" s="32"/>
+      <c r="B130" s="27"/>
       <c r="C130" s="1"/>
       <c r="D130" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="F130" s="1"/>
       <c r="G130" s="2"/>
@@ -5298,14 +5398,14 @@
       <c r="I130" s="2"/>
     </row>
     <row r="131" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A131" s="31"/>
-      <c r="B131" s="20"/>
+      <c r="A131" s="32"/>
+      <c r="B131" s="27"/>
       <c r="C131" s="1"/>
       <c r="D131" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F131" s="1"/>
       <c r="G131" s="2"/>
@@ -5313,141 +5413,141 @@
       <c r="I131" s="2"/>
     </row>
     <row r="132" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A132" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>211</v>
-      </c>
+      <c r="A132" s="32"/>
+      <c r="B132" s="27"/>
       <c r="C132" s="1"/>
       <c r="D132" s="2" t="s">
-        <v>212</v>
+        <v>68</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>225</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="F132" s="1"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
     </row>
     <row r="133" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="27"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="1" t="s">
-        <v>254</v>
-      </c>
+      <c r="A133" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B133" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="C133" s="1"/>
       <c r="D133" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F133" s="1"/>
+        <v>210</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
     <row r="134" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="27"/>
-      <c r="B134" s="20"/>
+      <c r="A134" s="40"/>
+      <c r="B134" s="27"/>
       <c r="C134" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F134" s="1" t="s">
-        <v>216</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F134" s="1"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
     <row r="135" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="27"/>
-      <c r="B135" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C135" s="1"/>
+      <c r="A135" s="40"/>
+      <c r="B135" s="27"/>
+      <c r="C135" s="1" t="s">
+        <v>253</v>
+      </c>
       <c r="D135" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F135" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
     <row r="136" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A136" s="27"/>
-      <c r="B136" s="20"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="27" t="s">
+        <v>215</v>
+      </c>
       <c r="C136" s="1"/>
       <c r="D136" s="2" t="s">
-        <v>219</v>
+        <v>251</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>221</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="F136" s="1"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
     <row r="137" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A137" s="27"/>
-      <c r="B137" s="20"/>
+      <c r="A137" s="40"/>
+      <c r="B137" s="27"/>
       <c r="C137" s="1"/>
       <c r="D137" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
     <row r="138" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A138" s="30" t="s">
-        <v>142</v>
-      </c>
-      <c r="B138" s="20" t="s">
+      <c r="A138" s="40"/>
+      <c r="B138" s="27"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A139" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C138" s="1"/>
-      <c r="D138" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F138" s="1"/>
-      <c r="G138" s="1"/>
-      <c r="H138" s="1"/>
-      <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A139" s="30"/>
-      <c r="B139" s="20"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F139" s="1"/>
       <c r="G139" s="1"/>
@@ -5455,14 +5555,14 @@
       <c r="I139" s="1"/>
     </row>
     <row r="140" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A140" s="30"/>
-      <c r="B140" s="20"/>
+      <c r="A140" s="34"/>
+      <c r="B140" s="27"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F140" s="1"/>
       <c r="G140" s="1"/>
@@ -5470,14 +5570,14 @@
       <c r="I140" s="1"/>
     </row>
     <row r="141" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A141" s="30"/>
-      <c r="B141" s="20"/>
+      <c r="A141" s="34"/>
+      <c r="B141" s="27"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F141" s="1"/>
       <c r="G141" s="1"/>
@@ -5485,16 +5585,14 @@
       <c r="I141" s="1"/>
     </row>
     <row r="142" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A142" s="30"/>
-      <c r="B142" s="20" t="s">
-        <v>16</v>
-      </c>
+      <c r="A142" s="34"/>
+      <c r="B142" s="27"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F142" s="1"/>
       <c r="G142" s="1"/>
@@ -5502,14 +5600,16 @@
       <c r="I142" s="1"/>
     </row>
     <row r="143" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A143" s="30"/>
-      <c r="B143" s="20"/>
+      <c r="A143" s="34"/>
+      <c r="B143" s="27" t="s">
+        <v>16</v>
+      </c>
       <c r="C143" s="1"/>
       <c r="D143" s="1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F143" s="1"/>
       <c r="G143" s="1"/>
@@ -5517,16 +5617,14 @@
       <c r="I143" s="1"/>
     </row>
     <row r="144" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A144" s="30"/>
-      <c r="B144" s="20" t="s">
-        <v>20</v>
-      </c>
+      <c r="A144" s="34"/>
+      <c r="B144" s="27"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F144" s="1"/>
       <c r="G144" s="1"/>
@@ -5534,14 +5632,16 @@
       <c r="I144" s="1"/>
     </row>
     <row r="145" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A145" s="30"/>
-      <c r="B145" s="20"/>
+      <c r="A145" s="34"/>
+      <c r="B145" s="27" t="s">
+        <v>20</v>
+      </c>
       <c r="C145" s="1"/>
       <c r="D145" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>240</v>
+        <v>21</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F145" s="1"/>
       <c r="G145" s="1"/>
@@ -5549,14 +5649,14 @@
       <c r="I145" s="1"/>
     </row>
     <row r="146" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A146" s="30"/>
-      <c r="B146" s="20"/>
+      <c r="A146" s="34"/>
+      <c r="B146" s="27"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>238</v>
       </c>
       <c r="F146" s="1"/>
       <c r="G146" s="1"/>
@@ -5564,16 +5664,14 @@
       <c r="I146" s="1"/>
     </row>
     <row r="147" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A147" s="30"/>
-      <c r="B147" s="20" t="s">
-        <v>26</v>
-      </c>
+      <c r="A147" s="34"/>
+      <c r="B147" s="27"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F147" s="1"/>
       <c r="G147" s="1"/>
@@ -5581,14 +5679,16 @@
       <c r="I147" s="1"/>
     </row>
     <row r="148" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A148" s="30"/>
-      <c r="B148" s="20"/>
+      <c r="A148" s="34"/>
+      <c r="B148" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="C148" s="1"/>
       <c r="D148" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F148" s="1"/>
       <c r="G148" s="1"/>
@@ -5596,14 +5696,14 @@
       <c r="I148" s="1"/>
     </row>
     <row r="149" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="30"/>
-      <c r="B149" s="20"/>
+      <c r="A149" s="34"/>
+      <c r="B149" s="27"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F149" s="1"/>
       <c r="G149" s="1"/>
@@ -5611,16 +5711,14 @@
       <c r="I149" s="1"/>
     </row>
     <row r="150" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="30"/>
-      <c r="B150" s="20" t="s">
-        <v>31</v>
-      </c>
+      <c r="A150" s="34"/>
+      <c r="B150" s="27"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F150" s="1"/>
       <c r="G150" s="1"/>
@@ -5628,14 +5726,16 @@
       <c r="I150" s="1"/>
     </row>
     <row r="151" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="30"/>
-      <c r="B151" s="20"/>
+      <c r="A151" s="34"/>
+      <c r="B151" s="27" t="s">
+        <v>31</v>
+      </c>
       <c r="C151" s="1"/>
       <c r="D151" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F151" s="1"/>
       <c r="G151" s="1"/>
@@ -5643,16 +5743,14 @@
       <c r="I151" s="1"/>
     </row>
     <row r="152" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="30"/>
-      <c r="B152" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="A152" s="34"/>
+      <c r="B152" s="27"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F152" s="1"/>
       <c r="G152" s="1"/>
@@ -5660,14 +5758,16 @@
       <c r="I152" s="1"/>
     </row>
     <row r="153" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="30"/>
-      <c r="B153" s="20"/>
+      <c r="A153" s="34"/>
+      <c r="B153" s="27" t="s">
+        <v>36</v>
+      </c>
       <c r="C153" s="1"/>
       <c r="D153" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F153" s="1"/>
       <c r="G153" s="1"/>
@@ -5675,14 +5775,14 @@
       <c r="I153" s="1"/>
     </row>
     <row r="154" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="30"/>
-      <c r="B154" s="20"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="27"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="F154" s="1"/>
       <c r="G154" s="1"/>
@@ -5690,16 +5790,14 @@
       <c r="I154" s="1"/>
     </row>
     <row r="155" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="30"/>
-      <c r="B155" s="20" t="s">
-        <v>42</v>
-      </c>
+      <c r="A155" s="34"/>
+      <c r="B155" s="27"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F155" s="1"/>
       <c r="G155" s="1"/>
@@ -5707,14 +5805,16 @@
       <c r="I155" s="1"/>
     </row>
     <row r="156" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="30"/>
-      <c r="B156" s="20"/>
+      <c r="A156" s="34"/>
+      <c r="B156" s="27" t="s">
+        <v>42</v>
+      </c>
       <c r="C156" s="1"/>
       <c r="D156" s="1" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F156" s="1"/>
       <c r="G156" s="1"/>
@@ -5722,14 +5822,14 @@
       <c r="I156" s="1"/>
     </row>
     <row r="157" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="30"/>
-      <c r="B157" s="20"/>
+      <c r="A157" s="34"/>
+      <c r="B157" s="27"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="F157" s="1"/>
       <c r="G157" s="1"/>
@@ -5737,177 +5837,247 @@
       <c r="I157" s="1"/>
     </row>
     <row r="158" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="29" t="s">
+      <c r="A158" s="34"/>
+      <c r="B158" s="27"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A159" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B158" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C158" s="1"/>
-      <c r="D158" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F158" s="1"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2" t="s">
+      <c r="B159" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C159" s="1"/>
+      <c r="D159" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F159" s="1"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A160" s="41"/>
+      <c r="B160" s="6" t="s">
         <v>231</v>
-      </c>
-      <c r="I158" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="29"/>
-      <c r="B159" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C159" s="1"/>
-      <c r="D159" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="G159" s="1"/>
-      <c r="H159" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="I159" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A160" s="29"/>
-      <c r="B160" s="28" t="s">
-        <v>238</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="4" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G160" s="1"/>
       <c r="H160" s="4" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A161" s="29"/>
-      <c r="B161" s="28"/>
+      <c r="A161" s="41"/>
+      <c r="B161" s="28" t="s">
+        <v>236</v>
+      </c>
       <c r="C161" s="1"/>
       <c r="D161" s="4" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F161" s="1"/>
+        <v>255</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>256</v>
+      </c>
       <c r="G161" s="1"/>
       <c r="H161" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A162" s="18" t="s">
+      <c r="A162" s="41"/>
+      <c r="B162" s="28"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I162" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A163" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="B162" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C162" s="1"/>
-      <c r="D162" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="F162" s="1"/>
-      <c r="G162" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="H162" s="1"/>
-      <c r="I162" s="1"/>
-    </row>
-    <row r="163" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="19"/>
-      <c r="B163" s="20"/>
+      <c r="B163" s="27" t="s">
+        <v>257</v>
+      </c>
       <c r="C163" s="1"/>
       <c r="D163" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F163" s="1"/>
       <c r="G163" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H163" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="I163" s="4" t="s">
-        <v>270</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="H163" s="1"/>
+      <c r="I163" s="1"/>
     </row>
     <row r="164" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A164" s="19"/>
-      <c r="B164" s="20"/>
+      <c r="A164" s="36"/>
+      <c r="B164" s="27"/>
       <c r="C164" s="1"/>
-      <c r="D164" s="2" t="s">
-        <v>262</v>
+      <c r="D164" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F164" s="1"/>
       <c r="G164" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="H164" s="1"/>
-      <c r="I164" s="1"/>
+        <v>266</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="165" spans="1:9" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="19"/>
-      <c r="B165" s="8" t="s">
-        <v>263</v>
-      </c>
+      <c r="A165" s="36"/>
+      <c r="B165" s="27"/>
       <c r="C165" s="1"/>
-      <c r="D165" s="4" t="s">
-        <v>273</v>
+      <c r="D165" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F165" s="1"/>
       <c r="G165" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+    </row>
+    <row r="166" spans="1:9" ht="20.100000000000001" customHeight="1">
+      <c r="A166" s="36"/>
+      <c r="B166" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C166" s="1"/>
+      <c r="D166" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F166" s="1"/>
+      <c r="G166" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I166" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="H165" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="I165" s="4" t="s">
-        <v>277</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C87"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="C71:C75"/>
+    <mergeCell ref="A163:A166"/>
+    <mergeCell ref="B163:B165"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B28:B33"/>
+    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B40:B44"/>
+    <mergeCell ref="A28:A44"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B133:B135"/>
+    <mergeCell ref="B136:B138"/>
+    <mergeCell ref="A133:A138"/>
+    <mergeCell ref="B161:B162"/>
+    <mergeCell ref="A159:A162"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="A139:A158"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B147"/>
+    <mergeCell ref="B148:B150"/>
+    <mergeCell ref="B151:B152"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="B121:B126"/>
+    <mergeCell ref="B127:B132"/>
+    <mergeCell ref="A121:A132"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="B115:B120"/>
+    <mergeCell ref="A107:A120"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B20"/>
+    <mergeCell ref="B21:B27"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="A71:A106"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B77:B83"/>
+    <mergeCell ref="B84:B89"/>
+    <mergeCell ref="B90:B95"/>
+    <mergeCell ref="B96:B101"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="C68:C69"/>
     <mergeCell ref="B64:B67"/>
     <mergeCell ref="B68:B70"/>
@@ -5924,61 +6094,6 @@
     <mergeCell ref="C57:C59"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="C64:C65"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B101:B105"/>
-    <mergeCell ref="A71:A105"/>
-    <mergeCell ref="B71:B75"/>
-    <mergeCell ref="B76:B82"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B89:B94"/>
-    <mergeCell ref="B95:B100"/>
-    <mergeCell ref="A2:A27"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="B120:B125"/>
-    <mergeCell ref="B126:B131"/>
-    <mergeCell ref="A120:A131"/>
-    <mergeCell ref="B106:B109"/>
-    <mergeCell ref="B110:B113"/>
-    <mergeCell ref="B114:B119"/>
-    <mergeCell ref="A106:A119"/>
-    <mergeCell ref="B155:B157"/>
-    <mergeCell ref="A138:A157"/>
-    <mergeCell ref="B138:B141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="B152:B154"/>
-    <mergeCell ref="A162:A165"/>
-    <mergeCell ref="B162:B164"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="A28:A44"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B132:B134"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="A132:A137"/>
-    <mergeCell ref="B160:B161"/>
-    <mergeCell ref="A158:A161"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="C83:C86"/>
-    <mergeCell ref="C87:C88"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6001,41 +6116,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.5" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="B1" s="20"/>
+      <c r="A1" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="B1" s="27"/>
     </row>
     <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -6044,40 +6159,40 @@
     </row>
     <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="42" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B7" s="43"/>
     </row>
     <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1">
@@ -6086,32 +6201,32 @@
     </row>
     <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="42" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B13" s="43"/>
     </row>
     <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1">

--- a/内科学笔记/病和方剂汇总.xlsx
+++ b/内科学笔记/病和方剂汇总.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="566">
   <si>
     <t xml:space="preserve">肺系统 </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2320,12 +2320,40 @@
     <t>脉沉细</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>少阳证候辨识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>往来寒热，脉弦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小柴胡汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒿芩清胆汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪在少阳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胸胁苦满，默默不欲食，心烦喜呕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒轻热重，吐酸苦水，或呕黄涎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2961,18 +2989,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
@@ -2985,7 +3013,7 @@
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30.75" customHeight="1">
+    <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>97</v>
       </c>
@@ -3014,7 +3042,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
@@ -3035,7 +3063,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="31"/>
       <c r="B3" s="27"/>
       <c r="C3" s="1"/>
@@ -3052,7 +3080,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="31"/>
       <c r="B4" s="27"/>
       <c r="C4" s="1"/>
@@ -3067,7 +3095,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="31"/>
       <c r="B5" s="27" t="s">
         <v>142</v>
@@ -3088,7 +3116,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="31"/>
       <c r="B6" s="27"/>
       <c r="C6" s="22"/>
@@ -3105,7 +3133,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="31"/>
       <c r="B7" s="27"/>
       <c r="C7" s="23"/>
@@ -3122,7 +3150,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="31"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27" t="s">
@@ -3141,7 +3169,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="31"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -3158,7 +3186,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="31"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -3175,7 +3203,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="31"/>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -3192,7 +3220,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="31"/>
       <c r="B12" s="27" t="s">
         <v>145</v>
@@ -3209,7 +3237,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="31"/>
       <c r="B13" s="27"/>
       <c r="C13" s="1"/>
@@ -3224,7 +3252,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="31"/>
       <c r="B14" s="27"/>
       <c r="C14" s="1"/>
@@ -3241,7 +3269,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="31"/>
       <c r="B15" s="27"/>
       <c r="C15" s="1"/>
@@ -3256,7 +3284,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="31"/>
       <c r="B16" s="27" t="s">
         <v>143</v>
@@ -3277,7 +3305,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="31"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
@@ -3294,7 +3322,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="31"/>
       <c r="B18" s="27"/>
       <c r="C18" s="25" t="s">
@@ -3313,7 +3341,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31"/>
       <c r="B19" s="27"/>
       <c r="C19" s="26"/>
@@ -3330,7 +3358,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="31"/>
       <c r="B20" s="27"/>
       <c r="C20" s="26"/>
@@ -3347,7 +3375,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="31"/>
       <c r="B21" s="27" t="s">
         <v>144</v>
@@ -3368,7 +3396,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="31"/>
       <c r="B22" s="27"/>
       <c r="C22" s="17"/>
@@ -3385,7 +3413,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="31"/>
       <c r="B23" s="27"/>
       <c r="C23" s="17"/>
@@ -3402,7 +3430,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="31"/>
       <c r="B24" s="27"/>
       <c r="C24" s="16"/>
@@ -3419,7 +3447,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="31"/>
       <c r="B25" s="27"/>
       <c r="C25" s="21" t="s">
@@ -3438,7 +3466,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="31"/>
       <c r="B26" s="27"/>
       <c r="C26" s="22"/>
@@ -3455,7 +3483,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="31"/>
       <c r="B27" s="27"/>
       <c r="C27" s="23"/>
@@ -3472,7 +3500,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="37" t="s">
         <v>1</v>
       </c>
@@ -3499,7 +3527,7 @@
       </c>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="38"/>
       <c r="B29" s="22"/>
       <c r="C29" s="17"/>
@@ -3522,7 +3550,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="38"/>
       <c r="B30" s="22"/>
       <c r="C30" s="17"/>
@@ -3545,7 +3573,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="38"/>
       <c r="B31" s="22"/>
       <c r="C31" s="16"/>
@@ -3568,7 +3596,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="38"/>
       <c r="B32" s="22"/>
       <c r="C32" s="21" t="s">
@@ -3593,7 +3621,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="38"/>
       <c r="B33" s="23"/>
       <c r="C33" s="16"/>
@@ -3616,7 +3644,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="38"/>
       <c r="B34" s="21" t="s">
         <v>288</v>
@@ -3641,7 +3669,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="38"/>
       <c r="B35" s="22"/>
       <c r="C35" s="17"/>
@@ -3664,7 +3692,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="38"/>
       <c r="B36" s="22"/>
       <c r="C36" s="16"/>
@@ -3687,7 +3715,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="38"/>
       <c r="B37" s="22"/>
       <c r="C37" s="15" t="s">
@@ -3712,7 +3740,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="38"/>
       <c r="B38" s="22"/>
       <c r="C38" s="17"/>
@@ -3735,7 +3763,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="38"/>
       <c r="B39" s="23"/>
       <c r="C39" s="16"/>
@@ -3758,7 +3786,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="38"/>
       <c r="B40" s="21" t="s">
         <v>289</v>
@@ -3785,7 +3813,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="38"/>
       <c r="B41" s="22"/>
       <c r="C41" s="16"/>
@@ -3808,7 +3836,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="38"/>
       <c r="B42" s="22"/>
       <c r="C42" s="15" t="s">
@@ -3831,7 +3859,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="38"/>
       <c r="B43" s="22"/>
       <c r="C43" s="17"/>
@@ -3854,7 +3882,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="39"/>
       <c r="B44" s="23"/>
       <c r="C44" s="16"/>
@@ -3877,7 +3905,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
         <v>2</v>
       </c>
@@ -3906,7 +3934,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="19"/>
       <c r="B46" s="22"/>
       <c r="C46" s="17"/>
@@ -3929,7 +3957,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="19"/>
       <c r="B47" s="22"/>
       <c r="C47" s="17"/>
@@ -3952,7 +3980,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="19"/>
       <c r="B48" s="22"/>
       <c r="C48" s="17"/>
@@ -3975,7 +4003,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="19"/>
       <c r="B49" s="22"/>
       <c r="C49" s="17"/>
@@ -3998,7 +4026,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="19"/>
       <c r="B50" s="22"/>
       <c r="C50" s="16"/>
@@ -4021,7 +4049,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="19"/>
       <c r="B51" s="22"/>
       <c r="C51" s="15" t="s">
@@ -4046,7 +4074,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="19"/>
       <c r="B52" s="23"/>
       <c r="C52" s="16"/>
@@ -4069,7 +4097,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="19"/>
       <c r="B53" s="15" t="s">
         <v>387</v>
@@ -4096,7 +4124,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="19"/>
       <c r="B54" s="17"/>
       <c r="C54" s="23"/>
@@ -4119,7 +4147,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="19"/>
       <c r="B55" s="17"/>
       <c r="C55" s="15" t="s">
@@ -4144,7 +4172,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="19"/>
       <c r="B56" s="16"/>
       <c r="C56" s="16"/>
@@ -4167,7 +4195,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="19"/>
       <c r="B57" s="15" t="s">
         <v>388</v>
@@ -4194,7 +4222,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="19"/>
       <c r="B58" s="17"/>
       <c r="C58" s="22"/>
@@ -4217,7 +4245,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="19"/>
       <c r="B59" s="17"/>
       <c r="C59" s="23"/>
@@ -4240,7 +4268,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="19"/>
       <c r="B60" s="17"/>
       <c r="C60" s="24" t="s">
@@ -4261,7 +4289,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="19"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
@@ -4280,7 +4308,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="19"/>
       <c r="B62" s="17"/>
       <c r="C62" s="16"/>
@@ -4295,7 +4323,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="19"/>
       <c r="B63" s="16"/>
       <c r="C63" s="11" t="s">
@@ -4314,7 +4342,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="19"/>
       <c r="B64" s="15" t="s">
         <v>389</v>
@@ -4337,7 +4365,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="19"/>
       <c r="B65" s="17"/>
       <c r="C65" s="16"/>
@@ -4358,7 +4386,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="19.5" customHeight="1">
+    <row r="66" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="19"/>
       <c r="B66" s="17"/>
       <c r="C66" s="15" t="s">
@@ -4377,7 +4405,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9" ht="19.5" customHeight="1">
+    <row r="67" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="19"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16"/>
@@ -4394,7 +4422,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9" ht="19.5" customHeight="1">
+    <row r="68" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="19"/>
       <c r="B68" s="15" t="s">
         <v>390</v>
@@ -4415,7 +4443,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9" ht="19.5" customHeight="1">
+    <row r="69" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="19"/>
       <c r="B69" s="17"/>
       <c r="C69" s="16"/>
@@ -4432,7 +4460,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9" ht="19.5" customHeight="1">
+    <row r="70" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="20"/>
       <c r="B70" s="16"/>
       <c r="C70" s="14" t="s">
@@ -4453,7 +4481,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="29" t="s">
         <v>138</v>
       </c>
@@ -4482,7 +4510,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="30"/>
       <c r="B72" s="28"/>
       <c r="C72" s="17"/>
@@ -4505,7 +4533,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="30"/>
       <c r="B73" s="28"/>
       <c r="C73" s="17"/>
@@ -4528,7 +4556,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="30"/>
       <c r="B74" s="28"/>
       <c r="C74" s="17"/>
@@ -4551,7 +4579,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="30"/>
       <c r="B75" s="28"/>
       <c r="C75" s="16"/>
@@ -4574,7 +4602,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="30"/>
       <c r="B76" s="28"/>
       <c r="C76" s="10" t="s">
@@ -4599,7 +4627,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="30"/>
       <c r="B77" s="28" t="s">
         <v>101</v>
@@ -4618,7 +4646,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="30"/>
       <c r="B78" s="28"/>
       <c r="C78" s="17"/>
@@ -4633,7 +4661,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="30"/>
       <c r="B79" s="28"/>
       <c r="C79" s="17"/>
@@ -4648,7 +4676,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="30"/>
       <c r="B80" s="28"/>
       <c r="C80" s="17"/>
@@ -4663,7 +4691,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="30"/>
       <c r="B81" s="28"/>
       <c r="C81" s="16"/>
@@ -4678,7 +4706,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="82" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="30"/>
       <c r="B82" s="28"/>
       <c r="C82" s="15" t="s">
@@ -4695,7 +4723,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="83" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="30"/>
       <c r="B83" s="28"/>
       <c r="C83" s="16"/>
@@ -4710,7 +4738,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="84" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="30"/>
       <c r="B84" s="28" t="s">
         <v>103</v>
@@ -4729,7 +4757,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="30"/>
       <c r="B85" s="28"/>
       <c r="C85" s="17"/>
@@ -4744,7 +4772,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="86" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="30"/>
       <c r="B86" s="28"/>
       <c r="C86" s="17"/>
@@ -4759,7 +4787,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="87" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="30"/>
       <c r="B87" s="28"/>
       <c r="C87" s="16"/>
@@ -4774,7 +4802,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="88" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="30"/>
       <c r="B88" s="28"/>
       <c r="C88" s="15" t="s">
@@ -4791,7 +4819,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="89" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="30"/>
       <c r="B89" s="28"/>
       <c r="C89" s="16"/>
@@ -4806,7 +4834,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="90" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="30"/>
       <c r="B90" s="28" t="s">
         <v>104</v>
@@ -4823,7 +4851,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="91" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="30"/>
       <c r="B91" s="28"/>
       <c r="C91" s="1"/>
@@ -4838,7 +4866,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="92" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="30"/>
       <c r="B92" s="28"/>
       <c r="C92" s="1"/>
@@ -4853,7 +4881,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="93" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="30"/>
       <c r="B93" s="28"/>
       <c r="C93" s="1"/>
@@ -4868,7 +4896,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="94" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="30"/>
       <c r="B94" s="28"/>
       <c r="C94" s="1"/>
@@ -4883,7 +4911,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="95" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="30"/>
       <c r="B95" s="28"/>
       <c r="C95" s="1"/>
@@ -4898,7 +4926,7 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="96" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="30"/>
       <c r="B96" s="28" t="s">
         <v>105</v>
@@ -4911,7 +4939,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="97" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="30"/>
       <c r="B97" s="28"/>
       <c r="C97" s="1"/>
@@ -4922,7 +4950,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="98" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="30"/>
       <c r="B98" s="28"/>
       <c r="C98" s="1"/>
@@ -4933,7 +4961,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="99" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="30"/>
       <c r="B99" s="28"/>
       <c r="C99" s="1"/>
@@ -4944,7 +4972,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="100" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="30"/>
       <c r="B100" s="28"/>
       <c r="C100" s="1"/>
@@ -4955,7 +4983,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="101" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="30"/>
       <c r="B101" s="28"/>
       <c r="C101" s="1"/>
@@ -4966,7 +4994,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="102" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="30"/>
       <c r="B102" s="28" t="s">
         <v>106</v>
@@ -4979,7 +5007,7 @@
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
     </row>
-    <row r="103" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="103" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="30"/>
       <c r="B103" s="28"/>
       <c r="C103" s="1"/>
@@ -4990,7 +5018,7 @@
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
     </row>
-    <row r="104" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="104" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="30"/>
       <c r="B104" s="28"/>
       <c r="C104" s="1"/>
@@ -5001,7 +5029,7 @@
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
     </row>
-    <row r="105" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="105" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="30"/>
       <c r="B105" s="28"/>
       <c r="C105" s="1"/>
@@ -5012,7 +5040,7 @@
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
     </row>
-    <row r="106" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="106" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="30"/>
       <c r="B106" s="28"/>
       <c r="C106" s="1"/>
@@ -5023,7 +5051,7 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="107" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="33" t="s">
         <v>3</v>
       </c>
@@ -5042,7 +5070,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="108" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="33"/>
       <c r="B108" s="27"/>
       <c r="C108" s="1"/>
@@ -5057,7 +5085,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="109" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="33"/>
       <c r="B109" s="27"/>
       <c r="C109" s="1"/>
@@ -5072,7 +5100,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="110" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="33"/>
       <c r="B110" s="27"/>
       <c r="C110" s="1"/>
@@ -5087,7 +5115,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="111" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="33"/>
       <c r="B111" s="27" t="s">
         <v>80</v>
@@ -5104,7 +5132,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="112" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="33"/>
       <c r="B112" s="27"/>
       <c r="C112" s="1"/>
@@ -5119,7 +5147,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="113" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="33"/>
       <c r="B113" s="27"/>
       <c r="C113" s="1"/>
@@ -5134,7 +5162,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="114" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="33"/>
       <c r="B114" s="27"/>
       <c r="C114" s="1"/>
@@ -5149,7 +5177,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="115" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="33"/>
       <c r="B115" s="27" t="s">
         <v>88</v>
@@ -5166,7 +5194,7 @@
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
     </row>
-    <row r="116" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="116" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="33"/>
       <c r="B116" s="27"/>
       <c r="C116" s="1"/>
@@ -5181,7 +5209,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="117" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="33"/>
       <c r="B117" s="27"/>
       <c r="C117" s="1"/>
@@ -5196,7 +5224,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
     </row>
-    <row r="118" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="118" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="33"/>
       <c r="B118" s="27"/>
       <c r="C118" s="1"/>
@@ -5211,7 +5239,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
     </row>
-    <row r="119" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="119" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="33"/>
       <c r="B119" s="27"/>
       <c r="C119" s="1"/>
@@ -5226,7 +5254,7 @@
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
     </row>
-    <row r="120" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="120" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="33"/>
       <c r="B120" s="27"/>
       <c r="C120" s="1"/>
@@ -5241,7 +5269,7 @@
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
     </row>
-    <row r="121" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="121" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="32" t="s">
         <v>139</v>
       </c>
@@ -5260,7 +5288,7 @@
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
     </row>
-    <row r="122" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="122" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="32"/>
       <c r="B122" s="27"/>
       <c r="C122" s="1"/>
@@ -5275,7 +5303,7 @@
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
     </row>
-    <row r="123" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="123" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="32"/>
       <c r="B123" s="27"/>
       <c r="C123" s="1"/>
@@ -5290,7 +5318,7 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="124" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="32"/>
       <c r="B124" s="27"/>
       <c r="C124" s="1"/>
@@ -5305,7 +5333,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="125" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="32"/>
       <c r="B125" s="27"/>
       <c r="C125" s="1"/>
@@ -5320,7 +5348,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="126" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="32"/>
       <c r="B126" s="27"/>
       <c r="C126" s="1"/>
@@ -5335,7 +5363,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="127" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="32"/>
       <c r="B127" s="27" t="s">
         <v>59</v>
@@ -5352,7 +5380,7 @@
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
     </row>
-    <row r="128" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="128" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="32"/>
       <c r="B128" s="27"/>
       <c r="C128" s="1"/>
@@ -5367,7 +5395,7 @@
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
     </row>
-    <row r="129" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="129" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="32"/>
       <c r="B129" s="27"/>
       <c r="C129" s="1"/>
@@ -5382,7 +5410,7 @@
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
     </row>
-    <row r="130" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="130" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="32"/>
       <c r="B130" s="27"/>
       <c r="C130" s="1"/>
@@ -5397,7 +5425,7 @@
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
     </row>
-    <row r="131" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="131" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="32"/>
       <c r="B131" s="27"/>
       <c r="C131" s="1"/>
@@ -5412,7 +5440,7 @@
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
     </row>
-    <row r="132" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="132" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="32"/>
       <c r="B132" s="27"/>
       <c r="C132" s="1"/>
@@ -5427,7 +5455,7 @@
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
     </row>
-    <row r="133" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="133" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="40" t="s">
         <v>4</v>
       </c>
@@ -5448,7 +5476,7 @@
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
     </row>
-    <row r="134" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="134" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="40"/>
       <c r="B134" s="27"/>
       <c r="C134" s="1" t="s">
@@ -5465,7 +5493,7 @@
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
     </row>
-    <row r="135" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="135" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="40"/>
       <c r="B135" s="27"/>
       <c r="C135" s="1" t="s">
@@ -5484,7 +5512,7 @@
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
     </row>
-    <row r="136" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="136" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="40"/>
       <c r="B136" s="27" t="s">
         <v>215</v>
@@ -5501,7 +5529,7 @@
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
     </row>
-    <row r="137" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="137" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="40"/>
       <c r="B137" s="27"/>
       <c r="C137" s="1"/>
@@ -5518,7 +5546,7 @@
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
     </row>
-    <row r="138" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="138" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="40"/>
       <c r="B138" s="27"/>
       <c r="C138" s="1"/>
@@ -5535,7 +5563,7 @@
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
     </row>
-    <row r="139" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="139" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="34" t="s">
         <v>140</v>
       </c>
@@ -5554,7 +5582,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="140" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="34"/>
       <c r="B140" s="27"/>
       <c r="C140" s="1"/>
@@ -5569,7 +5597,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="141" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="34"/>
       <c r="B141" s="27"/>
       <c r="C141" s="1"/>
@@ -5584,7 +5612,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="142" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="34"/>
       <c r="B142" s="27"/>
       <c r="C142" s="1"/>
@@ -5599,7 +5627,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="143" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="34"/>
       <c r="B143" s="27" t="s">
         <v>16</v>
@@ -5616,7 +5644,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="144" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="34"/>
       <c r="B144" s="27"/>
       <c r="C144" s="1"/>
@@ -5631,7 +5659,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="145" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="34"/>
       <c r="B145" s="27" t="s">
         <v>20</v>
@@ -5648,7 +5676,7 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="146" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="34"/>
       <c r="B146" s="27"/>
       <c r="C146" s="1"/>
@@ -5663,7 +5691,7 @@
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
     </row>
-    <row r="147" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="147" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="34"/>
       <c r="B147" s="27"/>
       <c r="C147" s="1"/>
@@ -5678,7 +5706,7 @@
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="148" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="34"/>
       <c r="B148" s="27" t="s">
         <v>26</v>
@@ -5695,7 +5723,7 @@
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
     </row>
-    <row r="149" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="149" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="34"/>
       <c r="B149" s="27"/>
       <c r="C149" s="1"/>
@@ -5710,7 +5738,7 @@
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
     </row>
-    <row r="150" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="150" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="34"/>
       <c r="B150" s="27"/>
       <c r="C150" s="1"/>
@@ -5725,7 +5753,7 @@
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
     </row>
-    <row r="151" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="151" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="34"/>
       <c r="B151" s="27" t="s">
         <v>31</v>
@@ -5742,7 +5770,7 @@
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
     </row>
-    <row r="152" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="152" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="34"/>
       <c r="B152" s="27"/>
       <c r="C152" s="1"/>
@@ -5757,7 +5785,7 @@
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
     </row>
-    <row r="153" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="153" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="34"/>
       <c r="B153" s="27" t="s">
         <v>36</v>
@@ -5774,7 +5802,7 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="154" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="34"/>
       <c r="B154" s="27"/>
       <c r="C154" s="1"/>
@@ -5789,7 +5817,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="155" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="34"/>
       <c r="B155" s="27"/>
       <c r="C155" s="1"/>
@@ -5804,7 +5832,7 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="156" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="34"/>
       <c r="B156" s="27" t="s">
         <v>42</v>
@@ -5821,7 +5849,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="157" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="34"/>
       <c r="B157" s="27"/>
       <c r="C157" s="1"/>
@@ -5836,7 +5864,7 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="158" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="34"/>
       <c r="B158" s="27"/>
       <c r="C158" s="1"/>
@@ -5851,7 +5879,7 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="159" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="41" t="s">
         <v>5</v>
       </c>
@@ -5874,7 +5902,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="160" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="41"/>
       <c r="B160" s="6" t="s">
         <v>231</v>
@@ -5897,7 +5925,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="161" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="41"/>
       <c r="B161" s="28" t="s">
         <v>236</v>
@@ -5920,7 +5948,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="162" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="41"/>
       <c r="B162" s="28"/>
       <c r="C162" s="1"/>
@@ -5939,7 +5967,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="163" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="35" t="s">
         <v>6</v>
       </c>
@@ -5960,7 +5988,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="164" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="36"/>
       <c r="B164" s="27"/>
       <c r="C164" s="1"/>
@@ -5981,7 +6009,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="165" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="36"/>
       <c r="B165" s="27"/>
       <c r="C165" s="1"/>
@@ -5998,7 +6026,7 @@
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
     </row>
-    <row r="166" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="166" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="36"/>
       <c r="B166" s="8" t="s">
         <v>261</v>
@@ -6102,26 +6130,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" customHeight="1">
+    <row r="1" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>480</v>
       </c>
       <c r="B1" s="27"/>
     </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
         <v>481</v>
       </c>
@@ -6129,7 +6157,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>483</v>
       </c>
@@ -6137,7 +6165,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>485</v>
       </c>
@@ -6145,7 +6173,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>487</v>
       </c>
@@ -6153,17 +6181,17 @@
         <v>488</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
     </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="42" t="s">
         <v>489</v>
       </c>
       <c r="B7" s="43"/>
     </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12" t="s">
         <v>490</v>
       </c>
@@ -6171,7 +6199,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12" t="s">
         <v>492</v>
       </c>
@@ -6179,7 +6207,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12" t="s">
         <v>494</v>
       </c>
@@ -6187,7 +6215,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12" t="s">
         <v>496</v>
       </c>
@@ -6195,17 +6223,17 @@
         <v>497</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="42" t="s">
+    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="27" t="s">
         <v>498</v>
       </c>
-      <c r="B13" s="43"/>
-    </row>
-    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="27"/>
+    </row>
+    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="12" t="s">
         <v>502</v>
       </c>
@@ -6213,7 +6241,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12" t="s">
         <v>503</v>
       </c>
@@ -6221,7 +6249,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="12" t="s">
         <v>504</v>
       </c>
@@ -6229,19 +6257,50 @@
         <v>501</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+    </row>
+    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="B18" s="27"/>
+    </row>
+    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
+        <v>564</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A18:B18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6250,12 +6309,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/内科学笔记/病和方剂汇总.xlsx
+++ b/内科学笔记/病和方剂汇总.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="516">
   <si>
     <t>病证系统</t>
   </si>
@@ -605,21 +605,64 @@
     <t>中风</t>
   </si>
   <si>
+    <t>半身不遂，肌肤不仁，口舌歪斜，言语不利</t>
+  </si>
+  <si>
+    <t>病机：阴阳失调，气血逆乱</t>
+  </si>
+  <si>
     <t>中经络</t>
   </si>
   <si>
     <t>风痰入络</t>
   </si>
   <si>
+    <t>真方白丸子（按大纲）</t>
+  </si>
+  <si>
+    <r>
+      <t>肌肤不仁，手足麻木，口眼歪斜、言语不利。</t>
+    </r>
     <r>
       <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>半夏白术天麻汤/</t>
+      <t>外风</t>
+    </r>
+  </si>
+  <si>
+    <t>风阳上扰</t>
+  </si>
+  <si>
+    <t>平素头晕头痛，耳鸣目弦，手足重滞</t>
+  </si>
+  <si>
+    <t>阴虚风动</t>
+  </si>
+  <si>
+    <t>镇肝息风汤</t>
+  </si>
+  <si>
+    <t>平素头晕耳鸣，腰酸。</t>
+  </si>
+  <si>
+    <t>舌红苔腻</t>
+  </si>
+  <si>
+    <t>脉弦细数</t>
+  </si>
+  <si>
+    <t>总结口诀：中风络虚白丸子，风阳天麻阴风镇</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">中脏腑
+</t>
     </r>
     <r>
       <rPr>
@@ -629,36 +672,25 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>桃仁红花煎</t>
+      <t>闭证和脱证
+有热象-阳闭
+无热-阴闭</t>
     </r>
   </si>
   <si>
-    <t>肌肤不仁，口舌歪斜，言语不利</t>
-  </si>
-  <si>
-    <t>半身不遂，口舌歪斜。急燥易怒，眩晕耳鸣</t>
-  </si>
-  <si>
-    <t>阴虚风动</t>
-  </si>
-  <si>
-    <t>镇肝息风汤</t>
-  </si>
-  <si>
-    <t>半身不遂，口舌歪斜，言语不利。腰膝酸软</t>
-  </si>
-  <si>
-    <t>中脏腑
-闭证</t>
-  </si>
-  <si>
-    <t>痰热府实</t>
+    <t>与中经络区别是昏倒不省人事，闭证区脱证区别是看：口眼和二便是闭是开</t>
+  </si>
+  <si>
+    <t>痰热腑实闭</t>
   </si>
   <si>
     <t>桃仁承气汤</t>
   </si>
   <si>
-    <t>平素头痛眩晕，中风是突发</t>
+    <t>神志久清或昏，肢体强急。伴腹胀便秘</t>
+  </si>
+  <si>
+    <t>苔黄腻</t>
   </si>
   <si>
     <t>痰火瘀闭</t>
@@ -667,27 +699,75 @@
     <t>羚角钩藤汤</t>
   </si>
   <si>
-    <t>突然晕仆，不省人事。牙关紧闭，两手握掌</t>
-  </si>
-  <si>
-    <t>痰浊瘀闭</t>
+    <t>不省人事，牙关紧闭，两手握掌，大小便闭</t>
+  </si>
+  <si>
+    <t>痰浊瘀(阴)闭</t>
   </si>
   <si>
     <t>涤痰汤</t>
   </si>
   <si>
-    <t>脱证</t>
-  </si>
-  <si>
-    <t>重症</t>
-  </si>
-  <si>
-    <t>参附汤。生脉散</t>
+    <t>肢体强痉，大小便闭，面白唇紫,四肢不温</t>
+  </si>
+  <si>
+    <t>脉沉</t>
+  </si>
+  <si>
+    <t>阳亡脱证</t>
+  </si>
+  <si>
+    <t>参附汤+生脉散</t>
   </si>
   <si>
     <t>目合口张，肢体软瘫，二便自遗</t>
   </si>
   <si>
+    <t>舌萎</t>
+  </si>
+  <si>
+    <t>脉欲绝</t>
+  </si>
+  <si>
+    <t>口诀：痰热桃仁痰炎羚，痰浊涤痰脱参附</t>
+  </si>
+  <si>
+    <t>风痰瘀阻</t>
+  </si>
+  <si>
+    <t>解语丹</t>
+  </si>
+  <si>
+    <t>口眼歪斜、舌强语謇，半身不遂</t>
+  </si>
+  <si>
+    <t>舌紫苔滑腻</t>
+  </si>
+  <si>
+    <t>气虚络瘀</t>
+  </si>
+  <si>
+    <t>补阳还五汤(理血剂)</t>
+  </si>
+  <si>
+    <t>肢体偏枯淫，肢体无力面色萎黄，舌或有瘀斑</t>
+  </si>
+  <si>
+    <t>脉细涩</t>
+  </si>
+  <si>
+    <t>肝肾亏虚</t>
+  </si>
+  <si>
+    <t>左归丸+地黄饮子</t>
+  </si>
+  <si>
+    <t>患肢僵硬，拘挛变形，舌强不语肢肉萎缩</t>
+  </si>
+  <si>
+    <t>总结口诀：风痰经各气虚补，肝肾左归地黄饮</t>
+  </si>
+  <si>
     <t>癫狂</t>
   </si>
   <si>
@@ -703,6 +783,9 @@
     <t>精神抑郁，表情淡漠，神志疾呆</t>
   </si>
   <si>
+    <t>苔腻</t>
+  </si>
+  <si>
     <t>养心汤</t>
   </si>
   <si>
@@ -721,6 +804,12 @@
     <t>发病急，狂乱无知</t>
   </si>
   <si>
+    <t>舌红苔黄腻</t>
+  </si>
+  <si>
+    <t>弦大滑数</t>
+  </si>
+  <si>
     <t>火盛伤阴</t>
   </si>
   <si>
@@ -757,9 +846,26 @@
     <t>脾胃系统</t>
   </si>
   <si>
+    <t>脾胃概述</t>
+  </si>
+  <si>
+    <t>脾胃同属中焦，为后天之本，气血生化之源。
+脾主运化、主升清、主统血、主肌肉。为太阴湿土之脏，喜温燥而恶寒湿。得阳气温煦则运化功能正常。
+胃主受纳、腐熟水谷，主通降。为之气多血之腑，喜润恶燥，需要津液滋润</t>
+  </si>
+  <si>
     <t>腹痛</t>
   </si>
   <si>
+    <t>胃脘以下，耻骨毛际以上部位疼痛</t>
+  </si>
+  <si>
+    <t>病机：脏腑气机阻滞，气血运行不畅，脉络痹阻</t>
+  </si>
+  <si>
+    <t>脾、胃、肝、胆</t>
+  </si>
+  <si>
     <t>寒邪内阻</t>
   </si>
   <si>
@@ -781,9 +887,6 @@
     <t>腹痛拒按，胸闷不舒，大便秘结烦渴欲引</t>
   </si>
   <si>
-    <t>苔黄腻</t>
-  </si>
-  <si>
     <t>濡数</t>
   </si>
   <si>
@@ -820,9 +923,6 @@
     <t>痛如针刺，痛处固定</t>
   </si>
   <si>
-    <t>脉细涩</t>
-  </si>
-  <si>
     <t>中虚脏寒</t>
   </si>
   <si>
@@ -835,12 +935,24 @@
     <t>胃痛</t>
   </si>
   <si>
+    <t>上腹胃脘部近心窝处疼痛</t>
+  </si>
+  <si>
+    <t>病机：胃气郁滞，胃失和降，不通则痛</t>
+  </si>
+  <si>
+    <t>与肝脾相关</t>
+  </si>
+  <si>
     <t>寒邪客胃</t>
   </si>
   <si>
     <t>胃痛暴作，恶寒喜暖，得温痛减</t>
   </si>
   <si>
+    <t>脉弦紧</t>
+  </si>
+  <si>
     <t>保和丸</t>
   </si>
   <si>
@@ -865,9 +977,6 @@
     <t>痛势急迫，口渴不欲饮，纳呆恶心。小便色黄</t>
   </si>
   <si>
-    <t>舌红苔黄腻</t>
-  </si>
-  <si>
     <t>瘀血停滞</t>
   </si>
   <si>
@@ -901,55 +1010,133 @@
     <t>呕吐</t>
   </si>
   <si>
+    <t>胃失和降，胃气上逆</t>
+  </si>
+  <si>
+    <t>病位在胃，与肝、脾相关</t>
+  </si>
+  <si>
     <t>外邪犯胃</t>
   </si>
   <si>
     <t>霍香正气散</t>
   </si>
   <si>
+    <t>突然呕吐，胸脘满闷，发热恶寒</t>
+  </si>
+  <si>
+    <t>脉濡缓</t>
+  </si>
+  <si>
+    <t>呕吐酸腐，脘腹胀满，厌食</t>
+  </si>
+  <si>
+    <t>脉滑实</t>
+  </si>
+  <si>
     <t>痰饮内阻</t>
   </si>
   <si>
+    <t>小半夏汤+苓桂术甘汤</t>
+  </si>
+  <si>
+    <t>呕吐清水痰涎，头眩心悸</t>
+  </si>
+  <si>
+    <t>半夏厚朴汤+左金丸</t>
+  </si>
+  <si>
+    <t>呕吐吞酸，肋胁胀痛，嗳气频频</t>
+  </si>
+  <si>
+    <t>舌边红</t>
+  </si>
+  <si>
     <t>理中丸</t>
   </si>
   <si>
+    <t>易呕吐，时作时止。面白乏力，四肢不温</t>
+  </si>
+  <si>
+    <t>脉濡弱</t>
+  </si>
+  <si>
     <t>胃阴不足</t>
   </si>
   <si>
     <t>麦门冬汤</t>
   </si>
   <si>
+    <t>呕吐反复发作，口燥咽干，似饥而不欲食</t>
+  </si>
+  <si>
     <t>泄泻</t>
   </si>
   <si>
+    <t>排便次数增多，稀溏甚至泻出水洋为主</t>
+  </si>
+  <si>
+    <t>病机：脾病淡盛，脾胃运化失常，肠道失司</t>
+  </si>
+  <si>
+    <t>涉及到脾、胃、大肠和小肠</t>
+  </si>
+  <si>
+    <t>治疗原则：运脾化湿</t>
+  </si>
+  <si>
     <t>外感风寒湿</t>
   </si>
   <si>
     <t>藿香正气散</t>
   </si>
   <si>
+    <t>泄泻清稀，腹痛肠鸣，恶寒、发热头痛，肢体酸痛</t>
+  </si>
+  <si>
     <t>外感湿热</t>
   </si>
   <si>
     <t>葛根芩连汤</t>
   </si>
   <si>
+    <t>泻下急迫，色黄味臭，肛门灼热，小便短赤</t>
+  </si>
+  <si>
     <t>食滞肠胃</t>
   </si>
   <si>
+    <t>泻下味臭，泻后痛减，嗳腐吞酸，不思饮食</t>
+  </si>
+  <si>
     <t>肝气乘脾</t>
   </si>
   <si>
     <t>痛泻要方</t>
   </si>
   <si>
+    <t>腹痛即泻，泻后痛缓，胸胁胀痛而食少</t>
+  </si>
+  <si>
+    <t>苔淡红</t>
+  </si>
+  <si>
     <t>脾胃虚弱</t>
   </si>
   <si>
     <t>参苓白术散</t>
   </si>
   <si>
+    <t>泄泻反复，进食油腻则加剧，或完谷不化，食少纳呆</t>
+  </si>
+  <si>
     <t>肾阳虚衰</t>
+  </si>
+  <si>
+    <t>四神丸（治五更泻）</t>
+  </si>
+  <si>
+    <t>五更泻，泻后痛减，完谷不化。喜暖喜按腰膝酸软</t>
   </si>
   <si>
     <t>痢疾</t>
@@ -1394,9 +1581,6 @@
     <t>肢体关节疼痛较剧，痛有定处</t>
   </si>
   <si>
-    <t>脉弦紧</t>
-  </si>
-  <si>
     <t>着痹</t>
   </si>
   <si>
@@ -1500,267 +1684,19 @@
   </si>
   <si>
     <t>蒿芩清胆汤</t>
-  </si>
-  <si>
-    <t>上腹胃脘部近心窝处疼痛</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>与肝脾相关</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>脾胃概述</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>脾胃同属中焦，为后天之本，气血生化之源。
-脾主运化、主升清、主统血、主肌肉。为太阴湿土之脏，喜温燥而恶寒湿。得阳气温煦则运化功能正常。
-胃主受纳、腐熟水谷，主通降。为之气多血之腑，喜润恶燥，需要津液滋润</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>病机：胃气郁滞，胃失和降，不通则痛</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>胃脘以下，耻骨毛际以上部位疼痛</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>病机：脏腑气机阻滞，气血运行不畅，脉络痹阻</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>脾、胃、肝、胆</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>胃失和降，胃气上逆</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>病位在胃，与肝、脾相关</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>突然呕吐，胸脘满闷，发热恶寒</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>苔白腻</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>脉濡缓</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>苔厚腻</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>脉滑实</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>呕吐酸腐，脘腹胀满，厌食</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>小半夏汤+苓桂术甘汤</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>半夏厚朴汤+左金丸</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>呕吐清水痰涎，头眩心悸</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>脉滑</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>呕吐吞酸，肋胁胀痛，嗳气频频</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌边红</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>脉弦</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>呕吐反复发作，口燥咽干，似饥而不欲食</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌红少津</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>脉细数</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>易呕吐，时作时止。面白乏力，四肢不温</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌淡</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>脉濡弱</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>苔薄白</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>脉弦紧</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>实证</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚证</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>排便次数增多，稀溏甚至泻出水洋为主</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>病机：脾病淡盛，脾胃运化失常，肠道失司</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>涉及到脾、胃、大肠和小肠</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>治疗原则：运脾化湿</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>泄泻清稀，腹痛肠鸣，恶寒、发热头痛，肢体酸痛</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>泻下急迫，色黄味臭，肛门灼热，小便短赤</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌红苔黄腻</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>脉滑数</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>泻下味臭，泻后痛减，嗳腐吞酸，不思饮食</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>腹痛即泻，泻后痛缓，胸胁胀痛而食少</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>苔淡红</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>泄泻反复，进食油腻则加剧，或完谷不化，食少纳呆</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌淡苔白</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>脉细弱</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>五更泻，泻后痛减，完谷不化。喜暖喜按腰膝酸软</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>脉沉细</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>四神丸（治五更泻）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>苔腻</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>脉弦滑</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>弦大滑数</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌红</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>病机：阴阳失调，气血逆乱</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>半身不遂，肌肤不仁，口舌歪斜，言语不利</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>苔黄腻</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>脉弦</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>苔白腻</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>脉沉</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>肢体强痉，大小便闭，面白唇紫</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>舌萎</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>脉欲绝</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1799,6 +1735,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1828,14 +1821,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1843,18 +1854,71 @@
     <font>
       <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1862,22 +1926,53 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1886,13 +1981,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79992065187536243"/>
+        <fgColor theme="6" tint="0.799920651875362"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1904,31 +1999,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39991454817346722"/>
+        <fgColor theme="9" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39991454817346722"/>
+        <fgColor theme="1" tint="0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1952,12 +2053,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2049,7 +2330,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2058,18 +2341,258 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2085,203 +2608,271 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2535,65 +3126,65 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C97" sqref="C97:H98"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="8.875" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="21.75" customWidth="1"/>
     <col min="6" max="6" width="43.375" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="30.75" customHeight="1" spans="1:8">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="19" t="s">
+    <row r="2" customHeight="1" spans="1:8">
+      <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="3"/>
@@ -2607,9 +3198,9 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="19"/>
-      <c r="B3" s="33"/>
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="8"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
         <v>12</v>
@@ -2621,9 +3212,9 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="33"/>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="8"/>
+      <c r="B4" s="1"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
         <v>14</v>
@@ -2635,12 +3226,12 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="19"/>
-      <c r="B5" s="33" t="s">
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" s="8"/>
+      <c r="B5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
@@ -2653,10 +3244,10 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="38"/>
+    <row r="6" customHeight="1" spans="1:8">
+      <c r="A6" s="8"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="10"/>
       <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
@@ -2667,10 +3258,10 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="39"/>
+    <row r="7" customHeight="1" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="3" t="s">
         <v>22</v>
       </c>
@@ -2681,26 +3272,26 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33" t="s">
+    <row r="8" customHeight="1" spans="1:8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="12" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+    <row r="9" customHeight="1" spans="1:8">
+      <c r="A9" s="8"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
         <v>27</v>
       </c>
@@ -2711,10 +3302,10 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="8"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
       <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2725,10 +3316,10 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="8"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
       <c r="D11" s="3" t="s">
         <v>31</v>
       </c>
@@ -2739,9 +3330,9 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="33" t="s">
+    <row r="12" customHeight="1" spans="1:8">
+      <c r="A12" s="8"/>
+      <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="3"/>
@@ -2755,9 +3346,9 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="19"/>
-      <c r="B13" s="33"/>
+    <row r="13" customHeight="1" spans="1:8">
+      <c r="A13" s="8"/>
+      <c r="B13" s="1"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
         <v>35</v>
@@ -2769,9 +3360,9 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="33"/>
+    <row r="14" customHeight="1" spans="1:8">
+      <c r="A14" s="8"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
         <v>37</v>
@@ -2783,9 +3374,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="19"/>
-      <c r="B15" s="33"/>
+    <row r="15" customHeight="1" spans="1:8">
+      <c r="A15" s="8"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
         <v>39</v>
@@ -2797,12 +3388,12 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="33" t="s">
+    <row r="16" customHeight="1" spans="1:8">
+      <c r="A16" s="8"/>
+      <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2815,10 +3406,10 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="19"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+    <row r="17" customHeight="1" spans="1:8">
+      <c r="A17" s="8"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="3" t="s">
         <v>45</v>
       </c>
@@ -2829,10 +3420,10 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="44" t="s">
+    <row r="18" customHeight="1" spans="1:8">
+      <c r="A18" s="8"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D18" s="3" t="s">
@@ -2845,10 +3436,10 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="45"/>
+    <row r="19" customHeight="1" spans="1:8">
+      <c r="A19" s="8"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="3" t="s">
         <v>50</v>
       </c>
@@ -2859,10 +3450,10 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="45"/>
+    <row r="20" customHeight="1" spans="1:8">
+      <c r="A20" s="8"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="3" t="s">
         <v>52</v>
       </c>
@@ -2873,12 +3464,12 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="33" t="s">
+    <row r="21" customHeight="1" spans="1:8">
+      <c r="A21" s="8"/>
+      <c r="B21" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="3" t="s">
@@ -2891,10 +3482,10 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="41"/>
+    <row r="22" customHeight="1" spans="1:8">
+      <c r="A22" s="8"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="3" t="s">
         <v>57</v>
       </c>
@@ -2905,10 +3496,10 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="41"/>
+    <row r="23" customHeight="1" spans="1:8">
+      <c r="A23" s="8"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="3" t="s">
         <v>27</v>
       </c>
@@ -2919,10 +3510,10 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="42"/>
+    <row r="24" customHeight="1" spans="1:8">
+      <c r="A24" s="8"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="16"/>
       <c r="D24" s="3" t="s">
         <v>60</v>
       </c>
@@ -2933,10 +3524,10 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="19"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="37" t="s">
+    <row r="25" customHeight="1" spans="1:8">
+      <c r="A25" s="8"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -2949,10 +3540,10 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="38"/>
+    <row r="26" customHeight="1" spans="1:8">
+      <c r="A26" s="8"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="3" t="s">
         <v>48</v>
       </c>
@@ -2963,10 +3554,10 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="39"/>
+    <row r="27" customHeight="1" spans="1:8">
+      <c r="A27" s="8"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="3" t="s">
         <v>52</v>
       </c>
@@ -2977,141 +3568,141 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="20" t="s">
+    <row r="28" customHeight="1" spans="1:8">
+      <c r="A28" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="12" t="s">
         <v>71</v>
       </c>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="21"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="7" t="s">
+    <row r="29" customHeight="1" spans="1:8">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H29" s="7" t="s">
+      <c r="H29" s="12" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="7" t="s">
+    <row r="30" customHeight="1" spans="1:8">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="H30" s="7" t="s">
+      <c r="H30" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="7" t="s">
+    <row r="31" customHeight="1" spans="1:8">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E31" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="37" t="s">
+    <row r="32" customHeight="1" spans="1:8">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="E32" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H32" s="7" t="s">
+      <c r="H32" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="7" t="s">
+    <row r="33" customHeight="1" spans="1:8">
+      <c r="A33" s="19"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H33" s="7" t="s">
+      <c r="H33" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="34" t="s">
+    <row r="34" customHeight="1" spans="1:8">
+      <c r="A34" s="19"/>
+      <c r="B34" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="12" t="s">
         <v>91</v>
       </c>
       <c r="E34" s="3" t="s">
@@ -3125,11 +3716,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="21"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="7" t="s">
+    <row r="35" customHeight="1" spans="1:8">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="12" t="s">
         <v>100</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -3145,11 +3736,11 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="21"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="7" t="s">
+    <row r="36" customHeight="1" spans="1:8">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="12" t="s">
         <v>105</v>
       </c>
       <c r="E36" s="3" t="s">
@@ -3165,13 +3756,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="21"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="40" t="s">
+    <row r="37" customHeight="1" spans="1:8">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="12" t="s">
         <v>109</v>
       </c>
       <c r="E37" s="3" t="s">
@@ -3187,11 +3778,11 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="21"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="9" t="s">
+    <row r="38" customHeight="1" spans="1:8">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="23" t="s">
         <v>114</v>
       </c>
       <c r="E38" s="3" t="s">
@@ -3207,11 +3798,11 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="21"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="7" t="s">
+    <row r="39" customHeight="1" spans="1:8">
+      <c r="A39" s="19"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="12" t="s">
         <v>117</v>
       </c>
       <c r="E39" s="3" t="s">
@@ -3227,15 +3818,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="21"/>
-      <c r="B40" s="34" t="s">
+    <row r="40" customHeight="1" spans="1:8">
+      <c r="A40" s="19"/>
+      <c r="B40" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="12" t="s">
         <v>123</v>
       </c>
       <c r="E40" s="3" t="s">
@@ -3251,11 +3842,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="21"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="42"/>
-      <c r="D41" s="7" t="s">
+    <row r="41" customHeight="1" spans="1:8">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="12" t="s">
         <v>128</v>
       </c>
       <c r="E41" s="3" t="s">
@@ -3271,13 +3862,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="21"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="40" t="s">
+    <row r="42" customHeight="1" spans="1:8">
+      <c r="A42" s="19"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="12" t="s">
         <v>133</v>
       </c>
       <c r="E42" s="3" t="s">
@@ -3293,11 +3884,11 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="21"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="7" t="s">
+    <row r="43" customHeight="1" spans="1:8">
+      <c r="A43" s="19"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="12" t="s">
         <v>137</v>
       </c>
       <c r="E43" s="3" t="s">
@@ -3313,17 +3904,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="22"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="7" t="s">
+    <row r="44" customHeight="1" spans="1:8">
+      <c r="A44" s="24"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="12" t="s">
         <v>140</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="12" t="s">
         <v>70</v>
       </c>
       <c r="G44" s="3" t="s">
@@ -3333,17 +3924,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="23" t="s">
+    <row r="45" ht="13" customHeight="1"/>
+    <row r="46" customHeight="1" spans="1:8">
+      <c r="A46" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B46" s="37" t="s">
+      <c r="B46" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="12" t="s">
         <v>144</v>
       </c>
       <c r="E46" s="3" t="s">
@@ -3359,17 +3951,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="24"/>
-      <c r="B47" s="38"/>
-      <c r="C47" s="41"/>
-      <c r="D47" s="7" t="s">
+    <row r="47" customHeight="1" spans="1:8">
+      <c r="A47" s="26"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="12" t="s">
         <v>149</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="12" t="s">
         <v>151</v>
       </c>
       <c r="G47" s="3" t="s">
@@ -3379,17 +3971,17 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="24"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="7" t="s">
+    <row r="48" customHeight="1" spans="1:8">
+      <c r="A48" s="26"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="12" t="s">
         <v>153</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="12" t="s">
         <v>155</v>
       </c>
       <c r="G48" s="3" t="s">
@@ -3399,17 +3991,17 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="24"/>
-      <c r="B49" s="38"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="7" t="s">
+    <row r="49" customHeight="1" spans="1:8">
+      <c r="A49" s="26"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="12" t="s">
         <v>158</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="12" t="s">
         <v>160</v>
       </c>
       <c r="G49" s="3" t="s">
@@ -3419,10 +4011,10 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="24"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="41"/>
+    <row r="50" customHeight="1" spans="1:8">
+      <c r="A50" s="26"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="15"/>
       <c r="D50" s="3" t="s">
         <v>163</v>
       </c>
@@ -3439,17 +4031,17 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="24"/>
-      <c r="B51" s="38"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="7" t="s">
+    <row r="51" customHeight="1" spans="1:8">
+      <c r="A51" s="26"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="12" t="s">
         <v>167</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="12" t="s">
         <v>169</v>
       </c>
       <c r="G51" s="3" t="s">
@@ -3459,19 +4051,19 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="24"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="40" t="s">
+    <row r="52" customHeight="1" spans="1:8">
+      <c r="A52" s="26"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="12" t="s">
         <v>171</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="12" t="s">
         <v>173</v>
       </c>
       <c r="G52" s="3" t="s">
@@ -3481,17 +4073,17 @@
         <v>174</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="24"/>
-      <c r="B53" s="39"/>
-      <c r="C53" s="42"/>
-      <c r="D53" s="7" t="s">
+    <row r="53" customHeight="1" spans="1:8">
+      <c r="A53" s="26"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="12" t="s">
         <v>175</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="12" t="s">
         <v>177</v>
       </c>
       <c r="G53" s="3" t="s">
@@ -3501,21 +4093,21 @@
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="24"/>
-      <c r="B54" s="40" t="s">
+    <row r="54" customHeight="1" spans="1:8">
+      <c r="A54" s="26"/>
+      <c r="B54" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="12" t="s">
         <v>158</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="12" t="s">
         <v>180</v>
       </c>
       <c r="G54" s="3" t="s">
@@ -3525,17 +4117,17 @@
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="24"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="7" t="s">
+    <row r="55" customHeight="1" spans="1:8">
+      <c r="A55" s="26"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="12" t="s">
         <v>182</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="12" t="s">
         <v>183</v>
       </c>
       <c r="G55" s="3" t="s">
@@ -3545,19 +4137,19 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="24"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="40" t="s">
+    <row r="56" customHeight="1" spans="1:8">
+      <c r="A56" s="26"/>
+      <c r="B56" s="15"/>
+      <c r="C56" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="12" t="s">
         <v>184</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="12" t="s">
         <v>185</v>
       </c>
       <c r="G56" s="3" t="s">
@@ -3567,17 +4159,17 @@
         <v>186</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="24"/>
-      <c r="B57" s="42"/>
-      <c r="C57" s="42"/>
-      <c r="D57" s="7" t="s">
+    <row r="57" ht="28" customHeight="1" spans="1:8">
+      <c r="A57" s="26"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="12" t="s">
         <v>187</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="12" t="s">
         <v>189</v>
       </c>
       <c r="G57" s="3" t="s">
@@ -3587,1018 +4179,1040 @@
         <v>186</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="24"/>
-      <c r="B58" s="40" t="s">
+    <row r="58" ht="11" customHeight="1" spans="1:1">
+      <c r="A58" s="26"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:8">
+      <c r="A59" s="26"/>
+      <c r="B59" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="C58" s="59" t="s">
-        <v>513</v>
-      </c>
-      <c r="D58" s="60"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="62" t="s">
-        <v>512</v>
-      </c>
-      <c r="G58" s="63"/>
-      <c r="H58" s="63"/>
-    </row>
-    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="24"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="29"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="E59" s="7" t="s">
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:8">
+      <c r="A60" s="26"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="D60" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="E60" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G60" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H60" s="35" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:8">
+      <c r="A61" s="26"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:8">
+      <c r="A62" s="26"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E62" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:8">
+      <c r="A63" s="26"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="38"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:8">
+      <c r="A64" s="26"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="42"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:8">
+      <c r="A65" s="26"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="G65" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="H65" s="43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:8">
+      <c r="A66" s="26"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="G66" s="43" t="s">
+        <v>210</v>
+      </c>
+      <c r="H66" s="43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:8">
+      <c r="A67" s="26"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F67" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="G67" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H67" s="43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:8">
+      <c r="A68" s="26"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G68" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="H68" s="43" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:8">
+      <c r="A69" s="26"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="36" t="s">
+        <v>223</v>
+      </c>
+      <c r="E69" s="37"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="38"/>
+    </row>
+    <row r="70" customHeight="1" spans="1:8">
+      <c r="A70" s="26"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D70" s="44" t="s">
+        <v>224</v>
+      </c>
+      <c r="E70" s="45" t="s">
+        <v>225</v>
+      </c>
+      <c r="F70" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="G70" s="46" t="s">
+        <v>227</v>
+      </c>
+      <c r="H70" s="46" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="24"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="24"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="39"/>
-      <c r="D61" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H61" s="7" t="s">
+    <row r="71" customHeight="1" spans="1:8">
+      <c r="A71" s="26"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="44" t="s">
+        <v>228</v>
+      </c>
+      <c r="E71" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="F71" s="47" t="s">
+        <v>230</v>
+      </c>
+      <c r="G71" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="H71" s="46" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:8">
+      <c r="A72" s="26"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
+      <c r="D72" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="E72" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="F72" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="G72" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="H72" s="46" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="24"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="24"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-      <c r="D63" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>514</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="24"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="42"/>
-      <c r="D64" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="F64" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="24"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E65" s="7" t="s">
+    <row r="73" customHeight="1" spans="1:8">
+      <c r="A73" s="26"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="38"/>
+    </row>
+    <row r="74" ht="13" customHeight="1" spans="1:1">
+      <c r="A74" s="26"/>
+    </row>
+    <row r="75" customHeight="1" spans="1:8">
+      <c r="A75" s="26"/>
+      <c r="B75" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G75" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="H75" s="43" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:8">
+      <c r="A76" s="26"/>
+      <c r="B76" s="15"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="77" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A77" s="26"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="22" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="G77" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="H77" s="43" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A78" s="26"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="G78" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="H78" s="43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A79" s="26"/>
+      <c r="B79" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A80" s="26"/>
+      <c r="B80" s="15"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F80" s="12"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+    </row>
+    <row r="81" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A81" s="48"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" ht="19.5" customHeight="1"/>
+    <row r="83" ht="50.25" customHeight="1" spans="1:8">
+      <c r="A83" s="49" t="s">
+        <v>261</v>
+      </c>
+      <c r="B83" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="C83" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="D83" s="52"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="53"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:8">
+      <c r="A84" s="54"/>
+      <c r="B84" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C84" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="G84" s="55" t="s">
+        <v>267</v>
+      </c>
+      <c r="H84" s="55"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:8">
+      <c r="A85" s="54"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:8">
+      <c r="A86" s="54"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G86" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="F65" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="24"/>
-      <c r="B66" s="40" t="s">
-        <v>212</v>
-      </c>
-      <c r="C66" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="24"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="42"/>
-      <c r="D67" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G67" s="3" t="s">
+      <c r="H86" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:8">
+      <c r="A87" s="54"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:8">
+      <c r="A88" s="54"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:8">
+      <c r="A89" s="54"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:8">
+      <c r="A90" s="54"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:8">
+      <c r="A91" s="54"/>
+      <c r="B91" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C91" s="57" t="s">
+        <v>291</v>
+      </c>
+      <c r="D91" s="58"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="60" t="s">
+        <v>292</v>
+      </c>
+      <c r="G91" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="H91" s="59"/>
+    </row>
+    <row r="92" customHeight="1" spans="1:8">
+      <c r="A92" s="54"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="G92" s="43" t="s">
+        <v>283</v>
+      </c>
+      <c r="H92" s="43" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:8">
+      <c r="A93" s="54"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:8">
+      <c r="A94" s="54"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:8">
+      <c r="A95" s="54"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:8">
+      <c r="A96" s="54"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="E96" s="61" t="s">
+        <v>306</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:8">
+      <c r="A97" s="54"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:8">
+      <c r="A98" s="54"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:8">
+      <c r="A99" s="54"/>
+      <c r="B99" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D99" s="29"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="G99" s="62"/>
+      <c r="H99" s="62"/>
+    </row>
+    <row r="100" customHeight="1" spans="1:8">
+      <c r="A100" s="54"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="E100" s="63" t="s">
+        <v>319</v>
+      </c>
+      <c r="F100" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="G100" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H100" s="43" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:8">
+      <c r="A101" s="54"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="E101" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="F101" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="G101" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="H101" s="43" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:8">
+      <c r="A102" s="54"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="E102" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="F102" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="G102" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H102" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:8">
+      <c r="A103" s="54"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E103" s="64" t="s">
+        <v>327</v>
+      </c>
+      <c r="F103" s="43" t="s">
+        <v>328</v>
+      </c>
+      <c r="G103" s="43" t="s">
+        <v>329</v>
+      </c>
+      <c r="H103" s="43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:8">
+      <c r="A104" s="54"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="E104" s="63" t="s">
+        <v>330</v>
+      </c>
+      <c r="F104" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="G104" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A68" s="24"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="40" t="s">
-        <v>219</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A69" s="24"/>
-      <c r="B69" s="42"/>
-      <c r="C69" s="42"/>
-      <c r="D69" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>511</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A70" s="24"/>
-      <c r="B70" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="C70" s="40" t="s">
+      <c r="H104" s="43" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:8">
+      <c r="A105" s="54"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="E105" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="F105" s="43" t="s">
+        <v>335</v>
+      </c>
+      <c r="G105" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="H105" s="43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:8">
+      <c r="A106" s="54"/>
+      <c r="B106" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="C106" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="D106" s="29"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="31" t="s">
+        <v>338</v>
+      </c>
+      <c r="G106" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="H106" s="30"/>
+    </row>
+    <row r="107" customHeight="1" spans="1:8">
+      <c r="A107" s="54"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="28" t="s">
+        <v>340</v>
+      </c>
+      <c r="D107" s="29"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="31"/>
+      <c r="G107" s="28"/>
+      <c r="H107" s="30"/>
+    </row>
+    <row r="108" customHeight="1" spans="1:8">
+      <c r="A108" s="54"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="D70" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A71" s="24"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="42"/>
-      <c r="D71" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F71" s="7"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A72" s="25"/>
-      <c r="B72" s="42"/>
-      <c r="C72" s="8" t="s">
+      <c r="D108" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E108" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="F108" s="43" t="s">
+        <v>343</v>
+      </c>
+      <c r="G108" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="H108" s="43" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:8">
+      <c r="A109" s="54"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E109" s="63" t="s">
+        <v>345</v>
+      </c>
+      <c r="F109" s="43" t="s">
+        <v>346</v>
+      </c>
+      <c r="G109" s="43" t="s">
+        <v>248</v>
+      </c>
+      <c r="H109" s="43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:8">
+      <c r="A110" s="54"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="E110" s="63" t="s">
+        <v>297</v>
+      </c>
+      <c r="F110" s="43" t="s">
+        <v>348</v>
+      </c>
+      <c r="G110" s="43" t="s">
+        <v>279</v>
+      </c>
+      <c r="H110" s="43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:8">
+      <c r="A111" s="54"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="E111" s="63" t="s">
+        <v>350</v>
+      </c>
+      <c r="F111" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="G111" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="H111" s="43" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:8">
+      <c r="A112" s="54"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="65" t="s">
         <v>62</v>
       </c>
-      <c r="D72" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="1:8" ht="19.5" customHeight="1"/>
-    <row r="74" spans="1:8" ht="50.25" customHeight="1">
-      <c r="A74" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>460</v>
-      </c>
-      <c r="C74" s="53" t="s">
-        <v>461</v>
-      </c>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="55"/>
-    </row>
-    <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="51"/>
-      <c r="B75" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="C75" s="64" t="s">
-        <v>463</v>
-      </c>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="65" t="s">
-        <v>464</v>
-      </c>
-      <c r="G75" s="64" t="s">
-        <v>465</v>
-      </c>
-      <c r="H75" s="64"/>
-    </row>
-    <row r="76" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="51"/>
-      <c r="B76" s="38"/>
-      <c r="C76" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F76" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="51"/>
-      <c r="B77" s="38"/>
-      <c r="C77" s="41"/>
-      <c r="D77" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="51"/>
-      <c r="B78" s="38"/>
-      <c r="C78" s="41"/>
-      <c r="D78" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="G78" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="51"/>
-      <c r="B79" s="38"/>
-      <c r="C79" s="41"/>
-      <c r="D79" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="51"/>
-      <c r="B80" s="38"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="51"/>
-      <c r="B81" s="39"/>
-      <c r="C81" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D81" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G81" s="7" t="s">
+      <c r="D112" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="E112" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="F112" s="43" t="s">
+        <v>355</v>
+      </c>
+      <c r="G112" s="43" t="s">
         <v>156</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H112" s="43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" customHeight="1" spans="1:8">
+      <c r="A113" s="54"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="E113" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="F113" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="G113" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="H113" s="43" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="51"/>
-      <c r="B82" s="37" t="s">
-        <v>260</v>
-      </c>
-      <c r="C82" s="47" t="s">
-        <v>458</v>
-      </c>
-      <c r="D82" s="48"/>
-      <c r="E82" s="49"/>
-      <c r="F82" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="G82" s="47" t="s">
-        <v>459</v>
-      </c>
-      <c r="H82" s="49"/>
-    </row>
-    <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="51"/>
-      <c r="B83" s="38"/>
-      <c r="C83" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="51"/>
-      <c r="B84" s="38"/>
-      <c r="C84" s="41"/>
-      <c r="D84" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="F84" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="51"/>
-      <c r="B85" s="38"/>
-      <c r="C85" s="41"/>
-      <c r="D85" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="51"/>
-      <c r="B86" s="38"/>
-      <c r="C86" s="41"/>
-      <c r="D86" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="H86" s="11" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="51"/>
-      <c r="B87" s="38"/>
-      <c r="C87" s="42"/>
-      <c r="D87" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>273</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="51"/>
-      <c r="B88" s="38"/>
-      <c r="C88" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="E88" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="F88" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="51"/>
-      <c r="B89" s="39"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H89" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="51"/>
-      <c r="B90" s="37" t="s">
-        <v>282</v>
-      </c>
-      <c r="C90" s="59" t="s">
-        <v>466</v>
-      </c>
-      <c r="D90" s="60"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="62" t="s">
-        <v>467</v>
-      </c>
-      <c r="G90" s="66"/>
-      <c r="H90" s="66"/>
-    </row>
-    <row r="91" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="51"/>
-      <c r="B91" s="38"/>
-      <c r="C91" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="F91" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="G91" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="H91" s="15" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="51"/>
-      <c r="B92" s="38"/>
-      <c r="C92" s="41"/>
-      <c r="D92" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="F92" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="G92" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="H92" s="15" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="51"/>
-      <c r="B93" s="38"/>
-      <c r="C93" s="41"/>
-      <c r="D93" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>474</v>
-      </c>
-      <c r="F93" s="15" t="s">
-        <v>476</v>
-      </c>
-      <c r="G93" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="H93" s="15" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="51"/>
-      <c r="B94" s="38"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="E94" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="F94" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="G94" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="H94" s="15" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="51"/>
-      <c r="B95" s="38"/>
-      <c r="C95" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="F95" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="G95" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="H95" s="15" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="51"/>
-      <c r="B96" s="39"/>
-      <c r="C96" s="42"/>
-      <c r="D96" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="E96" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="F96" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="G96" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="H96" s="15" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="51"/>
-      <c r="B97" s="37" t="s">
-        <v>289</v>
-      </c>
-      <c r="C97" s="59" t="s">
-        <v>491</v>
-      </c>
-      <c r="D97" s="60"/>
-      <c r="E97" s="61"/>
-      <c r="F97" s="62" t="s">
-        <v>492</v>
-      </c>
-      <c r="G97" s="59" t="s">
-        <v>493</v>
-      </c>
-      <c r="H97" s="61"/>
-    </row>
-    <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="51"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="59" t="s">
-        <v>494</v>
-      </c>
-      <c r="D98" s="60"/>
-      <c r="E98" s="61"/>
-      <c r="F98" s="62"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="68"/>
-    </row>
-    <row r="99" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="51"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="56" t="s">
-        <v>489</v>
-      </c>
-      <c r="D99" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="F99" s="15" t="s">
-        <v>495</v>
-      </c>
-      <c r="G99" s="15" t="s">
-        <v>469</v>
-      </c>
-      <c r="H99" s="15" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="51"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E100" s="12" t="s">
-        <v>293</v>
-      </c>
-      <c r="F100" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="G100" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="H100" s="15" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="51"/>
-      <c r="B101" s="38"/>
-      <c r="C101" s="41"/>
-      <c r="D101" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E101" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>499</v>
-      </c>
-      <c r="G101" s="15" t="s">
-        <v>471</v>
-      </c>
-      <c r="H101" s="15" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="51"/>
-      <c r="B102" s="38"/>
-      <c r="C102" s="42"/>
-      <c r="D102" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="F102" s="15" t="s">
-        <v>500</v>
-      </c>
-      <c r="G102" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="H102" s="15" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="51"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="56" t="s">
-        <v>490</v>
-      </c>
-      <c r="D103" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="F103" s="15" t="s">
-        <v>502</v>
-      </c>
-      <c r="G103" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="H103" s="15" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="51"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="42"/>
-      <c r="D104" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="E104" s="17" t="s">
-        <v>507</v>
-      </c>
-      <c r="F104" s="15" t="s">
-        <v>505</v>
-      </c>
-      <c r="G104" s="15" t="s">
-        <v>503</v>
-      </c>
-      <c r="H104" s="15" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="51"/>
-      <c r="B105" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3"/>
-    </row>
-    <row r="106" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="51"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-    </row>
-    <row r="107" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="51"/>
-      <c r="B107" s="43"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-    </row>
-    <row r="108" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="51"/>
-      <c r="B108" s="43"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-    </row>
-    <row r="109" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="51"/>
-      <c r="B109" s="43"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-    </row>
-    <row r="110" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="51"/>
-      <c r="B110" s="43"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-    </row>
-    <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="51"/>
-      <c r="B111" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-    </row>
-    <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="51"/>
-      <c r="B112" s="43"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-    </row>
-    <row r="113" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="51"/>
-      <c r="B113" s="43"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-    </row>
-    <row r="114" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="51"/>
-      <c r="B114" s="43"/>
+    <row r="114" customHeight="1" spans="1:8">
+      <c r="A114" s="54"/>
+      <c r="B114" s="66" t="s">
+        <v>359</v>
+      </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -4606,9 +5220,9 @@
       <c r="G114" s="3"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="52"/>
-      <c r="B115" s="43"/>
+    <row r="115" customHeight="1" spans="1:8">
+      <c r="A115" s="54"/>
+      <c r="B115" s="66"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -4616,1000 +5230,1050 @@
       <c r="G115" s="3"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="117" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="B117" s="33" t="s">
-        <v>303</v>
-      </c>
+    <row r="116" customHeight="1" spans="1:8">
+      <c r="A116" s="54"/>
+      <c r="B116" s="66"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+      <c r="E116" s="3"/>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" customHeight="1" spans="1:8">
+      <c r="A117" s="54"/>
+      <c r="B117" s="66"/>
       <c r="C117" s="3"/>
-      <c r="D117" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>250</v>
-      </c>
+      <c r="D117" s="3"/>
+      <c r="E117" s="3"/>
       <c r="F117" s="3"/>
       <c r="G117" s="3"/>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="26"/>
-      <c r="B118" s="33"/>
+    <row r="118" customHeight="1" spans="1:8">
+      <c r="A118" s="54"/>
+      <c r="B118" s="66"/>
       <c r="C118" s="3"/>
-      <c r="D118" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>305</v>
-      </c>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
       <c r="F118" s="3"/>
       <c r="G118" s="3"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="26"/>
-      <c r="B119" s="33"/>
+    <row r="119" customHeight="1" spans="1:8">
+      <c r="A119" s="54"/>
+      <c r="B119" s="66"/>
       <c r="C119" s="3"/>
-      <c r="D119" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="26"/>
-      <c r="B120" s="33"/>
+    <row r="120" customHeight="1" spans="1:8">
+      <c r="A120" s="54"/>
+      <c r="B120" s="66" t="s">
+        <v>360</v>
+      </c>
       <c r="C120" s="3"/>
-      <c r="D120" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>308</v>
-      </c>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
       <c r="F120" s="3"/>
       <c r="G120" s="3"/>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="26"/>
-      <c r="B121" s="33" t="s">
-        <v>309</v>
-      </c>
+    <row r="121" customHeight="1" spans="1:8">
+      <c r="A121" s="54"/>
+      <c r="B121" s="66"/>
       <c r="C121" s="3"/>
-      <c r="D121" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>311</v>
-      </c>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
       <c r="F121" s="3"/>
       <c r="G121" s="3"/>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A122" s="26"/>
-      <c r="B122" s="33"/>
+    <row r="122" customHeight="1" spans="1:8">
+      <c r="A122" s="54"/>
+      <c r="B122" s="66"/>
       <c r="C122" s="3"/>
-      <c r="D122" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>313</v>
-      </c>
+      <c r="D122" s="3"/>
+      <c r="E122" s="3"/>
       <c r="F122" s="3"/>
       <c r="G122" s="3"/>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="26"/>
-      <c r="B123" s="33"/>
+    <row r="123" customHeight="1" spans="1:8">
+      <c r="A123" s="54"/>
+      <c r="B123" s="66"/>
       <c r="C123" s="3"/>
-      <c r="D123" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>315</v>
-      </c>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
       <c r="F123" s="3"/>
       <c r="G123" s="3"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="26"/>
-      <c r="B124" s="33"/>
+    <row r="124" customHeight="1" spans="1:8">
+      <c r="A124" s="67"/>
+      <c r="B124" s="66"/>
       <c r="C124" s="3"/>
-      <c r="D124" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="E124" s="3" t="s">
-        <v>317</v>
-      </c>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
       <c r="F124" s="3"/>
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="26"/>
-      <c r="B125" s="33" t="s">
-        <v>318</v>
-      </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E125" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-    </row>
-    <row r="126" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A126" s="26"/>
-      <c r="B126" s="33"/>
+    <row r="126" customHeight="1" spans="1:8">
+      <c r="A126" s="68" t="s">
+        <v>361</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="26"/>
-      <c r="B127" s="33"/>
+    <row r="127" customHeight="1" spans="1:8">
+      <c r="A127" s="68"/>
+      <c r="B127" s="1"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3" t="s">
-        <v>322</v>
+        <v>305</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
     </row>
-    <row r="128" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="26"/>
-      <c r="B128" s="33"/>
+    <row r="128" customHeight="1" spans="1:8">
+      <c r="A128" s="68"/>
+      <c r="B128" s="1"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>324</v>
+        <v>124</v>
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
     </row>
-    <row r="129" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A129" s="26"/>
-      <c r="B129" s="33"/>
+    <row r="129" customHeight="1" spans="1:8">
+      <c r="A129" s="68"/>
+      <c r="B129" s="1"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>326</v>
+        <v>366</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>367</v>
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
     </row>
-    <row r="130" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A130" s="26"/>
-      <c r="B130" s="33"/>
+    <row r="130" customHeight="1" spans="1:8">
+      <c r="A130" s="68"/>
+      <c r="B130" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>328</v>
+        <v>369</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>370</v>
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
     </row>
-    <row r="132" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A132" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="B132" s="33" t="s">
-        <v>330</v>
-      </c>
+    <row r="131" customHeight="1" spans="1:8">
+      <c r="A131" s="68"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E131" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="F131" s="3"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" customHeight="1" spans="1:8">
+      <c r="A132" s="68"/>
+      <c r="B132" s="1"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="27"/>
-      <c r="B133" s="33"/>
+    <row r="133" customHeight="1" spans="1:8">
+      <c r="A133" s="68"/>
+      <c r="B133" s="1"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3" t="s">
-        <v>333</v>
+        <v>375</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="27"/>
-      <c r="B134" s="33"/>
+    <row r="134" customHeight="1" spans="1:8">
+      <c r="A134" s="68"/>
+      <c r="B134" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="27"/>
-      <c r="B135" s="33"/>
+    <row r="135" customHeight="1" spans="1:8">
+      <c r="A135" s="68"/>
+      <c r="B135" s="1"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3" t="s">
-        <v>337</v>
+        <v>379</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>338</v>
+        <v>380</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
     </row>
-    <row r="136" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A136" s="27"/>
-      <c r="B136" s="33"/>
+    <row r="136" customHeight="1" spans="1:8">
+      <c r="A136" s="68"/>
+      <c r="B136" s="1"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3" t="s">
-        <v>339</v>
+        <v>381</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
     </row>
-    <row r="137" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A137" s="27"/>
-      <c r="B137" s="33"/>
+    <row r="137" customHeight="1" spans="1:8">
+      <c r="A137" s="68"/>
+      <c r="B137" s="1"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>342</v>
+        <v>382</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>383</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A138" s="27"/>
-      <c r="B138" s="33" t="s">
-        <v>343</v>
-      </c>
+    <row r="138" customHeight="1" spans="1:8">
+      <c r="A138" s="68"/>
+      <c r="B138" s="1"/>
       <c r="C138" s="3"/>
-      <c r="D138" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="E138" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="F138" s="13"/>
-      <c r="G138" s="13"/>
-      <c r="H138" s="13"/>
-    </row>
-    <row r="139" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A139" s="27"/>
-      <c r="B139" s="33"/>
+      <c r="D138" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E138" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" customHeight="1" spans="1:8">
+      <c r="A139" s="68"/>
+      <c r="B139" s="1"/>
       <c r="C139" s="3"/>
-      <c r="D139" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="F139" s="13"/>
-      <c r="G139" s="13"/>
-      <c r="H139" s="13"/>
-    </row>
-    <row r="140" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A140" s="27"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="F140" s="13"/>
-      <c r="G140" s="13"/>
-      <c r="H140" s="13"/>
-    </row>
-    <row r="141" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A141" s="27"/>
-      <c r="B141" s="33"/>
+      <c r="D139" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E139" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+    </row>
+    <row r="141" customHeight="1" spans="1:8">
+      <c r="A141" s="69" t="s">
+        <v>388</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>389</v>
+      </c>
       <c r="C141" s="3"/>
-      <c r="D141" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="E141" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="F141" s="13"/>
-      <c r="G141" s="13"/>
-      <c r="H141" s="13"/>
-    </row>
-    <row r="142" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A142" s="27"/>
-      <c r="B142" s="33"/>
+      <c r="D141" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F141" s="3"/>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" customHeight="1" spans="1:8">
+      <c r="A142" s="69"/>
+      <c r="B142" s="1"/>
       <c r="C142" s="3"/>
-      <c r="D142" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="E142" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="F142" s="13"/>
-      <c r="G142" s="13"/>
-      <c r="H142" s="13"/>
-    </row>
-    <row r="143" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A143" s="27"/>
-      <c r="B143" s="33"/>
+      <c r="D142" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" customHeight="1" spans="1:8">
+      <c r="A143" s="69"/>
+      <c r="B143" s="1"/>
       <c r="C143" s="3"/>
-      <c r="D143" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="E143" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="F143" s="13"/>
-      <c r="G143" s="13"/>
-      <c r="H143" s="13"/>
-    </row>
-    <row r="144" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A144" s="28" t="s">
-        <v>356</v>
-      </c>
-      <c r="B144" s="33" t="s">
+      <c r="D143" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" customHeight="1" spans="1:8">
+      <c r="A144" s="69"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F144" s="3"/>
+      <c r="G144" s="3"/>
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" customHeight="1" spans="1:8">
+      <c r="A145" s="69"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" customHeight="1" spans="1:8">
+      <c r="A146" s="69"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E146" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" customHeight="1" spans="1:8">
+      <c r="A147" s="69"/>
+      <c r="B147" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C147" s="3"/>
+      <c r="D147" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="E147" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="F147" s="70"/>
+      <c r="G147" s="70"/>
+      <c r="H147" s="70"/>
+    </row>
+    <row r="148" customHeight="1" spans="1:8">
+      <c r="A148" s="69"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="70" t="s">
+        <v>405</v>
+      </c>
+      <c r="E148" s="70" t="s">
+        <v>406</v>
+      </c>
+      <c r="F148" s="70"/>
+      <c r="G148" s="70"/>
+      <c r="H148" s="70"/>
+    </row>
+    <row r="149" customHeight="1" spans="1:8">
+      <c r="A149" s="69"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="70" t="s">
+        <v>407</v>
+      </c>
+      <c r="E149" s="70" t="s">
+        <v>408</v>
+      </c>
+      <c r="F149" s="70"/>
+      <c r="G149" s="70"/>
+      <c r="H149" s="70"/>
+    </row>
+    <row r="150" customHeight="1" spans="1:8">
+      <c r="A150" s="69"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="70" t="s">
+        <v>409</v>
+      </c>
+      <c r="E150" s="63" t="s">
+        <v>410</v>
+      </c>
+      <c r="F150" s="70"/>
+      <c r="G150" s="70"/>
+      <c r="H150" s="70"/>
+    </row>
+    <row r="151" customHeight="1" spans="1:8">
+      <c r="A151" s="69"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="70" t="s">
+        <v>411</v>
+      </c>
+      <c r="E151" s="70" t="s">
+        <v>412</v>
+      </c>
+      <c r="F151" s="70"/>
+      <c r="G151" s="70"/>
+      <c r="H151" s="70"/>
+    </row>
+    <row r="152" customHeight="1" spans="1:8">
+      <c r="A152" s="69"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="E152" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="F152" s="70"/>
+      <c r="G152" s="70"/>
+      <c r="H152" s="70"/>
+    </row>
+    <row r="153" customHeight="1" spans="1:8">
+      <c r="A153" s="71" t="s">
+        <v>415</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C144" s="3"/>
-      <c r="D144" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="E144" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="F144" s="13"/>
-      <c r="G144" s="13"/>
-      <c r="H144" s="13"/>
-    </row>
-    <row r="145" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A145" s="28"/>
-      <c r="B145" s="33"/>
-      <c r="C145" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="D145" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="E145" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="F145" s="13"/>
-      <c r="G145" s="13"/>
-      <c r="H145" s="13"/>
-    </row>
-    <row r="146" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A146" s="28"/>
-      <c r="B146" s="33"/>
-      <c r="C146" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="D146" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="E146" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="F146" s="13"/>
-      <c r="G146" s="13"/>
-      <c r="H146" s="13"/>
-    </row>
-    <row r="147" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A147" s="28"/>
-      <c r="B147" s="33" t="s">
+      <c r="C153" s="3"/>
+      <c r="D153" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="E153" s="70" t="s">
+        <v>281</v>
+      </c>
+      <c r="F153" s="70"/>
+      <c r="G153" s="70"/>
+      <c r="H153" s="70"/>
+    </row>
+    <row r="154" customHeight="1" spans="1:8">
+      <c r="A154" s="71"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="D154" s="70" t="s">
+        <v>417</v>
+      </c>
+      <c r="E154" s="63" t="s">
+        <v>418</v>
+      </c>
+      <c r="F154" s="70"/>
+      <c r="G154" s="70"/>
+      <c r="H154" s="70"/>
+    </row>
+    <row r="155" customHeight="1" spans="1:8">
+      <c r="A155" s="71"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D155" s="70" t="s">
+        <v>420</v>
+      </c>
+      <c r="E155" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="F155" s="70"/>
+      <c r="G155" s="70"/>
+      <c r="H155" s="70"/>
+    </row>
+    <row r="156" customHeight="1" spans="1:8">
+      <c r="A156" s="71"/>
+      <c r="B156" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C147" s="3"/>
-      <c r="D147" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="E147" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="F147" s="13"/>
-      <c r="G147" s="13"/>
-      <c r="H147" s="13"/>
-    </row>
-    <row r="148" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A148" s="28"/>
-      <c r="B148" s="33"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="13" t="s">
+      <c r="C156" s="3"/>
+      <c r="D156" s="70" t="s">
+        <v>422</v>
+      </c>
+      <c r="E156" s="70" t="s">
+        <v>423</v>
+      </c>
+      <c r="F156" s="70"/>
+      <c r="G156" s="70"/>
+      <c r="H156" s="70"/>
+    </row>
+    <row r="157" customHeight="1" spans="1:8">
+      <c r="A157" s="71"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="70" t="s">
         <v>137</v>
       </c>
-      <c r="E148" s="13" t="s">
+      <c r="E157" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="F148" s="13"/>
-      <c r="G148" s="13"/>
-      <c r="H148" s="13"/>
-    </row>
-    <row r="149" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="28"/>
-      <c r="B149" s="33"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="13" t="s">
+      <c r="F157" s="70"/>
+      <c r="G157" s="70"/>
+      <c r="H157" s="70"/>
+    </row>
+    <row r="158" customHeight="1" spans="1:8">
+      <c r="A158" s="71"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="70" t="s">
         <v>109</v>
       </c>
-      <c r="E149" s="13" t="s">
+      <c r="E158" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="F149" s="13"/>
-      <c r="G149" s="13"/>
-      <c r="H149" s="13"/>
-    </row>
-    <row r="150" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="B150" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-    </row>
-    <row r="151" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="29"/>
-      <c r="B151" s="33"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-    </row>
-    <row r="152" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="29"/>
-      <c r="B152" s="33"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-    </row>
-    <row r="153" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="29"/>
-      <c r="B153" s="33"/>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-    </row>
-    <row r="154" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="29"/>
-      <c r="B154" s="33" t="s">
-        <v>371</v>
-      </c>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-    </row>
-    <row r="155" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="29"/>
-      <c r="B155" s="33"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-    </row>
-    <row r="156" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="29"/>
-      <c r="B156" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-    </row>
-    <row r="157" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="29"/>
-      <c r="B157" s="33"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-    </row>
-    <row r="158" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="29"/>
-      <c r="B158" s="33"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
-    </row>
-    <row r="159" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="29"/>
-      <c r="B159" s="33" t="s">
-        <v>379</v>
+      <c r="F158" s="70"/>
+      <c r="G158" s="70"/>
+      <c r="H158" s="70"/>
+    </row>
+    <row r="159" customHeight="1" spans="1:8">
+      <c r="A159" s="72" t="s">
+        <v>424</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>425</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>381</v>
+        <v>21</v>
       </c>
       <c r="F159" s="3"/>
       <c r="G159" s="3"/>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A160" s="29"/>
-      <c r="B160" s="33"/>
+    <row r="160" customHeight="1" spans="1:8">
+      <c r="A160" s="72"/>
+      <c r="B160" s="1"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3" t="s">
-        <v>382</v>
+        <v>427</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>124</v>
+        <v>428</v>
       </c>
       <c r="F160" s="3"/>
       <c r="G160" s="3"/>
       <c r="H160" s="3"/>
     </row>
-    <row r="161" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A161" s="29"/>
-      <c r="B161" s="33"/>
+    <row r="161" customHeight="1" spans="1:8">
+      <c r="A161" s="72"/>
+      <c r="B161" s="1"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A162" s="29"/>
-      <c r="B162" s="33" t="s">
-        <v>384</v>
-      </c>
+    <row r="162" customHeight="1" spans="1:8">
+      <c r="A162" s="72"/>
+      <c r="B162" s="1"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3" t="s">
-        <v>385</v>
+        <v>184</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>386</v>
+        <v>73</v>
       </c>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3"/>
     </row>
-    <row r="163" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="29"/>
-      <c r="B163" s="33"/>
+    <row r="163" customHeight="1" spans="1:8">
+      <c r="A163" s="72"/>
+      <c r="B163" s="1" t="s">
+        <v>430</v>
+      </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3" t="s">
-        <v>279</v>
+        <v>427</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3"/>
     </row>
-    <row r="164" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A164" s="29"/>
-      <c r="B164" s="33" t="s">
-        <v>388</v>
-      </c>
+    <row r="164" customHeight="1" spans="1:8">
+      <c r="A164" s="72"/>
+      <c r="B164" s="1"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3" t="s">
-        <v>389</v>
+        <v>133</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>390</v>
+        <v>432</v>
       </c>
       <c r="F164" s="3"/>
       <c r="G164" s="3"/>
       <c r="H164" s="3"/>
     </row>
-    <row r="165" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="29"/>
-      <c r="B165" s="33"/>
+    <row r="165" customHeight="1" spans="1:8">
+      <c r="A165" s="72"/>
+      <c r="B165" s="1" t="s">
+        <v>433</v>
+      </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>392</v>
+        <v>23</v>
       </c>
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3"/>
     </row>
-    <row r="166" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A166" s="29"/>
-      <c r="B166" s="33"/>
+    <row r="166" customHeight="1" spans="1:8">
+      <c r="A166" s="72"/>
+      <c r="B166" s="1"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>73</v>
+        <v>29</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>435</v>
       </c>
       <c r="F166" s="3"/>
       <c r="G166" s="3"/>
       <c r="H166" s="3"/>
     </row>
-    <row r="167" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A167" s="29"/>
-      <c r="B167" s="33" t="s">
-        <v>394</v>
-      </c>
+    <row r="167" customHeight="1" spans="1:8">
+      <c r="A167" s="72"/>
+      <c r="B167" s="1"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
     </row>
-    <row r="168" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="29"/>
-      <c r="B168" s="33"/>
+    <row r="168" customHeight="1" spans="1:8">
+      <c r="A168" s="72"/>
+      <c r="B168" s="1" t="s">
+        <v>438</v>
+      </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3" t="s">
-        <v>133</v>
+        <v>439</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
     </row>
-    <row r="169" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="29"/>
-      <c r="B169" s="33"/>
+    <row r="169" customHeight="1" spans="1:8">
+      <c r="A169" s="72"/>
+      <c r="B169" s="1"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
     </row>
-    <row r="170" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A170" s="30" t="s">
-        <v>399</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>400</v>
-      </c>
+    <row r="170" customHeight="1" spans="1:8">
+      <c r="A170" s="72"/>
+      <c r="B170" s="1"/>
       <c r="C170" s="3"/>
-      <c r="D170" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="E170" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="F170" s="13"/>
-      <c r="G170" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="H170" s="13" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A171" s="30"/>
-      <c r="B171" s="10" t="s">
-        <v>405</v>
+      <c r="D170" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F170" s="3"/>
+      <c r="G170" s="3"/>
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" customHeight="1" spans="1:8">
+      <c r="A171" s="72"/>
+      <c r="B171" s="1" t="s">
+        <v>443</v>
       </c>
       <c r="C171" s="3"/>
-      <c r="D171" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>369</v>
+      <c r="D171" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>445</v>
       </c>
       <c r="F171" s="3"/>
-      <c r="G171" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="H171" s="7" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A172" s="30"/>
-      <c r="B172" s="43" t="s">
-        <v>408</v>
-      </c>
+      <c r="G171" s="3"/>
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" customHeight="1" spans="1:8">
+      <c r="A172" s="72"/>
+      <c r="B172" s="1"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="E172" s="7" t="s">
-        <v>410</v>
+      <c r="D172" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>446</v>
       </c>
       <c r="F172" s="3"/>
-      <c r="G172" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H172" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A173" s="30"/>
-      <c r="B173" s="43"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" customHeight="1" spans="1:8">
+      <c r="A173" s="72"/>
+      <c r="B173" s="1" t="s">
+        <v>447</v>
+      </c>
       <c r="C173" s="3"/>
-      <c r="D173" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="E173" s="7" t="s">
-        <v>53</v>
+      <c r="D173" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>449</v>
       </c>
       <c r="F173" s="3"/>
-      <c r="G173" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H173" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A174" s="31" t="s">
-        <v>414</v>
-      </c>
-      <c r="B174" s="33" t="s">
-        <v>415</v>
-      </c>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" customHeight="1" spans="1:8">
+      <c r="A174" s="72"/>
+      <c r="B174" s="1"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>418</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
     </row>
-    <row r="175" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="32"/>
-      <c r="B175" s="33"/>
+    <row r="175" customHeight="1" spans="1:8">
+      <c r="A175" s="72"/>
+      <c r="B175" s="1"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="G175" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="H175" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="32"/>
-      <c r="B176" s="33"/>
+        <v>452</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" customHeight="1" spans="1:8">
+      <c r="A176" s="72"/>
+      <c r="B176" s="1" t="s">
+        <v>453</v>
+      </c>
       <c r="C176" s="3"/>
-      <c r="D176" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>425</v>
-      </c>
+      <c r="D176" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
     </row>
-    <row r="177" spans="1:8" ht="20.100000000000001" customHeight="1">
-      <c r="A177" s="32"/>
-      <c r="B177" s="10" t="s">
-        <v>426</v>
-      </c>
+    <row r="177" customHeight="1" spans="1:8">
+      <c r="A177" s="72"/>
+      <c r="B177" s="1"/>
       <c r="C177" s="3"/>
-      <c r="D177" s="7" t="s">
+      <c r="D177" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
+    </row>
+    <row r="178" customHeight="1" spans="1:8">
+      <c r="A178" s="72"/>
+      <c r="B178" s="1"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F178" s="3"/>
+      <c r="G178" s="3"/>
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" customHeight="1" spans="1:8">
+      <c r="A179" s="73" t="s">
+        <v>458</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C179" s="3"/>
+      <c r="D179" s="70" t="s">
+        <v>460</v>
+      </c>
+      <c r="E179" s="70" t="s">
+        <v>461</v>
+      </c>
+      <c r="F179" s="70"/>
+      <c r="G179" s="70" t="s">
+        <v>462</v>
+      </c>
+      <c r="H179" s="70" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="1:8">
+      <c r="A180" s="73"/>
+      <c r="B180" s="66" t="s">
+        <v>464</v>
+      </c>
+      <c r="C180" s="3"/>
+      <c r="D180" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="E177" s="7" t="s">
+      <c r="E180" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="F177" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="G177" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="H177" s="7" t="s">
+      <c r="F180" s="3"/>
+      <c r="G180" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="H180" s="12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="181" customHeight="1" spans="1:8">
+      <c r="A181" s="73"/>
+      <c r="B181" s="66" t="s">
+        <v>467</v>
+      </c>
+      <c r="C181" s="3"/>
+      <c r="D181" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="E181" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="F181" s="3"/>
+      <c r="G181" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H181" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="182" customHeight="1" spans="1:8">
+      <c r="A182" s="73"/>
+      <c r="B182" s="66"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="E182" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F182" s="3"/>
+      <c r="G182" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="H182" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="1:8">
+      <c r="A183" s="74" t="s">
+        <v>473</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="E183" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="F183" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="G183" s="3"/>
+      <c r="H183" s="3"/>
+    </row>
+    <row r="184" customHeight="1" spans="1:8">
+      <c r="A184" s="75"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="E184" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="F184" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="G184" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="H184" s="12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="185" customHeight="1" spans="1:8">
+      <c r="A185" s="75"/>
+      <c r="B185" s="1"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="70" t="s">
+        <v>481</v>
+      </c>
+      <c r="E185" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="F185" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" customHeight="1" spans="1:8">
+      <c r="A186" s="75"/>
+      <c r="B186" s="66" t="s">
+        <v>484</v>
+      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="E186" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="F186" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="G186" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="H186" s="12" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="B58:B65"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="A74:A115"/>
-    <mergeCell ref="C74:H74"/>
-    <mergeCell ref="C82:E82"/>
-    <mergeCell ref="B75:B81"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="B90:B96"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="C99:C102"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="B97:B104"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="C76:C80"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C91:C94"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C59:C61"/>
-    <mergeCell ref="C62:C64"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B162:B163"/>
-    <mergeCell ref="B164:B166"/>
-    <mergeCell ref="B167:B169"/>
-    <mergeCell ref="B172:B173"/>
-    <mergeCell ref="B174:B176"/>
-    <mergeCell ref="B147:B149"/>
-    <mergeCell ref="B150:B153"/>
-    <mergeCell ref="B154:B155"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="B159:B161"/>
-    <mergeCell ref="B121:B124"/>
-    <mergeCell ref="B125:B130"/>
-    <mergeCell ref="B132:B137"/>
-    <mergeCell ref="B138:B143"/>
-    <mergeCell ref="B144:B146"/>
-    <mergeCell ref="B117:B120"/>
-    <mergeCell ref="B66:B69"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B82:B89"/>
-    <mergeCell ref="A144:A149"/>
-    <mergeCell ref="A150:A169"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="A174:A177"/>
+  <mergeCells count="88">
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D64:H64"/>
+    <mergeCell ref="D69:H69"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="C83:H83"/>
+    <mergeCell ref="C84:E84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="C99:E99"/>
+    <mergeCell ref="C106:E106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="C107:E107"/>
+    <mergeCell ref="A2:A27"/>
+    <mergeCell ref="A28:A44"/>
+    <mergeCell ref="A46:A81"/>
+    <mergeCell ref="A83:A124"/>
+    <mergeCell ref="A126:A139"/>
+    <mergeCell ref="A141:A152"/>
+    <mergeCell ref="A153:A158"/>
+    <mergeCell ref="A159:A178"/>
+    <mergeCell ref="A179:A182"/>
+    <mergeCell ref="A183:A186"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B11"/>
     <mergeCell ref="B12:B15"/>
@@ -5620,183 +6284,231 @@
     <mergeCell ref="B40:B44"/>
     <mergeCell ref="B46:B53"/>
     <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B105:B110"/>
-    <mergeCell ref="B111:B115"/>
-    <mergeCell ref="A2:A27"/>
-    <mergeCell ref="A28:A44"/>
-    <mergeCell ref="A46:A72"/>
-    <mergeCell ref="A117:A130"/>
-    <mergeCell ref="A132:A143"/>
+    <mergeCell ref="B59:B73"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B81"/>
+    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="B91:B98"/>
+    <mergeCell ref="B99:B105"/>
+    <mergeCell ref="B106:B113"/>
+    <mergeCell ref="B114:B119"/>
+    <mergeCell ref="B120:B124"/>
+    <mergeCell ref="B126:B129"/>
+    <mergeCell ref="B130:B133"/>
+    <mergeCell ref="B134:B139"/>
+    <mergeCell ref="B141:B146"/>
+    <mergeCell ref="B147:B152"/>
+    <mergeCell ref="B153:B155"/>
+    <mergeCell ref="B156:B158"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="B163:B164"/>
+    <mergeCell ref="B165:B167"/>
+    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="B181:B182"/>
+    <mergeCell ref="B183:B185"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="C42:C44"/>
+    <mergeCell ref="C46:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C60:C63"/>
+    <mergeCell ref="C64:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C75:C76"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="C104:C105"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="C112:C113"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="33.875" customWidth="1"/>
     <col min="2" max="2" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.5" customHeight="1">
-      <c r="A1" s="33" t="s">
-        <v>431</v>
-      </c>
-      <c r="B1" s="33"/>
-    </row>
-    <row r="2" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="1" ht="28.5" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>432</v>
+        <v>490</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="20.100000000000001" customHeight="1">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>434</v>
+        <v>492</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>435</v>
+        <v>493</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="20.100000000000001" customHeight="1">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>437</v>
+        <v>495</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="20.100000000000001" customHeight="1">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="57" t="s">
-        <v>439</v>
-      </c>
-      <c r="B7" s="58"/>
-    </row>
-    <row r="8" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="7" customHeight="1" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>440</v>
+        <v>498</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="20.100000000000001" customHeight="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>442</v>
+        <v>500</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>443</v>
+        <v>501</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>444</v>
+        <v>502</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
     </row>
-    <row r="13" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="33" t="s">
-        <v>445</v>
-      </c>
-      <c r="B13" s="33"/>
-    </row>
-    <row r="14" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="13" customHeight="1" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>446</v>
+        <v>504</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="20.100000000000001" customHeight="1">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>448</v>
+        <v>506</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="20.100000000000001" customHeight="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>449</v>
+        <v>507</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="20.100000000000001" customHeight="1">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:2" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="33" t="s">
-        <v>451</v>
-      </c>
-      <c r="B18" s="33"/>
-    </row>
-    <row r="19" spans="1:2" ht="20.100000000000001" customHeight="1">
+    <row r="18" customHeight="1" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>452</v>
+        <v>510</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="20.100000000000001" customHeight="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>454</v>
+        <v>512</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="20.100000000000001" customHeight="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>456</v>
+        <v>514</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="20.100000000000001" customHeight="1">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
@@ -5807,22 +6519,25 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A18:B18"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/内科学笔记/病和方剂汇总.xlsx
+++ b/内科学笔记/病和方剂汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="525">
   <si>
     <t>病证系统</t>
   </si>
@@ -61,27 +61,64 @@
     <t>感冒</t>
   </si>
   <si>
+    <t>外感六淫
+时行病毒</t>
+  </si>
+  <si>
     <t>风寒证</t>
   </si>
   <si>
     <t>荆防败毒散</t>
   </si>
   <si>
+    <t>恶寒重，发热轻，头痛无汗，痰稀色白，口不渴</t>
+  </si>
+  <si>
+    <t>苔薄白</t>
+  </si>
+  <si>
+    <t>脉浮</t>
+  </si>
+  <si>
     <t>风热证</t>
   </si>
   <si>
     <t>银翘散</t>
   </si>
   <si>
+    <t>微恶风，身热较重，鼻塞流黄涕，口渴</t>
+  </si>
+  <si>
+    <t>舌边红苔薄黄</t>
+  </si>
+  <si>
+    <t>脉浮数</t>
+  </si>
+  <si>
     <t>暑湿证</t>
   </si>
   <si>
-    <t>新加香濡散</t>
+    <t>新加香濡饮</t>
+  </si>
+  <si>
+    <t>微恶风，身热，肢体酸重，渴不多饮。胸闷脘痞</t>
+  </si>
+  <si>
+    <t>苔薄黄</t>
+  </si>
+  <si>
+    <t>脉濡数</t>
+  </si>
+  <si>
+    <t>口诀：寒金热银暑新加</t>
   </si>
   <si>
     <t>咳嗽</t>
   </si>
   <si>
+    <t>病机：肺失宣降，肺气上逆。 病位在肺，与肝、脾有关</t>
+  </si>
+  <si>
     <t>外感咳嗽</t>
   </si>
   <si>
@@ -109,7 +146,7 @@
     <t>痰湿蕴肺</t>
   </si>
   <si>
-    <t>二陈汤。三子养亲汤</t>
+    <t>二陈汤 + 三子养亲汤</t>
   </si>
   <si>
     <t>痰热郁肺</t>
@@ -476,9 +513,6 @@
     <t>舌淡苔薄白</t>
   </si>
   <si>
-    <t>脉浮数</t>
-  </si>
-  <si>
     <t>风热头痛</t>
   </si>
   <si>
@@ -515,9 +549,6 @@
     <t>头痛而眩，心烦易怒，或胁痛，面红口苦</t>
   </si>
   <si>
-    <t>苔薄黄</t>
-  </si>
-  <si>
     <t>脉弦有力</t>
   </si>
   <si>
@@ -621,6 +652,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>肌肤不仁，手足麻木，口眼歪斜、言语不利。</t>
     </r>
     <r>
@@ -661,6 +699,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">中脏腑
 </t>
     </r>
@@ -909,9 +954,6 @@
   </si>
   <si>
     <t>腹痛闷胀，疼不定处，兼两胁疼痛</t>
-  </si>
-  <si>
-    <t>苔薄白</t>
   </si>
   <si>
     <t>瘀血内停</t>
@@ -1696,7 +1738,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1744,38 +1786,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1972,7 +1982,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2006,12 +2016,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2155,12 +2159,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2179,12 +2177,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2198,12 +2190,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2462,137 +2448,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2620,6 +2606,36 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2674,22 +2690,19 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2701,6 +2714,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2710,43 +2735,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2755,70 +2756,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3134,12 +3126,12 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I73" sqref="I73"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="7"/>
@@ -3184,105 +3176,108 @@
       <c r="A2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="10" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="8"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="10"/>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="8"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="3"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
       <c r="D4" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="8"/>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:8">
+      <c r="B5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" ht="11" customHeight="1" spans="1:1">
       <c r="A6" s="8"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:8">
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:8">
       <c r="A7" s="8"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" customHeight="1" spans="1:8">
       <c r="A8" s="8"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
+      <c r="B8" s="11"/>
+      <c r="C8" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>26</v>
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3290,13 +3285,13 @@
     </row>
     <row r="9" customHeight="1" spans="1:8">
       <c r="A9" s="8"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3304,13 +3299,13 @@
     </row>
     <row r="10" customHeight="1" spans="1:8">
       <c r="A10" s="8"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3318,13 +3313,15 @@
     </row>
     <row r="11" customHeight="1" spans="1:8">
       <c r="A11" s="8"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
+      </c>
+      <c r="E11" s="22" t="s">
+        <v>38</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3332,15 +3329,13 @@
     </row>
     <row r="12" customHeight="1" spans="1:8">
       <c r="A12" s="8"/>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="1"/>
       <c r="D12" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3348,13 +3343,13 @@
     </row>
     <row r="13" customHeight="1" spans="1:8">
       <c r="A13" s="8"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="1"/>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3362,45 +3357,32 @@
     </row>
     <row r="14" customHeight="1" spans="1:8">
       <c r="A14" s="8"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" customHeight="1" spans="1:8">
+    <row r="15" ht="11" customHeight="1" spans="1:1">
       <c r="A15" s="8"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
     </row>
     <row r="16" customHeight="1" spans="1:8">
       <c r="A16" s="8"/>
       <c r="B16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>42</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3409,12 +3391,12 @@
     <row r="17" customHeight="1" spans="1:8">
       <c r="A17" s="8"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -3423,14 +3405,12 @@
     <row r="18" customHeight="1" spans="1:8">
       <c r="A18" s="8"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="13" t="s">
-        <v>47</v>
-      </c>
+      <c r="C18" s="3"/>
       <c r="D18" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -3439,12 +3419,12 @@
     <row r="19" customHeight="1" spans="1:8">
       <c r="A19" s="8"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="14"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
@@ -3452,13 +3432,17 @@
     </row>
     <row r="20" customHeight="1" spans="1:8">
       <c r="A20" s="8"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D20" s="3" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
@@ -3466,17 +3450,13 @@
     </row>
     <row r="21" customHeight="1" spans="1:8">
       <c r="A21" s="8"/>
-      <c r="B21" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>55</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
       <c r="D21" s="3" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
@@ -3485,12 +3465,14 @@
     <row r="22" customHeight="1" spans="1:8">
       <c r="A22" s="8"/>
       <c r="B22" s="1"/>
-      <c r="C22" s="15"/>
+      <c r="C22" s="23" t="s">
+        <v>59</v>
+      </c>
       <c r="D22" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3499,12 +3481,12 @@
     <row r="23" customHeight="1" spans="1:8">
       <c r="A23" s="8"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="15"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="3" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -3513,12 +3495,12 @@
     <row r="24" customHeight="1" spans="1:8">
       <c r="A24" s="8"/>
       <c r="B24" s="1"/>
-      <c r="C24" s="16"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="3" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
@@ -3526,15 +3508,17 @@
     </row>
     <row r="25" customHeight="1" spans="1:8">
       <c r="A25" s="8"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="9" t="s">
-        <v>62</v>
+      <c r="B25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>67</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -3543,12 +3527,12 @@
     <row r="26" customHeight="1" spans="1:8">
       <c r="A26" s="8"/>
       <c r="B26" s="1"/>
-      <c r="C26" s="10"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="3" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -3557,1744 +3541,1732 @@
     <row r="27" customHeight="1" spans="1:8">
       <c r="A27" s="8"/>
       <c r="B27" s="1"/>
-      <c r="C27" s="11"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
     </row>
     <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="8"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:8">
+      <c r="A29" s="8"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:8">
+      <c r="A30" s="8"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:8">
+      <c r="A31" s="8"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:8">
+      <c r="A32" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:8">
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:8">
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:8">
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:8">
+      <c r="A36" s="29"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:8">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="F29" s="12" t="s">
+      <c r="D36" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:8">
+      <c r="A37" s="29"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:8">
+      <c r="A38" s="29"/>
+      <c r="B38" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:8">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:8">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:8">
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="G29" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:8">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="12" t="s">
+      <c r="D41" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:8">
+      <c r="A42" s="29"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:8">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:8">
-      <c r="A33" s="19"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="F33" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:8">
-      <c r="A34" s="19"/>
-      <c r="B34" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:8">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:8">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:8">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D37" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:8">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:8">
-      <c r="A39" s="19"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:8">
-      <c r="A40" s="19"/>
-      <c r="B40" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="3" t="s">
+      <c r="F42" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:8">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="12" t="s">
+      <c r="H42" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="E41" s="3" t="s">
+    </row>
+    <row r="43" customHeight="1" spans="1:8">
+      <c r="A43" s="29"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:8">
-      <c r="A42" s="19"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D42" s="12" t="s">
+      <c r="H43" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="3" t="s">
+    </row>
+    <row r="44" customHeight="1" spans="1:8">
+      <c r="A44" s="29"/>
+      <c r="B44" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="C44" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="H42" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:8">
-      <c r="A43" s="19"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="12" t="s">
+      <c r="F44" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" s="3" t="s">
+      <c r="G44" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="H44" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:8">
-      <c r="A44" s="24"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="12" t="s">
+    </row>
+    <row r="45" customHeight="1" spans="1:8">
+      <c r="A45" s="29"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H44" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="45" ht="13" customHeight="1"/>
+      <c r="F45" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="46" customHeight="1" spans="1:8">
-      <c r="A46" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C46" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>144</v>
+      <c r="A46" s="29"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>145</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="47" customHeight="1" spans="1:8">
-      <c r="A47" s="26"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="12" t="s">
+      <c r="A47" s="29"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="22" t="s">
         <v>149</v>
       </c>
       <c r="E47" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="G47" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:8">
+      <c r="A48" s="34"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:8">
-      <c r="A48" s="26"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="12" t="s">
+      <c r="E48" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E48" s="3" t="s">
+    </row>
+    <row r="49" ht="13" customHeight="1"/>
+    <row r="50" customHeight="1" spans="1:8">
+      <c r="A50" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="B50" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="C50" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="E50" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:8">
-      <c r="A49" s="26"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="12" t="s">
+      <c r="F50" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="G50" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="H50" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:8">
+      <c r="A51" s="36"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="22" t="s">
         <v>160</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="E51" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="F51" s="22" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:8">
-      <c r="A50" s="26"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="H51" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:8">
+      <c r="A52" s="36"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="22" t="s">
         <v>164</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="E52" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="F52" s="22" t="s">
         <v>166</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:8">
-      <c r="A51" s="26"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="12" t="s">
+      <c r="G52" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="H52" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="F51" s="12" t="s">
+    </row>
+    <row r="53" customHeight="1" spans="1:8">
+      <c r="A53" s="36"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:8">
-      <c r="A52" s="26"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="12" t="s">
+      <c r="F53" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="E52" s="3" t="s">
+      <c r="G53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F52" s="12" t="s">
+    </row>
+    <row r="54" customHeight="1" spans="1:8">
+      <c r="A54" s="36"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="H52" s="3" t="s">
+      <c r="E54" s="3" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:8">
-      <c r="A53" s="26"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="16"/>
-      <c r="D53" s="12" t="s">
+      <c r="F54" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="G54" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="H54" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:8">
+      <c r="A55" s="36"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H53" s="3" t="s">
+      <c r="E55" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:8">
-      <c r="A54" s="26"/>
-      <c r="B54" s="22" t="s">
+      <c r="F55" s="22" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F54" s="12" t="s">
+      <c r="G55" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H54" s="3" t="s">
+      <c r="H55" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:8">
+      <c r="A56" s="36"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="22" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:8">
-      <c r="A55" s="26"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="12" t="s">
+      <c r="E56" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F55" s="12" t="s">
+      <c r="F56" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:8">
-      <c r="A56" s="26"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D56" s="12" t="s">
+      <c r="G56" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F56" s="12" t="s">
+    </row>
+    <row r="57" customHeight="1" spans="1:8">
+      <c r="A57" s="36"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H56" s="3" t="s">
+      <c r="E57" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="57" ht="28" customHeight="1" spans="1:8">
-      <c r="A57" s="26"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="12" t="s">
+      <c r="F57" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="E57" s="3" t="s">
+      <c r="G57" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F57" s="12" t="s">
+    </row>
+    <row r="58" customHeight="1" spans="1:8">
+      <c r="A58" s="36"/>
+      <c r="B58" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="58" ht="11" customHeight="1" spans="1:1">
-      <c r="A58" s="26"/>
+      <c r="C58" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F58" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="59" customHeight="1" spans="1:8">
-      <c r="A59" s="26"/>
-      <c r="B59" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="C59" s="28" t="s">
+      <c r="A59" s="36"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F59" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:8">
+      <c r="A60" s="36"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" ht="28" customHeight="1" spans="1:8">
+      <c r="A61" s="36"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F61" s="22" t="s">
+        <v>199</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" ht="11" customHeight="1" spans="1:1">
+      <c r="A62" s="36"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:8">
+      <c r="A63" s="36"/>
+      <c r="B63" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C63" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D63" s="38"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:8">
+      <c r="A64" s="36"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E64" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>206</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H64" s="44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:8">
+      <c r="A65" s="36"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="F65" s="22" t="s">
+        <v>208</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:8">
+      <c r="A66" s="36"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="E66" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="F66" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="H66" s="22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:8">
+      <c r="A67" s="36"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="E67" s="46"/>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="47"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:8">
+      <c r="A68" s="36"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="E68" s="50"/>
+      <c r="F68" s="50"/>
+      <c r="G68" s="50"/>
+      <c r="H68" s="51"/>
+    </row>
+    <row r="69" customHeight="1" spans="1:8">
+      <c r="A69" s="36"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="22" t="s">
+        <v>217</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="H69" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="D59" s="29"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="G59" s="32"/>
-      <c r="H59" s="32"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:8">
-      <c r="A60" s="26"/>
-      <c r="B60" s="27"/>
-      <c r="C60" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="E60" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="H60" s="35" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:8">
-      <c r="A61" s="26"/>
-      <c r="B61" s="27"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="H61" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:8">
-      <c r="A62" s="26"/>
-      <c r="B62" s="27"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="H62" s="12" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:8">
-      <c r="A63" s="26"/>
-      <c r="B63" s="27"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="36" t="s">
-        <v>204</v>
-      </c>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="38"/>
-    </row>
-    <row r="64" customHeight="1" spans="1:8">
-      <c r="A64" s="26"/>
-      <c r="B64" s="27"/>
-      <c r="C64" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="D64" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="42"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:8">
-      <c r="A65" s="26"/>
-      <c r="B65" s="27"/>
-      <c r="C65" s="39"/>
-      <c r="D65" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="G65" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="H65" s="43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:8">
-      <c r="A66" s="26"/>
-      <c r="B66" s="27"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="G66" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="H66" s="43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:8">
-      <c r="A67" s="26"/>
-      <c r="B67" s="27"/>
-      <c r="C67" s="39"/>
-      <c r="D67" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="F67" s="43" t="s">
-        <v>216</v>
-      </c>
-      <c r="G67" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="H67" s="43" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="68" customHeight="1" spans="1:8">
-      <c r="A68" s="26"/>
-      <c r="B68" s="27"/>
-      <c r="C68" s="39"/>
-      <c r="D68" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="F68" s="12" t="s">
+    </row>
+    <row r="70" customHeight="1" spans="1:8">
+      <c r="A70" s="36"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="22" t="s">
+        <v>221</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>222</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>223</v>
+      </c>
+      <c r="G70" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="G68" s="43" t="s">
-        <v>221</v>
-      </c>
-      <c r="H68" s="43" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:8">
-      <c r="A69" s="26"/>
-      <c r="B69" s="27"/>
-      <c r="C69" s="39"/>
-      <c r="D69" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="38"/>
-    </row>
-    <row r="70" customHeight="1" spans="1:8">
-      <c r="A70" s="26"/>
-      <c r="B70" s="27"/>
-      <c r="C70" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="D70" s="44" t="s">
+      <c r="H70" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:8">
+      <c r="A71" s="36"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="E70" s="45" t="s">
+      <c r="E71" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="F70" s="44" t="s">
+      <c r="F71" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="G70" s="46" t="s">
+      <c r="G71" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H71" s="22" t="s">
         <v>227</v>
       </c>
-      <c r="H70" s="46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:8">
-      <c r="A71" s="26"/>
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="44" t="s">
+    </row>
+    <row r="72" customHeight="1" spans="1:8">
+      <c r="A72" s="36"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="E71" s="45" t="s">
+      <c r="E72" s="22" t="s">
         <v>229</v>
       </c>
-      <c r="F71" s="47" t="s">
+      <c r="F72" s="22" t="s">
         <v>230</v>
       </c>
-      <c r="G71" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="H71" s="46" t="s">
+      <c r="G72" s="22" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:8">
-      <c r="A72" s="26"/>
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="44" t="s">
+      <c r="H72" s="22" t="s">
         <v>232</v>
       </c>
-      <c r="E72" s="45" t="s">
+    </row>
+    <row r="73" customHeight="1" spans="1:8">
+      <c r="A73" s="36"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="45" t="s">
         <v>233</v>
       </c>
-      <c r="F72" s="47" t="s">
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="47"/>
+    </row>
+    <row r="74" customHeight="1" spans="1:8">
+      <c r="A74" s="36"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="22" t="s">
         <v>234</v>
       </c>
-      <c r="G72" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="H72" s="46" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="1:8">
-      <c r="A73" s="26"/>
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="36" t="s">
+      <c r="E74" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="38"/>
-    </row>
-    <row r="74" ht="13" customHeight="1" spans="1:1">
-      <c r="A74" s="26"/>
+      <c r="F74" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="H74" s="22" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="75" customHeight="1" spans="1:8">
-      <c r="A75" s="26"/>
-      <c r="B75" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="C75" s="22" t="s">
-        <v>237</v>
-      </c>
-      <c r="D75" s="12" t="s">
+      <c r="A75" s="36"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="22" t="s">
         <v>238</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F75" s="12" t="s">
+      <c r="F75" s="52" t="s">
         <v>240</v>
       </c>
-      <c r="G75" s="43" t="s">
+      <c r="G75" s="22" t="s">
+        <v>159</v>
+      </c>
+      <c r="H75" s="22" t="s">
         <v>241</v>
       </c>
-      <c r="H75" s="43" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="76" customHeight="1" spans="1:8">
-      <c r="A76" s="26"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="12" t="s">
-        <v>137</v>
+      <c r="A76" s="36"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="22" t="s">
+        <v>242</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="F76" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="F76" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="G76" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:8">
+      <c r="A77" s="36"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="45" t="s">
+        <v>245</v>
+      </c>
+      <c r="E77" s="46"/>
+      <c r="F77" s="46"/>
+      <c r="G77" s="46"/>
+      <c r="H77" s="47"/>
+    </row>
+    <row r="78" ht="13" customHeight="1" spans="1:1">
+      <c r="A78" s="36"/>
+    </row>
+    <row r="79" customHeight="1" spans="1:8">
+      <c r="A79" s="36"/>
+      <c r="B79" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="C79" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="G79" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="H79" s="22" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:8">
+      <c r="A80" s="36"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A81" s="36"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="D81" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F81" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="G81" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="H81" s="22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="82" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A82" s="36"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="G82" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H82" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A83" s="36"/>
+      <c r="B83" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="C83" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D83" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="F83" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A84" s="36"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="22" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F84" s="22"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A85" s="53"/>
+      <c r="B85" s="26"/>
+      <c r="C85" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F85" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" ht="19.5" customHeight="1"/>
+    <row r="87" ht="50.25" customHeight="1" spans="1:8">
+      <c r="A87" s="54" t="s">
+        <v>271</v>
+      </c>
+      <c r="B87" s="55" t="s">
+        <v>272</v>
+      </c>
+      <c r="C87" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="D87" s="57"/>
+      <c r="E87" s="57"/>
+      <c r="F87" s="57"/>
+      <c r="G87" s="57"/>
+      <c r="H87" s="58"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:8">
+      <c r="A88" s="59"/>
+      <c r="B88" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C88" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="61" t="s">
+        <v>276</v>
+      </c>
+      <c r="G88" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="H88" s="60"/>
+    </row>
+    <row r="89" customHeight="1" spans="1:8">
+      <c r="A89" s="59"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>278</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="F89" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="G89" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H89" s="22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:8">
+      <c r="A90" s="59"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="E90" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="F90" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="H90" s="22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:8">
+      <c r="A91" s="59"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>287</v>
+      </c>
+      <c r="F91" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:8">
+      <c r="A92" s="59"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="F92" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:8">
+      <c r="A93" s="59"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="26"/>
+      <c r="D93" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="F93" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="G93" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H93" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:8">
+      <c r="A94" s="59"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H94" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A77" s="26"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="22" t="s">
-        <v>244</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="G77" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="H77" s="43" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="78" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A78" s="26"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="G78" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="H78" s="43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="79" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A79" s="26"/>
-      <c r="B79" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="C79" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D79" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F79" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A80" s="26"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F80" s="12"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-    </row>
-    <row r="81" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A81" s="48"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D81" s="12" t="s">
+    </row>
+    <row r="95" ht="11" customHeight="1" spans="1:1">
+      <c r="A95" s="59"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:8">
+      <c r="A96" s="59"/>
+      <c r="B96" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="C96" s="45" t="s">
+        <v>300</v>
+      </c>
+      <c r="D96" s="46"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="62" t="s">
+        <v>301</v>
+      </c>
+      <c r="G96" s="45" t="s">
+        <v>302</v>
+      </c>
+      <c r="H96" s="47"/>
+    </row>
+    <row r="97" customHeight="1" spans="1:8">
+      <c r="A97" s="59"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="E97" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="F97" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="G97" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:8">
+      <c r="A98" s="59"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="E98" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="F98" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="G98" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="H98" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:8">
+      <c r="A99" s="59"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="F99" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="G99" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="H99" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:8">
+      <c r="A100" s="59"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="22" t="s">
+        <v>311</v>
+      </c>
+      <c r="E100" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="F100" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="G100" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="E81" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-    </row>
-    <row r="82" ht="19.5" customHeight="1"/>
-    <row r="83" ht="50.25" customHeight="1" spans="1:8">
-      <c r="A83" s="49" t="s">
-        <v>261</v>
-      </c>
-      <c r="B83" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="C83" s="51" t="s">
-        <v>263</v>
-      </c>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="53"/>
-    </row>
-    <row r="84" customHeight="1" spans="1:8">
-      <c r="A84" s="54"/>
-      <c r="B84" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="C84" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="D84" s="55"/>
-      <c r="E84" s="55"/>
-      <c r="F84" s="56" t="s">
-        <v>266</v>
-      </c>
-      <c r="G84" s="55" t="s">
-        <v>267</v>
-      </c>
-      <c r="H84" s="55"/>
-    </row>
-    <row r="85" customHeight="1" spans="1:8">
-      <c r="A85" s="54"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>268</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="F85" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="G85" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="H85" s="12" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="86" customHeight="1" spans="1:8">
-      <c r="A86" s="54"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="E86" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="F86" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="G86" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="H86" s="12" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="1:8">
-      <c r="A87" s="54"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="F87" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" customHeight="1" spans="1:8">
-      <c r="A88" s="54"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="H88" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="89" customHeight="1" spans="1:8">
-      <c r="A89" s="54"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="F89" s="12" t="s">
+      <c r="H100" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:8">
+      <c r="A101" s="59"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="22" t="s">
+        <v>314</v>
+      </c>
+      <c r="E101" s="63" t="s">
+        <v>315</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H101" s="22" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:8">
+      <c r="A102" s="59"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D102" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="F102" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="G102" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="H102" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:8">
+      <c r="A103" s="59"/>
+      <c r="B103" s="21"/>
+      <c r="C103" s="26"/>
+      <c r="D103" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H103" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" ht="12" customHeight="1" spans="1:1">
+      <c r="A104" s="59"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:8">
+      <c r="A105" s="59"/>
+      <c r="B105" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="C105" s="64" t="s">
+        <v>325</v>
+      </c>
+      <c r="D105" s="65"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="40" t="s">
+        <v>326</v>
+      </c>
+      <c r="G105" s="67"/>
+      <c r="H105" s="67"/>
+    </row>
+    <row r="106" customHeight="1" spans="1:8">
+      <c r="A106" s="59"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D106" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="E106" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="F106" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G106" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H106" s="22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:8">
+      <c r="A107" s="59"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="22" t="s">
         <v>286</v>
       </c>
-      <c r="G89" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H89" s="12" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="1:8">
-      <c r="A90" s="54"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D90" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="F90" s="12" t="s">
+      <c r="E107" s="68" t="s">
+        <v>306</v>
+      </c>
+      <c r="F107" s="22" t="s">
+        <v>331</v>
+      </c>
+      <c r="G107" s="22" t="s">
         <v>289</v>
       </c>
-      <c r="G90" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="H90" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="1:8">
-      <c r="A91" s="54"/>
-      <c r="B91" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="C91" s="57" t="s">
-        <v>291</v>
-      </c>
-      <c r="D91" s="58"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="60" t="s">
-        <v>292</v>
-      </c>
-      <c r="G91" s="57" t="s">
-        <v>293</v>
-      </c>
-      <c r="H91" s="59"/>
-    </row>
-    <row r="92" customHeight="1" spans="1:8">
-      <c r="A92" s="54"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>295</v>
-      </c>
-      <c r="G92" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="H92" s="43" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:8">
-      <c r="A93" s="54"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="G93" s="12" t="s">
-        <v>279</v>
-      </c>
-      <c r="H93" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="1:8">
-      <c r="A94" s="54"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="E94" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="95" customHeight="1" spans="1:8">
-      <c r="A95" s="54"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="E95" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G95" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="H95" s="12" t="s">
+      <c r="H107" s="22" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:8">
+      <c r="A108" s="59"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="E108" s="68" t="s">
+        <v>334</v>
+      </c>
+      <c r="F108" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="G108" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H108" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:8">
+      <c r="A109" s="59"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="E109" s="68" t="s">
+        <v>336</v>
+      </c>
+      <c r="F109" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="G109" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="H109" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:8">
+      <c r="A110" s="59"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D110" s="22" t="s">
+        <v>321</v>
+      </c>
+      <c r="E110" s="68" t="s">
+        <v>339</v>
+      </c>
+      <c r="F110" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="G110" s="22" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="96" customHeight="1" spans="1:8">
-      <c r="A96" s="54"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="E96" s="61" t="s">
+      <c r="H110" s="22" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:8">
+      <c r="A111" s="59"/>
+      <c r="B111" s="21"/>
+      <c r="C111" s="26"/>
+      <c r="D111" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="E111" s="68" t="s">
+        <v>343</v>
+      </c>
+      <c r="F111" s="22" t="s">
+        <v>344</v>
+      </c>
+      <c r="G111" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="H111" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" ht="12" customHeight="1" spans="1:1">
+      <c r="A112" s="59"/>
+    </row>
+    <row r="113" customHeight="1" spans="1:8">
+      <c r="A113" s="59"/>
+      <c r="B113" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="C113" s="64" t="s">
+        <v>346</v>
+      </c>
+      <c r="D113" s="65"/>
+      <c r="E113" s="66"/>
+      <c r="F113" s="40" t="s">
+        <v>347</v>
+      </c>
+      <c r="G113" s="64" t="s">
+        <v>348</v>
+      </c>
+      <c r="H113" s="66"/>
+    </row>
+    <row r="114" customHeight="1" spans="1:8">
+      <c r="A114" s="59"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="64" t="s">
+        <v>349</v>
+      </c>
+      <c r="D114" s="65"/>
+      <c r="E114" s="66"/>
+      <c r="F114" s="40"/>
+      <c r="G114" s="64"/>
+      <c r="H114" s="66"/>
+    </row>
+    <row r="115" customHeight="1" spans="1:8">
+      <c r="A115" s="59"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D115" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="E115" s="68" t="s">
+        <v>351</v>
+      </c>
+      <c r="F115" s="22" t="s">
+        <v>352</v>
+      </c>
+      <c r="G115" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="H115" s="22" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:8">
+      <c r="A116" s="59"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="E116" s="68" t="s">
+        <v>354</v>
+      </c>
+      <c r="F116" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="G116" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="H116" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:8">
+      <c r="A117" s="59"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="25"/>
+      <c r="D117" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="E117" s="68" t="s">
         <v>306</v>
       </c>
-      <c r="F96" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H96" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="1:8">
-      <c r="A97" s="54"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>309</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>310</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>311</v>
-      </c>
-      <c r="H97" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="1:8">
-      <c r="A98" s="54"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="G98" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="H98" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="1:8">
-      <c r="A99" s="54"/>
-      <c r="B99" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="C99" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="D99" s="29"/>
-      <c r="E99" s="30"/>
-      <c r="F99" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="G99" s="62"/>
-      <c r="H99" s="62"/>
-    </row>
-    <row r="100" customHeight="1" spans="1:8">
-      <c r="A100" s="54"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D100" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="E100" s="63" t="s">
-        <v>319</v>
-      </c>
-      <c r="F100" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="G100" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="H100" s="43" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:8">
-      <c r="A101" s="54"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="E101" s="63" t="s">
-        <v>297</v>
-      </c>
-      <c r="F101" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="G101" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="H101" s="43" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="1:8">
-      <c r="A102" s="54"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="E102" s="64" t="s">
-        <v>325</v>
-      </c>
-      <c r="F102" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="G102" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="H102" s="43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="1:8">
-      <c r="A103" s="54"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="12" t="s">
-        <v>299</v>
-      </c>
-      <c r="E103" s="64" t="s">
-        <v>327</v>
-      </c>
-      <c r="F103" s="43" t="s">
-        <v>328</v>
-      </c>
-      <c r="G103" s="43" t="s">
-        <v>329</v>
-      </c>
-      <c r="H103" s="43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="104" customHeight="1" spans="1:8">
-      <c r="A104" s="54"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>312</v>
-      </c>
-      <c r="E104" s="63" t="s">
-        <v>330</v>
-      </c>
-      <c r="F104" s="43" t="s">
-        <v>331</v>
-      </c>
-      <c r="G104" s="43" t="s">
+      <c r="F117" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="G117" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="H117" s="22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:8">
+      <c r="A118" s="59"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="26"/>
+      <c r="D118" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="E118" s="68" t="s">
+        <v>359</v>
+      </c>
+      <c r="F118" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="G118" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="H118" s="22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:8">
+      <c r="A119" s="59"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="D119" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="E119" s="68" t="s">
+        <v>363</v>
+      </c>
+      <c r="F119" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="G119" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H119" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:8">
+      <c r="A120" s="59"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="26"/>
+      <c r="D120" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="E120" s="68" t="s">
+        <v>366</v>
+      </c>
+      <c r="F120" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="G120" s="22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H120" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="H104" s="43" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="1:8">
-      <c r="A105" s="54"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="E105" s="63" t="s">
-        <v>334</v>
-      </c>
-      <c r="F105" s="43" t="s">
-        <v>335</v>
-      </c>
-      <c r="G105" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="H105" s="43" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="1:8">
-      <c r="A106" s="54"/>
-      <c r="B106" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="C106" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="D106" s="29"/>
-      <c r="E106" s="30"/>
-      <c r="F106" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="G106" s="28" t="s">
-        <v>339</v>
-      </c>
-      <c r="H106" s="30"/>
-    </row>
-    <row r="107" customHeight="1" spans="1:8">
-      <c r="A107" s="54"/>
-      <c r="B107" s="10"/>
-      <c r="C107" s="28" t="s">
-        <v>340</v>
-      </c>
-      <c r="D107" s="29"/>
-      <c r="E107" s="30"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="30"/>
-    </row>
-    <row r="108" customHeight="1" spans="1:8">
-      <c r="A108" s="54"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="D108" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="E108" s="63" t="s">
-        <v>342</v>
-      </c>
-      <c r="F108" s="43" t="s">
-        <v>343</v>
-      </c>
-      <c r="G108" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="H108" s="43" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:8">
-      <c r="A109" s="54"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="E109" s="63" t="s">
-        <v>345</v>
-      </c>
-      <c r="F109" s="43" t="s">
-        <v>346</v>
-      </c>
-      <c r="G109" s="43" t="s">
-        <v>248</v>
-      </c>
-      <c r="H109" s="43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="1:8">
-      <c r="A110" s="54"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="E110" s="63" t="s">
-        <v>297</v>
-      </c>
-      <c r="F110" s="43" t="s">
-        <v>348</v>
-      </c>
-      <c r="G110" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="H110" s="43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="111" customHeight="1" spans="1:8">
-      <c r="A111" s="54"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="16"/>
-      <c r="D111" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="E111" s="63" t="s">
-        <v>350</v>
-      </c>
-      <c r="F111" s="43" t="s">
-        <v>351</v>
-      </c>
-      <c r="G111" s="43" t="s">
-        <v>352</v>
-      </c>
-      <c r="H111" s="43" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="112" customHeight="1" spans="1:8">
-      <c r="A112" s="54"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="65" t="s">
-        <v>62</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="E112" s="63" t="s">
-        <v>354</v>
-      </c>
-      <c r="F112" s="43" t="s">
-        <v>355</v>
-      </c>
-      <c r="G112" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="H112" s="43" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="113" customHeight="1" spans="1:8">
-      <c r="A113" s="54"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="16"/>
-      <c r="D113" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="E113" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="F113" s="43" t="s">
-        <v>358</v>
-      </c>
-      <c r="G113" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="H113" s="43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="114" customHeight="1" spans="1:8">
-      <c r="A114" s="54"/>
-      <c r="B114" s="66" t="s">
-        <v>359</v>
-      </c>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-    </row>
-    <row r="115" customHeight="1" spans="1:8">
-      <c r="A115" s="54"/>
-      <c r="B115" s="66"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-    </row>
-    <row r="116" customHeight="1" spans="1:8">
-      <c r="A116" s="54"/>
-      <c r="B116" s="66"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-    </row>
-    <row r="117" customHeight="1" spans="1:8">
-      <c r="A117" s="54"/>
-      <c r="B117" s="66"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-    </row>
-    <row r="118" customHeight="1" spans="1:8">
-      <c r="A118" s="54"/>
-      <c r="B118" s="66"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-    </row>
-    <row r="119" customHeight="1" spans="1:8">
-      <c r="A119" s="54"/>
-      <c r="B119" s="66"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-    </row>
-    <row r="120" customHeight="1" spans="1:8">
-      <c r="A120" s="54"/>
-      <c r="B120" s="66" t="s">
-        <v>360</v>
-      </c>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-    </row>
-    <row r="121" customHeight="1" spans="1:8">
-      <c r="A121" s="54"/>
-      <c r="B121" s="66"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
+    </row>
+    <row r="121" ht="12" customHeight="1" spans="1:1">
+      <c r="A121" s="59"/>
     </row>
     <row r="122" customHeight="1" spans="1:8">
-      <c r="A122" s="54"/>
-      <c r="B122" s="66"/>
+      <c r="A122" s="59"/>
+      <c r="B122" s="42" t="s">
+        <v>368</v>
+      </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -5303,8 +5275,8 @@
       <c r="H122" s="3"/>
     </row>
     <row r="123" customHeight="1" spans="1:8">
-      <c r="A123" s="54"/>
-      <c r="B123" s="66"/>
+      <c r="A123" s="59"/>
+      <c r="B123" s="42"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -5313,8 +5285,8 @@
       <c r="H123" s="3"/>
     </row>
     <row r="124" customHeight="1" spans="1:8">
-      <c r="A124" s="67"/>
-      <c r="B124" s="66"/>
+      <c r="A124" s="59"/>
+      <c r="B124" s="42"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -5322,1025 +5294,1110 @@
       <c r="G124" s="3"/>
       <c r="H124" s="3"/>
     </row>
+    <row r="125" customHeight="1" spans="1:8">
+      <c r="A125" s="59"/>
+      <c r="B125" s="42"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+    </row>
     <row r="126" customHeight="1" spans="1:8">
-      <c r="A126" s="68" t="s">
-        <v>361</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>362</v>
-      </c>
+      <c r="A126" s="59"/>
+      <c r="B126" s="42"/>
       <c r="C126" s="3"/>
-      <c r="D126" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>281</v>
-      </c>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3"/>
     </row>
     <row r="127" customHeight="1" spans="1:8">
-      <c r="A127" s="68"/>
-      <c r="B127" s="1"/>
+      <c r="A127" s="59"/>
+      <c r="B127" s="42"/>
       <c r="C127" s="3"/>
-      <c r="D127" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E127" s="3" t="s">
-        <v>364</v>
-      </c>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3"/>
     </row>
     <row r="128" customHeight="1" spans="1:8">
-      <c r="A128" s="68"/>
-      <c r="B128" s="1"/>
+      <c r="A128" s="59"/>
+      <c r="B128" s="42" t="s">
+        <v>369</v>
+      </c>
       <c r="C128" s="3"/>
-      <c r="D128" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E128" s="3" t="s">
-        <v>124</v>
-      </c>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3"/>
     </row>
     <row r="129" customHeight="1" spans="1:8">
-      <c r="A129" s="68"/>
-      <c r="B129" s="1"/>
+      <c r="A129" s="59"/>
+      <c r="B129" s="42"/>
       <c r="C129" s="3"/>
-      <c r="D129" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="E129" s="3" t="s">
-        <v>367</v>
-      </c>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3"/>
     </row>
     <row r="130" customHeight="1" spans="1:8">
-      <c r="A130" s="68"/>
-      <c r="B130" s="1" t="s">
-        <v>368</v>
-      </c>
+      <c r="A130" s="59"/>
+      <c r="B130" s="42"/>
       <c r="C130" s="3"/>
-      <c r="D130" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>370</v>
-      </c>
+      <c r="D130" s="3"/>
+      <c r="E130" s="3"/>
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3"/>
     </row>
     <row r="131" customHeight="1" spans="1:8">
-      <c r="A131" s="68"/>
-      <c r="B131" s="1"/>
+      <c r="A131" s="59"/>
+      <c r="B131" s="42"/>
       <c r="C131" s="3"/>
-      <c r="D131" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E131" s="12" t="s">
-        <v>372</v>
-      </c>
+      <c r="D131" s="3"/>
+      <c r="E131" s="3"/>
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3"/>
     </row>
     <row r="132" customHeight="1" spans="1:8">
-      <c r="A132" s="68"/>
-      <c r="B132" s="1"/>
+      <c r="A132" s="69"/>
+      <c r="B132" s="42"/>
       <c r="C132" s="3"/>
-      <c r="D132" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E132" s="3" t="s">
-        <v>374</v>
-      </c>
+      <c r="D132" s="3"/>
+      <c r="E132" s="3"/>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" customHeight="1" spans="1:8">
-      <c r="A133" s="68"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-    </row>
     <row r="134" customHeight="1" spans="1:8">
-      <c r="A134" s="68"/>
+      <c r="A134" s="70" t="s">
+        <v>370</v>
+      </c>
       <c r="B134" s="1" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3"/>
     </row>
     <row r="135" customHeight="1" spans="1:8">
-      <c r="A135" s="68"/>
+      <c r="A135" s="70"/>
       <c r="B135" s="1"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3" t="s">
-        <v>379</v>
+        <v>314</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
       <c r="H135" s="3"/>
     </row>
     <row r="136" customHeight="1" spans="1:8">
-      <c r="A136" s="68"/>
+      <c r="A136" s="70"/>
       <c r="B136" s="1"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>370</v>
+        <v>136</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3"/>
     </row>
     <row r="137" customHeight="1" spans="1:8">
-      <c r="A137" s="68"/>
+      <c r="A137" s="70"/>
       <c r="B137" s="1"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
       <c r="H137" s="3"/>
     </row>
     <row r="138" customHeight="1" spans="1:8">
-      <c r="A138" s="68"/>
-      <c r="B138" s="1"/>
+      <c r="A138" s="70"/>
+      <c r="B138" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E138" s="12" t="s">
-        <v>385</v>
+        <v>378</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
       <c r="H138" s="3"/>
     </row>
     <row r="139" customHeight="1" spans="1:8">
-      <c r="A139" s="68"/>
+      <c r="A139" s="70"/>
       <c r="B139" s="1"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E139" s="12" t="s">
-        <v>387</v>
+        <v>380</v>
+      </c>
+      <c r="E139" s="22" t="s">
+        <v>381</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
       <c r="H139" s="3"/>
     </row>
+    <row r="140" customHeight="1" spans="1:8">
+      <c r="A140" s="70"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+    </row>
     <row r="141" customHeight="1" spans="1:8">
-      <c r="A141" s="69" t="s">
-        <v>388</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>389</v>
-      </c>
+      <c r="A141" s="70"/>
+      <c r="B141" s="1"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="3"/>
       <c r="H141" s="3"/>
     </row>
     <row r="142" customHeight="1" spans="1:8">
-      <c r="A142" s="69"/>
-      <c r="B142" s="1"/>
+      <c r="A142" s="70"/>
+      <c r="B142" s="1" t="s">
+        <v>386</v>
+      </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>393</v>
+        <v>291</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
       <c r="H142" s="3"/>
     </row>
     <row r="143" customHeight="1" spans="1:8">
-      <c r="A143" s="69"/>
+      <c r="A143" s="70"/>
       <c r="B143" s="1"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" s="3"/>
     </row>
     <row r="144" customHeight="1" spans="1:8">
-      <c r="A144" s="69"/>
+      <c r="A144" s="70"/>
       <c r="B144" s="1"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="3"/>
       <c r="H144" s="3"/>
     </row>
     <row r="145" customHeight="1" spans="1:8">
-      <c r="A145" s="69"/>
+      <c r="A145" s="70"/>
       <c r="B145" s="1"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="F145" s="3"/>
       <c r="G145" s="3"/>
       <c r="H145" s="3"/>
     </row>
     <row r="146" customHeight="1" spans="1:8">
-      <c r="A146" s="69"/>
+      <c r="A146" s="70"/>
       <c r="B146" s="1"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E146" s="12" t="s">
-        <v>401</v>
+        <v>393</v>
+      </c>
+      <c r="E146" s="22" t="s">
+        <v>394</v>
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
     </row>
     <row r="147" customHeight="1" spans="1:8">
-      <c r="A147" s="69"/>
-      <c r="B147" s="1" t="s">
-        <v>402</v>
-      </c>
+      <c r="A147" s="70"/>
+      <c r="B147" s="1"/>
       <c r="C147" s="3"/>
-      <c r="D147" s="70" t="s">
-        <v>403</v>
-      </c>
-      <c r="E147" s="70" t="s">
-        <v>404</v>
-      </c>
-      <c r="F147" s="70"/>
-      <c r="G147" s="70"/>
-      <c r="H147" s="70"/>
-    </row>
-    <row r="148" customHeight="1" spans="1:8">
-      <c r="A148" s="69"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="70" t="s">
-        <v>405</v>
-      </c>
-      <c r="E148" s="70" t="s">
-        <v>406</v>
-      </c>
-      <c r="F148" s="70"/>
-      <c r="G148" s="70"/>
-      <c r="H148" s="70"/>
+      <c r="D147" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E147" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
     </row>
     <row r="149" customHeight="1" spans="1:8">
-      <c r="A149" s="69"/>
-      <c r="B149" s="1"/>
+      <c r="A149" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>398</v>
+      </c>
       <c r="C149" s="3"/>
-      <c r="D149" s="70" t="s">
-        <v>407</v>
-      </c>
-      <c r="E149" s="70" t="s">
-        <v>408</v>
-      </c>
-      <c r="F149" s="70"/>
-      <c r="G149" s="70"/>
-      <c r="H149" s="70"/>
+      <c r="D149" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
     </row>
     <row r="150" customHeight="1" spans="1:8">
-      <c r="A150" s="69"/>
+      <c r="A150" s="71"/>
       <c r="B150" s="1"/>
       <c r="C150" s="3"/>
-      <c r="D150" s="70" t="s">
-        <v>409</v>
-      </c>
-      <c r="E150" s="63" t="s">
-        <v>410</v>
-      </c>
-      <c r="F150" s="70"/>
-      <c r="G150" s="70"/>
-      <c r="H150" s="70"/>
+      <c r="D150" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
     </row>
     <row r="151" customHeight="1" spans="1:8">
-      <c r="A151" s="69"/>
+      <c r="A151" s="71"/>
       <c r="B151" s="1"/>
       <c r="C151" s="3"/>
-      <c r="D151" s="70" t="s">
-        <v>411</v>
-      </c>
-      <c r="E151" s="70" t="s">
-        <v>412</v>
-      </c>
-      <c r="F151" s="70"/>
-      <c r="G151" s="70"/>
-      <c r="H151" s="70"/>
+      <c r="D151" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
     </row>
     <row r="152" customHeight="1" spans="1:8">
-      <c r="A152" s="69"/>
+      <c r="A152" s="71"/>
       <c r="B152" s="1"/>
       <c r="C152" s="3"/>
-      <c r="D152" s="70" t="s">
-        <v>413</v>
-      </c>
-      <c r="E152" s="70" t="s">
-        <v>414</v>
-      </c>
-      <c r="F152" s="70"/>
-      <c r="G152" s="70"/>
-      <c r="H152" s="70"/>
+      <c r="D152" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
     </row>
     <row r="153" customHeight="1" spans="1:8">
-      <c r="A153" s="71" t="s">
-        <v>415</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="A153" s="71"/>
+      <c r="B153" s="1"/>
       <c r="C153" s="3"/>
-      <c r="D153" s="70" t="s">
-        <v>363</v>
-      </c>
-      <c r="E153" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="F153" s="70"/>
-      <c r="G153" s="70"/>
-      <c r="H153" s="70"/>
+      <c r="D153" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+      <c r="H153" s="3"/>
     </row>
     <row r="154" customHeight="1" spans="1:8">
       <c r="A154" s="71"/>
       <c r="B154" s="1"/>
-      <c r="C154" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D154" s="70" t="s">
-        <v>417</v>
-      </c>
-      <c r="E154" s="63" t="s">
-        <v>418</v>
-      </c>
-      <c r="F154" s="70"/>
-      <c r="G154" s="70"/>
-      <c r="H154" s="70"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="E154" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
+      <c r="H154" s="3"/>
     </row>
     <row r="155" customHeight="1" spans="1:8">
       <c r="A155" s="71"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="D155" s="70" t="s">
-        <v>420</v>
-      </c>
-      <c r="E155" s="70" t="s">
-        <v>421</v>
-      </c>
-      <c r="F155" s="70"/>
-      <c r="G155" s="70"/>
-      <c r="H155" s="70"/>
+      <c r="B155" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C155" s="3"/>
+      <c r="D155" s="72" t="s">
+        <v>412</v>
+      </c>
+      <c r="E155" s="72" t="s">
+        <v>413</v>
+      </c>
+      <c r="F155" s="72"/>
+      <c r="G155" s="72"/>
+      <c r="H155" s="72"/>
     </row>
     <row r="156" customHeight="1" spans="1:8">
       <c r="A156" s="71"/>
-      <c r="B156" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="B156" s="1"/>
       <c r="C156" s="3"/>
-      <c r="D156" s="70" t="s">
-        <v>422</v>
-      </c>
-      <c r="E156" s="70" t="s">
-        <v>423</v>
-      </c>
-      <c r="F156" s="70"/>
-      <c r="G156" s="70"/>
-      <c r="H156" s="70"/>
+      <c r="D156" s="72" t="s">
+        <v>414</v>
+      </c>
+      <c r="E156" s="72" t="s">
+        <v>415</v>
+      </c>
+      <c r="F156" s="72"/>
+      <c r="G156" s="72"/>
+      <c r="H156" s="72"/>
     </row>
     <row r="157" customHeight="1" spans="1:8">
       <c r="A157" s="71"/>
       <c r="B157" s="1"/>
       <c r="C157" s="3"/>
-      <c r="D157" s="70" t="s">
-        <v>137</v>
-      </c>
-      <c r="E157" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="F157" s="70"/>
-      <c r="G157" s="70"/>
-      <c r="H157" s="70"/>
+      <c r="D157" s="72" t="s">
+        <v>416</v>
+      </c>
+      <c r="E157" s="72" t="s">
+        <v>417</v>
+      </c>
+      <c r="F157" s="72"/>
+      <c r="G157" s="72"/>
+      <c r="H157" s="72"/>
     </row>
     <row r="158" customHeight="1" spans="1:8">
       <c r="A158" s="71"/>
       <c r="B158" s="1"/>
       <c r="C158" s="3"/>
-      <c r="D158" s="70" t="s">
-        <v>109</v>
-      </c>
-      <c r="E158" s="70" t="s">
-        <v>78</v>
-      </c>
-      <c r="F158" s="70"/>
-      <c r="G158" s="70"/>
-      <c r="H158" s="70"/>
+      <c r="D158" s="72" t="s">
+        <v>418</v>
+      </c>
+      <c r="E158" s="68" t="s">
+        <v>419</v>
+      </c>
+      <c r="F158" s="72"/>
+      <c r="G158" s="72"/>
+      <c r="H158" s="72"/>
     </row>
     <row r="159" customHeight="1" spans="1:8">
-      <c r="A159" s="72" t="s">
-        <v>424</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>425</v>
-      </c>
+      <c r="A159" s="71"/>
+      <c r="B159" s="1"/>
       <c r="C159" s="3"/>
-      <c r="D159" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
+      <c r="D159" s="72" t="s">
+        <v>420</v>
+      </c>
+      <c r="E159" s="72" t="s">
+        <v>421</v>
+      </c>
+      <c r="F159" s="72"/>
+      <c r="G159" s="72"/>
+      <c r="H159" s="72"/>
     </row>
     <row r="160" customHeight="1" spans="1:8">
-      <c r="A160" s="72"/>
+      <c r="A160" s="71"/>
       <c r="B160" s="1"/>
       <c r="C160" s="3"/>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="72" t="s">
+        <v>422</v>
+      </c>
+      <c r="E160" s="72" t="s">
+        <v>423</v>
+      </c>
+      <c r="F160" s="72"/>
+      <c r="G160" s="72"/>
+      <c r="H160" s="72"/>
+    </row>
+    <row r="161" customHeight="1" spans="1:8">
+      <c r="A161" s="73" t="s">
+        <v>424</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="72" t="s">
+        <v>372</v>
+      </c>
+      <c r="E161" s="72" t="s">
+        <v>291</v>
+      </c>
+      <c r="F161" s="72"/>
+      <c r="G161" s="72"/>
+      <c r="H161" s="72"/>
+    </row>
+    <row r="162" customHeight="1" spans="1:8">
+      <c r="A162" s="73"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D162" s="72" t="s">
+        <v>426</v>
+      </c>
+      <c r="E162" s="68" t="s">
         <v>427</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="F162" s="72"/>
+      <c r="G162" s="72"/>
+      <c r="H162" s="72"/>
+    </row>
+    <row r="163" customHeight="1" spans="1:8">
+      <c r="A163" s="73"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-    </row>
-    <row r="161" customHeight="1" spans="1:8">
-      <c r="A161" s="72"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3" t="s">
+      <c r="D163" s="72" t="s">
         <v>429</v>
       </c>
-      <c r="E161" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-    </row>
-    <row r="162" customHeight="1" spans="1:8">
-      <c r="A162" s="72"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-    </row>
-    <row r="163" customHeight="1" spans="1:8">
-      <c r="A163" s="72"/>
-      <c r="B163" s="1" t="s">
+      <c r="E163" s="72" t="s">
         <v>430</v>
       </c>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E163" s="3" t="s">
+      <c r="F163" s="72"/>
+      <c r="G163" s="72"/>
+      <c r="H163" s="72"/>
+    </row>
+    <row r="164" customHeight="1" spans="1:8">
+      <c r="A164" s="73"/>
+      <c r="B164" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C164" s="3"/>
+      <c r="D164" s="72" t="s">
         <v>431</v>
       </c>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-    </row>
-    <row r="164" customHeight="1" spans="1:8">
-      <c r="A164" s="72"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E164" s="3" t="s">
+      <c r="E164" s="72" t="s">
         <v>432</v>
       </c>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
+      <c r="F164" s="72"/>
+      <c r="G164" s="72"/>
+      <c r="H164" s="72"/>
     </row>
     <row r="165" customHeight="1" spans="1:8">
-      <c r="A165" s="72"/>
-      <c r="B165" s="1" t="s">
-        <v>433</v>
-      </c>
+      <c r="A165" s="73"/>
+      <c r="B165" s="1"/>
       <c r="C165" s="3"/>
-      <c r="D165" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
+      <c r="D165" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="E165" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="F165" s="72"/>
+      <c r="G165" s="72"/>
+      <c r="H165" s="72"/>
     </row>
     <row r="166" customHeight="1" spans="1:8">
-      <c r="A166" s="72"/>
+      <c r="A166" s="73"/>
       <c r="B166" s="1"/>
       <c r="C166" s="3"/>
-      <c r="D166" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E166" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
+      <c r="D166" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="E166" s="72" t="s">
+        <v>90</v>
+      </c>
+      <c r="F166" s="72"/>
+      <c r="G166" s="72"/>
+      <c r="H166" s="72"/>
     </row>
     <row r="167" customHeight="1" spans="1:8">
-      <c r="A167" s="72"/>
-      <c r="B167" s="1"/>
+      <c r="A167" s="74" t="s">
+        <v>433</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>434</v>
+      </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>437</v>
+        <v>33</v>
       </c>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
       <c r="H167" s="3"/>
     </row>
     <row r="168" customHeight="1" spans="1:8">
-      <c r="A168" s="72"/>
-      <c r="B168" s="1" t="s">
-        <v>438</v>
-      </c>
+      <c r="A168" s="74"/>
+      <c r="B168" s="1"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F168" s="3"/>
       <c r="G168" s="3"/>
       <c r="H168" s="3"/>
     </row>
     <row r="169" customHeight="1" spans="1:8">
-      <c r="A169" s="72"/>
+      <c r="A169" s="74"/>
       <c r="B169" s="1"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="F169" s="3"/>
       <c r="G169" s="3"/>
       <c r="H169" s="3"/>
     </row>
     <row r="170" customHeight="1" spans="1:8">
-      <c r="A170" s="72"/>
+      <c r="A170" s="74"/>
       <c r="B170" s="1"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3" t="s">
-        <v>442</v>
+        <v>194</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
       <c r="H170" s="3"/>
     </row>
     <row r="171" customHeight="1" spans="1:8">
-      <c r="A171" s="72"/>
+      <c r="A171" s="74"/>
       <c r="B171" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
       <c r="H171" s="3"/>
     </row>
     <row r="172" customHeight="1" spans="1:8">
-      <c r="A172" s="72"/>
+      <c r="A172" s="74"/>
       <c r="B172" s="1"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3" t="s">
-        <v>312</v>
+        <v>145</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3"/>
     </row>
     <row r="173" customHeight="1" spans="1:8">
-      <c r="A173" s="72"/>
+      <c r="A173" s="74"/>
       <c r="B173" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>449</v>
+        <v>35</v>
       </c>
       <c r="F173" s="3"/>
       <c r="G173" s="3"/>
       <c r="H173" s="3"/>
     </row>
     <row r="174" customHeight="1" spans="1:8">
-      <c r="A174" s="72"/>
+      <c r="A174" s="74"/>
       <c r="B174" s="1"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>451</v>
+        <v>41</v>
+      </c>
+      <c r="E174" s="22" t="s">
+        <v>444</v>
       </c>
       <c r="F174" s="3"/>
       <c r="G174" s="3"/>
       <c r="H174" s="3"/>
     </row>
     <row r="175" customHeight="1" spans="1:8">
-      <c r="A175" s="72"/>
+      <c r="A175" s="74"/>
       <c r="B175" s="1"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>73</v>
+        <v>446</v>
       </c>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
       <c r="H175" s="3"/>
     </row>
     <row r="176" customHeight="1" spans="1:8">
-      <c r="A176" s="72"/>
+      <c r="A176" s="74"/>
       <c r="B176" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F176" s="3"/>
       <c r="G176" s="3"/>
       <c r="H176" s="3"/>
     </row>
     <row r="177" customHeight="1" spans="1:8">
-      <c r="A177" s="72"/>
+      <c r="A177" s="74"/>
       <c r="B177" s="1"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3" t="s">
-        <v>133</v>
+        <v>450</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>456</v>
+        <v>136</v>
       </c>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
     </row>
     <row r="178" customHeight="1" spans="1:8">
-      <c r="A178" s="72"/>
+      <c r="A178" s="74"/>
       <c r="B178" s="1"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
     </row>
     <row r="179" customHeight="1" spans="1:8">
-      <c r="A179" s="73" t="s">
+      <c r="A179" s="74"/>
+      <c r="B179" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="F179" s="3"/>
+      <c r="G179" s="3"/>
+      <c r="H179" s="3"/>
+    </row>
+    <row r="180" customHeight="1" spans="1:8">
+      <c r="A180" s="74"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+    </row>
+    <row r="181" customHeight="1" spans="1:8">
+      <c r="A181" s="74"/>
+      <c r="B181" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E181" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+    </row>
+    <row r="182" customHeight="1" spans="1:8">
+      <c r="A182" s="74"/>
+      <c r="B182" s="1"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="C179" s="3"/>
-      <c r="D179" s="70" t="s">
+      <c r="E182" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="E179" s="70" t="s">
-        <v>461</v>
-      </c>
-      <c r="F179" s="70"/>
-      <c r="G179" s="70" t="s">
-        <v>462</v>
-      </c>
-      <c r="H179" s="70" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="180" customHeight="1" spans="1:8">
-      <c r="A180" s="73"/>
-      <c r="B180" s="66" t="s">
-        <v>464</v>
-      </c>
-      <c r="C180" s="3"/>
-      <c r="D180" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="E180" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="F180" s="3"/>
-      <c r="G180" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="H180" s="12" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="181" customHeight="1" spans="1:8">
-      <c r="A181" s="73"/>
-      <c r="B181" s="66" t="s">
-        <v>467</v>
-      </c>
-      <c r="C181" s="3"/>
-      <c r="D181" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="E181" s="12" t="s">
-        <v>469</v>
-      </c>
-      <c r="F181" s="3"/>
-      <c r="G181" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="H181" s="12" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="182" customHeight="1" spans="1:8">
-      <c r="A182" s="73"/>
-      <c r="B182" s="66"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="E182" s="12" t="s">
-        <v>53</v>
-      </c>
       <c r="F182" s="3"/>
-      <c r="G182" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="H182" s="12" t="s">
-        <v>472</v>
-      </c>
+      <c r="G182" s="3"/>
+      <c r="H182" s="3"/>
     </row>
     <row r="183" customHeight="1" spans="1:8">
-      <c r="A183" s="74" t="s">
-        <v>473</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>474</v>
-      </c>
+      <c r="A183" s="74"/>
+      <c r="B183" s="1"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="E183" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="F183" s="12" t="s">
-        <v>477</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
     </row>
     <row r="184" customHeight="1" spans="1:8">
-      <c r="A184" s="75"/>
-      <c r="B184" s="1"/>
+      <c r="A184" s="74"/>
+      <c r="B184" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="E184" s="12" t="s">
-        <v>479</v>
-      </c>
-      <c r="F184" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="G184" s="12" t="s">
-        <v>283</v>
-      </c>
-      <c r="H184" s="12" t="s">
-        <v>296</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
     </row>
     <row r="185" customHeight="1" spans="1:8">
-      <c r="A185" s="75"/>
+      <c r="A185" s="74"/>
       <c r="B185" s="1"/>
       <c r="C185" s="3"/>
-      <c r="D185" s="70" t="s">
-        <v>481</v>
-      </c>
-      <c r="E185" s="12" t="s">
-        <v>482</v>
-      </c>
-      <c r="F185" s="12" t="s">
-        <v>483</v>
-      </c>
+      <c r="D185" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
     </row>
     <row r="186" customHeight="1" spans="1:8">
-      <c r="A186" s="75"/>
-      <c r="B186" s="66" t="s">
+      <c r="A186" s="74"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
+    </row>
+    <row r="187" customHeight="1" spans="1:8">
+      <c r="A187" s="75" t="s">
+        <v>467</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="72" t="s">
+        <v>469</v>
+      </c>
+      <c r="E187" s="72" t="s">
+        <v>470</v>
+      </c>
+      <c r="F187" s="72"/>
+      <c r="G187" s="72" t="s">
+        <v>471</v>
+      </c>
+      <c r="H187" s="72" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="188" customHeight="1" spans="1:8">
+      <c r="A188" s="75"/>
+      <c r="B188" s="42" t="s">
+        <v>473</v>
+      </c>
+      <c r="C188" s="3"/>
+      <c r="D188" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="E188" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="F188" s="3"/>
+      <c r="G188" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="H188" s="22" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="1:8">
+      <c r="A189" s="75"/>
+      <c r="B189" s="42" t="s">
+        <v>476</v>
+      </c>
+      <c r="C189" s="3"/>
+      <c r="D189" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="E189" s="22" t="s">
+        <v>478</v>
+      </c>
+      <c r="F189" s="3"/>
+      <c r="G189" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H189" s="22" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="1:8">
+      <c r="A190" s="75"/>
+      <c r="B190" s="42"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="E190" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="F190" s="3"/>
+      <c r="G190" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H190" s="22" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="191" customHeight="1" spans="1:8">
+      <c r="A191" s="76" t="s">
+        <v>482</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3" t="s">
         <v>484</v>
       </c>
-      <c r="C186" s="3"/>
-      <c r="D186" s="12" t="s">
+      <c r="E191" s="22" t="s">
         <v>485</v>
       </c>
-      <c r="E186" s="12" t="s">
+      <c r="F191" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="F186" s="12" t="s">
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
+    </row>
+    <row r="192" customHeight="1" spans="1:8">
+      <c r="A192" s="77"/>
+      <c r="B192" s="1"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="G186" s="12" t="s">
+      <c r="E192" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="H186" s="12" t="s">
-        <v>132</v>
+      <c r="F192" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="G192" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H192" s="22" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="193" customHeight="1" spans="1:8">
+      <c r="A193" s="77"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="72" t="s">
+        <v>490</v>
+      </c>
+      <c r="E193" s="22" t="s">
+        <v>491</v>
+      </c>
+      <c r="F193" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+    </row>
+    <row r="194" customHeight="1" spans="1:8">
+      <c r="A194" s="77"/>
+      <c r="B194" s="42" t="s">
+        <v>493</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="E194" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="F194" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="G194" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="H194" s="22" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D64:H64"/>
-    <mergeCell ref="D69:H69"/>
+  <mergeCells count="91">
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D68:H68"/>
     <mergeCell ref="D73:H73"/>
-    <mergeCell ref="C83:H83"/>
-    <mergeCell ref="C84:E84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="C99:E99"/>
-    <mergeCell ref="C106:E106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="C107:E107"/>
-    <mergeCell ref="A2:A27"/>
-    <mergeCell ref="A28:A44"/>
-    <mergeCell ref="A46:A81"/>
-    <mergeCell ref="A83:A124"/>
-    <mergeCell ref="A126:A139"/>
-    <mergeCell ref="A141:A152"/>
-    <mergeCell ref="A153:A158"/>
-    <mergeCell ref="A159:A178"/>
-    <mergeCell ref="A179:A182"/>
-    <mergeCell ref="A183:A186"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B20"/>
-    <mergeCell ref="B21:B27"/>
-    <mergeCell ref="B28:B33"/>
-    <mergeCell ref="B34:B39"/>
-    <mergeCell ref="B40:B44"/>
-    <mergeCell ref="B46:B53"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B59:B73"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B81"/>
-    <mergeCell ref="B84:B90"/>
-    <mergeCell ref="B91:B98"/>
-    <mergeCell ref="B99:B105"/>
-    <mergeCell ref="B106:B113"/>
-    <mergeCell ref="B114:B119"/>
-    <mergeCell ref="B120:B124"/>
-    <mergeCell ref="B126:B129"/>
-    <mergeCell ref="B130:B133"/>
-    <mergeCell ref="B134:B139"/>
-    <mergeCell ref="B141:B146"/>
-    <mergeCell ref="B147:B152"/>
-    <mergeCell ref="B153:B155"/>
-    <mergeCell ref="B156:B158"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="B163:B164"/>
-    <mergeCell ref="B165:B167"/>
-    <mergeCell ref="B168:B170"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="A2:A31"/>
+    <mergeCell ref="A32:A48"/>
+    <mergeCell ref="A50:A85"/>
+    <mergeCell ref="A87:A132"/>
+    <mergeCell ref="A134:A147"/>
+    <mergeCell ref="A149:A160"/>
+    <mergeCell ref="A161:A166"/>
+    <mergeCell ref="A167:A186"/>
+    <mergeCell ref="A187:A190"/>
+    <mergeCell ref="A191:A194"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="B38:B43"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="B50:B57"/>
+    <mergeCell ref="B58:B61"/>
+    <mergeCell ref="B63:B77"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="B96:B103"/>
+    <mergeCell ref="B105:B111"/>
+    <mergeCell ref="B113:B120"/>
+    <mergeCell ref="B122:B127"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="B134:B137"/>
+    <mergeCell ref="B138:B141"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="B149:B154"/>
+    <mergeCell ref="B155:B160"/>
+    <mergeCell ref="B161:B163"/>
+    <mergeCell ref="B164:B166"/>
+    <mergeCell ref="B167:B170"/>
     <mergeCell ref="B171:B172"/>
     <mergeCell ref="B173:B175"/>
     <mergeCell ref="B176:B178"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C44"/>
-    <mergeCell ref="C46:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="B179:B180"/>
+    <mergeCell ref="B181:B183"/>
+    <mergeCell ref="B184:B186"/>
+    <mergeCell ref="B189:B190"/>
+    <mergeCell ref="B191:B193"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C41:C43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C50:C55"/>
     <mergeCell ref="C56:C57"/>
-    <mergeCell ref="C60:C63"/>
-    <mergeCell ref="C64:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C75:C76"/>
-    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="C74:C77"/>
     <mergeCell ref="C79:C80"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="C97:C98"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="C104:C105"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="C112:C113"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C110:C111"/>
+    <mergeCell ref="C115:C118"/>
+    <mergeCell ref="C119:C120"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.298611111111111" footer="0.298611111111111"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -6362,40 +6419,40 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -6404,40 +6461,40 @@
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -6446,32 +6503,32 @@
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>505</v>
+        <v>514</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>508</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -6480,32 +6537,32 @@
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>511</v>
+        <v>520</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">

--- a/内科学笔记/病和方剂汇总.xlsx
+++ b/内科学笔记/病和方剂汇总.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$140</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$47:$H$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="554">
   <si>
     <t>病证系统</t>
   </si>
@@ -599,6 +599,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>咳吐大量脓痰，</t>
     </r>
     <r>
@@ -642,6 +649,111 @@
     <t>哮证</t>
   </si>
   <si>
+    <t>喉中哮鸣有声、呼吸困难甚则不能平卧为主症。哮病兼喘，哮鸣有声</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外邪侵袭，饮食不当，体虚病后。病理因素以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>痰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为主，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>肺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能布散、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>脾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能运化、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>肾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能蒸化水液而凝聚成痰</t>
+    </r>
+  </si>
+  <si>
+    <t>治疗</t>
+  </si>
+  <si>
+    <t>发时治标，平时治本</t>
+  </si>
+  <si>
     <t>发作期</t>
   </si>
   <si>
@@ -651,404 +763,326 @@
     <t>射干麻黄汤</t>
   </si>
   <si>
+    <t>喉中有哮鸣声，咳痰不爽，色白。形寒肢冷</t>
+  </si>
+  <si>
+    <t>苔白滑</t>
+  </si>
+  <si>
+    <t>脉紧</t>
+  </si>
+  <si>
     <t>热哮</t>
   </si>
   <si>
     <t>定喘汤</t>
+  </si>
+  <si>
+    <t>喉中有哮鸣声，咳痰色黄。面赤口渴喜饮</t>
+  </si>
+  <si>
+    <t>舌红苔黄腻</t>
   </si>
   <si>
     <t>缓解期
 虚证</t>
   </si>
   <si>
-    <t>肺虚</t>
-  </si>
-  <si>
-    <t>玉屏风散</t>
-  </si>
-  <si>
-    <t>脾虚</t>
+    <t>肺脾气虚</t>
   </si>
   <si>
     <t>六君子汤</t>
   </si>
   <si>
+    <t>反复发作。自汗，倦怠无力，食少便溏，痰多质稀</t>
+  </si>
+  <si>
+    <t>舌淡苔白</t>
+  </si>
+  <si>
+    <t>脉细弱</t>
+  </si>
+  <si>
+    <t>肺肾两虚</t>
+  </si>
+  <si>
+    <t>生脉汤+金水六君汤</t>
+  </si>
+  <si>
+    <t>短气息促，吸气不利。腰膝酸软，或五心烦热口干</t>
+  </si>
+  <si>
+    <t>哮冷射干热定喘，肺脾六君肾生金</t>
+  </si>
+  <si>
+    <t>喘证</t>
+  </si>
+  <si>
+    <t>呼吸因难，甚则张口抬肩，鼻翼扇动</t>
+  </si>
+  <si>
+    <t>肺气上逆，宣降失职。气无所主，肾失摄纳。  病位在肺肾、与肝脾有关</t>
+  </si>
+  <si>
+    <t>治疗原则</t>
+  </si>
+  <si>
+    <t>实喘-袪邪利气。虚喘-培补摄纳</t>
+  </si>
+  <si>
+    <t>实证
+肺</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>袭肺</t>
+    </r>
+  </si>
+  <si>
+    <t>麻黄汤+华盖散</t>
+  </si>
+  <si>
+    <t>喘息咳逆，呼吸急促，痰白质黏。伴恶寒发热口不渴</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>脉浮</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>紧</t>
+    </r>
+  </si>
+  <si>
+    <t>表寒里热</t>
+  </si>
+  <si>
+    <t>麻杏石甘汤</t>
+  </si>
+  <si>
+    <t>咳喘气逆，息粗鼻扇，身热。形寒，身痛无汗</t>
+  </si>
+  <si>
+    <t>舌边红</t>
+  </si>
+  <si>
+    <t>桑白皮汤</t>
+  </si>
+  <si>
+    <t>痰浊阻肺</t>
+  </si>
+  <si>
+    <t>二陈汤+三子养亲</t>
+  </si>
+  <si>
+    <t>喘而胸闷，咳嗽痰多色白，食少恶心</t>
+  </si>
+  <si>
+    <t>脉滑</t>
+  </si>
+  <si>
+    <t>肺气郁痹</t>
+  </si>
+  <si>
+    <t>五磨子饮</t>
+  </si>
+  <si>
+    <t>平素多忧思抑郁，失眠，与情志有关</t>
+  </si>
+  <si>
+    <t>脉弦</t>
+  </si>
+  <si>
+    <t>虚证
+肺肾</t>
+  </si>
+  <si>
+    <t>肺气虚</t>
+  </si>
+  <si>
+    <t>生脉散</t>
+  </si>
+  <si>
+    <t>喘促短气，咳声低弱，烦热，面潮红(气阴两虚)</t>
+  </si>
+  <si>
+    <t>舌淡</t>
+  </si>
+  <si>
     <t>肾虚</t>
   </si>
   <si>
-    <t>肾气丸</t>
-  </si>
-  <si>
-    <t>喘证</t>
+    <t>(金匮)肾气丸</t>
+  </si>
+  <si>
+    <t>喘促日久，呼多吸少，气不得续</t>
+  </si>
+  <si>
+    <t>喘寒麻黄里热石，浊陈气五生脉匮</t>
+  </si>
+  <si>
+    <t xml:space="preserve">脑系统 </t>
+  </si>
+  <si>
+    <t>头痛</t>
   </si>
   <si>
     <t>实证</t>
   </si>
   <si>
-    <t>风寒袭肺</t>
-  </si>
-  <si>
-    <t>麻黄汤</t>
-  </si>
-  <si>
-    <t>表寒里热</t>
-  </si>
-  <si>
-    <t>麻杏石甘汤</t>
-  </si>
-  <si>
-    <t>桑白皮汤</t>
-  </si>
-  <si>
-    <t>痰浊阻肺</t>
-  </si>
-  <si>
-    <t>二陈汤</t>
+    <t>风寒头痛</t>
+  </si>
+  <si>
+    <t>川芎茶调散</t>
+  </si>
+  <si>
+    <t>头痛连及项背，时有拘急感，伴恶风畏寒</t>
+  </si>
+  <si>
+    <t>舌淡苔薄白</t>
+  </si>
+  <si>
+    <t>风热头痛</t>
+  </si>
+  <si>
+    <t>芎芷石膏汤</t>
+  </si>
+  <si>
+    <t>头痛而胀，面红目赤，或发热恶风</t>
+  </si>
+  <si>
+    <t>舌红苔薄黄</t>
+  </si>
+  <si>
+    <t>风湿头痛</t>
+  </si>
+  <si>
+    <t>羌活胜湿汤</t>
+  </si>
+  <si>
+    <t>头痛，头身困重。小便不利</t>
+  </si>
+  <si>
+    <t>脉濡</t>
+  </si>
+  <si>
+    <t>肝阳上亢</t>
+  </si>
+  <si>
+    <t>天麻钩藤饮</t>
+  </si>
+  <si>
+    <t>头痛而眩，心烦易怒，或胁痛，面红口苦</t>
+  </si>
+  <si>
+    <t>脉弦有力</t>
+  </si>
+  <si>
+    <t>风痰上扰</t>
+  </si>
+  <si>
+    <t>半夏白术天麻汤</t>
+  </si>
+  <si>
+    <t>胸脘满闷，呕恶痰涎</t>
+  </si>
+  <si>
+    <t>瘀血内阻</t>
+  </si>
+  <si>
+    <t>通窍活血汤</t>
+  </si>
+  <si>
+    <t>头痛日久，痛处不移</t>
+  </si>
+  <si>
+    <t>舌紫苔白</t>
+  </si>
+  <si>
+    <t>脉涩</t>
   </si>
   <si>
     <t>虚证</t>
   </si>
   <si>
-    <t>肺气郁痹</t>
-  </si>
-  <si>
-    <t>五磨子饮</t>
-  </si>
-  <si>
-    <t>生脉散</t>
-  </si>
-  <si>
-    <t>心系统</t>
-  </si>
-  <si>
-    <t>心悸</t>
-  </si>
-  <si>
-    <t>心虚胆怯</t>
-  </si>
-  <si>
-    <t>安神定志丸</t>
-  </si>
-  <si>
-    <t>善惊易恐，坐卧不安</t>
-  </si>
-  <si>
-    <t>淡红</t>
-  </si>
-  <si>
-    <t>心血不足</t>
+    <t>血虚头痛</t>
+  </si>
+  <si>
+    <t>加味四物汤</t>
+  </si>
+  <si>
+    <t>头痛而晕，神疲乏力，面色无华</t>
+  </si>
+  <si>
+    <t>细弱</t>
+  </si>
+  <si>
+    <t>肾虚头痛</t>
+  </si>
+  <si>
+    <t>大补元煎</t>
+  </si>
+  <si>
+    <t>头痛且空，腰膝酸软，神疲乏力，耳鸣</t>
+  </si>
+  <si>
+    <t>细而无力</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>脑髓空虚，清窃失养，痰火上扰清窍。与肝、脾、肾有关。治疗以补虚泻实为主</t>
+  </si>
+  <si>
+    <t>眩晕耳鸣，急燥易怒，口苦</t>
+  </si>
+  <si>
+    <t>舌红苔黄</t>
+  </si>
+  <si>
+    <t>痰浊中阻</t>
+  </si>
+  <si>
+    <t>眩晕，头身困重，胸闷恶心食少</t>
+  </si>
+  <si>
+    <t>气血亏虚</t>
   </si>
   <si>
     <t>归脾汤</t>
-  </si>
-  <si>
-    <t>面色无华，倦怠乏力</t>
-  </si>
-  <si>
-    <t>舌质淡红</t>
-  </si>
-  <si>
-    <t>脉细弱</t>
-  </si>
-  <si>
-    <t>阴虚火旺</t>
-  </si>
-  <si>
-    <t>天王补心丹</t>
-  </si>
-  <si>
-    <t>心悸不宁，头晕目眩，手足心热</t>
-  </si>
-  <si>
-    <t>细数</t>
-  </si>
-  <si>
-    <t>心阳不振</t>
-  </si>
-  <si>
-    <t>桂枝甘草龙骨牡蛎汤</t>
-  </si>
-  <si>
-    <t>心悸不安，面色苍白，形寒肢冷</t>
-  </si>
-  <si>
-    <t>虚弱</t>
-  </si>
-  <si>
-    <t>水饮凌心</t>
-  </si>
-  <si>
-    <t>苓桂术甘汤</t>
-  </si>
-  <si>
-    <t>胸脘痞满，形寒肢冷，小便短少下肢浮肿</t>
-  </si>
-  <si>
-    <t>苔白滑</t>
-  </si>
-  <si>
-    <t>脉弦滑</t>
-  </si>
-  <si>
-    <t>心血瘀阻</t>
-  </si>
-  <si>
-    <t>桃仁红花煎</t>
-  </si>
-  <si>
-    <t>胸闷不舒，心痛时作</t>
-  </si>
-  <si>
-    <t>舌质暗紫</t>
-  </si>
-  <si>
-    <t>脉涩</t>
-  </si>
-  <si>
-    <t>胸痹</t>
-  </si>
-  <si>
-    <t>血府逐瘀汤</t>
-  </si>
-  <si>
-    <t>胸部刺痛，固定不移</t>
-  </si>
-  <si>
-    <t>脉沉涩</t>
-  </si>
-  <si>
-    <t>痰浊壅塞</t>
-  </si>
-  <si>
-    <t>爪蒌薤白半夏汤</t>
-  </si>
-  <si>
-    <t>胸闷气短，肢体沉重，痰多</t>
-  </si>
-  <si>
-    <t>苔浊腻</t>
-  </si>
-  <si>
-    <t>脉滑</t>
-  </si>
-  <si>
-    <t>阴寒凝滞</t>
-  </si>
-  <si>
-    <t>爪蒌薤白白酒汤</t>
-  </si>
-  <si>
-    <t>胸痛彻背，感寒痛甚，面色苍白，四肢冷</t>
-  </si>
-  <si>
-    <t>脉沉细</t>
-  </si>
-  <si>
-    <t>心肾阴虚</t>
-  </si>
-  <si>
-    <t>左归饮</t>
-  </si>
-  <si>
-    <t>胸闷且痛，心悸盗汗。腰膝酸软，耳鸣</t>
-  </si>
-  <si>
-    <t>舌红</t>
-  </si>
-  <si>
-    <t>脉细</t>
-  </si>
-  <si>
-    <t>气阴两虚</t>
-  </si>
-  <si>
-    <t>胸闷隐痛，时作时止。心悸气短，面色无华</t>
-  </si>
-  <si>
-    <t>细弱无力</t>
-  </si>
-  <si>
-    <t>阳气虚衰</t>
-  </si>
-  <si>
-    <t>参附汤。右归饮</t>
-  </si>
-  <si>
-    <t>胸闷气短，胃寒肢冷，乏力，面色苍白</t>
-  </si>
-  <si>
-    <t>舌淡</t>
-  </si>
-  <si>
-    <t>沉细</t>
-  </si>
-  <si>
-    <t>不寐</t>
-  </si>
-  <si>
-    <t>肝郁化火</t>
-  </si>
-  <si>
-    <t>龙胆泻肝汤</t>
-  </si>
-  <si>
-    <t>急燥易怒，不思饮食，目赤口苦</t>
-  </si>
-  <si>
-    <t>舌红苔黄</t>
-  </si>
-  <si>
-    <t>痰热内扰</t>
-  </si>
-  <si>
-    <t>温胆汤</t>
-  </si>
-  <si>
-    <t>痰多胸闷，恶食恶心</t>
-  </si>
-  <si>
-    <t>苔腻而黄</t>
-  </si>
-  <si>
-    <t>黄连阿胶汤</t>
-  </si>
-  <si>
-    <t>心悸，头晕，五心烦热</t>
-  </si>
-  <si>
-    <t>心脾两虚</t>
-  </si>
-  <si>
-    <t>心悸，头晕。倦怠乏力，面色无华</t>
-  </si>
-  <si>
-    <t>舌淡苔薄</t>
-  </si>
-  <si>
-    <t>心胆气虚</t>
-  </si>
-  <si>
-    <t>脉弦细</t>
-  </si>
-  <si>
-    <t xml:space="preserve">脑系统 </t>
-  </si>
-  <si>
-    <t>头痛</t>
-  </si>
-  <si>
-    <t>风寒头痛</t>
-  </si>
-  <si>
-    <t>川芎茶调散</t>
-  </si>
-  <si>
-    <t>头痛连及项背，时有拘急感，伴恶风畏寒</t>
-  </si>
-  <si>
-    <t>舌淡苔薄白</t>
-  </si>
-  <si>
-    <t>风热头痛</t>
-  </si>
-  <si>
-    <t>芎芷石膏汤</t>
-  </si>
-  <si>
-    <t>头痛而胀，面红目赤，或发热恶风</t>
-  </si>
-  <si>
-    <t>舌红苔薄黄</t>
-  </si>
-  <si>
-    <t>风湿头痛</t>
-  </si>
-  <si>
-    <t>羌活胜湿汤</t>
-  </si>
-  <si>
-    <t>头痛，头身困重。小便不利</t>
-  </si>
-  <si>
-    <t>舌淡苔白</t>
-  </si>
-  <si>
-    <t>脉濡</t>
-  </si>
-  <si>
-    <t>肝阳上亢</t>
-  </si>
-  <si>
-    <t>天麻钩藤饮</t>
-  </si>
-  <si>
-    <t>头痛而眩，心烦易怒，或胁痛，面红口苦</t>
-  </si>
-  <si>
-    <t>脉弦有力</t>
-  </si>
-  <si>
-    <t>风痰上扰</t>
-  </si>
-  <si>
-    <t>半夏白术天麻汤</t>
-  </si>
-  <si>
-    <t>胸脘满闷，呕恶痰涎</t>
-  </si>
-  <si>
-    <t>瘀血内阻</t>
-  </si>
-  <si>
-    <t>通窍活血汤</t>
-  </si>
-  <si>
-    <t>头痛日久，痛处不移</t>
-  </si>
-  <si>
-    <t>舌紫苔白</t>
-  </si>
-  <si>
-    <t>血虚头痛</t>
-  </si>
-  <si>
-    <t>加味四物汤</t>
-  </si>
-  <si>
-    <t>头痛而晕，神疲乏力，面色无华</t>
-  </si>
-  <si>
-    <t>细弱</t>
-  </si>
-  <si>
-    <t>肾虚头痛</t>
-  </si>
-  <si>
-    <t>大补元煎</t>
-  </si>
-  <si>
-    <t>头痛且空，腰膝酸软，神疲乏力，耳鸣</t>
-  </si>
-  <si>
-    <t>细而无力</t>
-  </si>
-  <si>
-    <t>眩晕</t>
-  </si>
-  <si>
-    <t>眩晕耳鸣，急燥易怒，口苦</t>
-  </si>
-  <si>
-    <t>脉弦</t>
-  </si>
-  <si>
-    <t>痰浊中阻</t>
-  </si>
-  <si>
-    <t>眩晕，头身困重，胸闷恶心食少</t>
-  </si>
-  <si>
-    <t>气血亏虚</t>
   </si>
   <si>
     <t>动则加剧，劳累而发。面白，神疲懒言</t>
@@ -1219,10 +1253,20 @@
     <t>舌紫苔滑腻</t>
   </si>
   <si>
+    <t>脉弦滑</t>
+  </si>
+  <si>
     <t>气虚络瘀</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>补阳还五汤</t>
     </r>
     <r>
@@ -1252,6 +1296,12 @@
     <t>患肢僵硬，拘挛变形，舌强不语肢肉萎缩</t>
   </si>
   <si>
+    <t>舌红</t>
+  </si>
+  <si>
+    <t>脉细</t>
+  </si>
+  <si>
     <t>口诀：风痰经各气虚补，肝肾左归地黄饮</t>
   </si>
   <si>
@@ -1273,6 +1323,9 @@
     <t>苔腻</t>
   </si>
   <si>
+    <t>心脾两虚</t>
+  </si>
+  <si>
     <t>养心汤</t>
   </si>
   <si>
@@ -1291,9 +1344,6 @@
     <t>发病急，狂乱无知</t>
   </si>
   <si>
-    <t>舌红苔黄腻</t>
-  </si>
-  <si>
     <t>弦大滑数</t>
   </si>
   <si>
@@ -1319,6 +1369,9 @@
   </si>
   <si>
     <t>痰火内盛</t>
+  </si>
+  <si>
+    <t>龙胆泻肝汤</t>
   </si>
   <si>
     <t>心肾亏虚</t>
@@ -1407,6 +1460,9 @@
     <t>痛如针刺，痛处固定</t>
   </si>
   <si>
+    <t>舌质暗紫</t>
+  </si>
+  <si>
     <t>中虚脏寒</t>
   </si>
   <si>
@@ -1416,6 +1472,9 @@
     <t>腹疼绵绵，时作时止，喜暖喜按，形寒肢冷</t>
   </si>
   <si>
+    <t>脉沉细</t>
+  </si>
+  <si>
     <t>胃痛</t>
   </si>
   <si>
@@ -1530,9 +1589,6 @@
     <t>呕吐吞酸，肋胁胀痛，嗳气频频</t>
   </si>
   <si>
-    <t>舌边红</t>
-  </si>
-  <si>
     <t>脾胃气虚</t>
   </si>
   <si>
@@ -1542,6 +1598,9 @@
     <t>恶心呕吐，食欲不振，脘部痞闷（教材没有这项）</t>
   </si>
   <si>
+    <t>舌淡苔薄</t>
+  </si>
+  <si>
     <t>理中丸</t>
   </si>
   <si>
@@ -1566,13 +1625,7 @@
     <t>排便次数增多，稀溏甚至泻出水洋为主</t>
   </si>
   <si>
-    <t>病机：脾病淡盛，脾胃运化失常，肠道失司</t>
-  </si>
-  <si>
-    <t>涉及到脾、胃、大肠和小肠</t>
-  </si>
-  <si>
-    <t>治疗原则：运脾化湿</t>
+    <t>脾病淡盛，脾胃运化失常，肠道失司。涉及到脾、胃、大肠和小肠。  治疗原则：运脾化湿</t>
   </si>
   <si>
     <t>外感风寒湿</t>
@@ -1635,171 +1688,261 @@
     <t>便秘</t>
   </si>
   <si>
-    <t>肝胆</t>
-  </si>
-  <si>
-    <t>胁痛</t>
+    <t>心系统</t>
+  </si>
+  <si>
+    <t>心悸</t>
+  </si>
+  <si>
+    <t>心虚胆怯</t>
+  </si>
+  <si>
+    <t>安神定志丸</t>
+  </si>
+  <si>
+    <t>善惊易恐，坐卧不安</t>
+  </si>
+  <si>
+    <t>淡红</t>
+  </si>
+  <si>
+    <t>心血不足</t>
+  </si>
+  <si>
+    <t>面色无华，倦怠乏力</t>
+  </si>
+  <si>
+    <t>舌质淡红</t>
+  </si>
+  <si>
+    <t>阴虚火旺</t>
+  </si>
+  <si>
+    <t>天王补心丹</t>
+  </si>
+  <si>
+    <t>心悸不宁，头晕目眩，手足心热</t>
+  </si>
+  <si>
+    <t>细数</t>
+  </si>
+  <si>
+    <t>心阳不振</t>
+  </si>
+  <si>
+    <t>桂枝甘草龙骨牡蛎汤</t>
+  </si>
+  <si>
+    <t>心悸不安，面色苍白，形寒肢冷</t>
+  </si>
+  <si>
+    <t>虚弱</t>
+  </si>
+  <si>
+    <t>水饮凌心</t>
+  </si>
+  <si>
+    <t>苓桂术甘汤</t>
+  </si>
+  <si>
+    <t>胸脘痞满，形寒肢冷，小便短少下肢浮肿</t>
+  </si>
+  <si>
+    <t>心血瘀阻</t>
+  </si>
+  <si>
+    <t>桃仁红花煎</t>
+  </si>
+  <si>
+    <t>胸闷不舒，心痛时作</t>
+  </si>
+  <si>
+    <t>胸痹</t>
+  </si>
+  <si>
+    <t>血府逐瘀汤</t>
+  </si>
+  <si>
+    <t>胸部刺痛，固定不移</t>
+  </si>
+  <si>
+    <t>脉沉涩</t>
+  </si>
+  <si>
+    <t>痰浊壅塞</t>
+  </si>
+  <si>
+    <t>爪蒌薤白半夏汤</t>
+  </si>
+  <si>
+    <t>胸闷气短，肢体沉重，痰多</t>
+  </si>
+  <si>
+    <t>苔浊腻</t>
+  </si>
+  <si>
+    <t>阴寒凝滞</t>
+  </si>
+  <si>
+    <t>爪蒌薤白白酒汤</t>
+  </si>
+  <si>
+    <t>胸痛彻背，感寒痛甚，面色苍白，四肢冷</t>
+  </si>
+  <si>
+    <t>心肾阴虚</t>
+  </si>
+  <si>
+    <t>左归饮</t>
+  </si>
+  <si>
+    <t>胸闷且痛，心悸盗汗。腰膝酸软，耳鸣</t>
+  </si>
+  <si>
+    <t>气阴两虚</t>
+  </si>
+  <si>
+    <t>胸闷隐痛，时作时止。心悸气短，面色无华</t>
+  </si>
+  <si>
+    <t>细弱无力</t>
+  </si>
+  <si>
+    <t>阳气虚衰</t>
+  </si>
+  <si>
+    <t>参附汤。右归饮</t>
+  </si>
+  <si>
+    <t>胸闷气短，胃寒肢冷，乏力，面色苍白</t>
+  </si>
+  <si>
+    <t>沉细</t>
+  </si>
+  <si>
+    <t>不寐</t>
+  </si>
+  <si>
+    <t>肝郁化火</t>
+  </si>
+  <si>
+    <t>急燥易怒，不思饮食，目赤口苦</t>
+  </si>
+  <si>
+    <t>痰热内扰</t>
+  </si>
+  <si>
+    <t>温胆汤</t>
+  </si>
+  <si>
+    <t>痰多胸闷，恶食恶心</t>
+  </si>
+  <si>
+    <t>苔腻而黄</t>
+  </si>
+  <si>
+    <t>黄连阿胶汤</t>
+  </si>
+  <si>
+    <t>心悸，头晕，五心烦热</t>
+  </si>
+  <si>
+    <t>心悸，头晕。倦怠乏力，面色无华</t>
+  </si>
+  <si>
+    <t>心胆气虚</t>
+  </si>
+  <si>
+    <t>脉弦细</t>
+  </si>
+  <si>
+    <t>肾系统</t>
+  </si>
+  <si>
+    <t>水肿</t>
+  </si>
+  <si>
+    <t>风水泛滥</t>
+  </si>
+  <si>
+    <t>越婢加术汤</t>
+  </si>
+  <si>
+    <t>湿毒侵淫</t>
+  </si>
+  <si>
+    <t>麻黄连翘赤小豆</t>
+  </si>
+  <si>
+    <t>水湿浸渍</t>
+  </si>
+  <si>
+    <t>五皮散</t>
+  </si>
+  <si>
+    <t>湿热壅盛</t>
+  </si>
+  <si>
+    <t>疏凿饮子</t>
+  </si>
+  <si>
+    <t>脾阳虚衰</t>
+  </si>
+  <si>
+    <t>实脾散</t>
+  </si>
+  <si>
+    <t>肾气衰微</t>
+  </si>
+  <si>
+    <t>济生肾气丸+真武汤</t>
+  </si>
+  <si>
+    <t>淋证</t>
+  </si>
+  <si>
+    <t>热淋</t>
+  </si>
+  <si>
+    <t>八正散</t>
+  </si>
+  <si>
+    <t>石淋</t>
+  </si>
+  <si>
+    <t>石苇散</t>
+  </si>
+  <si>
+    <t>气淋</t>
+  </si>
+  <si>
+    <t>沉香散</t>
+  </si>
+  <si>
+    <t>血淋</t>
+  </si>
+  <si>
+    <t>小蓟子饮+导赤散</t>
+  </si>
+  <si>
+    <t>膏淋</t>
+  </si>
+  <si>
+    <t>程氏萆薢分清饮</t>
+  </si>
+  <si>
+    <t>劳淋</t>
+  </si>
+  <si>
+    <t>无比药丸</t>
+  </si>
+  <si>
+    <t>郁证</t>
   </si>
   <si>
     <t>肝气郁结</t>
   </si>
   <si>
-    <t>旋复花汤</t>
-  </si>
-  <si>
-    <t>肝胆湿热</t>
-  </si>
-  <si>
-    <t>肝阴不足</t>
-  </si>
-  <si>
-    <t>一贯煎</t>
-  </si>
-  <si>
-    <t>黄疸</t>
-  </si>
-  <si>
-    <t>热重于湿</t>
-  </si>
-  <si>
-    <t>茵陈蒿汤</t>
-  </si>
-  <si>
-    <t>湿重于热</t>
-  </si>
-  <si>
-    <t>茵陈五苓散+甘露消毒丹</t>
-  </si>
-  <si>
-    <t>急黄</t>
-  </si>
-  <si>
-    <t>犀角散</t>
-  </si>
-  <si>
-    <t>阴黄</t>
-  </si>
-  <si>
-    <t>茵陈术附汤</t>
-  </si>
-  <si>
-    <t>鼓胀</t>
-  </si>
-  <si>
-    <t>气滞湿阻</t>
-  </si>
-  <si>
-    <t>寒湿困脾</t>
-  </si>
-  <si>
-    <t>实脾饮</t>
-  </si>
-  <si>
-    <t>湿热蕴结</t>
-  </si>
-  <si>
-    <t>肝脾血瘀</t>
-  </si>
-  <si>
-    <t>调营饮</t>
-  </si>
-  <si>
-    <t>脾肾阳虚</t>
-  </si>
-  <si>
-    <t>附子理中丸+五苓散</t>
-  </si>
-  <si>
-    <t>肝肾阴虚</t>
-  </si>
-  <si>
-    <t>六味地黄丸+隔下逐瘀汤</t>
-  </si>
-  <si>
-    <t>肾系统</t>
-  </si>
-  <si>
-    <t>水肿</t>
-  </si>
-  <si>
-    <t>风水泛滥</t>
-  </si>
-  <si>
-    <t>越婢加术汤</t>
-  </si>
-  <si>
-    <t>湿毒侵淫</t>
-  </si>
-  <si>
-    <t>麻黄连翘赤小豆</t>
-  </si>
-  <si>
-    <t>水湿浸渍</t>
-  </si>
-  <si>
-    <t>五皮散</t>
-  </si>
-  <si>
-    <t>湿热壅盛</t>
-  </si>
-  <si>
-    <t>疏凿饮子</t>
-  </si>
-  <si>
-    <t>脾阳虚衰</t>
-  </si>
-  <si>
-    <t>实脾散</t>
-  </si>
-  <si>
-    <t>肾气衰微</t>
-  </si>
-  <si>
-    <t>济生肾气丸+真武汤</t>
-  </si>
-  <si>
-    <t>淋证</t>
-  </si>
-  <si>
-    <t>热淋</t>
-  </si>
-  <si>
-    <t>八正散</t>
-  </si>
-  <si>
-    <t>石淋</t>
-  </si>
-  <si>
-    <t>石苇散</t>
-  </si>
-  <si>
-    <t>气淋</t>
-  </si>
-  <si>
-    <t>沉香散</t>
-  </si>
-  <si>
-    <t>血淋</t>
-  </si>
-  <si>
-    <t>小蓟子饮+导赤散</t>
-  </si>
-  <si>
-    <t>膏淋</t>
-  </si>
-  <si>
-    <t>程氏萆薢分清饮</t>
-  </si>
-  <si>
-    <t>劳淋</t>
-  </si>
-  <si>
-    <t>无比药丸</t>
-  </si>
-  <si>
-    <t>郁证</t>
-  </si>
-  <si>
     <t>郁而化火</t>
   </si>
   <si>
@@ -1941,9 +2084,6 @@
     <t>消渴方</t>
   </si>
   <si>
-    <t>舌边红，苔薄黄</t>
-  </si>
-  <si>
     <t>脉洪数</t>
   </si>
   <si>
@@ -1971,6 +2111,9 @@
     <t>阴阳两虚</t>
   </si>
   <si>
+    <t>肾气丸</t>
+  </si>
+  <si>
     <t>脉沉细无力</t>
   </si>
   <si>
@@ -2032,6 +2175,9 @@
   </si>
   <si>
     <t>无汗而喘，表实证</t>
+  </si>
+  <si>
+    <t>麻黄汤</t>
   </si>
   <si>
     <t>头痛恶风汗出，表虚证</t>
@@ -2161,13 +2307,14 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2392,12 +2539,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399914548173467"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2405,6 +2546,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399914548173467"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2657,6 +2804,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -2666,6 +2824,15 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -2695,10 +2862,10 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color auto="1"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -2706,30 +2873,10 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -2949,7 +3096,7 @@
     <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2973,7 +3120,7 @@
     <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2992,7 +3139,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3017,133 +3164,154 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3155,9 +3323,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3167,19 +3332,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3188,19 +3353,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -3218,10 +3383,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3555,12 +3747,12 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H205"/>
+  <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K117" sqref="K117"/>
+      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="7"/>
@@ -3569,10 +3761,11 @@
     <col min="2" max="2" width="8.125" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
+    <col min="5" max="5" width="17.875" customWidth="1"/>
     <col min="6" max="6" width="45.25" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="9" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30.75" customHeight="1" spans="1:8">
@@ -3628,9 +3821,9 @@
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="3" t="s">
         <v>16</v>
       </c>
@@ -3648,9 +3841,9 @@
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
@@ -3668,25 +3861,26 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="11"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" ht="11" customHeight="1" spans="1:1">
-      <c r="A6" s="11"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" ht="11" customHeight="1" spans="1:8">
+      <c r="A6" s="8"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:8">
-      <c r="A7" s="11"/>
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -3701,8 +3895,8 @@
       <c r="H7" s="21"/>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="11"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="22" t="s">
         <v>31</v>
       </c>
@@ -3723,8 +3917,8 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="11"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="8"/>
+      <c r="B9" s="6"/>
       <c r="C9" s="24"/>
       <c r="D9" s="23" t="s">
         <v>35</v>
@@ -3743,8 +3937,8 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="11"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="25"/>
       <c r="D10" s="23" t="s">
         <v>39</v>
@@ -3763,8 +3957,8 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="11"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="26" t="s">
         <v>43</v>
       </c>
@@ -3785,8 +3979,8 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="11"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="29" t="s">
         <v>49</v>
@@ -3799,8 +3993,8 @@
       <c r="H12" s="3"/>
     </row>
     <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="11"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="8"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="27" t="s">
         <v>51</v>
@@ -3819,8 +4013,8 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="11"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="8"/>
+      <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="23" t="s">
         <v>56</v>
@@ -3839,8 +4033,8 @@
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:8">
-      <c r="A15" s="11"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
         <v>26</v>
       </c>
@@ -3852,11 +4046,12 @@
       <c r="G15" s="20"/>
       <c r="H15" s="21"/>
     </row>
-    <row r="16" ht="11" customHeight="1" spans="1:1">
-      <c r="A16" s="11"/>
+    <row r="16" ht="11" customHeight="1" spans="1:8">
+      <c r="A16" s="8"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:8">
-      <c r="A17" s="11"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>62</v>
       </c>
@@ -3872,8 +4067,8 @@
       <c r="H17" s="31"/>
     </row>
     <row r="18" customHeight="1" spans="1:8">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="1" t="s">
         <v>65</v>
       </c>
@@ -3886,8 +4081,8 @@
       <c r="H18" s="31"/>
     </row>
     <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="11"/>
       <c r="C19" s="1" t="s">
         <v>67</v>
       </c>
@@ -3902,8 +4097,8 @@
       <c r="H19" s="32"/>
     </row>
     <row r="20" customHeight="1" spans="1:8">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="11"/>
       <c r="C20" s="1" t="s">
         <v>70</v>
       </c>
@@ -3924,8 +4119,8 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:8">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="11"/>
       <c r="C21" s="1"/>
       <c r="D21" s="3" t="s">
         <v>73</v>
@@ -3944,8 +4139,8 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="11"/>
       <c r="C22" s="1"/>
       <c r="D22" s="3" t="s">
         <v>78</v>
@@ -3964,8 +4159,8 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="11"/>
       <c r="C23" s="1"/>
       <c r="D23" s="3" t="s">
         <v>82</v>
@@ -3980,8 +4175,8 @@
       <c r="H23" s="3"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:8">
-      <c r="A24" s="33"/>
-      <c r="B24" s="15"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="1" t="s">
         <v>26</v>
       </c>
@@ -3993,1869 +4188,1778 @@
       <c r="G24" s="20"/>
       <c r="H24" s="21"/>
     </row>
-    <row r="25" ht="12" customHeight="1" spans="1:1">
-      <c r="A25" s="34"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="1" t="s">
+    <row r="25" ht="12" customHeight="1" spans="1:8">
+      <c r="A25" s="8"/>
+      <c r="H25" s="19"/>
+    </row>
+    <row r="26" ht="20" customHeight="1" spans="1:8">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" ht="20" customHeight="1" spans="1:8">
+      <c r="A27" s="8"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" ht="20" customHeight="1" spans="1:8">
+      <c r="A28" s="8"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="11"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="3" t="s">
+      <c r="D28" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:8">
+      <c r="A29" s="8"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="11"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="35" t="s">
+      <c r="D29" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:8">
-      <c r="A29" s="11"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
     </row>
     <row r="30" customHeight="1" spans="1:8">
-      <c r="A30" s="11"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="1"/>
       <c r="D30" s="3" t="s">
         <v>97</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
+      <c r="F30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="11"/>
-      <c r="B31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="37" t="s">
+      <c r="A31" s="8"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:8">
+      <c r="A32" s="8"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:8">
+      <c r="A33" s="8"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="20"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" ht="12" customHeight="1" spans="1:8">
+      <c r="A34" s="8"/>
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35" ht="20" customHeight="1" spans="1:8">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+    </row>
+    <row r="36" ht="20" customHeight="1" spans="1:8">
+      <c r="A36" s="8"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" ht="20" customHeight="1" spans="1:8">
+      <c r="A37" s="8"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:8">
+      <c r="A38" s="8"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:8">
+      <c r="A39" s="8"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:8">
+      <c r="A40" s="8"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:8">
+      <c r="A41" s="8"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:8">
+      <c r="A42" s="8"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:8">
+      <c r="A43" s="8"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:8">
+      <c r="A44" s="8"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" ht="20" customHeight="1" spans="1:8">
+      <c r="A45" s="8"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="21"/>
+    </row>
+    <row r="46" ht="12" customHeight="1"/>
+    <row r="47" customHeight="1" spans="1:8">
+      <c r="A47" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:8">
+      <c r="A48" s="43"/>
+      <c r="B48" s="44"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F48" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:8">
+      <c r="A49" s="43"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:8">
+      <c r="A50" s="43"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="45"/>
+      <c r="D50" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:8">
+      <c r="A51" s="43"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="45"/>
+      <c r="D51" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:8">
+      <c r="A52" s="43"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F52" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:8">
+      <c r="A53" s="43"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D53" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:8">
+      <c r="A54" s="43"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" ht="9" customHeight="1" spans="1:8">
+      <c r="A55" s="43"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55" s="48"/>
+    </row>
+    <row r="56" ht="20" customHeight="1" spans="1:8">
+      <c r="A56" s="43"/>
+      <c r="B56" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="53"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:8">
+      <c r="A57" s="43"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:8">
+      <c r="A58" s="43"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:8">
+      <c r="A59" s="43"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" ht="20" customHeight="1" spans="1:8">
+      <c r="A60" s="43"/>
+      <c r="B60" s="55"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" ht="9" customHeight="1" spans="1:8">
+      <c r="A61" s="43"/>
+      <c r="H61" s="48"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:8">
+      <c r="A62" s="43"/>
+      <c r="B62" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C62" s="56" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62" s="57"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="59" t="s">
+        <v>194</v>
+      </c>
+      <c r="G62" s="60"/>
+      <c r="H62" s="60"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:8">
+      <c r="A63" s="43"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:8">
+      <c r="A64" s="43"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E64" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F64" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="H64" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:8">
+      <c r="A65" s="43"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F65" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="H65" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:8">
+      <c r="A66" s="43"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" customHeight="1" spans="1:8">
+      <c r="A67" s="43"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="D67" s="63" t="s">
+        <v>208</v>
+      </c>
+      <c r="E67" s="64"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="64"/>
+      <c r="H67" s="65"/>
+    </row>
+    <row r="68" customHeight="1" spans="1:8">
+      <c r="A68" s="43"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E68" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F68" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="G68" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:8">
+      <c r="A69" s="43"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="62"/>
+      <c r="D69" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:8">
+      <c r="A70" s="43"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="F70" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:8">
+      <c r="A71" s="43"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E71" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F71" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G71" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:8">
+      <c r="A72" s="43"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="18"/>
+    </row>
+    <row r="73" customHeight="1" spans="1:8">
+      <c r="A73" s="43"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F73" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="G73" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:8">
+      <c r="A74" s="43"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="E74" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F74" s="66" t="s">
+        <v>232</v>
+      </c>
+      <c r="G74" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:8">
+      <c r="A75" s="43"/>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F75" s="66" t="s">
+        <v>236</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:8">
+      <c r="A76" s="43"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="18"/>
+    </row>
+    <row r="77" ht="9" customHeight="1" spans="1:8">
+      <c r="A77" s="43"/>
+      <c r="H77" s="48"/>
+    </row>
+    <row r="78" customHeight="1" spans="1:8">
+      <c r="A78" s="43"/>
+      <c r="B78" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>242</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F78" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:8">
+      <c r="A79" s="43"/>
+      <c r="B79" s="45"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F79" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="80" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A80" s="43"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="42" t="s">
+        <v>249</v>
+      </c>
+      <c r="D80" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F80" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="G80" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:8">
-      <c r="A32" s="11"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:8">
-      <c r="A33" s="11"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="H80" s="23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="81" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A81" s="43"/>
+      <c r="B81" s="46"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F81" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="G81" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" ht="11" customHeight="1" spans="1:8">
+      <c r="A82" s="43"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
+      <c r="H82" s="48"/>
+    </row>
+    <row r="83" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A83" s="43"/>
+      <c r="B83" s="42" t="s">
+        <v>257</v>
+      </c>
+      <c r="C83" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D83" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A84" s="43"/>
+      <c r="B84" s="45"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F84" s="23"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A85" s="67"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>264</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" ht="19.5" customHeight="1"/>
+    <row r="87" ht="50.25" customHeight="1" spans="1:8">
+      <c r="A87" s="68" t="s">
+        <v>266</v>
+      </c>
+      <c r="B87" s="69" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87" s="70" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87" s="71"/>
+      <c r="E87" s="71"/>
+      <c r="F87" s="71"/>
+      <c r="G87" s="71"/>
+      <c r="H87" s="72"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:8">
+      <c r="A88" s="73"/>
+      <c r="B88" s="41" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" s="74" t="s">
+        <v>270</v>
+      </c>
+      <c r="D88" s="74"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="G88" s="74" t="s">
+        <v>272</v>
+      </c>
+      <c r="H88" s="74"/>
+    </row>
+    <row r="89" customHeight="1" spans="1:8">
+      <c r="A89" s="73"/>
+      <c r="B89" s="44"/>
+      <c r="C89" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D89" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E89" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="F89" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H89" s="23" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:8">
+      <c r="A90" s="73"/>
+      <c r="B90" s="44"/>
+      <c r="C90" s="45"/>
+      <c r="D90" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="G90" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H90" s="23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:8">
+      <c r="A91" s="73"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="45"/>
+      <c r="D91" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="E91" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" customHeight="1" spans="1:8">
+      <c r="A92" s="73"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="45"/>
+      <c r="D92" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="E92" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="G92" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:8">
+      <c r="A93" s="73"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="G93" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="H93" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:8">
+      <c r="A94" s="73"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D94" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="E94" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="G94" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:8">
-      <c r="A34" s="11"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="3" t="s">
+      <c r="H94" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="95" ht="11" customHeight="1" spans="1:1">
+      <c r="A95" s="73"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:8">
+      <c r="A96" s="73"/>
+      <c r="B96" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D96" s="17"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="76" t="s">
+        <v>298</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="H96" s="18"/>
+    </row>
+    <row r="97" customHeight="1" spans="1:8">
+      <c r="A97" s="73"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="G97" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="23" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="98" customHeight="1" spans="1:8">
+      <c r="A98" s="73"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="45"/>
+      <c r="D98" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="E98" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="G98" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="H98" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:8">
+      <c r="A99" s="73"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="45"/>
+      <c r="D99" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="G99" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H99" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:8">
+      <c r="A100" s="73"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="F100" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="G100" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H100" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:8">
+      <c r="A101" s="73"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="E101" s="77" t="s">
+        <v>311</v>
+      </c>
+      <c r="F101" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="H101" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:8">
+      <c r="A102" s="73"/>
+      <c r="B102" s="44"/>
+      <c r="C102" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="F102" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H102" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" customHeight="1" spans="1:8">
+      <c r="A103" s="73"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="F103" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="G103" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H103" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:8">
-      <c r="A35" s="11"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:8">
-      <c r="A36" s="11"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:8">
-      <c r="A37" s="33"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="39"/>
-      <c r="D37" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" ht="12" customHeight="1"/>
-    <row r="39" customHeight="1" spans="1:8">
-      <c r="A39" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="F39" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:8">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="G40" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="H40" s="23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:8">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E41" s="23" t="s">
+    </row>
+    <row r="104" ht="12" customHeight="1" spans="1:1">
+      <c r="A104" s="73"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:8">
+      <c r="A105" s="73"/>
+      <c r="B105" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="C105" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="D105" s="57"/>
+      <c r="E105" s="58"/>
+      <c r="F105" s="78" t="s">
+        <v>322</v>
+      </c>
+      <c r="G105" s="78"/>
+      <c r="H105" s="78"/>
+    </row>
+    <row r="106" customHeight="1" spans="1:8">
+      <c r="A106" s="73"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="E106" s="78" t="s">
+        <v>324</v>
+      </c>
+      <c r="F106" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G106" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="107" customHeight="1" spans="1:8">
+      <c r="A107" s="73"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="45"/>
+      <c r="D107" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="E107" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:8">
+      <c r="A108" s="73"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="E108" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="F108" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="G108" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H108" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:8">
+      <c r="A109" s="73"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="E109" s="80" t="s">
+        <v>332</v>
+      </c>
+      <c r="F109" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="G109" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H41" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:8">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="23" t="s">
+      <c r="H109" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:8">
+      <c r="A110" s="73"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D110" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="E110" s="78" t="s">
+        <v>335</v>
+      </c>
+      <c r="F110" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:8">
+      <c r="A111" s="73"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="45"/>
+      <c r="D111" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="E111" s="78" t="s">
+        <v>338</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="G111" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H111" s="23" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:8">
+      <c r="A112" s="73"/>
+      <c r="B112" s="47"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="E112" s="78" t="s">
+        <v>342</v>
+      </c>
+      <c r="F112" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="G112" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="H112" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" ht="12" customHeight="1" spans="1:1">
+      <c r="A113" s="73"/>
+    </row>
+    <row r="114" customHeight="1" spans="1:8">
+      <c r="A114" s="73"/>
+      <c r="B114" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="C114" s="81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" s="82" t="s">
+        <v>345</v>
+      </c>
+      <c r="E114" s="83"/>
+      <c r="F114" s="83"/>
+      <c r="G114" s="83"/>
+      <c r="H114" s="84"/>
+    </row>
+    <row r="115" customHeight="1" spans="1:8">
+      <c r="A115" s="73"/>
+      <c r="B115" s="44"/>
+      <c r="C115" s="81" t="s">
+        <v>29</v>
+      </c>
+      <c r="D115" s="85" t="s">
+        <v>346</v>
+      </c>
+      <c r="E115" s="85"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85"/>
+    </row>
+    <row r="116" customHeight="1" spans="1:8">
+      <c r="A116" s="73"/>
+      <c r="B116" s="44"/>
+      <c r="C116" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D116" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="E116" s="78" t="s">
+        <v>348</v>
+      </c>
+      <c r="F116" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="G116" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H116" s="23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:8">
+      <c r="A117" s="73"/>
+      <c r="B117" s="44"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="E117" s="78" t="s">
+        <v>351</v>
+      </c>
+      <c r="F117" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="G117" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H117" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:8">
+      <c r="A118" s="73"/>
+      <c r="B118" s="44"/>
+      <c r="C118" s="45"/>
+      <c r="D118" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="E118" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="F118" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="G118" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="H118" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="G42" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="H42" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:8">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E43" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="F43" s="23" t="s">
+    </row>
+    <row r="119" customHeight="1" spans="1:8">
+      <c r="A119" s="73"/>
+      <c r="B119" s="44"/>
+      <c r="C119" s="46"/>
+      <c r="D119" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="E119" s="78" t="s">
+        <v>356</v>
+      </c>
+      <c r="F119" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="G119" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="H119" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="G43" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="H43" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:8">
-      <c r="A44" s="42"/>
-      <c r="B44" s="44"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E44" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="F44" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="H44" s="23" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:8">
-      <c r="A45" s="42"/>
-      <c r="B45" s="41" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:8">
-      <c r="A46" s="42"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:8">
-      <c r="A47" s="42"/>
-      <c r="B47" s="43"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:8">
-      <c r="A48" s="42"/>
-      <c r="B48" s="43"/>
-      <c r="C48" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D48" s="23" t="s">
-        <v>154</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:8">
-      <c r="A49" s="42"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:8">
-      <c r="A50" s="42"/>
-      <c r="B50" s="44"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:8">
-      <c r="A51" s="42"/>
-      <c r="B51" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D51" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F51" s="3" t="s">
+    </row>
+    <row r="120" customHeight="1" spans="1:8">
+      <c r="A120" s="73"/>
+      <c r="B120" s="44"/>
+      <c r="C120" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:8">
-      <c r="A52" s="42"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:8">
-      <c r="A53" s="42"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:8">
-      <c r="A54" s="42"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:8">
-      <c r="A55" s="46"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="56" ht="13" customHeight="1"/>
-    <row r="57" customHeight="1" spans="1:8">
-      <c r="A57" s="47" t="s">
-        <v>183</v>
-      </c>
-      <c r="B57" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="C57" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>185</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:8">
-      <c r="A58" s="48"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="F58" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:8">
-      <c r="A59" s="48"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F59" s="23" t="s">
-        <v>195</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:8">
-      <c r="A60" s="48"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F60" s="23" t="s">
-        <v>200</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" customHeight="1" spans="1:8">
-      <c r="A61" s="48"/>
-      <c r="B61" s="38"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:8">
-      <c r="A62" s="48"/>
-      <c r="B62" s="38"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="F62" s="23" t="s">
-        <v>207</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:8">
-      <c r="A63" s="48"/>
-      <c r="B63" s="38"/>
-      <c r="C63" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F63" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:8">
-      <c r="A64" s="48"/>
-      <c r="B64" s="39"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="23" t="s">
-        <v>213</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F64" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:8">
-      <c r="A65" s="48"/>
-      <c r="B65" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="C65" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D65" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F65" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:8">
-      <c r="A66" s="48"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="39"/>
-      <c r="D66" s="23" t="s">
-        <v>220</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F66" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:8">
-      <c r="A67" s="48"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D67" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F67" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="68" ht="28" customHeight="1" spans="1:8">
-      <c r="A68" s="48"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="69" ht="11" customHeight="1" spans="1:1">
-      <c r="A69" s="48"/>
-    </row>
-    <row r="70" customHeight="1" spans="1:8">
-      <c r="A70" s="48"/>
-      <c r="B70" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C70" s="49" t="s">
-        <v>229</v>
-      </c>
-      <c r="D70" s="50"/>
-      <c r="E70" s="51"/>
-      <c r="F70" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:8">
-      <c r="A71" s="48"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="54" t="s">
-        <v>231</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="E71" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="F71" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="G71" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H71" s="27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:8">
-      <c r="A72" s="48"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E72" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="F72" s="23" t="s">
-        <v>236</v>
-      </c>
-      <c r="G72" s="23" t="s">
-        <v>171</v>
-      </c>
-      <c r="H72" s="23" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="1:8">
-      <c r="A73" s="48"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="E73" s="23" t="s">
-        <v>238</v>
-      </c>
-      <c r="F73" s="23" t="s">
-        <v>239</v>
-      </c>
-      <c r="G73" s="23" t="s">
-        <v>240</v>
-      </c>
-      <c r="H73" s="23" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:8">
-      <c r="A74" s="48"/>
-      <c r="B74" s="1"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="19"/>
-    </row>
-    <row r="75" customHeight="1" spans="1:8">
-      <c r="A75" s="48"/>
-      <c r="B75" s="1"/>
-      <c r="C75" s="56" t="s">
-        <v>243</v>
-      </c>
-      <c r="D75" s="57" t="s">
-        <v>244</v>
-      </c>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="59"/>
-    </row>
-    <row r="76" customHeight="1" spans="1:8">
-      <c r="A76" s="48"/>
-      <c r="B76" s="1"/>
-      <c r="C76" s="56"/>
-      <c r="D76" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="E76" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="F76" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="G76" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H76" s="23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="1:8">
-      <c r="A77" s="48"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="56"/>
-      <c r="D77" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="F77" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="G77" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H77" s="23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="78" customHeight="1" spans="1:8">
-      <c r="A78" s="48"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="56"/>
-      <c r="D78" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="F78" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="G78" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H78" s="23" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="79" customHeight="1" spans="1:8">
-      <c r="A79" s="48"/>
-      <c r="B79" s="1"/>
-      <c r="C79" s="56"/>
-      <c r="D79" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="G79" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="H79" s="23" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="80" customHeight="1" spans="1:8">
-      <c r="A80" s="48"/>
-      <c r="B80" s="1"/>
-      <c r="C80" s="56"/>
-      <c r="D80" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="19"/>
-    </row>
-    <row r="81" customHeight="1" spans="1:8">
-      <c r="A81" s="48"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D81" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F81" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="G81" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="H81" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="82" customHeight="1" spans="1:8">
-      <c r="A82" s="48"/>
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="E82" s="23" t="s">
-        <v>266</v>
-      </c>
-      <c r="F82" s="60" t="s">
-        <v>267</v>
-      </c>
-      <c r="G82" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="H82" s="23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="83" customHeight="1" spans="1:8">
-      <c r="A83" s="48"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="F83" s="60" t="s">
-        <v>271</v>
-      </c>
-      <c r="G83" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="H83" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="84" customHeight="1" spans="1:8">
-      <c r="A84" s="48"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="17" t="s">
-        <v>272</v>
-      </c>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="19"/>
-    </row>
-    <row r="85" ht="13" customHeight="1" spans="1:1">
-      <c r="A85" s="48"/>
-    </row>
-    <row r="86" customHeight="1" spans="1:8">
-      <c r="A86" s="48"/>
-      <c r="B86" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="C86" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="D86" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="F86" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="G86" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="H86" s="23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="87" customHeight="1" spans="1:8">
-      <c r="A87" s="48"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="F87" s="23" t="s">
-        <v>280</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="88" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A88" s="48"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="D88" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F88" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="G88" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="H88" s="23" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="89" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A89" s="48"/>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="F89" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="G89" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="H89" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="90" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A90" s="48"/>
-      <c r="B90" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="C90" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="F90" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A91" s="48"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F91" s="23"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A92" s="61"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D92" s="23" t="s">
+      <c r="D120" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="E120" s="78" t="s">
+        <v>360</v>
+      </c>
+      <c r="F120" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H120" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:8">
+      <c r="A121" s="73"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="E121" s="78" t="s">
+        <v>363</v>
+      </c>
+      <c r="F121" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="G121" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H121" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="E92" s="28" t="s">
-        <v>296</v>
-      </c>
-      <c r="F92" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-    </row>
-    <row r="93" ht="19.5" customHeight="1"/>
-    <row r="94" ht="50.25" customHeight="1" spans="1:8">
-      <c r="A94" s="62" t="s">
-        <v>298</v>
-      </c>
-      <c r="B94" s="63" t="s">
-        <v>299</v>
-      </c>
-      <c r="C94" s="64" t="s">
-        <v>300</v>
-      </c>
-      <c r="D94" s="65"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="65"/>
-      <c r="G94" s="65"/>
-      <c r="H94" s="66"/>
-    </row>
-    <row r="95" customHeight="1" spans="1:8">
-      <c r="A95" s="67"/>
-      <c r="B95" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="C95" s="68" t="s">
-        <v>302</v>
-      </c>
-      <c r="D95" s="68"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="69" t="s">
-        <v>303</v>
-      </c>
-      <c r="G95" s="68" t="s">
-        <v>304</v>
-      </c>
-      <c r="H95" s="68"/>
-    </row>
-    <row r="96" customHeight="1" spans="1:8">
-      <c r="A96" s="67"/>
-      <c r="B96" s="38"/>
-      <c r="C96" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D96" s="23" t="s">
-        <v>305</v>
-      </c>
-      <c r="E96" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="F96" s="23" t="s">
-        <v>307</v>
-      </c>
-      <c r="G96" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H96" s="23" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="1:8">
-      <c r="A97" s="67"/>
-      <c r="B97" s="38"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="23" t="s">
-        <v>309</v>
-      </c>
-      <c r="E97" s="23" t="s">
-        <v>310</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="G97" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H97" s="23" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="1:8">
-      <c r="A98" s="67"/>
-      <c r="B98" s="38"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="E98" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="F98" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="1:8">
-      <c r="A99" s="67"/>
-      <c r="B99" s="38"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="E99" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="F99" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="G99" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H99" s="23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="1:8">
-      <c r="A100" s="67"/>
-      <c r="B100" s="38"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="E100" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="F100" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="G100" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="H100" s="23" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:8">
-      <c r="A101" s="67"/>
-      <c r="B101" s="39"/>
-      <c r="C101" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E101" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="F101" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="G101" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="H101" s="23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="102" ht="11" customHeight="1" spans="1:1">
-      <c r="A102" s="67"/>
-    </row>
-    <row r="103" customHeight="1" spans="1:8">
-      <c r="A103" s="67"/>
-      <c r="B103" s="37" t="s">
-        <v>326</v>
-      </c>
-      <c r="C103" s="17" t="s">
-        <v>327</v>
-      </c>
-      <c r="D103" s="18"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="70" t="s">
-        <v>328</v>
-      </c>
-      <c r="G103" s="17" t="s">
-        <v>329</v>
-      </c>
-      <c r="H103" s="19"/>
-    </row>
-    <row r="104" customHeight="1" spans="1:8">
-      <c r="A104" s="67"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D104" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="E104" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="F104" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="G104" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104" s="23" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="1:8">
-      <c r="A105" s="67"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="E105" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="F105" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="G105" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="H105" s="23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="1:8">
-      <c r="A106" s="67"/>
-      <c r="B106" s="38"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="E106" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="F106" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="G106" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H106" s="23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="107" customHeight="1" spans="1:8">
-      <c r="A107" s="67"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="E107" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="G107" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="H107" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="108" customHeight="1" spans="1:8">
-      <c r="A108" s="67"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="E108" s="71" t="s">
-        <v>341</v>
-      </c>
-      <c r="F108" s="23" t="s">
-        <v>342</v>
-      </c>
-      <c r="G108" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="H108" s="23" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:8">
-      <c r="A109" s="67"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D109" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="F109" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="G109" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="H109" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="110" customHeight="1" spans="1:8">
-      <c r="A110" s="67"/>
-      <c r="B110" s="39"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="E110" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="H110" s="23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" ht="12" customHeight="1" spans="1:1">
-      <c r="A111" s="67"/>
-    </row>
-    <row r="112" customHeight="1" spans="1:8">
-      <c r="A112" s="67"/>
-      <c r="B112" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="C112" s="49" t="s">
-        <v>351</v>
-      </c>
-      <c r="D112" s="50"/>
-      <c r="E112" s="51"/>
-      <c r="F112" s="72" t="s">
-        <v>352</v>
-      </c>
-      <c r="G112" s="72"/>
-      <c r="H112" s="72"/>
-    </row>
-    <row r="113" customHeight="1" spans="1:8">
-      <c r="A113" s="67"/>
-      <c r="B113" s="38"/>
-      <c r="C113" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D113" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="E113" s="72" t="s">
-        <v>354</v>
-      </c>
-      <c r="F113" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="G113" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H113" s="23" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="114" customHeight="1" spans="1:8">
-      <c r="A114" s="67"/>
-      <c r="B114" s="38"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="E114" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="F114" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="G114" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="H114" s="23" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="115" customHeight="1" spans="1:8">
-      <c r="A115" s="67"/>
-      <c r="B115" s="38"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="E115" s="73" t="s">
-        <v>360</v>
-      </c>
-      <c r="F115" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="G115" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H115" s="23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="116" customHeight="1" spans="1:8">
-      <c r="A116" s="67"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="27" t="s">
-        <v>335</v>
-      </c>
-      <c r="E116" s="74" t="s">
-        <v>362</v>
-      </c>
-      <c r="F116" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="G116" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="H116" s="23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="117" customHeight="1" spans="1:8">
-      <c r="A117" s="67"/>
-      <c r="B117" s="38"/>
-      <c r="C117" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D117" s="23" t="s">
+    </row>
+    <row r="122" ht="12" customHeight="1" spans="1:8">
+      <c r="A122" s="73"/>
+      <c r="H122" s="48"/>
+    </row>
+    <row r="123" customHeight="1" spans="1:8">
+      <c r="A123" s="73"/>
+      <c r="B123" s="36" t="s">
         <v>365</v>
       </c>
-      <c r="E117" s="72" t="s">
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+      <c r="E123" s="3"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" customHeight="1" spans="1:8">
+      <c r="A124" s="73"/>
+      <c r="B124" s="36"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" customHeight="1" spans="1:8">
+      <c r="A125" s="73"/>
+      <c r="B125" s="36"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" customHeight="1" spans="1:8">
+      <c r="A126" s="73"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" customHeight="1" spans="1:8">
+      <c r="A127" s="73"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" customHeight="1" spans="1:8">
+      <c r="A128" s="73"/>
+      <c r="B128" s="36"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:8">
+      <c r="A129" s="73"/>
+      <c r="B129" s="36" t="s">
         <v>366</v>
       </c>
-      <c r="F117" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="G117" s="23" t="s">
-        <v>180</v>
-      </c>
-      <c r="H117" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="118" customHeight="1" spans="1:8">
-      <c r="A118" s="67"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="E118" s="72" t="s">
-        <v>368</v>
-      </c>
-      <c r="F118" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="G118" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="H118" s="23" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="119" customHeight="1" spans="1:8">
-      <c r="A119" s="67"/>
-      <c r="B119" s="39"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="E119" s="72" t="s">
-        <v>372</v>
-      </c>
-      <c r="F119" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="G119" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="H119" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="120" ht="12" customHeight="1" spans="1:1">
-      <c r="A120" s="67"/>
-    </row>
-    <row r="121" customHeight="1" spans="1:8">
-      <c r="A121" s="67"/>
-      <c r="B121" s="37" t="s">
-        <v>374</v>
-      </c>
-      <c r="C121" s="49" t="s">
-        <v>375</v>
-      </c>
-      <c r="D121" s="50"/>
-      <c r="E121" s="51"/>
-      <c r="F121" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="G121" s="49" t="s">
-        <v>377</v>
-      </c>
-      <c r="H121" s="51"/>
-    </row>
-    <row r="122" customHeight="1" spans="1:8">
-      <c r="A122" s="67"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="49" t="s">
-        <v>378</v>
-      </c>
-      <c r="D122" s="50"/>
-      <c r="E122" s="51"/>
-      <c r="F122" s="72"/>
-      <c r="G122" s="49"/>
-      <c r="H122" s="51"/>
-    </row>
-    <row r="123" customHeight="1" spans="1:8">
-      <c r="A123" s="67"/>
-      <c r="B123" s="38"/>
-      <c r="C123" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="D123" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="E123" s="72" t="s">
-        <v>380</v>
-      </c>
-      <c r="F123" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="G123" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H123" s="23" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="124" customHeight="1" spans="1:8">
-      <c r="A124" s="67"/>
-      <c r="B124" s="38"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="E124" s="72" t="s">
-        <v>383</v>
-      </c>
-      <c r="F124" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="G124" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="H124" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="125" customHeight="1" spans="1:8">
-      <c r="A125" s="67"/>
-      <c r="B125" s="38"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="E125" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="F125" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="G125" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="H125" s="23" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" customHeight="1" spans="1:8">
-      <c r="A126" s="67"/>
-      <c r="B126" s="38"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="E126" s="72" t="s">
-        <v>388</v>
-      </c>
-      <c r="F126" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="G126" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="H126" s="23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="127" customHeight="1" spans="1:8">
-      <c r="A127" s="67"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D127" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="E127" s="72" t="s">
-        <v>392</v>
-      </c>
-      <c r="F127" s="23" t="s">
-        <v>393</v>
-      </c>
-      <c r="G127" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="H127" s="23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="128" customHeight="1" spans="1:8">
-      <c r="A128" s="67"/>
-      <c r="B128" s="39"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="E128" s="72" t="s">
-        <v>395</v>
-      </c>
-      <c r="F128" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="G128" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="H128" s="23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="129" ht="12" customHeight="1" spans="1:1">
-      <c r="A129" s="67"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+      <c r="E129" s="3"/>
+      <c r="F129" s="3"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="3"/>
     </row>
     <row r="130" customHeight="1" spans="1:8">
-      <c r="A130" s="67"/>
-      <c r="B130" s="54" t="s">
-        <v>397</v>
-      </c>
+      <c r="A130" s="73"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -5864,8 +5968,8 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" customHeight="1" spans="1:8">
-      <c r="A131" s="67"/>
-      <c r="B131" s="54"/>
+      <c r="A131" s="73"/>
+      <c r="B131" s="36"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -5874,8 +5978,8 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" customHeight="1" spans="1:8">
-      <c r="A132" s="67"/>
-      <c r="B132" s="54"/>
+      <c r="A132" s="73"/>
+      <c r="B132" s="36"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -5884,8 +5988,8 @@
       <c r="H132" s="3"/>
     </row>
     <row r="133" customHeight="1" spans="1:8">
-      <c r="A133" s="67"/>
-      <c r="B133" s="54"/>
+      <c r="A133" s="86"/>
+      <c r="B133" s="36"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -5893,1006 +5997,1089 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" customHeight="1" spans="1:8">
-      <c r="A134" s="67"/>
-      <c r="B134" s="54"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
+    <row r="134" customHeight="1" spans="2:2">
+      <c r="B134" s="87"/>
     </row>
     <row r="135" customHeight="1" spans="1:8">
-      <c r="A135" s="67"/>
-      <c r="B135" s="54"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
+      <c r="A135" s="88" t="s">
+        <v>367</v>
+      </c>
+      <c r="B135" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="C135" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D135" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="E135" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="G135" s="23" t="s">
+        <v>372</v>
+      </c>
       <c r="H135" s="3"/>
     </row>
     <row r="136" customHeight="1" spans="1:8">
-      <c r="A136" s="67"/>
-      <c r="B136" s="54" t="s">
+      <c r="A136" s="89"/>
+      <c r="B136" s="44"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="E136" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F136" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="G136" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="H136" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:8">
+      <c r="A137" s="89"/>
+      <c r="B137" s="44"/>
+      <c r="C137" s="45"/>
+      <c r="D137" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="E137" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="F137" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="G137" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H137" s="23" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:8">
+      <c r="A138" s="89"/>
+      <c r="B138" s="44"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="E138" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="F138" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="G138" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="H138" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="139" customHeight="1" spans="1:8">
+      <c r="A139" s="89"/>
+      <c r="B139" s="44"/>
+      <c r="C139" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D139" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="E139" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="F139" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G139" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H139" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="140" customHeight="1" spans="1:8">
+      <c r="A140" s="89"/>
+      <c r="B140" s="47"/>
+      <c r="C140" s="46"/>
+      <c r="D140" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="E140" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="F140" s="23" t="s">
+        <v>389</v>
+      </c>
+      <c r="G140" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="H140" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:8">
+      <c r="A141" s="89"/>
+      <c r="B141" s="41" t="s">
+        <v>390</v>
+      </c>
+      <c r="C141" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D141" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G141" s="3"/>
+      <c r="H141" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:8">
+      <c r="A142" s="89"/>
+      <c r="B142" s="44"/>
+      <c r="C142" s="45"/>
+      <c r="D142" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:8">
+      <c r="A143" s="89"/>
+      <c r="B143" s="44"/>
+      <c r="C143" s="46"/>
+      <c r="D143" s="23" t="s">
         <v>398</v>
       </c>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-    </row>
-    <row r="137" customHeight="1" spans="1:8">
-      <c r="A137" s="67"/>
-      <c r="B137" s="54"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-    </row>
-    <row r="138" customHeight="1" spans="1:8">
-      <c r="A138" s="67"/>
-      <c r="B138" s="54"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-    </row>
-    <row r="139" customHeight="1" spans="1:8">
-      <c r="A139" s="67"/>
-      <c r="B139" s="54"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-    </row>
-    <row r="140" customHeight="1" spans="1:8">
-      <c r="A140" s="75"/>
-      <c r="B140" s="54"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-    </row>
-    <row r="142" customHeight="1" spans="1:8">
-      <c r="A142" s="76" t="s">
+      <c r="E143" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="F143" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3" t="s">
+      <c r="G143" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="144" customHeight="1" spans="1:8">
+      <c r="A144" s="89"/>
+      <c r="B144" s="44"/>
+      <c r="C144" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D144" s="23" t="s">
         <v>401</v>
       </c>
-      <c r="E142" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-    </row>
-    <row r="143" customHeight="1" spans="1:8">
-      <c r="A143" s="76"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E143" s="3" t="s">
+      <c r="E144" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="F143" s="3"/>
-      <c r="G143" s="3"/>
-      <c r="H143" s="3"/>
-    </row>
-    <row r="144" customHeight="1" spans="1:8">
-      <c r="A144" s="76"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3" t="s">
+      <c r="F144" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="E144" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
+      <c r="G144" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="145" customHeight="1" spans="1:8">
-      <c r="A145" s="76"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3" t="s">
+      <c r="A145" s="89"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="45"/>
+      <c r="D145" s="90" t="s">
         <v>404</v>
       </c>
       <c r="E145" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F145" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="F145" s="3"/>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3"/>
+      <c r="G145" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="146" customHeight="1" spans="1:8">
-      <c r="A146" s="76"/>
-      <c r="B146" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3" t="s">
+      <c r="A146" s="89"/>
+      <c r="B146" s="47"/>
+      <c r="C146" s="46"/>
+      <c r="D146" s="23" t="s">
         <v>407</v>
       </c>
       <c r="E146" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
+      <c r="F146" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="147" customHeight="1" spans="1:8">
-      <c r="A147" s="76"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="E147" s="28" t="s">
-        <v>410</v>
-      </c>
-      <c r="F147" s="3"/>
-      <c r="G147" s="3"/>
-      <c r="H147" s="3"/>
+      <c r="A147" s="89"/>
+      <c r="B147" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="C147" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D147" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="148" customHeight="1" spans="1:8">
-      <c r="A148" s="76"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3" t="s">
-        <v>411</v>
+      <c r="A148" s="89"/>
+      <c r="B148" s="44"/>
+      <c r="C148" s="46"/>
+      <c r="D148" s="23" t="s">
+        <v>414</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
+        <v>415</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="149" customHeight="1" spans="1:8">
-      <c r="A149" s="76"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3" t="s">
-        <v>413</v>
+      <c r="A149" s="89"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D149" s="23" t="s">
+        <v>376</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
+        <v>418</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="150" customHeight="1" spans="1:8">
-      <c r="A150" s="76"/>
-      <c r="B150" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3" t="s">
-        <v>416</v>
+      <c r="A150" s="89"/>
+      <c r="B150" s="44"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="23" t="s">
+        <v>246</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="151" customHeight="1" spans="1:8">
-      <c r="A151" s="76"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3" t="s">
-        <v>417</v>
+      <c r="A151" s="91"/>
+      <c r="B151" s="47"/>
+      <c r="C151" s="46"/>
+      <c r="D151" s="23" t="s">
+        <v>421</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-    </row>
-    <row r="152" customHeight="1" spans="1:8">
-      <c r="A152" s="76"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
+        <v>370</v>
+      </c>
+      <c r="F151" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>422</v>
+      </c>
     </row>
     <row r="153" customHeight="1" spans="1:8">
-      <c r="A153" s="76"/>
-      <c r="B153" s="1"/>
+      <c r="A153" s="92" t="s">
+        <v>423</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>424</v>
+      </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
       <c r="H153" s="3"/>
     </row>
     <row r="154" customHeight="1" spans="1:8">
-      <c r="A154" s="76"/>
+      <c r="A154" s="92"/>
       <c r="B154" s="1"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="E154" s="23" t="s">
-        <v>423</v>
+        <v>427</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>428</v>
       </c>
       <c r="F154" s="3"/>
       <c r="G154" s="3"/>
       <c r="H154" s="3"/>
     </row>
     <row r="155" customHeight="1" spans="1:8">
-      <c r="A155" s="76"/>
+      <c r="A155" s="92"/>
       <c r="B155" s="1"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="E155" s="28" t="s">
-        <v>425</v>
+        <v>429</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>430</v>
       </c>
       <c r="F155" s="3"/>
       <c r="G155" s="3"/>
       <c r="H155" s="3"/>
     </row>
+    <row r="156" customHeight="1" spans="1:8">
+      <c r="A156" s="92"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="3"/>
+    </row>
     <row r="157" customHeight="1" spans="1:8">
-      <c r="A157" s="77" t="s">
-        <v>426</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>427</v>
-      </c>
+      <c r="A157" s="92"/>
+      <c r="B157" s="1"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F157" s="3"/>
       <c r="G157" s="3"/>
       <c r="H157" s="3"/>
     </row>
     <row r="158" customHeight="1" spans="1:8">
-      <c r="A158" s="77"/>
+      <c r="A158" s="92"/>
       <c r="B158" s="1"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>431</v>
+        <v>435</v>
+      </c>
+      <c r="E158" s="23" t="s">
+        <v>436</v>
       </c>
       <c r="F158" s="3"/>
       <c r="G158" s="3"/>
       <c r="H158" s="3"/>
     </row>
     <row r="159" customHeight="1" spans="1:8">
-      <c r="A159" s="77"/>
-      <c r="B159" s="1"/>
+      <c r="A159" s="92"/>
+      <c r="B159" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="C159" s="3"/>
-      <c r="D159" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3"/>
+      <c r="D159" s="60" t="s">
+        <v>438</v>
+      </c>
+      <c r="E159" s="60" t="s">
+        <v>439</v>
+      </c>
+      <c r="F159" s="60"/>
+      <c r="G159" s="60"/>
+      <c r="H159" s="60"/>
     </row>
     <row r="160" customHeight="1" spans="1:8">
-      <c r="A160" s="77"/>
+      <c r="A160" s="92"/>
       <c r="B160" s="1"/>
       <c r="C160" s="3"/>
-      <c r="D160" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
+      <c r="D160" s="60" t="s">
+        <v>440</v>
+      </c>
+      <c r="E160" s="60" t="s">
+        <v>441</v>
+      </c>
+      <c r="F160" s="60"/>
+      <c r="G160" s="60"/>
+      <c r="H160" s="60"/>
     </row>
     <row r="161" customHeight="1" spans="1:8">
-      <c r="A161" s="77"/>
+      <c r="A161" s="92"/>
       <c r="B161" s="1"/>
       <c r="C161" s="3"/>
-      <c r="D161" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
+      <c r="D161" s="60" t="s">
+        <v>442</v>
+      </c>
+      <c r="E161" s="60" t="s">
+        <v>443</v>
+      </c>
+      <c r="F161" s="60"/>
+      <c r="G161" s="60"/>
+      <c r="H161" s="60"/>
     </row>
     <row r="162" customHeight="1" spans="1:8">
-      <c r="A162" s="77"/>
+      <c r="A162" s="92"/>
       <c r="B162" s="1"/>
       <c r="C162" s="3"/>
-      <c r="D162" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="E162" s="23" t="s">
-        <v>439</v>
-      </c>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
+      <c r="D162" s="60" t="s">
+        <v>444</v>
+      </c>
+      <c r="E162" s="78" t="s">
+        <v>445</v>
+      </c>
+      <c r="F162" s="60"/>
+      <c r="G162" s="60"/>
+      <c r="H162" s="60"/>
     </row>
     <row r="163" customHeight="1" spans="1:8">
-      <c r="A163" s="77"/>
-      <c r="B163" s="1" t="s">
-        <v>440</v>
-      </c>
+      <c r="A163" s="92"/>
+      <c r="B163" s="1"/>
       <c r="C163" s="3"/>
-      <c r="D163" s="53" t="s">
-        <v>441</v>
-      </c>
-      <c r="E163" s="53" t="s">
-        <v>442</v>
-      </c>
-      <c r="F163" s="53"/>
-      <c r="G163" s="53"/>
-      <c r="H163" s="53"/>
+      <c r="D163" s="60" t="s">
+        <v>446</v>
+      </c>
+      <c r="E163" s="60" t="s">
+        <v>447</v>
+      </c>
+      <c r="F163" s="60"/>
+      <c r="G163" s="60"/>
+      <c r="H163" s="60"/>
     </row>
     <row r="164" customHeight="1" spans="1:8">
-      <c r="A164" s="77"/>
+      <c r="A164" s="92"/>
       <c r="B164" s="1"/>
       <c r="C164" s="3"/>
-      <c r="D164" s="53" t="s">
-        <v>443</v>
-      </c>
-      <c r="E164" s="53" t="s">
-        <v>444</v>
-      </c>
-      <c r="F164" s="53"/>
-      <c r="G164" s="53"/>
-      <c r="H164" s="53"/>
-    </row>
-    <row r="165" customHeight="1" spans="1:8">
-      <c r="A165" s="77"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="53" t="s">
-        <v>445</v>
-      </c>
-      <c r="E165" s="53" t="s">
-        <v>446</v>
-      </c>
-      <c r="F165" s="53"/>
-      <c r="G165" s="53"/>
-      <c r="H165" s="53"/>
+      <c r="D164" s="60" t="s">
+        <v>448</v>
+      </c>
+      <c r="E164" s="60" t="s">
+        <v>449</v>
+      </c>
+      <c r="F164" s="60"/>
+      <c r="G164" s="60"/>
+      <c r="H164" s="60"/>
     </row>
     <row r="166" customHeight="1" spans="1:8">
-      <c r="A166" s="77"/>
-      <c r="B166" s="1"/>
+      <c r="A166" s="93" t="s">
+        <v>450</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="C166" s="3"/>
-      <c r="D166" s="53" t="s">
-        <v>447</v>
-      </c>
-      <c r="E166" s="72" t="s">
-        <v>448</v>
-      </c>
-      <c r="F166" s="53"/>
-      <c r="G166" s="53"/>
-      <c r="H166" s="53"/>
+      <c r="D166" s="60" t="s">
+        <v>451</v>
+      </c>
+      <c r="E166" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="F166" s="60"/>
+      <c r="G166" s="60"/>
+      <c r="H166" s="60"/>
     </row>
     <row r="167" customHeight="1" spans="1:8">
-      <c r="A167" s="77"/>
+      <c r="A167" s="93"/>
       <c r="B167" s="1"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="53" t="s">
-        <v>449</v>
-      </c>
-      <c r="E167" s="53" t="s">
-        <v>450</v>
-      </c>
-      <c r="F167" s="53"/>
-      <c r="G167" s="53"/>
-      <c r="H167" s="53"/>
+      <c r="C167" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D167" s="60" t="s">
+        <v>453</v>
+      </c>
+      <c r="E167" s="78" t="s">
+        <v>454</v>
+      </c>
+      <c r="F167" s="60"/>
+      <c r="G167" s="60"/>
+      <c r="H167" s="60"/>
     </row>
     <row r="168" customHeight="1" spans="1:8">
-      <c r="A168" s="77"/>
+      <c r="A168" s="93"/>
       <c r="B168" s="1"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="53" t="s">
-        <v>451</v>
-      </c>
-      <c r="E168" s="53" t="s">
-        <v>452</v>
-      </c>
-      <c r="F168" s="53"/>
-      <c r="G168" s="53"/>
-      <c r="H168" s="53"/>
+      <c r="C168" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D168" s="60" t="s">
+        <v>456</v>
+      </c>
+      <c r="E168" s="60" t="s">
+        <v>457</v>
+      </c>
+      <c r="F168" s="60"/>
+      <c r="G168" s="60"/>
+      <c r="H168" s="60"/>
+    </row>
+    <row r="169" customHeight="1" spans="1:8">
+      <c r="A169" s="93"/>
+      <c r="B169" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C169" s="3"/>
+      <c r="D169" s="60" t="s">
+        <v>458</v>
+      </c>
+      <c r="E169" s="60" t="s">
+        <v>459</v>
+      </c>
+      <c r="F169" s="60"/>
+      <c r="G169" s="60"/>
+      <c r="H169" s="60"/>
     </row>
     <row r="170" customHeight="1" spans="1:8">
-      <c r="A170" s="78" t="s">
-        <v>453</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="A170" s="93"/>
+      <c r="B170" s="1"/>
       <c r="C170" s="3"/>
-      <c r="D170" s="53" t="s">
+      <c r="D170" s="60" t="s">
+        <v>246</v>
+      </c>
+      <c r="E170" s="60" t="s">
+        <v>186</v>
+      </c>
+      <c r="F170" s="60"/>
+      <c r="G170" s="60"/>
+      <c r="H170" s="60"/>
+    </row>
+    <row r="171" customHeight="1" spans="1:8">
+      <c r="A171" s="93"/>
+      <c r="B171" s="1"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="60" t="s">
         <v>401</v>
       </c>
-      <c r="E170" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="F170" s="53"/>
-      <c r="G170" s="53"/>
-      <c r="H170" s="53"/>
-    </row>
-    <row r="171" customHeight="1" spans="1:8">
-      <c r="A171" s="78"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="3" t="s">
-        <v>454</v>
-      </c>
-      <c r="D171" s="53" t="s">
-        <v>455</v>
-      </c>
-      <c r="E171" s="72" t="s">
-        <v>456</v>
-      </c>
-      <c r="F171" s="53"/>
-      <c r="G171" s="53"/>
-      <c r="H171" s="53"/>
-    </row>
-    <row r="172" customHeight="1" spans="1:8">
-      <c r="A172" s="78"/>
-      <c r="B172" s="1"/>
-      <c r="C172" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D172" s="53" t="s">
-        <v>458</v>
-      </c>
-      <c r="E172" s="53" t="s">
-        <v>459</v>
-      </c>
-      <c r="F172" s="53"/>
-      <c r="G172" s="53"/>
-      <c r="H172" s="53"/>
+      <c r="E171" s="60" t="s">
+        <v>377</v>
+      </c>
+      <c r="F171" s="60"/>
+      <c r="G171" s="60"/>
+      <c r="H171" s="60"/>
     </row>
     <row r="173" customHeight="1" spans="1:8">
-      <c r="A173" s="78"/>
+      <c r="A173" s="94" t="s">
+        <v>460</v>
+      </c>
       <c r="B173" s="1" t="s">
-        <v>108</v>
+        <v>461</v>
       </c>
       <c r="C173" s="3"/>
-      <c r="D173" s="53" t="s">
-        <v>460</v>
-      </c>
-      <c r="E173" s="53" t="s">
-        <v>461</v>
-      </c>
-      <c r="F173" s="53"/>
-      <c r="G173" s="53"/>
-      <c r="H173" s="53"/>
+      <c r="D173" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
     </row>
     <row r="174" customHeight="1" spans="1:8">
-      <c r="A174" s="78"/>
+      <c r="A174" s="94"/>
       <c r="B174" s="1"/>
       <c r="C174" s="3"/>
-      <c r="D174" s="53" t="s">
-        <v>178</v>
-      </c>
-      <c r="E174" s="53" t="s">
-        <v>119</v>
-      </c>
-      <c r="F174" s="53"/>
-      <c r="G174" s="53"/>
-      <c r="H174" s="53"/>
+      <c r="D174" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
     </row>
     <row r="175" customHeight="1" spans="1:8">
-      <c r="A175" s="78"/>
+      <c r="A175" s="94"/>
       <c r="B175" s="1"/>
       <c r="C175" s="3"/>
-      <c r="D175" s="53" t="s">
-        <v>154</v>
-      </c>
-      <c r="E175" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="F175" s="53"/>
-      <c r="G175" s="53"/>
-      <c r="H175" s="53"/>
+      <c r="D175" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" customHeight="1" spans="1:8">
+      <c r="A176" s="94"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
     </row>
     <row r="177" customHeight="1" spans="1:8">
-      <c r="A177" s="79" t="s">
-        <v>462</v>
-      </c>
+      <c r="A177" s="94"/>
       <c r="B177" s="1" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>36</v>
+        <v>467</v>
       </c>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
       <c r="H177" s="3"/>
     </row>
     <row r="178" customHeight="1" spans="1:8">
-      <c r="A178" s="79"/>
+      <c r="A178" s="94"/>
       <c r="B178" s="1"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3" t="s">
-        <v>465</v>
+        <v>376</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
       <c r="H178" s="3"/>
     </row>
     <row r="179" customHeight="1" spans="1:8">
-      <c r="A179" s="79"/>
-      <c r="B179" s="1"/>
+      <c r="A179" s="94"/>
+      <c r="B179" s="1" t="s">
+        <v>469</v>
+      </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>169</v>
+        <v>40</v>
       </c>
       <c r="F179" s="3"/>
       <c r="G179" s="3"/>
       <c r="H179" s="3"/>
     </row>
     <row r="180" customHeight="1" spans="1:8">
-      <c r="A180" s="79"/>
+      <c r="A180" s="94"/>
       <c r="B180" s="1"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>119</v>
+        <v>471</v>
+      </c>
+      <c r="E180" s="23" t="s">
+        <v>472</v>
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
     </row>
     <row r="181" customHeight="1" spans="1:8">
-      <c r="A181" s="79"/>
-      <c r="B181" s="1" t="s">
-        <v>468</v>
-      </c>
+      <c r="A181" s="94"/>
+      <c r="B181" s="1"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
     </row>
     <row r="182" customHeight="1" spans="1:8">
-      <c r="A182" s="79"/>
-      <c r="B182" s="1"/>
+      <c r="A182" s="94"/>
+      <c r="B182" s="1" t="s">
+        <v>475</v>
+      </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3" t="s">
-        <v>123</v>
+        <v>476</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
     </row>
     <row r="183" customHeight="1" spans="1:8">
-      <c r="A183" s="79"/>
-      <c r="B183" s="1" t="s">
-        <v>471</v>
-      </c>
+      <c r="A183" s="94"/>
+      <c r="B183" s="1"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
     </row>
     <row r="184" customHeight="1" spans="1:8">
-      <c r="A184" s="79"/>
+      <c r="A184" s="94"/>
       <c r="B184" s="1"/>
       <c r="C184" s="3"/>
       <c r="D184" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="E184" s="23" t="s">
-        <v>474</v>
+        <v>479</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
     </row>
     <row r="185" customHeight="1" spans="1:8">
-      <c r="A185" s="79"/>
-      <c r="B185" s="1"/>
+      <c r="A185" s="94"/>
+      <c r="B185" s="1" t="s">
+        <v>480</v>
+      </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
     </row>
     <row r="186" customHeight="1" spans="1:8">
-      <c r="A186" s="79"/>
-      <c r="B186" s="1" t="s">
-        <v>477</v>
-      </c>
+      <c r="A186" s="94"/>
+      <c r="B186" s="1"/>
       <c r="C186" s="3"/>
       <c r="D186" s="3" t="s">
-        <v>478</v>
+        <v>317</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
     </row>
     <row r="187" customHeight="1" spans="1:8">
-      <c r="A187" s="79"/>
-      <c r="B187" s="1"/>
+      <c r="A187" s="94"/>
+      <c r="B187" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>169</v>
+        <v>486</v>
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
     </row>
     <row r="188" customHeight="1" spans="1:8">
-      <c r="A188" s="79"/>
+      <c r="A188" s="94"/>
       <c r="B188" s="1"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>119</v>
+        <v>488</v>
       </c>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
     </row>
     <row r="189" customHeight="1" spans="1:8">
-      <c r="A189" s="79"/>
-      <c r="B189" s="1" t="s">
-        <v>482</v>
-      </c>
+      <c r="A189" s="94"/>
+      <c r="B189" s="1"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>484</v>
+        <v>186</v>
       </c>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
     </row>
     <row r="190" customHeight="1" spans="1:8">
-      <c r="A190" s="79"/>
-      <c r="B190" s="1"/>
+      <c r="A190" s="94"/>
+      <c r="B190" s="1" t="s">
+        <v>490</v>
+      </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3" t="s">
-        <v>347</v>
+        <v>491</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
     </row>
     <row r="191" customHeight="1" spans="1:8">
-      <c r="A191" s="79"/>
-      <c r="B191" s="1" t="s">
-        <v>486</v>
-      </c>
+      <c r="A191" s="94"/>
+      <c r="B191" s="1"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3" t="s">
-        <v>487</v>
+        <v>376</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
     </row>
     <row r="192" customHeight="1" spans="1:8">
-      <c r="A192" s="79"/>
+      <c r="A192" s="94"/>
       <c r="B192" s="1"/>
       <c r="C192" s="3"/>
       <c r="D192" s="3" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>490</v>
+        <v>186</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
     </row>
-    <row r="193" customHeight="1" spans="1:8">
-      <c r="A193" s="79"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-    </row>
     <row r="194" customHeight="1" spans="1:8">
-      <c r="A194" s="79"/>
+      <c r="A194" s="95" t="s">
+        <v>495</v>
+      </c>
       <c r="B194" s="1" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C194" s="3"/>
-      <c r="D194" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
+      <c r="D194" s="60" t="s">
+        <v>497</v>
+      </c>
+      <c r="E194" s="60" t="s">
+        <v>498</v>
+      </c>
+      <c r="F194" s="60"/>
+      <c r="G194" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="H194" s="60" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="195" customHeight="1" spans="1:8">
-      <c r="A195" s="79"/>
-      <c r="B195" s="1"/>
+      <c r="A195" s="95"/>
+      <c r="B195" s="36" t="s">
+        <v>500</v>
+      </c>
       <c r="C195" s="3"/>
-      <c r="D195" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>495</v>
+      <c r="D195" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="E195" s="23" t="s">
+        <v>464</v>
       </c>
       <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
+      <c r="G195" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="H195" s="28" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="196" customHeight="1" spans="1:8">
-      <c r="A196" s="79"/>
-      <c r="B196" s="1"/>
+      <c r="A196" s="95"/>
+      <c r="B196" s="36" t="s">
+        <v>503</v>
+      </c>
       <c r="C196" s="3"/>
-      <c r="D196" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>119</v>
+      <c r="D196" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="E196" s="23" t="s">
+        <v>505</v>
       </c>
       <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
+      <c r="G196" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H196" s="23" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="197" customHeight="1" spans="1:8">
+      <c r="A197" s="95"/>
+      <c r="B197" s="36"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="E197" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="F197" s="3"/>
+      <c r="G197" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H197" s="28" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="198" customHeight="1" spans="1:8">
-      <c r="A198" s="80" t="s">
-        <v>497</v>
+      <c r="A198" s="96" t="s">
+        <v>510</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>498</v>
+        <v>511</v>
       </c>
       <c r="C198" s="3"/>
-      <c r="D198" s="53" t="s">
-        <v>499</v>
-      </c>
-      <c r="E198" s="53" t="s">
-        <v>500</v>
-      </c>
-      <c r="F198" s="53"/>
-      <c r="G198" s="53" t="s">
-        <v>501</v>
-      </c>
-      <c r="H198" s="53" t="s">
-        <v>502</v>
-      </c>
+      <c r="D198" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="E198" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="F198" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
     </row>
     <row r="199" customHeight="1" spans="1:8">
-      <c r="A199" s="80"/>
-      <c r="B199" s="54" t="s">
-        <v>503</v>
-      </c>
+      <c r="A199" s="97"/>
+      <c r="B199" s="1"/>
       <c r="C199" s="3"/>
-      <c r="D199" s="23" t="s">
-        <v>465</v>
+      <c r="D199" s="3" t="s">
+        <v>515</v>
       </c>
       <c r="E199" s="23" t="s">
-        <v>466</v>
-      </c>
-      <c r="F199" s="3"/>
+        <v>516</v>
+      </c>
+      <c r="F199" s="23" t="s">
+        <v>517</v>
+      </c>
       <c r="G199" s="23" t="s">
-        <v>504</v>
+        <v>14</v>
       </c>
       <c r="H199" s="23" t="s">
-        <v>505</v>
+        <v>302</v>
       </c>
     </row>
     <row r="200" customHeight="1" spans="1:8">
-      <c r="A200" s="80"/>
-      <c r="B200" s="54" t="s">
-        <v>506</v>
-      </c>
+      <c r="A200" s="97"/>
+      <c r="B200" s="1"/>
       <c r="C200" s="3"/>
-      <c r="D200" s="23" t="s">
-        <v>507</v>
+      <c r="D200" s="60" t="s">
+        <v>518</v>
       </c>
       <c r="E200" s="23" t="s">
-        <v>508</v>
-      </c>
-      <c r="F200" s="3"/>
-      <c r="G200" s="23" t="s">
-        <v>157</v>
-      </c>
-      <c r="H200" s="23" t="s">
-        <v>509</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="F200" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
     </row>
     <row r="201" customHeight="1" spans="1:8">
-      <c r="A201" s="80"/>
-      <c r="B201" s="54"/>
+      <c r="A201" s="97"/>
+      <c r="B201" s="36" t="s">
+        <v>521</v>
+      </c>
       <c r="C201" s="3"/>
       <c r="D201" s="23" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="E201" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="F201" s="3"/>
+        <v>523</v>
+      </c>
+      <c r="F201" s="23" t="s">
+        <v>524</v>
+      </c>
       <c r="G201" s="23" t="s">
-        <v>14</v>
+        <v>525</v>
       </c>
       <c r="H201" s="23" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="202" customHeight="1" spans="1:8">
-      <c r="A202" s="81" t="s">
-        <v>512</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>513</v>
-      </c>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="E202" s="23" t="s">
-        <v>515</v>
-      </c>
-      <c r="F202" s="23" t="s">
-        <v>516</v>
-      </c>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-    </row>
-    <row r="203" customHeight="1" spans="1:8">
-      <c r="A203" s="82"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="E203" s="23" t="s">
-        <v>518</v>
-      </c>
-      <c r="F203" s="23" t="s">
-        <v>519</v>
-      </c>
-      <c r="G203" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H203" s="23" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="204" customHeight="1" spans="1:8">
-      <c r="A204" s="82"/>
-      <c r="B204" s="1"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="53" t="s">
-        <v>520</v>
-      </c>
-      <c r="E204" s="23" t="s">
-        <v>521</v>
-      </c>
-      <c r="F204" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
-    </row>
-    <row r="205" customHeight="1" spans="1:8">
-      <c r="A205" s="82"/>
-      <c r="B205" s="54" t="s">
-        <v>523</v>
-      </c>
-      <c r="C205" s="3"/>
-      <c r="D205" s="23" t="s">
-        <v>524</v>
-      </c>
-      <c r="E205" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="F205" s="23" t="s">
-        <v>526</v>
-      </c>
-      <c r="G205" s="23" t="s">
-        <v>527</v>
-      </c>
-      <c r="H205" s="23" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="99">
+  <mergeCells count="101">
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D15:H15"/>
@@ -6901,100 +7088,102 @@
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="D24:H24"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="D74:H74"/>
-    <mergeCell ref="D75:H75"/>
-    <mergeCell ref="D80:H80"/>
-    <mergeCell ref="D84:H84"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="C121:E121"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="A2:A24"/>
-    <mergeCell ref="A26:A37"/>
-    <mergeCell ref="A39:A55"/>
-    <mergeCell ref="A57:A92"/>
-    <mergeCell ref="A94:A140"/>
-    <mergeCell ref="A142:A155"/>
-    <mergeCell ref="A157:A168"/>
-    <mergeCell ref="A170:A175"/>
-    <mergeCell ref="A177:A196"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D67:H67"/>
+    <mergeCell ref="D72:H72"/>
+    <mergeCell ref="D76:H76"/>
+    <mergeCell ref="C87:H87"/>
+    <mergeCell ref="C88:E88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="C105:E105"/>
+    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="A2:A45"/>
+    <mergeCell ref="A47:A85"/>
+    <mergeCell ref="A87:A133"/>
+    <mergeCell ref="A135:A151"/>
+    <mergeCell ref="A153:A164"/>
+    <mergeCell ref="A166:A171"/>
+    <mergeCell ref="A173:A192"/>
+    <mergeCell ref="A194:A197"/>
     <mergeCell ref="A198:A201"/>
-    <mergeCell ref="A202:A205"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="B17:B24"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="B31:B37"/>
-    <mergeCell ref="B39:B44"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="B51:B55"/>
-    <mergeCell ref="B57:B64"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B70:B84"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="B112:B119"/>
-    <mergeCell ref="B121:B128"/>
-    <mergeCell ref="B130:B135"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="B142:B145"/>
-    <mergeCell ref="B146:B149"/>
-    <mergeCell ref="B150:B155"/>
-    <mergeCell ref="B157:B162"/>
-    <mergeCell ref="B163:B168"/>
-    <mergeCell ref="B170:B172"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="B177:B180"/>
-    <mergeCell ref="B181:B182"/>
-    <mergeCell ref="B183:B185"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="B189:B190"/>
-    <mergeCell ref="B191:B193"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="B200:B201"/>
-    <mergeCell ref="B202:B204"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="B47:B54"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="B62:B76"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="B83:B85"/>
+    <mergeCell ref="B88:B94"/>
+    <mergeCell ref="B96:B103"/>
+    <mergeCell ref="B105:B112"/>
+    <mergeCell ref="B114:B121"/>
+    <mergeCell ref="B123:B128"/>
+    <mergeCell ref="B129:B133"/>
+    <mergeCell ref="B135:B140"/>
+    <mergeCell ref="B141:B146"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="B153:B158"/>
+    <mergeCell ref="B159:B164"/>
+    <mergeCell ref="B166:B168"/>
+    <mergeCell ref="B169:B171"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="B177:B178"/>
+    <mergeCell ref="B179:B181"/>
+    <mergeCell ref="B182:B184"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="B187:B189"/>
+    <mergeCell ref="B190:B192"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="B198:B200"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="C20:C23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C35:C37"/>
-    <mergeCell ref="C39:C42"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C38:C42"/>
     <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C57:C62"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="C67:C68"/>
-    <mergeCell ref="C71:C74"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="C81:C84"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C63:C66"/>
+    <mergeCell ref="C67:C72"/>
+    <mergeCell ref="C73:C76"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="C89:C93"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="C102:C103"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="C110:C112"/>
+    <mergeCell ref="C116:C119"/>
+    <mergeCell ref="C120:C121"/>
+    <mergeCell ref="C135:C138"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="C141:C143"/>
+    <mergeCell ref="C144:C146"/>
+    <mergeCell ref="C147:C148"/>
+    <mergeCell ref="C149:C151"/>
   </mergeCells>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.298611111111111" footer="0.298611111111111"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait"/>
+  <pageMargins left="0.196527777777778" right="0.0784722222222222" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -7016,40 +7205,40 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>102</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>534</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -7058,21 +7247,21 @@
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>36</v>
@@ -7080,7 +7269,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -7088,10 +7277,10 @@
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:2">
@@ -7100,32 +7289,32 @@
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>543</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>310</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -7134,32 +7323,32 @@
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>551</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
       <c r="A21" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>553</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">

--- a/内科学笔记/病和方剂汇总.xlsx
+++ b/内科学笔记/病和方剂汇总.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$47:$H$85</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$47:$H$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="563">
   <si>
     <t>病证系统</t>
   </si>
@@ -1106,7 +1106,7 @@
     <t>半身不遂，肌肤不仁，口舌歪斜，言语不利</t>
   </si>
   <si>
-    <t>病机：阴阳失调，气血逆乱</t>
+    <t>阴阳失调，气血逆乱</t>
   </si>
   <si>
     <t>中经络</t>
@@ -1305,34 +1305,98 @@
     <t>口诀：风痰经各气虚补，肝肾左归地黄饮</t>
   </si>
   <si>
-    <t>癫狂</t>
-  </si>
-  <si>
-    <t>癲</t>
+    <t>脏腑失调或阴阳失衡，产生气滞、火郁、血瘀、痰等病理因素，蒙蔽心窍，引发精神失常</t>
+  </si>
+  <si>
+    <t>调整阴阳，以平为期。初期理气解郁，后期正虚为主</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">癫证
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重阴</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>精神抑郁、表情淡漠、沉默呆钝、语无伦次、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>静而多喜。失去自控力，神志不清</t>
+    </r>
+  </si>
+  <si>
+    <t>虚实证</t>
   </si>
   <si>
     <t>痰气郁闭</t>
   </si>
   <si>
-    <t>顺气导痰汤</t>
+    <t>逍遥散+顺气导痰汤</t>
   </si>
   <si>
     <t>精神抑郁，表情淡漠，神志疾呆</t>
   </si>
   <si>
-    <t>苔腻</t>
+    <t>舌红苔白腻</t>
   </si>
   <si>
     <t>心脾两虚</t>
   </si>
   <si>
-    <t>养心汤</t>
-  </si>
-  <si>
-    <t>神思恍惚，心悸易惊，肢体困乏</t>
-  </si>
-  <si>
-    <t>狂</t>
+    <t>养心汤+越鞠丸</t>
+  </si>
+  <si>
+    <t>神思恍惚，心悸易惊，肢体困乏，面色苍白,食少</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">狂证
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重阳</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>精神亢奋、狂燥不安、毁物打骂、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动而多怒</t>
+    </r>
   </si>
   <si>
     <t>痰火上扰</t>
@@ -1341,12 +1405,27 @@
     <t>生铁落饮</t>
   </si>
   <si>
-    <t>发病急，狂乱无知</t>
+    <t>性情急燥，狂乱无知不避亲疏，面红目赤，头痛失眠</t>
   </si>
   <si>
     <t>弦大滑数</t>
   </si>
   <si>
+    <t>痰热瘀结</t>
+  </si>
+  <si>
+    <t>癲狂梦醒汤</t>
+  </si>
+  <si>
+    <t>日久不愈，面色晦暗</t>
+  </si>
+  <si>
+    <t>暗紫有斑</t>
+  </si>
+  <si>
+    <t>脉弦细</t>
+  </si>
+  <si>
     <t>火盛伤阴</t>
   </si>
   <si>
@@ -1354,6 +1433,9 @@
   </si>
   <si>
     <t>狂病日久成虚证</t>
+  </si>
+  <si>
+    <t>癲狂结痰脾养心，火铁阴二瘀梦狂</t>
   </si>
   <si>
     <t>痫证</t>
@@ -1851,9 +1933,6 @@
   </si>
   <si>
     <t>心胆气虚</t>
-  </si>
-  <si>
-    <t>脉弦细</t>
   </si>
   <si>
     <t>肾系统</t>
@@ -2259,7 +2338,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2316,14 +2395,6 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2754,7 +2825,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -2883,6 +2954,24 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3009,137 +3098,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3284,10 +3373,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3302,12 +3415,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3317,121 +3493,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3747,12 +3869,12 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K80" sqref="K80"/>
+      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="7"/>
@@ -4701,33 +4823,27 @@
     </row>
     <row r="55" ht="9" customHeight="1" spans="1:8">
       <c r="A55" s="43"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55" s="48"/>
+      <c r="H55" s="19"/>
     </row>
     <row r="56" ht="20" customHeight="1" spans="1:8">
       <c r="A56" s="43"/>
-      <c r="B56" s="49" t="s">
+      <c r="B56" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="C56" s="50" t="s">
+      <c r="C56" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="51" t="s">
+      <c r="D56" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="53"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="21"/>
     </row>
     <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="43"/>
-      <c r="B57" s="54"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="36" t="s">
         <v>145</v>
       </c>
@@ -4749,7 +4865,7 @@
     </row>
     <row r="58" customHeight="1" spans="1:8">
       <c r="A58" s="43"/>
-      <c r="B58" s="54"/>
+      <c r="B58" s="45"/>
       <c r="C58" s="36"/>
       <c r="D58" s="23" t="s">
         <v>183</v>
@@ -4769,7 +4885,7 @@
     </row>
     <row r="59" customHeight="1" spans="1:8">
       <c r="A59" s="43"/>
-      <c r="B59" s="54"/>
+      <c r="B59" s="45"/>
       <c r="C59" s="1" t="s">
         <v>170</v>
       </c>
@@ -4791,7 +4907,7 @@
     </row>
     <row r="60" ht="20" customHeight="1" spans="1:8">
       <c r="A60" s="43"/>
-      <c r="B60" s="55"/>
+      <c r="B60" s="46"/>
       <c r="C60" s="1"/>
       <c r="D60" s="23" t="s">
         <v>189</v>
@@ -4811,64 +4927,58 @@
     </row>
     <row r="61" ht="9" customHeight="1" spans="1:8">
       <c r="A61" s="43"/>
-      <c r="H61" s="48"/>
+      <c r="H61" s="19"/>
     </row>
     <row r="62" customHeight="1" spans="1:8">
       <c r="A62" s="43"/>
       <c r="B62" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C62" s="56" t="s">
+      <c r="C62" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="49" t="s">
         <v>193</v>
       </c>
-      <c r="D62" s="57"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="59" t="s">
-        <v>194</v>
-      </c>
-      <c r="G62" s="60"/>
-      <c r="H62" s="60"/>
+      <c r="E62" s="49"/>
+      <c r="F62" s="49"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="49"/>
     </row>
     <row r="63" customHeight="1" spans="1:8">
       <c r="A63" s="43"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>196</v>
-      </c>
-      <c r="E63" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="F63" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="G63" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H63" s="27" t="s">
-        <v>20</v>
-      </c>
+      <c r="C63" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="49" t="s">
+        <v>194</v>
+      </c>
+      <c r="E63" s="49"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="49"/>
+      <c r="H63" s="49"/>
     </row>
     <row r="64" customHeight="1" spans="1:8">
       <c r="A64" s="43"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="36"/>
+      <c r="C64" s="36" t="s">
+        <v>195</v>
+      </c>
       <c r="D64" s="23" t="s">
-        <v>199</v>
-      </c>
-      <c r="E64" s="23" t="s">
-        <v>159</v>
+        <v>196</v>
+      </c>
+      <c r="E64" s="51" t="s">
+        <v>197</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>182</v>
-      </c>
-      <c r="H64" s="23" t="s">
-        <v>161</v>
+        <v>47</v>
+      </c>
+      <c r="H64" s="27" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:8">
@@ -4876,79 +4986,79 @@
       <c r="B65" s="1"/>
       <c r="C65" s="36"/>
       <c r="D65" s="23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E65" s="23" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>205</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:8">
       <c r="A66" s="43"/>
       <c r="B66" s="1"/>
       <c r="C66" s="36"/>
-      <c r="D66" s="16" t="s">
-        <v>206</v>
-      </c>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="18"/>
+      <c r="D66" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="F66" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="H66" s="23" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="67" customHeight="1" spans="1:8">
       <c r="A67" s="43"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="62" t="s">
-        <v>207</v>
-      </c>
-      <c r="D67" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="65"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="18"/>
     </row>
     <row r="68" customHeight="1" spans="1:8">
       <c r="A68" s="43"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E68" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="G68" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H68" s="23" t="s">
-        <v>133</v>
-      </c>
+      <c r="C68" s="52" t="s">
+        <v>207</v>
+      </c>
+      <c r="D68" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="55"/>
     </row>
     <row r="69" customHeight="1" spans="1:8">
       <c r="A69" s="43"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="62"/>
+      <c r="C69" s="52"/>
       <c r="D69" s="23" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E69" s="23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G69" s="23" t="s">
         <v>76</v>
@@ -4960,95 +5070,95 @@
     <row r="70" customHeight="1" spans="1:8">
       <c r="A70" s="43"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="62"/>
+      <c r="C70" s="52"/>
       <c r="D70" s="23" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E70" s="23" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G70" s="23" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="H70" s="23" t="s">
-        <v>218</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:8">
       <c r="A71" s="43"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="62"/>
+      <c r="C71" s="52"/>
       <c r="D71" s="23" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E71" s="23" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G71" s="23" t="s">
-        <v>222</v>
+        <v>47</v>
       </c>
       <c r="H71" s="23" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:8">
       <c r="A72" s="43"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="18"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="E72" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="F72" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="73" customHeight="1" spans="1:8">
       <c r="A73" s="43"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D73" s="23" t="s">
-        <v>225</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="F73" s="23" t="s">
-        <v>227</v>
-      </c>
-      <c r="G73" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="H73" s="23" t="s">
-        <v>229</v>
-      </c>
+      <c r="C73" s="52"/>
+      <c r="D73" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="18"/>
     </row>
     <row r="74" customHeight="1" spans="1:8">
       <c r="A74" s="43"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
+      <c r="C74" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="D74" s="23" t="s">
-        <v>230</v>
-      </c>
-      <c r="E74" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="F74" s="66" t="s">
-        <v>232</v>
+        <v>225</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F74" s="23" t="s">
+        <v>227</v>
       </c>
       <c r="G74" s="23" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
       <c r="H74" s="23" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:8">
@@ -5056,910 +5166,944 @@
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="23" t="s">
-        <v>234</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="F75" s="66" t="s">
-        <v>236</v>
+        <v>230</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F75" s="56" t="s">
+        <v>232</v>
       </c>
       <c r="G75" s="23" t="s">
-        <v>237</v>
+        <v>149</v>
       </c>
       <c r="H75" s="23" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:8">
       <c r="A76" s="43"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="16" t="s">
+      <c r="D76" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F76" s="56" t="s">
+        <v>236</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:8">
+      <c r="A77" s="43"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="18"/>
-    </row>
-    <row r="77" ht="9" customHeight="1" spans="1:8">
-      <c r="A77" s="43"/>
-      <c r="H77" s="48"/>
-    </row>
-    <row r="78" customHeight="1" spans="1:8">
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="18"/>
+    </row>
+    <row r="78" ht="14" customHeight="1" spans="1:8">
       <c r="A78" s="43"/>
-      <c r="B78" s="42" t="s">
+      <c r="H78" s="19"/>
+    </row>
+    <row r="79" ht="20" customHeight="1" spans="1:8">
+      <c r="A79" s="57"/>
+      <c r="B79" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" s="59" t="s">
         <v>240</v>
       </c>
-      <c r="C78" s="42" t="s">
+      <c r="D79" s="60"/>
+      <c r="E79" s="60"/>
+      <c r="F79" s="60"/>
+      <c r="G79" s="60"/>
+      <c r="H79" s="61"/>
+    </row>
+    <row r="80" ht="20" customHeight="1" spans="1:8">
+      <c r="A80" s="57"/>
+      <c r="B80" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="59" t="s">
         <v>241</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="60"/>
+      <c r="G80" s="60"/>
+      <c r="H80" s="61"/>
+    </row>
+    <row r="81" ht="20" customHeight="1" spans="1:8">
+      <c r="A81" s="62"/>
+      <c r="B81" s="63" t="s">
         <v>242</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="C81" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="65" t="s">
         <v>243</v>
       </c>
-      <c r="F78" s="23" t="s">
+      <c r="E81" s="60"/>
+      <c r="F81" s="60"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="61"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:8">
+      <c r="A82" s="62"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="G78" s="23" t="s">
+      <c r="D82" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="H78" s="23" t="s">
+      <c r="E82" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="F82" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="G82" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="H82" s="23" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:8">
-      <c r="A79" s="43"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H79" s="3" t="s">
+    <row r="83" customHeight="1" spans="1:8">
+      <c r="A83" s="62"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E83" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="F83" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H83" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="80" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A80" s="43"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="42" t="s">
-        <v>249</v>
-      </c>
-      <c r="D80" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F80" s="23" t="s">
+    <row r="84" customHeight="1" spans="1:8">
+      <c r="A84" s="62"/>
+      <c r="B84" s="68" t="s">
         <v>252</v>
       </c>
-      <c r="G80" s="23" t="s">
+      <c r="C84" s="69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="65" t="s">
+        <v>253</v>
+      </c>
+      <c r="E84" s="70"/>
+      <c r="F84" s="70"/>
+      <c r="G84" s="70"/>
+      <c r="H84" s="71"/>
+    </row>
+    <row r="85" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A85" s="62"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F85" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="G85" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="H80" s="23" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="81" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A81" s="43"/>
-      <c r="B81" s="46"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="23" t="s">
-        <v>254</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="F81" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="G81" s="23" t="s">
+      <c r="H85" s="23" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="86" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A86" s="62"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="23" t="s">
+        <v>258</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F86" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="G86" s="23" t="s">
+        <v>261</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A87" s="62"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F87" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G87" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="H81" s="23" t="s">
+      <c r="H87" s="23" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" ht="11" customHeight="1" spans="1:8">
-      <c r="A82" s="43"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82" s="48"/>
-    </row>
-    <row r="83" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A83" s="43"/>
-      <c r="B83" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="C83" s="42" t="s">
+    <row r="88" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A88" s="57"/>
+      <c r="B88" s="67" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88" s="72" t="s">
+        <v>266</v>
+      </c>
+      <c r="D88" s="72"/>
+      <c r="E88" s="72"/>
+      <c r="F88" s="72"/>
+      <c r="G88" s="72"/>
+      <c r="H88" s="73"/>
+    </row>
+    <row r="89" ht="11" customHeight="1" spans="1:8">
+      <c r="A89" s="43"/>
+      <c r="H89" s="19"/>
+    </row>
+    <row r="90" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A90" s="43"/>
+      <c r="B90" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="C90" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="D83" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="F83" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3"/>
-    </row>
-    <row r="84" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A84" s="43"/>
-      <c r="B84" s="45"/>
-      <c r="C84" s="46"/>
-      <c r="D84" s="23" t="s">
-        <v>261</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F84" s="23"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3"/>
-    </row>
-    <row r="85" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A85" s="67"/>
-      <c r="B85" s="46"/>
-      <c r="C85" s="46" t="s">
+      <c r="D90" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F90" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A91" s="43"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="23" t="s">
+        <v>271</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F91" s="23"/>
+      <c r="G91" s="3"/>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" ht="19.5" customHeight="1" spans="1:8">
+      <c r="A92" s="74"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="D85" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="E85" s="28" t="s">
-        <v>264</v>
-      </c>
-      <c r="F85" s="23" t="s">
-        <v>265</v>
-      </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3"/>
-    </row>
-    <row r="86" ht="19.5" customHeight="1"/>
-    <row r="87" ht="50.25" customHeight="1" spans="1:8">
-      <c r="A87" s="68" t="s">
-        <v>266</v>
-      </c>
-      <c r="B87" s="69" t="s">
-        <v>267</v>
-      </c>
-      <c r="C87" s="70" t="s">
-        <v>268</v>
-      </c>
-      <c r="D87" s="71"/>
-      <c r="E87" s="71"/>
-      <c r="F87" s="71"/>
-      <c r="G87" s="71"/>
-      <c r="H87" s="72"/>
-    </row>
-    <row r="88" customHeight="1" spans="1:8">
-      <c r="A88" s="73"/>
-      <c r="B88" s="41" t="s">
-        <v>269</v>
-      </c>
-      <c r="C88" s="74" t="s">
-        <v>270</v>
-      </c>
-      <c r="D88" s="74"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="75" t="s">
-        <v>271</v>
-      </c>
-      <c r="G88" s="74" t="s">
-        <v>272</v>
-      </c>
-      <c r="H88" s="74"/>
-    </row>
-    <row r="89" customHeight="1" spans="1:8">
-      <c r="A89" s="73"/>
-      <c r="B89" s="44"/>
-      <c r="C89" s="42" t="s">
+      <c r="D92" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="E92" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="F92" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="3"/>
+    </row>
+    <row r="93" ht="19.5" customHeight="1"/>
+    <row r="94" ht="50.25" customHeight="1" spans="1:8">
+      <c r="A94" s="75" t="s">
+        <v>276</v>
+      </c>
+      <c r="B94" s="76" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" s="77" t="s">
+        <v>278</v>
+      </c>
+      <c r="D94" s="78"/>
+      <c r="E94" s="78"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="78"/>
+      <c r="H94" s="79"/>
+    </row>
+    <row r="95" customHeight="1" spans="1:8">
+      <c r="A95" s="80"/>
+      <c r="B95" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="C95" s="81" t="s">
+        <v>280</v>
+      </c>
+      <c r="D95" s="81"/>
+      <c r="E95" s="81"/>
+      <c r="F95" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="G95" s="81" t="s">
+        <v>282</v>
+      </c>
+      <c r="H95" s="81"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:8">
+      <c r="A96" s="80"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="D89" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="E89" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="F89" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="G89" s="23" t="s">
+      <c r="D96" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="E96" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="G96" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H89" s="23" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="90" customHeight="1" spans="1:8">
-      <c r="A90" s="73"/>
-      <c r="B90" s="44"/>
-      <c r="C90" s="45"/>
-      <c r="D90" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="E90" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="F90" s="23" t="s">
-        <v>279</v>
-      </c>
-      <c r="G90" s="23" t="s">
+      <c r="H96" s="23" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:8">
+      <c r="A97" s="80"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="45"/>
+      <c r="D97" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="G97" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="H90" s="23" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="91" customHeight="1" spans="1:8">
-      <c r="A91" s="73"/>
-      <c r="B91" s="44"/>
-      <c r="C91" s="45"/>
-      <c r="D91" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="E91" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="F91" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="92" customHeight="1" spans="1:8">
-      <c r="A92" s="73"/>
-      <c r="B92" s="44"/>
-      <c r="C92" s="45"/>
-      <c r="D92" s="23" t="s">
-        <v>285</v>
-      </c>
-      <c r="E92" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="F92" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="G92" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H92" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="93" customHeight="1" spans="1:8">
-      <c r="A93" s="73"/>
-      <c r="B93" s="44"/>
-      <c r="C93" s="46"/>
-      <c r="D93" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="E93" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="F93" s="23" t="s">
+      <c r="H97" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="G93" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="H93" s="23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="94" customHeight="1" spans="1:8">
-      <c r="A94" s="73"/>
-      <c r="B94" s="47"/>
-      <c r="C94" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D94" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="E94" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="F94" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="G94" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H94" s="23" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="95" ht="11" customHeight="1" spans="1:1">
-      <c r="A95" s="73"/>
-    </row>
-    <row r="96" customHeight="1" spans="1:8">
-      <c r="A96" s="73"/>
-      <c r="B96" s="41" t="s">
-        <v>296</v>
-      </c>
-      <c r="C96" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="D96" s="17"/>
-      <c r="E96" s="18"/>
-      <c r="F96" s="76" t="s">
-        <v>298</v>
-      </c>
-      <c r="G96" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="H96" s="18"/>
-    </row>
-    <row r="97" customHeight="1" spans="1:8">
-      <c r="A97" s="73"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D97" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="E97" s="23" t="s">
-        <v>274</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="G97" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H97" s="23" t="s">
-        <v>302</v>
-      </c>
     </row>
     <row r="98" customHeight="1" spans="1:8">
-      <c r="A98" s="73"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="44"/>
       <c r="C98" s="45"/>
       <c r="D98" s="23" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="G98" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="H98" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H98" s="3" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:8">
-      <c r="A99" s="73"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="44"/>
       <c r="C99" s="45"/>
       <c r="D99" s="23" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="E99" s="23" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F99" s="23" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G99" s="23" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="H99" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="100" customHeight="1" spans="1:8">
-      <c r="A100" s="73"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="44"/>
-      <c r="C100" s="45"/>
+      <c r="C100" s="46"/>
       <c r="D100" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="F100" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="G100" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="H100" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:8">
+      <c r="A101" s="80"/>
+      <c r="B101" s="47"/>
+      <c r="C101" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="F101" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H101" s="23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" ht="11" customHeight="1" spans="1:1">
+      <c r="A102" s="80"/>
+    </row>
+    <row r="103" customHeight="1" spans="1:8">
+      <c r="A103" s="80"/>
+      <c r="B103" s="41" t="s">
+        <v>306</v>
+      </c>
+      <c r="C103" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="E100" s="23" t="s">
+      <c r="D103" s="17"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="83" t="s">
         <v>308</v>
       </c>
-      <c r="F100" s="23" t="s">
+      <c r="G103" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="G100" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H100" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:8">
-      <c r="A101" s="73"/>
-      <c r="B101" s="44"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="23" t="s">
+      <c r="H103" s="18"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:8">
+      <c r="A104" s="80"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D104" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="E101" s="77" t="s">
+      <c r="E104" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="F104" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="F101" s="23" t="s">
+      <c r="G104" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H104" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="G101" s="23" t="s">
+    </row>
+    <row r="105" customHeight="1" spans="1:8">
+      <c r="A105" s="80"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="H101" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="1:8">
-      <c r="A102" s="73"/>
-      <c r="B102" s="44"/>
-      <c r="C102" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D102" s="23" t="s">
+      <c r="E105" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="E102" s="23" t="s">
+      <c r="F105" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="F102" s="23" t="s">
+      <c r="G105" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="H105" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" customHeight="1" spans="1:8">
+      <c r="A106" s="80"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="45"/>
+      <c r="D106" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="G102" s="23" t="s">
+      <c r="E106" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="F106" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="H102" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" customHeight="1" spans="1:8">
-      <c r="A103" s="73"/>
-      <c r="B103" s="47"/>
-      <c r="C103" s="46"/>
-      <c r="D103" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="E103" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="F103" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="G103" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H103" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="104" ht="12" customHeight="1" spans="1:1">
-      <c r="A104" s="73"/>
-    </row>
-    <row r="105" customHeight="1" spans="1:8">
-      <c r="A105" s="73"/>
-      <c r="B105" s="41" t="s">
-        <v>320</v>
-      </c>
-      <c r="C105" s="56" t="s">
-        <v>321</v>
-      </c>
-      <c r="D105" s="57"/>
-      <c r="E105" s="58"/>
-      <c r="F105" s="78" t="s">
-        <v>322</v>
-      </c>
-      <c r="G105" s="78"/>
-      <c r="H105" s="78"/>
-    </row>
-    <row r="106" customHeight="1" spans="1:8">
-      <c r="A106" s="73"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D106" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E106" s="78" t="s">
-        <v>324</v>
-      </c>
-      <c r="F106" s="23" t="s">
-        <v>325</v>
-      </c>
       <c r="G106" s="23" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H106" s="23" t="s">
-        <v>326</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:8">
-      <c r="A107" s="73"/>
+      <c r="A107" s="80"/>
       <c r="B107" s="44"/>
       <c r="C107" s="45"/>
       <c r="D107" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="E107" s="78" t="s">
-        <v>303</v>
+        <v>317</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="F107" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:8">
+      <c r="A108" s="80"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="E108" s="84" t="s">
+        <v>321</v>
+      </c>
+      <c r="F108" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="G108" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="H108" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:8">
+      <c r="A109" s="80"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="F109" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="G109" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" customHeight="1" spans="1:8">
+      <c r="A110" s="80"/>
+      <c r="B110" s="47"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="G107" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="H107" s="23" t="s">
+      <c r="E110" s="23" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="108" customHeight="1" spans="1:8">
-      <c r="A108" s="73"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="45"/>
-      <c r="D108" s="23" t="s">
+      <c r="F110" s="23" t="s">
         <v>329</v>
       </c>
-      <c r="E108" s="79" t="s">
+      <c r="G110" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" ht="12" customHeight="1" spans="1:1">
+      <c r="A111" s="80"/>
+    </row>
+    <row r="112" customHeight="1" spans="1:8">
+      <c r="A112" s="80"/>
+      <c r="B112" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="F108" s="23" t="s">
+      <c r="C112" s="85" t="s">
         <v>331</v>
       </c>
-      <c r="G108" s="23" t="s">
+      <c r="D112" s="86"/>
+      <c r="E112" s="87"/>
+      <c r="F112" s="88" t="s">
+        <v>332</v>
+      </c>
+      <c r="G112" s="88"/>
+      <c r="H112" s="88"/>
+    </row>
+    <row r="113" customHeight="1" spans="1:8">
+      <c r="A113" s="80"/>
+      <c r="B113" s="44"/>
+      <c r="C113" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D113" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="E113" s="88" t="s">
+        <v>334</v>
+      </c>
+      <c r="F113" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="G113" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H108" s="23" t="s">
+      <c r="H113" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:8">
+      <c r="A114" s="80"/>
+      <c r="B114" s="44"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="E114" s="88" t="s">
+        <v>313</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="H114" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:8">
+      <c r="A115" s="80"/>
+      <c r="B115" s="44"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="E115" s="89" t="s">
+        <v>340</v>
+      </c>
+      <c r="F115" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="G115" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H115" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="109" customHeight="1" spans="1:8">
-      <c r="A109" s="73"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="46"/>
-      <c r="D109" s="27" t="s">
-        <v>305</v>
-      </c>
-      <c r="E109" s="80" t="s">
-        <v>332</v>
-      </c>
-      <c r="F109" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="G109" s="23" t="s">
+    <row r="116" customHeight="1" spans="1:8">
+      <c r="A116" s="80"/>
+      <c r="B116" s="44"/>
+      <c r="C116" s="46"/>
+      <c r="D116" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="E116" s="90" t="s">
+        <v>342</v>
+      </c>
+      <c r="F116" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="G116" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="H109" s="23" t="s">
+      <c r="H116" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="110" customHeight="1" spans="1:8">
-      <c r="A110" s="73"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="45" t="s">
+    <row r="117" customHeight="1" spans="1:8">
+      <c r="A117" s="80"/>
+      <c r="B117" s="44"/>
+      <c r="C117" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="D110" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="E110" s="78" t="s">
-        <v>335</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="H110" s="23" t="s">
+      <c r="D117" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="E117" s="88" t="s">
+        <v>345</v>
+      </c>
+      <c r="F117" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="G117" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="H117" s="23" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="111" customHeight="1" spans="1:8">
-      <c r="A111" s="73"/>
-      <c r="B111" s="44"/>
-      <c r="C111" s="45"/>
-      <c r="D111" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="E111" s="78" t="s">
-        <v>338</v>
-      </c>
-      <c r="F111" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="G111" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="H111" s="23" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="112" customHeight="1" spans="1:8">
-      <c r="A112" s="73"/>
-      <c r="B112" s="47"/>
-      <c r="C112" s="46"/>
-      <c r="D112" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="E112" s="78" t="s">
-        <v>342</v>
-      </c>
-      <c r="F112" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="G112" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="H112" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="113" ht="12" customHeight="1" spans="1:1">
-      <c r="A113" s="73"/>
-    </row>
-    <row r="114" customHeight="1" spans="1:8">
-      <c r="A114" s="73"/>
-      <c r="B114" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="C114" s="81" t="s">
-        <v>63</v>
-      </c>
-      <c r="D114" s="82" t="s">
-        <v>345</v>
-      </c>
-      <c r="E114" s="83"/>
-      <c r="F114" s="83"/>
-      <c r="G114" s="83"/>
-      <c r="H114" s="84"/>
-    </row>
-    <row r="115" customHeight="1" spans="1:8">
-      <c r="A115" s="73"/>
-      <c r="B115" s="44"/>
-      <c r="C115" s="81" t="s">
-        <v>29</v>
-      </c>
-      <c r="D115" s="85" t="s">
-        <v>346</v>
-      </c>
-      <c r="E115" s="85"/>
-      <c r="F115" s="85"/>
-      <c r="G115" s="85"/>
-      <c r="H115" s="85"/>
-    </row>
-    <row r="116" customHeight="1" spans="1:8">
-      <c r="A116" s="73"/>
-      <c r="B116" s="44"/>
-      <c r="C116" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D116" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="E116" s="78" t="s">
-        <v>348</v>
-      </c>
-      <c r="F116" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="G116" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H116" s="23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="117" customHeight="1" spans="1:8">
-      <c r="A117" s="73"/>
-      <c r="B117" s="44"/>
-      <c r="C117" s="45"/>
-      <c r="D117" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="E117" s="78" t="s">
-        <v>351</v>
-      </c>
-      <c r="F117" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="G117" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H117" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
     <row r="118" customHeight="1" spans="1:8">
-      <c r="A118" s="73"/>
+      <c r="A118" s="80"/>
       <c r="B118" s="44"/>
       <c r="C118" s="45"/>
       <c r="D118" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="E118" s="78" t="s">
-        <v>303</v>
+        <v>327</v>
+      </c>
+      <c r="E118" s="88" t="s">
+        <v>348</v>
       </c>
       <c r="F118" s="23" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G118" s="23" t="s">
-        <v>284</v>
+        <v>138</v>
       </c>
       <c r="H118" s="23" t="s">
-        <v>129</v>
+        <v>350</v>
       </c>
     </row>
     <row r="119" customHeight="1" spans="1:8">
-      <c r="A119" s="73"/>
-      <c r="B119" s="44"/>
+      <c r="A119" s="80"/>
+      <c r="B119" s="47"/>
       <c r="C119" s="46"/>
       <c r="D119" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="E119" s="88" t="s">
+        <v>352</v>
+      </c>
+      <c r="F119" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="G119" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="H119" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" ht="12" customHeight="1" spans="1:1">
+      <c r="A120" s="80"/>
+    </row>
+    <row r="121" customHeight="1" spans="1:8">
+      <c r="A121" s="80"/>
+      <c r="B121" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="C121" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" s="92" t="s">
         <v>355</v>
       </c>
-      <c r="E119" s="78" t="s">
+      <c r="E121" s="93"/>
+      <c r="F121" s="93"/>
+      <c r="G121" s="93"/>
+      <c r="H121" s="94"/>
+    </row>
+    <row r="122" customHeight="1" spans="1:8">
+      <c r="A122" s="80"/>
+      <c r="B122" s="44"/>
+      <c r="C122" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="D122" s="95" t="s">
         <v>356</v>
       </c>
-      <c r="F119" s="23" t="s">
+      <c r="E122" s="95"/>
+      <c r="F122" s="95"/>
+      <c r="G122" s="95"/>
+      <c r="H122" s="95"/>
+    </row>
+    <row r="123" customHeight="1" spans="1:8">
+      <c r="A123" s="80"/>
+      <c r="B123" s="44"/>
+      <c r="C123" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D123" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="G119" s="23" t="s">
+      <c r="E123" s="88" t="s">
         <v>358</v>
       </c>
-      <c r="H119" s="23" t="s">
+      <c r="F123" s="23" t="s">
+        <v>359</v>
+      </c>
+      <c r="G123" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H123" s="23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:8">
+      <c r="A124" s="80"/>
+      <c r="B124" s="44"/>
+      <c r="C124" s="45"/>
+      <c r="D124" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="E124" s="88" t="s">
+        <v>361</v>
+      </c>
+      <c r="F124" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="G124" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H124" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:8">
+      <c r="A125" s="80"/>
+      <c r="B125" s="44"/>
+      <c r="C125" s="45"/>
+      <c r="D125" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="E125" s="88" t="s">
+        <v>313</v>
+      </c>
+      <c r="F125" s="23" t="s">
+        <v>364</v>
+      </c>
+      <c r="G125" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="H125" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:8">
+      <c r="A126" s="80"/>
+      <c r="B126" s="44"/>
+      <c r="C126" s="46"/>
+      <c r="D126" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="E126" s="88" t="s">
+        <v>366</v>
+      </c>
+      <c r="F126" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="G126" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="H126" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:8">
-      <c r="A120" s="73"/>
-      <c r="B120" s="44"/>
-      <c r="C120" s="41" t="s">
+    <row r="127" customHeight="1" spans="1:8">
+      <c r="A127" s="80"/>
+      <c r="B127" s="44"/>
+      <c r="C127" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="D120" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="E120" s="78" t="s">
-        <v>360</v>
-      </c>
-      <c r="F120" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="G120" s="23" t="s">
+      <c r="D127" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="E127" s="88" t="s">
+        <v>370</v>
+      </c>
+      <c r="F127" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="G127" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="H120" s="23" t="s">
+      <c r="H127" s="23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="121" customHeight="1" spans="1:8">
-      <c r="A121" s="73"/>
-      <c r="B121" s="47"/>
-      <c r="C121" s="46"/>
-      <c r="D121" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="E121" s="78" t="s">
-        <v>363</v>
-      </c>
-      <c r="F121" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="G121" s="23" t="s">
+    <row r="128" customHeight="1" spans="1:8">
+      <c r="A128" s="80"/>
+      <c r="B128" s="47"/>
+      <c r="C128" s="46"/>
+      <c r="D128" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="E128" s="88" t="s">
+        <v>373</v>
+      </c>
+      <c r="F128" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="G128" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="H121" s="23" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="122" ht="12" customHeight="1" spans="1:8">
-      <c r="A122" s="73"/>
-      <c r="H122" s="48"/>
-    </row>
-    <row r="123" customHeight="1" spans="1:8">
-      <c r="A123" s="73"/>
-      <c r="B123" s="36" t="s">
-        <v>365</v>
-      </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-    </row>
-    <row r="124" customHeight="1" spans="1:8">
-      <c r="A124" s="73"/>
-      <c r="B124" s="36"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-    </row>
-    <row r="125" customHeight="1" spans="1:8">
-      <c r="A125" s="73"/>
-      <c r="B125" s="36"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-    </row>
-    <row r="126" customHeight="1" spans="1:8">
-      <c r="A126" s="73"/>
-      <c r="B126" s="36"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-    </row>
-    <row r="127" customHeight="1" spans="1:8">
-      <c r="A127" s="73"/>
-      <c r="B127" s="36"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-    </row>
-    <row r="128" customHeight="1" spans="1:8">
-      <c r="A128" s="73"/>
-      <c r="B128" s="36"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-    </row>
-    <row r="129" customHeight="1" spans="1:8">
-      <c r="A129" s="73"/>
-      <c r="B129" s="36" t="s">
-        <v>366</v>
-      </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
+      <c r="H128" s="23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="129" ht="12" customHeight="1" spans="1:8">
+      <c r="A129" s="80"/>
+      <c r="H129" s="19"/>
     </row>
     <row r="130" customHeight="1" spans="1:8">
-      <c r="A130" s="73"/>
-      <c r="B130" s="36"/>
+      <c r="A130" s="80"/>
+      <c r="B130" s="36" t="s">
+        <v>375</v>
+      </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -5968,7 +6112,7 @@
       <c r="H130" s="3"/>
     </row>
     <row r="131" customHeight="1" spans="1:8">
-      <c r="A131" s="73"/>
+      <c r="A131" s="80"/>
       <c r="B131" s="36"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -5978,7 +6122,7 @@
       <c r="H131" s="3"/>
     </row>
     <row r="132" customHeight="1" spans="1:8">
-      <c r="A132" s="73"/>
+      <c r="A132" s="80"/>
       <c r="B132" s="36"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -5988,7 +6132,7 @@
       <c r="H132" s="3"/>
     </row>
     <row r="133" customHeight="1" spans="1:8">
-      <c r="A133" s="86"/>
+      <c r="A133" s="80"/>
       <c r="B133" s="36"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -5997,1089 +6141,1161 @@
       <c r="G133" s="3"/>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" customHeight="1" spans="2:2">
-      <c r="B134" s="87"/>
+    <row r="134" customHeight="1" spans="1:8">
+      <c r="A134" s="80"/>
+      <c r="B134" s="36"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+      <c r="E134" s="3"/>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3"/>
     </row>
     <row r="135" customHeight="1" spans="1:8">
-      <c r="A135" s="88" t="s">
-        <v>367</v>
-      </c>
-      <c r="B135" s="41" t="s">
-        <v>368</v>
-      </c>
-      <c r="C135" s="41" t="s">
+      <c r="A135" s="80"/>
+      <c r="B135" s="36"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" customHeight="1" spans="1:8">
+      <c r="A136" s="80"/>
+      <c r="B136" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+      <c r="E136" s="3"/>
+      <c r="F136" s="3"/>
+      <c r="G136" s="3"/>
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" customHeight="1" spans="1:8">
+      <c r="A137" s="80"/>
+      <c r="B137" s="36"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+      <c r="E137" s="3"/>
+      <c r="F137" s="3"/>
+      <c r="G137" s="3"/>
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" customHeight="1" spans="1:8">
+      <c r="A138" s="80"/>
+      <c r="B138" s="36"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" customHeight="1" spans="1:8">
+      <c r="A139" s="80"/>
+      <c r="B139" s="36"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" customHeight="1" spans="1:8">
+      <c r="A140" s="96"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+      <c r="E140" s="3"/>
+      <c r="F140" s="3"/>
+      <c r="G140" s="3"/>
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" customHeight="1" spans="2:2">
+      <c r="B141" s="97"/>
+    </row>
+    <row r="142" customHeight="1" spans="1:8">
+      <c r="A142" s="98" t="s">
+        <v>377</v>
+      </c>
+      <c r="B142" s="41" t="s">
+        <v>378</v>
+      </c>
+      <c r="C142" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="D135" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="E135" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="F135" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="G135" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="H135" s="3"/>
-    </row>
-    <row r="136" customHeight="1" spans="1:8">
-      <c r="A136" s="89"/>
-      <c r="B136" s="44"/>
-      <c r="C136" s="45"/>
-      <c r="D136" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="E136" s="23" t="s">
+      <c r="D142" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="E142" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="F142" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="G142" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" customHeight="1" spans="1:8">
+      <c r="A143" s="99"/>
+      <c r="B143" s="44"/>
+      <c r="C143" s="45"/>
+      <c r="D143" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="E143" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="F136" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="G136" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="H136" s="23" t="s">
+      <c r="F143" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="G143" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="H143" s="23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="137" customHeight="1" spans="1:8">
-      <c r="A137" s="89"/>
-      <c r="B137" s="44"/>
-      <c r="C137" s="45"/>
-      <c r="D137" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="E137" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="F137" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="G137" s="23" t="s">
+    <row r="144" customHeight="1" spans="1:8">
+      <c r="A144" s="99"/>
+      <c r="B144" s="44"/>
+      <c r="C144" s="45"/>
+      <c r="D144" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E144" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="F144" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="G144" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="H137" s="23" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="138" customHeight="1" spans="1:8">
-      <c r="A138" s="89"/>
-      <c r="B138" s="44"/>
-      <c r="C138" s="46"/>
-      <c r="D138" s="23" t="s">
+      <c r="H144" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="145" customHeight="1" spans="1:8">
+      <c r="A145" s="99"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="46"/>
+      <c r="D145" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="E145" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>392</v>
+      </c>
+      <c r="G145" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="H145" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="146" customHeight="1" spans="1:8">
+      <c r="A146" s="99"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D146" s="23" t="s">
+        <v>394</v>
+      </c>
+      <c r="E146" s="23" t="s">
+        <v>395</v>
+      </c>
+      <c r="F146" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="G146" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H146" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:8">
+      <c r="A147" s="99"/>
+      <c r="B147" s="47"/>
+      <c r="C147" s="46"/>
+      <c r="D147" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="E147" s="23" t="s">
+        <v>398</v>
+      </c>
+      <c r="F147" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="G147" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="H147" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:8">
+      <c r="A148" s="99"/>
+      <c r="B148" s="41" t="s">
+        <v>400</v>
+      </c>
+      <c r="C148" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D148" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:8">
+      <c r="A149" s="99"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="45"/>
+      <c r="D149" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:8">
+      <c r="A150" s="99"/>
+      <c r="B150" s="44"/>
+      <c r="C150" s="46"/>
+      <c r="D150" s="23" t="s">
+        <v>408</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:8">
+      <c r="A151" s="99"/>
+      <c r="B151" s="44"/>
+      <c r="C151" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D151" s="23" t="s">
+        <v>411</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="152" customHeight="1" spans="1:8">
+      <c r="A152" s="99"/>
+      <c r="B152" s="44"/>
+      <c r="C152" s="45"/>
+      <c r="D152" s="100" t="s">
+        <v>414</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="153" customHeight="1" spans="1:8">
+      <c r="A153" s="99"/>
+      <c r="B153" s="47"/>
+      <c r="C153" s="46"/>
+      <c r="D153" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="154" customHeight="1" spans="1:8">
+      <c r="A154" s="99"/>
+      <c r="B154" s="41" t="s">
+        <v>421</v>
+      </c>
+      <c r="C154" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D154" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="155" customHeight="1" spans="1:8">
+      <c r="A155" s="99"/>
+      <c r="B155" s="44"/>
+      <c r="C155" s="46"/>
+      <c r="D155" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:8">
+      <c r="A156" s="99"/>
+      <c r="B156" s="44"/>
+      <c r="C156" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D156" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:8">
+      <c r="A157" s="99"/>
+      <c r="B157" s="44"/>
+      <c r="C157" s="45"/>
+      <c r="D157" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:8">
+      <c r="A158" s="101"/>
+      <c r="B158" s="47"/>
+      <c r="C158" s="46"/>
+      <c r="D158" s="23" t="s">
+        <v>431</v>
+      </c>
+      <c r="E158" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E138" s="28" t="s">
+      <c r="F158" s="23" t="s">
         <v>381</v>
       </c>
-      <c r="F138" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="G138" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="H138" s="23" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="139" customHeight="1" spans="1:8">
-      <c r="A139" s="89"/>
-      <c r="B139" s="44"/>
-      <c r="C139" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D139" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="E139" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="F139" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="G139" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H139" s="23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="140" customHeight="1" spans="1:8">
-      <c r="A140" s="89"/>
-      <c r="B140" s="47"/>
-      <c r="C140" s="46"/>
-      <c r="D140" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="E140" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="F140" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="G140" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="H140" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="141" customHeight="1" spans="1:8">
-      <c r="A141" s="89"/>
-      <c r="B141" s="41" t="s">
-        <v>390</v>
-      </c>
-      <c r="C141" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D141" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="142" customHeight="1" spans="1:8">
-      <c r="A142" s="89"/>
-      <c r="B142" s="44"/>
-      <c r="C142" s="45"/>
-      <c r="D142" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="143" customHeight="1" spans="1:8">
-      <c r="A143" s="89"/>
-      <c r="B143" s="44"/>
-      <c r="C143" s="46"/>
-      <c r="D143" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="144" customHeight="1" spans="1:8">
-      <c r="A144" s="89"/>
-      <c r="B144" s="44"/>
-      <c r="C144" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D144" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="145" customHeight="1" spans="1:8">
-      <c r="A145" s="89"/>
-      <c r="B145" s="44"/>
-      <c r="C145" s="45"/>
-      <c r="D145" s="90" t="s">
-        <v>404</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="146" customHeight="1" spans="1:8">
-      <c r="A146" s="89"/>
-      <c r="B146" s="47"/>
-      <c r="C146" s="46"/>
-      <c r="D146" s="23" t="s">
-        <v>407</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="G146" s="3" t="s">
+      <c r="G158" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H146" s="3" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="147" customHeight="1" spans="1:8">
-      <c r="A147" s="89"/>
-      <c r="B147" s="41" t="s">
-        <v>411</v>
-      </c>
-      <c r="C147" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D147" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="E147" s="3" t="s">
+      <c r="H158" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="F147" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="G147" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H147" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="148" customHeight="1" spans="1:8">
-      <c r="A148" s="89"/>
-      <c r="B148" s="44"/>
-      <c r="C148" s="46"/>
-      <c r="D148" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="G148" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="H148" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="149" customHeight="1" spans="1:8">
-      <c r="A149" s="89"/>
-      <c r="B149" s="44"/>
-      <c r="C149" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D149" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="150" customHeight="1" spans="1:8">
-      <c r="A150" s="89"/>
-      <c r="B150" s="44"/>
-      <c r="C150" s="45"/>
-      <c r="D150" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F150" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="G150" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="H150" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="151" customHeight="1" spans="1:8">
-      <c r="A151" s="91"/>
-      <c r="B151" s="47"/>
-      <c r="C151" s="46"/>
-      <c r="D151" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="F151" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="G151" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H151" s="3" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="153" customHeight="1" spans="1:8">
-      <c r="A153" s="92" t="s">
-        <v>423</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="F153" s="3"/>
-      <c r="G153" s="3"/>
-      <c r="H153" s="3"/>
-    </row>
-    <row r="154" customHeight="1" spans="1:8">
-      <c r="A154" s="92"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F154" s="3"/>
-      <c r="G154" s="3"/>
-      <c r="H154" s="3"/>
-    </row>
-    <row r="155" customHeight="1" spans="1:8">
-      <c r="A155" s="92"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="F155" s="3"/>
-      <c r="G155" s="3"/>
-      <c r="H155" s="3"/>
-    </row>
-    <row r="156" customHeight="1" spans="1:8">
-      <c r="A156" s="92"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="E156" s="3" t="s">
+    </row>
+    <row r="160" customHeight="1" spans="1:8">
+      <c r="A160" s="102" t="s">
         <v>432</v>
       </c>
-      <c r="F156" s="3"/>
-      <c r="G156" s="3"/>
-      <c r="H156" s="3"/>
-    </row>
-    <row r="157" customHeight="1" spans="1:8">
-      <c r="A157" s="92"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3" t="s">
+      <c r="B160" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="C160" s="3"/>
+      <c r="D160" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="F157" s="3"/>
-      <c r="G157" s="3"/>
-      <c r="H157" s="3"/>
-    </row>
-    <row r="158" customHeight="1" spans="1:8">
-      <c r="A158" s="92"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="3"/>
-      <c r="D158" s="3" t="s">
+      <c r="E160" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="E158" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
-      <c r="H158" s="3"/>
-    </row>
-    <row r="159" customHeight="1" spans="1:8">
-      <c r="A159" s="92"/>
-      <c r="B159" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C159" s="3"/>
-      <c r="D159" s="60" t="s">
-        <v>438</v>
-      </c>
-      <c r="E159" s="60" t="s">
-        <v>439</v>
-      </c>
-      <c r="F159" s="60"/>
-      <c r="G159" s="60"/>
-      <c r="H159" s="60"/>
-    </row>
-    <row r="160" customHeight="1" spans="1:8">
-      <c r="A160" s="92"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="3"/>
-      <c r="D160" s="60" t="s">
-        <v>440</v>
-      </c>
-      <c r="E160" s="60" t="s">
-        <v>441</v>
-      </c>
-      <c r="F160" s="60"/>
-      <c r="G160" s="60"/>
-      <c r="H160" s="60"/>
+      <c r="F160" s="3"/>
+      <c r="G160" s="3"/>
+      <c r="H160" s="3"/>
     </row>
     <row r="161" customHeight="1" spans="1:8">
-      <c r="A161" s="92"/>
+      <c r="A161" s="102"/>
       <c r="B161" s="1"/>
       <c r="C161" s="3"/>
-      <c r="D161" s="60" t="s">
-        <v>442</v>
-      </c>
-      <c r="E161" s="60" t="s">
-        <v>443</v>
-      </c>
-      <c r="F161" s="60"/>
-      <c r="G161" s="60"/>
-      <c r="H161" s="60"/>
+      <c r="D161" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F161" s="3"/>
+      <c r="G161" s="3"/>
+      <c r="H161" s="3"/>
     </row>
     <row r="162" customHeight="1" spans="1:8">
-      <c r="A162" s="92"/>
+      <c r="A162" s="102"/>
       <c r="B162" s="1"/>
       <c r="C162" s="3"/>
-      <c r="D162" s="60" t="s">
-        <v>444</v>
-      </c>
-      <c r="E162" s="78" t="s">
-        <v>445</v>
-      </c>
-      <c r="F162" s="60"/>
-      <c r="G162" s="60"/>
-      <c r="H162" s="60"/>
+      <c r="D162" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F162" s="3"/>
+      <c r="G162" s="3"/>
+      <c r="H162" s="3"/>
     </row>
     <row r="163" customHeight="1" spans="1:8">
-      <c r="A163" s="92"/>
+      <c r="A163" s="102"/>
       <c r="B163" s="1"/>
       <c r="C163" s="3"/>
-      <c r="D163" s="60" t="s">
-        <v>446</v>
-      </c>
-      <c r="E163" s="60" t="s">
-        <v>447</v>
-      </c>
-      <c r="F163" s="60"/>
-      <c r="G163" s="60"/>
-      <c r="H163" s="60"/>
+      <c r="D163" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="F163" s="3"/>
+      <c r="G163" s="3"/>
+      <c r="H163" s="3"/>
     </row>
     <row r="164" customHeight="1" spans="1:8">
-      <c r="A164" s="92"/>
+      <c r="A164" s="102"/>
       <c r="B164" s="1"/>
       <c r="C164" s="3"/>
-      <c r="D164" s="60" t="s">
+      <c r="D164" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="F164" s="3"/>
+      <c r="G164" s="3"/>
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" customHeight="1" spans="1:8">
+      <c r="A165" s="102"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E165" s="23" t="s">
+        <v>445</v>
+      </c>
+      <c r="F165" s="3"/>
+      <c r="G165" s="3"/>
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" customHeight="1" spans="1:8">
+      <c r="A166" s="102"/>
+      <c r="B166" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="103" t="s">
+        <v>447</v>
+      </c>
+      <c r="E166" s="103" t="s">
         <v>448</v>
       </c>
-      <c r="E164" s="60" t="s">
+      <c r="F166" s="103"/>
+      <c r="G166" s="103"/>
+      <c r="H166" s="103"/>
+    </row>
+    <row r="167" customHeight="1" spans="1:8">
+      <c r="A167" s="102"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="103" t="s">
         <v>449</v>
       </c>
-      <c r="F164" s="60"/>
-      <c r="G164" s="60"/>
-      <c r="H164" s="60"/>
-    </row>
-    <row r="166" customHeight="1" spans="1:8">
-      <c r="A166" s="93" t="s">
+      <c r="E167" s="103" t="s">
         <v>450</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C166" s="3"/>
-      <c r="D166" s="60" t="s">
+      <c r="F167" s="103"/>
+      <c r="G167" s="103"/>
+      <c r="H167" s="103"/>
+    </row>
+    <row r="168" customHeight="1" spans="1:8">
+      <c r="A168" s="102"/>
+      <c r="B168" s="1"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="103" t="s">
         <v>451</v>
       </c>
-      <c r="E166" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="F166" s="60"/>
-      <c r="G166" s="60"/>
-      <c r="H166" s="60"/>
-    </row>
-    <row r="167" customHeight="1" spans="1:8">
-      <c r="A167" s="93"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="3" t="s">
+      <c r="E168" s="103" t="s">
         <v>452</v>
       </c>
-      <c r="D167" s="60" t="s">
+      <c r="F168" s="103"/>
+      <c r="G168" s="103"/>
+      <c r="H168" s="103"/>
+    </row>
+    <row r="169" customHeight="1" spans="1:8">
+      <c r="A169" s="102"/>
+      <c r="B169" s="1"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="103" t="s">
         <v>453</v>
       </c>
-      <c r="E167" s="78" t="s">
+      <c r="E169" s="88" t="s">
         <v>454</v>
       </c>
-      <c r="F167" s="60"/>
-      <c r="G167" s="60"/>
-      <c r="H167" s="60"/>
-    </row>
-    <row r="168" customHeight="1" spans="1:8">
-      <c r="A168" s="93"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="D168" s="60" t="s">
-        <v>456</v>
-      </c>
-      <c r="E168" s="60" t="s">
-        <v>457</v>
-      </c>
-      <c r="F168" s="60"/>
-      <c r="G168" s="60"/>
-      <c r="H168" s="60"/>
-    </row>
-    <row r="169" customHeight="1" spans="1:8">
-      <c r="A169" s="93"/>
-      <c r="B169" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C169" s="3"/>
-      <c r="D169" s="60" t="s">
-        <v>458</v>
-      </c>
-      <c r="E169" s="60" t="s">
-        <v>459</v>
-      </c>
-      <c r="F169" s="60"/>
-      <c r="G169" s="60"/>
-      <c r="H169" s="60"/>
+      <c r="F169" s="103"/>
+      <c r="G169" s="103"/>
+      <c r="H169" s="103"/>
     </row>
     <row r="170" customHeight="1" spans="1:8">
-      <c r="A170" s="93"/>
+      <c r="A170" s="102"/>
       <c r="B170" s="1"/>
       <c r="C170" s="3"/>
-      <c r="D170" s="60" t="s">
-        <v>246</v>
-      </c>
-      <c r="E170" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="F170" s="60"/>
-      <c r="G170" s="60"/>
-      <c r="H170" s="60"/>
+      <c r="D170" s="103" t="s">
+        <v>455</v>
+      </c>
+      <c r="E170" s="103" t="s">
+        <v>456</v>
+      </c>
+      <c r="F170" s="103"/>
+      <c r="G170" s="103"/>
+      <c r="H170" s="103"/>
     </row>
     <row r="171" customHeight="1" spans="1:8">
-      <c r="A171" s="93"/>
+      <c r="A171" s="102"/>
       <c r="B171" s="1"/>
       <c r="C171" s="3"/>
-      <c r="D171" s="60" t="s">
-        <v>401</v>
-      </c>
-      <c r="E171" s="60" t="s">
-        <v>377</v>
-      </c>
-      <c r="F171" s="60"/>
-      <c r="G171" s="60"/>
-      <c r="H171" s="60"/>
+      <c r="D171" s="103" t="s">
+        <v>457</v>
+      </c>
+      <c r="E171" s="103" t="s">
+        <v>458</v>
+      </c>
+      <c r="F171" s="103"/>
+      <c r="G171" s="103"/>
+      <c r="H171" s="103"/>
     </row>
     <row r="173" customHeight="1" spans="1:8">
-      <c r="A173" s="94" t="s">
+      <c r="A173" s="104" t="s">
+        <v>459</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C173" s="3"/>
+      <c r="D173" s="103" t="s">
         <v>460</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="E173" s="103" t="s">
+        <v>296</v>
+      </c>
+      <c r="F173" s="103"/>
+      <c r="G173" s="103"/>
+      <c r="H173" s="103"/>
+    </row>
+    <row r="174" customHeight="1" spans="1:8">
+      <c r="A174" s="104"/>
+      <c r="B174" s="1"/>
+      <c r="C174" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3" t="s">
+      <c r="D174" s="103" t="s">
         <v>462</v>
       </c>
-      <c r="E173" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-    </row>
-    <row r="174" customHeight="1" spans="1:8">
-      <c r="A174" s="94"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3" t="s">
+      <c r="E174" s="88" t="s">
         <v>463</v>
       </c>
-      <c r="E174" s="3" t="s">
+      <c r="F174" s="103"/>
+      <c r="G174" s="103"/>
+      <c r="H174" s="103"/>
+    </row>
+    <row r="175" customHeight="1" spans="1:8">
+      <c r="A175" s="104"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-    </row>
-    <row r="175" customHeight="1" spans="1:8">
-      <c r="A175" s="94"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3" t="s">
+      <c r="D175" s="103" t="s">
         <v>465</v>
       </c>
-      <c r="E175" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
+      <c r="E175" s="103" t="s">
+        <v>466</v>
+      </c>
+      <c r="F175" s="103"/>
+      <c r="G175" s="103"/>
+      <c r="H175" s="103"/>
     </row>
     <row r="176" customHeight="1" spans="1:8">
-      <c r="A176" s="94"/>
-      <c r="B176" s="1"/>
+      <c r="A176" s="104"/>
+      <c r="B176" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="C176" s="3"/>
-      <c r="D176" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E176" s="3" t="s">
+      <c r="D176" s="103" t="s">
+        <v>467</v>
+      </c>
+      <c r="E176" s="103" t="s">
+        <v>468</v>
+      </c>
+      <c r="F176" s="103"/>
+      <c r="G176" s="103"/>
+      <c r="H176" s="103"/>
+    </row>
+    <row r="177" customHeight="1" spans="1:8">
+      <c r="A177" s="104"/>
+      <c r="B177" s="1"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="E177" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-    </row>
-    <row r="177" customHeight="1" spans="1:8">
-      <c r="A177" s="94"/>
-      <c r="B177" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
+      <c r="F177" s="103"/>
+      <c r="G177" s="103"/>
+      <c r="H177" s="103"/>
     </row>
     <row r="178" customHeight="1" spans="1:8">
-      <c r="A178" s="94"/>
+      <c r="A178" s="104"/>
       <c r="B178" s="1"/>
       <c r="C178" s="3"/>
-      <c r="D178" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-    </row>
-    <row r="179" customHeight="1" spans="1:8">
-      <c r="A179" s="94"/>
-      <c r="B179" s="1" t="s">
+      <c r="D178" s="103" t="s">
+        <v>411</v>
+      </c>
+      <c r="E178" s="103" t="s">
+        <v>387</v>
+      </c>
+      <c r="F178" s="103"/>
+      <c r="G178" s="103"/>
+      <c r="H178" s="103"/>
+    </row>
+    <row r="180" customHeight="1" spans="1:8">
+      <c r="A180" s="105" t="s">
         <v>469</v>
       </c>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3" t="s">
+      <c r="B180" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="E179" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-    </row>
-    <row r="180" customHeight="1" spans="1:8">
-      <c r="A180" s="94"/>
-      <c r="B180" s="1"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="E180" s="23" t="s">
-        <v>472</v>
+      <c r="E180" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F180" s="3"/>
       <c r="G180" s="3"/>
       <c r="H180" s="3"/>
     </row>
     <row r="181" customHeight="1" spans="1:8">
-      <c r="A181" s="94"/>
+      <c r="A181" s="105"/>
       <c r="B181" s="1"/>
       <c r="C181" s="3"/>
       <c r="D181" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E181" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>474</v>
       </c>
       <c r="F181" s="3"/>
       <c r="G181" s="3"/>
       <c r="H181" s="3"/>
     </row>
     <row r="182" customHeight="1" spans="1:8">
-      <c r="A182" s="94"/>
-      <c r="B182" s="1" t="s">
-        <v>475</v>
-      </c>
+      <c r="A182" s="105"/>
+      <c r="B182" s="1"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>477</v>
+        <v>272</v>
       </c>
       <c r="F182" s="3"/>
       <c r="G182" s="3"/>
       <c r="H182" s="3"/>
     </row>
     <row r="183" customHeight="1" spans="1:8">
-      <c r="A183" s="94"/>
+      <c r="A183" s="105"/>
       <c r="B183" s="1"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3" t="s">
-        <v>478</v>
+        <v>185</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="F183" s="3"/>
       <c r="G183" s="3"/>
       <c r="H183" s="3"/>
     </row>
     <row r="184" customHeight="1" spans="1:8">
-      <c r="A184" s="94"/>
-      <c r="B184" s="1"/>
+      <c r="A184" s="105"/>
+      <c r="B184" s="1" t="s">
+        <v>475</v>
+      </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>186</v>
+        <v>476</v>
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
       <c r="H184" s="3"/>
     </row>
     <row r="185" customHeight="1" spans="1:8">
-      <c r="A185" s="94"/>
-      <c r="B185" s="1" t="s">
-        <v>480</v>
-      </c>
+      <c r="A185" s="105"/>
+      <c r="B185" s="1"/>
       <c r="C185" s="3"/>
       <c r="D185" s="3" t="s">
-        <v>481</v>
+        <v>386</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
       <c r="H185" s="3"/>
     </row>
     <row r="186" customHeight="1" spans="1:8">
-      <c r="A186" s="94"/>
-      <c r="B186" s="1"/>
+      <c r="A186" s="105"/>
+      <c r="B186" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3" t="s">
-        <v>317</v>
+        <v>479</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>483</v>
+        <v>40</v>
       </c>
       <c r="F186" s="3"/>
       <c r="G186" s="3"/>
       <c r="H186" s="3"/>
     </row>
     <row r="187" customHeight="1" spans="1:8">
-      <c r="A187" s="94"/>
-      <c r="B187" s="1" t="s">
-        <v>484</v>
-      </c>
+      <c r="A187" s="105"/>
+      <c r="B187" s="1"/>
       <c r="C187" s="3"/>
       <c r="D187" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="E187" s="3" t="s">
-        <v>486</v>
+        <v>480</v>
+      </c>
+      <c r="E187" s="23" t="s">
+        <v>481</v>
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
       <c r="H187" s="3"/>
     </row>
     <row r="188" customHeight="1" spans="1:8">
-      <c r="A188" s="94"/>
+      <c r="A188" s="105"/>
       <c r="B188" s="1"/>
       <c r="C188" s="3"/>
       <c r="D188" s="3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F188" s="3"/>
       <c r="G188" s="3"/>
       <c r="H188" s="3"/>
     </row>
     <row r="189" customHeight="1" spans="1:8">
-      <c r="A189" s="94"/>
-      <c r="B189" s="1"/>
+      <c r="A189" s="105"/>
+      <c r="B189" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>186</v>
+        <v>486</v>
       </c>
       <c r="F189" s="3"/>
       <c r="G189" s="3"/>
       <c r="H189" s="3"/>
     </row>
     <row r="190" customHeight="1" spans="1:8">
-      <c r="A190" s="94"/>
-      <c r="B190" s="1" t="s">
-        <v>490</v>
-      </c>
+      <c r="A190" s="105"/>
+      <c r="B190" s="1"/>
       <c r="C190" s="3"/>
       <c r="D190" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>492</v>
+        <v>272</v>
       </c>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
       <c r="H190" s="3"/>
     </row>
     <row r="191" customHeight="1" spans="1:8">
-      <c r="A191" s="94"/>
+      <c r="A191" s="105"/>
       <c r="B191" s="1"/>
       <c r="C191" s="3"/>
       <c r="D191" s="3" t="s">
-        <v>376</v>
+        <v>488</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>493</v>
+        <v>186</v>
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="3"/>
       <c r="H191" s="3"/>
     </row>
     <row r="192" customHeight="1" spans="1:8">
-      <c r="A192" s="94"/>
-      <c r="B192" s="1"/>
+      <c r="A192" s="105"/>
+      <c r="B192" s="1" t="s">
+        <v>489</v>
+      </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>186</v>
+        <v>491</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
       <c r="H192" s="3"/>
     </row>
+    <row r="193" customHeight="1" spans="1:8">
+      <c r="A193" s="105"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
+    </row>
     <row r="194" customHeight="1" spans="1:8">
-      <c r="A194" s="95" t="s">
+      <c r="A194" s="105"/>
+      <c r="B194" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="E194" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
+    </row>
+    <row r="195" customHeight="1" spans="1:8">
+      <c r="A195" s="105"/>
+      <c r="B195" s="1"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="C194" s="3"/>
-      <c r="D194" s="60" t="s">
+      <c r="E195" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="E194" s="60" t="s">
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" customHeight="1" spans="1:8">
+      <c r="A196" s="105"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="F194" s="60"/>
-      <c r="G194" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="H194" s="60" t="s">
+      <c r="E196" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+    </row>
+    <row r="197" customHeight="1" spans="1:8">
+      <c r="A197" s="105"/>
+      <c r="B197" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="195" customHeight="1" spans="1:8">
-      <c r="A195" s="95"/>
-      <c r="B195" s="36" t="s">
+      <c r="C197" s="3"/>
+      <c r="D197" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="C195" s="3"/>
-      <c r="D195" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="E195" s="23" t="s">
-        <v>464</v>
-      </c>
-      <c r="F195" s="3"/>
-      <c r="G195" s="23" t="s">
+      <c r="E197" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="H195" s="28" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="196" customHeight="1" spans="1:8">
-      <c r="A196" s="95"/>
-      <c r="B196" s="36" t="s">
-        <v>503</v>
-      </c>
-      <c r="C196" s="3"/>
-      <c r="D196" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="E196" s="23" t="s">
-        <v>505</v>
-      </c>
-      <c r="F196" s="3"/>
-      <c r="G196" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H196" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="197" customHeight="1" spans="1:8">
-      <c r="A197" s="95"/>
-      <c r="B197" s="36"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="23" t="s">
-        <v>507</v>
-      </c>
-      <c r="E197" s="23" t="s">
-        <v>508</v>
-      </c>
       <c r="F197" s="3"/>
-      <c r="G197" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H197" s="28" t="s">
-        <v>509</v>
-      </c>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
     </row>
     <row r="198" customHeight="1" spans="1:8">
-      <c r="A198" s="96" t="s">
-        <v>510</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>511</v>
-      </c>
+      <c r="A198" s="105"/>
+      <c r="B198" s="1"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="E198" s="23" t="s">
-        <v>513</v>
-      </c>
-      <c r="F198" s="23" t="s">
-        <v>514</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F198" s="3"/>
       <c r="G198" s="3"/>
       <c r="H198" s="3"/>
     </row>
     <row r="199" customHeight="1" spans="1:8">
-      <c r="A199" s="97"/>
+      <c r="A199" s="105"/>
       <c r="B199" s="1"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+    </row>
+    <row r="201" customHeight="1" spans="1:8">
+      <c r="A201" s="106" t="s">
+        <v>504</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C201" s="3"/>
+      <c r="D201" s="103" t="s">
+        <v>506</v>
+      </c>
+      <c r="E201" s="103" t="s">
+        <v>507</v>
+      </c>
+      <c r="F201" s="103"/>
+      <c r="G201" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="H201" s="103" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="202" customHeight="1" spans="1:8">
+      <c r="A202" s="106"/>
+      <c r="B202" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="C202" s="3"/>
+      <c r="D202" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="E202" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="F202" s="3"/>
+      <c r="G202" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="H202" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="203" customHeight="1" spans="1:8">
+      <c r="A203" s="106"/>
+      <c r="B203" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="C203" s="3"/>
+      <c r="D203" s="23" t="s">
+        <v>513</v>
+      </c>
+      <c r="E203" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="F203" s="3"/>
+      <c r="G203" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H203" s="23" t="s">
         <v>515</v>
       </c>
-      <c r="E199" s="23" t="s">
+    </row>
+    <row r="204" customHeight="1" spans="1:8">
+      <c r="A204" s="106"/>
+      <c r="B204" s="36"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="23" t="s">
         <v>516</v>
       </c>
-      <c r="F199" s="23" t="s">
+      <c r="E204" s="23" t="s">
         <v>517</v>
       </c>
-      <c r="G199" s="23" t="s">
+      <c r="F204" s="3"/>
+      <c r="G204" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H199" s="23" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="200" customHeight="1" spans="1:8">
-      <c r="A200" s="97"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="60" t="s">
+      <c r="H204" s="28" t="s">
         <v>518</v>
       </c>
-      <c r="E200" s="23" t="s">
+    </row>
+    <row r="205" customHeight="1" spans="1:8">
+      <c r="A205" s="107" t="s">
         <v>519</v>
       </c>
-      <c r="F200" s="23" t="s">
+      <c r="B205" s="1" t="s">
         <v>520</v>
       </c>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-    </row>
-    <row r="201" customHeight="1" spans="1:8">
-      <c r="A201" s="97"/>
-      <c r="B201" s="36" t="s">
+      <c r="C205" s="3"/>
+      <c r="D205" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C201" s="3"/>
-      <c r="D201" s="23" t="s">
+      <c r="E205" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="E201" s="23" t="s">
+      <c r="F205" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="F201" s="23" t="s">
+      <c r="G205" s="3"/>
+      <c r="H205" s="3"/>
+    </row>
+    <row r="206" customHeight="1" spans="1:8">
+      <c r="A206" s="108"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="G201" s="23" t="s">
+      <c r="E206" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="H201" s="23" t="s">
+      <c r="F206" s="23" t="s">
+        <v>526</v>
+      </c>
+      <c r="G206" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H206" s="23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="207" customHeight="1" spans="1:8">
+      <c r="A207" s="108"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="103" t="s">
+        <v>527</v>
+      </c>
+      <c r="E207" s="23" t="s">
+        <v>528</v>
+      </c>
+      <c r="F207" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="G207" s="3"/>
+      <c r="H207" s="3"/>
+    </row>
+    <row r="208" customHeight="1" spans="1:8">
+      <c r="A208" s="108"/>
+      <c r="B208" s="36" t="s">
+        <v>530</v>
+      </c>
+      <c r="C208" s="3"/>
+      <c r="D208" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="E208" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="F208" s="23" t="s">
+        <v>533</v>
+      </c>
+      <c r="G208" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="H208" s="23" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="101">
+  <mergeCells count="108">
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D15:H15"/>
@@ -7097,27 +7313,33 @@
     <mergeCell ref="D37:H37"/>
     <mergeCell ref="D45:H45"/>
     <mergeCell ref="D56:H56"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="D66:H66"/>
+    <mergeCell ref="D62:H62"/>
+    <mergeCell ref="D63:H63"/>
     <mergeCell ref="D67:H67"/>
-    <mergeCell ref="D72:H72"/>
-    <mergeCell ref="D76:H76"/>
-    <mergeCell ref="C87:H87"/>
-    <mergeCell ref="C88:E88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="C105:E105"/>
-    <mergeCell ref="D115:H115"/>
+    <mergeCell ref="D68:H68"/>
+    <mergeCell ref="D73:H73"/>
+    <mergeCell ref="D77:H77"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:H80"/>
+    <mergeCell ref="D81:H81"/>
+    <mergeCell ref="D84:H84"/>
+    <mergeCell ref="C88:H88"/>
+    <mergeCell ref="C94:H94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="C103:E103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="D122:H122"/>
     <mergeCell ref="A2:A45"/>
-    <mergeCell ref="A47:A85"/>
-    <mergeCell ref="A87:A133"/>
-    <mergeCell ref="A135:A151"/>
-    <mergeCell ref="A153:A164"/>
-    <mergeCell ref="A166:A171"/>
-    <mergeCell ref="A173:A192"/>
-    <mergeCell ref="A194:A197"/>
-    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="A47:A92"/>
+    <mergeCell ref="A94:A140"/>
+    <mergeCell ref="A142:A158"/>
+    <mergeCell ref="A160:A171"/>
+    <mergeCell ref="A173:A178"/>
+    <mergeCell ref="A180:A199"/>
+    <mergeCell ref="A201:A204"/>
+    <mergeCell ref="A205:A208"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="B17:B24"/>
@@ -7125,31 +7347,32 @@
     <mergeCell ref="B35:B45"/>
     <mergeCell ref="B47:B54"/>
     <mergeCell ref="B56:B60"/>
-    <mergeCell ref="B62:B76"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="B83:B85"/>
-    <mergeCell ref="B88:B94"/>
-    <mergeCell ref="B96:B103"/>
-    <mergeCell ref="B105:B112"/>
-    <mergeCell ref="B114:B121"/>
-    <mergeCell ref="B123:B128"/>
-    <mergeCell ref="B129:B133"/>
-    <mergeCell ref="B135:B140"/>
-    <mergeCell ref="B141:B146"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="B153:B158"/>
-    <mergeCell ref="B159:B164"/>
-    <mergeCell ref="B166:B168"/>
-    <mergeCell ref="B169:B171"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="B177:B178"/>
-    <mergeCell ref="B179:B181"/>
-    <mergeCell ref="B182:B184"/>
-    <mergeCell ref="B185:B186"/>
-    <mergeCell ref="B187:B189"/>
-    <mergeCell ref="B190:B192"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="B62:B77"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="B84:B87"/>
+    <mergeCell ref="B90:B92"/>
+    <mergeCell ref="B95:B101"/>
+    <mergeCell ref="B103:B110"/>
+    <mergeCell ref="B112:B119"/>
+    <mergeCell ref="B121:B128"/>
+    <mergeCell ref="B130:B135"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="B148:B153"/>
+    <mergeCell ref="B154:B158"/>
+    <mergeCell ref="B160:B165"/>
+    <mergeCell ref="B166:B171"/>
+    <mergeCell ref="B173:B175"/>
+    <mergeCell ref="B176:B178"/>
+    <mergeCell ref="B180:B183"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="B186:B188"/>
+    <mergeCell ref="B189:B191"/>
+    <mergeCell ref="B192:B193"/>
+    <mergeCell ref="B194:B196"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="B203:B204"/>
+    <mergeCell ref="B205:B207"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C14"/>
@@ -7162,25 +7385,25 @@
     <mergeCell ref="C53:C54"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C63:C66"/>
-    <mergeCell ref="C67:C72"/>
-    <mergeCell ref="C73:C76"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="C83:C84"/>
-    <mergeCell ref="C89:C93"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="C102:C103"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="C110:C112"/>
-    <mergeCell ref="C116:C119"/>
-    <mergeCell ref="C120:C121"/>
-    <mergeCell ref="C135:C138"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="C141:C143"/>
-    <mergeCell ref="C144:C146"/>
-    <mergeCell ref="C147:C148"/>
-    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="C64:C67"/>
+    <mergeCell ref="C68:C73"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C85:C87"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="C96:C100"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C113:C116"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C146:C147"/>
+    <mergeCell ref="C148:C150"/>
+    <mergeCell ref="C151:C153"/>
+    <mergeCell ref="C154:C155"/>
+    <mergeCell ref="C156:C158"/>
   </mergeCells>
   <pageMargins left="0.196527777777778" right="0.0784722222222222" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="600"/>
@@ -7205,40 +7428,40 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -7247,21 +7470,21 @@
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>537</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>538</v>
+        <v>547</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>36</v>
@@ -7269,7 +7492,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -7277,7 +7500,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>122</v>
@@ -7289,32 +7512,32 @@
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -7323,32 +7546,32 @@
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>547</v>
+        <v>556</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">

--- a/内科学笔记/病和方剂汇总.xlsx
+++ b/内科学笔记/病和方剂汇总.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$47:$H$92</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$94:$H$152</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="595">
   <si>
     <t>病证系统</t>
   </si>
@@ -1312,6 +1312,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">癫证
 </t>
     </r>
@@ -1328,6 +1335,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>精神抑郁、表情淡漠、沉默呆钝、语无伦次、</t>
     </r>
     <r>
@@ -1368,6 +1382,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">狂证
 </t>
     </r>
@@ -1384,6 +1405,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>精神亢奋、狂燥不安、毁物打骂、</t>
     </r>
     <r>
@@ -1482,10 +1510,7 @@
     <t>胃脘以下，耻骨毛际以上部位疼痛</t>
   </si>
   <si>
-    <t>病机：脏腑气机阻滞，气血运行不畅，脉络痹阻</t>
-  </si>
-  <si>
-    <t>脾、胃、肝、胆</t>
+    <t>脏腑气机阻滞，气血运行不畅，脉络痹阻。病位在：脾、胃、肝、胆</t>
   </si>
   <si>
     <t>寒邪内阻</t>
@@ -1563,10 +1588,7 @@
     <t>上腹胃脘部近心窝处疼痛</t>
   </si>
   <si>
-    <t>病机：胃气郁滞，胃失和降，不通则痛</t>
-  </si>
-  <si>
-    <t>与肝脾相关</t>
+    <t>胃气郁滞，胃失和降，不通则痛。病位在胃，与肝脾相关</t>
   </si>
   <si>
     <t>寒邪客胃</t>
@@ -1632,10 +1654,7 @@
     <t>呕吐</t>
   </si>
   <si>
-    <t>胃失和降，胃气上逆</t>
-  </si>
-  <si>
-    <t>病位在胃，与肝、脾相关</t>
+    <t>胃失和降，胃气上逆。病位在胃，与肝、脾相关。所以和胃降逆是主要治疗原则</t>
   </si>
   <si>
     <t>外邪犯胃</t>
@@ -1644,7 +1663,7 @@
     <t>霍香正气散</t>
   </si>
   <si>
-    <t>突然呕吐，胸脘满闷，发热恶寒</t>
+    <t>突然呕吐，胸脘满闷，伴恶寒发热，头身疼痛</t>
   </si>
   <si>
     <t>脉濡缓</t>
@@ -1662,7 +1681,7 @@
     <t>小半夏汤+苓桂术甘汤</t>
   </si>
   <si>
-    <t>呕吐清水痰涎，头眩心悸</t>
+    <t>呕吐清水痰涎，脘痞满闷，头眩心悸</t>
   </si>
   <si>
     <t>四七汤</t>
@@ -1704,13 +1723,37 @@
     <t>泄泻</t>
   </si>
   <si>
-    <t>排便次数增多，稀溏甚至泻出水洋为主</t>
-  </si>
-  <si>
-    <t>脾病淡盛，脾胃运化失常，肠道失司。涉及到脾、胃、大肠和小肠。  治疗原则：运脾化湿</t>
-  </si>
-  <si>
-    <t>外感风寒湿</t>
+    <t>排便次数增多，稀溏甚至泻出水洋为主症</t>
+  </si>
+  <si>
+    <r>
+      <t>脾虚湿盛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，肠道失司。涉及到脾、胃、大肠和小肠</t>
+    </r>
+  </si>
+  <si>
+    <t>病理</t>
+  </si>
+  <si>
+    <t>主要是湿，所以治疗以运脾化湿为主</t>
+  </si>
+  <si>
+    <t>九法</t>
+  </si>
+  <si>
+    <t>淡渗、升提、清凉、疏利、甘缓、酸收、燥脾、温肾、固涩</t>
+  </si>
+  <si>
+    <t>寒湿内盛</t>
   </si>
   <si>
     <t>藿香正气散</t>
@@ -1719,7 +1762,38 @@
     <t>泄泻清稀，腹痛肠鸣，恶寒、发热头痛，肢体酸痛</t>
   </si>
   <si>
-    <t>外感湿热</t>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>湿</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>热</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中阻</t>
+    </r>
   </si>
   <si>
     <t>葛根芩连汤</t>
@@ -1728,6 +1802,40 @@
     <t>泻下急迫，色黄味臭，肛门灼热，小便短赤</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>脉</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>滑</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数</t>
+    </r>
+  </si>
+  <si>
     <t>食滞肠胃</t>
   </si>
   <si>
@@ -1758,13 +1866,205 @@
     <t>肾阳虚衰</t>
   </si>
   <si>
-    <t>四神丸（治五更泻）</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>四神丸(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>五更泻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <t>五更泻，泻后痛减，完谷不化。喜暖喜按腰膝酸软</t>
   </si>
   <si>
+    <t>寒藿热葛肾四神，食保肝痛脾参苓</t>
+  </si>
+  <si>
     <t>痢疾</t>
+  </si>
+  <si>
+    <t>腹痛、里急后重、下痢赤白脓血为主症的传染病</t>
+  </si>
+  <si>
+    <t>邪滞肠腑，气血壅滞，肠道传导失常，脂络受伤而成痢。</t>
+  </si>
+  <si>
+    <t>因素</t>
+  </si>
+  <si>
+    <r>
+      <t>以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>湿热疫毒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为主，病位在肠，与脾胃肾相关，病理性质分寒热虚实</t>
+    </r>
+  </si>
+  <si>
+    <t>治法</t>
+  </si>
+  <si>
+    <t>调气则后重自除，行血则便脓自愈。赤多重用血药，白多重用气药</t>
+  </si>
+  <si>
+    <t>禁忌</t>
+  </si>
+  <si>
+    <t>1、过早补涩  2、峻下攻伐  3、分利小便</t>
+  </si>
+  <si>
+    <t>湿热痢</t>
+  </si>
+  <si>
+    <t>芍药汤</t>
+  </si>
+  <si>
+    <t>痢下赤白脓血，腥臭，肛门灼热，小便短赤</t>
+  </si>
+  <si>
+    <t>疫毒痢</t>
+  </si>
+  <si>
+    <t>白头翁汤</t>
+  </si>
+  <si>
+    <t>痢下鲜紫脓血，腹痛剧烈，壮热口渴，甚则神昏</t>
+  </si>
+  <si>
+    <t>舌红绛苔黄腻</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>寒</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>湿痢</t>
+    </r>
+  </si>
+  <si>
+    <t>不换金正气散</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>痢下白多赤少，腹痛</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拘急</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，口淡乏味，头身困重</t>
+    </r>
+  </si>
+  <si>
+    <t>阴虚痢</t>
+  </si>
+  <si>
+    <t>驻车丸</t>
+  </si>
+  <si>
+    <t>痢下日久不愈，脓血黏稠，心烦口干</t>
+  </si>
+  <si>
+    <t>桃花汤+真人养脏</t>
+  </si>
+  <si>
+    <t>赤白清稀，无腥臭。腹隐痛，喜温喜按，神疲肢冷</t>
+  </si>
+  <si>
+    <t>休息痢</t>
+  </si>
+  <si>
+    <t>连理汤</t>
+  </si>
+  <si>
+    <t>时发时止，日久不愈，由实转虚</t>
+  </si>
+  <si>
+    <t>舌淡苔腻</t>
+  </si>
+  <si>
+    <t>脉虚数</t>
+  </si>
+  <si>
+    <t>湿芍毒白阴驻车，寒正息连虚寒真</t>
   </si>
   <si>
     <t>便秘</t>
@@ -2338,7 +2638,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2410,6 +2710,14 @@
     <font>
       <b/>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2825,7 +3133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -2982,6 +3290,17 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -3098,133 +3417,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3379,31 +3698,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3415,108 +3836,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3535,7 +3854,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -3544,16 +3863,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3869,12 +4188,12 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F85" sqref="F85"/>
+      <selection pane="bottomLeft" activeCell="K133" sqref="K133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="7"/>
@@ -3883,10 +4202,10 @@
     <col min="2" max="2" width="8.125" customWidth="1"/>
     <col min="3" max="3" width="10.25" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
-    <col min="6" max="6" width="45.25" customWidth="1"/>
-    <col min="7" max="7" width="12.75" customWidth="1"/>
-    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="5" max="5" width="14.9666666666667" customWidth="1"/>
+    <col min="6" max="6" width="45.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="10.4666666666667" customWidth="1"/>
+    <col min="8" max="8" width="9.675" customWidth="1"/>
     <col min="9" max="9" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4948,7 +5267,7 @@
     <row r="63" customHeight="1" spans="1:8">
       <c r="A63" s="43"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="50" t="s">
+      <c r="C63" s="48" t="s">
         <v>29</v>
       </c>
       <c r="D63" s="49" t="s">
@@ -4968,7 +5287,7 @@
       <c r="D64" s="23" t="s">
         <v>196</v>
       </c>
-      <c r="E64" s="51" t="s">
+      <c r="E64" s="50" t="s">
         <v>197</v>
       </c>
       <c r="F64" s="23" t="s">
@@ -5036,21 +5355,21 @@
     <row r="68" customHeight="1" spans="1:8">
       <c r="A68" s="43"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="52" t="s">
+      <c r="C68" s="51" t="s">
         <v>207</v>
       </c>
-      <c r="D68" s="53" t="s">
+      <c r="D68" s="52" t="s">
         <v>208</v>
       </c>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="55"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="54"/>
     </row>
     <row r="69" customHeight="1" spans="1:8">
       <c r="A69" s="43"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="52"/>
+      <c r="C69" s="51"/>
       <c r="D69" s="23" t="s">
         <v>209</v>
       </c>
@@ -5070,7 +5389,7 @@
     <row r="70" customHeight="1" spans="1:8">
       <c r="A70" s="43"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="52"/>
+      <c r="C70" s="51"/>
       <c r="D70" s="23" t="s">
         <v>212</v>
       </c>
@@ -5090,7 +5409,7 @@
     <row r="71" customHeight="1" spans="1:8">
       <c r="A71" s="43"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="52"/>
+      <c r="C71" s="51"/>
       <c r="D71" s="23" t="s">
         <v>215</v>
       </c>
@@ -5110,7 +5429,7 @@
     <row r="72" customHeight="1" spans="1:8">
       <c r="A72" s="43"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="52"/>
+      <c r="C72" s="51"/>
       <c r="D72" s="23" t="s">
         <v>219</v>
       </c>
@@ -5130,7 +5449,7 @@
     <row r="73" customHeight="1" spans="1:8">
       <c r="A73" s="43"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="52"/>
+      <c r="C73" s="51"/>
       <c r="D73" s="16" t="s">
         <v>224</v>
       </c>
@@ -5171,7 +5490,7 @@
       <c r="E75" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="F75" s="56" t="s">
+      <c r="F75" s="55" t="s">
         <v>232</v>
       </c>
       <c r="G75" s="23" t="s">
@@ -5191,7 +5510,7 @@
       <c r="E76" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="F76" s="56" t="s">
+      <c r="F76" s="55" t="s">
         <v>236</v>
       </c>
       <c r="G76" s="23" t="s">
@@ -5218,52 +5537,52 @@
       <c r="H78" s="19"/>
     </row>
     <row r="79" ht="20" customHeight="1" spans="1:8">
-      <c r="A79" s="57"/>
-      <c r="B79" s="58" t="s">
+      <c r="A79" s="56"/>
+      <c r="B79" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="59" t="s">
+      <c r="C79" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="D79" s="60"/>
-      <c r="E79" s="60"/>
-      <c r="F79" s="60"/>
-      <c r="G79" s="60"/>
-      <c r="H79" s="61"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="20"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="20"/>
+      <c r="H79" s="21"/>
     </row>
     <row r="80" ht="20" customHeight="1" spans="1:8">
-      <c r="A80" s="57"/>
-      <c r="B80" s="58" t="s">
+      <c r="A80" s="56"/>
+      <c r="B80" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="59" t="s">
+      <c r="C80" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="D80" s="60"/>
-      <c r="E80" s="60"/>
-      <c r="F80" s="60"/>
-      <c r="G80" s="60"/>
-      <c r="H80" s="61"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="20"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="20"/>
+      <c r="H80" s="21"/>
     </row>
     <row r="81" ht="20" customHeight="1" spans="1:8">
-      <c r="A81" s="62"/>
-      <c r="B81" s="63" t="s">
+      <c r="A81" s="56"/>
+      <c r="B81" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="C81" s="64" t="s">
+      <c r="C81" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="65" t="s">
+      <c r="D81" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="E81" s="60"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="61"/>
+      <c r="E81" s="20"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="20"/>
+      <c r="H81" s="21"/>
     </row>
     <row r="82" customHeight="1" spans="1:8">
-      <c r="A82" s="62"/>
-      <c r="B82" s="66"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="45"/>
       <c r="C82" s="9" t="s">
         <v>244</v>
       </c>
@@ -5284,8 +5603,8 @@
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:8">
-      <c r="A83" s="62"/>
-      <c r="B83" s="67"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="46"/>
       <c r="C83" s="14"/>
       <c r="D83" s="23" t="s">
         <v>249</v>
@@ -5304,24 +5623,24 @@
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:8">
-      <c r="A84" s="62"/>
-      <c r="B84" s="68" t="s">
+      <c r="A84" s="56"/>
+      <c r="B84" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="C84" s="69" t="s">
+      <c r="C84" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="65" t="s">
+      <c r="D84" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="E84" s="70"/>
-      <c r="F84" s="70"/>
-      <c r="G84" s="70"/>
-      <c r="H84" s="71"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="18"/>
     </row>
     <row r="85" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A85" s="62"/>
-      <c r="B85" s="66"/>
+      <c r="A85" s="56"/>
+      <c r="B85" s="45"/>
       <c r="C85" s="1" t="s">
         <v>145</v>
       </c>
@@ -5342,8 +5661,8 @@
       </c>
     </row>
     <row r="86" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A86" s="62"/>
-      <c r="B86" s="66"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="45"/>
       <c r="C86" s="1"/>
       <c r="D86" s="23" t="s">
         <v>258</v>
@@ -5362,8 +5681,8 @@
       </c>
     </row>
     <row r="87" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A87" s="62"/>
-      <c r="B87" s="67"/>
+      <c r="A87" s="56"/>
+      <c r="B87" s="46"/>
       <c r="C87" s="1"/>
       <c r="D87" s="23" t="s">
         <v>263</v>
@@ -5382,18 +5701,18 @@
       </c>
     </row>
     <row r="88" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A88" s="57"/>
-      <c r="B88" s="67" t="s">
+      <c r="A88" s="56"/>
+      <c r="B88" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C88" s="72" t="s">
+      <c r="C88" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="D88" s="72"/>
-      <c r="E88" s="72"/>
-      <c r="F88" s="72"/>
-      <c r="G88" s="72"/>
-      <c r="H88" s="73"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="58"/>
     </row>
     <row r="89" ht="11" customHeight="1" spans="1:8">
       <c r="A89" s="43"/>
@@ -5434,7 +5753,7 @@
       <c r="H91" s="3"/>
     </row>
     <row r="92" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A92" s="74"/>
+      <c r="A92" s="59"/>
       <c r="B92" s="46"/>
       <c r="C92" s="46" t="s">
         <v>170</v>
@@ -5453,1582 +5772,1624 @@
     </row>
     <row r="93" ht="19.5" customHeight="1"/>
     <row r="94" ht="50.25" customHeight="1" spans="1:8">
-      <c r="A94" s="75" t="s">
+      <c r="A94" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="B94" s="76" t="s">
+      <c r="B94" s="61" t="s">
         <v>277</v>
       </c>
-      <c r="C94" s="77" t="s">
+      <c r="C94" s="62" t="s">
         <v>278</v>
       </c>
-      <c r="D94" s="78"/>
-      <c r="E94" s="78"/>
-      <c r="F94" s="78"/>
-      <c r="G94" s="78"/>
-      <c r="H94" s="79"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="63"/>
+      <c r="F94" s="63"/>
+      <c r="G94" s="63"/>
+      <c r="H94" s="64"/>
     </row>
     <row r="95" customHeight="1" spans="1:8">
-      <c r="A95" s="80"/>
+      <c r="A95" s="65"/>
       <c r="B95" s="41" t="s">
         <v>279</v>
       </c>
-      <c r="C95" s="81" t="s">
+      <c r="C95" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="D95" s="81"/>
-      <c r="E95" s="81"/>
-      <c r="F95" s="82" t="s">
+      <c r="E95" s="67"/>
+      <c r="F95" s="67"/>
+      <c r="G95" s="67"/>
+      <c r="H95" s="67"/>
+    </row>
+    <row r="96" customHeight="1" spans="1:8">
+      <c r="A96" s="65"/>
+      <c r="B96" s="68"/>
+      <c r="C96" s="69" t="s">
+        <v>29</v>
+      </c>
+      <c r="D96" s="70" t="s">
         <v>281</v>
       </c>
-      <c r="G95" s="81" t="s">
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="72"/>
+    </row>
+    <row r="97" customHeight="1" spans="1:8">
+      <c r="A97" s="65"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D97" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="H95" s="81"/>
-    </row>
-    <row r="96" customHeight="1" spans="1:8">
-      <c r="A96" s="80"/>
-      <c r="B96" s="44"/>
-      <c r="C96" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D96" s="23" t="s">
+      <c r="E97" s="23" t="s">
         <v>283</v>
       </c>
-      <c r="E96" s="23" t="s">
+      <c r="F97" s="23" t="s">
         <v>284</v>
       </c>
-      <c r="F96" s="23" t="s">
+      <c r="G97" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H97" s="23" t="s">
         <v>285</v>
       </c>
-      <c r="G96" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H96" s="23" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="97" customHeight="1" spans="1:8">
-      <c r="A97" s="80"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="45"/>
-      <c r="D97" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="E97" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="G97" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="H97" s="23" t="s">
-        <v>290</v>
-      </c>
     </row>
     <row r="98" customHeight="1" spans="1:8">
-      <c r="A98" s="80"/>
+      <c r="A98" s="65"/>
       <c r="B98" s="44"/>
       <c r="C98" s="45"/>
       <c r="D98" s="23" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E98" s="23" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="G98" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>129</v>
+        <v>288</v>
+      </c>
+      <c r="G98" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H98" s="23" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="99" customHeight="1" spans="1:8">
-      <c r="A99" s="80"/>
+      <c r="A99" s="65"/>
       <c r="B99" s="44"/>
       <c r="C99" s="45"/>
       <c r="D99" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="F99" s="23" t="s">
+        <v>292</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:8">
+      <c r="A100" s="65"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="45"/>
+      <c r="D100" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="E100" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="E99" s="23" t="s">
+      <c r="F100" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="F99" s="23" t="s">
+      <c r="G100" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:8">
+      <c r="A101" s="65"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="G99" s="23" t="s">
+      <c r="E101" s="23" t="s">
+        <v>298</v>
+      </c>
+      <c r="F101" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="G101" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="H101" s="23" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:8">
+      <c r="A102" s="65"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="F102" s="23" t="s">
+        <v>303</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H102" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="103" ht="11" customHeight="1" spans="1:1">
+      <c r="A103" s="65"/>
+    </row>
+    <row r="104" customHeight="1" spans="1:8">
+      <c r="A104" s="65"/>
+      <c r="B104" s="41" t="s">
+        <v>305</v>
+      </c>
+      <c r="C104" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="74" t="s">
+        <v>306</v>
+      </c>
+      <c r="E104" s="74"/>
+      <c r="F104" s="74"/>
+      <c r="G104" s="74"/>
+      <c r="H104" s="74"/>
+    </row>
+    <row r="105" customHeight="1" spans="1:8">
+      <c r="A105" s="65"/>
+      <c r="B105" s="68"/>
+      <c r="C105" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D105" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="E105" s="75"/>
+      <c r="F105" s="75"/>
+      <c r="G105" s="75"/>
+      <c r="H105" s="76"/>
+    </row>
+    <row r="106" customHeight="1" spans="1:8">
+      <c r="A106" s="65"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="F106" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="G106" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H99" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="100" customHeight="1" spans="1:8">
-      <c r="A100" s="80"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="46"/>
-      <c r="D100" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="E100" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="F100" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="G100" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="H100" s="23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:8">
-      <c r="A101" s="80"/>
-      <c r="B101" s="47"/>
-      <c r="C101" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D101" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="E101" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="F101" s="23" t="s">
-        <v>304</v>
-      </c>
-      <c r="G101" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H101" s="23" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="102" ht="11" customHeight="1" spans="1:1">
-      <c r="A102" s="80"/>
-    </row>
-    <row r="103" customHeight="1" spans="1:8">
-      <c r="A103" s="80"/>
-      <c r="B103" s="41" t="s">
-        <v>306</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="D103" s="17"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="83" t="s">
-        <v>308</v>
-      </c>
-      <c r="G103" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="H103" s="18"/>
-    </row>
-    <row r="104" customHeight="1" spans="1:8">
-      <c r="A104" s="80"/>
-      <c r="B104" s="44"/>
-      <c r="C104" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D104" s="23" t="s">
+      <c r="H106" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="E104" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="F104" s="23" t="s">
-        <v>311</v>
-      </c>
-      <c r="G104" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H104" s="23" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="105" customHeight="1" spans="1:8">
-      <c r="A105" s="80"/>
-      <c r="B105" s="44"/>
-      <c r="C105" s="45"/>
-      <c r="D105" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="E105" s="23" t="s">
-        <v>313</v>
-      </c>
-      <c r="F105" s="23" t="s">
-        <v>314</v>
-      </c>
-      <c r="G105" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="H105" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="106" customHeight="1" spans="1:8">
-      <c r="A106" s="80"/>
-      <c r="B106" s="44"/>
-      <c r="C106" s="45"/>
-      <c r="D106" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="E106" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="F106" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="G106" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="H106" s="23" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="107" customHeight="1" spans="1:8">
-      <c r="A107" s="80"/>
+      <c r="A107" s="65"/>
       <c r="B107" s="44"/>
       <c r="C107" s="45"/>
       <c r="D107" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="G107" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="108" customHeight="1" spans="1:8">
+      <c r="A108" s="65"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="45"/>
+      <c r="D108" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>295</v>
+      </c>
+      <c r="F108" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="G108" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H108" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="1:8">
+      <c r="A109" s="65"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="45"/>
+      <c r="D109" s="23" t="s">
+        <v>315</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="F109" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="E107" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="F107" s="23" t="s">
-        <v>319</v>
-      </c>
-      <c r="G107" s="23" t="s">
+      <c r="G109" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="H107" s="23" t="s">
+      <c r="H109" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="108" customHeight="1" spans="1:8">
-      <c r="A108" s="80"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="46"/>
-      <c r="D108" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="E108" s="84" t="s">
-        <v>321</v>
-      </c>
-      <c r="F108" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="G108" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="H108" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:8">
-      <c r="A109" s="80"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D109" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="F109" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="G109" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="H109" s="23" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="110" customHeight="1" spans="1:8">
-      <c r="A110" s="80"/>
-      <c r="B110" s="47"/>
+      <c r="A110" s="65"/>
+      <c r="B110" s="44"/>
       <c r="C110" s="46"/>
       <c r="D110" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="E110" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="F110" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="G110" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" customHeight="1" spans="1:8">
+      <c r="A111" s="65"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D111" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="E111" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="F111" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="G111" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="H111" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" customHeight="1" spans="1:8">
+      <c r="A112" s="65"/>
+      <c r="B112" s="47"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="E112" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="F112" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="E110" s="23" t="s">
+      <c r="G112" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H112" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" ht="12" customHeight="1" spans="1:1">
+      <c r="A113" s="65"/>
+    </row>
+    <row r="114" customHeight="1" spans="1:8">
+      <c r="A114" s="65"/>
+      <c r="B114" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="F110" s="23" t="s">
+      <c r="C114" s="77" t="s">
+        <v>29</v>
+      </c>
+      <c r="D114" s="78" t="s">
         <v>329</v>
       </c>
-      <c r="G110" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H110" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="111" ht="12" customHeight="1" spans="1:1">
-      <c r="A111" s="80"/>
-    </row>
-    <row r="112" customHeight="1" spans="1:8">
-      <c r="A112" s="80"/>
-      <c r="B112" s="41" t="s">
+      <c r="E114" s="78"/>
+      <c r="F114" s="78"/>
+      <c r="G114" s="78"/>
+      <c r="H114" s="78"/>
+    </row>
+    <row r="115" customHeight="1" spans="1:8">
+      <c r="A115" s="65"/>
+      <c r="B115" s="44"/>
+      <c r="C115" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D115" s="23" t="s">
         <v>330</v>
       </c>
-      <c r="C112" s="85" t="s">
+      <c r="E115" s="79" t="s">
         <v>331</v>
       </c>
-      <c r="D112" s="86"/>
-      <c r="E112" s="87"/>
-      <c r="F112" s="88" t="s">
+      <c r="F115" s="23" t="s">
         <v>332</v>
-      </c>
-      <c r="G112" s="88"/>
-      <c r="H112" s="88"/>
-    </row>
-    <row r="113" customHeight="1" spans="1:8">
-      <c r="A113" s="80"/>
-      <c r="B113" s="44"/>
-      <c r="C113" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D113" s="23" t="s">
-        <v>333</v>
-      </c>
-      <c r="E113" s="88" t="s">
-        <v>334</v>
-      </c>
-      <c r="F113" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="G113" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H113" s="23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="114" customHeight="1" spans="1:8">
-      <c r="A114" s="80"/>
-      <c r="B114" s="44"/>
-      <c r="C114" s="45"/>
-      <c r="D114" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="E114" s="88" t="s">
-        <v>313</v>
-      </c>
-      <c r="F114" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="G114" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="H114" s="23" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="115" customHeight="1" spans="1:8">
-      <c r="A115" s="80"/>
-      <c r="B115" s="44"/>
-      <c r="C115" s="45"/>
-      <c r="D115" s="23" t="s">
-        <v>339</v>
-      </c>
-      <c r="E115" s="89" t="s">
-        <v>340</v>
-      </c>
-      <c r="F115" s="23" t="s">
-        <v>341</v>
       </c>
       <c r="G115" s="23" t="s">
         <v>47</v>
       </c>
       <c r="H115" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:8">
+      <c r="A116" s="65"/>
+      <c r="B116" s="44"/>
+      <c r="C116" s="45"/>
+      <c r="D116" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="E116" s="79" t="s">
+        <v>311</v>
+      </c>
+      <c r="F116" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="G116" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="H116" s="23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:8">
+      <c r="A117" s="65"/>
+      <c r="B117" s="44"/>
+      <c r="C117" s="45"/>
+      <c r="D117" s="23" t="s">
+        <v>336</v>
+      </c>
+      <c r="E117" s="80" t="s">
+        <v>337</v>
+      </c>
+      <c r="F117" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="G117" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H117" s="23" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="116" customHeight="1" spans="1:8">
-      <c r="A116" s="80"/>
-      <c r="B116" s="44"/>
-      <c r="C116" s="46"/>
-      <c r="D116" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="E116" s="90" t="s">
+    <row r="118" customHeight="1" spans="1:8">
+      <c r="A118" s="65"/>
+      <c r="B118" s="44"/>
+      <c r="C118" s="46"/>
+      <c r="D118" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="E118" s="81" t="s">
+        <v>339</v>
+      </c>
+      <c r="F118" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="G118" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H118" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="119" customHeight="1" spans="1:8">
+      <c r="A119" s="65"/>
+      <c r="B119" s="44"/>
+      <c r="C119" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D119" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="E119" s="79" t="s">
         <v>342</v>
       </c>
-      <c r="F116" s="23" t="s">
+      <c r="F119" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="G116" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H116" s="23" t="s">
+      <c r="G119" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="H119" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="120" customHeight="1" spans="1:8">
+      <c r="A120" s="65"/>
+      <c r="B120" s="44"/>
+      <c r="C120" s="45"/>
+      <c r="D120" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="E120" s="79" t="s">
+        <v>345</v>
+      </c>
+      <c r="F120" s="23" t="s">
+        <v>346</v>
+      </c>
+      <c r="G120" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H120" s="23" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="121" customHeight="1" spans="1:8">
+      <c r="A121" s="65"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="46"/>
+      <c r="D121" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="E121" s="79" t="s">
+        <v>349</v>
+      </c>
+      <c r="F121" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="G121" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="H121" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" ht="12" customHeight="1" spans="1:1">
+      <c r="A122" s="65"/>
+    </row>
+    <row r="123" customHeight="1" spans="1:8">
+      <c r="A123" s="65"/>
+      <c r="B123" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="C123" s="83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="84" t="s">
+        <v>352</v>
+      </c>
+      <c r="E123" s="85"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="86"/>
+    </row>
+    <row r="124" customHeight="1" spans="1:8">
+      <c r="A124" s="65"/>
+      <c r="B124" s="87"/>
+      <c r="C124" s="83" t="s">
+        <v>29</v>
+      </c>
+      <c r="D124" s="88" t="s">
+        <v>353</v>
+      </c>
+      <c r="E124" s="49"/>
+      <c r="F124" s="49"/>
+      <c r="G124" s="49"/>
+      <c r="H124" s="49"/>
+    </row>
+    <row r="125" customHeight="1" spans="1:8">
+      <c r="A125" s="65"/>
+      <c r="B125" s="87"/>
+      <c r="C125" s="89" t="s">
+        <v>354</v>
+      </c>
+      <c r="D125" s="84" t="s">
+        <v>355</v>
+      </c>
+      <c r="E125" s="85"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="86"/>
+    </row>
+    <row r="126" customHeight="1" spans="1:8">
+      <c r="A126" s="65"/>
+      <c r="B126" s="87"/>
+      <c r="C126" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="D126" s="90" t="s">
+        <v>357</v>
+      </c>
+      <c r="E126" s="75"/>
+      <c r="F126" s="75"/>
+      <c r="G126" s="75"/>
+      <c r="H126" s="76"/>
+    </row>
+    <row r="127" customHeight="1" spans="1:8">
+      <c r="A127" s="65"/>
+      <c r="B127" s="87"/>
+      <c r="C127" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D127" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="E127" s="79" t="s">
+        <v>359</v>
+      </c>
+      <c r="F127" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="G127" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H127" s="23" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="128" customHeight="1" spans="1:8">
+      <c r="A128" s="65"/>
+      <c r="B128" s="87"/>
+      <c r="C128" s="45"/>
+      <c r="D128" s="91" t="s">
+        <v>361</v>
+      </c>
+      <c r="E128" s="79" t="s">
+        <v>362</v>
+      </c>
+      <c r="F128" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="G128" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H128" s="23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="129" customHeight="1" spans="1:8">
+      <c r="A129" s="65"/>
+      <c r="B129" s="87"/>
+      <c r="C129" s="45"/>
+      <c r="D129" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="E129" s="79" t="s">
+        <v>311</v>
+      </c>
+      <c r="F129" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="G129" s="23" t="s">
+        <v>293</v>
+      </c>
+      <c r="H129" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" customHeight="1" spans="1:8">
+      <c r="A130" s="65"/>
+      <c r="B130" s="87"/>
+      <c r="C130" s="46"/>
+      <c r="D130" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="E130" s="79" t="s">
+        <v>368</v>
+      </c>
+      <c r="F130" s="23" t="s">
+        <v>369</v>
+      </c>
+      <c r="G130" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="H130" s="23" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="117" customHeight="1" spans="1:8">
-      <c r="A117" s="80"/>
-      <c r="B117" s="44"/>
-      <c r="C117" s="45" t="s">
+    <row r="131" customHeight="1" spans="1:8">
+      <c r="A131" s="65"/>
+      <c r="B131" s="87"/>
+      <c r="C131" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="D117" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="E117" s="88" t="s">
-        <v>345</v>
-      </c>
-      <c r="F117" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="G117" s="23" t="s">
-        <v>347</v>
-      </c>
-      <c r="H117" s="23" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="118" customHeight="1" spans="1:8">
-      <c r="A118" s="80"/>
-      <c r="B118" s="44"/>
-      <c r="C118" s="45"/>
-      <c r="D118" s="23" t="s">
-        <v>327</v>
-      </c>
-      <c r="E118" s="88" t="s">
-        <v>348</v>
-      </c>
-      <c r="F118" s="23" t="s">
-        <v>349</v>
-      </c>
-      <c r="G118" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="H118" s="23" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="119" customHeight="1" spans="1:8">
-      <c r="A119" s="80"/>
-      <c r="B119" s="47"/>
-      <c r="C119" s="46"/>
-      <c r="D119" s="23" t="s">
-        <v>351</v>
-      </c>
-      <c r="E119" s="88" t="s">
-        <v>352</v>
-      </c>
-      <c r="F119" s="23" t="s">
-        <v>353</v>
-      </c>
-      <c r="G119" s="23" t="s">
-        <v>326</v>
-      </c>
-      <c r="H119" s="23" t="s">
+      <c r="D131" s="23" t="s">
+        <v>371</v>
+      </c>
+      <c r="E131" s="79" t="s">
+        <v>372</v>
+      </c>
+      <c r="F131" s="23" t="s">
+        <v>373</v>
+      </c>
+      <c r="G131" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H131" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="132" customHeight="1" spans="1:8">
+      <c r="A132" s="65"/>
+      <c r="B132" s="87"/>
+      <c r="C132" s="46"/>
+      <c r="D132" s="23" t="s">
+        <v>374</v>
+      </c>
+      <c r="E132" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="F132" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="G132" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H132" s="23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="133" ht="20" customHeight="1" spans="1:8">
+      <c r="A133" s="65"/>
+      <c r="B133" s="92"/>
+      <c r="C133" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D133" s="93" t="s">
+        <v>377</v>
+      </c>
+      <c r="E133" s="94"/>
+      <c r="F133" s="94"/>
+      <c r="G133" s="94"/>
+      <c r="H133" s="95"/>
+    </row>
+    <row r="134" ht="12" customHeight="1" spans="1:8">
+      <c r="A134" s="65"/>
+      <c r="H134" s="19"/>
+    </row>
+    <row r="135" customHeight="1" spans="1:8">
+      <c r="A135" s="65"/>
+      <c r="B135" s="82" t="s">
+        <v>378</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D135" s="30" t="s">
+        <v>379</v>
+      </c>
+      <c r="E135" s="20"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="20"/>
+      <c r="H135" s="21"/>
+    </row>
+    <row r="136" customHeight="1" spans="1:8">
+      <c r="A136" s="65"/>
+      <c r="B136" s="87"/>
+      <c r="C136" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136" s="30" t="s">
+        <v>380</v>
+      </c>
+      <c r="E136" s="20"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="20"/>
+      <c r="H136" s="21"/>
+    </row>
+    <row r="137" customHeight="1" spans="1:8">
+      <c r="A137" s="65"/>
+      <c r="B137" s="87"/>
+      <c r="C137" s="69" t="s">
+        <v>381</v>
+      </c>
+      <c r="D137" s="90" t="s">
+        <v>382</v>
+      </c>
+      <c r="E137" s="94"/>
+      <c r="F137" s="94"/>
+      <c r="G137" s="94"/>
+      <c r="H137" s="95"/>
+    </row>
+    <row r="138" customHeight="1" spans="1:8">
+      <c r="A138" s="65"/>
+      <c r="B138" s="87"/>
+      <c r="C138" s="69" t="s">
+        <v>383</v>
+      </c>
+      <c r="D138" s="93" t="s">
+        <v>384</v>
+      </c>
+      <c r="E138" s="94"/>
+      <c r="F138" s="94"/>
+      <c r="G138" s="94"/>
+      <c r="H138" s="95"/>
+    </row>
+    <row r="139" customHeight="1" spans="1:8">
+      <c r="A139" s="65"/>
+      <c r="B139" s="87"/>
+      <c r="C139" s="69" t="s">
+        <v>385</v>
+      </c>
+      <c r="D139" s="93" t="s">
+        <v>386</v>
+      </c>
+      <c r="E139" s="94"/>
+      <c r="F139" s="94"/>
+      <c r="G139" s="94"/>
+      <c r="H139" s="95"/>
+    </row>
+    <row r="140" customHeight="1" spans="1:8">
+      <c r="A140" s="65"/>
+      <c r="B140" s="87"/>
+      <c r="C140" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="141" customHeight="1" spans="1:8">
+      <c r="A141" s="65"/>
+      <c r="B141" s="87"/>
+      <c r="C141" s="45"/>
+      <c r="D141" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="G141" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="142" customHeight="1" spans="1:8">
+      <c r="A142" s="65"/>
+      <c r="B142" s="87"/>
+      <c r="C142" s="46"/>
+      <c r="D142" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F142" s="23" t="s">
+        <v>396</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="143" customHeight="1" spans="1:8">
+      <c r="A143" s="65"/>
+      <c r="B143" s="87"/>
+      <c r="C143" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D143" s="23" t="s">
+        <v>397</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="F143" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H143" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="120" ht="12" customHeight="1" spans="1:1">
-      <c r="A120" s="80"/>
-    </row>
-    <row r="121" customHeight="1" spans="1:8">
-      <c r="A121" s="80"/>
-      <c r="B121" s="41" t="s">
-        <v>354</v>
-      </c>
-      <c r="C121" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="D121" s="92" t="s">
-        <v>355</v>
-      </c>
-      <c r="E121" s="93"/>
-      <c r="F121" s="93"/>
-      <c r="G121" s="93"/>
-      <c r="H121" s="94"/>
-    </row>
-    <row r="122" customHeight="1" spans="1:8">
-      <c r="A122" s="80"/>
-      <c r="B122" s="44"/>
-      <c r="C122" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="D122" s="95" t="s">
-        <v>356</v>
-      </c>
-      <c r="E122" s="95"/>
-      <c r="F122" s="95"/>
-      <c r="G122" s="95"/>
-      <c r="H122" s="95"/>
-    </row>
-    <row r="123" customHeight="1" spans="1:8">
-      <c r="A123" s="80"/>
-      <c r="B123" s="44"/>
-      <c r="C123" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D123" s="23" t="s">
-        <v>357</v>
-      </c>
-      <c r="E123" s="88" t="s">
-        <v>358</v>
-      </c>
-      <c r="F123" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="G123" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H123" s="23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="124" customHeight="1" spans="1:8">
-      <c r="A124" s="80"/>
-      <c r="B124" s="44"/>
-      <c r="C124" s="45"/>
-      <c r="D124" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="E124" s="88" t="s">
-        <v>361</v>
-      </c>
-      <c r="F124" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="G124" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H124" s="23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="125" customHeight="1" spans="1:8">
-      <c r="A125" s="80"/>
-      <c r="B125" s="44"/>
-      <c r="C125" s="45"/>
-      <c r="D125" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="E125" s="88" t="s">
-        <v>313</v>
-      </c>
-      <c r="F125" s="23" t="s">
-        <v>364</v>
-      </c>
-      <c r="G125" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="H125" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="126" customHeight="1" spans="1:8">
-      <c r="A126" s="80"/>
-      <c r="B126" s="44"/>
-      <c r="C126" s="46"/>
-      <c r="D126" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="E126" s="88" t="s">
-        <v>366</v>
-      </c>
-      <c r="F126" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="G126" s="23" t="s">
-        <v>368</v>
-      </c>
-      <c r="H126" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="127" customHeight="1" spans="1:8">
-      <c r="A127" s="80"/>
-      <c r="B127" s="44"/>
-      <c r="C127" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="D127" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="E127" s="88" t="s">
-        <v>370</v>
-      </c>
-      <c r="F127" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="G127" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H127" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="128" customHeight="1" spans="1:8">
-      <c r="A128" s="80"/>
-      <c r="B128" s="47"/>
-      <c r="C128" s="46"/>
-      <c r="D128" s="23" t="s">
-        <v>372</v>
-      </c>
-      <c r="E128" s="88" t="s">
-        <v>373</v>
-      </c>
-      <c r="F128" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="G128" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H128" s="23" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="129" ht="12" customHeight="1" spans="1:8">
-      <c r="A129" s="80"/>
-      <c r="H129" s="19"/>
-    </row>
-    <row r="130" customHeight="1" spans="1:8">
-      <c r="A130" s="80"/>
-      <c r="B130" s="36" t="s">
-        <v>375</v>
-      </c>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-    </row>
-    <row r="131" customHeight="1" spans="1:8">
-      <c r="A131" s="80"/>
-      <c r="B131" s="36"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-    </row>
-    <row r="132" customHeight="1" spans="1:8">
-      <c r="A132" s="80"/>
-      <c r="B132" s="36"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-    </row>
-    <row r="133" customHeight="1" spans="1:8">
-      <c r="A133" s="80"/>
-      <c r="B133" s="36"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-    </row>
-    <row r="134" customHeight="1" spans="1:8">
-      <c r="A134" s="80"/>
-      <c r="B134" s="36"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-    </row>
-    <row r="135" customHeight="1" spans="1:8">
-      <c r="A135" s="80"/>
-      <c r="B135" s="36"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-      <c r="G135" s="3"/>
-      <c r="H135" s="3"/>
-    </row>
-    <row r="136" customHeight="1" spans="1:8">
-      <c r="A136" s="80"/>
-      <c r="B136" s="36" t="s">
-        <v>376</v>
-      </c>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-      <c r="G136" s="3"/>
-      <c r="H136" s="3"/>
-    </row>
-    <row r="137" customHeight="1" spans="1:8">
-      <c r="A137" s="80"/>
-      <c r="B137" s="36"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-      <c r="G137" s="3"/>
-      <c r="H137" s="3"/>
-    </row>
-    <row r="138" customHeight="1" spans="1:8">
-      <c r="A138" s="80"/>
-      <c r="B138" s="36"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-    </row>
-    <row r="139" customHeight="1" spans="1:8">
-      <c r="A139" s="80"/>
-      <c r="B139" s="36"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-      <c r="G139" s="3"/>
-      <c r="H139" s="3"/>
-    </row>
-    <row r="140" customHeight="1" spans="1:8">
-      <c r="A140" s="96"/>
-      <c r="B140" s="36"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-      <c r="G140" s="3"/>
-      <c r="H140" s="3"/>
-    </row>
-    <row r="141" customHeight="1" spans="2:2">
-      <c r="B141" s="97"/>
-    </row>
-    <row r="142" customHeight="1" spans="1:8">
-      <c r="A142" s="98" t="s">
-        <v>377</v>
-      </c>
-      <c r="B142" s="41" t="s">
-        <v>378</v>
-      </c>
-      <c r="C142" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="D142" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="E142" s="23" t="s">
-        <v>380</v>
-      </c>
-      <c r="F142" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="G142" s="23" t="s">
-        <v>382</v>
-      </c>
-      <c r="H142" s="3"/>
-    </row>
-    <row r="143" customHeight="1" spans="1:8">
-      <c r="A143" s="99"/>
-      <c r="B143" s="44"/>
-      <c r="C143" s="45"/>
-      <c r="D143" s="23" t="s">
-        <v>383</v>
-      </c>
-      <c r="E143" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F143" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="G143" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="H143" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
     <row r="144" customHeight="1" spans="1:8">
-      <c r="A144" s="99"/>
-      <c r="B144" s="44"/>
+      <c r="A144" s="65"/>
+      <c r="B144" s="87"/>
       <c r="C144" s="45"/>
       <c r="D144" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="E144" s="23" t="s">
-        <v>387</v>
+        <v>325</v>
+      </c>
+      <c r="E144" s="28" t="s">
+        <v>400</v>
       </c>
       <c r="F144" s="23" t="s">
-        <v>388</v>
-      </c>
-      <c r="G144" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H144" s="23" t="s">
-        <v>389</v>
+        <v>401</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="145" customHeight="1" spans="1:8">
-      <c r="A145" s="99"/>
-      <c r="B145" s="44"/>
+      <c r="A145" s="65"/>
+      <c r="B145" s="87"/>
       <c r="C145" s="46"/>
-      <c r="D145" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="E145" s="28" t="s">
-        <v>391</v>
-      </c>
-      <c r="F145" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="G145" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="H145" s="23" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="146" customHeight="1" spans="1:8">
-      <c r="A146" s="99"/>
-      <c r="B146" s="44"/>
-      <c r="C146" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D146" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="E146" s="23" t="s">
-        <v>395</v>
-      </c>
-      <c r="F146" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="G146" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H146" s="23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="147" customHeight="1" spans="1:8">
-      <c r="A147" s="99"/>
-      <c r="B147" s="47"/>
-      <c r="C147" s="46"/>
-      <c r="D147" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="E147" s="23" t="s">
-        <v>398</v>
-      </c>
-      <c r="F147" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="G147" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="H147" s="23" t="s">
-        <v>169</v>
-      </c>
+      <c r="D145" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="146" ht="20" customHeight="1" spans="1:8">
+      <c r="A146" s="65"/>
+      <c r="B146" s="92"/>
+      <c r="C146" s="66" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" s="93" t="s">
+        <v>407</v>
+      </c>
+      <c r="E146" s="94"/>
+      <c r="F146" s="94"/>
+      <c r="G146" s="94"/>
+      <c r="H146" s="95"/>
+    </row>
+    <row r="147" ht="12" customHeight="1" spans="1:8">
+      <c r="A147" s="65"/>
+      <c r="H147" s="19"/>
     </row>
     <row r="148" customHeight="1" spans="1:8">
-      <c r="A148" s="99"/>
-      <c r="B148" s="41" t="s">
-        <v>400</v>
-      </c>
-      <c r="C148" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D148" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>402</v>
-      </c>
+      <c r="A148" s="65"/>
+      <c r="B148" s="36" t="s">
+        <v>408</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
       <c r="G148" s="3"/>
-      <c r="H148" s="3" t="s">
-        <v>403</v>
-      </c>
+      <c r="H148" s="3"/>
     </row>
     <row r="149" customHeight="1" spans="1:8">
-      <c r="A149" s="99"/>
-      <c r="B149" s="44"/>
-      <c r="C149" s="45"/>
-      <c r="D149" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="G149" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="H149" s="3" t="s">
-        <v>129</v>
-      </c>
+      <c r="A149" s="65"/>
+      <c r="B149" s="36"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
     </row>
     <row r="150" customHeight="1" spans="1:8">
-      <c r="A150" s="99"/>
-      <c r="B150" s="44"/>
-      <c r="C150" s="46"/>
-      <c r="D150" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="E150" s="3" t="s">
+      <c r="A150" s="65"/>
+      <c r="B150" s="36"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" customHeight="1" spans="1:8">
+      <c r="A151" s="65"/>
+      <c r="B151" s="36"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" customHeight="1" spans="1:8">
+      <c r="A152" s="96"/>
+      <c r="B152" s="36"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" customHeight="1" spans="2:2">
+      <c r="B153" s="97"/>
+    </row>
+    <row r="154" customHeight="1" spans="1:8">
+      <c r="A154" s="98" t="s">
         <v>409</v>
       </c>
-      <c r="F150" s="3" t="s">
+      <c r="B154" s="41" t="s">
         <v>410</v>
       </c>
-      <c r="G150" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H150" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="151" customHeight="1" spans="1:8">
-      <c r="A151" s="99"/>
-      <c r="B151" s="44"/>
-      <c r="C151" s="42" t="s">
+      <c r="C154" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="D151" s="23" t="s">
+      <c r="D154" s="23" t="s">
         <v>411</v>
       </c>
-      <c r="E151" s="3" t="s">
+      <c r="E154" s="23" t="s">
         <v>412</v>
       </c>
-      <c r="F151" s="3" t="s">
+      <c r="F154" s="23" t="s">
         <v>413</v>
       </c>
-      <c r="G151" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H151" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="152" customHeight="1" spans="1:8">
-      <c r="A152" s="99"/>
-      <c r="B152" s="44"/>
-      <c r="C152" s="45"/>
-      <c r="D152" s="100" t="s">
+      <c r="G154" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="E152" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="G152" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H152" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="153" customHeight="1" spans="1:8">
-      <c r="A153" s="99"/>
-      <c r="B153" s="47"/>
-      <c r="C153" s="46"/>
-      <c r="D153" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="G153" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H153" s="3" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="154" customHeight="1" spans="1:8">
-      <c r="A154" s="99"/>
-      <c r="B154" s="41" t="s">
-        <v>421</v>
-      </c>
-      <c r="C154" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D154" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H154" s="3" t="s">
-        <v>55</v>
-      </c>
+      <c r="H154" s="3"/>
     </row>
     <row r="155" customHeight="1" spans="1:8">
       <c r="A155" s="99"/>
       <c r="B155" s="44"/>
-      <c r="C155" s="46"/>
+      <c r="C155" s="45"/>
       <c r="D155" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>426</v>
-      </c>
-      <c r="G155" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="H155" s="3" t="s">
-        <v>77</v>
+        <v>415</v>
+      </c>
+      <c r="E155" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F155" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="G155" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="H155" s="23" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="156" customHeight="1" spans="1:8">
       <c r="A156" s="99"/>
       <c r="B156" s="44"/>
-      <c r="C156" s="42" t="s">
-        <v>170</v>
-      </c>
+      <c r="C156" s="45"/>
       <c r="D156" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H156" s="3" t="s">
-        <v>60</v>
+        <v>418</v>
+      </c>
+      <c r="E156" s="23" t="s">
+        <v>419</v>
+      </c>
+      <c r="F156" s="23" t="s">
+        <v>420</v>
+      </c>
+      <c r="G156" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H156" s="23" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="157" customHeight="1" spans="1:8">
       <c r="A157" s="99"/>
       <c r="B157" s="44"/>
-      <c r="C157" s="45"/>
+      <c r="C157" s="46"/>
       <c r="D157" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="E157" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F157" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="E157" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="F157" s="23" t="s">
+        <v>424</v>
+      </c>
+      <c r="G157" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="H157" s="23" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:8">
+      <c r="A158" s="99"/>
+      <c r="B158" s="44"/>
+      <c r="C158" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D158" s="23" t="s">
+        <v>426</v>
+      </c>
+      <c r="E158" s="23" t="s">
+        <v>427</v>
+      </c>
+      <c r="F158" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="G158" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H158" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="1:8">
+      <c r="A159" s="99"/>
+      <c r="B159" s="47"/>
+      <c r="C159" s="46"/>
+      <c r="D159" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="E159" s="23" t="s">
         <v>430</v>
       </c>
-      <c r="G157" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="H157" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="158" customHeight="1" spans="1:8">
-      <c r="A158" s="101"/>
-      <c r="B158" s="47"/>
-      <c r="C158" s="46"/>
-      <c r="D158" s="23" t="s">
+      <c r="F159" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="E158" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="F158" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H158" s="3" t="s">
-        <v>262</v>
+      <c r="G159" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="H159" s="23" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="160" customHeight="1" spans="1:8">
-      <c r="A160" s="102" t="s">
+      <c r="A160" s="99"/>
+      <c r="B160" s="41" t="s">
         <v>432</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="C160" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D160" s="23" t="s">
+        <v>429</v>
+      </c>
+      <c r="E160" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3" t="s">
+      <c r="F160" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="E160" s="3" t="s">
+      <c r="G160" s="3"/>
+      <c r="H160" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
     </row>
     <row r="161" customHeight="1" spans="1:8">
-      <c r="A161" s="102"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3" t="s">
+      <c r="A161" s="99"/>
+      <c r="B161" s="44"/>
+      <c r="C161" s="45"/>
+      <c r="D161" s="23" t="s">
         <v>436</v>
       </c>
       <c r="E161" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
+      <c r="F161" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="162" customHeight="1" spans="1:8">
-      <c r="A162" s="102"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3" t="s">
-        <v>438</v>
+      <c r="A162" s="99"/>
+      <c r="B162" s="44"/>
+      <c r="C162" s="46"/>
+      <c r="D162" s="23" t="s">
+        <v>440</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
+        <v>441</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="163" customHeight="1" spans="1:8">
-      <c r="A163" s="102"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3" t="s">
-        <v>440</v>
+      <c r="A163" s="99"/>
+      <c r="B163" s="44"/>
+      <c r="C163" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D163" s="23" t="s">
+        <v>443</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
+        <v>444</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="164" customHeight="1" spans="1:8">
-      <c r="A164" s="102"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3" t="s">
-        <v>442</v>
+      <c r="A164" s="99"/>
+      <c r="B164" s="44"/>
+      <c r="C164" s="45"/>
+      <c r="D164" s="100" t="s">
+        <v>446</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="165" customHeight="1" spans="1:8">
-      <c r="A165" s="102"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="E165" s="23" t="s">
-        <v>445</v>
-      </c>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
+      <c r="A165" s="99"/>
+      <c r="B165" s="47"/>
+      <c r="C165" s="46"/>
+      <c r="D165" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="166" customHeight="1" spans="1:8">
-      <c r="A166" s="102"/>
-      <c r="B166" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="C166" s="3"/>
-      <c r="D166" s="103" t="s">
-        <v>447</v>
-      </c>
-      <c r="E166" s="103" t="s">
-        <v>448</v>
-      </c>
-      <c r="F166" s="103"/>
-      <c r="G166" s="103"/>
-      <c r="H166" s="103"/>
+      <c r="A166" s="99"/>
+      <c r="B166" s="41" t="s">
+        <v>453</v>
+      </c>
+      <c r="C166" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D166" s="23" t="s">
+        <v>454</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="167" customHeight="1" spans="1:8">
-      <c r="A167" s="102"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="103" t="s">
-        <v>449</v>
-      </c>
-      <c r="E167" s="103" t="s">
-        <v>450</v>
-      </c>
-      <c r="F167" s="103"/>
-      <c r="G167" s="103"/>
-      <c r="H167" s="103"/>
+      <c r="A167" s="99"/>
+      <c r="B167" s="44"/>
+      <c r="C167" s="46"/>
+      <c r="D167" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="168" customHeight="1" spans="1:8">
-      <c r="A168" s="102"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="103" t="s">
-        <v>451</v>
-      </c>
-      <c r="E168" s="103" t="s">
-        <v>452</v>
-      </c>
-      <c r="F168" s="103"/>
-      <c r="G168" s="103"/>
-      <c r="H168" s="103"/>
+      <c r="A168" s="99"/>
+      <c r="B168" s="44"/>
+      <c r="C168" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D168" s="23" t="s">
+        <v>418</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="169" customHeight="1" spans="1:8">
-      <c r="A169" s="102"/>
-      <c r="B169" s="1"/>
-      <c r="C169" s="3"/>
-      <c r="D169" s="103" t="s">
-        <v>453</v>
-      </c>
-      <c r="E169" s="88" t="s">
-        <v>454</v>
-      </c>
-      <c r="F169" s="103"/>
-      <c r="G169" s="103"/>
-      <c r="H169" s="103"/>
+      <c r="A169" s="99"/>
+      <c r="B169" s="44"/>
+      <c r="C169" s="45"/>
+      <c r="D169" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="170" customHeight="1" spans="1:8">
-      <c r="A170" s="102"/>
-      <c r="B170" s="1"/>
-      <c r="C170" s="3"/>
-      <c r="D170" s="103" t="s">
-        <v>455</v>
-      </c>
-      <c r="E170" s="103" t="s">
-        <v>456</v>
-      </c>
-      <c r="F170" s="103"/>
-      <c r="G170" s="103"/>
-      <c r="H170" s="103"/>
-    </row>
-    <row r="171" customHeight="1" spans="1:8">
-      <c r="A171" s="102"/>
-      <c r="B171" s="1"/>
-      <c r="C171" s="3"/>
-      <c r="D171" s="103" t="s">
-        <v>457</v>
-      </c>
-      <c r="E171" s="103" t="s">
-        <v>458</v>
-      </c>
-      <c r="F171" s="103"/>
-      <c r="G171" s="103"/>
-      <c r="H171" s="103"/>
+      <c r="A170" s="101"/>
+      <c r="B170" s="47"/>
+      <c r="C170" s="46"/>
+      <c r="D170" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F170" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="1:8">
+      <c r="A172" s="102" t="s">
+        <v>464</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F172" s="3"/>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3"/>
     </row>
     <row r="173" customHeight="1" spans="1:8">
-      <c r="A173" s="104" t="s">
-        <v>459</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="A173" s="102"/>
+      <c r="B173" s="1"/>
       <c r="C173" s="3"/>
-      <c r="D173" s="103" t="s">
-        <v>460</v>
-      </c>
-      <c r="E173" s="103" t="s">
-        <v>296</v>
-      </c>
-      <c r="F173" s="103"/>
-      <c r="G173" s="103"/>
-      <c r="H173" s="103"/>
+      <c r="D173" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F173" s="3"/>
+      <c r="G173" s="3"/>
+      <c r="H173" s="3"/>
     </row>
     <row r="174" customHeight="1" spans="1:8">
-      <c r="A174" s="104"/>
+      <c r="A174" s="102"/>
       <c r="B174" s="1"/>
-      <c r="C174" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="D174" s="103" t="s">
-        <v>462</v>
-      </c>
-      <c r="E174" s="88" t="s">
-        <v>463</v>
-      </c>
-      <c r="F174" s="103"/>
-      <c r="G174" s="103"/>
-      <c r="H174" s="103"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F174" s="3"/>
+      <c r="G174" s="3"/>
+      <c r="H174" s="3"/>
     </row>
     <row r="175" customHeight="1" spans="1:8">
-      <c r="A175" s="104"/>
+      <c r="A175" s="102"/>
       <c r="B175" s="1"/>
-      <c r="C175" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D175" s="103" t="s">
-        <v>465</v>
-      </c>
-      <c r="E175" s="103" t="s">
-        <v>466</v>
-      </c>
-      <c r="F175" s="103"/>
-      <c r="G175" s="103"/>
-      <c r="H175" s="103"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F175" s="3"/>
+      <c r="G175" s="3"/>
+      <c r="H175" s="3"/>
     </row>
     <row r="176" customHeight="1" spans="1:8">
-      <c r="A176" s="104"/>
-      <c r="B176" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="A176" s="102"/>
+      <c r="B176" s="1"/>
       <c r="C176" s="3"/>
-      <c r="D176" s="103" t="s">
-        <v>467</v>
-      </c>
-      <c r="E176" s="103" t="s">
-        <v>468</v>
-      </c>
-      <c r="F176" s="103"/>
-      <c r="G176" s="103"/>
-      <c r="H176" s="103"/>
+      <c r="D176" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="F176" s="3"/>
+      <c r="G176" s="3"/>
+      <c r="H176" s="3"/>
     </row>
     <row r="177" customHeight="1" spans="1:8">
-      <c r="A177" s="104"/>
+      <c r="A177" s="102"/>
       <c r="B177" s="1"/>
       <c r="C177" s="3"/>
-      <c r="D177" s="103" t="s">
-        <v>249</v>
-      </c>
-      <c r="E177" s="103" t="s">
-        <v>186</v>
-      </c>
-      <c r="F177" s="103"/>
-      <c r="G177" s="103"/>
-      <c r="H177" s="103"/>
+      <c r="D177" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="E177" s="23" t="s">
+        <v>477</v>
+      </c>
+      <c r="F177" s="3"/>
+      <c r="G177" s="3"/>
+      <c r="H177" s="3"/>
     </row>
     <row r="178" customHeight="1" spans="1:8">
-      <c r="A178" s="104"/>
-      <c r="B178" s="1"/>
+      <c r="A178" s="102"/>
+      <c r="B178" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="C178" s="3"/>
       <c r="D178" s="103" t="s">
-        <v>411</v>
+        <v>479</v>
       </c>
       <c r="E178" s="103" t="s">
-        <v>387</v>
+        <v>480</v>
       </c>
       <c r="F178" s="103"/>
       <c r="G178" s="103"/>
       <c r="H178" s="103"/>
     </row>
+    <row r="179" customHeight="1" spans="1:8">
+      <c r="A179" s="102"/>
+      <c r="B179" s="1"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="103" t="s">
+        <v>481</v>
+      </c>
+      <c r="E179" s="103" t="s">
+        <v>482</v>
+      </c>
+      <c r="F179" s="103"/>
+      <c r="G179" s="103"/>
+      <c r="H179" s="103"/>
+    </row>
     <row r="180" customHeight="1" spans="1:8">
-      <c r="A180" s="105" t="s">
-        <v>469</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>470</v>
-      </c>
+      <c r="A180" s="102"/>
+      <c r="B180" s="1"/>
       <c r="C180" s="3"/>
-      <c r="D180" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
+      <c r="D180" s="103" t="s">
+        <v>483</v>
+      </c>
+      <c r="E180" s="103" t="s">
+        <v>484</v>
+      </c>
+      <c r="F180" s="103"/>
+      <c r="G180" s="103"/>
+      <c r="H180" s="103"/>
     </row>
     <row r="181" customHeight="1" spans="1:8">
-      <c r="A181" s="105"/>
+      <c r="A181" s="102"/>
       <c r="B181" s="1"/>
       <c r="C181" s="3"/>
-      <c r="D181" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
+      <c r="D181" s="103" t="s">
+        <v>485</v>
+      </c>
+      <c r="E181" s="79" t="s">
+        <v>486</v>
+      </c>
+      <c r="F181" s="103"/>
+      <c r="G181" s="103"/>
+      <c r="H181" s="103"/>
     </row>
     <row r="182" customHeight="1" spans="1:8">
-      <c r="A182" s="105"/>
+      <c r="A182" s="102"/>
       <c r="B182" s="1"/>
       <c r="C182" s="3"/>
-      <c r="D182" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
+      <c r="D182" s="103" t="s">
+        <v>487</v>
+      </c>
+      <c r="E182" s="103" t="s">
+        <v>488</v>
+      </c>
+      <c r="F182" s="103"/>
+      <c r="G182" s="103"/>
+      <c r="H182" s="103"/>
     </row>
     <row r="183" customHeight="1" spans="1:8">
-      <c r="A183" s="105"/>
+      <c r="A183" s="102"/>
       <c r="B183" s="1"/>
       <c r="C183" s="3"/>
-      <c r="D183" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E183" s="3" t="s">
+      <c r="D183" s="103" t="s">
+        <v>489</v>
+      </c>
+      <c r="E183" s="103" t="s">
+        <v>490</v>
+      </c>
+      <c r="F183" s="103"/>
+      <c r="G183" s="103"/>
+      <c r="H183" s="103"/>
+    </row>
+    <row r="185" customHeight="1" spans="1:8">
+      <c r="A185" s="104" t="s">
+        <v>491</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C185" s="3"/>
+      <c r="D185" s="103" t="s">
+        <v>492</v>
+      </c>
+      <c r="E185" s="103" t="s">
+        <v>295</v>
+      </c>
+      <c r="F185" s="103"/>
+      <c r="G185" s="103"/>
+      <c r="H185" s="103"/>
+    </row>
+    <row r="186" customHeight="1" spans="1:8">
+      <c r="A186" s="104"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="D186" s="103" t="s">
+        <v>494</v>
+      </c>
+      <c r="E186" s="79" t="s">
+        <v>495</v>
+      </c>
+      <c r="F186" s="103"/>
+      <c r="G186" s="103"/>
+      <c r="H186" s="103"/>
+    </row>
+    <row r="187" customHeight="1" spans="1:8">
+      <c r="A187" s="104"/>
+      <c r="B187" s="1"/>
+      <c r="C187" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D187" s="103" t="s">
+        <v>497</v>
+      </c>
+      <c r="E187" s="103" t="s">
+        <v>498</v>
+      </c>
+      <c r="F187" s="103"/>
+      <c r="G187" s="103"/>
+      <c r="H187" s="103"/>
+    </row>
+    <row r="188" customHeight="1" spans="1:8">
+      <c r="A188" s="104"/>
+      <c r="B188" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C188" s="3"/>
+      <c r="D188" s="103" t="s">
+        <v>499</v>
+      </c>
+      <c r="E188" s="103" t="s">
+        <v>500</v>
+      </c>
+      <c r="F188" s="103"/>
+      <c r="G188" s="103"/>
+      <c r="H188" s="103"/>
+    </row>
+    <row r="189" customHeight="1" spans="1:8">
+      <c r="A189" s="104"/>
+      <c r="B189" s="1"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="103" t="s">
+        <v>249</v>
+      </c>
+      <c r="E189" s="103" t="s">
         <v>186</v>
       </c>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-    </row>
-    <row r="184" customHeight="1" spans="1:8">
-      <c r="A184" s="105"/>
-      <c r="B184" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-    </row>
-    <row r="185" customHeight="1" spans="1:8">
-      <c r="A185" s="105"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-    </row>
-    <row r="186" customHeight="1" spans="1:8">
-      <c r="A186" s="105"/>
-      <c r="B186" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-    </row>
-    <row r="187" customHeight="1" spans="1:8">
-      <c r="A187" s="105"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="E187" s="23" t="s">
-        <v>481</v>
-      </c>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-    </row>
-    <row r="188" customHeight="1" spans="1:8">
-      <c r="A188" s="105"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-    </row>
-    <row r="189" customHeight="1" spans="1:8">
-      <c r="A189" s="105"/>
-      <c r="B189" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="E189" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
+      <c r="F189" s="103"/>
+      <c r="G189" s="103"/>
+      <c r="H189" s="103"/>
     </row>
     <row r="190" customHeight="1" spans="1:8">
-      <c r="A190" s="105"/>
+      <c r="A190" s="104"/>
       <c r="B190" s="1"/>
       <c r="C190" s="3"/>
-      <c r="D190" s="3" t="s">
-        <v>487</v>
-      </c>
-      <c r="E190" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-    </row>
-    <row r="191" customHeight="1" spans="1:8">
-      <c r="A191" s="105"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="E191" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
+      <c r="D190" s="103" t="s">
+        <v>443</v>
+      </c>
+      <c r="E190" s="103" t="s">
+        <v>419</v>
+      </c>
+      <c r="F190" s="103"/>
+      <c r="G190" s="103"/>
+      <c r="H190" s="103"/>
     </row>
     <row r="192" customHeight="1" spans="1:8">
-      <c r="A192" s="105"/>
+      <c r="A192" s="105" t="s">
+        <v>501</v>
+      </c>
       <c r="B192" s="1" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3" t="s">
-        <v>490</v>
+        <v>503</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>491</v>
+        <v>36</v>
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -7039,10 +7400,10 @@
       <c r="B193" s="1"/>
       <c r="C193" s="3"/>
       <c r="D193" s="3" t="s">
-        <v>327</v>
+        <v>504</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
@@ -7050,15 +7411,13 @@
     </row>
     <row r="194" customHeight="1" spans="1:8">
       <c r="A194" s="105"/>
-      <c r="B194" s="1" t="s">
-        <v>493</v>
-      </c>
+      <c r="B194" s="1"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>495</v>
+        <v>272</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
@@ -7069,10 +7428,10 @@
       <c r="B195" s="1"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3" t="s">
-        <v>496</v>
+        <v>185</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>497</v>
+        <v>186</v>
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
@@ -7080,13 +7439,15 @@
     </row>
     <row r="196" customHeight="1" spans="1:8">
       <c r="A196" s="105"/>
-      <c r="B196" s="1"/>
+      <c r="B196" s="1" t="s">
+        <v>507</v>
+      </c>
       <c r="C196" s="3"/>
       <c r="D196" s="3" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>186</v>
+        <v>508</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
@@ -7094,15 +7455,13 @@
     </row>
     <row r="197" customHeight="1" spans="1:8">
       <c r="A197" s="105"/>
-      <c r="B197" s="1" t="s">
-        <v>499</v>
-      </c>
+      <c r="B197" s="1"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3" t="s">
-        <v>500</v>
+        <v>418</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="F197" s="3"/>
       <c r="G197" s="3"/>
@@ -7110,13 +7469,15 @@
     </row>
     <row r="198" customHeight="1" spans="1:8">
       <c r="A198" s="105"/>
-      <c r="B198" s="1"/>
+      <c r="B198" s="1" t="s">
+        <v>510</v>
+      </c>
       <c r="C198" s="3"/>
       <c r="D198" s="3" t="s">
-        <v>386</v>
+        <v>511</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>502</v>
+        <v>40</v>
       </c>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
@@ -7127,175 +7488,351 @@
       <c r="B199" s="1"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="E199" s="3" t="s">
-        <v>186</v>
+        <v>512</v>
+      </c>
+      <c r="E199" s="23" t="s">
+        <v>513</v>
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
       <c r="H199" s="3"/>
     </row>
+    <row r="200" customHeight="1" spans="1:8">
+      <c r="A200" s="105"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F200" s="3"/>
+      <c r="G200" s="3"/>
+      <c r="H200" s="3"/>
+    </row>
     <row r="201" customHeight="1" spans="1:8">
-      <c r="A201" s="106" t="s">
-        <v>504</v>
-      </c>
+      <c r="A201" s="105"/>
       <c r="B201" s="1" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="C201" s="3"/>
-      <c r="D201" s="103" t="s">
-        <v>506</v>
-      </c>
-      <c r="E201" s="103" t="s">
-        <v>507</v>
-      </c>
-      <c r="F201" s="103"/>
-      <c r="G201" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="H201" s="103" t="s">
-        <v>508</v>
-      </c>
+      <c r="D201" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F201" s="3"/>
+      <c r="G201" s="3"/>
+      <c r="H201" s="3"/>
     </row>
     <row r="202" customHeight="1" spans="1:8">
-      <c r="A202" s="106"/>
-      <c r="B202" s="36" t="s">
-        <v>509</v>
-      </c>
+      <c r="A202" s="105"/>
+      <c r="B202" s="1"/>
       <c r="C202" s="3"/>
-      <c r="D202" s="23" t="s">
-        <v>472</v>
-      </c>
-      <c r="E202" s="23" t="s">
-        <v>473</v>
+      <c r="D202" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>272</v>
       </c>
       <c r="F202" s="3"/>
-      <c r="G202" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="H202" s="28" t="s">
-        <v>511</v>
-      </c>
+      <c r="G202" s="3"/>
+      <c r="H202" s="3"/>
     </row>
     <row r="203" customHeight="1" spans="1:8">
-      <c r="A203" s="106"/>
-      <c r="B203" s="36" t="s">
-        <v>512</v>
-      </c>
+      <c r="A203" s="105"/>
+      <c r="B203" s="1"/>
       <c r="C203" s="3"/>
-      <c r="D203" s="23" t="s">
-        <v>513</v>
-      </c>
-      <c r="E203" s="23" t="s">
-        <v>514</v>
+      <c r="D203" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="F203" s="3"/>
-      <c r="G203" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H203" s="23" t="s">
-        <v>515</v>
-      </c>
+      <c r="G203" s="3"/>
+      <c r="H203" s="3"/>
     </row>
     <row r="204" customHeight="1" spans="1:8">
-      <c r="A204" s="106"/>
-      <c r="B204" s="36"/>
+      <c r="A204" s="105"/>
+      <c r="B204" s="1" t="s">
+        <v>521</v>
+      </c>
       <c r="C204" s="3"/>
-      <c r="D204" s="23" t="s">
-        <v>516</v>
-      </c>
-      <c r="E204" s="23" t="s">
-        <v>517</v>
+      <c r="D204" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>523</v>
       </c>
       <c r="F204" s="3"/>
-      <c r="G204" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H204" s="28" t="s">
-        <v>518</v>
-      </c>
+      <c r="G204" s="3"/>
+      <c r="H204" s="3"/>
     </row>
     <row r="205" customHeight="1" spans="1:8">
-      <c r="A205" s="107" t="s">
-        <v>519</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>520</v>
-      </c>
+      <c r="A205" s="105"/>
+      <c r="B205" s="1"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="E205" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="F205" s="23" t="s">
-        <v>523</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
     </row>
     <row r="206" customHeight="1" spans="1:8">
-      <c r="A206" s="108"/>
-      <c r="B206" s="1"/>
+      <c r="A206" s="105"/>
+      <c r="B206" s="1" t="s">
+        <v>525</v>
+      </c>
       <c r="C206" s="3"/>
       <c r="D206" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="E206" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="F206" s="23" t="s">
         <v>526</v>
       </c>
-      <c r="G206" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H206" s="23" t="s">
-        <v>312</v>
-      </c>
+      <c r="E206" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F206" s="3"/>
+      <c r="G206" s="3"/>
+      <c r="H206" s="3"/>
     </row>
     <row r="207" customHeight="1" spans="1:8">
-      <c r="A207" s="108"/>
+      <c r="A207" s="105"/>
       <c r="B207" s="1"/>
       <c r="C207" s="3"/>
-      <c r="D207" s="103" t="s">
-        <v>527</v>
-      </c>
-      <c r="E207" s="23" t="s">
+      <c r="D207" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="F207" s="23" t="s">
+      <c r="E207" s="3" t="s">
         <v>529</v>
       </c>
+      <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
     </row>
     <row r="208" customHeight="1" spans="1:8">
-      <c r="A208" s="108"/>
-      <c r="B208" s="36" t="s">
+      <c r="A208" s="105"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="C208" s="3"/>
-      <c r="D208" s="23" t="s">
+      <c r="E208" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F208" s="3"/>
+      <c r="G208" s="3"/>
+      <c r="H208" s="3"/>
+    </row>
+    <row r="209" customHeight="1" spans="1:8">
+      <c r="A209" s="105"/>
+      <c r="B209" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="E208" s="23" t="s">
+      <c r="C209" s="3"/>
+      <c r="D209" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="F208" s="23" t="s">
+      <c r="E209" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="G208" s="23" t="s">
+      <c r="F209" s="3"/>
+      <c r="G209" s="3"/>
+      <c r="H209" s="3"/>
+    </row>
+    <row r="210" customHeight="1" spans="1:8">
+      <c r="A210" s="105"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E210" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="H208" s="23" t="s">
+      <c r="F210" s="3"/>
+      <c r="G210" s="3"/>
+      <c r="H210" s="3"/>
+    </row>
+    <row r="211" customHeight="1" spans="1:8">
+      <c r="A211" s="105"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F211" s="3"/>
+      <c r="G211" s="3"/>
+      <c r="H211" s="3"/>
+    </row>
+    <row r="213" customHeight="1" spans="1:8">
+      <c r="A213" s="106" t="s">
+        <v>536</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="103" t="s">
+        <v>538</v>
+      </c>
+      <c r="E213" s="103" t="s">
+        <v>539</v>
+      </c>
+      <c r="F213" s="103"/>
+      <c r="G213" s="103" t="s">
+        <v>19</v>
+      </c>
+      <c r="H213" s="103" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="214" customHeight="1" spans="1:8">
+      <c r="A214" s="106"/>
+      <c r="B214" s="36" t="s">
+        <v>541</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="E214" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="F214" s="3"/>
+      <c r="G214" s="23" t="s">
+        <v>542</v>
+      </c>
+      <c r="H214" s="28" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="215" customHeight="1" spans="1:8">
+      <c r="A215" s="106"/>
+      <c r="B215" s="36" t="s">
+        <v>544</v>
+      </c>
+      <c r="C215" s="3"/>
+      <c r="D215" s="23" t="s">
+        <v>545</v>
+      </c>
+      <c r="E215" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="F215" s="3"/>
+      <c r="G215" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H215" s="23" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="216" customHeight="1" spans="1:8">
+      <c r="A216" s="106"/>
+      <c r="B216" s="36"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="23" t="s">
+        <v>548</v>
+      </c>
+      <c r="E216" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="F216" s="3"/>
+      <c r="G216" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H216" s="28" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="217" customHeight="1" spans="1:8">
+      <c r="A217" s="107" t="s">
+        <v>551</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="E217" s="23" t="s">
+        <v>554</v>
+      </c>
+      <c r="F217" s="23" t="s">
+        <v>555</v>
+      </c>
+      <c r="G217" s="3"/>
+      <c r="H217" s="3"/>
+    </row>
+    <row r="218" customHeight="1" spans="1:8">
+      <c r="A218" s="108"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="E218" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="F218" s="23" t="s">
+        <v>558</v>
+      </c>
+      <c r="G218" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H218" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="219" customHeight="1" spans="1:8">
+      <c r="A219" s="108"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="3"/>
+      <c r="D219" s="103" t="s">
+        <v>559</v>
+      </c>
+      <c r="E219" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="F219" s="23" t="s">
+        <v>561</v>
+      </c>
+      <c r="G219" s="3"/>
+      <c r="H219" s="3"/>
+    </row>
+    <row r="220" customHeight="1" spans="1:8">
+      <c r="A220" s="108"/>
+      <c r="B220" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="C220" s="3"/>
+      <c r="D220" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="E220" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="F220" s="23" t="s">
+        <v>565</v>
+      </c>
+      <c r="G220" s="23" t="s">
+        <v>566</v>
+      </c>
+      <c r="H220" s="23" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="108">
+  <mergeCells count="120">
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D15:H15"/>
@@ -7325,21 +7862,31 @@
     <mergeCell ref="D84:H84"/>
     <mergeCell ref="C88:H88"/>
     <mergeCell ref="C94:H94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="C103:E103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="D122:H122"/>
+    <mergeCell ref="D95:H95"/>
+    <mergeCell ref="D96:H96"/>
+    <mergeCell ref="D104:H104"/>
+    <mergeCell ref="D105:H105"/>
+    <mergeCell ref="D114:H114"/>
+    <mergeCell ref="D123:H123"/>
+    <mergeCell ref="D124:H124"/>
+    <mergeCell ref="D125:H125"/>
+    <mergeCell ref="D126:H126"/>
+    <mergeCell ref="D133:H133"/>
+    <mergeCell ref="D135:H135"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="D137:H137"/>
+    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D139:H139"/>
+    <mergeCell ref="D146:H146"/>
     <mergeCell ref="A2:A45"/>
     <mergeCell ref="A47:A92"/>
-    <mergeCell ref="A94:A140"/>
-    <mergeCell ref="A142:A158"/>
-    <mergeCell ref="A160:A171"/>
-    <mergeCell ref="A173:A178"/>
-    <mergeCell ref="A180:A199"/>
-    <mergeCell ref="A201:A204"/>
-    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="A94:A152"/>
+    <mergeCell ref="A154:A170"/>
+    <mergeCell ref="A172:A183"/>
+    <mergeCell ref="A185:A190"/>
+    <mergeCell ref="A192:A211"/>
+    <mergeCell ref="A213:A216"/>
+    <mergeCell ref="A217:A220"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="B17:B24"/>
@@ -7351,28 +7898,28 @@
     <mergeCell ref="B81:B83"/>
     <mergeCell ref="B84:B87"/>
     <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B95:B101"/>
-    <mergeCell ref="B103:B110"/>
-    <mergeCell ref="B112:B119"/>
-    <mergeCell ref="B121:B128"/>
-    <mergeCell ref="B130:B135"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="B148:B153"/>
-    <mergeCell ref="B154:B158"/>
+    <mergeCell ref="B95:B102"/>
+    <mergeCell ref="B104:B112"/>
+    <mergeCell ref="B114:B121"/>
+    <mergeCell ref="B123:B133"/>
+    <mergeCell ref="B135:B146"/>
+    <mergeCell ref="B148:B152"/>
+    <mergeCell ref="B154:B159"/>
     <mergeCell ref="B160:B165"/>
-    <mergeCell ref="B166:B171"/>
-    <mergeCell ref="B173:B175"/>
-    <mergeCell ref="B176:B178"/>
-    <mergeCell ref="B180:B183"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="B186:B188"/>
-    <mergeCell ref="B189:B191"/>
-    <mergeCell ref="B192:B193"/>
-    <mergeCell ref="B194:B196"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="B203:B204"/>
-    <mergeCell ref="B205:B207"/>
+    <mergeCell ref="B166:B170"/>
+    <mergeCell ref="B172:B177"/>
+    <mergeCell ref="B178:B183"/>
+    <mergeCell ref="B185:B187"/>
+    <mergeCell ref="B188:B190"/>
+    <mergeCell ref="B192:B195"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="B201:B203"/>
+    <mergeCell ref="B204:B205"/>
+    <mergeCell ref="B206:B208"/>
+    <mergeCell ref="B209:B211"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="B217:B219"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C14"/>
@@ -7391,21 +7938,23 @@
     <mergeCell ref="C82:C83"/>
     <mergeCell ref="C85:C87"/>
     <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C96:C100"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="C109:C110"/>
-    <mergeCell ref="C113:C116"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="C127:C128"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C146:C147"/>
-    <mergeCell ref="C148:C150"/>
-    <mergeCell ref="C151:C153"/>
-    <mergeCell ref="C154:C155"/>
-    <mergeCell ref="C156:C158"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="C106:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C115:C118"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C127:C130"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="C154:C157"/>
+    <mergeCell ref="C158:C159"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="C168:C170"/>
   </mergeCells>
-  <pageMargins left="0.196527777777778" right="0.0784722222222222" top="0.751388888888889" bottom="0.751388888888889" header="0.298611111111111" footer="0.298611111111111"/>
+  <pageMargins left="0.196527777777778" right="0.0784722222222222" top="0.314583333333333" bottom="2.20416666666667" header="0.298611111111111" footer="0.298611111111111"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="600"/>
   <headerFooter/>
 </worksheet>
@@ -7428,40 +7977,40 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>541</v>
+        <v>573</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -7470,21 +8019,21 @@
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>36</v>
@@ -7492,7 +8041,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -7500,7 +8049,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>122</v>
@@ -7512,32 +8061,32 @@
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>554</v>
+        <v>586</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -7546,32 +8095,32 @@
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">

--- a/内科学笔记/病和方剂汇总.xlsx
+++ b/内科学笔记/病和方剂汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="20490" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$94:$H$152</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$100:$H$162</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="640">
   <si>
     <t>病证系统</t>
   </si>
@@ -953,7 +953,7 @@
     <t>喘寒麻黄里热石，浊陈气五生脉匮</t>
   </si>
   <si>
-    <t xml:space="preserve">脑系统 </t>
+    <t>脑系统</t>
   </si>
   <si>
     <t>头痛</t>
@@ -1469,28 +1469,322 @@
     <t>痫证</t>
   </si>
   <si>
-    <t>风痰闭阻</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发作性神志异常。突然意识丧失，不省人事，强直抽搐，两目上视口吐涎沫，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>醒时一如常人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>肮脏失调。痰浊阻滞，气机逆乱而风痰内动。病理性质为本虚标实</t>
+  </si>
+  <si>
+    <t>因素</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风、火、痰、瘀，以痰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为主。病位在脑，肝、脾、肾损伤是该病发生的主要病理基础</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>痰闭阻</t>
+    </r>
   </si>
   <si>
     <t>定痫丸</t>
   </si>
   <si>
-    <t>发作前有眩晕、胸闷等</t>
-  </si>
-  <si>
-    <t>痰火内盛</t>
-  </si>
-  <si>
-    <t>龙胆泻肝汤</t>
+    <t>平素有眩晕、头晕等。发作神志不清，抽搐吐涎(内风)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>脉</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有力</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>痰</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>火</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扰神</t>
+    </r>
+  </si>
+  <si>
+    <t>龙胆泻肝汤+涤痰汤</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>急燥易怒，口苦咽干，目赤心烦。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要泻肝火袪痰</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>舌红苔</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>黄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>腻</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>脉弦</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数</t>
+    </r>
+  </si>
+  <si>
+    <t>痰阻脑络</t>
+  </si>
+  <si>
+    <t>通窍活血汤(瘀在脑)</t>
+  </si>
+  <si>
+    <t>单侧肢体抽搐，或面部抽动，舌有瘀斑</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>脉</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>涩</t>
+    </r>
+  </si>
+  <si>
+    <t>六君子汤+归脾汤</t>
+  </si>
+  <si>
+    <t>反复发作，神疲乏力，心悸气短，面色苍白(气血两虚)</t>
+  </si>
+  <si>
+    <t>舌淡苔白腻</t>
+  </si>
+  <si>
+    <t>脉沉细</t>
   </si>
   <si>
     <t>心肾亏虚</t>
   </si>
   <si>
-    <t>大补元煎+六君子汤</t>
-  </si>
-  <si>
-    <t>发作后心悸，头晕目眩，腰膝酸软</t>
+    <t>左归丸+天王补心丹</t>
+  </si>
+  <si>
+    <t>频发，发后心悸失眠，头晕目眩，腰膝酸软(阴虚)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>沉</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>细而数</t>
+    </r>
+  </si>
+  <si>
+    <t>风定痰涤瘀通窍，心脾六归肾左天</t>
   </si>
   <si>
     <t>脾胃系统</t>
@@ -1579,9 +1873,6 @@
     <t>腹疼绵绵，时作时止，喜暖喜按，形寒肢冷</t>
   </si>
   <si>
-    <t>脉沉细</t>
-  </si>
-  <si>
     <t>胃痛</t>
   </si>
   <si>
@@ -1727,6 +2018,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>脾虚湿盛</t>
     </r>
     <r>
@@ -1913,10 +2212,14 @@
     <t>邪滞肠腑，气血壅滞，肠道传导失常，脂络受伤而成痢。</t>
   </si>
   <si>
-    <t>因素</t>
-  </si>
-  <si>
-    <r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>以</t>
     </r>
     <r>
@@ -2070,12 +2373,96 @@
     <t>便秘</t>
   </si>
   <si>
+    <t>传导失常，气机不畅，糟粕内停</t>
+  </si>
+  <si>
+    <t>热秘</t>
+  </si>
+  <si>
+    <t>麻子仁丸</t>
+  </si>
+  <si>
+    <t>大便干结，小便短赤，口干口臭</t>
+  </si>
+  <si>
+    <t>舌红苔黄燥</t>
+  </si>
+  <si>
+    <t>脉数</t>
+  </si>
+  <si>
+    <t>气滞秘</t>
+  </si>
+  <si>
+    <t>六磨汤</t>
+  </si>
+  <si>
+    <t>腹中胀痛，喛气频作，胸胁痞满</t>
+  </si>
+  <si>
+    <t>苔薄腻</t>
+  </si>
+  <si>
+    <t>冷秘</t>
+  </si>
+  <si>
+    <t>温脾汤</t>
+  </si>
+  <si>
+    <t>腹痛拘急，胀满拒按，手足不温，</t>
+  </si>
+  <si>
+    <t>气虚秘</t>
+  </si>
+  <si>
+    <t>黄芪汤</t>
+  </si>
+  <si>
+    <t>大便不干硬但排便困难，排出乏力，神疲倦怠</t>
+  </si>
+  <si>
+    <t>血虚秘</t>
+  </si>
+  <si>
+    <t>润肠丸</t>
+  </si>
+  <si>
+    <t>大便干结，面色无华，头晕目眩，心悸气短</t>
+  </si>
+  <si>
+    <t>阴虚秘</t>
+  </si>
+  <si>
+    <t>增液汤</t>
+  </si>
+  <si>
+    <t>大便干结，潮热盗汗，面颧红赤，五心烦燥，头晕耳鸣</t>
+  </si>
+  <si>
+    <t>阳虚秘</t>
+  </si>
+  <si>
+    <t>济川煎</t>
+  </si>
+  <si>
+    <t>大便困难，小便清长，面白肢冷，腰膝酸冷</t>
+  </si>
+  <si>
+    <t>热秘麻仁气六磨，气虚黄芪冷温脾，阴增血润阳济川</t>
+  </si>
+  <si>
     <t>心系统</t>
   </si>
   <si>
     <t>心悸</t>
   </si>
   <si>
+    <t>心中悸动，惊惕不安甚至不能息主为症</t>
+  </si>
+  <si>
+    <t>气血阴阳亏虚，心失所养。而实证水湿痰饮、瘀血使气血运行不畅</t>
+  </si>
+  <si>
     <t>心虚胆怯</t>
   </si>
   <si>
@@ -2206,6 +2593,9 @@
   </si>
   <si>
     <t>肝郁化火</t>
+  </si>
+  <si>
+    <t>龙胆泻肝汤</t>
   </si>
   <si>
     <t>急燥易怒，不思饮食，目赤口苦</t>
@@ -3133,7 +3523,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -3259,15 +3649,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -3423,7 +3804,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3435,34 +3816,34 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3547,7 +3928,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3716,18 +4097,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3737,7 +4127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3746,22 +4136,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3770,21 +4151,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3794,9 +4160,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3809,49 +4172,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3869,7 +4205,7 @@
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4188,12 +4524,12 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H220"/>
+  <dimension ref="A1:H232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K133" sqref="K133"/>
+      <selection pane="bottomLeft" activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="7"/>
@@ -5537,7 +5873,7 @@
       <c r="H78" s="19"/>
     </row>
     <row r="79" ht="20" customHeight="1" spans="1:8">
-      <c r="A79" s="56"/>
+      <c r="A79" s="43"/>
       <c r="B79" s="1" t="s">
         <v>29</v>
       </c>
@@ -5551,7 +5887,7 @@
       <c r="H79" s="21"/>
     </row>
     <row r="80" ht="20" customHeight="1" spans="1:8">
-      <c r="A80" s="56"/>
+      <c r="A80" s="43"/>
       <c r="B80" s="1" t="s">
         <v>89</v>
       </c>
@@ -5565,7 +5901,7 @@
       <c r="H80" s="21"/>
     </row>
     <row r="81" ht="20" customHeight="1" spans="1:8">
-      <c r="A81" s="56"/>
+      <c r="A81" s="43"/>
       <c r="B81" s="37" t="s">
         <v>242</v>
       </c>
@@ -5581,7 +5917,7 @@
       <c r="H81" s="21"/>
     </row>
     <row r="82" customHeight="1" spans="1:8">
-      <c r="A82" s="56"/>
+      <c r="A82" s="43"/>
       <c r="B82" s="45"/>
       <c r="C82" s="9" t="s">
         <v>244</v>
@@ -5603,7 +5939,7 @@
       </c>
     </row>
     <row r="83" customHeight="1" spans="1:8">
-      <c r="A83" s="56"/>
+      <c r="A83" s="43"/>
       <c r="B83" s="46"/>
       <c r="C83" s="14"/>
       <c r="D83" s="23" t="s">
@@ -5623,7 +5959,7 @@
       </c>
     </row>
     <row r="84" customHeight="1" spans="1:8">
-      <c r="A84" s="56"/>
+      <c r="A84" s="43"/>
       <c r="B84" s="38" t="s">
         <v>252</v>
       </c>
@@ -5639,7 +5975,7 @@
       <c r="H84" s="18"/>
     </row>
     <row r="85" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A85" s="56"/>
+      <c r="A85" s="43"/>
       <c r="B85" s="45"/>
       <c r="C85" s="1" t="s">
         <v>145</v>
@@ -5661,7 +5997,7 @@
       </c>
     </row>
     <row r="86" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A86" s="56"/>
+      <c r="A86" s="43"/>
       <c r="B86" s="45"/>
       <c r="C86" s="1"/>
       <c r="D86" s="23" t="s">
@@ -5681,7 +6017,7 @@
       </c>
     </row>
     <row r="87" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A87" s="56"/>
+      <c r="A87" s="43"/>
       <c r="B87" s="46"/>
       <c r="C87" s="1"/>
       <c r="D87" s="23" t="s">
@@ -5701,18 +6037,18 @@
       </c>
     </row>
     <row r="88" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A88" s="56"/>
+      <c r="A88" s="43"/>
       <c r="B88" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C88" s="57" t="s">
+      <c r="C88" s="56" t="s">
         <v>266</v>
       </c>
-      <c r="D88" s="57"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="57"/>
-      <c r="G88" s="57"/>
-      <c r="H88" s="58"/>
+      <c r="D88" s="56"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="56"/>
+      <c r="H88" s="57"/>
     </row>
     <row r="89" ht="11" customHeight="1" spans="1:8">
       <c r="A89" s="43"/>
@@ -5720,2119 +6056,2387 @@
     </row>
     <row r="90" ht="19.5" customHeight="1" spans="1:8">
       <c r="A90" s="43"/>
-      <c r="B90" s="42" t="s">
+      <c r="B90" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C90" s="42" t="s">
+      <c r="C90" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="E90" s="20"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="21"/>
+    </row>
+    <row r="91" ht="18" customHeight="1" spans="1:8">
+      <c r="A91" s="43"/>
+      <c r="B91" s="1"/>
+      <c r="C91" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D91" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="E91" s="20"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="20"/>
+      <c r="H91" s="21"/>
+    </row>
+    <row r="92" ht="18" customHeight="1" spans="1:8">
+      <c r="A92" s="43"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D92" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="E92" s="20"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="20"/>
+      <c r="H92" s="21"/>
+    </row>
+    <row r="93" ht="18" customHeight="1" spans="1:8">
+      <c r="A93" s="43"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D90" s="23" t="s">
-        <v>268</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F90" s="23" t="s">
-        <v>270</v>
-      </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A91" s="43"/>
-      <c r="B91" s="45"/>
-      <c r="C91" s="46"/>
-      <c r="D91" s="23" t="s">
-        <v>271</v>
-      </c>
-      <c r="E91" s="3" t="s">
+      <c r="D93" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="F91" s="23"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" ht="19.5" customHeight="1" spans="1:8">
-      <c r="A92" s="59"/>
-      <c r="B92" s="46"/>
-      <c r="C92" s="46" t="s">
+      <c r="E93" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="H93" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="94" ht="18" customHeight="1" spans="1:8">
+      <c r="A94" s="43"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="F94" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="G94" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="95" ht="18" customHeight="1" spans="1:8">
+      <c r="A95" s="43"/>
+      <c r="B95" s="1"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="E95" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="96" ht="18" customHeight="1" spans="1:8">
+      <c r="A96" s="43"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="D92" s="23" t="s">
-        <v>273</v>
-      </c>
-      <c r="E92" s="28" t="s">
-        <v>274</v>
-      </c>
-      <c r="F92" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3"/>
-    </row>
-    <row r="93" ht="19.5" customHeight="1"/>
-    <row r="94" ht="50.25" customHeight="1" spans="1:8">
-      <c r="A94" s="60" t="s">
-        <v>276</v>
-      </c>
-      <c r="B94" s="61" t="s">
-        <v>277</v>
-      </c>
-      <c r="C94" s="62" t="s">
-        <v>278</v>
-      </c>
-      <c r="D94" s="63"/>
-      <c r="E94" s="63"/>
-      <c r="F94" s="63"/>
-      <c r="G94" s="63"/>
-      <c r="H94" s="64"/>
-    </row>
-    <row r="95" customHeight="1" spans="1:8">
-      <c r="A95" s="65"/>
-      <c r="B95" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="C95" s="66" t="s">
+      <c r="D96" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E96" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="97" ht="18" customHeight="1" spans="1:8">
+      <c r="A97" s="43"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="E97" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H97" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="98" ht="18" customHeight="1" spans="1:8">
+      <c r="A98" s="59"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D98" s="30" t="s">
+        <v>293</v>
+      </c>
+      <c r="E98" s="20"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="20"/>
+      <c r="H98" s="21"/>
+    </row>
+    <row r="99" ht="18" customHeight="1" spans="2:8">
+      <c r="B99" s="60"/>
+      <c r="C99" s="61"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="62"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="62"/>
+    </row>
+    <row r="100" ht="50.25" customHeight="1" spans="1:8">
+      <c r="A100" s="63" t="s">
+        <v>294</v>
+      </c>
+      <c r="B100" s="64" t="s">
+        <v>295</v>
+      </c>
+      <c r="C100" s="65" t="s">
+        <v>296</v>
+      </c>
+      <c r="D100" s="66"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="66"/>
+      <c r="H100" s="67"/>
+    </row>
+    <row r="101" customHeight="1" spans="1:8">
+      <c r="A101" s="68"/>
+      <c r="B101" s="41" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D95" s="67" t="s">
-        <v>280</v>
-      </c>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="67"/>
-      <c r="H95" s="67"/>
-    </row>
-    <row r="96" customHeight="1" spans="1:8">
-      <c r="A96" s="65"/>
-      <c r="B96" s="68"/>
-      <c r="C96" s="69" t="s">
+      <c r="D101" s="69" t="s">
+        <v>298</v>
+      </c>
+      <c r="E101" s="69"/>
+      <c r="F101" s="69"/>
+      <c r="G101" s="69"/>
+      <c r="H101" s="69"/>
+    </row>
+    <row r="102" customHeight="1" spans="1:8">
+      <c r="A102" s="68"/>
+      <c r="B102" s="44"/>
+      <c r="C102" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D96" s="70" t="s">
-        <v>281</v>
-      </c>
-      <c r="E96" s="71"/>
-      <c r="F96" s="71"/>
-      <c r="G96" s="71"/>
-      <c r="H96" s="72"/>
-    </row>
-    <row r="97" customHeight="1" spans="1:8">
-      <c r="A97" s="65"/>
-      <c r="B97" s="44"/>
-      <c r="C97" s="42" t="s">
+      <c r="D102" s="70" t="s">
+        <v>299</v>
+      </c>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="71"/>
+      <c r="H102" s="72"/>
+    </row>
+    <row r="103" customHeight="1" spans="1:8">
+      <c r="A103" s="68"/>
+      <c r="B103" s="44"/>
+      <c r="C103" s="42" t="s">
         <v>145</v>
       </c>
-      <c r="D97" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="E97" s="23" t="s">
-        <v>283</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="G97" s="23" t="s">
+      <c r="D103" s="23" t="s">
+        <v>300</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="F103" s="23" t="s">
+        <v>302</v>
+      </c>
+      <c r="G103" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H97" s="23" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="98" customHeight="1" spans="1:8">
-      <c r="A98" s="65"/>
-      <c r="B98" s="44"/>
-      <c r="C98" s="45"/>
-      <c r="D98" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="E98" s="23" t="s">
-        <v>287</v>
-      </c>
-      <c r="F98" s="23" t="s">
-        <v>288</v>
-      </c>
-      <c r="G98" s="23" t="s">
+      <c r="H103" s="23" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="104" customHeight="1" spans="1:8">
+      <c r="A104" s="68"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="G104" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="H98" s="23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="99" customHeight="1" spans="1:8">
-      <c r="A99" s="65"/>
-      <c r="B99" s="44"/>
-      <c r="C99" s="45"/>
-      <c r="D99" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="E99" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="F99" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H99" s="3" t="s">
+      <c r="H104" s="23" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="105" customHeight="1" spans="1:8">
+      <c r="A105" s="68"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="45"/>
+      <c r="D105" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="F105" s="23" t="s">
+        <v>310</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="H105" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="100" customHeight="1" spans="1:8">
-      <c r="A100" s="65"/>
-      <c r="B100" s="44"/>
-      <c r="C100" s="45"/>
-      <c r="D100" s="23" t="s">
-        <v>294</v>
-      </c>
-      <c r="E100" s="23" t="s">
-        <v>295</v>
-      </c>
-      <c r="F100" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="G100" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H100" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="101" customHeight="1" spans="1:8">
-      <c r="A101" s="65"/>
-      <c r="B101" s="44"/>
-      <c r="C101" s="46"/>
-      <c r="D101" s="23" t="s">
-        <v>297</v>
-      </c>
-      <c r="E101" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="F101" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="G101" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="H101" s="23" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="102" customHeight="1" spans="1:8">
-      <c r="A102" s="65"/>
-      <c r="B102" s="47"/>
-      <c r="C102" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D102" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="E102" s="23" t="s">
-        <v>302</v>
-      </c>
-      <c r="F102" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="G102" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H102" s="23" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="103" ht="11" customHeight="1" spans="1:1">
-      <c r="A103" s="65"/>
-    </row>
-    <row r="104" customHeight="1" spans="1:8">
-      <c r="A104" s="65"/>
-      <c r="B104" s="41" t="s">
-        <v>305</v>
-      </c>
-      <c r="C104" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="D104" s="74" t="s">
-        <v>306</v>
-      </c>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="74"/>
-      <c r="H104" s="74"/>
-    </row>
-    <row r="105" customHeight="1" spans="1:8">
-      <c r="A105" s="65"/>
-      <c r="B105" s="68"/>
-      <c r="C105" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D105" s="75" t="s">
-        <v>307</v>
-      </c>
-      <c r="E105" s="75"/>
-      <c r="F105" s="75"/>
-      <c r="G105" s="75"/>
-      <c r="H105" s="76"/>
-    </row>
     <row r="106" customHeight="1" spans="1:8">
-      <c r="A106" s="65"/>
+      <c r="A106" s="68"/>
       <c r="B106" s="44"/>
-      <c r="C106" s="42" t="s">
-        <v>145</v>
-      </c>
+      <c r="C106" s="45"/>
       <c r="D106" s="23" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G106" s="23" t="s">
         <v>14</v>
       </c>
       <c r="H106" s="23" t="s">
-        <v>310</v>
+        <v>133</v>
       </c>
     </row>
     <row r="107" customHeight="1" spans="1:8">
-      <c r="A107" s="65"/>
+      <c r="A107" s="68"/>
       <c r="B107" s="44"/>
-      <c r="C107" s="45"/>
+      <c r="C107" s="46"/>
       <c r="D107" s="23" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G107" s="23" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="H107" s="23" t="s">
-        <v>129</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:8">
-      <c r="A108" s="65"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="45"/>
+      <c r="A108" s="68"/>
+      <c r="B108" s="47"/>
+      <c r="C108" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D108" s="23" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="E108" s="23" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G108" s="23" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="H108" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" customHeight="1" spans="1:8">
-      <c r="A109" s="65"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="45"/>
-      <c r="D109" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="E109" s="23" t="s">
-        <v>316</v>
-      </c>
-      <c r="F109" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="G109" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H109" s="23" t="s">
-        <v>77</v>
-      </c>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="109" ht="11" customHeight="1" spans="1:1">
+      <c r="A109" s="68"/>
     </row>
     <row r="110" customHeight="1" spans="1:8">
-      <c r="A110" s="65"/>
-      <c r="B110" s="44"/>
-      <c r="C110" s="46"/>
-      <c r="D110" s="23" t="s">
-        <v>318</v>
-      </c>
-      <c r="E110" s="27" t="s">
-        <v>319</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>320</v>
-      </c>
-      <c r="G110" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="H110" s="23" t="s">
-        <v>169</v>
-      </c>
+      <c r="A110" s="68"/>
+      <c r="B110" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="C110" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
     </row>
     <row r="111" customHeight="1" spans="1:8">
-      <c r="A111" s="65"/>
+      <c r="A111" s="68"/>
       <c r="B111" s="44"/>
-      <c r="C111" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D111" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="E111" s="28" t="s">
-        <v>322</v>
-      </c>
-      <c r="F111" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="G111" s="23" t="s">
+      <c r="C111" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D111" s="17" t="s">
         <v>324</v>
       </c>
-      <c r="H111" s="23" t="s">
-        <v>60</v>
-      </c>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="18"/>
     </row>
     <row r="112" customHeight="1" spans="1:8">
-      <c r="A112" s="65"/>
-      <c r="B112" s="47"/>
-      <c r="C112" s="46"/>
+      <c r="A112" s="68"/>
+      <c r="B112" s="44"/>
+      <c r="C112" s="42" t="s">
+        <v>145</v>
+      </c>
       <c r="D112" s="23" t="s">
         <v>325</v>
       </c>
       <c r="E112" s="23" t="s">
+        <v>301</v>
+      </c>
+      <c r="F112" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="F112" s="23" t="s">
+      <c r="G112" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="G112" s="23" t="s">
+    </row>
+    <row r="113" customHeight="1" spans="1:8">
+      <c r="A113" s="68"/>
+      <c r="B113" s="44"/>
+      <c r="C113" s="45"/>
+      <c r="D113" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="E113" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="F113" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="H113" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="114" customHeight="1" spans="1:8">
+      <c r="A114" s="68"/>
+      <c r="B114" s="44"/>
+      <c r="C114" s="45"/>
+      <c r="D114" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="H114" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" customHeight="1" spans="1:8">
+      <c r="A115" s="68"/>
+      <c r="B115" s="44"/>
+      <c r="C115" s="45"/>
+      <c r="D115" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="F115" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="G115" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H115" s="23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" customHeight="1" spans="1:8">
+      <c r="A116" s="68"/>
+      <c r="B116" s="44"/>
+      <c r="C116" s="46"/>
+      <c r="D116" s="23" t="s">
+        <v>335</v>
+      </c>
+      <c r="E116" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="F116" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="G116" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H116" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" customHeight="1" spans="1:8">
+      <c r="A117" s="68"/>
+      <c r="B117" s="44"/>
+      <c r="C117" s="42" t="s">
+        <v>170</v>
+      </c>
+      <c r="D117" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="E117" s="28" t="s">
+        <v>339</v>
+      </c>
+      <c r="F117" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="G117" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="H117" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" customHeight="1" spans="1:8">
+      <c r="A118" s="68"/>
+      <c r="B118" s="47"/>
+      <c r="C118" s="46"/>
+      <c r="D118" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="E118" s="23" t="s">
+        <v>343</v>
+      </c>
+      <c r="F118" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="G118" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="H112" s="23" t="s">
+      <c r="H118" s="23" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="113" ht="12" customHeight="1" spans="1:1">
-      <c r="A113" s="65"/>
-    </row>
-    <row r="114" customHeight="1" spans="1:8">
-      <c r="A114" s="65"/>
-      <c r="B114" s="41" t="s">
+    <row r="119" ht="12" customHeight="1" spans="1:1">
+      <c r="A119" s="68"/>
+    </row>
+    <row r="120" customHeight="1" spans="1:8">
+      <c r="A120" s="68"/>
+      <c r="B120" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="C120" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120" s="49" t="s">
+        <v>346</v>
+      </c>
+      <c r="E120" s="49"/>
+      <c r="F120" s="49"/>
+      <c r="G120" s="49"/>
+      <c r="H120" s="49"/>
+    </row>
+    <row r="121" customHeight="1" spans="1:8">
+      <c r="A121" s="68"/>
+      <c r="B121" s="44"/>
+      <c r="C121" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D121" s="23" t="s">
+        <v>347</v>
+      </c>
+      <c r="E121" s="74" t="s">
+        <v>348</v>
+      </c>
+      <c r="F121" s="23" t="s">
+        <v>349</v>
+      </c>
+      <c r="G121" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H121" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="122" customHeight="1" spans="1:8">
+      <c r="A122" s="68"/>
+      <c r="B122" s="44"/>
+      <c r="C122" s="45"/>
+      <c r="D122" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="E122" s="74" t="s">
         <v>328</v>
       </c>
-      <c r="C114" s="77" t="s">
+      <c r="F122" s="23" t="s">
+        <v>351</v>
+      </c>
+      <c r="G122" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="H122" s="23" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="123" customHeight="1" spans="1:8">
+      <c r="A123" s="68"/>
+      <c r="B123" s="44"/>
+      <c r="C123" s="45"/>
+      <c r="D123" s="23" t="s">
+        <v>353</v>
+      </c>
+      <c r="E123" s="75" t="s">
+        <v>354</v>
+      </c>
+      <c r="F123" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="G123" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H123" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="124" customHeight="1" spans="1:8">
+      <c r="A124" s="68"/>
+      <c r="B124" s="44"/>
+      <c r="C124" s="46"/>
+      <c r="D124" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="E124" s="76" t="s">
+        <v>356</v>
+      </c>
+      <c r="F124" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="G124" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="H124" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" customHeight="1" spans="1:8">
+      <c r="A125" s="68"/>
+      <c r="B125" s="44"/>
+      <c r="C125" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D125" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="E125" s="74" t="s">
+        <v>359</v>
+      </c>
+      <c r="F125" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="G125" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="H125" s="23" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="126" customHeight="1" spans="1:8">
+      <c r="A126" s="68"/>
+      <c r="B126" s="44"/>
+      <c r="C126" s="45"/>
+      <c r="D126" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="E126" s="74" t="s">
+        <v>362</v>
+      </c>
+      <c r="F126" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="G126" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="H126" s="23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="127" customHeight="1" spans="1:8">
+      <c r="A127" s="68"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="46"/>
+      <c r="D127" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="E127" s="74" t="s">
+        <v>366</v>
+      </c>
+      <c r="F127" s="23" t="s">
+        <v>367</v>
+      </c>
+      <c r="G127" s="23" t="s">
+        <v>341</v>
+      </c>
+      <c r="H127" s="23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" ht="12" customHeight="1" spans="1:1">
+      <c r="A128" s="68"/>
+    </row>
+    <row r="129" customHeight="1" spans="1:8">
+      <c r="A129" s="68"/>
+      <c r="B129" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="C129" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="78" t="s">
+        <v>369</v>
+      </c>
+      <c r="E129" s="79"/>
+      <c r="F129" s="79"/>
+      <c r="G129" s="79"/>
+      <c r="H129" s="80"/>
+    </row>
+    <row r="130" customHeight="1" spans="1:8">
+      <c r="A130" s="68"/>
+      <c r="B130" s="44"/>
+      <c r="C130" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="D114" s="78" t="s">
-        <v>329</v>
-      </c>
-      <c r="E114" s="78"/>
-      <c r="F114" s="78"/>
-      <c r="G114" s="78"/>
-      <c r="H114" s="78"/>
-    </row>
-    <row r="115" customHeight="1" spans="1:8">
-      <c r="A115" s="65"/>
-      <c r="B115" s="44"/>
-      <c r="C115" s="42" t="s">
+      <c r="D130" s="81" t="s">
+        <v>370</v>
+      </c>
+      <c r="E130" s="49"/>
+      <c r="F130" s="49"/>
+      <c r="G130" s="49"/>
+      <c r="H130" s="49"/>
+    </row>
+    <row r="131" customHeight="1" spans="1:8">
+      <c r="A131" s="68"/>
+      <c r="B131" s="44"/>
+      <c r="C131" s="82" t="s">
+        <v>371</v>
+      </c>
+      <c r="D131" s="78" t="s">
+        <v>372</v>
+      </c>
+      <c r="E131" s="79"/>
+      <c r="F131" s="79"/>
+      <c r="G131" s="79"/>
+      <c r="H131" s="80"/>
+    </row>
+    <row r="132" customHeight="1" spans="1:8">
+      <c r="A132" s="68"/>
+      <c r="B132" s="44"/>
+      <c r="C132" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
+      <c r="H132" s="18"/>
+    </row>
+    <row r="133" customHeight="1" spans="1:8">
+      <c r="A133" s="68"/>
+      <c r="B133" s="44"/>
+      <c r="C133" s="41" t="s">
         <v>145</v>
       </c>
-      <c r="D115" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="E115" s="79" t="s">
-        <v>331</v>
-      </c>
-      <c r="F115" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="G115" s="23" t="s">
+      <c r="D133" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="E133" s="74" t="s">
+        <v>376</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="G133" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="H115" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="116" customHeight="1" spans="1:8">
-      <c r="A116" s="65"/>
-      <c r="B116" s="44"/>
-      <c r="C116" s="45"/>
-      <c r="D116" s="23" t="s">
-        <v>290</v>
-      </c>
-      <c r="E116" s="79" t="s">
+      <c r="H133" s="23" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="134" customHeight="1" spans="1:8">
+      <c r="A134" s="68"/>
+      <c r="B134" s="44"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="83" t="s">
+        <v>378</v>
+      </c>
+      <c r="E134" s="74" t="s">
+        <v>379</v>
+      </c>
+      <c r="F134" s="23" t="s">
+        <v>380</v>
+      </c>
+      <c r="G134" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="H134" s="23" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="135" customHeight="1" spans="1:8">
+      <c r="A135" s="68"/>
+      <c r="B135" s="44"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="E135" s="74" t="s">
+        <v>328</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>383</v>
+      </c>
+      <c r="G135" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="F116" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="G116" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="H116" s="23" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="117" customHeight="1" spans="1:8">
-      <c r="A117" s="65"/>
-      <c r="B117" s="44"/>
-      <c r="C117" s="45"/>
-      <c r="D117" s="23" t="s">
-        <v>336</v>
-      </c>
-      <c r="E117" s="80" t="s">
-        <v>337</v>
-      </c>
-      <c r="F117" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="G117" s="23" t="s">
+      <c r="H135" s="23" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="136" customHeight="1" spans="1:8">
+      <c r="A136" s="68"/>
+      <c r="B136" s="44"/>
+      <c r="C136" s="46"/>
+      <c r="D136" s="23" t="s">
+        <v>384</v>
+      </c>
+      <c r="E136" s="74" t="s">
+        <v>385</v>
+      </c>
+      <c r="F136" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="G136" s="23" t="s">
+        <v>387</v>
+      </c>
+      <c r="H136" s="23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="137" customHeight="1" spans="1:8">
+      <c r="A137" s="68"/>
+      <c r="B137" s="44"/>
+      <c r="C137" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D137" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="E137" s="74" t="s">
+        <v>389</v>
+      </c>
+      <c r="F137" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="G137" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H137" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="138" customHeight="1" spans="1:8">
+      <c r="A138" s="68"/>
+      <c r="B138" s="44"/>
+      <c r="C138" s="46"/>
+      <c r="D138" s="23" t="s">
+        <v>391</v>
+      </c>
+      <c r="E138" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="F138" s="23" t="s">
+        <v>393</v>
+      </c>
+      <c r="G138" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="H138" s="23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="139" ht="20" customHeight="1" spans="1:8">
+      <c r="A139" s="68"/>
+      <c r="B139" s="47"/>
+      <c r="C139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D139" s="30" t="s">
+        <v>394</v>
+      </c>
+      <c r="E139" s="20"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="20"/>
+      <c r="H139" s="21"/>
+    </row>
+    <row r="140" ht="12" customHeight="1" spans="1:8">
+      <c r="A140" s="68"/>
+      <c r="H140" s="19"/>
+    </row>
+    <row r="141" customHeight="1" spans="1:8">
+      <c r="A141" s="68"/>
+      <c r="B141" s="41" t="s">
+        <v>395</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D141" s="30" t="s">
+        <v>396</v>
+      </c>
+      <c r="E141" s="20"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="20"/>
+      <c r="H141" s="21"/>
+    </row>
+    <row r="142" customHeight="1" spans="1:8">
+      <c r="A142" s="68"/>
+      <c r="B142" s="44"/>
+      <c r="C142" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="E142" s="20"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="20"/>
+      <c r="H142" s="21"/>
+    </row>
+    <row r="143" customHeight="1" spans="1:8">
+      <c r="A143" s="68"/>
+      <c r="B143" s="44"/>
+      <c r="C143" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="E143" s="20"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="20"/>
+      <c r="H143" s="21"/>
+    </row>
+    <row r="144" customHeight="1" spans="1:8">
+      <c r="A144" s="68"/>
+      <c r="B144" s="44"/>
+      <c r="C144" s="42" t="s">
+        <v>399</v>
+      </c>
+      <c r="D144" s="30" t="s">
+        <v>400</v>
+      </c>
+      <c r="E144" s="20"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="20"/>
+      <c r="H144" s="21"/>
+    </row>
+    <row r="145" customHeight="1" spans="1:8">
+      <c r="A145" s="68"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="42" t="s">
+        <v>401</v>
+      </c>
+      <c r="D145" s="30" t="s">
+        <v>402</v>
+      </c>
+      <c r="E145" s="20"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="20"/>
+      <c r="H145" s="21"/>
+    </row>
+    <row r="146" customHeight="1" spans="1:8">
+      <c r="A146" s="68"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="147" customHeight="1" spans="1:8">
+      <c r="A147" s="68"/>
+      <c r="B147" s="44"/>
+      <c r="C147" s="45"/>
+      <c r="D147" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="G147" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="148" customHeight="1" spans="1:8">
+      <c r="A148" s="68"/>
+      <c r="B148" s="44"/>
+      <c r="C148" s="46"/>
+      <c r="D148" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F148" s="23" t="s">
+        <v>412</v>
+      </c>
+      <c r="G148" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H117" s="23" t="s">
+      <c r="H148" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="149" customHeight="1" spans="1:8">
+      <c r="A149" s="68"/>
+      <c r="B149" s="44"/>
+      <c r="C149" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D149" s="23" t="s">
+        <v>413</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>415</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" customHeight="1" spans="1:8">
+      <c r="A150" s="68"/>
+      <c r="B150" s="44"/>
+      <c r="C150" s="45"/>
+      <c r="D150" s="23" t="s">
+        <v>342</v>
+      </c>
+      <c r="E150" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="F150" s="23" t="s">
+        <v>417</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="151" customHeight="1" spans="1:8">
+      <c r="A151" s="68"/>
+      <c r="B151" s="44"/>
+      <c r="C151" s="46"/>
+      <c r="D151" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="152" ht="20" customHeight="1" spans="1:8">
+      <c r="A152" s="68"/>
+      <c r="B152" s="47"/>
+      <c r="C152" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="E152" s="20"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="20"/>
+      <c r="H152" s="21"/>
+    </row>
+    <row r="153" ht="12" customHeight="1" spans="1:8">
+      <c r="A153" s="68"/>
+      <c r="H153" s="19"/>
+    </row>
+    <row r="154" customHeight="1" spans="1:8">
+      <c r="A154" s="68"/>
+      <c r="B154" s="36" t="s">
+        <v>424</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D154" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="E154" s="20"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="20"/>
+      <c r="H154" s="21"/>
+    </row>
+    <row r="155" customHeight="1" spans="1:8">
+      <c r="A155" s="68"/>
+      <c r="B155" s="36"/>
+      <c r="C155" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="156" customHeight="1" spans="1:8">
+      <c r="A156" s="68"/>
+      <c r="B156" s="36"/>
+      <c r="C156" s="45"/>
+      <c r="D156" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="157" customHeight="1" spans="1:8">
+      <c r="A157" s="68"/>
+      <c r="B157" s="36"/>
+      <c r="C157" s="46"/>
+      <c r="D157" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="158" customHeight="1" spans="1:8">
+      <c r="A158" s="68"/>
+      <c r="B158" s="36"/>
+      <c r="C158" s="45" t="s">
+        <v>170</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="159" customHeight="1" spans="1:8">
+      <c r="A159" s="68"/>
+      <c r="B159" s="36"/>
+      <c r="C159" s="45"/>
+      <c r="D159" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="160" customHeight="1" spans="1:8">
+      <c r="A160" s="68"/>
+      <c r="B160" s="36"/>
+      <c r="C160" s="45"/>
+      <c r="D160" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="F160" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="161" customHeight="1" spans="1:8">
+      <c r="A161" s="68"/>
+      <c r="B161" s="36"/>
+      <c r="C161" s="46"/>
+      <c r="D161" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="162" customHeight="1" spans="1:8">
+      <c r="A162" s="84"/>
+      <c r="B162" s="36"/>
+      <c r="C162" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D162" s="30" t="s">
+        <v>450</v>
+      </c>
+      <c r="E162" s="20"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="20"/>
+      <c r="H162" s="21"/>
+    </row>
+    <row r="163" ht="18" customHeight="1" spans="2:2">
+      <c r="B163" s="85"/>
+    </row>
+    <row r="164" customHeight="1" spans="1:8">
+      <c r="A164" s="86" t="s">
+        <v>451</v>
+      </c>
+      <c r="B164" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="C164" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D164" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="E164" s="32"/>
+      <c r="F164" s="32"/>
+      <c r="G164" s="32"/>
+      <c r="H164" s="32"/>
+    </row>
+    <row r="165" customHeight="1" spans="1:8">
+      <c r="A165" s="86"/>
+      <c r="B165" s="36"/>
+      <c r="C165" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D165" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="E165" s="32"/>
+      <c r="F165" s="32"/>
+      <c r="G165" s="32"/>
+      <c r="H165" s="32"/>
+    </row>
+    <row r="166" customHeight="1" spans="1:8">
+      <c r="A166" s="86"/>
+      <c r="B166" s="36"/>
+      <c r="C166" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="D166" s="23" t="s">
+        <v>455</v>
+      </c>
+      <c r="E166" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="F166" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="G166" s="23" t="s">
+        <v>458</v>
+      </c>
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" customHeight="1" spans="1:8">
+      <c r="A167" s="86"/>
+      <c r="B167" s="36"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="23" t="s">
+        <v>459</v>
+      </c>
+      <c r="E167" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="F167" s="23" t="s">
+        <v>460</v>
+      </c>
+      <c r="G167" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="H167" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="168" customHeight="1" spans="1:8">
+      <c r="A168" s="86"/>
+      <c r="B168" s="36"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="E168" s="23" t="s">
+        <v>463</v>
+      </c>
+      <c r="F168" s="23" t="s">
+        <v>464</v>
+      </c>
+      <c r="G168" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H168" s="23" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="169" customHeight="1" spans="1:8">
+      <c r="A169" s="86"/>
+      <c r="B169" s="36"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="23" t="s">
+        <v>466</v>
+      </c>
+      <c r="E169" s="28" t="s">
+        <v>467</v>
+      </c>
+      <c r="F169" s="23" t="s">
+        <v>468</v>
+      </c>
+      <c r="G169" s="23" t="s">
+        <v>461</v>
+      </c>
+      <c r="H169" s="23" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="170" customHeight="1" spans="1:8">
+      <c r="A170" s="86"/>
+      <c r="B170" s="36"/>
+      <c r="C170" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D170" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="E170" s="23" t="s">
+        <v>471</v>
+      </c>
+      <c r="F170" s="23" t="s">
+        <v>472</v>
+      </c>
+      <c r="G170" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="H170" s="23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="171" customHeight="1" spans="1:8">
+      <c r="A171" s="86"/>
+      <c r="B171" s="36"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="E171" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="F171" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="G171" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="H171" s="23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" customHeight="1" spans="1:8">
+      <c r="A172" s="86"/>
+      <c r="B172" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D172" s="23" t="s">
+        <v>473</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="G172" s="3"/>
+      <c r="H172" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="173" customHeight="1" spans="1:8">
+      <c r="A173" s="86"/>
+      <c r="B173" s="36"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="23" t="s">
+        <v>480</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="H173" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="118" customHeight="1" spans="1:8">
-      <c r="A118" s="65"/>
-      <c r="B118" s="44"/>
-      <c r="C118" s="46"/>
-      <c r="D118" s="27" t="s">
-        <v>313</v>
-      </c>
-      <c r="E118" s="81" t="s">
-        <v>339</v>
-      </c>
-      <c r="F118" s="23" t="s">
-        <v>340</v>
-      </c>
-      <c r="G118" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="H118" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="119" customHeight="1" spans="1:8">
-      <c r="A119" s="65"/>
-      <c r="B119" s="44"/>
-      <c r="C119" s="45" t="s">
+    <row r="174" customHeight="1" spans="1:8">
+      <c r="A174" s="86"/>
+      <c r="B174" s="36"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="23" t="s">
+        <v>484</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="175" customHeight="1" spans="1:8">
+      <c r="A175" s="86"/>
+      <c r="B175" s="36"/>
+      <c r="C175" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D119" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="E119" s="79" t="s">
-        <v>342</v>
-      </c>
-      <c r="F119" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="G119" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="H119" s="23" t="s">
+      <c r="D175" s="23" t="s">
+        <v>487</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H175" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="120" customHeight="1" spans="1:8">
-      <c r="A120" s="65"/>
-      <c r="B120" s="44"/>
-      <c r="C120" s="45"/>
-      <c r="D120" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="E120" s="79" t="s">
-        <v>345</v>
-      </c>
-      <c r="F120" s="23" t="s">
-        <v>346</v>
-      </c>
-      <c r="G120" s="23" t="s">
+    <row r="176" customHeight="1" spans="1:8">
+      <c r="A176" s="86"/>
+      <c r="B176" s="36"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="74" t="s">
+        <v>490</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="177" customHeight="1" spans="1:8">
+      <c r="A177" s="86"/>
+      <c r="B177" s="36"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="G177" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H120" s="23" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="121" customHeight="1" spans="1:8">
-      <c r="A121" s="65"/>
-      <c r="B121" s="47"/>
-      <c r="C121" s="46"/>
-      <c r="D121" s="23" t="s">
-        <v>348</v>
-      </c>
-      <c r="E121" s="79" t="s">
-        <v>349</v>
-      </c>
-      <c r="F121" s="23" t="s">
-        <v>350</v>
-      </c>
-      <c r="G121" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="H121" s="23" t="s">
+      <c r="H177" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="1:8">
+      <c r="A178" s="86"/>
+      <c r="B178" s="36" t="s">
+        <v>497</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D178" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="179" customHeight="1" spans="1:8">
+      <c r="A179" s="86"/>
+      <c r="B179" s="36"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="180" customHeight="1" spans="1:8">
+      <c r="A180" s="86"/>
+      <c r="B180" s="36"/>
+      <c r="C180" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D180" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H180" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="122" ht="12" customHeight="1" spans="1:1">
-      <c r="A122" s="65"/>
-    </row>
-    <row r="123" customHeight="1" spans="1:8">
-      <c r="A123" s="65"/>
-      <c r="B123" s="82" t="s">
-        <v>351</v>
-      </c>
-      <c r="C123" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" s="84" t="s">
-        <v>352</v>
-      </c>
-      <c r="E123" s="85"/>
-      <c r="F123" s="85"/>
-      <c r="G123" s="85"/>
-      <c r="H123" s="86"/>
-    </row>
-    <row r="124" customHeight="1" spans="1:8">
-      <c r="A124" s="65"/>
-      <c r="B124" s="87"/>
-      <c r="C124" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="D124" s="88" t="s">
-        <v>353</v>
-      </c>
-      <c r="E124" s="49"/>
-      <c r="F124" s="49"/>
-      <c r="G124" s="49"/>
-      <c r="H124" s="49"/>
-    </row>
-    <row r="125" customHeight="1" spans="1:8">
-      <c r="A125" s="65"/>
-      <c r="B125" s="87"/>
-      <c r="C125" s="89" t="s">
-        <v>354</v>
-      </c>
-      <c r="D125" s="84" t="s">
-        <v>355</v>
-      </c>
-      <c r="E125" s="85"/>
-      <c r="F125" s="85"/>
-      <c r="G125" s="85"/>
-      <c r="H125" s="86"/>
-    </row>
-    <row r="126" customHeight="1" spans="1:8">
-      <c r="A126" s="65"/>
-      <c r="B126" s="87"/>
-      <c r="C126" s="41" t="s">
-        <v>356</v>
-      </c>
-      <c r="D126" s="90" t="s">
-        <v>357</v>
-      </c>
-      <c r="E126" s="75"/>
-      <c r="F126" s="75"/>
-      <c r="G126" s="75"/>
-      <c r="H126" s="76"/>
-    </row>
-    <row r="127" customHeight="1" spans="1:8">
-      <c r="A127" s="65"/>
-      <c r="B127" s="87"/>
-      <c r="C127" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D127" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="E127" s="79" t="s">
-        <v>359</v>
-      </c>
-      <c r="F127" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="G127" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="H127" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="128" customHeight="1" spans="1:8">
-      <c r="A128" s="65"/>
-      <c r="B128" s="87"/>
-      <c r="C128" s="45"/>
-      <c r="D128" s="91" t="s">
+    <row r="181" customHeight="1" spans="1:8">
+      <c r="A181" s="86"/>
+      <c r="B181" s="36"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="G181" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="E128" s="79" t="s">
-        <v>362</v>
-      </c>
-      <c r="F128" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="G128" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="H128" s="23" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="129" customHeight="1" spans="1:8">
-      <c r="A129" s="65"/>
-      <c r="B129" s="87"/>
-      <c r="C129" s="45"/>
-      <c r="D129" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="E129" s="79" t="s">
-        <v>311</v>
-      </c>
-      <c r="F129" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="G129" s="23" t="s">
-        <v>293</v>
-      </c>
-      <c r="H129" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="130" customHeight="1" spans="1:8">
-      <c r="A130" s="65"/>
-      <c r="B130" s="87"/>
-      <c r="C130" s="46"/>
-      <c r="D130" s="23" t="s">
-        <v>367</v>
-      </c>
-      <c r="E130" s="79" t="s">
-        <v>368</v>
-      </c>
-      <c r="F130" s="23" t="s">
-        <v>369</v>
-      </c>
-      <c r="G130" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="H130" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="131" customHeight="1" spans="1:8">
-      <c r="A131" s="65"/>
-      <c r="B131" s="87"/>
-      <c r="C131" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="D131" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="E131" s="79" t="s">
-        <v>372</v>
-      </c>
-      <c r="F131" s="23" t="s">
-        <v>373</v>
-      </c>
-      <c r="G131" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H131" s="23" t="s">
+      <c r="H181" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="1:8">
-      <c r="A132" s="65"/>
-      <c r="B132" s="87"/>
-      <c r="C132" s="46"/>
-      <c r="D132" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="E132" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="F132" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="G132" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="H132" s="23" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="133" ht="20" customHeight="1" spans="1:8">
-      <c r="A133" s="65"/>
-      <c r="B133" s="92"/>
-      <c r="C133" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="D133" s="93" t="s">
-        <v>377</v>
-      </c>
-      <c r="E133" s="94"/>
-      <c r="F133" s="94"/>
-      <c r="G133" s="94"/>
-      <c r="H133" s="95"/>
-    </row>
-    <row r="134" ht="12" customHeight="1" spans="1:8">
-      <c r="A134" s="65"/>
-      <c r="H134" s="19"/>
-    </row>
-    <row r="135" customHeight="1" spans="1:8">
-      <c r="A135" s="65"/>
-      <c r="B135" s="82" t="s">
-        <v>378</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D135" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="E135" s="20"/>
-      <c r="F135" s="20"/>
-      <c r="G135" s="20"/>
-      <c r="H135" s="21"/>
-    </row>
-    <row r="136" customHeight="1" spans="1:8">
-      <c r="A136" s="65"/>
-      <c r="B136" s="87"/>
-      <c r="C136" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D136" s="30" t="s">
-        <v>380</v>
-      </c>
-      <c r="E136" s="20"/>
-      <c r="F136" s="20"/>
-      <c r="G136" s="20"/>
-      <c r="H136" s="21"/>
-    </row>
-    <row r="137" customHeight="1" spans="1:8">
-      <c r="A137" s="65"/>
-      <c r="B137" s="87"/>
-      <c r="C137" s="69" t="s">
-        <v>381</v>
-      </c>
-      <c r="D137" s="90" t="s">
-        <v>382</v>
-      </c>
-      <c r="E137" s="94"/>
-      <c r="F137" s="94"/>
-      <c r="G137" s="94"/>
-      <c r="H137" s="95"/>
-    </row>
-    <row r="138" customHeight="1" spans="1:8">
-      <c r="A138" s="65"/>
-      <c r="B138" s="87"/>
-      <c r="C138" s="69" t="s">
-        <v>383</v>
-      </c>
-      <c r="D138" s="93" t="s">
-        <v>384</v>
-      </c>
-      <c r="E138" s="94"/>
-      <c r="F138" s="94"/>
-      <c r="G138" s="94"/>
-      <c r="H138" s="95"/>
-    </row>
-    <row r="139" customHeight="1" spans="1:8">
-      <c r="A139" s="65"/>
-      <c r="B139" s="87"/>
-      <c r="C139" s="69" t="s">
-        <v>385</v>
-      </c>
-      <c r="D139" s="93" t="s">
-        <v>386</v>
-      </c>
-      <c r="E139" s="94"/>
-      <c r="F139" s="94"/>
-      <c r="G139" s="94"/>
-      <c r="H139" s="95"/>
-    </row>
-    <row r="140" customHeight="1" spans="1:8">
-      <c r="A140" s="65"/>
-      <c r="B140" s="87"/>
-      <c r="C140" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="G140" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H140" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="141" customHeight="1" spans="1:8">
-      <c r="A141" s="65"/>
-      <c r="B141" s="87"/>
-      <c r="C141" s="45"/>
-      <c r="D141" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="G141" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="142" customHeight="1" spans="1:8">
-      <c r="A142" s="65"/>
-      <c r="B142" s="87"/>
-      <c r="C142" s="46"/>
-      <c r="D142" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="F142" s="23" t="s">
-        <v>396</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H142" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="143" customHeight="1" spans="1:8">
-      <c r="A143" s="65"/>
-      <c r="B143" s="87"/>
-      <c r="C143" s="45" t="s">
-        <v>170</v>
-      </c>
-      <c r="D143" s="23" t="s">
-        <v>397</v>
-      </c>
-      <c r="E143" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="F143" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="H143" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="144" customHeight="1" spans="1:8">
-      <c r="A144" s="65"/>
-      <c r="B144" s="87"/>
-      <c r="C144" s="45"/>
-      <c r="D144" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="E144" s="28" t="s">
-        <v>400</v>
-      </c>
-      <c r="F144" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="H144" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="145" customHeight="1" spans="1:8">
-      <c r="A145" s="65"/>
-      <c r="B145" s="87"/>
-      <c r="C145" s="46"/>
-      <c r="D145" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="146" ht="20" customHeight="1" spans="1:8">
-      <c r="A146" s="65"/>
-      <c r="B146" s="92"/>
-      <c r="C146" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="D146" s="93" t="s">
-        <v>407</v>
-      </c>
-      <c r="E146" s="94"/>
-      <c r="F146" s="94"/>
-      <c r="G146" s="94"/>
-      <c r="H146" s="95"/>
-    </row>
-    <row r="147" ht="12" customHeight="1" spans="1:8">
-      <c r="A147" s="65"/>
-      <c r="H147" s="19"/>
-    </row>
-    <row r="148" customHeight="1" spans="1:8">
-      <c r="A148" s="65"/>
-      <c r="B148" s="36" t="s">
-        <v>408</v>
-      </c>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-    </row>
-    <row r="149" customHeight="1" spans="1:8">
-      <c r="A149" s="65"/>
-      <c r="B149" s="36"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
-      <c r="G149" s="3"/>
-      <c r="H149" s="3"/>
-    </row>
-    <row r="150" customHeight="1" spans="1:8">
-      <c r="A150" s="65"/>
-      <c r="B150" s="36"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
-      <c r="G150" s="3"/>
-      <c r="H150" s="3"/>
-    </row>
-    <row r="151" customHeight="1" spans="1:8">
-      <c r="A151" s="65"/>
-      <c r="B151" s="36"/>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
-      <c r="G151" s="3"/>
-      <c r="H151" s="3"/>
-    </row>
-    <row r="152" customHeight="1" spans="1:8">
-      <c r="A152" s="96"/>
-      <c r="B152" s="36"/>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
-      <c r="G152" s="3"/>
-      <c r="H152" s="3"/>
-    </row>
-    <row r="153" customHeight="1" spans="2:2">
-      <c r="B153" s="97"/>
-    </row>
-    <row r="154" customHeight="1" spans="1:8">
-      <c r="A154" s="98" t="s">
-        <v>409</v>
-      </c>
-      <c r="B154" s="41" t="s">
-        <v>410</v>
-      </c>
-      <c r="C154" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="D154" s="23" t="s">
-        <v>411</v>
-      </c>
-      <c r="E154" s="23" t="s">
-        <v>412</v>
-      </c>
-      <c r="F154" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="G154" s="23" t="s">
-        <v>414</v>
-      </c>
-      <c r="H154" s="3"/>
-    </row>
-    <row r="155" customHeight="1" spans="1:8">
-      <c r="A155" s="99"/>
-      <c r="B155" s="44"/>
-      <c r="C155" s="45"/>
-      <c r="D155" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="E155" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="F155" s="23" t="s">
-        <v>416</v>
-      </c>
-      <c r="G155" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="H155" s="23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="156" customHeight="1" spans="1:8">
-      <c r="A156" s="99"/>
-      <c r="B156" s="44"/>
-      <c r="C156" s="45"/>
-      <c r="D156" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="E156" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="F156" s="23" t="s">
-        <v>420</v>
-      </c>
-      <c r="G156" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="H156" s="23" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="157" customHeight="1" spans="1:8">
-      <c r="A157" s="99"/>
-      <c r="B157" s="44"/>
-      <c r="C157" s="46"/>
-      <c r="D157" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="E157" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="F157" s="23" t="s">
-        <v>424</v>
-      </c>
-      <c r="G157" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="H157" s="23" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="158" customHeight="1" spans="1:8">
-      <c r="A158" s="99"/>
-      <c r="B158" s="44"/>
-      <c r="C158" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="D158" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="E158" s="23" t="s">
-        <v>427</v>
-      </c>
-      <c r="F158" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="G158" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H158" s="23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="159" customHeight="1" spans="1:8">
-      <c r="A159" s="99"/>
-      <c r="B159" s="47"/>
-      <c r="C159" s="46"/>
-      <c r="D159" s="23" t="s">
-        <v>429</v>
-      </c>
-      <c r="E159" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="F159" s="23" t="s">
-        <v>431</v>
-      </c>
-      <c r="G159" s="23" t="s">
-        <v>300</v>
-      </c>
-      <c r="H159" s="23" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="160" customHeight="1" spans="1:8">
-      <c r="A160" s="99"/>
-      <c r="B160" s="41" t="s">
-        <v>432</v>
-      </c>
-      <c r="C160" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D160" s="23" t="s">
-        <v>429</v>
-      </c>
-      <c r="E160" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F160" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="161" customHeight="1" spans="1:8">
-      <c r="A161" s="99"/>
-      <c r="B161" s="44"/>
-      <c r="C161" s="45"/>
-      <c r="D161" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="H161" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="162" customHeight="1" spans="1:8">
-      <c r="A162" s="99"/>
-      <c r="B162" s="44"/>
-      <c r="C162" s="46"/>
-      <c r="D162" s="23" t="s">
-        <v>440</v>
-      </c>
-      <c r="E162" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="G162" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H162" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="163" customHeight="1" spans="1:8">
-      <c r="A163" s="99"/>
-      <c r="B163" s="44"/>
-      <c r="C163" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D163" s="23" t="s">
-        <v>443</v>
-      </c>
-      <c r="E163" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="G163" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H163" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="164" customHeight="1" spans="1:8">
-      <c r="A164" s="99"/>
-      <c r="B164" s="44"/>
-      <c r="C164" s="45"/>
-      <c r="D164" s="100" t="s">
-        <v>446</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="G164" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H164" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="165" customHeight="1" spans="1:8">
-      <c r="A165" s="99"/>
-      <c r="B165" s="47"/>
-      <c r="C165" s="46"/>
-      <c r="D165" s="23" t="s">
-        <v>449</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="G165" s="3" t="s">
+    <row r="182" customHeight="1" spans="1:8">
+      <c r="A182" s="86"/>
+      <c r="B182" s="36"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F182" s="23" t="s">
+        <v>457</v>
+      </c>
+      <c r="G182" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H165" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="166" customHeight="1" spans="1:8">
-      <c r="A166" s="99"/>
-      <c r="B166" s="41" t="s">
-        <v>453</v>
-      </c>
-      <c r="C166" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="D166" s="23" t="s">
-        <v>454</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H166" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="167" customHeight="1" spans="1:8">
-      <c r="A167" s="99"/>
-      <c r="B167" s="44"/>
-      <c r="C167" s="46"/>
-      <c r="D167" s="23" t="s">
-        <v>456</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>458</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="H167" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="168" customHeight="1" spans="1:8">
-      <c r="A168" s="99"/>
-      <c r="B168" s="44"/>
-      <c r="C168" s="42" t="s">
-        <v>170</v>
-      </c>
-      <c r="D168" s="23" t="s">
-        <v>418</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H168" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="169" customHeight="1" spans="1:8">
-      <c r="A169" s="99"/>
-      <c r="B169" s="44"/>
-      <c r="C169" s="45"/>
-      <c r="D169" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F169" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="G169" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="H169" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="170" customHeight="1" spans="1:8">
-      <c r="A170" s="101"/>
-      <c r="B170" s="47"/>
-      <c r="C170" s="46"/>
-      <c r="D170" s="23" t="s">
-        <v>463</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="F170" s="23" t="s">
-        <v>413</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H170" s="3" t="s">
+      <c r="H182" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="172" customHeight="1" spans="1:8">
-      <c r="A172" s="102" t="s">
-        <v>464</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="E172" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-    </row>
-    <row r="173" customHeight="1" spans="1:8">
-      <c r="A173" s="102"/>
-      <c r="B173" s="1"/>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-    </row>
-    <row r="174" customHeight="1" spans="1:8">
-      <c r="A174" s="102"/>
-      <c r="B174" s="1"/>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-    </row>
-    <row r="175" customHeight="1" spans="1:8">
-      <c r="A175" s="102"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E175" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-    </row>
-    <row r="176" customHeight="1" spans="1:8">
-      <c r="A176" s="102"/>
-      <c r="B176" s="1"/>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="E176" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-    </row>
-    <row r="177" customHeight="1" spans="1:8">
-      <c r="A177" s="102"/>
-      <c r="B177" s="1"/>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="E177" s="23" t="s">
-        <v>477</v>
-      </c>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-    </row>
-    <row r="178" customHeight="1" spans="1:8">
-      <c r="A178" s="102"/>
-      <c r="B178" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="C178" s="3"/>
-      <c r="D178" s="103" t="s">
-        <v>479</v>
-      </c>
-      <c r="E178" s="103" t="s">
-        <v>480</v>
-      </c>
-      <c r="F178" s="103"/>
-      <c r="G178" s="103"/>
-      <c r="H178" s="103"/>
-    </row>
-    <row r="179" customHeight="1" spans="1:8">
-      <c r="A179" s="102"/>
-      <c r="B179" s="1"/>
-      <c r="C179" s="3"/>
-      <c r="D179" s="103" t="s">
-        <v>481</v>
-      </c>
-      <c r="E179" s="103" t="s">
-        <v>482</v>
-      </c>
-      <c r="F179" s="103"/>
-      <c r="G179" s="103"/>
-      <c r="H179" s="103"/>
-    </row>
-    <row r="180" customHeight="1" spans="1:8">
-      <c r="A180" s="102"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="3"/>
-      <c r="D180" s="103" t="s">
-        <v>483</v>
-      </c>
-      <c r="E180" s="103" t="s">
-        <v>484</v>
-      </c>
-      <c r="F180" s="103"/>
-      <c r="G180" s="103"/>
-      <c r="H180" s="103"/>
-    </row>
-    <row r="181" customHeight="1" spans="1:8">
-      <c r="A181" s="102"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="3"/>
-      <c r="D181" s="103" t="s">
-        <v>485</v>
-      </c>
-      <c r="E181" s="79" t="s">
-        <v>486</v>
-      </c>
-      <c r="F181" s="103"/>
-      <c r="G181" s="103"/>
-      <c r="H181" s="103"/>
-    </row>
-    <row r="182" customHeight="1" spans="1:8">
-      <c r="A182" s="102"/>
-      <c r="B182" s="1"/>
-      <c r="C182" s="3"/>
-      <c r="D182" s="103" t="s">
-        <v>487</v>
-      </c>
-      <c r="E182" s="103" t="s">
-        <v>488</v>
-      </c>
-      <c r="F182" s="103"/>
-      <c r="G182" s="103"/>
-      <c r="H182" s="103"/>
-    </row>
-    <row r="183" customHeight="1" spans="1:8">
-      <c r="A183" s="102"/>
-      <c r="B183" s="1"/>
-      <c r="C183" s="3"/>
-      <c r="D183" s="103" t="s">
-        <v>489</v>
-      </c>
-      <c r="E183" s="103" t="s">
-        <v>490</v>
-      </c>
-      <c r="F183" s="103"/>
-      <c r="G183" s="103"/>
-      <c r="H183" s="103"/>
+    <row r="184" customHeight="1" spans="1:8">
+      <c r="A184" s="87" t="s">
+        <v>509</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="F184" s="3"/>
+      <c r="G184" s="3"/>
+      <c r="H184" s="3"/>
     </row>
     <row r="185" customHeight="1" spans="1:8">
-      <c r="A185" s="104" t="s">
-        <v>491</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>145</v>
-      </c>
+      <c r="A185" s="87"/>
+      <c r="B185" s="1"/>
       <c r="C185" s="3"/>
-      <c r="D185" s="103" t="s">
-        <v>492</v>
-      </c>
-      <c r="E185" s="103" t="s">
-        <v>295</v>
-      </c>
-      <c r="F185" s="103"/>
-      <c r="G185" s="103"/>
-      <c r="H185" s="103"/>
+      <c r="D185" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3"/>
     </row>
     <row r="186" customHeight="1" spans="1:8">
-      <c r="A186" s="104"/>
+      <c r="A186" s="87"/>
       <c r="B186" s="1"/>
-      <c r="C186" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="D186" s="103" t="s">
-        <v>494</v>
-      </c>
-      <c r="E186" s="79" t="s">
-        <v>495</v>
-      </c>
-      <c r="F186" s="103"/>
-      <c r="G186" s="103"/>
-      <c r="H186" s="103"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3"/>
     </row>
     <row r="187" customHeight="1" spans="1:8">
-      <c r="A187" s="104"/>
+      <c r="A187" s="87"/>
       <c r="B187" s="1"/>
-      <c r="C187" s="3" t="s">
-        <v>496</v>
-      </c>
-      <c r="D187" s="103" t="s">
-        <v>497</v>
-      </c>
-      <c r="E187" s="103" t="s">
-        <v>498</v>
-      </c>
-      <c r="F187" s="103"/>
-      <c r="G187" s="103"/>
-      <c r="H187" s="103"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3"/>
     </row>
     <row r="188" customHeight="1" spans="1:8">
-      <c r="A188" s="104"/>
-      <c r="B188" s="1" t="s">
-        <v>170</v>
-      </c>
+      <c r="A188" s="87"/>
+      <c r="B188" s="1"/>
       <c r="C188" s="3"/>
-      <c r="D188" s="103" t="s">
-        <v>499</v>
-      </c>
-      <c r="E188" s="103" t="s">
-        <v>500</v>
-      </c>
-      <c r="F188" s="103"/>
-      <c r="G188" s="103"/>
-      <c r="H188" s="103"/>
+      <c r="D188" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3"/>
     </row>
     <row r="189" customHeight="1" spans="1:8">
-      <c r="A189" s="104"/>
+      <c r="A189" s="87"/>
       <c r="B189" s="1"/>
       <c r="C189" s="3"/>
-      <c r="D189" s="103" t="s">
-        <v>249</v>
-      </c>
-      <c r="E189" s="103" t="s">
-        <v>186</v>
-      </c>
-      <c r="F189" s="103"/>
-      <c r="G189" s="103"/>
-      <c r="H189" s="103"/>
+      <c r="D189" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="E189" s="23" t="s">
+        <v>522</v>
+      </c>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
     </row>
     <row r="190" customHeight="1" spans="1:8">
-      <c r="A190" s="104"/>
-      <c r="B190" s="1"/>
+      <c r="A190" s="87"/>
+      <c r="B190" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="C190" s="3"/>
-      <c r="D190" s="103" t="s">
-        <v>443</v>
-      </c>
-      <c r="E190" s="103" t="s">
-        <v>419</v>
-      </c>
-      <c r="F190" s="103"/>
-      <c r="G190" s="103"/>
-      <c r="H190" s="103"/>
+      <c r="D190" s="88" t="s">
+        <v>524</v>
+      </c>
+      <c r="E190" s="88" t="s">
+        <v>525</v>
+      </c>
+      <c r="F190" s="88"/>
+      <c r="G190" s="88"/>
+      <c r="H190" s="88"/>
+    </row>
+    <row r="191" customHeight="1" spans="1:8">
+      <c r="A191" s="87"/>
+      <c r="B191" s="1"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="88" t="s">
+        <v>526</v>
+      </c>
+      <c r="E191" s="88" t="s">
+        <v>527</v>
+      </c>
+      <c r="F191" s="88"/>
+      <c r="G191" s="88"/>
+      <c r="H191" s="88"/>
     </row>
     <row r="192" customHeight="1" spans="1:8">
-      <c r="A192" s="105" t="s">
-        <v>501</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>502</v>
-      </c>
+      <c r="A192" s="87"/>
+      <c r="B192" s="1"/>
       <c r="C192" s="3"/>
-      <c r="D192" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="E192" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
+      <c r="D192" s="88" t="s">
+        <v>528</v>
+      </c>
+      <c r="E192" s="88" t="s">
+        <v>529</v>
+      </c>
+      <c r="F192" s="88"/>
+      <c r="G192" s="88"/>
+      <c r="H192" s="88"/>
     </row>
     <row r="193" customHeight="1" spans="1:8">
-      <c r="A193" s="105"/>
+      <c r="A193" s="87"/>
       <c r="B193" s="1"/>
       <c r="C193" s="3"/>
-      <c r="D193" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
+      <c r="D193" s="88" t="s">
+        <v>530</v>
+      </c>
+      <c r="E193" s="74" t="s">
+        <v>531</v>
+      </c>
+      <c r="F193" s="88"/>
+      <c r="G193" s="88"/>
+      <c r="H193" s="88"/>
     </row>
     <row r="194" customHeight="1" spans="1:8">
-      <c r="A194" s="105"/>
+      <c r="A194" s="87"/>
       <c r="B194" s="1"/>
       <c r="C194" s="3"/>
-      <c r="D194" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="E194" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
+      <c r="D194" s="88" t="s">
+        <v>532</v>
+      </c>
+      <c r="E194" s="88" t="s">
+        <v>533</v>
+      </c>
+      <c r="F194" s="88"/>
+      <c r="G194" s="88"/>
+      <c r="H194" s="88"/>
     </row>
     <row r="195" customHeight="1" spans="1:8">
-      <c r="A195" s="105"/>
+      <c r="A195" s="87"/>
       <c r="B195" s="1"/>
       <c r="C195" s="3"/>
-      <c r="D195" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E195" s="3" t="s">
+      <c r="D195" s="88" t="s">
+        <v>534</v>
+      </c>
+      <c r="E195" s="88" t="s">
+        <v>535</v>
+      </c>
+      <c r="F195" s="88"/>
+      <c r="G195" s="88"/>
+      <c r="H195" s="88"/>
+    </row>
+    <row r="197" customHeight="1" spans="1:8">
+      <c r="A197" s="89" t="s">
+        <v>536</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C197" s="3"/>
+      <c r="D197" s="88" t="s">
+        <v>537</v>
+      </c>
+      <c r="E197" s="88" t="s">
+        <v>313</v>
+      </c>
+      <c r="F197" s="88"/>
+      <c r="G197" s="88"/>
+      <c r="H197" s="88"/>
+    </row>
+    <row r="198" customHeight="1" spans="1:8">
+      <c r="A198" s="89"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D198" s="88" t="s">
+        <v>539</v>
+      </c>
+      <c r="E198" s="74" t="s">
+        <v>540</v>
+      </c>
+      <c r="F198" s="88"/>
+      <c r="G198" s="88"/>
+      <c r="H198" s="88"/>
+    </row>
+    <row r="199" customHeight="1" spans="1:8">
+      <c r="A199" s="89"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D199" s="88" t="s">
+        <v>542</v>
+      </c>
+      <c r="E199" s="88" t="s">
+        <v>543</v>
+      </c>
+      <c r="F199" s="88"/>
+      <c r="G199" s="88"/>
+      <c r="H199" s="88"/>
+    </row>
+    <row r="200" customHeight="1" spans="1:8">
+      <c r="A200" s="89"/>
+      <c r="B200" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C200" s="3"/>
+      <c r="D200" s="88" t="s">
+        <v>544</v>
+      </c>
+      <c r="E200" s="88" t="s">
+        <v>545</v>
+      </c>
+      <c r="F200" s="88"/>
+      <c r="G200" s="88"/>
+      <c r="H200" s="88"/>
+    </row>
+    <row r="201" customHeight="1" spans="1:8">
+      <c r="A201" s="89"/>
+      <c r="B201" s="1"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="88" t="s">
+        <v>249</v>
+      </c>
+      <c r="E201" s="88" t="s">
         <v>186</v>
       </c>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-    </row>
-    <row r="196" customHeight="1" spans="1:8">
-      <c r="A196" s="105"/>
-      <c r="B196" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-    </row>
-    <row r="197" customHeight="1" spans="1:8">
-      <c r="A197" s="105"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="E197" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-    </row>
-    <row r="198" customHeight="1" spans="1:8">
-      <c r="A198" s="105"/>
-      <c r="B198" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-    </row>
-    <row r="199" customHeight="1" spans="1:8">
-      <c r="A199" s="105"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="E199" s="23" t="s">
-        <v>513</v>
-      </c>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-    </row>
-    <row r="200" customHeight="1" spans="1:8">
-      <c r="A200" s="105"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="E200" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-    </row>
-    <row r="201" customHeight="1" spans="1:8">
-      <c r="A201" s="105"/>
-      <c r="B201" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="E201" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
+      <c r="F201" s="88"/>
+      <c r="G201" s="88"/>
+      <c r="H201" s="88"/>
     </row>
     <row r="202" customHeight="1" spans="1:8">
-      <c r="A202" s="105"/>
+      <c r="A202" s="89"/>
       <c r="B202" s="1"/>
       <c r="C202" s="3"/>
-      <c r="D202" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-    </row>
-    <row r="203" customHeight="1" spans="1:8">
-      <c r="A203" s="105"/>
-      <c r="B203" s="1"/>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="E203" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
+      <c r="D202" s="88" t="s">
+        <v>487</v>
+      </c>
+      <c r="E202" s="88" t="s">
+        <v>463</v>
+      </c>
+      <c r="F202" s="88"/>
+      <c r="G202" s="88"/>
+      <c r="H202" s="88"/>
     </row>
     <row r="204" customHeight="1" spans="1:8">
-      <c r="A204" s="105"/>
+      <c r="A204" s="90" t="s">
+        <v>546</v>
+      </c>
       <c r="B204" s="1" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3" t="s">
-        <v>522</v>
+        <v>548</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>523</v>
+        <v>36</v>
       </c>
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3"/>
     </row>
     <row r="205" customHeight="1" spans="1:8">
-      <c r="A205" s="105"/>
+      <c r="A205" s="90"/>
       <c r="B205" s="1"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3" t="s">
-        <v>325</v>
+        <v>549</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>524</v>
+        <v>550</v>
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3"/>
     </row>
     <row r="206" customHeight="1" spans="1:8">
-      <c r="A206" s="105"/>
-      <c r="B206" s="1" t="s">
-        <v>525</v>
-      </c>
+      <c r="A206" s="90"/>
+      <c r="B206" s="1"/>
       <c r="C206" s="3"/>
       <c r="D206" s="3" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>527</v>
+        <v>499</v>
       </c>
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3"/>
     </row>
     <row r="207" customHeight="1" spans="1:8">
-      <c r="A207" s="105"/>
+      <c r="A207" s="90"/>
       <c r="B207" s="1"/>
       <c r="C207" s="3"/>
       <c r="D207" s="3" t="s">
-        <v>528</v>
+        <v>185</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>529</v>
+        <v>186</v>
       </c>
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3"/>
     </row>
     <row r="208" customHeight="1" spans="1:8">
-      <c r="A208" s="105"/>
-      <c r="B208" s="1"/>
+      <c r="A208" s="90"/>
+      <c r="B208" s="1" t="s">
+        <v>552</v>
+      </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>186</v>
+        <v>553</v>
       </c>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
       <c r="H208" s="3"/>
     </row>
     <row r="209" customHeight="1" spans="1:8">
-      <c r="A209" s="105"/>
-      <c r="B209" s="1" t="s">
-        <v>531</v>
-      </c>
+      <c r="A209" s="90"/>
+      <c r="B209" s="1"/>
       <c r="C209" s="3"/>
       <c r="D209" s="3" t="s">
-        <v>532</v>
+        <v>462</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="F209" s="3"/>
       <c r="G209" s="3"/>
       <c r="H209" s="3"/>
     </row>
     <row r="210" customHeight="1" spans="1:8">
-      <c r="A210" s="105"/>
-      <c r="B210" s="1"/>
+      <c r="A210" s="90"/>
+      <c r="B210" s="1" t="s">
+        <v>555</v>
+      </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3" t="s">
-        <v>418</v>
+        <v>556</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>534</v>
+        <v>40</v>
       </c>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
       <c r="H210" s="3"/>
     </row>
     <row r="211" customHeight="1" spans="1:8">
-      <c r="A211" s="105"/>
+      <c r="A211" s="90"/>
       <c r="B211" s="1"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>186</v>
+        <v>557</v>
+      </c>
+      <c r="E211" s="23" t="s">
+        <v>558</v>
       </c>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
     </row>
+    <row r="212" customHeight="1" spans="1:8">
+      <c r="A212" s="90"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F212" s="3"/>
+      <c r="G212" s="3"/>
+      <c r="H212" s="3"/>
+    </row>
     <row r="213" customHeight="1" spans="1:8">
-      <c r="A213" s="106" t="s">
-        <v>536</v>
-      </c>
+      <c r="A213" s="90"/>
       <c r="B213" s="1" t="s">
-        <v>537</v>
+        <v>561</v>
       </c>
       <c r="C213" s="3"/>
-      <c r="D213" s="103" t="s">
-        <v>538</v>
-      </c>
-      <c r="E213" s="103" t="s">
-        <v>539</v>
-      </c>
-      <c r="F213" s="103"/>
-      <c r="G213" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="H213" s="103" t="s">
-        <v>540</v>
-      </c>
+      <c r="D213" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
     </row>
     <row r="214" customHeight="1" spans="1:8">
-      <c r="A214" s="106"/>
-      <c r="B214" s="36" t="s">
-        <v>541</v>
-      </c>
+      <c r="A214" s="90"/>
+      <c r="B214" s="1"/>
       <c r="C214" s="3"/>
-      <c r="D214" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="E214" s="23" t="s">
-        <v>505</v>
+      <c r="D214" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>499</v>
       </c>
       <c r="F214" s="3"/>
-      <c r="G214" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="H214" s="28" t="s">
-        <v>543</v>
-      </c>
+      <c r="G214" s="3"/>
+      <c r="H214" s="3"/>
     </row>
     <row r="215" customHeight="1" spans="1:8">
-      <c r="A215" s="106"/>
-      <c r="B215" s="36" t="s">
-        <v>544</v>
-      </c>
+      <c r="A215" s="90"/>
+      <c r="B215" s="1"/>
       <c r="C215" s="3"/>
-      <c r="D215" s="23" t="s">
-        <v>545</v>
-      </c>
-      <c r="E215" s="23" t="s">
-        <v>546</v>
+      <c r="D215" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>186</v>
       </c>
       <c r="F215" s="3"/>
-      <c r="G215" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H215" s="23" t="s">
-        <v>547</v>
-      </c>
+      <c r="G215" s="3"/>
+      <c r="H215" s="3"/>
     </row>
     <row r="216" customHeight="1" spans="1:8">
-      <c r="A216" s="106"/>
-      <c r="B216" s="36"/>
+      <c r="A216" s="90"/>
+      <c r="B216" s="1" t="s">
+        <v>566</v>
+      </c>
       <c r="C216" s="3"/>
-      <c r="D216" s="23" t="s">
-        <v>548</v>
-      </c>
-      <c r="E216" s="23" t="s">
-        <v>549</v>
+      <c r="D216" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="F216" s="3"/>
-      <c r="G216" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H216" s="28" t="s">
-        <v>550</v>
-      </c>
+      <c r="G216" s="3"/>
+      <c r="H216" s="3"/>
     </row>
     <row r="217" customHeight="1" spans="1:8">
-      <c r="A217" s="107" t="s">
-        <v>551</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>552</v>
-      </c>
+      <c r="A217" s="90"/>
+      <c r="B217" s="1"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="E217" s="23" t="s">
-        <v>554</v>
-      </c>
-      <c r="F217" s="23" t="s">
-        <v>555</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
     </row>
     <row r="218" customHeight="1" spans="1:8">
-      <c r="A218" s="108"/>
-      <c r="B218" s="1"/>
+      <c r="A218" s="90"/>
+      <c r="B218" s="1" t="s">
+        <v>570</v>
+      </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="E218" s="23" t="s">
-        <v>557</v>
-      </c>
-      <c r="F218" s="23" t="s">
-        <v>558</v>
-      </c>
-      <c r="G218" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H218" s="23" t="s">
-        <v>310</v>
-      </c>
+        <v>571</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="F218" s="3"/>
+      <c r="G218" s="3"/>
+      <c r="H218" s="3"/>
     </row>
     <row r="219" customHeight="1" spans="1:8">
-      <c r="A219" s="108"/>
+      <c r="A219" s="90"/>
       <c r="B219" s="1"/>
       <c r="C219" s="3"/>
-      <c r="D219" s="103" t="s">
-        <v>559</v>
-      </c>
-      <c r="E219" s="23" t="s">
-        <v>560</v>
-      </c>
-      <c r="F219" s="23" t="s">
-        <v>561</v>
-      </c>
+      <c r="D219" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
     </row>
     <row r="220" customHeight="1" spans="1:8">
-      <c r="A220" s="108"/>
-      <c r="B220" s="36" t="s">
-        <v>562</v>
-      </c>
+      <c r="A220" s="90"/>
+      <c r="B220" s="1"/>
       <c r="C220" s="3"/>
-      <c r="D220" s="23" t="s">
-        <v>563</v>
-      </c>
-      <c r="E220" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="F220" s="23" t="s">
-        <v>565</v>
-      </c>
-      <c r="G220" s="23" t="s">
-        <v>566</v>
-      </c>
-      <c r="H220" s="23" t="s">
+      <c r="D220" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F220" s="3"/>
+      <c r="G220" s="3"/>
+      <c r="H220" s="3"/>
+    </row>
+    <row r="221" customHeight="1" spans="1:8">
+      <c r="A221" s="90"/>
+      <c r="B221" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F221" s="3"/>
+      <c r="G221" s="3"/>
+      <c r="H221" s="3"/>
+    </row>
+    <row r="222" customHeight="1" spans="1:8">
+      <c r="A222" s="90"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F222" s="3"/>
+      <c r="G222" s="3"/>
+      <c r="H222" s="3"/>
+    </row>
+    <row r="223" customHeight="1" spans="1:8">
+      <c r="A223" s="90"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F223" s="3"/>
+      <c r="G223" s="3"/>
+      <c r="H223" s="3"/>
+    </row>
+    <row r="225" customHeight="1" spans="1:8">
+      <c r="A225" s="91" t="s">
+        <v>581</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C225" s="3"/>
+      <c r="D225" s="88" t="s">
+        <v>583</v>
+      </c>
+      <c r="E225" s="88" t="s">
+        <v>584</v>
+      </c>
+      <c r="F225" s="88"/>
+      <c r="G225" s="88" t="s">
+        <v>19</v>
+      </c>
+      <c r="H225" s="88" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="226" customHeight="1" spans="1:8">
+      <c r="A226" s="91"/>
+      <c r="B226" s="36" t="s">
+        <v>586</v>
+      </c>
+      <c r="C226" s="3"/>
+      <c r="D226" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="E226" s="23" t="s">
+        <v>550</v>
+      </c>
+      <c r="F226" s="3"/>
+      <c r="G226" s="23" t="s">
+        <v>587</v>
+      </c>
+      <c r="H226" s="28" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="227" customHeight="1" spans="1:8">
+      <c r="A227" s="91"/>
+      <c r="B227" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="C227" s="3"/>
+      <c r="D227" s="23" t="s">
+        <v>590</v>
+      </c>
+      <c r="E227" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="F227" s="3"/>
+      <c r="G227" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H227" s="23" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="228" customHeight="1" spans="1:8">
+      <c r="A228" s="91"/>
+      <c r="B228" s="36"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="E228" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="F228" s="3"/>
+      <c r="G228" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H228" s="28" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="229" customHeight="1" spans="1:8">
+      <c r="A229" s="92" t="s">
+        <v>596</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="E229" s="23" t="s">
+        <v>599</v>
+      </c>
+      <c r="F229" s="23" t="s">
+        <v>600</v>
+      </c>
+      <c r="G229" s="3"/>
+      <c r="H229" s="3"/>
+    </row>
+    <row r="230" customHeight="1" spans="1:8">
+      <c r="A230" s="93"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E230" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="F230" s="23" t="s">
+        <v>603</v>
+      </c>
+      <c r="G230" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H230" s="23" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="231" customHeight="1" spans="1:8">
+      <c r="A231" s="93"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="88" t="s">
+        <v>604</v>
+      </c>
+      <c r="E231" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="F231" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
+    </row>
+    <row r="232" customHeight="1" spans="1:8">
+      <c r="A232" s="93"/>
+      <c r="B232" s="36" t="s">
+        <v>607</v>
+      </c>
+      <c r="C232" s="3"/>
+      <c r="D232" s="23" t="s">
+        <v>608</v>
+      </c>
+      <c r="E232" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="F232" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="G232" s="23" t="s">
+        <v>611</v>
+      </c>
+      <c r="H232" s="23" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="120">
+  <mergeCells count="131">
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D15:H15"/>
@@ -7861,32 +8465,40 @@
     <mergeCell ref="D81:H81"/>
     <mergeCell ref="D84:H84"/>
     <mergeCell ref="C88:H88"/>
-    <mergeCell ref="C94:H94"/>
-    <mergeCell ref="D95:H95"/>
-    <mergeCell ref="D96:H96"/>
-    <mergeCell ref="D104:H104"/>
-    <mergeCell ref="D105:H105"/>
-    <mergeCell ref="D114:H114"/>
-    <mergeCell ref="D123:H123"/>
-    <mergeCell ref="D124:H124"/>
-    <mergeCell ref="D125:H125"/>
-    <mergeCell ref="D126:H126"/>
-    <mergeCell ref="D133:H133"/>
-    <mergeCell ref="D135:H135"/>
-    <mergeCell ref="D136:H136"/>
-    <mergeCell ref="D137:H137"/>
-    <mergeCell ref="D138:H138"/>
+    <mergeCell ref="D90:H90"/>
+    <mergeCell ref="D91:H91"/>
+    <mergeCell ref="D92:H92"/>
+    <mergeCell ref="D98:H98"/>
+    <mergeCell ref="C100:H100"/>
+    <mergeCell ref="D101:H101"/>
+    <mergeCell ref="D102:H102"/>
+    <mergeCell ref="D110:H110"/>
+    <mergeCell ref="D111:H111"/>
+    <mergeCell ref="D120:H120"/>
+    <mergeCell ref="D129:H129"/>
+    <mergeCell ref="D130:H130"/>
+    <mergeCell ref="D131:H131"/>
+    <mergeCell ref="D132:H132"/>
     <mergeCell ref="D139:H139"/>
-    <mergeCell ref="D146:H146"/>
+    <mergeCell ref="D141:H141"/>
+    <mergeCell ref="D142:H142"/>
+    <mergeCell ref="D143:H143"/>
+    <mergeCell ref="D144:H144"/>
+    <mergeCell ref="D145:H145"/>
+    <mergeCell ref="D152:H152"/>
+    <mergeCell ref="D154:H154"/>
+    <mergeCell ref="D162:H162"/>
+    <mergeCell ref="D164:H164"/>
+    <mergeCell ref="D165:H165"/>
     <mergeCell ref="A2:A45"/>
-    <mergeCell ref="A47:A92"/>
-    <mergeCell ref="A94:A152"/>
-    <mergeCell ref="A154:A170"/>
-    <mergeCell ref="A172:A183"/>
-    <mergeCell ref="A185:A190"/>
-    <mergeCell ref="A192:A211"/>
-    <mergeCell ref="A213:A216"/>
-    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="A47:A98"/>
+    <mergeCell ref="A100:A162"/>
+    <mergeCell ref="A164:A182"/>
+    <mergeCell ref="A184:A195"/>
+    <mergeCell ref="A197:A202"/>
+    <mergeCell ref="A204:A223"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A229:A232"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="B17:B24"/>
@@ -7897,29 +8509,29 @@
     <mergeCell ref="B62:B77"/>
     <mergeCell ref="B81:B83"/>
     <mergeCell ref="B84:B87"/>
-    <mergeCell ref="B90:B92"/>
-    <mergeCell ref="B95:B102"/>
-    <mergeCell ref="B104:B112"/>
-    <mergeCell ref="B114:B121"/>
-    <mergeCell ref="B123:B133"/>
-    <mergeCell ref="B135:B146"/>
-    <mergeCell ref="B148:B152"/>
-    <mergeCell ref="B154:B159"/>
-    <mergeCell ref="B160:B165"/>
-    <mergeCell ref="B166:B170"/>
+    <mergeCell ref="B90:B98"/>
+    <mergeCell ref="B101:B108"/>
+    <mergeCell ref="B110:B118"/>
+    <mergeCell ref="B120:B127"/>
+    <mergeCell ref="B129:B139"/>
+    <mergeCell ref="B141:B152"/>
+    <mergeCell ref="B154:B162"/>
+    <mergeCell ref="B164:B171"/>
     <mergeCell ref="B172:B177"/>
-    <mergeCell ref="B178:B183"/>
-    <mergeCell ref="B185:B187"/>
-    <mergeCell ref="B188:B190"/>
-    <mergeCell ref="B192:B195"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="B198:B200"/>
-    <mergeCell ref="B201:B203"/>
-    <mergeCell ref="B204:B205"/>
-    <mergeCell ref="B206:B208"/>
-    <mergeCell ref="B209:B211"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="B217:B219"/>
+    <mergeCell ref="B178:B182"/>
+    <mergeCell ref="B184:B189"/>
+    <mergeCell ref="B190:B195"/>
+    <mergeCell ref="B197:B199"/>
+    <mergeCell ref="B200:B202"/>
+    <mergeCell ref="B204:B207"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B213:B215"/>
+    <mergeCell ref="B216:B217"/>
+    <mergeCell ref="B218:B220"/>
+    <mergeCell ref="B221:B223"/>
+    <mergeCell ref="B227:B228"/>
+    <mergeCell ref="B229:B231"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C14"/>
@@ -7937,22 +8549,25 @@
     <mergeCell ref="C74:C77"/>
     <mergeCell ref="C82:C83"/>
     <mergeCell ref="C85:C87"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="C106:C110"/>
-    <mergeCell ref="C111:C112"/>
-    <mergeCell ref="C115:C118"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C127:C130"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="C154:C157"/>
-    <mergeCell ref="C158:C159"/>
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="C168:C170"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C133:C136"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="C155:C157"/>
+    <mergeCell ref="C158:C161"/>
+    <mergeCell ref="C166:C169"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="C172:C174"/>
+    <mergeCell ref="C175:C177"/>
+    <mergeCell ref="C178:C179"/>
+    <mergeCell ref="C180:C182"/>
   </mergeCells>
   <pageMargins left="0.196527777777778" right="0.0784722222222222" top="0.314583333333333" bottom="2.20416666666667" header="0.298611111111111" footer="0.298611111111111"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="600"/>
@@ -7977,40 +8592,40 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>567</v>
+        <v>612</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>568</v>
+        <v>613</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>569</v>
+        <v>614</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>570</v>
+        <v>615</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>571</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>572</v>
+        <v>617</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>573</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>574</v>
+        <v>619</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>575</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -8019,21 +8634,21 @@
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>576</v>
+        <v>621</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>577</v>
+        <v>622</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>578</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>579</v>
+        <v>624</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>36</v>
@@ -8041,7 +8656,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>580</v>
+        <v>625</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -8049,7 +8664,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>581</v>
+        <v>626</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>122</v>
@@ -8061,32 +8676,32 @@
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>582</v>
+        <v>627</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>583</v>
+        <v>628</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>584</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>585</v>
+        <v>630</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>586</v>
+        <v>631</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>587</v>
+        <v>632</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -8095,32 +8710,32 @@
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>588</v>
+        <v>633</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>589</v>
+        <v>634</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>590</v>
+        <v>635</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>591</v>
+        <v>636</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>592</v>
+        <v>637</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>593</v>
+        <v>638</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>594</v>
+        <v>639</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">

--- a/内科学笔记/病和方剂汇总.xlsx
+++ b/内科学笔记/病和方剂汇总.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="650">
   <si>
     <t>病证系统</t>
   </si>
@@ -2460,7 +2460,7 @@
     <t>心中悸动，惊惕不安甚至不能息主为症</t>
   </si>
   <si>
-    <t>气血阴阳亏虚，心失所养。而实证水湿痰饮、瘀血使气血运行不畅</t>
+    <t>气血阴阳亏虚，心失所养。而实证水湿痰饮、瘀血使气血运行不畅。病理因素：气滞、血瘀、痰浊和水饮</t>
   </si>
   <si>
     <t>心虚胆怯</t>
@@ -2472,268 +2472,298 @@
     <t>善惊易恐，坐卧不安</t>
   </si>
   <si>
-    <t>淡红</t>
+    <t>舌薄白</t>
   </si>
   <si>
     <t>心血不足</t>
   </si>
   <si>
-    <t>面色无华，倦怠乏力</t>
+    <t>面色无华，倦怠乏力。气虚+血虚</t>
+  </si>
+  <si>
+    <t>舌淡红</t>
+  </si>
+  <si>
+    <t>阴虚火旺</t>
+  </si>
+  <si>
+    <t>天王补心丹+朱砂安神丸</t>
+  </si>
+  <si>
+    <t>心悸不宁，头晕目眩，手足心热</t>
+  </si>
+  <si>
+    <t>细数</t>
+  </si>
+  <si>
+    <t>心阳不振</t>
+  </si>
+  <si>
+    <t>桂枝甘草龙骨牡蛎汤</t>
+  </si>
+  <si>
+    <t>心悸不安，胸闷气短，面色苍白，形寒肢冷</t>
   </si>
   <si>
     <t>舌质淡红</t>
   </si>
   <si>
-    <t>阴虚火旺</t>
+    <t>虚弱</t>
+  </si>
+  <si>
+    <t>水饮凌心</t>
+  </si>
+  <si>
+    <t>苓桂术甘汤</t>
+  </si>
+  <si>
+    <t>心悸眩晕，胸脘痞满，形寒肢冷，小便短少下肢浮肿</t>
+  </si>
+  <si>
+    <t>心血瘀阻</t>
+  </si>
+  <si>
+    <t>桃仁红花煎</t>
+  </si>
+  <si>
+    <t>胸闷不舒，心痛时作，痛如针刺</t>
+  </si>
+  <si>
+    <t>悸怯定志血归脾，阴天阳桂水苓桃</t>
+  </si>
+  <si>
+    <t>胸痹</t>
+  </si>
+  <si>
+    <t>胸部闷痛，甚则痛彻背，喘息不得卧</t>
+  </si>
+  <si>
+    <t>心脉痹阻，本虚标实，气滞、血瘀、寒凝、痰浊。与五脏都有关</t>
+  </si>
+  <si>
+    <t>原则</t>
+  </si>
+  <si>
+    <t>先治其标，后治其本。作发时解决疼痛</t>
+  </si>
+  <si>
+    <t>血府逐瘀汤</t>
+  </si>
+  <si>
+    <t>胸部刺痛，固定不移</t>
+  </si>
+  <si>
+    <t>有瘀斑</t>
+  </si>
+  <si>
+    <t>脉沉涩</t>
+  </si>
+  <si>
+    <t>痰浊壅塞</t>
+  </si>
+  <si>
+    <t>爪蒌薤白半夏汤</t>
+  </si>
+  <si>
+    <t>胸闷气短，肢体沉重，痰多。舌体胖大有齿痕</t>
+  </si>
+  <si>
+    <t>苔浊腻</t>
+  </si>
+  <si>
+    <t>气滞心胸</t>
+  </si>
+  <si>
+    <t>心胸满闷，隐痛阵发，或兼肋胁胀痛</t>
+  </si>
+  <si>
+    <t>寒凝心脉</t>
+  </si>
+  <si>
+    <t>枳实薤白桂枝汤</t>
+  </si>
+  <si>
+    <t>胸痛彻背，感寒痛甚，面色苍白，四肢冷</t>
+  </si>
+  <si>
+    <t>心肾阴虚</t>
+  </si>
+  <si>
+    <t>左归饮</t>
+  </si>
+  <si>
+    <t>胸闷且痛，心悸盗汗。腰膝酸软，耳鸣</t>
+  </si>
+  <si>
+    <t>气阴两虚</t>
+  </si>
+  <si>
+    <t>胸闷隐痛，时作时止。心悸气短，面色无华</t>
+  </si>
+  <si>
+    <t>细弱无力</t>
+  </si>
+  <si>
+    <t>心肾阳虚</t>
+  </si>
+  <si>
+    <t>参附汤+右归饮</t>
+  </si>
+  <si>
+    <t>胸闷气短，胃寒肢冷，乏力，面色苍白</t>
+  </si>
+  <si>
+    <t>沉细</t>
+  </si>
+  <si>
+    <t>不寐</t>
+  </si>
+  <si>
+    <t>肝郁化火</t>
+  </si>
+  <si>
+    <t>龙胆泻肝汤</t>
+  </si>
+  <si>
+    <t>急燥易怒，不思饮食，目赤口苦</t>
+  </si>
+  <si>
+    <t>痰热内扰</t>
+  </si>
+  <si>
+    <t>温胆汤</t>
+  </si>
+  <si>
+    <t>痰多胸闷，恶食恶心</t>
+  </si>
+  <si>
+    <t>苔腻而黄</t>
+  </si>
+  <si>
+    <t>黄连阿胶汤</t>
+  </si>
+  <si>
+    <t>心悸，头晕，五心烦热</t>
+  </si>
+  <si>
+    <t>心悸，头晕。倦怠乏力，面色无华</t>
+  </si>
+  <si>
+    <t>心胆气虚</t>
+  </si>
+  <si>
+    <t>肾系统</t>
+  </si>
+  <si>
+    <t>水肿</t>
+  </si>
+  <si>
+    <t>风水泛滥</t>
+  </si>
+  <si>
+    <t>越婢加术汤</t>
+  </si>
+  <si>
+    <t>湿毒侵淫</t>
+  </si>
+  <si>
+    <t>麻黄连翘赤小豆</t>
+  </si>
+  <si>
+    <t>水湿浸渍</t>
+  </si>
+  <si>
+    <t>五皮散</t>
+  </si>
+  <si>
+    <t>湿热壅盛</t>
+  </si>
+  <si>
+    <t>疏凿饮子</t>
+  </si>
+  <si>
+    <t>脾阳虚衰</t>
+  </si>
+  <si>
+    <t>实脾散</t>
+  </si>
+  <si>
+    <t>肾气衰微</t>
+  </si>
+  <si>
+    <t>济生肾气丸+真武汤</t>
+  </si>
+  <si>
+    <t>淋证</t>
+  </si>
+  <si>
+    <t>热淋</t>
+  </si>
+  <si>
+    <t>八正散</t>
+  </si>
+  <si>
+    <t>石淋</t>
+  </si>
+  <si>
+    <t>石苇散</t>
+  </si>
+  <si>
+    <t>气淋</t>
+  </si>
+  <si>
+    <t>沉香散</t>
+  </si>
+  <si>
+    <t>血淋</t>
+  </si>
+  <si>
+    <t>小蓟子饮+导赤散</t>
+  </si>
+  <si>
+    <t>膏淋</t>
+  </si>
+  <si>
+    <t>程氏萆薢分清饮</t>
+  </si>
+  <si>
+    <t>劳淋</t>
+  </si>
+  <si>
+    <t>无比药丸</t>
+  </si>
+  <si>
+    <t>郁证</t>
+  </si>
+  <si>
+    <t>肝气郁结</t>
+  </si>
+  <si>
+    <t>郁而化火</t>
+  </si>
+  <si>
+    <t>气郁化火</t>
+  </si>
+  <si>
+    <t>左金丸+丹栀逍遥丸</t>
+  </si>
+  <si>
+    <t>郁而生痰</t>
+  </si>
+  <si>
+    <t>痰气郁结</t>
+  </si>
+  <si>
+    <t>半夏厚朴汤</t>
+  </si>
+  <si>
+    <t>心神失养</t>
+  </si>
+  <si>
+    <t>甘麦大枣汤</t>
   </si>
   <si>
     <t>天王补心丹</t>
-  </si>
-  <si>
-    <t>心悸不宁，头晕目眩，手足心热</t>
-  </si>
-  <si>
-    <t>细数</t>
-  </si>
-  <si>
-    <t>心阳不振</t>
-  </si>
-  <si>
-    <t>桂枝甘草龙骨牡蛎汤</t>
-  </si>
-  <si>
-    <t>心悸不安，面色苍白，形寒肢冷</t>
-  </si>
-  <si>
-    <t>虚弱</t>
-  </si>
-  <si>
-    <t>水饮凌心</t>
-  </si>
-  <si>
-    <t>苓桂术甘汤</t>
-  </si>
-  <si>
-    <t>胸脘痞满，形寒肢冷，小便短少下肢浮肿</t>
-  </si>
-  <si>
-    <t>心血瘀阻</t>
-  </si>
-  <si>
-    <t>桃仁红花煎</t>
-  </si>
-  <si>
-    <t>胸闷不舒，心痛时作</t>
-  </si>
-  <si>
-    <t>胸痹</t>
-  </si>
-  <si>
-    <t>血府逐瘀汤</t>
-  </si>
-  <si>
-    <t>胸部刺痛，固定不移</t>
-  </si>
-  <si>
-    <t>脉沉涩</t>
-  </si>
-  <si>
-    <t>痰浊壅塞</t>
-  </si>
-  <si>
-    <t>爪蒌薤白半夏汤</t>
-  </si>
-  <si>
-    <t>胸闷气短，肢体沉重，痰多</t>
-  </si>
-  <si>
-    <t>苔浊腻</t>
-  </si>
-  <si>
-    <t>阴寒凝滞</t>
-  </si>
-  <si>
-    <t>爪蒌薤白白酒汤</t>
-  </si>
-  <si>
-    <t>胸痛彻背，感寒痛甚，面色苍白，四肢冷</t>
-  </si>
-  <si>
-    <t>心肾阴虚</t>
-  </si>
-  <si>
-    <t>左归饮</t>
-  </si>
-  <si>
-    <t>胸闷且痛，心悸盗汗。腰膝酸软，耳鸣</t>
-  </si>
-  <si>
-    <t>气阴两虚</t>
-  </si>
-  <si>
-    <t>胸闷隐痛，时作时止。心悸气短，面色无华</t>
-  </si>
-  <si>
-    <t>细弱无力</t>
-  </si>
-  <si>
-    <t>阳气虚衰</t>
-  </si>
-  <si>
-    <t>参附汤。右归饮</t>
-  </si>
-  <si>
-    <t>胸闷气短，胃寒肢冷，乏力，面色苍白</t>
-  </si>
-  <si>
-    <t>沉细</t>
-  </si>
-  <si>
-    <t>不寐</t>
-  </si>
-  <si>
-    <t>肝郁化火</t>
-  </si>
-  <si>
-    <t>龙胆泻肝汤</t>
-  </si>
-  <si>
-    <t>急燥易怒，不思饮食，目赤口苦</t>
-  </si>
-  <si>
-    <t>痰热内扰</t>
-  </si>
-  <si>
-    <t>温胆汤</t>
-  </si>
-  <si>
-    <t>痰多胸闷，恶食恶心</t>
-  </si>
-  <si>
-    <t>苔腻而黄</t>
-  </si>
-  <si>
-    <t>黄连阿胶汤</t>
-  </si>
-  <si>
-    <t>心悸，头晕，五心烦热</t>
-  </si>
-  <si>
-    <t>心悸，头晕。倦怠乏力，面色无华</t>
-  </si>
-  <si>
-    <t>心胆气虚</t>
-  </si>
-  <si>
-    <t>肾系统</t>
-  </si>
-  <si>
-    <t>水肿</t>
-  </si>
-  <si>
-    <t>风水泛滥</t>
-  </si>
-  <si>
-    <t>越婢加术汤</t>
-  </si>
-  <si>
-    <t>湿毒侵淫</t>
-  </si>
-  <si>
-    <t>麻黄连翘赤小豆</t>
-  </si>
-  <si>
-    <t>水湿浸渍</t>
-  </si>
-  <si>
-    <t>五皮散</t>
-  </si>
-  <si>
-    <t>湿热壅盛</t>
-  </si>
-  <si>
-    <t>疏凿饮子</t>
-  </si>
-  <si>
-    <t>脾阳虚衰</t>
-  </si>
-  <si>
-    <t>实脾散</t>
-  </si>
-  <si>
-    <t>肾气衰微</t>
-  </si>
-  <si>
-    <t>济生肾气丸+真武汤</t>
-  </si>
-  <si>
-    <t>淋证</t>
-  </si>
-  <si>
-    <t>热淋</t>
-  </si>
-  <si>
-    <t>八正散</t>
-  </si>
-  <si>
-    <t>石淋</t>
-  </si>
-  <si>
-    <t>石苇散</t>
-  </si>
-  <si>
-    <t>气淋</t>
-  </si>
-  <si>
-    <t>沉香散</t>
-  </si>
-  <si>
-    <t>血淋</t>
-  </si>
-  <si>
-    <t>小蓟子饮+导赤散</t>
-  </si>
-  <si>
-    <t>膏淋</t>
-  </si>
-  <si>
-    <t>程氏萆薢分清饮</t>
-  </si>
-  <si>
-    <t>劳淋</t>
-  </si>
-  <si>
-    <t>无比药丸</t>
-  </si>
-  <si>
-    <t>郁证</t>
-  </si>
-  <si>
-    <t>肝气郁结</t>
-  </si>
-  <si>
-    <t>郁而化火</t>
-  </si>
-  <si>
-    <t>气郁化火</t>
-  </si>
-  <si>
-    <t>左金丸+丹栀逍遥丸</t>
-  </si>
-  <si>
-    <t>郁而生痰</t>
-  </si>
-  <si>
-    <t>痰气郁结</t>
-  </si>
-  <si>
-    <t>半夏厚朴汤</t>
-  </si>
-  <si>
-    <t>心神失养</t>
-  </si>
-  <si>
-    <t>甘麦大枣汤</t>
   </si>
   <si>
     <t>血证</t>
@@ -3928,7 +3958,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4189,6 +4219,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4524,12 +4572,12 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H232"/>
+  <dimension ref="A1:H239"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E166" sqref="E166"/>
+      <selection pane="bottomLeft" activeCell="T179" sqref="T179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="7"/>
@@ -5239,10 +5287,10 @@
       <c r="A42" s="8"/>
       <c r="B42" s="11"/>
       <c r="C42" s="39"/>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="E42" s="27" t="s">
         <v>131</v>
       </c>
       <c r="F42" s="3" t="s">
@@ -7333,7 +7381,7 @@
       <c r="A164" s="86" t="s">
         <v>451</v>
       </c>
-      <c r="B164" s="36" t="s">
+      <c r="B164" s="41" t="s">
         <v>452</v>
       </c>
       <c r="C164" s="36" t="s">
@@ -7349,7 +7397,7 @@
     </row>
     <row r="165" customHeight="1" spans="1:8">
       <c r="A165" s="86"/>
-      <c r="B165" s="36"/>
+      <c r="B165" s="44"/>
       <c r="C165" s="36" t="s">
         <v>29</v>
       </c>
@@ -7363,14 +7411,14 @@
     </row>
     <row r="166" customHeight="1" spans="1:8">
       <c r="A166" s="86"/>
-      <c r="B166" s="36"/>
+      <c r="B166" s="44"/>
       <c r="C166" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="D166" s="23" t="s">
+      <c r="D166" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="E166" s="23" t="s">
+      <c r="E166" s="27" t="s">
         <v>456</v>
       </c>
       <c r="F166" s="23" t="s">
@@ -7379,11 +7427,13 @@
       <c r="G166" s="23" t="s">
         <v>458</v>
       </c>
-      <c r="H166" s="3"/>
+      <c r="H166" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="167" customHeight="1" spans="1:8">
       <c r="A167" s="86"/>
-      <c r="B167" s="36"/>
+      <c r="B167" s="44"/>
       <c r="C167" s="1"/>
       <c r="D167" s="23" t="s">
         <v>459</v>
@@ -7403,12 +7453,12 @@
     </row>
     <row r="168" customHeight="1" spans="1:8">
       <c r="A168" s="86"/>
-      <c r="B168" s="36"/>
+      <c r="B168" s="44"/>
       <c r="C168" s="1"/>
       <c r="D168" s="23" t="s">
         <v>462</v>
       </c>
-      <c r="E168" s="23" t="s">
+      <c r="E168" s="28" t="s">
         <v>463</v>
       </c>
       <c r="F168" s="23" t="s">
@@ -7423,7 +7473,7 @@
     </row>
     <row r="169" customHeight="1" spans="1:8">
       <c r="A169" s="86"/>
-      <c r="B169" s="36"/>
+      <c r="B169" s="44"/>
       <c r="C169" s="1"/>
       <c r="D169" s="23" t="s">
         <v>466</v>
@@ -7435,26 +7485,26 @@
         <v>468</v>
       </c>
       <c r="G169" s="23" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="H169" s="23" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="170" customHeight="1" spans="1:8">
       <c r="A170" s="86"/>
-      <c r="B170" s="36"/>
+      <c r="B170" s="44"/>
       <c r="C170" s="36" t="s">
         <v>145</v>
       </c>
       <c r="D170" s="23" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E170" s="23" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F170" s="23" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G170" s="23" t="s">
         <v>95</v>
@@ -7465,16 +7515,16 @@
     </row>
     <row r="171" customHeight="1" spans="1:8">
       <c r="A171" s="86"/>
-      <c r="B171" s="36"/>
+      <c r="B171" s="44"/>
       <c r="C171" s="1"/>
-      <c r="D171" s="23" t="s">
-        <v>473</v>
-      </c>
-      <c r="E171" s="23" t="s">
+      <c r="D171" s="27" t="s">
         <v>474</v>
       </c>
+      <c r="E171" s="27" t="s">
+        <v>475</v>
+      </c>
       <c r="F171" s="23" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G171" s="23" t="s">
         <v>318</v>
@@ -7485,624 +7535,612 @@
     </row>
     <row r="172" customHeight="1" spans="1:8">
       <c r="A172" s="86"/>
-      <c r="B172" s="36" t="s">
-        <v>476</v>
-      </c>
+      <c r="B172" s="47"/>
       <c r="C172" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D172" s="23" t="s">
-        <v>473</v>
-      </c>
-      <c r="E172" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D172" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="F172" s="3" t="s">
+      <c r="E172" s="17"/>
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="18"/>
+    </row>
+    <row r="173" ht="9" customHeight="1" spans="1:8">
+      <c r="A173" s="86"/>
+      <c r="H173" s="19"/>
+    </row>
+    <row r="174" ht="20" customHeight="1" spans="1:8">
+      <c r="A174" s="87"/>
+      <c r="B174" s="36" t="s">
         <v>478</v>
       </c>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3" t="s">
+      <c r="C174" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D174" s="30" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="173" customHeight="1" spans="1:8">
-      <c r="A173" s="86"/>
-      <c r="B173" s="36"/>
-      <c r="C173" s="1"/>
-      <c r="D173" s="23" t="s">
-        <v>480</v>
-      </c>
-      <c r="E173" s="3" t="s">
-        <v>481</v>
-      </c>
-      <c r="F173" s="3" t="s">
-        <v>482</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="H173" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="174" customHeight="1" spans="1:8">
-      <c r="A174" s="86"/>
-      <c r="B174" s="36"/>
-      <c r="C174" s="1"/>
-      <c r="D174" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="E174" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="F174" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="G174" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H174" s="3" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="175" customHeight="1" spans="1:8">
-      <c r="A175" s="86"/>
+      <c r="E174" s="20"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="20"/>
+      <c r="H174" s="21"/>
+    </row>
+    <row r="175" ht="20" customHeight="1" spans="1:8">
+      <c r="A175" s="87"/>
       <c r="B175" s="36"/>
       <c r="C175" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D175" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D175" s="88" t="s">
+        <v>480</v>
+      </c>
+      <c r="E175" s="89"/>
+      <c r="F175" s="89"/>
+      <c r="G175" s="89"/>
+      <c r="H175" s="90"/>
+    </row>
+    <row r="176" ht="20" customHeight="1" spans="1:8">
+      <c r="A176" s="87"/>
+      <c r="B176" s="36"/>
+      <c r="C176" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D176" s="88" t="s">
+        <v>482</v>
+      </c>
+      <c r="E176" s="89"/>
+      <c r="F176" s="89"/>
+      <c r="G176" s="89"/>
+      <c r="H176" s="90"/>
+    </row>
+    <row r="177" customHeight="1" spans="1:8">
+      <c r="A177" s="87"/>
+      <c r="B177" s="36"/>
+      <c r="C177" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D177" s="23" t="s">
+        <v>474</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="178" customHeight="1" spans="1:8">
+      <c r="A178" s="87"/>
+      <c r="B178" s="36"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="23" t="s">
         <v>487</v>
       </c>
-      <c r="E175" s="3" t="s">
+      <c r="E178" s="3" t="s">
         <v>488</v>
       </c>
-      <c r="F175" s="3" t="s">
+      <c r="F178" s="3" t="s">
         <v>489</v>
       </c>
-      <c r="G175" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H175" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="176" customHeight="1" spans="1:8">
-      <c r="A176" s="86"/>
-      <c r="B176" s="36"/>
-      <c r="C176" s="1"/>
-      <c r="D176" s="74" t="s">
+      <c r="G178" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="E176" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>491</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H176" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="177" customHeight="1" spans="1:8">
-      <c r="A177" s="86"/>
-      <c r="B177" s="36"/>
-      <c r="C177" s="1"/>
-      <c r="D177" s="23" t="s">
-        <v>493</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="F177" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="G177" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H177" s="3" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="178" customHeight="1" spans="1:8">
-      <c r="A178" s="86"/>
-      <c r="B178" s="36" t="s">
-        <v>497</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D178" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="E178" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="F178" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="G178" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="H178" s="3" t="s">
-        <v>55</v>
+        <v>129</v>
       </c>
     </row>
     <row r="179" customHeight="1" spans="1:8">
-      <c r="A179" s="86"/>
+      <c r="A179" s="87"/>
       <c r="B179" s="36"/>
       <c r="C179" s="1"/>
       <c r="D179" s="23" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>502</v>
+        <v>313</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="G179" s="3" t="s">
-        <v>504</v>
-      </c>
+        <v>492</v>
+      </c>
+      <c r="G179" s="3"/>
       <c r="H179" s="3" t="s">
-        <v>77</v>
+        <v>262</v>
       </c>
     </row>
     <row r="180" customHeight="1" spans="1:8">
-      <c r="A180" s="86"/>
+      <c r="A180" s="87"/>
       <c r="B180" s="36"/>
-      <c r="C180" s="1" t="s">
+      <c r="C180" s="1"/>
+      <c r="D180" s="23" t="s">
+        <v>493</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="181" customHeight="1" spans="1:8">
+      <c r="A181" s="87"/>
+      <c r="B181" s="36"/>
+      <c r="C181" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D180" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="E180" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="F180" s="3" t="s">
-        <v>506</v>
-      </c>
-      <c r="G180" s="3" t="s">
+      <c r="D181" s="23" t="s">
+        <v>496</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="G181" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="H180" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="181" customHeight="1" spans="1:8">
-      <c r="A181" s="86"/>
-      <c r="B181" s="36"/>
-      <c r="C181" s="1"/>
-      <c r="D181" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="E181" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F181" s="3" t="s">
-        <v>507</v>
-      </c>
-      <c r="G181" s="3" t="s">
-        <v>361</v>
-      </c>
       <c r="H181" s="3" t="s">
-        <v>106</v>
+        <v>238</v>
       </c>
     </row>
     <row r="182" customHeight="1" spans="1:8">
-      <c r="A182" s="86"/>
+      <c r="A182" s="87"/>
       <c r="B182" s="36"/>
       <c r="C182" s="1"/>
-      <c r="D182" s="23" t="s">
+      <c r="D182" s="74" t="s">
+        <v>499</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="183" customHeight="1" spans="1:8">
+      <c r="A183" s="87"/>
+      <c r="B183" s="36"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="184" ht="9" customHeight="1" spans="1:8">
+      <c r="A184" s="91"/>
+      <c r="B184"/>
+      <c r="C184"/>
+      <c r="D184"/>
+      <c r="E184"/>
+      <c r="F184"/>
+      <c r="G184"/>
+      <c r="H184" s="92"/>
+    </row>
+    <row r="185" customHeight="1" spans="1:8">
+      <c r="A185" s="86"/>
+      <c r="B185" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D185" s="23" t="s">
+        <v>507</v>
+      </c>
+      <c r="E185" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="E182" s="3" t="s">
+      <c r="F185" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="186" customHeight="1" spans="1:8">
+      <c r="A186" s="86"/>
+      <c r="B186" s="36"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="187" customHeight="1" spans="1:8">
+      <c r="A187" s="86"/>
+      <c r="B187" s="36"/>
+      <c r="C187" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D187" s="23" t="s">
+        <v>462</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="188" customHeight="1" spans="1:8">
+      <c r="A188" s="86"/>
+      <c r="B188" s="36"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="1:8">
+      <c r="A189" s="86"/>
+      <c r="B189" s="36"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="E189" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F182" s="23" t="s">
+      <c r="F189" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="G182" s="3" t="s">
+      <c r="G189" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H182" s="3" t="s">
+      <c r="H189" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="184" customHeight="1" spans="1:8">
-      <c r="A184" s="87" t="s">
-        <v>509</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="E184" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-    </row>
-    <row r="185" customHeight="1" spans="1:8">
-      <c r="A185" s="87"/>
-      <c r="B185" s="1"/>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-    </row>
-    <row r="186" customHeight="1" spans="1:8">
-      <c r="A186" s="87"/>
-      <c r="B186" s="1"/>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-    </row>
-    <row r="187" customHeight="1" spans="1:8">
-      <c r="A187" s="87"/>
-      <c r="B187" s="1"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="E187" s="3" t="s">
+    <row r="191" customHeight="1" spans="1:8">
+      <c r="A191" s="93" t="s">
         <v>518</v>
       </c>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-    </row>
-    <row r="188" customHeight="1" spans="1:8">
-      <c r="A188" s="87"/>
-      <c r="B188" s="1"/>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3" t="s">
+      <c r="B191" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="C191" s="3"/>
+      <c r="D191" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-    </row>
-    <row r="189" customHeight="1" spans="1:8">
-      <c r="A189" s="87"/>
-      <c r="B189" s="1"/>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3" t="s">
+      <c r="E191" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="E189" s="23" t="s">
-        <v>522</v>
-      </c>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-    </row>
-    <row r="190" customHeight="1" spans="1:8">
-      <c r="A190" s="87"/>
-      <c r="B190" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C190" s="3"/>
-      <c r="D190" s="88" t="s">
-        <v>524</v>
-      </c>
-      <c r="E190" s="88" t="s">
-        <v>525</v>
-      </c>
-      <c r="F190" s="88"/>
-      <c r="G190" s="88"/>
-      <c r="H190" s="88"/>
-    </row>
-    <row r="191" customHeight="1" spans="1:8">
-      <c r="A191" s="87"/>
-      <c r="B191" s="1"/>
-      <c r="C191" s="3"/>
-      <c r="D191" s="88" t="s">
-        <v>526</v>
-      </c>
-      <c r="E191" s="88" t="s">
-        <v>527</v>
-      </c>
-      <c r="F191" s="88"/>
-      <c r="G191" s="88"/>
-      <c r="H191" s="88"/>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3"/>
     </row>
     <row r="192" customHeight="1" spans="1:8">
-      <c r="A192" s="87"/>
+      <c r="A192" s="93"/>
       <c r="B192" s="1"/>
       <c r="C192" s="3"/>
-      <c r="D192" s="88" t="s">
-        <v>528</v>
-      </c>
-      <c r="E192" s="88" t="s">
-        <v>529</v>
-      </c>
-      <c r="F192" s="88"/>
-      <c r="G192" s="88"/>
-      <c r="H192" s="88"/>
+      <c r="D192" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3"/>
     </row>
     <row r="193" customHeight="1" spans="1:8">
-      <c r="A193" s="87"/>
+      <c r="A193" s="93"/>
       <c r="B193" s="1"/>
       <c r="C193" s="3"/>
-      <c r="D193" s="88" t="s">
-        <v>530</v>
-      </c>
-      <c r="E193" s="74" t="s">
-        <v>531</v>
-      </c>
-      <c r="F193" s="88"/>
-      <c r="G193" s="88"/>
-      <c r="H193" s="88"/>
+      <c r="D193" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3"/>
     </row>
     <row r="194" customHeight="1" spans="1:8">
-      <c r="A194" s="87"/>
+      <c r="A194" s="93"/>
       <c r="B194" s="1"/>
       <c r="C194" s="3"/>
-      <c r="D194" s="88" t="s">
-        <v>532</v>
-      </c>
-      <c r="E194" s="88" t="s">
-        <v>533</v>
-      </c>
-      <c r="F194" s="88"/>
-      <c r="G194" s="88"/>
-      <c r="H194" s="88"/>
+      <c r="D194" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3"/>
     </row>
     <row r="195" customHeight="1" spans="1:8">
-      <c r="A195" s="87"/>
+      <c r="A195" s="93"/>
       <c r="B195" s="1"/>
       <c r="C195" s="3"/>
-      <c r="D195" s="88" t="s">
+      <c r="D195" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F195" s="3"/>
+      <c r="G195" s="3"/>
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" customHeight="1" spans="1:8">
+      <c r="A196" s="93"/>
+      <c r="B196" s="1"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E196" s="23" t="s">
+        <v>531</v>
+      </c>
+      <c r="F196" s="3"/>
+      <c r="G196" s="3"/>
+      <c r="H196" s="3"/>
+    </row>
+    <row r="197" customHeight="1" spans="1:8">
+      <c r="A197" s="93"/>
+      <c r="B197" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C197" s="3"/>
+      <c r="D197" s="94" t="s">
+        <v>533</v>
+      </c>
+      <c r="E197" s="94" t="s">
         <v>534</v>
       </c>
-      <c r="E195" s="88" t="s">
+      <c r="F197" s="94"/>
+      <c r="G197" s="94"/>
+      <c r="H197" s="94"/>
+    </row>
+    <row r="198" customHeight="1" spans="1:8">
+      <c r="A198" s="93"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="94" t="s">
         <v>535</v>
       </c>
-      <c r="F195" s="88"/>
-      <c r="G195" s="88"/>
-      <c r="H195" s="88"/>
-    </row>
-    <row r="197" customHeight="1" spans="1:8">
-      <c r="A197" s="89" t="s">
+      <c r="E198" s="94" t="s">
         <v>536</v>
       </c>
-      <c r="B197" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C197" s="3"/>
-      <c r="D197" s="88" t="s">
+      <c r="F198" s="94"/>
+      <c r="G198" s="94"/>
+      <c r="H198" s="94"/>
+    </row>
+    <row r="199" customHeight="1" spans="1:8">
+      <c r="A199" s="93"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="94" t="s">
         <v>537</v>
       </c>
-      <c r="E197" s="88" t="s">
-        <v>313</v>
-      </c>
-      <c r="F197" s="88"/>
-      <c r="G197" s="88"/>
-      <c r="H197" s="88"/>
-    </row>
-    <row r="198" customHeight="1" spans="1:8">
-      <c r="A198" s="89"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="3" t="s">
+      <c r="E199" s="94" t="s">
         <v>538</v>
       </c>
-      <c r="D198" s="88" t="s">
+      <c r="F199" s="94"/>
+      <c r="G199" s="94"/>
+      <c r="H199" s="94"/>
+    </row>
+    <row r="200" customHeight="1" spans="1:8">
+      <c r="A200" s="93"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="94" t="s">
         <v>539</v>
       </c>
-      <c r="E198" s="74" t="s">
+      <c r="E200" s="74" t="s">
         <v>540</v>
       </c>
-      <c r="F198" s="88"/>
-      <c r="G198" s="88"/>
-      <c r="H198" s="88"/>
-    </row>
-    <row r="199" customHeight="1" spans="1:8">
-      <c r="A199" s="89"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D199" s="88" t="s">
-        <v>542</v>
-      </c>
-      <c r="E199" s="88" t="s">
-        <v>543</v>
-      </c>
-      <c r="F199" s="88"/>
-      <c r="G199" s="88"/>
-      <c r="H199" s="88"/>
-    </row>
-    <row r="200" customHeight="1" spans="1:8">
-      <c r="A200" s="89"/>
-      <c r="B200" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C200" s="3"/>
-      <c r="D200" s="88" t="s">
-        <v>544</v>
-      </c>
-      <c r="E200" s="88" t="s">
-        <v>545</v>
-      </c>
-      <c r="F200" s="88"/>
-      <c r="G200" s="88"/>
-      <c r="H200" s="88"/>
+      <c r="F200" s="94"/>
+      <c r="G200" s="94"/>
+      <c r="H200" s="94"/>
     </row>
     <row r="201" customHeight="1" spans="1:8">
-      <c r="A201" s="89"/>
+      <c r="A201" s="93"/>
       <c r="B201" s="1"/>
       <c r="C201" s="3"/>
-      <c r="D201" s="88" t="s">
-        <v>249</v>
-      </c>
-      <c r="E201" s="88" t="s">
-        <v>186</v>
-      </c>
-      <c r="F201" s="88"/>
-      <c r="G201" s="88"/>
-      <c r="H201" s="88"/>
+      <c r="D201" s="94" t="s">
+        <v>541</v>
+      </c>
+      <c r="E201" s="94" t="s">
+        <v>542</v>
+      </c>
+      <c r="F201" s="94"/>
+      <c r="G201" s="94"/>
+      <c r="H201" s="94"/>
     </row>
     <row r="202" customHeight="1" spans="1:8">
-      <c r="A202" s="89"/>
+      <c r="A202" s="93"/>
       <c r="B202" s="1"/>
       <c r="C202" s="3"/>
-      <c r="D202" s="88" t="s">
-        <v>487</v>
-      </c>
-      <c r="E202" s="88" t="s">
-        <v>463</v>
-      </c>
-      <c r="F202" s="88"/>
-      <c r="G202" s="88"/>
-      <c r="H202" s="88"/>
+      <c r="D202" s="94" t="s">
+        <v>543</v>
+      </c>
+      <c r="E202" s="94" t="s">
+        <v>544</v>
+      </c>
+      <c r="F202" s="94"/>
+      <c r="G202" s="94"/>
+      <c r="H202" s="94"/>
     </row>
     <row r="204" customHeight="1" spans="1:8">
-      <c r="A204" s="90" t="s">
+      <c r="A204" s="95" t="s">
+        <v>545</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C204" s="3"/>
+      <c r="D204" s="94" t="s">
         <v>546</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="E204" s="94" t="s">
+        <v>313</v>
+      </c>
+      <c r="F204" s="94"/>
+      <c r="G204" s="94"/>
+      <c r="H204" s="94"/>
+    </row>
+    <row r="205" customHeight="1" spans="1:8">
+      <c r="A205" s="95"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3" t="s">
+      <c r="D205" s="94" t="s">
         <v>548</v>
       </c>
-      <c r="E204" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
-    </row>
-    <row r="205" customHeight="1" spans="1:8">
-      <c r="A205" s="90"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3" t="s">
+      <c r="E205" s="74" t="s">
         <v>549</v>
       </c>
-      <c r="E205" s="3" t="s">
+      <c r="F205" s="94"/>
+      <c r="G205" s="94"/>
+      <c r="H205" s="94"/>
+    </row>
+    <row r="206" customHeight="1" spans="1:8">
+      <c r="A206" s="95"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
-    </row>
-    <row r="206" customHeight="1" spans="1:8">
-      <c r="A206" s="90"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3" t="s">
+      <c r="D206" s="94" t="s">
         <v>551</v>
       </c>
-      <c r="E206" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
+      <c r="E206" s="94" t="s">
+        <v>552</v>
+      </c>
+      <c r="F206" s="94"/>
+      <c r="G206" s="94"/>
+      <c r="H206" s="94"/>
     </row>
     <row r="207" customHeight="1" spans="1:8">
-      <c r="A207" s="90"/>
-      <c r="B207" s="1"/>
+      <c r="A207" s="95"/>
+      <c r="B207" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="C207" s="3"/>
-      <c r="D207" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E207" s="3" t="s">
+      <c r="D207" s="94" t="s">
+        <v>553</v>
+      </c>
+      <c r="E207" s="94" t="s">
+        <v>554</v>
+      </c>
+      <c r="F207" s="94"/>
+      <c r="G207" s="94"/>
+      <c r="H207" s="94"/>
+    </row>
+    <row r="208" customHeight="1" spans="1:8">
+      <c r="A208" s="95"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="94" t="s">
+        <v>249</v>
+      </c>
+      <c r="E208" s="94" t="s">
         <v>186</v>
       </c>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-    </row>
-    <row r="208" customHeight="1" spans="1:8">
-      <c r="A208" s="90"/>
-      <c r="B208" s="1" t="s">
-        <v>552</v>
-      </c>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="E208" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
+      <c r="F208" s="94"/>
+      <c r="G208" s="94"/>
+      <c r="H208" s="94"/>
     </row>
     <row r="209" customHeight="1" spans="1:8">
-      <c r="A209" s="90"/>
+      <c r="A209" s="95"/>
       <c r="B209" s="1"/>
       <c r="C209" s="3"/>
-      <c r="D209" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="E209" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-    </row>
-    <row r="210" customHeight="1" spans="1:8">
-      <c r="A210" s="90"/>
-      <c r="B210" s="1" t="s">
+      <c r="D209" s="94" t="s">
+        <v>496</v>
+      </c>
+      <c r="E209" s="94" t="s">
         <v>555</v>
       </c>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3" t="s">
+      <c r="F209" s="94"/>
+      <c r="G209" s="94"/>
+      <c r="H209" s="94"/>
+    </row>
+    <row r="211" customHeight="1" spans="1:8">
+      <c r="A211" s="96" t="s">
         <v>556</v>
       </c>
-      <c r="E210" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-    </row>
-    <row r="211" customHeight="1" spans="1:8">
-      <c r="A211" s="90"/>
-      <c r="B211" s="1"/>
+      <c r="B211" s="1" t="s">
+        <v>557</v>
+      </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="E211" s="23" t="s">
         <v>558</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
       <c r="H211" s="3"/>
     </row>
     <row r="212" customHeight="1" spans="1:8">
-      <c r="A212" s="90"/>
+      <c r="A212" s="96"/>
       <c r="B212" s="1"/>
       <c r="C212" s="3"/>
       <c r="D212" s="3" t="s">
@@ -8116,327 +8154,429 @@
       <c r="H212" s="3"/>
     </row>
     <row r="213" customHeight="1" spans="1:8">
-      <c r="A213" s="90"/>
-      <c r="B213" s="1" t="s">
-        <v>561</v>
-      </c>
+      <c r="A213" s="96"/>
+      <c r="B213" s="1"/>
       <c r="C213" s="3"/>
       <c r="D213" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>563</v>
+        <v>508</v>
       </c>
       <c r="F213" s="3"/>
       <c r="G213" s="3"/>
       <c r="H213" s="3"/>
     </row>
     <row r="214" customHeight="1" spans="1:8">
-      <c r="A214" s="90"/>
+      <c r="A214" s="96"/>
       <c r="B214" s="1"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3" t="s">
-        <v>564</v>
+        <v>185</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>499</v>
+        <v>186</v>
       </c>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
     </row>
     <row r="215" customHeight="1" spans="1:8">
-      <c r="A215" s="90"/>
-      <c r="B215" s="1"/>
+      <c r="A215" s="96"/>
+      <c r="B215" s="1" t="s">
+        <v>562</v>
+      </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>186</v>
+        <v>563</v>
       </c>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
     </row>
     <row r="216" customHeight="1" spans="1:8">
-      <c r="A216" s="90"/>
-      <c r="B216" s="1" t="s">
-        <v>566</v>
-      </c>
+      <c r="A216" s="96"/>
+      <c r="B216" s="1"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3" t="s">
-        <v>567</v>
+        <v>462</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
     </row>
     <row r="217" customHeight="1" spans="1:8">
-      <c r="A217" s="90"/>
-      <c r="B217" s="1"/>
+      <c r="A217" s="96"/>
+      <c r="B217" s="1" t="s">
+        <v>565</v>
+      </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3" t="s">
-        <v>342</v>
+        <v>566</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>569</v>
+        <v>40</v>
       </c>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
     </row>
     <row r="218" customHeight="1" spans="1:8">
-      <c r="A218" s="90"/>
-      <c r="B218" s="1" t="s">
-        <v>570</v>
-      </c>
+      <c r="A218" s="96"/>
+      <c r="B218" s="1"/>
       <c r="C218" s="3"/>
       <c r="D218" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>572</v>
+        <v>567</v>
+      </c>
+      <c r="E218" s="23" t="s">
+        <v>568</v>
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
     </row>
     <row r="219" customHeight="1" spans="1:8">
-      <c r="A219" s="90"/>
+      <c r="A219" s="96"/>
       <c r="B219" s="1"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
     </row>
     <row r="220" customHeight="1" spans="1:8">
-      <c r="A220" s="90"/>
-      <c r="B220" s="1"/>
+      <c r="A220" s="96"/>
+      <c r="B220" s="1" t="s">
+        <v>571</v>
+      </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>186</v>
+        <v>573</v>
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
     </row>
     <row r="221" customHeight="1" spans="1:8">
-      <c r="A221" s="90"/>
-      <c r="B221" s="1" t="s">
-        <v>576</v>
-      </c>
+      <c r="A221" s="96"/>
+      <c r="B221" s="1"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>578</v>
+        <v>508</v>
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
     </row>
     <row r="222" customHeight="1" spans="1:8">
-      <c r="A222" s="90"/>
+      <c r="A222" s="96"/>
       <c r="B222" s="1"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3" t="s">
-        <v>462</v>
+        <v>575</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>579</v>
+        <v>186</v>
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
     </row>
     <row r="223" customHeight="1" spans="1:8">
-      <c r="A223" s="90"/>
-      <c r="B223" s="1"/>
+      <c r="A223" s="96"/>
+      <c r="B223" s="1" t="s">
+        <v>576</v>
+      </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>186</v>
+        <v>578</v>
       </c>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
     </row>
+    <row r="224" customHeight="1" spans="1:8">
+      <c r="A224" s="96"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="F224" s="3"/>
+      <c r="G224" s="3"/>
+      <c r="H224" s="3"/>
+    </row>
     <row r="225" customHeight="1" spans="1:8">
-      <c r="A225" s="91" t="s">
+      <c r="A225" s="96"/>
+      <c r="B225" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="E225" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="C225" s="3"/>
-      <c r="D225" s="88" t="s">
+      <c r="F225" s="3"/>
+      <c r="G225" s="3"/>
+      <c r="H225" s="3"/>
+    </row>
+    <row r="226" customHeight="1" spans="1:8">
+      <c r="A226" s="96"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="E225" s="88" t="s">
+      <c r="E226" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="F225" s="88"/>
-      <c r="G225" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="H225" s="88" t="s">
+      <c r="F226" s="3"/>
+      <c r="G226" s="3"/>
+      <c r="H226" s="3"/>
+    </row>
+    <row r="227" customHeight="1" spans="1:8">
+      <c r="A227" s="96"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="226" customHeight="1" spans="1:8">
-      <c r="A226" s="91"/>
-      <c r="B226" s="36" t="s">
+      <c r="E227" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F227" s="3"/>
+      <c r="G227" s="3"/>
+      <c r="H227" s="3"/>
+    </row>
+    <row r="228" customHeight="1" spans="1:8">
+      <c r="A228" s="96"/>
+      <c r="B228" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="C226" s="3"/>
-      <c r="D226" s="23" t="s">
-        <v>549</v>
-      </c>
-      <c r="E226" s="23" t="s">
-        <v>550</v>
-      </c>
-      <c r="F226" s="3"/>
-      <c r="G226" s="23" t="s">
+      <c r="C228" s="3"/>
+      <c r="D228" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="H226" s="28" t="s">
+      <c r="E228" s="3" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="227" customHeight="1" spans="1:8">
-      <c r="A227" s="91"/>
-      <c r="B227" s="36" t="s">
-        <v>589</v>
-      </c>
-      <c r="C227" s="3"/>
-      <c r="D227" s="23" t="s">
-        <v>590</v>
-      </c>
-      <c r="E227" s="23" t="s">
-        <v>591</v>
-      </c>
-      <c r="F227" s="3"/>
-      <c r="G227" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H227" s="23" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="228" customHeight="1" spans="1:8">
-      <c r="A228" s="91"/>
-      <c r="B228" s="36"/>
-      <c r="C228" s="3"/>
-      <c r="D228" s="23" t="s">
-        <v>593</v>
-      </c>
-      <c r="E228" s="23" t="s">
-        <v>594</v>
-      </c>
       <c r="F228" s="3"/>
-      <c r="G228" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H228" s="28" t="s">
-        <v>595</v>
-      </c>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
     </row>
     <row r="229" customHeight="1" spans="1:8">
-      <c r="A229" s="92" t="s">
-        <v>596</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>597</v>
-      </c>
+      <c r="A229" s="96"/>
+      <c r="B229" s="1"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="E229" s="23" t="s">
-        <v>599</v>
-      </c>
-      <c r="F229" s="23" t="s">
-        <v>600</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="F229" s="3"/>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
     </row>
     <row r="230" customHeight="1" spans="1:8">
-      <c r="A230" s="93"/>
+      <c r="A230" s="96"/>
       <c r="B230" s="1"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F230" s="3"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3"/>
+    </row>
+    <row r="232" customHeight="1" spans="1:8">
+      <c r="A232" s="97" t="s">
+        <v>591</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C232" s="3"/>
+      <c r="D232" s="94" t="s">
+        <v>593</v>
+      </c>
+      <c r="E232" s="94" t="s">
+        <v>594</v>
+      </c>
+      <c r="F232" s="94"/>
+      <c r="G232" s="94" t="s">
+        <v>19</v>
+      </c>
+      <c r="H232" s="94" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="233" customHeight="1" spans="1:8">
+      <c r="A233" s="97"/>
+      <c r="B233" s="36" t="s">
+        <v>596</v>
+      </c>
+      <c r="C233" s="3"/>
+      <c r="D233" s="23" t="s">
+        <v>559</v>
+      </c>
+      <c r="E233" s="23" t="s">
+        <v>560</v>
+      </c>
+      <c r="F233" s="3"/>
+      <c r="G233" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="H233" s="28" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="234" customHeight="1" spans="1:8">
+      <c r="A234" s="97"/>
+      <c r="B234" s="36" t="s">
+        <v>599</v>
+      </c>
+      <c r="C234" s="3"/>
+      <c r="D234" s="23" t="s">
+        <v>600</v>
+      </c>
+      <c r="E234" s="23" t="s">
         <v>601</v>
       </c>
-      <c r="E230" s="23" t="s">
+      <c r="F234" s="3"/>
+      <c r="G234" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H234" s="23" t="s">
         <v>602</v>
       </c>
-      <c r="F230" s="23" t="s">
+    </row>
+    <row r="235" customHeight="1" spans="1:8">
+      <c r="A235" s="97"/>
+      <c r="B235" s="36"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="23" t="s">
         <v>603</v>
       </c>
-      <c r="G230" s="23" t="s">
+      <c r="E235" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="F235" s="3"/>
+      <c r="G235" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H230" s="23" t="s">
+      <c r="H235" s="28" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="236" customHeight="1" spans="1:8">
+      <c r="A236" s="98" t="s">
+        <v>606</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E236" s="23" t="s">
+        <v>609</v>
+      </c>
+      <c r="F236" s="23" t="s">
+        <v>610</v>
+      </c>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+    </row>
+    <row r="237" customHeight="1" spans="1:8">
+      <c r="A237" s="99"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="E237" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="F237" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="G237" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H237" s="23" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="231" customHeight="1" spans="1:8">
-      <c r="A231" s="93"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="3"/>
-      <c r="D231" s="88" t="s">
-        <v>604</v>
-      </c>
-      <c r="E231" s="23" t="s">
-        <v>605</v>
-      </c>
-      <c r="F231" s="23" t="s">
-        <v>606</v>
-      </c>
-      <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
-    </row>
-    <row r="232" customHeight="1" spans="1:8">
-      <c r="A232" s="93"/>
-      <c r="B232" s="36" t="s">
-        <v>607</v>
-      </c>
-      <c r="C232" s="3"/>
-      <c r="D232" s="23" t="s">
-        <v>608</v>
-      </c>
-      <c r="E232" s="23" t="s">
-        <v>609</v>
-      </c>
-      <c r="F232" s="23" t="s">
-        <v>610</v>
-      </c>
-      <c r="G232" s="23" t="s">
-        <v>611</v>
-      </c>
-      <c r="H232" s="23" t="s">
+    <row r="238" customHeight="1" spans="1:8">
+      <c r="A238" s="99"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="94" t="s">
+        <v>614</v>
+      </c>
+      <c r="E238" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="F238" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+    </row>
+    <row r="239" customHeight="1" spans="1:8">
+      <c r="A239" s="99"/>
+      <c r="B239" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="C239" s="3"/>
+      <c r="D239" s="23" t="s">
+        <v>618</v>
+      </c>
+      <c r="E239" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="F239" s="23" t="s">
+        <v>620</v>
+      </c>
+      <c r="G239" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="H239" s="23" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="135">
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D15:H15"/>
@@ -8490,15 +8630,19 @@
     <mergeCell ref="D162:H162"/>
     <mergeCell ref="D164:H164"/>
     <mergeCell ref="D165:H165"/>
+    <mergeCell ref="D172:H172"/>
+    <mergeCell ref="D174:H174"/>
+    <mergeCell ref="D175:H175"/>
+    <mergeCell ref="D176:H176"/>
     <mergeCell ref="A2:A45"/>
     <mergeCell ref="A47:A98"/>
     <mergeCell ref="A100:A162"/>
-    <mergeCell ref="A164:A182"/>
-    <mergeCell ref="A184:A195"/>
-    <mergeCell ref="A197:A202"/>
-    <mergeCell ref="A204:A223"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="A229:A232"/>
+    <mergeCell ref="A164:A189"/>
+    <mergeCell ref="A191:A202"/>
+    <mergeCell ref="A204:A209"/>
+    <mergeCell ref="A211:A230"/>
+    <mergeCell ref="A232:A235"/>
+    <mergeCell ref="A236:A239"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="B17:B24"/>
@@ -8516,22 +8660,22 @@
     <mergeCell ref="B129:B139"/>
     <mergeCell ref="B141:B152"/>
     <mergeCell ref="B154:B162"/>
-    <mergeCell ref="B164:B171"/>
-    <mergeCell ref="B172:B177"/>
-    <mergeCell ref="B178:B182"/>
-    <mergeCell ref="B184:B189"/>
-    <mergeCell ref="B190:B195"/>
-    <mergeCell ref="B197:B199"/>
-    <mergeCell ref="B200:B202"/>
-    <mergeCell ref="B204:B207"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B213:B215"/>
-    <mergeCell ref="B216:B217"/>
-    <mergeCell ref="B218:B220"/>
-    <mergeCell ref="B221:B223"/>
-    <mergeCell ref="B227:B228"/>
-    <mergeCell ref="B229:B231"/>
+    <mergeCell ref="B164:B172"/>
+    <mergeCell ref="B174:B183"/>
+    <mergeCell ref="B185:B189"/>
+    <mergeCell ref="B191:B196"/>
+    <mergeCell ref="B197:B202"/>
+    <mergeCell ref="B204:B206"/>
+    <mergeCell ref="B207:B209"/>
+    <mergeCell ref="B211:B214"/>
+    <mergeCell ref="B215:B216"/>
+    <mergeCell ref="B217:B219"/>
+    <mergeCell ref="B220:B222"/>
+    <mergeCell ref="B223:B224"/>
+    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="B228:B230"/>
+    <mergeCell ref="B234:B235"/>
+    <mergeCell ref="B236:B238"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C14"/>
@@ -8564,10 +8708,10 @@
     <mergeCell ref="C158:C161"/>
     <mergeCell ref="C166:C169"/>
     <mergeCell ref="C170:C171"/>
-    <mergeCell ref="C172:C174"/>
-    <mergeCell ref="C175:C177"/>
-    <mergeCell ref="C178:C179"/>
-    <mergeCell ref="C180:C182"/>
+    <mergeCell ref="C177:C180"/>
+    <mergeCell ref="C181:C183"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="C187:C189"/>
   </mergeCells>
   <pageMargins left="0.196527777777778" right="0.0784722222222222" top="0.314583333333333" bottom="2.20416666666667" header="0.298611111111111" footer="0.298611111111111"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="600"/>
@@ -8592,40 +8736,40 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -8634,21 +8778,21 @@
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>36</v>
@@ -8656,7 +8800,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -8664,7 +8808,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>122</v>
@@ -8676,21 +8820,21 @@
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>305</v>
@@ -8698,10 +8842,10 @@
     </row>
     <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -8710,32 +8854,32 @@
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">

--- a/内科学笔记/病和方剂汇总.xlsx
+++ b/内科学笔记/病和方剂汇总.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$100:$H$162</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$164:$H$191</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="653">
   <si>
     <t>病证系统</t>
   </si>
@@ -2619,6 +2619,12 @@
     <t>不寐</t>
   </si>
   <si>
+    <t>经常不能获得正常睡眠为物征的病证，睡眠时间和深度不足</t>
+  </si>
+  <si>
+    <t>总属阳盛阴衰，阴阳失交，治当补虚泻实，调整脏腑阴阳为原则。辨病首先分虚实</t>
+  </si>
+  <si>
     <t>肝郁化火</t>
   </si>
   <si>
@@ -2631,7 +2637,7 @@
     <t>痰热内扰</t>
   </si>
   <si>
-    <t>温胆汤</t>
+    <t>黄连温胆汤</t>
   </si>
   <si>
     <t>痰多胸闷，恶食恶心</t>
@@ -2640,10 +2646,13 @@
     <t>苔腻而黄</t>
   </si>
   <si>
-    <t>黄连阿胶汤</t>
-  </si>
-  <si>
-    <t>心悸，头晕，五心烦热</t>
+    <t>心肾不交</t>
+  </si>
+  <si>
+    <t>六味地黄丸</t>
+  </si>
+  <si>
+    <t>心悸多梦，伴腰膝酸软，潮热盗汗，五心烦燥</t>
   </si>
   <si>
     <t>心悸，头晕。倦怠乏力，面色无华</t>
@@ -2652,6 +2661,9 @@
     <t>心胆气虚</t>
   </si>
   <si>
+    <t>不寐肝龙痰热温，心肾不交六交泰，心胆安神心脾归</t>
+  </si>
+  <si>
     <t>肾系统</t>
   </si>
   <si>
@@ -2899,9 +2911,6 @@
   </si>
   <si>
     <t>肾阴亏虚</t>
-  </si>
-  <si>
-    <t>六味地黄丸</t>
   </si>
   <si>
     <t>脉沉细数</t>
@@ -3958,7 +3967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4220,23 +4229,14 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4572,12 +4572,12 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H239"/>
+  <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="T179" sqref="T179"/>
+      <selection pane="bottomLeft" activeCell="E208" sqref="E208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="7"/>
@@ -7381,7 +7381,7 @@
       <c r="A164" s="86" t="s">
         <v>451</v>
       </c>
-      <c r="B164" s="41" t="s">
+      <c r="B164" s="87" t="s">
         <v>452</v>
       </c>
       <c r="C164" s="36" t="s">
@@ -7397,7 +7397,7 @@
     </row>
     <row r="165" customHeight="1" spans="1:8">
       <c r="A165" s="86"/>
-      <c r="B165" s="44"/>
+      <c r="B165" s="24"/>
       <c r="C165" s="36" t="s">
         <v>29</v>
       </c>
@@ -7411,7 +7411,7 @@
     </row>
     <row r="166" customHeight="1" spans="1:8">
       <c r="A166" s="86"/>
-      <c r="B166" s="44"/>
+      <c r="B166" s="24"/>
       <c r="C166" s="36" t="s">
         <v>170</v>
       </c>
@@ -7433,7 +7433,7 @@
     </row>
     <row r="167" customHeight="1" spans="1:8">
       <c r="A167" s="86"/>
-      <c r="B167" s="44"/>
+      <c r="B167" s="24"/>
       <c r="C167" s="1"/>
       <c r="D167" s="23" t="s">
         <v>459</v>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="168" customHeight="1" spans="1:8">
       <c r="A168" s="86"/>
-      <c r="B168" s="44"/>
+      <c r="B168" s="24"/>
       <c r="C168" s="1"/>
       <c r="D168" s="23" t="s">
         <v>462</v>
@@ -7473,7 +7473,7 @@
     </row>
     <row r="169" customHeight="1" spans="1:8">
       <c r="A169" s="86"/>
-      <c r="B169" s="44"/>
+      <c r="B169" s="24"/>
       <c r="C169" s="1"/>
       <c r="D169" s="23" t="s">
         <v>466</v>
@@ -7493,7 +7493,7 @@
     </row>
     <row r="170" customHeight="1" spans="1:8">
       <c r="A170" s="86"/>
-      <c r="B170" s="44"/>
+      <c r="B170" s="24"/>
       <c r="C170" s="36" t="s">
         <v>145</v>
       </c>
@@ -7515,7 +7515,7 @@
     </row>
     <row r="171" customHeight="1" spans="1:8">
       <c r="A171" s="86"/>
-      <c r="B171" s="44"/>
+      <c r="B171" s="24"/>
       <c r="C171" s="1"/>
       <c r="D171" s="27" t="s">
         <v>474</v>
@@ -7535,7 +7535,7 @@
     </row>
     <row r="172" customHeight="1" spans="1:8">
       <c r="A172" s="86"/>
-      <c r="B172" s="47"/>
+      <c r="B172" s="25"/>
       <c r="C172" s="1" t="s">
         <v>26</v>
       </c>
@@ -7552,8 +7552,8 @@
       <c r="H173" s="19"/>
     </row>
     <row r="174" ht="20" customHeight="1" spans="1:8">
-      <c r="A174" s="87"/>
-      <c r="B174" s="36" t="s">
+      <c r="A174" s="86"/>
+      <c r="B174" s="88" t="s">
         <v>478</v>
       </c>
       <c r="C174" s="1" t="s">
@@ -7568,36 +7568,36 @@
       <c r="H174" s="21"/>
     </row>
     <row r="175" ht="20" customHeight="1" spans="1:8">
-      <c r="A175" s="87"/>
-      <c r="B175" s="36"/>
+      <c r="A175" s="86"/>
+      <c r="B175" s="88"/>
       <c r="C175" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D175" s="88" t="s">
+      <c r="D175" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="E175" s="89"/>
-      <c r="F175" s="89"/>
-      <c r="G175" s="89"/>
-      <c r="H175" s="90"/>
+      <c r="E175" s="20"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="20"/>
+      <c r="H175" s="21"/>
     </row>
     <row r="176" ht="20" customHeight="1" spans="1:8">
-      <c r="A176" s="87"/>
-      <c r="B176" s="36"/>
+      <c r="A176" s="86"/>
+      <c r="B176" s="88"/>
       <c r="C176" s="1" t="s">
         <v>481</v>
       </c>
-      <c r="D176" s="88" t="s">
+      <c r="D176" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="E176" s="89"/>
-      <c r="F176" s="89"/>
-      <c r="G176" s="89"/>
-      <c r="H176" s="90"/>
+      <c r="E176" s="20"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="20"/>
+      <c r="H176" s="21"/>
     </row>
     <row r="177" customHeight="1" spans="1:8">
-      <c r="A177" s="87"/>
-      <c r="B177" s="36"/>
+      <c r="A177" s="86"/>
+      <c r="B177" s="88"/>
       <c r="C177" s="1" t="s">
         <v>145</v>
       </c>
@@ -7618,8 +7618,8 @@
       </c>
     </row>
     <row r="178" customHeight="1" spans="1:8">
-      <c r="A178" s="87"/>
-      <c r="B178" s="36"/>
+      <c r="A178" s="86"/>
+      <c r="B178" s="88"/>
       <c r="C178" s="1"/>
       <c r="D178" s="23" t="s">
         <v>487</v>
@@ -7638,8 +7638,8 @@
       </c>
     </row>
     <row r="179" customHeight="1" spans="1:8">
-      <c r="A179" s="87"/>
-      <c r="B179" s="36"/>
+      <c r="A179" s="86"/>
+      <c r="B179" s="88"/>
       <c r="C179" s="1"/>
       <c r="D179" s="23" t="s">
         <v>491</v>
@@ -7656,8 +7656,8 @@
       </c>
     </row>
     <row r="180" customHeight="1" spans="1:8">
-      <c r="A180" s="87"/>
-      <c r="B180" s="36"/>
+      <c r="A180" s="86"/>
+      <c r="B180" s="88"/>
       <c r="C180" s="1"/>
       <c r="D180" s="23" t="s">
         <v>493</v>
@@ -7676,8 +7676,8 @@
       </c>
     </row>
     <row r="181" customHeight="1" spans="1:8">
-      <c r="A181" s="87"/>
-      <c r="B181" s="36"/>
+      <c r="A181" s="86"/>
+      <c r="B181" s="88"/>
       <c r="C181" s="1" t="s">
         <v>170</v>
       </c>
@@ -7698,8 +7698,8 @@
       </c>
     </row>
     <row r="182" customHeight="1" spans="1:8">
-      <c r="A182" s="87"/>
-      <c r="B182" s="36"/>
+      <c r="A182" s="86"/>
+      <c r="B182" s="88"/>
       <c r="C182" s="1"/>
       <c r="D182" s="74" t="s">
         <v>499</v>
@@ -7718,8 +7718,8 @@
       </c>
     </row>
     <row r="183" customHeight="1" spans="1:8">
-      <c r="A183" s="87"/>
-      <c r="B183" s="36"/>
+      <c r="A183" s="86"/>
+      <c r="B183" s="88"/>
       <c r="C183" s="1"/>
       <c r="D183" s="23" t="s">
         <v>502</v>
@@ -7738,677 +7738,669 @@
       </c>
     </row>
     <row r="184" ht="9" customHeight="1" spans="1:8">
-      <c r="A184" s="91"/>
-      <c r="B184"/>
-      <c r="C184"/>
-      <c r="D184"/>
-      <c r="E184"/>
-      <c r="F184"/>
-      <c r="G184"/>
-      <c r="H184" s="92"/>
-    </row>
-    <row r="185" customHeight="1" spans="1:8">
-      <c r="A185" s="86"/>
+      <c r="A184" s="86"/>
+      <c r="H184" s="19"/>
+    </row>
+    <row r="185" ht="20" customHeight="1" spans="1:8">
+      <c r="A185" s="89"/>
       <c r="B185" s="36" t="s">
         <v>506</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D185" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D185" s="30" t="s">
         <v>507</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E185" s="20"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="20"/>
+      <c r="H185" s="21"/>
+    </row>
+    <row r="186" ht="20" customHeight="1" spans="1:8">
+      <c r="A186" s="89"/>
+      <c r="B186" s="36"/>
+      <c r="C186" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D186" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="F185" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="G185" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H185" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="186" customHeight="1" spans="1:8">
-      <c r="A186" s="86"/>
-      <c r="B186" s="36"/>
-      <c r="C186" s="1"/>
-      <c r="D186" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="E186" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="F186" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="G186" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="H186" s="3" t="s">
-        <v>77</v>
-      </c>
+      <c r="E186" s="20"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="20"/>
+      <c r="H186" s="21"/>
     </row>
     <row r="187" customHeight="1" spans="1:8">
-      <c r="A187" s="86"/>
+      <c r="A187" s="89"/>
       <c r="B187" s="36"/>
       <c r="C187" s="1" t="s">
-        <v>170</v>
+        <v>145</v>
       </c>
       <c r="D187" s="23" t="s">
-        <v>462</v>
+        <v>509</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F187" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="188" customHeight="1" spans="1:8">
-      <c r="A188" s="86"/>
+      <c r="A188" s="89"/>
       <c r="B188" s="36"/>
       <c r="C188" s="1"/>
       <c r="D188" s="23" t="s">
+        <v>512</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="189" customHeight="1" spans="1:8">
+      <c r="A189" s="89"/>
+      <c r="B189" s="36"/>
+      <c r="C189" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D189" s="23" t="s">
+        <v>516</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="190" customHeight="1" spans="1:8">
+      <c r="A190" s="89"/>
+      <c r="B190" s="36"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="E188" s="3" t="s">
+      <c r="E190" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F188" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="G188" s="3" t="s">
+      <c r="F190" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="G190" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="H188" s="3" t="s">
+      <c r="H190" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="189" customHeight="1" spans="1:8">
-      <c r="A189" s="86"/>
-      <c r="B189" s="36"/>
-      <c r="C189" s="1"/>
-      <c r="D189" s="23" t="s">
-        <v>517</v>
-      </c>
-      <c r="E189" s="3" t="s">
+    <row r="191" customHeight="1" spans="1:8">
+      <c r="A191" s="89"/>
+      <c r="B191" s="36"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="E191" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="F189" s="23" t="s">
+      <c r="F191" s="23" t="s">
         <v>457</v>
       </c>
-      <c r="G189" s="3" t="s">
+      <c r="G191" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="H189" s="3" t="s">
+      <c r="H191" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="191" customHeight="1" spans="1:8">
-      <c r="A191" s="93" t="s">
-        <v>518</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>519</v>
-      </c>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="E191" s="3" t="s">
+    <row r="192" customHeight="1" spans="1:8">
+      <c r="A192" s="89"/>
+      <c r="B192" s="36"/>
+      <c r="C192" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D192" s="30" t="s">
         <v>521</v>
       </c>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-    </row>
-    <row r="192" customHeight="1" spans="1:8">
-      <c r="A192" s="93"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3" t="s">
+      <c r="E192" s="20"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="20"/>
+      <c r="H192" s="21"/>
+    </row>
+    <row r="194" customHeight="1" spans="1:8">
+      <c r="A194" s="90" t="s">
         <v>522</v>
       </c>
-      <c r="E192" s="3" t="s">
+      <c r="B194" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-    </row>
-    <row r="193" customHeight="1" spans="1:8">
-      <c r="A193" s="93"/>
-      <c r="B193" s="1"/>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="E193" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-    </row>
-    <row r="194" customHeight="1" spans="1:8">
-      <c r="A194" s="93"/>
-      <c r="B194" s="1"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="3"/>
       <c r="H194" s="3"/>
     </row>
     <row r="195" customHeight="1" spans="1:8">
-      <c r="A195" s="93"/>
+      <c r="A195" s="90"/>
       <c r="B195" s="1"/>
       <c r="C195" s="3"/>
       <c r="D195" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
       <c r="H195" s="3"/>
     </row>
     <row r="196" customHeight="1" spans="1:8">
-      <c r="A196" s="93"/>
+      <c r="A196" s="90"/>
       <c r="B196" s="1"/>
       <c r="C196" s="3"/>
       <c r="D196" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="E196" s="23" t="s">
-        <v>531</v>
+        <v>528</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>529</v>
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
       <c r="H196" s="3"/>
     </row>
     <row r="197" customHeight="1" spans="1:8">
-      <c r="A197" s="93"/>
-      <c r="B197" s="1" t="s">
-        <v>532</v>
-      </c>
+      <c r="A197" s="90"/>
+      <c r="B197" s="1"/>
       <c r="C197" s="3"/>
-      <c r="D197" s="94" t="s">
-        <v>533</v>
-      </c>
-      <c r="E197" s="94" t="s">
-        <v>534</v>
-      </c>
-      <c r="F197" s="94"/>
-      <c r="G197" s="94"/>
-      <c r="H197" s="94"/>
+      <c r="D197" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F197" s="3"/>
+      <c r="G197" s="3"/>
+      <c r="H197" s="3"/>
     </row>
     <row r="198" customHeight="1" spans="1:8">
-      <c r="A198" s="93"/>
+      <c r="A198" s="90"/>
       <c r="B198" s="1"/>
       <c r="C198" s="3"/>
-      <c r="D198" s="94" t="s">
-        <v>535</v>
-      </c>
-      <c r="E198" s="94" t="s">
-        <v>536</v>
-      </c>
-      <c r="F198" s="94"/>
-      <c r="G198" s="94"/>
-      <c r="H198" s="94"/>
+      <c r="D198" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F198" s="3"/>
+      <c r="G198" s="3"/>
+      <c r="H198" s="3"/>
     </row>
     <row r="199" customHeight="1" spans="1:8">
-      <c r="A199" s="93"/>
+      <c r="A199" s="90"/>
       <c r="B199" s="1"/>
       <c r="C199" s="3"/>
-      <c r="D199" s="94" t="s">
+      <c r="D199" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E199" s="28" t="s">
+        <v>535</v>
+      </c>
+      <c r="F199" s="3"/>
+      <c r="G199" s="3"/>
+      <c r="H199" s="3"/>
+    </row>
+    <row r="200" customHeight="1" spans="1:8">
+      <c r="A200" s="90"/>
+      <c r="B200" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C200" s="3"/>
+      <c r="D200" s="91" t="s">
         <v>537</v>
       </c>
-      <c r="E199" s="94" t="s">
+      <c r="E200" s="91" t="s">
         <v>538</v>
       </c>
-      <c r="F199" s="94"/>
-      <c r="G199" s="94"/>
-      <c r="H199" s="94"/>
-    </row>
-    <row r="200" customHeight="1" spans="1:8">
-      <c r="A200" s="93"/>
-      <c r="B200" s="1"/>
-      <c r="C200" s="3"/>
-      <c r="D200" s="94" t="s">
-        <v>539</v>
-      </c>
-      <c r="E200" s="74" t="s">
-        <v>540</v>
-      </c>
-      <c r="F200" s="94"/>
-      <c r="G200" s="94"/>
-      <c r="H200" s="94"/>
+      <c r="F200" s="91"/>
+      <c r="G200" s="91"/>
+      <c r="H200" s="91"/>
     </row>
     <row r="201" customHeight="1" spans="1:8">
-      <c r="A201" s="93"/>
+      <c r="A201" s="90"/>
       <c r="B201" s="1"/>
       <c r="C201" s="3"/>
-      <c r="D201" s="94" t="s">
-        <v>541</v>
-      </c>
-      <c r="E201" s="94" t="s">
-        <v>542</v>
-      </c>
-      <c r="F201" s="94"/>
-      <c r="G201" s="94"/>
-      <c r="H201" s="94"/>
+      <c r="D201" s="91" t="s">
+        <v>539</v>
+      </c>
+      <c r="E201" s="91" t="s">
+        <v>540</v>
+      </c>
+      <c r="F201" s="91"/>
+      <c r="G201" s="91"/>
+      <c r="H201" s="91"/>
     </row>
     <row r="202" customHeight="1" spans="1:8">
-      <c r="A202" s="93"/>
+      <c r="A202" s="90"/>
       <c r="B202" s="1"/>
       <c r="C202" s="3"/>
-      <c r="D202" s="94" t="s">
+      <c r="D202" s="91" t="s">
+        <v>541</v>
+      </c>
+      <c r="E202" s="91" t="s">
+        <v>542</v>
+      </c>
+      <c r="F202" s="91"/>
+      <c r="G202" s="91"/>
+      <c r="H202" s="91"/>
+    </row>
+    <row r="203" customHeight="1" spans="1:8">
+      <c r="A203" s="90"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="91" t="s">
         <v>543</v>
       </c>
-      <c r="E202" s="94" t="s">
+      <c r="E203" s="75" t="s">
         <v>544</v>
       </c>
-      <c r="F202" s="94"/>
-      <c r="G202" s="94"/>
-      <c r="H202" s="94"/>
+      <c r="F203" s="91"/>
+      <c r="G203" s="91"/>
+      <c r="H203" s="91"/>
     </row>
     <row r="204" customHeight="1" spans="1:8">
-      <c r="A204" s="95" t="s">
+      <c r="A204" s="90"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="91" t="s">
         <v>545</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="E204" s="91" t="s">
+        <v>546</v>
+      </c>
+      <c r="F204" s="91"/>
+      <c r="G204" s="91"/>
+      <c r="H204" s="91"/>
+    </row>
+    <row r="205" customHeight="1" spans="1:8">
+      <c r="A205" s="90"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="91" t="s">
+        <v>547</v>
+      </c>
+      <c r="E205" s="91" t="s">
+        <v>548</v>
+      </c>
+      <c r="F205" s="91"/>
+      <c r="G205" s="91"/>
+      <c r="H205" s="91"/>
+    </row>
+    <row r="207" customHeight="1" spans="1:8">
+      <c r="A207" s="92" t="s">
+        <v>549</v>
+      </c>
+      <c r="B207" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C204" s="3"/>
-      <c r="D204" s="94" t="s">
-        <v>546</v>
-      </c>
-      <c r="E204" s="94" t="s">
+      <c r="C207" s="3"/>
+      <c r="D207" s="91" t="s">
+        <v>550</v>
+      </c>
+      <c r="E207" s="91" t="s">
         <v>313</v>
       </c>
-      <c r="F204" s="94"/>
-      <c r="G204" s="94"/>
-      <c r="H204" s="94"/>
-    </row>
-    <row r="205" customHeight="1" spans="1:8">
-      <c r="A205" s="95"/>
-      <c r="B205" s="1"/>
-      <c r="C205" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="D205" s="94" t="s">
-        <v>548</v>
-      </c>
-      <c r="E205" s="74" t="s">
-        <v>549</v>
-      </c>
-      <c r="F205" s="94"/>
-      <c r="G205" s="94"/>
-      <c r="H205" s="94"/>
-    </row>
-    <row r="206" customHeight="1" spans="1:8">
-      <c r="A206" s="95"/>
-      <c r="B206" s="1"/>
-      <c r="C206" s="3" t="s">
-        <v>550</v>
-      </c>
-      <c r="D206" s="94" t="s">
+      <c r="F207" s="91"/>
+      <c r="G207" s="91"/>
+      <c r="H207" s="91"/>
+    </row>
+    <row r="208" customHeight="1" spans="1:8">
+      <c r="A208" s="92"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="E206" s="94" t="s">
+      <c r="D208" s="91" t="s">
         <v>552</v>
       </c>
-      <c r="F206" s="94"/>
-      <c r="G206" s="94"/>
-      <c r="H206" s="94"/>
-    </row>
-    <row r="207" customHeight="1" spans="1:8">
-      <c r="A207" s="95"/>
-      <c r="B207" s="1" t="s">
+      <c r="E208" s="75" t="s">
+        <v>553</v>
+      </c>
+      <c r="F208" s="91"/>
+      <c r="G208" s="91"/>
+      <c r="H208" s="91"/>
+    </row>
+    <row r="209" customHeight="1" spans="1:8">
+      <c r="A209" s="92"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="D209" s="91" t="s">
+        <v>555</v>
+      </c>
+      <c r="E209" s="91" t="s">
+        <v>556</v>
+      </c>
+      <c r="F209" s="91"/>
+      <c r="G209" s="91"/>
+      <c r="H209" s="91"/>
+    </row>
+    <row r="210" customHeight="1" spans="1:8">
+      <c r="A210" s="92"/>
+      <c r="B210" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C207" s="3"/>
-      <c r="D207" s="94" t="s">
-        <v>553</v>
-      </c>
-      <c r="E207" s="94" t="s">
-        <v>554</v>
-      </c>
-      <c r="F207" s="94"/>
-      <c r="G207" s="94"/>
-      <c r="H207" s="94"/>
-    </row>
-    <row r="208" customHeight="1" spans="1:8">
-      <c r="A208" s="95"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="94" t="s">
+      <c r="C210" s="3"/>
+      <c r="D210" s="91" t="s">
+        <v>557</v>
+      </c>
+      <c r="E210" s="91" t="s">
+        <v>558</v>
+      </c>
+      <c r="F210" s="91"/>
+      <c r="G210" s="91"/>
+      <c r="H210" s="91"/>
+    </row>
+    <row r="211" customHeight="1" spans="1:8">
+      <c r="A211" s="92"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="91" t="s">
         <v>249</v>
       </c>
-      <c r="E208" s="94" t="s">
+      <c r="E211" s="91" t="s">
         <v>186</v>
       </c>
-      <c r="F208" s="94"/>
-      <c r="G208" s="94"/>
-      <c r="H208" s="94"/>
-    </row>
-    <row r="209" customHeight="1" spans="1:8">
-      <c r="A209" s="95"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="3"/>
-      <c r="D209" s="94" t="s">
-        <v>496</v>
-      </c>
-      <c r="E209" s="94" t="s">
-        <v>555</v>
-      </c>
-      <c r="F209" s="94"/>
-      <c r="G209" s="94"/>
-      <c r="H209" s="94"/>
-    </row>
-    <row r="211" customHeight="1" spans="1:8">
-      <c r="A211" s="96" t="s">
-        <v>556</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="E211" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
+      <c r="F211" s="91"/>
+      <c r="G211" s="91"/>
+      <c r="H211" s="91"/>
     </row>
     <row r="212" customHeight="1" spans="1:8">
-      <c r="A212" s="96"/>
+      <c r="A212" s="92"/>
       <c r="B212" s="1"/>
       <c r="C212" s="3"/>
-      <c r="D212" s="3" t="s">
+      <c r="D212" s="91" t="s">
+        <v>496</v>
+      </c>
+      <c r="E212" s="91" t="s">
         <v>559</v>
       </c>
-      <c r="E212" s="3" t="s">
+      <c r="F212" s="91"/>
+      <c r="G212" s="91"/>
+      <c r="H212" s="91"/>
+    </row>
+    <row r="214" customHeight="1" spans="1:8">
+      <c r="A214" s="93" t="s">
         <v>560</v>
       </c>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
-    </row>
-    <row r="213" customHeight="1" spans="1:8">
-      <c r="A213" s="96"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3" t="s">
+      <c r="B214" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="E213" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
-    </row>
-    <row r="214" customHeight="1" spans="1:8">
-      <c r="A214" s="96"/>
-      <c r="B214" s="1"/>
       <c r="C214" s="3"/>
       <c r="D214" s="3" t="s">
-        <v>185</v>
+        <v>562</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="F214" s="3"/>
       <c r="G214" s="3"/>
       <c r="H214" s="3"/>
     </row>
     <row r="215" customHeight="1" spans="1:8">
-      <c r="A215" s="96"/>
-      <c r="B215" s="1" t="s">
-        <v>562</v>
-      </c>
+      <c r="A215" s="93"/>
+      <c r="B215" s="1"/>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F215" s="3"/>
       <c r="G215" s="3"/>
       <c r="H215" s="3"/>
     </row>
     <row r="216" customHeight="1" spans="1:8">
-      <c r="A216" s="96"/>
+      <c r="A216" s="93"/>
       <c r="B216" s="1"/>
       <c r="C216" s="3"/>
       <c r="D216" s="3" t="s">
-        <v>462</v>
+        <v>565</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>564</v>
+        <v>510</v>
       </c>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
       <c r="H216" s="3"/>
     </row>
     <row r="217" customHeight="1" spans="1:8">
-      <c r="A217" s="96"/>
-      <c r="B217" s="1" t="s">
-        <v>565</v>
-      </c>
+      <c r="A217" s="93"/>
+      <c r="B217" s="1"/>
       <c r="C217" s="3"/>
       <c r="D217" s="3" t="s">
-        <v>566</v>
+        <v>185</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
       <c r="H217" s="3"/>
     </row>
     <row r="218" customHeight="1" spans="1:8">
-      <c r="A218" s="96"/>
-      <c r="B218" s="1"/>
+      <c r="A218" s="93"/>
+      <c r="B218" s="1" t="s">
+        <v>566</v>
+      </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="E218" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="E218" s="23" t="s">
-        <v>568</v>
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="3"/>
       <c r="H218" s="3"/>
     </row>
     <row r="219" customHeight="1" spans="1:8">
-      <c r="A219" s="96"/>
+      <c r="A219" s="93"/>
       <c r="B219" s="1"/>
       <c r="C219" s="3"/>
       <c r="D219" s="3" t="s">
-        <v>569</v>
+        <v>462</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="F219" s="3"/>
       <c r="G219" s="3"/>
       <c r="H219" s="3"/>
     </row>
     <row r="220" customHeight="1" spans="1:8">
-      <c r="A220" s="96"/>
+      <c r="A220" s="93"/>
       <c r="B220" s="1" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>573</v>
+        <v>40</v>
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="3"/>
       <c r="H220" s="3"/>
     </row>
     <row r="221" customHeight="1" spans="1:8">
-      <c r="A221" s="96"/>
+      <c r="A221" s="93"/>
       <c r="B221" s="1"/>
       <c r="C221" s="3"/>
       <c r="D221" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E221" s="3" t="s">
-        <v>508</v>
+        <v>571</v>
+      </c>
+      <c r="E221" s="23" t="s">
+        <v>572</v>
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="3"/>
       <c r="H221" s="3"/>
     </row>
     <row r="222" customHeight="1" spans="1:8">
-      <c r="A222" s="96"/>
+      <c r="A222" s="93"/>
       <c r="B222" s="1"/>
       <c r="C222" s="3"/>
       <c r="D222" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>186</v>
+        <v>574</v>
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="3"/>
       <c r="H222" s="3"/>
     </row>
     <row r="223" customHeight="1" spans="1:8">
-      <c r="A223" s="96"/>
+      <c r="A223" s="93"/>
       <c r="B223" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E223" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>578</v>
       </c>
       <c r="F223" s="3"/>
       <c r="G223" s="3"/>
       <c r="H223" s="3"/>
     </row>
     <row r="224" customHeight="1" spans="1:8">
-      <c r="A224" s="96"/>
+      <c r="A224" s="93"/>
       <c r="B224" s="1"/>
       <c r="C224" s="3"/>
       <c r="D224" s="3" t="s">
-        <v>342</v>
+        <v>578</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>579</v>
+        <v>510</v>
       </c>
       <c r="F224" s="3"/>
       <c r="G224" s="3"/>
       <c r="H224" s="3"/>
     </row>
     <row r="225" customHeight="1" spans="1:8">
-      <c r="A225" s="96"/>
-      <c r="B225" s="1" t="s">
-        <v>580</v>
-      </c>
+      <c r="A225" s="93"/>
+      <c r="B225" s="1"/>
       <c r="C225" s="3"/>
       <c r="D225" s="3" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>582</v>
+        <v>186</v>
       </c>
       <c r="F225" s="3"/>
       <c r="G225" s="3"/>
       <c r="H225" s="3"/>
     </row>
     <row r="226" customHeight="1" spans="1:8">
-      <c r="A226" s="96"/>
-      <c r="B226" s="1"/>
+      <c r="A226" s="93"/>
+      <c r="B226" s="1" t="s">
+        <v>580</v>
+      </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
       <c r="H226" s="3"/>
     </row>
     <row r="227" customHeight="1" spans="1:8">
-      <c r="A227" s="96"/>
+      <c r="A227" s="93"/>
       <c r="B227" s="1"/>
       <c r="C227" s="3"/>
       <c r="D227" s="3" t="s">
-        <v>585</v>
+        <v>342</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>186</v>
+        <v>583</v>
       </c>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
       <c r="H227" s="3"/>
     </row>
     <row r="228" customHeight="1" spans="1:8">
-      <c r="A228" s="96"/>
+      <c r="A228" s="93"/>
       <c r="B228" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
       <c r="H228" s="3"/>
     </row>
     <row r="229" customHeight="1" spans="1:8">
-      <c r="A229" s="96"/>
+      <c r="A229" s="93"/>
       <c r="B229" s="1"/>
       <c r="C229" s="3"/>
       <c r="D229" s="3" t="s">
-        <v>462</v>
+        <v>587</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F229" s="3"/>
       <c r="G229" s="3"/>
       <c r="H229" s="3"/>
     </row>
     <row r="230" customHeight="1" spans="1:8">
-      <c r="A230" s="96"/>
+      <c r="A230" s="93"/>
       <c r="B230" s="1"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E230" s="3" t="s">
         <v>186</v>
@@ -8417,166 +8409,210 @@
       <c r="G230" s="3"/>
       <c r="H230" s="3"/>
     </row>
+    <row r="231" customHeight="1" spans="1:8">
+      <c r="A231" s="93"/>
+      <c r="B231" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
+    </row>
     <row r="232" customHeight="1" spans="1:8">
-      <c r="A232" s="97" t="s">
-        <v>591</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>592</v>
-      </c>
+      <c r="A232" s="93"/>
+      <c r="B232" s="1"/>
       <c r="C232" s="3"/>
-      <c r="D232" s="94" t="s">
+      <c r="D232" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E232" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="E232" s="94" t="s">
+      <c r="F232" s="3"/>
+      <c r="G232" s="3"/>
+      <c r="H232" s="3"/>
+    </row>
+    <row r="233" customHeight="1" spans="1:8">
+      <c r="A233" s="93"/>
+      <c r="B233" s="1"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="F232" s="94"/>
-      <c r="G232" s="94" t="s">
+      <c r="E233" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
+    </row>
+    <row r="235" customHeight="1" spans="1:8">
+      <c r="A235" s="94" t="s">
+        <v>595</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C235" s="3"/>
+      <c r="D235" s="91" t="s">
+        <v>597</v>
+      </c>
+      <c r="E235" s="91" t="s">
+        <v>598</v>
+      </c>
+      <c r="F235" s="91"/>
+      <c r="G235" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="H232" s="94" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="233" customHeight="1" spans="1:8">
-      <c r="A233" s="97"/>
-      <c r="B233" s="36" t="s">
-        <v>596</v>
-      </c>
-      <c r="C233" s="3"/>
-      <c r="D233" s="23" t="s">
-        <v>559</v>
-      </c>
-      <c r="E233" s="23" t="s">
-        <v>560</v>
-      </c>
-      <c r="F233" s="3"/>
-      <c r="G233" s="23" t="s">
-        <v>597</v>
-      </c>
-      <c r="H233" s="28" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="234" customHeight="1" spans="1:8">
-      <c r="A234" s="97"/>
-      <c r="B234" s="36" t="s">
+      <c r="H235" s="91" t="s">
         <v>599</v>
       </c>
-      <c r="C234" s="3"/>
-      <c r="D234" s="23" t="s">
+    </row>
+    <row r="236" customHeight="1" spans="1:8">
+      <c r="A236" s="94"/>
+      <c r="B236" s="36" t="s">
         <v>600</v>
       </c>
-      <c r="E234" s="23" t="s">
+      <c r="C236" s="3"/>
+      <c r="D236" s="23" t="s">
+        <v>563</v>
+      </c>
+      <c r="E236" s="23" t="s">
+        <v>564</v>
+      </c>
+      <c r="F236" s="3"/>
+      <c r="G236" s="23" t="s">
         <v>601</v>
       </c>
-      <c r="F234" s="3"/>
-      <c r="G234" s="23" t="s">
+      <c r="H236" s="28" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="237" customHeight="1" spans="1:8">
+      <c r="A237" s="94"/>
+      <c r="B237" s="36" t="s">
+        <v>603</v>
+      </c>
+      <c r="C237" s="3"/>
+      <c r="D237" s="23" t="s">
+        <v>604</v>
+      </c>
+      <c r="E237" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="F237" s="3"/>
+      <c r="G237" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="H234" s="23" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="235" customHeight="1" spans="1:8">
-      <c r="A235" s="97"/>
-      <c r="B235" s="36"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="23" t="s">
-        <v>603</v>
-      </c>
-      <c r="E235" s="23" t="s">
-        <v>604</v>
-      </c>
-      <c r="F235" s="3"/>
-      <c r="G235" s="23" t="s">
+      <c r="H237" s="23" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="238" customHeight="1" spans="1:8">
+      <c r="A238" s="94"/>
+      <c r="B238" s="36"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="23" t="s">
+        <v>606</v>
+      </c>
+      <c r="E238" s="23" t="s">
+        <v>607</v>
+      </c>
+      <c r="F238" s="3"/>
+      <c r="G238" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H235" s="28" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="236" customHeight="1" spans="1:8">
-      <c r="A236" s="98" t="s">
-        <v>606</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="C236" s="3"/>
-      <c r="D236" s="3" t="s">
+      <c r="H238" s="28" t="s">
         <v>608</v>
       </c>
-      <c r="E236" s="23" t="s">
+    </row>
+    <row r="239" customHeight="1" spans="1:8">
+      <c r="A239" s="95" t="s">
         <v>609</v>
       </c>
-      <c r="F236" s="23" t="s">
+      <c r="B239" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="G236" s="3"/>
-      <c r="H236" s="3"/>
-    </row>
-    <row r="237" customHeight="1" spans="1:8">
-      <c r="A237" s="99"/>
-      <c r="B237" s="1"/>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3" t="s">
+      <c r="C239" s="3"/>
+      <c r="D239" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="E237" s="23" t="s">
+      <c r="E239" s="23" t="s">
         <v>612</v>
       </c>
-      <c r="F237" s="23" t="s">
+      <c r="F239" s="23" t="s">
         <v>613</v>
       </c>
-      <c r="G237" s="23" t="s">
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+    </row>
+    <row r="240" customHeight="1" spans="1:8">
+      <c r="A240" s="96"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="E240" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="F240" s="23" t="s">
+        <v>616</v>
+      </c>
+      <c r="G240" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="H237" s="23" t="s">
+      <c r="H240" s="23" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="238" customHeight="1" spans="1:8">
-      <c r="A238" s="99"/>
-      <c r="B238" s="1"/>
-      <c r="C238" s="3"/>
-      <c r="D238" s="94" t="s">
-        <v>614</v>
-      </c>
-      <c r="E238" s="23" t="s">
-        <v>615</v>
-      </c>
-      <c r="F238" s="23" t="s">
-        <v>616</v>
-      </c>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
-    </row>
-    <row r="239" customHeight="1" spans="1:8">
-      <c r="A239" s="99"/>
-      <c r="B239" s="36" t="s">
+    <row r="241" customHeight="1" spans="1:8">
+      <c r="A241" s="96"/>
+      <c r="B241" s="1"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="91" t="s">
         <v>617</v>
       </c>
-      <c r="C239" s="3"/>
-      <c r="D239" s="23" t="s">
+      <c r="E241" s="23" t="s">
         <v>618</v>
       </c>
-      <c r="E239" s="23" t="s">
+      <c r="F241" s="23" t="s">
         <v>619</v>
       </c>
-      <c r="F239" s="23" t="s">
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+    </row>
+    <row r="242" customHeight="1" spans="1:8">
+      <c r="A242" s="96"/>
+      <c r="B242" s="36" t="s">
         <v>620</v>
       </c>
-      <c r="G239" s="23" t="s">
+      <c r="C242" s="3"/>
+      <c r="D242" s="23" t="s">
         <v>621</v>
       </c>
-      <c r="H239" s="23" t="s">
+      <c r="E242" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="F242" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="G242" s="23" t="s">
+        <v>624</v>
+      </c>
+      <c r="H242" s="23" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="135">
+  <mergeCells count="138">
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D15:H15"/>
@@ -8634,15 +8670,18 @@
     <mergeCell ref="D174:H174"/>
     <mergeCell ref="D175:H175"/>
     <mergeCell ref="D176:H176"/>
+    <mergeCell ref="D185:H185"/>
+    <mergeCell ref="D186:H186"/>
+    <mergeCell ref="D192:H192"/>
     <mergeCell ref="A2:A45"/>
     <mergeCell ref="A47:A98"/>
     <mergeCell ref="A100:A162"/>
-    <mergeCell ref="A164:A189"/>
-    <mergeCell ref="A191:A202"/>
-    <mergeCell ref="A204:A209"/>
-    <mergeCell ref="A211:A230"/>
-    <mergeCell ref="A232:A235"/>
-    <mergeCell ref="A236:A239"/>
+    <mergeCell ref="A164:A192"/>
+    <mergeCell ref="A194:A205"/>
+    <mergeCell ref="A207:A212"/>
+    <mergeCell ref="A214:A233"/>
+    <mergeCell ref="A235:A238"/>
+    <mergeCell ref="A239:A242"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="B17:B24"/>
@@ -8662,20 +8701,20 @@
     <mergeCell ref="B154:B162"/>
     <mergeCell ref="B164:B172"/>
     <mergeCell ref="B174:B183"/>
-    <mergeCell ref="B185:B189"/>
-    <mergeCell ref="B191:B196"/>
-    <mergeCell ref="B197:B202"/>
-    <mergeCell ref="B204:B206"/>
+    <mergeCell ref="B185:B192"/>
+    <mergeCell ref="B194:B199"/>
+    <mergeCell ref="B200:B205"/>
     <mergeCell ref="B207:B209"/>
-    <mergeCell ref="B211:B214"/>
-    <mergeCell ref="B215:B216"/>
-    <mergeCell ref="B217:B219"/>
+    <mergeCell ref="B210:B212"/>
+    <mergeCell ref="B214:B217"/>
+    <mergeCell ref="B218:B219"/>
     <mergeCell ref="B220:B222"/>
-    <mergeCell ref="B223:B224"/>
-    <mergeCell ref="B225:B227"/>
+    <mergeCell ref="B223:B225"/>
+    <mergeCell ref="B226:B227"/>
     <mergeCell ref="B228:B230"/>
-    <mergeCell ref="B234:B235"/>
-    <mergeCell ref="B236:B238"/>
+    <mergeCell ref="B231:B233"/>
+    <mergeCell ref="B237:B238"/>
+    <mergeCell ref="B239:B241"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C14"/>
@@ -8710,8 +8749,8 @@
     <mergeCell ref="C170:C171"/>
     <mergeCell ref="C177:C180"/>
     <mergeCell ref="C181:C183"/>
-    <mergeCell ref="C185:C186"/>
-    <mergeCell ref="C187:C189"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="C189:C191"/>
   </mergeCells>
   <pageMargins left="0.196527777777778" right="0.0784722222222222" top="0.314583333333333" bottom="2.20416666666667" header="0.298611111111111" footer="0.298611111111111"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="600"/>
@@ -8736,40 +8775,40 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -8778,21 +8817,21 @@
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>36</v>
@@ -8800,7 +8839,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -8808,7 +8847,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>122</v>
@@ -8820,21 +8859,21 @@
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>305</v>
@@ -8842,10 +8881,10 @@
     </row>
     <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -8854,32 +8893,32 @@
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">

--- a/内科学笔记/病和方剂汇总.xlsx
+++ b/内科学笔记/病和方剂汇总.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="672">
   <si>
     <t>病证系统</t>
   </si>
@@ -2670,40 +2670,123 @@
     <t>水肿</t>
   </si>
   <si>
-    <t>风水泛滥</t>
+    <t>体内水液滞留，泛滥皮肤，以头面、眼睑、四肢甚至全身浮肿为主症的</t>
+  </si>
+  <si>
+    <t>肺失通调，脾失转输，肾失开合，三焦气化不利，以致水液积聚。   发汗、利尿、泻下逐水是治疗原则</t>
+  </si>
+  <si>
+    <t>病位</t>
+  </si>
+  <si>
+    <r>
+      <t>与肾、脾、肺三脏有关。肺主调通水道，脾主布散水液，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>肾主蒸化</t>
+    </r>
+  </si>
+  <si>
+    <t>阳水</t>
+  </si>
+  <si>
+    <t>风水相搏</t>
   </si>
   <si>
     <t>越婢加术汤</t>
   </si>
   <si>
+    <r>
+      <t>眼睑浮肿，继而全身肿，来势快，多伴恶寒发热</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(表证)</t>
+    </r>
+  </si>
+  <si>
     <t>湿毒侵淫</t>
   </si>
   <si>
     <t>麻黄连翘赤小豆</t>
   </si>
   <si>
+    <t>浮肿，身发疮，甚则溃烂，恶风发热</t>
+  </si>
+  <si>
     <t>水湿浸渍</t>
   </si>
   <si>
     <t>五皮散</t>
   </si>
   <si>
+    <t>起病缓，病程长，水肿按之没指。身困重、纳呆</t>
+  </si>
+  <si>
+    <t>脉沉缓</t>
+  </si>
+  <si>
     <t>湿热壅盛</t>
   </si>
   <si>
     <t>疏凿饮子</t>
   </si>
   <si>
+    <t>遍体浮肿，皮肤绷急发光。烦热口渴，大便干小便短赤</t>
+  </si>
+  <si>
+    <t>脉沉数</t>
+  </si>
+  <si>
+    <t>阴水</t>
+  </si>
+  <si>
     <t>脾阳虚衰</t>
   </si>
   <si>
     <t>实脾散</t>
   </si>
   <si>
+    <t>浮肿按之不易起，腹胀，面色无华，神被乏力</t>
+  </si>
+  <si>
     <t>肾气衰微</t>
   </si>
   <si>
-    <t>济生肾气丸+真武汤</t>
+    <r>
+      <t>真武汤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+济生肾气丸</t>
+    </r>
+  </si>
+  <si>
+    <t>腰以下肿甚，不易起。腰酸冷痛，四肢阙冷</t>
+  </si>
+  <si>
+    <t>淡胖苔白</t>
   </si>
   <si>
     <t>淋证</t>
@@ -2743,6 +2826,18 @@
   </si>
   <si>
     <t>无比药丸</t>
+  </si>
+  <si>
+    <t>肝胆系统</t>
+  </si>
+  <si>
+    <t>胁痛</t>
+  </si>
+  <si>
+    <t>黄疸</t>
+  </si>
+  <si>
+    <t>鼓胀</t>
   </si>
   <si>
     <t>郁证</t>
@@ -3067,7 +3162,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3156,6 +3251,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3837,137 +3940,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4238,25 +4341,88 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4572,12 +4738,12 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H242"/>
+  <dimension ref="A1:H265"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E208" sqref="E208"/>
+      <selection pane="bottomLeft" activeCell="F201" sqref="F201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="7"/>
@@ -7893,726 +8059,1012 @@
       <c r="A194" s="90" t="s">
         <v>522</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" s="91" t="s">
         <v>523</v>
       </c>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3" t="s">
+      <c r="C194" s="92" t="s">
+        <v>5</v>
+      </c>
+      <c r="D194" s="93" t="s">
         <v>524</v>
       </c>
-      <c r="E194" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
+      <c r="E194" s="94"/>
+      <c r="F194" s="94"/>
+      <c r="G194" s="94"/>
+      <c r="H194" s="95"/>
     </row>
     <row r="195" customHeight="1" spans="1:8">
       <c r="A195" s="90"/>
-      <c r="B195" s="1"/>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="E195" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
+      <c r="B195" s="91"/>
+      <c r="C195" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="D195" s="93" t="s">
+        <v>525</v>
+      </c>
+      <c r="E195" s="94"/>
+      <c r="F195" s="94"/>
+      <c r="G195" s="94"/>
+      <c r="H195" s="95"/>
     </row>
     <row r="196" customHeight="1" spans="1:8">
       <c r="A196" s="90"/>
-      <c r="B196" s="1"/>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
+      <c r="B196" s="91"/>
+      <c r="C196" s="92" t="s">
+        <v>526</v>
+      </c>
+      <c r="D196" s="96" t="s">
+        <v>527</v>
+      </c>
+      <c r="E196" s="94"/>
+      <c r="F196" s="94"/>
+      <c r="G196" s="94"/>
+      <c r="H196" s="95"/>
     </row>
     <row r="197" customHeight="1" spans="1:8">
       <c r="A197" s="90"/>
-      <c r="B197" s="1"/>
-      <c r="C197" s="3"/>
+      <c r="B197" s="91"/>
+      <c r="C197" s="97" t="s">
+        <v>528</v>
+      </c>
       <c r="D197" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="E197" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="E197" s="3" t="s">
+      <c r="F197" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="F197" s="3"/>
       <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
+      <c r="H197" s="27" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="198" customHeight="1" spans="1:8">
       <c r="A198" s="90"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="3"/>
+      <c r="B198" s="91"/>
+      <c r="C198" s="98"/>
       <c r="D198" s="3" t="s">
         <v>532</v>
       </c>
       <c r="E198" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
+      <c r="F198" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="G198" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>430</v>
+      </c>
     </row>
     <row r="199" customHeight="1" spans="1:8">
       <c r="A199" s="90"/>
-      <c r="B199" s="1"/>
-      <c r="C199" s="3"/>
+      <c r="B199" s="91"/>
+      <c r="C199" s="98"/>
       <c r="D199" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="E199" s="28" t="s">
         <v>535</v>
       </c>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
+      <c r="E199" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>538</v>
+      </c>
     </row>
     <row r="200" customHeight="1" spans="1:8">
       <c r="A200" s="90"/>
-      <c r="B200" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="C200" s="3"/>
-      <c r="D200" s="91" t="s">
-        <v>537</v>
-      </c>
-      <c r="E200" s="91" t="s">
-        <v>538</v>
-      </c>
-      <c r="F200" s="91"/>
-      <c r="G200" s="91"/>
-      <c r="H200" s="91"/>
+      <c r="B200" s="91"/>
+      <c r="C200" s="99"/>
+      <c r="D200" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="G200" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="201" customHeight="1" spans="1:8">
       <c r="A201" s="90"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="3"/>
-      <c r="D201" s="91" t="s">
-        <v>539</v>
-      </c>
-      <c r="E201" s="91" t="s">
-        <v>540</v>
-      </c>
-      <c r="F201" s="91"/>
-      <c r="G201" s="91"/>
-      <c r="H201" s="91"/>
+      <c r="B201" s="91"/>
+      <c r="C201" s="97" t="s">
+        <v>543</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="E201" s="27" t="s">
+        <v>545</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="202" customHeight="1" spans="1:8">
       <c r="A202" s="90"/>
-      <c r="B202" s="1"/>
-      <c r="C202" s="3"/>
-      <c r="D202" s="91" t="s">
-        <v>541</v>
-      </c>
-      <c r="E202" s="91" t="s">
-        <v>542</v>
-      </c>
-      <c r="F202" s="91"/>
-      <c r="G202" s="91"/>
-      <c r="H202" s="91"/>
+      <c r="B202" s="91"/>
+      <c r="C202" s="99"/>
+      <c r="D202" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="E202" s="100" t="s">
+        <v>548</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="203" customHeight="1" spans="1:8">
       <c r="A203" s="90"/>
-      <c r="B203" s="1"/>
+      <c r="B203" s="6" t="s">
+        <v>551</v>
+      </c>
       <c r="C203" s="3"/>
-      <c r="D203" s="91" t="s">
-        <v>543</v>
-      </c>
-      <c r="E203" s="75" t="s">
-        <v>544</v>
-      </c>
-      <c r="F203" s="91"/>
-      <c r="G203" s="91"/>
-      <c r="H203" s="91"/>
+      <c r="D203" s="101" t="s">
+        <v>552</v>
+      </c>
+      <c r="E203" s="101" t="s">
+        <v>553</v>
+      </c>
+      <c r="F203" s="101"/>
+      <c r="G203" s="101"/>
+      <c r="H203" s="101"/>
     </row>
     <row r="204" customHeight="1" spans="1:8">
       <c r="A204" s="90"/>
-      <c r="B204" s="1"/>
+      <c r="B204" s="6"/>
       <c r="C204" s="3"/>
-      <c r="D204" s="91" t="s">
-        <v>545</v>
-      </c>
-      <c r="E204" s="91" t="s">
-        <v>546</v>
-      </c>
-      <c r="F204" s="91"/>
-      <c r="G204" s="91"/>
-      <c r="H204" s="91"/>
+      <c r="D204" s="101" t="s">
+        <v>554</v>
+      </c>
+      <c r="E204" s="101" t="s">
+        <v>555</v>
+      </c>
+      <c r="F204" s="101"/>
+      <c r="G204" s="101"/>
+      <c r="H204" s="101"/>
     </row>
     <row r="205" customHeight="1" spans="1:8">
       <c r="A205" s="90"/>
-      <c r="B205" s="1"/>
+      <c r="B205" s="6"/>
       <c r="C205" s="3"/>
-      <c r="D205" s="91" t="s">
-        <v>547</v>
-      </c>
-      <c r="E205" s="91" t="s">
-        <v>548</v>
-      </c>
-      <c r="F205" s="91"/>
-      <c r="G205" s="91"/>
-      <c r="H205" s="91"/>
+      <c r="D205" s="101" t="s">
+        <v>556</v>
+      </c>
+      <c r="E205" s="101" t="s">
+        <v>557</v>
+      </c>
+      <c r="F205" s="101"/>
+      <c r="G205" s="101"/>
+      <c r="H205" s="101"/>
+    </row>
+    <row r="206" customHeight="1" spans="1:8">
+      <c r="A206" s="90"/>
+      <c r="B206" s="6"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="101" t="s">
+        <v>558</v>
+      </c>
+      <c r="E206" s="75" t="s">
+        <v>559</v>
+      </c>
+      <c r="F206" s="101"/>
+      <c r="G206" s="101"/>
+      <c r="H206" s="101"/>
     </row>
     <row r="207" customHeight="1" spans="1:8">
-      <c r="A207" s="92" t="s">
-        <v>549</v>
-      </c>
-      <c r="B207" s="1" t="s">
+      <c r="A207" s="90"/>
+      <c r="B207" s="6"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="101" t="s">
+        <v>560</v>
+      </c>
+      <c r="E207" s="101" t="s">
+        <v>561</v>
+      </c>
+      <c r="F207" s="101"/>
+      <c r="G207" s="101"/>
+      <c r="H207" s="101"/>
+    </row>
+    <row r="208" customHeight="1" spans="1:8">
+      <c r="A208" s="102"/>
+      <c r="B208" s="6"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="101" t="s">
+        <v>562</v>
+      </c>
+      <c r="E208" s="101" t="s">
+        <v>563</v>
+      </c>
+      <c r="F208" s="101"/>
+      <c r="G208" s="101"/>
+      <c r="H208" s="101"/>
+    </row>
+    <row r="210" customHeight="1" spans="1:8">
+      <c r="A210" s="103" t="s">
+        <v>564</v>
+      </c>
+      <c r="B210" s="104" t="s">
+        <v>565</v>
+      </c>
+      <c r="C210" s="105"/>
+      <c r="D210" s="106"/>
+      <c r="E210" s="106"/>
+      <c r="F210" s="106"/>
+      <c r="G210" s="106"/>
+      <c r="H210" s="106"/>
+    </row>
+    <row r="211" customHeight="1" spans="1:8">
+      <c r="A211" s="107"/>
+      <c r="B211" s="108"/>
+      <c r="C211" s="105"/>
+      <c r="D211" s="106"/>
+      <c r="E211" s="106"/>
+      <c r="F211" s="106"/>
+      <c r="G211" s="106"/>
+      <c r="H211" s="106"/>
+    </row>
+    <row r="212" customHeight="1" spans="1:8">
+      <c r="A212" s="107"/>
+      <c r="B212" s="108"/>
+      <c r="C212" s="105"/>
+      <c r="D212" s="106"/>
+      <c r="E212" s="106"/>
+      <c r="F212" s="106"/>
+      <c r="G212" s="106"/>
+      <c r="H212" s="106"/>
+    </row>
+    <row r="213" customHeight="1" spans="1:8">
+      <c r="A213" s="107"/>
+      <c r="B213" s="108"/>
+      <c r="C213" s="105"/>
+      <c r="D213" s="106"/>
+      <c r="E213" s="106"/>
+      <c r="F213" s="106"/>
+      <c r="G213" s="106"/>
+      <c r="H213" s="106"/>
+    </row>
+    <row r="214" customHeight="1" spans="1:8">
+      <c r="A214" s="107"/>
+      <c r="B214" s="108"/>
+      <c r="C214" s="105"/>
+      <c r="D214" s="106"/>
+      <c r="E214" s="106"/>
+      <c r="F214" s="106"/>
+      <c r="G214" s="106"/>
+      <c r="H214" s="106"/>
+    </row>
+    <row r="215" customHeight="1" spans="1:8">
+      <c r="A215" s="107"/>
+      <c r="B215" s="109"/>
+      <c r="C215" s="105"/>
+      <c r="D215" s="106"/>
+      <c r="E215" s="106"/>
+      <c r="F215" s="106"/>
+      <c r="G215" s="106"/>
+      <c r="H215" s="106"/>
+    </row>
+    <row r="216" customHeight="1" spans="1:8">
+      <c r="A216" s="107"/>
+      <c r="B216" s="104" t="s">
+        <v>566</v>
+      </c>
+      <c r="C216" s="105"/>
+      <c r="D216" s="106"/>
+      <c r="E216" s="106"/>
+      <c r="F216" s="106"/>
+      <c r="G216" s="106"/>
+      <c r="H216" s="106"/>
+    </row>
+    <row r="217" customHeight="1" spans="1:8">
+      <c r="A217" s="107"/>
+      <c r="B217" s="108"/>
+      <c r="C217" s="105"/>
+      <c r="D217" s="106"/>
+      <c r="E217" s="106"/>
+      <c r="F217" s="106"/>
+      <c r="G217" s="106"/>
+      <c r="H217" s="106"/>
+    </row>
+    <row r="218" customHeight="1" spans="1:8">
+      <c r="A218" s="107"/>
+      <c r="B218" s="108"/>
+      <c r="C218" s="105"/>
+      <c r="D218" s="106"/>
+      <c r="E218" s="106"/>
+      <c r="F218" s="106"/>
+      <c r="G218" s="106"/>
+      <c r="H218" s="106"/>
+    </row>
+    <row r="219" customHeight="1" spans="1:8">
+      <c r="A219" s="107"/>
+      <c r="B219" s="108"/>
+      <c r="C219" s="105"/>
+      <c r="D219" s="106"/>
+      <c r="E219" s="106"/>
+      <c r="F219" s="106"/>
+      <c r="G219" s="106"/>
+      <c r="H219" s="106"/>
+    </row>
+    <row r="220" customHeight="1" spans="1:8">
+      <c r="A220" s="107"/>
+      <c r="B220" s="108"/>
+      <c r="C220" s="105"/>
+      <c r="D220" s="106"/>
+      <c r="E220" s="106"/>
+      <c r="F220" s="106"/>
+      <c r="G220" s="106"/>
+      <c r="H220" s="106"/>
+    </row>
+    <row r="221" customHeight="1" spans="1:8">
+      <c r="A221" s="107"/>
+      <c r="B221" s="108"/>
+      <c r="C221" s="105"/>
+      <c r="D221" s="106"/>
+      <c r="E221" s="106"/>
+      <c r="F221" s="106"/>
+      <c r="G221" s="106"/>
+      <c r="H221" s="106"/>
+    </row>
+    <row r="222" customHeight="1" spans="1:8">
+      <c r="A222" s="107"/>
+      <c r="B222" s="109"/>
+      <c r="C222" s="105"/>
+      <c r="D222" s="106"/>
+      <c r="E222" s="106"/>
+      <c r="F222" s="106"/>
+      <c r="G222" s="106"/>
+      <c r="H222" s="106"/>
+    </row>
+    <row r="223" customHeight="1" spans="1:8">
+      <c r="A223" s="107"/>
+      <c r="B223" s="104" t="s">
+        <v>567</v>
+      </c>
+      <c r="C223" s="105"/>
+      <c r="D223" s="106"/>
+      <c r="E223" s="106"/>
+      <c r="F223" s="106"/>
+      <c r="G223" s="106"/>
+      <c r="H223" s="106"/>
+    </row>
+    <row r="224" customHeight="1" spans="1:8">
+      <c r="A224" s="107"/>
+      <c r="B224" s="108"/>
+      <c r="C224" s="105"/>
+      <c r="D224" s="106"/>
+      <c r="E224" s="106"/>
+      <c r="F224" s="106"/>
+      <c r="G224" s="106"/>
+      <c r="H224" s="106"/>
+    </row>
+    <row r="225" customHeight="1" spans="1:8">
+      <c r="A225" s="107"/>
+      <c r="B225" s="108"/>
+      <c r="C225" s="105"/>
+      <c r="D225" s="106"/>
+      <c r="E225" s="106"/>
+      <c r="F225" s="106"/>
+      <c r="G225" s="106"/>
+      <c r="H225" s="106"/>
+    </row>
+    <row r="226" customHeight="1" spans="1:8">
+      <c r="A226" s="107"/>
+      <c r="B226" s="108"/>
+      <c r="C226" s="105"/>
+      <c r="D226" s="106"/>
+      <c r="E226" s="106"/>
+      <c r="F226" s="106"/>
+      <c r="G226" s="106"/>
+      <c r="H226" s="106"/>
+    </row>
+    <row r="227" customHeight="1" spans="1:8">
+      <c r="A227" s="107"/>
+      <c r="B227" s="108"/>
+      <c r="C227" s="105"/>
+      <c r="D227" s="106"/>
+      <c r="E227" s="106"/>
+      <c r="F227" s="106"/>
+      <c r="G227" s="106"/>
+      <c r="H227" s="106"/>
+    </row>
+    <row r="228" customHeight="1" spans="1:8">
+      <c r="A228" s="110"/>
+      <c r="B228" s="109"/>
+      <c r="C228" s="105"/>
+      <c r="D228" s="106"/>
+      <c r="E228" s="106"/>
+      <c r="F228" s="106"/>
+      <c r="G228" s="106"/>
+      <c r="H228" s="106"/>
+    </row>
+    <row r="229" customHeight="1" spans="2:8">
+      <c r="B229" s="111"/>
+      <c r="D229" s="112"/>
+      <c r="E229" s="112"/>
+      <c r="F229" s="112"/>
+      <c r="G229" s="112"/>
+      <c r="H229" s="112"/>
+    </row>
+    <row r="230" customHeight="1" spans="1:8">
+      <c r="A230" s="113" t="s">
+        <v>568</v>
+      </c>
+      <c r="B230" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C207" s="3"/>
-      <c r="D207" s="91" t="s">
-        <v>550</v>
-      </c>
-      <c r="E207" s="91" t="s">
+      <c r="C230" s="3"/>
+      <c r="D230" s="101" t="s">
+        <v>569</v>
+      </c>
+      <c r="E230" s="101" t="s">
         <v>313</v>
       </c>
-      <c r="F207" s="91"/>
-      <c r="G207" s="91"/>
-      <c r="H207" s="91"/>
-    </row>
-    <row r="208" customHeight="1" spans="1:8">
-      <c r="A208" s="92"/>
-      <c r="B208" s="1"/>
-      <c r="C208" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="D208" s="91" t="s">
-        <v>552</v>
-      </c>
-      <c r="E208" s="75" t="s">
-        <v>553</v>
-      </c>
-      <c r="F208" s="91"/>
-      <c r="G208" s="91"/>
-      <c r="H208" s="91"/>
-    </row>
-    <row r="209" customHeight="1" spans="1:8">
-      <c r="A209" s="92"/>
-      <c r="B209" s="1"/>
-      <c r="C209" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="D209" s="91" t="s">
-        <v>555</v>
-      </c>
-      <c r="E209" s="91" t="s">
-        <v>556</v>
-      </c>
-      <c r="F209" s="91"/>
-      <c r="G209" s="91"/>
-      <c r="H209" s="91"/>
-    </row>
-    <row r="210" customHeight="1" spans="1:8">
-      <c r="A210" s="92"/>
-      <c r="B210" s="1" t="s">
+      <c r="F230" s="101"/>
+      <c r="G230" s="101"/>
+      <c r="H230" s="101"/>
+    </row>
+    <row r="231" customHeight="1" spans="1:8">
+      <c r="A231" s="113"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D231" s="101" t="s">
+        <v>571</v>
+      </c>
+      <c r="E231" s="75" t="s">
+        <v>572</v>
+      </c>
+      <c r="F231" s="101"/>
+      <c r="G231" s="101"/>
+      <c r="H231" s="101"/>
+    </row>
+    <row r="232" customHeight="1" spans="1:8">
+      <c r="A232" s="113"/>
+      <c r="B232" s="1"/>
+      <c r="C232" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D232" s="101" t="s">
+        <v>574</v>
+      </c>
+      <c r="E232" s="101" t="s">
+        <v>575</v>
+      </c>
+      <c r="F232" s="101"/>
+      <c r="G232" s="101"/>
+      <c r="H232" s="101"/>
+    </row>
+    <row r="233" customHeight="1" spans="1:8">
+      <c r="A233" s="113"/>
+      <c r="B233" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C210" s="3"/>
-      <c r="D210" s="91" t="s">
-        <v>557</v>
-      </c>
-      <c r="E210" s="91" t="s">
-        <v>558</v>
-      </c>
-      <c r="F210" s="91"/>
-      <c r="G210" s="91"/>
-      <c r="H210" s="91"/>
-    </row>
-    <row r="211" customHeight="1" spans="1:8">
-      <c r="A211" s="92"/>
-      <c r="B211" s="1"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="91" t="s">
+      <c r="C233" s="3"/>
+      <c r="D233" s="101" t="s">
+        <v>576</v>
+      </c>
+      <c r="E233" s="101" t="s">
+        <v>577</v>
+      </c>
+      <c r="F233" s="101"/>
+      <c r="G233" s="101"/>
+      <c r="H233" s="101"/>
+    </row>
+    <row r="234" customHeight="1" spans="1:8">
+      <c r="A234" s="113"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="101" t="s">
         <v>249</v>
       </c>
-      <c r="E211" s="91" t="s">
+      <c r="E234" s="101" t="s">
         <v>186</v>
       </c>
-      <c r="F211" s="91"/>
-      <c r="G211" s="91"/>
-      <c r="H211" s="91"/>
-    </row>
-    <row r="212" customHeight="1" spans="1:8">
-      <c r="A212" s="92"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="91" t="s">
+      <c r="F234" s="101"/>
+      <c r="G234" s="101"/>
+      <c r="H234" s="101"/>
+    </row>
+    <row r="235" customHeight="1" spans="1:8">
+      <c r="A235" s="113"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="101" t="s">
         <v>496</v>
       </c>
-      <c r="E212" s="91" t="s">
-        <v>559</v>
-      </c>
-      <c r="F212" s="91"/>
-      <c r="G212" s="91"/>
-      <c r="H212" s="91"/>
-    </row>
-    <row r="214" customHeight="1" spans="1:8">
-      <c r="A214" s="93" t="s">
-        <v>560</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="E214" s="3" t="s">
+      <c r="E235" s="101" t="s">
+        <v>578</v>
+      </c>
+      <c r="F235" s="101"/>
+      <c r="G235" s="101"/>
+      <c r="H235" s="101"/>
+    </row>
+    <row r="237" customHeight="1" spans="1:8">
+      <c r="A237" s="114" t="s">
+        <v>579</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="E237" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-    </row>
-    <row r="215" customHeight="1" spans="1:8">
-      <c r="A215" s="93"/>
-      <c r="B215" s="1"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="E215" s="3" t="s">
-        <v>564</v>
-      </c>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
-    </row>
-    <row r="216" customHeight="1" spans="1:8">
-      <c r="A216" s="93"/>
-      <c r="B216" s="1"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3" t="s">
-        <v>565</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
-    </row>
-    <row r="217" customHeight="1" spans="1:8">
-      <c r="A217" s="93"/>
-      <c r="B217" s="1"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F217" s="3"/>
-      <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
-    </row>
-    <row r="218" customHeight="1" spans="1:8">
-      <c r="A218" s="93"/>
-      <c r="B218" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="E218" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
-    </row>
-    <row r="219" customHeight="1" spans="1:8">
-      <c r="A219" s="93"/>
-      <c r="B219" s="1"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="E219" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-    </row>
-    <row r="220" customHeight="1" spans="1:8">
-      <c r="A220" s="93"/>
-      <c r="B220" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
-    </row>
-    <row r="221" customHeight="1" spans="1:8">
-      <c r="A221" s="93"/>
-      <c r="B221" s="1"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3" t="s">
-        <v>571</v>
-      </c>
-      <c r="E221" s="23" t="s">
-        <v>572</v>
-      </c>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-    </row>
-    <row r="222" customHeight="1" spans="1:8">
-      <c r="A222" s="93"/>
-      <c r="B222" s="1"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-    </row>
-    <row r="223" customHeight="1" spans="1:8">
-      <c r="A223" s="93"/>
-      <c r="B223" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>577</v>
-      </c>
-      <c r="F223" s="3"/>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-    </row>
-    <row r="224" customHeight="1" spans="1:8">
-      <c r="A224" s="93"/>
-      <c r="B224" s="1"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="E224" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="F224" s="3"/>
-      <c r="G224" s="3"/>
-      <c r="H224" s="3"/>
-    </row>
-    <row r="225" customHeight="1" spans="1:8">
-      <c r="A225" s="93"/>
-      <c r="B225" s="1"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3" t="s">
-        <v>579</v>
-      </c>
-      <c r="E225" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3"/>
-      <c r="H225" s="3"/>
-    </row>
-    <row r="226" customHeight="1" spans="1:8">
-      <c r="A226" s="93"/>
-      <c r="B226" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="E226" s="3" t="s">
+      <c r="F237" s="3"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+    </row>
+    <row r="238" customHeight="1" spans="1:8">
+      <c r="A238" s="114"/>
+      <c r="B238" s="1"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
-    </row>
-    <row r="227" customHeight="1" spans="1:8">
-      <c r="A227" s="93"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E227" s="3" t="s">
+      <c r="E238" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="F227" s="3"/>
-      <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
-    </row>
-    <row r="228" customHeight="1" spans="1:8">
-      <c r="A228" s="93"/>
-      <c r="B228" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="E228" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
-    </row>
-    <row r="229" customHeight="1" spans="1:8">
-      <c r="A229" s="93"/>
-      <c r="B229" s="1"/>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="E229" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
-    </row>
-    <row r="230" customHeight="1" spans="1:8">
-      <c r="A230" s="93"/>
-      <c r="B230" s="1"/>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
-    </row>
-    <row r="231" customHeight="1" spans="1:8">
-      <c r="A231" s="93"/>
-      <c r="B231" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="E231" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="F231" s="3"/>
-      <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
-    </row>
-    <row r="232" customHeight="1" spans="1:8">
-      <c r="A232" s="93"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="E232" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="F232" s="3"/>
-      <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
-    </row>
-    <row r="233" customHeight="1" spans="1:8">
-      <c r="A233" s="93"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3" t="s">
-        <v>594</v>
-      </c>
-      <c r="E233" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="F233" s="3"/>
-      <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
-    </row>
-    <row r="235" customHeight="1" spans="1:8">
-      <c r="A235" s="94" t="s">
-        <v>595</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="C235" s="3"/>
-      <c r="D235" s="91" t="s">
-        <v>597</v>
-      </c>
-      <c r="E235" s="91" t="s">
-        <v>598</v>
-      </c>
-      <c r="F235" s="91"/>
-      <c r="G235" s="91" t="s">
-        <v>19</v>
-      </c>
-      <c r="H235" s="91" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="236" customHeight="1" spans="1:8">
-      <c r="A236" s="94"/>
-      <c r="B236" s="36" t="s">
-        <v>600</v>
-      </c>
-      <c r="C236" s="3"/>
-      <c r="D236" s="23" t="s">
-        <v>563</v>
-      </c>
-      <c r="E236" s="23" t="s">
-        <v>564</v>
-      </c>
-      <c r="F236" s="3"/>
-      <c r="G236" s="23" t="s">
-        <v>601</v>
-      </c>
-      <c r="H236" s="28" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="237" customHeight="1" spans="1:8">
-      <c r="A237" s="94"/>
-      <c r="B237" s="36" t="s">
-        <v>603</v>
-      </c>
-      <c r="C237" s="3"/>
-      <c r="D237" s="23" t="s">
-        <v>604</v>
-      </c>
-      <c r="E237" s="23" t="s">
-        <v>517</v>
-      </c>
-      <c r="F237" s="3"/>
-      <c r="G237" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H237" s="23" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="238" customHeight="1" spans="1:8">
-      <c r="A238" s="94"/>
-      <c r="B238" s="36"/>
-      <c r="C238" s="3"/>
-      <c r="D238" s="23" t="s">
-        <v>606</v>
-      </c>
-      <c r="E238" s="23" t="s">
-        <v>607</v>
-      </c>
       <c r="F238" s="3"/>
-      <c r="G238" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H238" s="28" t="s">
-        <v>608</v>
-      </c>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
     </row>
     <row r="239" customHeight="1" spans="1:8">
-      <c r="A239" s="95" t="s">
-        <v>609</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>610</v>
-      </c>
+      <c r="A239" s="114"/>
+      <c r="B239" s="1"/>
       <c r="C239" s="3"/>
       <c r="D239" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="E239" s="23" t="s">
-        <v>612</v>
-      </c>
-      <c r="F239" s="23" t="s">
-        <v>613</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F239" s="3"/>
       <c r="G239" s="3"/>
       <c r="H239" s="3"/>
     </row>
     <row r="240" customHeight="1" spans="1:8">
-      <c r="A240" s="96"/>
+      <c r="A240" s="114"/>
       <c r="B240" s="1"/>
       <c r="C240" s="3"/>
       <c r="D240" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="E240" s="23" t="s">
-        <v>615</v>
-      </c>
-      <c r="F240" s="23" t="s">
-        <v>616</v>
-      </c>
-      <c r="G240" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H240" s="23" t="s">
-        <v>327</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
     </row>
     <row r="241" customHeight="1" spans="1:8">
-      <c r="A241" s="96"/>
-      <c r="B241" s="1"/>
+      <c r="A241" s="114"/>
+      <c r="B241" s="1" t="s">
+        <v>585</v>
+      </c>
       <c r="C241" s="3"/>
-      <c r="D241" s="91" t="s">
-        <v>617</v>
-      </c>
-      <c r="E241" s="23" t="s">
-        <v>618</v>
-      </c>
-      <c r="F241" s="23" t="s">
-        <v>619</v>
-      </c>
+      <c r="D241" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="F241" s="3"/>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
     </row>
     <row r="242" customHeight="1" spans="1:8">
-      <c r="A242" s="96"/>
-      <c r="B242" s="36" t="s">
+      <c r="A242" s="114"/>
+      <c r="B242" s="1"/>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+    </row>
+    <row r="243" customHeight="1" spans="1:8">
+      <c r="A243" s="114"/>
+      <c r="B243" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+    </row>
+    <row r="244" customHeight="1" spans="1:8">
+      <c r="A244" s="114"/>
+      <c r="B244" s="1"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="E244" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+    </row>
+    <row r="245" customHeight="1" spans="1:8">
+      <c r="A245" s="114"/>
+      <c r="B245" s="1"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F245" s="3"/>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3"/>
+    </row>
+    <row r="246" customHeight="1" spans="1:8">
+      <c r="A246" s="114"/>
+      <c r="B246" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3"/>
+    </row>
+    <row r="247" customHeight="1" spans="1:8">
+      <c r="A247" s="114"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+    </row>
+    <row r="248" customHeight="1" spans="1:8">
+      <c r="A248" s="114"/>
+      <c r="B248" s="1"/>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+    </row>
+    <row r="249" customHeight="1" spans="1:8">
+      <c r="A249" s="114"/>
+      <c r="B249" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F249" s="3"/>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+    </row>
+    <row r="250" customHeight="1" spans="1:8">
+      <c r="A250" s="114"/>
+      <c r="B250" s="1"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+    </row>
+    <row r="251" customHeight="1" spans="1:8">
+      <c r="A251" s="114"/>
+      <c r="B251" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+    </row>
+    <row r="252" customHeight="1" spans="1:8">
+      <c r="A252" s="114"/>
+      <c r="B252" s="1"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="F252" s="3"/>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3"/>
+    </row>
+    <row r="253" customHeight="1" spans="1:8">
+      <c r="A253" s="114"/>
+      <c r="B253" s="1"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F253" s="3"/>
+      <c r="G253" s="3"/>
+      <c r="H253" s="3"/>
+    </row>
+    <row r="254" customHeight="1" spans="1:8">
+      <c r="A254" s="114"/>
+      <c r="B254" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="F254" s="3"/>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3"/>
+    </row>
+    <row r="255" customHeight="1" spans="1:8">
+      <c r="A255" s="114"/>
+      <c r="B255" s="1"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="F255" s="3"/>
+      <c r="G255" s="3"/>
+      <c r="H255" s="3"/>
+    </row>
+    <row r="256" customHeight="1" spans="1:8">
+      <c r="A256" s="114"/>
+      <c r="B256" s="1"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F256" s="3"/>
+      <c r="G256" s="3"/>
+      <c r="H256" s="3"/>
+    </row>
+    <row r="258" customHeight="1" spans="1:8">
+      <c r="A258" s="115" t="s">
+        <v>614</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C258" s="3"/>
+      <c r="D258" s="101" t="s">
+        <v>616</v>
+      </c>
+      <c r="E258" s="101" t="s">
+        <v>617</v>
+      </c>
+      <c r="F258" s="101"/>
+      <c r="G258" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="H258" s="101" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="259" customHeight="1" spans="1:8">
+      <c r="A259" s="115"/>
+      <c r="B259" s="36" t="s">
+        <v>619</v>
+      </c>
+      <c r="C259" s="3"/>
+      <c r="D259" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="E259" s="23" t="s">
+        <v>583</v>
+      </c>
+      <c r="F259" s="3"/>
+      <c r="G259" s="23" t="s">
         <v>620</v>
       </c>
-      <c r="C242" s="3"/>
-      <c r="D242" s="23" t="s">
+      <c r="H259" s="28" t="s">
         <v>621</v>
       </c>
-      <c r="E242" s="23" t="s">
+    </row>
+    <row r="260" customHeight="1" spans="1:8">
+      <c r="A260" s="115"/>
+      <c r="B260" s="36" t="s">
         <v>622</v>
       </c>
-      <c r="F242" s="23" t="s">
+      <c r="C260" s="3"/>
+      <c r="D260" s="23" t="s">
         <v>623</v>
       </c>
-      <c r="G242" s="23" t="s">
+      <c r="E260" s="23" t="s">
+        <v>517</v>
+      </c>
+      <c r="F260" s="3"/>
+      <c r="G260" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="H260" s="23" t="s">
         <v>624</v>
       </c>
-      <c r="H242" s="23" t="s">
+    </row>
+    <row r="261" customHeight="1" spans="1:8">
+      <c r="A261" s="115"/>
+      <c r="B261" s="36"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="23" t="s">
+        <v>625</v>
+      </c>
+      <c r="E261" s="23" t="s">
+        <v>626</v>
+      </c>
+      <c r="F261" s="3"/>
+      <c r="G261" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H261" s="28" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="262" customHeight="1" spans="1:8">
+      <c r="A262" s="116" t="s">
+        <v>628</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="E262" s="23" t="s">
+        <v>631</v>
+      </c>
+      <c r="F262" s="23" t="s">
+        <v>632</v>
+      </c>
+      <c r="G262" s="3"/>
+      <c r="H262" s="3"/>
+    </row>
+    <row r="263" customHeight="1" spans="1:8">
+      <c r="A263" s="117"/>
+      <c r="B263" s="1"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="E263" s="23" t="s">
+        <v>634</v>
+      </c>
+      <c r="F263" s="23" t="s">
+        <v>635</v>
+      </c>
+      <c r="G263" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H263" s="23" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="264" customHeight="1" spans="1:8">
+      <c r="A264" s="117"/>
+      <c r="B264" s="1"/>
+      <c r="C264" s="3"/>
+      <c r="D264" s="101" t="s">
+        <v>636</v>
+      </c>
+      <c r="E264" s="23" t="s">
+        <v>637</v>
+      </c>
+      <c r="F264" s="23" t="s">
+        <v>638</v>
+      </c>
+      <c r="G264" s="3"/>
+      <c r="H264" s="3"/>
+    </row>
+    <row r="265" customHeight="1" spans="1:8">
+      <c r="A265" s="117"/>
+      <c r="B265" s="36" t="s">
+        <v>639</v>
+      </c>
+      <c r="C265" s="3"/>
+      <c r="D265" s="23" t="s">
+        <v>640</v>
+      </c>
+      <c r="E265" s="23" t="s">
+        <v>641</v>
+      </c>
+      <c r="F265" s="23" t="s">
+        <v>642</v>
+      </c>
+      <c r="G265" s="23" t="s">
+        <v>643</v>
+      </c>
+      <c r="H265" s="23" t="s">
         <v>77</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="138">
+  <mergeCells count="147">
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D7:H7"/>
     <mergeCell ref="D15:H15"/>
@@ -8673,15 +9125,19 @@
     <mergeCell ref="D185:H185"/>
     <mergeCell ref="D186:H186"/>
     <mergeCell ref="D192:H192"/>
+    <mergeCell ref="D194:H194"/>
+    <mergeCell ref="D195:H195"/>
+    <mergeCell ref="D196:H196"/>
     <mergeCell ref="A2:A45"/>
     <mergeCell ref="A47:A98"/>
     <mergeCell ref="A100:A162"/>
     <mergeCell ref="A164:A192"/>
-    <mergeCell ref="A194:A205"/>
-    <mergeCell ref="A207:A212"/>
-    <mergeCell ref="A214:A233"/>
-    <mergeCell ref="A235:A238"/>
-    <mergeCell ref="A239:A242"/>
+    <mergeCell ref="A194:A208"/>
+    <mergeCell ref="A210:A228"/>
+    <mergeCell ref="A230:A235"/>
+    <mergeCell ref="A237:A256"/>
+    <mergeCell ref="A258:A261"/>
+    <mergeCell ref="A262:A265"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="B7:B15"/>
     <mergeCell ref="B17:B24"/>
@@ -8702,19 +9158,22 @@
     <mergeCell ref="B164:B172"/>
     <mergeCell ref="B174:B183"/>
     <mergeCell ref="B185:B192"/>
-    <mergeCell ref="B194:B199"/>
-    <mergeCell ref="B200:B205"/>
-    <mergeCell ref="B207:B209"/>
-    <mergeCell ref="B210:B212"/>
-    <mergeCell ref="B214:B217"/>
-    <mergeCell ref="B218:B219"/>
-    <mergeCell ref="B220:B222"/>
-    <mergeCell ref="B223:B225"/>
-    <mergeCell ref="B226:B227"/>
-    <mergeCell ref="B228:B230"/>
-    <mergeCell ref="B231:B233"/>
-    <mergeCell ref="B237:B238"/>
-    <mergeCell ref="B239:B241"/>
+    <mergeCell ref="B194:B202"/>
+    <mergeCell ref="B203:B208"/>
+    <mergeCell ref="B210:B215"/>
+    <mergeCell ref="B216:B222"/>
+    <mergeCell ref="B223:B228"/>
+    <mergeCell ref="B230:B232"/>
+    <mergeCell ref="B233:B235"/>
+    <mergeCell ref="B237:B240"/>
+    <mergeCell ref="B241:B242"/>
+    <mergeCell ref="B243:B245"/>
+    <mergeCell ref="B246:B248"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="B251:B253"/>
+    <mergeCell ref="B254:B256"/>
+    <mergeCell ref="B260:B261"/>
+    <mergeCell ref="B262:B264"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C8:C10"/>
     <mergeCell ref="C11:C14"/>
@@ -8751,6 +9210,8 @@
     <mergeCell ref="C181:C183"/>
     <mergeCell ref="C187:C188"/>
     <mergeCell ref="C189:C191"/>
+    <mergeCell ref="C197:C200"/>
+    <mergeCell ref="C201:C202"/>
   </mergeCells>
   <pageMargins left="0.196527777777778" right="0.0784722222222222" top="0.314583333333333" bottom="2.20416666666667" header="0.298611111111111" footer="0.298611111111111"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait" horizontalDpi="600"/>
@@ -8775,40 +9236,40 @@
   <sheetData>
     <row r="1" ht="28.5" customHeight="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="B1" s="1"/>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
@@ -8817,21 +9278,21 @@
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="5" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>636</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>36</v>
@@ -8839,7 +9300,7 @@
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>17</v>
@@ -8847,7 +9308,7 @@
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>122</v>
@@ -8859,21 +9320,21 @@
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="B13" s="1"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="2" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="2" t="s">
-        <v>643</v>
+        <v>662</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>305</v>
@@ -8881,10 +9342,10 @@
     </row>
     <row r="16" customHeight="1" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
@@ -8893,32 +9354,32 @@
     </row>
     <row r="18" customHeight="1" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="B18" s="1"/>
     </row>
     <row r="19" customHeight="1" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:2">

--- a/内科学笔记/病和方剂汇总.xlsx
+++ b/内科学笔记/病和方剂汇总.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="680">
   <si>
     <t>病证系统</t>
   </si>
@@ -2680,6 +2680,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>与肾、脾、肺三脏有关。肺主调通水道，脾主布散水液，</t>
     </r>
     <r>
@@ -2705,6 +2712,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>眼睑浮肿，继而全身肿，来势快，多伴恶寒发热</t>
     </r>
     <r>
@@ -2769,6 +2783,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>真武汤</t>
     </r>
     <r>
@@ -2792,42 +2814,69 @@
     <t>淋证</t>
   </si>
   <si>
+    <t>小便频数，淋沥刺痛，欲出未尽，小腹拘急，或痛引腰腹为主症</t>
+  </si>
+  <si>
+    <t>湿热蕴结下焦，肾与膀胱气化不利，病理因素为湿热之邪</t>
+  </si>
+  <si>
     <t>热淋</t>
   </si>
   <si>
     <t>八正散</t>
   </si>
   <si>
+    <t>灼热刺痛，少腹拘急胀痛</t>
+  </si>
+  <si>
     <t>石淋</t>
   </si>
   <si>
     <t>石苇散</t>
   </si>
   <si>
+    <t>尿中夹砂石，排尿涩痛，或中断。往往突发</t>
+  </si>
+  <si>
     <t>气淋</t>
   </si>
   <si>
     <t>沉香散</t>
   </si>
   <si>
+    <t>郁怒之后，小便涩滞，淋沥不尽，少腹胀痛</t>
+  </si>
+  <si>
     <t>血淋</t>
   </si>
   <si>
     <t>小蓟子饮+导赤散</t>
   </si>
   <si>
+    <t>小便热涩刺痛，尿色深红或有夹血，舌尖红</t>
+  </si>
+  <si>
+    <t>苔黄</t>
+  </si>
+  <si>
     <t>膏淋</t>
   </si>
   <si>
     <t>程氏萆薢分清饮</t>
   </si>
   <si>
+    <t>小便混浊，乳白或如米泔水</t>
+  </si>
+  <si>
     <t>劳淋</t>
   </si>
   <si>
     <t>无比药丸</t>
   </si>
   <si>
+    <t>小便不甚赤涩，时作时止，遇劳即发，腰膝酸软</t>
+  </si>
+  <si>
     <t>肝胆系统</t>
   </si>
   <si>
@@ -2994,9 +3043,6 @@
   </si>
   <si>
     <t>中消</t>
-  </si>
-  <si>
-    <t>苔黄</t>
   </si>
   <si>
     <t>脉滑实有力</t>
@@ -4070,7 +4116,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4344,61 +4390,49 @@
     <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4738,12 +4772,12 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:H265"/>
+  <dimension ref="A1:H268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F201" sqref="F201"/>
+      <selection pane="bottomLeft" activeCell="H211" sqref="H211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.1" customHeight="1" outlineLevelCol="7"/>
@@ -8059,52 +8093,52 @@
       <c r="A194" s="90" t="s">
         <v>522</v>
       </c>
-      <c r="B194" s="91" t="s">
+      <c r="B194" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="C194" s="92" t="s">
+      <c r="C194" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D194" s="93" t="s">
+      <c r="D194" s="30" t="s">
         <v>524</v>
       </c>
-      <c r="E194" s="94"/>
-      <c r="F194" s="94"/>
-      <c r="G194" s="94"/>
-      <c r="H194" s="95"/>
+      <c r="E194" s="20"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="20"/>
+      <c r="H194" s="21"/>
     </row>
     <row r="195" customHeight="1" spans="1:8">
       <c r="A195" s="90"/>
-      <c r="B195" s="91"/>
-      <c r="C195" s="92" t="s">
+      <c r="B195" s="1"/>
+      <c r="C195" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D195" s="93" t="s">
+      <c r="D195" s="30" t="s">
         <v>525</v>
       </c>
-      <c r="E195" s="94"/>
-      <c r="F195" s="94"/>
-      <c r="G195" s="94"/>
-      <c r="H195" s="95"/>
+      <c r="E195" s="20"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="20"/>
+      <c r="H195" s="21"/>
     </row>
     <row r="196" customHeight="1" spans="1:8">
       <c r="A196" s="90"/>
-      <c r="B196" s="91"/>
-      <c r="C196" s="92" t="s">
+      <c r="B196" s="1"/>
+      <c r="C196" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="D196" s="96" t="s">
+      <c r="D196" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="E196" s="94"/>
-      <c r="F196" s="94"/>
-      <c r="G196" s="94"/>
-      <c r="H196" s="95"/>
+      <c r="E196" s="20"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="20"/>
+      <c r="H196" s="21"/>
     </row>
     <row r="197" customHeight="1" spans="1:8">
       <c r="A197" s="90"/>
-      <c r="B197" s="91"/>
-      <c r="C197" s="97" t="s">
+      <c r="B197" s="1"/>
+      <c r="C197" s="42" t="s">
         <v>528</v>
       </c>
       <c r="D197" s="3" t="s">
@@ -8123,8 +8157,8 @@
     </row>
     <row r="198" customHeight="1" spans="1:8">
       <c r="A198" s="90"/>
-      <c r="B198" s="91"/>
-      <c r="C198" s="98"/>
+      <c r="B198" s="1"/>
+      <c r="C198" s="45"/>
       <c r="D198" s="3" t="s">
         <v>532</v>
       </c>
@@ -8143,8 +8177,8 @@
     </row>
     <row r="199" customHeight="1" spans="1:8">
       <c r="A199" s="90"/>
-      <c r="B199" s="91"/>
-      <c r="C199" s="98"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="45"/>
       <c r="D199" s="3" t="s">
         <v>535</v>
       </c>
@@ -8163,8 +8197,8 @@
     </row>
     <row r="200" customHeight="1" spans="1:8">
       <c r="A200" s="90"/>
-      <c r="B200" s="91"/>
-      <c r="C200" s="99"/>
+      <c r="B200" s="1"/>
+      <c r="C200" s="46"/>
       <c r="D200" s="3" t="s">
         <v>539</v>
       </c>
@@ -8183,8 +8217,8 @@
     </row>
     <row r="201" customHeight="1" spans="1:8">
       <c r="A201" s="90"/>
-      <c r="B201" s="91"/>
-      <c r="C201" s="97" t="s">
+      <c r="B201" s="1"/>
+      <c r="C201" s="42" t="s">
         <v>543</v>
       </c>
       <c r="D201" s="3" t="s">
@@ -8205,12 +8239,12 @@
     </row>
     <row r="202" customHeight="1" spans="1:8">
       <c r="A202" s="90"/>
-      <c r="B202" s="91"/>
-      <c r="C202" s="99"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="46"/>
       <c r="D202" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="E202" s="100" t="s">
+      <c r="E202" s="91" t="s">
         <v>548</v>
       </c>
       <c r="F202" s="3" t="s">
@@ -8223,680 +8257,708 @@
         <v>288</v>
       </c>
     </row>
-    <row r="203" customHeight="1" spans="1:8">
+    <row r="203" ht="11" customHeight="1" spans="1:8">
       <c r="A203" s="90"/>
-      <c r="B203" s="6" t="s">
-        <v>551</v>
-      </c>
-      <c r="C203" s="3"/>
-      <c r="D203" s="101" t="s">
-        <v>552</v>
-      </c>
-      <c r="E203" s="101" t="s">
-        <v>553</v>
-      </c>
-      <c r="F203" s="101"/>
-      <c r="G203" s="101"/>
-      <c r="H203" s="101"/>
+      <c r="B203"/>
+      <c r="C203"/>
+      <c r="D203"/>
+      <c r="E203"/>
+      <c r="F203"/>
+      <c r="G203"/>
+      <c r="H203" s="92"/>
     </row>
     <row r="204" customHeight="1" spans="1:8">
       <c r="A204" s="90"/>
-      <c r="B204" s="6"/>
-      <c r="C204" s="3"/>
-      <c r="D204" s="101" t="s">
-        <v>554</v>
-      </c>
-      <c r="E204" s="101" t="s">
-        <v>555</v>
-      </c>
-      <c r="F204" s="101"/>
-      <c r="G204" s="101"/>
-      <c r="H204" s="101"/>
+      <c r="B204" s="93" t="s">
+        <v>551</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D204" s="94" t="s">
+        <v>552</v>
+      </c>
+      <c r="E204" s="95"/>
+      <c r="F204" s="95"/>
+      <c r="G204" s="95"/>
+      <c r="H204" s="96"/>
     </row>
     <row r="205" customHeight="1" spans="1:8">
       <c r="A205" s="90"/>
-      <c r="B205" s="6"/>
-      <c r="C205" s="3"/>
-      <c r="D205" s="101" t="s">
-        <v>556</v>
-      </c>
-      <c r="E205" s="101" t="s">
-        <v>557</v>
-      </c>
-      <c r="F205" s="101"/>
-      <c r="G205" s="101"/>
-      <c r="H205" s="101"/>
+      <c r="B205" s="97"/>
+      <c r="C205" s="98" t="s">
+        <v>29</v>
+      </c>
+      <c r="D205" s="94" t="s">
+        <v>553</v>
+      </c>
+      <c r="E205" s="95"/>
+      <c r="F205" s="95"/>
+      <c r="G205" s="95"/>
+      <c r="H205" s="96"/>
     </row>
     <row r="206" customHeight="1" spans="1:8">
       <c r="A206" s="90"/>
-      <c r="B206" s="6"/>
-      <c r="C206" s="3"/>
-      <c r="D206" s="101" t="s">
-        <v>558</v>
-      </c>
-      <c r="E206" s="75" t="s">
-        <v>559</v>
-      </c>
-      <c r="F206" s="101"/>
-      <c r="G206" s="101"/>
-      <c r="H206" s="101"/>
+      <c r="B206" s="97"/>
+      <c r="C206" s="99"/>
+      <c r="D206" s="100" t="s">
+        <v>554</v>
+      </c>
+      <c r="E206" s="100" t="s">
+        <v>555</v>
+      </c>
+      <c r="F206" s="100" t="s">
+        <v>556</v>
+      </c>
+      <c r="G206" s="100" t="s">
+        <v>76</v>
+      </c>
+      <c r="H206" s="100" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="207" customHeight="1" spans="1:8">
       <c r="A207" s="90"/>
-      <c r="B207" s="6"/>
-      <c r="C207" s="3"/>
-      <c r="D207" s="101" t="s">
+      <c r="B207" s="97"/>
+      <c r="C207" s="99"/>
+      <c r="D207" s="100" t="s">
+        <v>557</v>
+      </c>
+      <c r="E207" s="100" t="s">
+        <v>558</v>
+      </c>
+      <c r="F207" s="101" t="s">
+        <v>559</v>
+      </c>
+      <c r="G207" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="H207" s="101"/>
+    </row>
+    <row r="208" customHeight="1" spans="1:8">
+      <c r="A208" s="90"/>
+      <c r="B208" s="97"/>
+      <c r="C208" s="99"/>
+      <c r="D208" s="100" t="s">
         <v>560</v>
       </c>
-      <c r="E207" s="101" t="s">
+      <c r="E208" s="100" t="s">
         <v>561</v>
       </c>
-      <c r="F207" s="101"/>
-      <c r="G207" s="101"/>
-      <c r="H207" s="101"/>
-    </row>
-    <row r="208" customHeight="1" spans="1:8">
-      <c r="A208" s="102"/>
-      <c r="B208" s="6"/>
-      <c r="C208" s="3"/>
-      <c r="D208" s="101" t="s">
+      <c r="F208" s="100" t="s">
         <v>562</v>
       </c>
-      <c r="E208" s="101" t="s">
+      <c r="G208" s="100" t="s">
+        <v>14</v>
+      </c>
+      <c r="H208" s="100" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="209" customHeight="1" spans="1:8">
+      <c r="A209" s="90"/>
+      <c r="B209" s="97"/>
+      <c r="C209" s="99"/>
+      <c r="D209" s="100" t="s">
         <v>563</v>
       </c>
-      <c r="F208" s="101"/>
-      <c r="G208" s="101"/>
-      <c r="H208" s="101"/>
+      <c r="E209" s="75" t="s">
+        <v>564</v>
+      </c>
+      <c r="F209" s="100" t="s">
+        <v>565</v>
+      </c>
+      <c r="G209" s="100" t="s">
+        <v>566</v>
+      </c>
+      <c r="H209" s="100" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="210" customHeight="1" spans="1:8">
-      <c r="A210" s="103" t="s">
-        <v>564</v>
-      </c>
-      <c r="B210" s="104" t="s">
-        <v>565</v>
-      </c>
-      <c r="C210" s="105"/>
-      <c r="D210" s="106"/>
-      <c r="E210" s="106"/>
-      <c r="F210" s="106"/>
-      <c r="G210" s="106"/>
-      <c r="H210" s="106"/>
+      <c r="A210" s="90"/>
+      <c r="B210" s="97"/>
+      <c r="C210" s="99"/>
+      <c r="D210" s="100" t="s">
+        <v>567</v>
+      </c>
+      <c r="E210" s="100" t="s">
+        <v>568</v>
+      </c>
+      <c r="F210" s="100" t="s">
+        <v>569</v>
+      </c>
+      <c r="G210" s="100" t="s">
+        <v>100</v>
+      </c>
+      <c r="H210" s="100" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="211" customHeight="1" spans="1:8">
-      <c r="A211" s="107"/>
-      <c r="B211" s="108"/>
-      <c r="C211" s="105"/>
-      <c r="D211" s="106"/>
-      <c r="E211" s="106"/>
-      <c r="F211" s="106"/>
-      <c r="G211" s="106"/>
-      <c r="H211" s="106"/>
-    </row>
-    <row r="212" customHeight="1" spans="1:8">
-      <c r="A212" s="107"/>
-      <c r="B212" s="108"/>
-      <c r="C212" s="105"/>
-      <c r="D212" s="106"/>
-      <c r="E212" s="106"/>
-      <c r="F212" s="106"/>
-      <c r="G212" s="106"/>
-      <c r="H212" s="106"/>
+      <c r="A211" s="102"/>
+      <c r="B211" s="103"/>
+      <c r="C211" s="99"/>
+      <c r="D211" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="E211" s="100" t="s">
+        <v>571</v>
+      </c>
+      <c r="F211" s="100" t="s">
+        <v>572</v>
+      </c>
+      <c r="G211" s="100" t="s">
+        <v>138</v>
+      </c>
+      <c r="H211" s="100" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="213" customHeight="1" spans="1:8">
-      <c r="A213" s="107"/>
-      <c r="B213" s="108"/>
-      <c r="C213" s="105"/>
-      <c r="D213" s="106"/>
-      <c r="E213" s="106"/>
-      <c r="F213" s="106"/>
-      <c r="G213" s="106"/>
-      <c r="H213" s="106"/>
+      <c r="A213" s="104" t="s">
+        <v>573</v>
+      </c>
+      <c r="B213" s="42" t="s">
+        <v>574</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="100"/>
+      <c r="E213" s="100"/>
+      <c r="F213" s="100"/>
+      <c r="G213" s="100"/>
+      <c r="H213" s="100"/>
     </row>
     <row r="214" customHeight="1" spans="1:8">
-      <c r="A214" s="107"/>
-      <c r="B214" s="108"/>
-      <c r="C214" s="105"/>
-      <c r="D214" s="106"/>
-      <c r="E214" s="106"/>
-      <c r="F214" s="106"/>
-      <c r="G214" s="106"/>
-      <c r="H214" s="106"/>
+      <c r="A214" s="105"/>
+      <c r="B214" s="45"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="100"/>
+      <c r="E214" s="100"/>
+      <c r="F214" s="100"/>
+      <c r="G214" s="100"/>
+      <c r="H214" s="100"/>
     </row>
     <row r="215" customHeight="1" spans="1:8">
-      <c r="A215" s="107"/>
-      <c r="B215" s="109"/>
-      <c r="C215" s="105"/>
-      <c r="D215" s="106"/>
-      <c r="E215" s="106"/>
-      <c r="F215" s="106"/>
-      <c r="G215" s="106"/>
-      <c r="H215" s="106"/>
+      <c r="A215" s="105"/>
+      <c r="B215" s="45"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="100"/>
+      <c r="E215" s="100"/>
+      <c r="F215" s="100"/>
+      <c r="G215" s="100"/>
+      <c r="H215" s="100"/>
     </row>
     <row r="216" customHeight="1" spans="1:8">
-      <c r="A216" s="107"/>
-      <c r="B216" s="104" t="s">
-        <v>566</v>
-      </c>
-      <c r="C216" s="105"/>
-      <c r="D216" s="106"/>
-      <c r="E216" s="106"/>
-      <c r="F216" s="106"/>
-      <c r="G216" s="106"/>
-      <c r="H216" s="106"/>
+      <c r="A216" s="105"/>
+      <c r="B216" s="45"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="100"/>
+      <c r="E216" s="100"/>
+      <c r="F216" s="100"/>
+      <c r="G216" s="100"/>
+      <c r="H216" s="100"/>
     </row>
     <row r="217" customHeight="1" spans="1:8">
-      <c r="A217" s="107"/>
-      <c r="B217" s="108"/>
-      <c r="C217" s="105"/>
-      <c r="D217" s="106"/>
-      <c r="E217" s="106"/>
-      <c r="F217" s="106"/>
-      <c r="G217" s="106"/>
-      <c r="H217" s="106"/>
+      <c r="A217" s="105"/>
+      <c r="B217" s="45"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="100"/>
+      <c r="E217" s="100"/>
+      <c r="F217" s="100"/>
+      <c r="G217" s="100"/>
+      <c r="H217" s="100"/>
     </row>
     <row r="218" customHeight="1" spans="1:8">
-      <c r="A218" s="107"/>
-      <c r="B218" s="108"/>
-      <c r="C218" s="105"/>
-      <c r="D218" s="106"/>
-      <c r="E218" s="106"/>
-      <c r="F218" s="106"/>
-      <c r="G218" s="106"/>
-      <c r="H218" s="106"/>
+      <c r="A218" s="105"/>
+      <c r="B218" s="46"/>
+      <c r="C218" s="3"/>
+      <c r="D218" s="100"/>
+      <c r="E218" s="100"/>
+      <c r="F218" s="100"/>
+      <c r="G218" s="100"/>
+      <c r="H218" s="100"/>
     </row>
     <row r="219" customHeight="1" spans="1:8">
-      <c r="A219" s="107"/>
-      <c r="B219" s="108"/>
-      <c r="C219" s="105"/>
-      <c r="D219" s="106"/>
-      <c r="E219" s="106"/>
-      <c r="F219" s="106"/>
-      <c r="G219" s="106"/>
-      <c r="H219" s="106"/>
+      <c r="A219" s="105"/>
+      <c r="B219" s="42" t="s">
+        <v>575</v>
+      </c>
+      <c r="C219" s="3"/>
+      <c r="D219" s="100"/>
+      <c r="E219" s="100"/>
+      <c r="F219" s="100"/>
+      <c r="G219" s="100"/>
+      <c r="H219" s="100"/>
     </row>
     <row r="220" customHeight="1" spans="1:8">
-      <c r="A220" s="107"/>
-      <c r="B220" s="108"/>
-      <c r="C220" s="105"/>
-      <c r="D220" s="106"/>
-      <c r="E220" s="106"/>
-      <c r="F220" s="106"/>
-      <c r="G220" s="106"/>
-      <c r="H220" s="106"/>
+      <c r="A220" s="105"/>
+      <c r="B220" s="45"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="100"/>
+      <c r="E220" s="100"/>
+      <c r="F220" s="100"/>
+      <c r="G220" s="100"/>
+      <c r="H220" s="100"/>
     </row>
     <row r="221" customHeight="1" spans="1:8">
-      <c r="A221" s="107"/>
-      <c r="B221" s="108"/>
-      <c r="C221" s="105"/>
-      <c r="D221" s="106"/>
-      <c r="E221" s="106"/>
-      <c r="F221" s="106"/>
-      <c r="G221" s="106"/>
-      <c r="H221" s="106"/>
+      <c r="A221" s="105"/>
+      <c r="B221" s="45"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="100"/>
+      <c r="E221" s="100"/>
+      <c r="F221" s="100"/>
+      <c r="G221" s="100"/>
+      <c r="H221" s="100"/>
     </row>
     <row r="222" customHeight="1" spans="1:8">
-      <c r="A222" s="107"/>
-      <c r="B222" s="109"/>
-      <c r="C222" s="105"/>
-      <c r="D222" s="106"/>
-      <c r="E222" s="106"/>
-      <c r="F222" s="106"/>
-      <c r="G222" s="106"/>
-      <c r="H222" s="106"/>
+      <c r="A222" s="105"/>
+      <c r="B222" s="45"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="100"/>
+      <c r="E222" s="100"/>
+      <c r="F222" s="100"/>
+      <c r="G222" s="100"/>
+      <c r="H222" s="100"/>
     </row>
     <row r="223" customHeight="1" spans="1:8">
-      <c r="A223" s="107"/>
-      <c r="B223" s="104" t="s">
-        <v>567</v>
-      </c>
-      <c r="C223" s="105"/>
-      <c r="D223" s="106"/>
-      <c r="E223" s="106"/>
-      <c r="F223" s="106"/>
-      <c r="G223" s="106"/>
-      <c r="H223" s="106"/>
+      <c r="A223" s="105"/>
+      <c r="B223" s="45"/>
+      <c r="C223" s="3"/>
+      <c r="D223" s="100"/>
+      <c r="E223" s="100"/>
+      <c r="F223" s="100"/>
+      <c r="G223" s="100"/>
+      <c r="H223" s="100"/>
     </row>
     <row r="224" customHeight="1" spans="1:8">
-      <c r="A224" s="107"/>
-      <c r="B224" s="108"/>
-      <c r="C224" s="105"/>
-      <c r="D224" s="106"/>
-      <c r="E224" s="106"/>
-      <c r="F224" s="106"/>
-      <c r="G224" s="106"/>
-      <c r="H224" s="106"/>
+      <c r="A224" s="105"/>
+      <c r="B224" s="45"/>
+      <c r="C224" s="3"/>
+      <c r="D224" s="100"/>
+      <c r="E224" s="100"/>
+      <c r="F224" s="100"/>
+      <c r="G224" s="100"/>
+      <c r="H224" s="100"/>
     </row>
     <row r="225" customHeight="1" spans="1:8">
-      <c r="A225" s="107"/>
-      <c r="B225" s="108"/>
-      <c r="C225" s="105"/>
-      <c r="D225" s="106"/>
-      <c r="E225" s="106"/>
-      <c r="F225" s="106"/>
-      <c r="G225" s="106"/>
-      <c r="H225" s="106"/>
+      <c r="A225" s="105"/>
+      <c r="B225" s="46"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="100"/>
+      <c r="E225" s="100"/>
+      <c r="F225" s="100"/>
+      <c r="G225" s="100"/>
+      <c r="H225" s="100"/>
     </row>
     <row r="226" customHeight="1" spans="1:8">
-      <c r="A226" s="107"/>
-      <c r="B226" s="108"/>
-      <c r="C226" s="105"/>
-      <c r="D226" s="106"/>
-      <c r="E226" s="106"/>
-      <c r="F226" s="106"/>
-      <c r="G226" s="106"/>
-      <c r="H226" s="106"/>
+      <c r="A226" s="105"/>
+      <c r="B226" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="C226" s="3"/>
+      <c r="D226" s="100"/>
+      <c r="E226" s="100"/>
+      <c r="F226" s="100"/>
+      <c r="G226" s="100"/>
+      <c r="H226" s="100"/>
     </row>
     <row r="227" customHeight="1" spans="1:8">
-      <c r="A227" s="107"/>
-      <c r="B227" s="108"/>
-      <c r="C227" s="105"/>
-      <c r="D227" s="106"/>
-      <c r="E227" s="106"/>
-      <c r="F227" s="106"/>
-      <c r="G227" s="106"/>
-      <c r="H227" s="106"/>
+      <c r="A227" s="105"/>
+      <c r="B227" s="45"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="100"/>
+      <c r="E227" s="100"/>
+      <c r="F227" s="100"/>
+      <c r="G227" s="100"/>
+      <c r="H227" s="100"/>
     </row>
     <row r="228" customHeight="1" spans="1:8">
-      <c r="A228" s="110"/>
-      <c r="B228" s="109"/>
-      <c r="C228" s="105"/>
-      <c r="D228" s="106"/>
-      <c r="E228" s="106"/>
-      <c r="F228" s="106"/>
-      <c r="G228" s="106"/>
-      <c r="H228" s="106"/>
-    </row>
-    <row r="229" customHeight="1" spans="2:8">
-      <c r="B229" s="111"/>
-      <c r="D229" s="112"/>
-      <c r="E229" s="112"/>
-      <c r="F229" s="112"/>
-      <c r="G229" s="112"/>
-      <c r="H229" s="112"/>
+      <c r="A228" s="105"/>
+      <c r="B228" s="45"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="100"/>
+      <c r="E228" s="100"/>
+      <c r="F228" s="100"/>
+      <c r="G228" s="100"/>
+      <c r="H228" s="100"/>
+    </row>
+    <row r="229" customHeight="1" spans="1:8">
+      <c r="A229" s="105"/>
+      <c r="B229" s="45"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="100"/>
+      <c r="E229" s="100"/>
+      <c r="F229" s="100"/>
+      <c r="G229" s="100"/>
+      <c r="H229" s="100"/>
     </row>
     <row r="230" customHeight="1" spans="1:8">
-      <c r="A230" s="113" t="s">
-        <v>568</v>
-      </c>
-      <c r="B230" s="1" t="s">
+      <c r="A230" s="105"/>
+      <c r="B230" s="45"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="100"/>
+      <c r="E230" s="100"/>
+      <c r="F230" s="100"/>
+      <c r="G230" s="100"/>
+      <c r="H230" s="100"/>
+    </row>
+    <row r="231" customHeight="1" spans="1:8">
+      <c r="A231" s="106"/>
+      <c r="B231" s="46"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="100"/>
+      <c r="E231" s="100"/>
+      <c r="F231" s="100"/>
+      <c r="G231" s="100"/>
+      <c r="H231" s="100"/>
+    </row>
+    <row r="232" customHeight="1" spans="2:8">
+      <c r="B232" s="107"/>
+      <c r="D232" s="108"/>
+      <c r="E232" s="108"/>
+      <c r="F232" s="108"/>
+      <c r="G232" s="108"/>
+      <c r="H232" s="108"/>
+    </row>
+    <row r="233" customHeight="1" spans="1:8">
+      <c r="A233" s="109" t="s">
+        <v>577</v>
+      </c>
+      <c r="B233" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C230" s="3"/>
-      <c r="D230" s="101" t="s">
-        <v>569</v>
-      </c>
-      <c r="E230" s="101" t="s">
+      <c r="C233" s="3"/>
+      <c r="D233" s="100" t="s">
+        <v>578</v>
+      </c>
+      <c r="E233" s="100" t="s">
         <v>313</v>
       </c>
-      <c r="F230" s="101"/>
-      <c r="G230" s="101"/>
-      <c r="H230" s="101"/>
-    </row>
-    <row r="231" customHeight="1" spans="1:8">
-      <c r="A231" s="113"/>
-      <c r="B231" s="1"/>
-      <c r="C231" s="3" t="s">
-        <v>570</v>
-      </c>
-      <c r="D231" s="101" t="s">
-        <v>571</v>
-      </c>
-      <c r="E231" s="75" t="s">
-        <v>572</v>
-      </c>
-      <c r="F231" s="101"/>
-      <c r="G231" s="101"/>
-      <c r="H231" s="101"/>
-    </row>
-    <row r="232" customHeight="1" spans="1:8">
-      <c r="A232" s="113"/>
-      <c r="B232" s="1"/>
-      <c r="C232" s="3" t="s">
-        <v>573</v>
-      </c>
-      <c r="D232" s="101" t="s">
-        <v>574</v>
-      </c>
-      <c r="E232" s="101" t="s">
-        <v>575</v>
-      </c>
-      <c r="F232" s="101"/>
-      <c r="G232" s="101"/>
-      <c r="H232" s="101"/>
-    </row>
-    <row r="233" customHeight="1" spans="1:8">
-      <c r="A233" s="113"/>
-      <c r="B233" s="1" t="s">
+      <c r="F233" s="100"/>
+      <c r="G233" s="100"/>
+      <c r="H233" s="100"/>
+    </row>
+    <row r="234" customHeight="1" spans="1:8">
+      <c r="A234" s="109"/>
+      <c r="B234" s="1"/>
+      <c r="C234" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D234" s="100" t="s">
+        <v>580</v>
+      </c>
+      <c r="E234" s="75" t="s">
+        <v>581</v>
+      </c>
+      <c r="F234" s="100"/>
+      <c r="G234" s="100"/>
+      <c r="H234" s="100"/>
+    </row>
+    <row r="235" customHeight="1" spans="1:8">
+      <c r="A235" s="109"/>
+      <c r="B235" s="1"/>
+      <c r="C235" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D235" s="100" t="s">
+        <v>583</v>
+      </c>
+      <c r="E235" s="100" t="s">
+        <v>584</v>
+      </c>
+      <c r="F235" s="100"/>
+      <c r="G235" s="100"/>
+      <c r="H235" s="100"/>
+    </row>
+    <row r="236" customHeight="1" spans="1:8">
+      <c r="A236" s="109"/>
+      <c r="B236" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C233" s="3"/>
-      <c r="D233" s="101" t="s">
-        <v>576</v>
-      </c>
-      <c r="E233" s="101" t="s">
-        <v>577</v>
-      </c>
-      <c r="F233" s="101"/>
-      <c r="G233" s="101"/>
-      <c r="H233" s="101"/>
-    </row>
-    <row r="234" customHeight="1" spans="1:8">
-      <c r="A234" s="113"/>
-      <c r="B234" s="1"/>
-      <c r="C234" s="3"/>
-      <c r="D234" s="101" t="s">
+      <c r="C236" s="3"/>
+      <c r="D236" s="100" t="s">
+        <v>585</v>
+      </c>
+      <c r="E236" s="100" t="s">
+        <v>586</v>
+      </c>
+      <c r="F236" s="100"/>
+      <c r="G236" s="100"/>
+      <c r="H236" s="100"/>
+    </row>
+    <row r="237" customHeight="1" spans="1:8">
+      <c r="A237" s="109"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="100" t="s">
         <v>249</v>
       </c>
-      <c r="E234" s="101" t="s">
+      <c r="E237" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="F234" s="101"/>
-      <c r="G234" s="101"/>
-      <c r="H234" s="101"/>
-    </row>
-    <row r="235" customHeight="1" spans="1:8">
-      <c r="A235" s="113"/>
-      <c r="B235" s="1"/>
-      <c r="C235" s="3"/>
-      <c r="D235" s="101" t="s">
-        <v>496</v>
-      </c>
-      <c r="E235" s="101" t="s">
-        <v>578</v>
-      </c>
-      <c r="F235" s="101"/>
-      <c r="G235" s="101"/>
-      <c r="H235" s="101"/>
-    </row>
-    <row r="237" customHeight="1" spans="1:8">
-      <c r="A237" s="114" t="s">
-        <v>579</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="E237" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F237" s="3"/>
-      <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
+      <c r="F237" s="100"/>
+      <c r="G237" s="100"/>
+      <c r="H237" s="100"/>
     </row>
     <row r="238" customHeight="1" spans="1:8">
-      <c r="A238" s="114"/>
+      <c r="A238" s="109"/>
       <c r="B238" s="1"/>
       <c r="C238" s="3"/>
-      <c r="D238" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="E238" s="3" t="s">
-        <v>583</v>
-      </c>
-      <c r="F238" s="3"/>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
-    </row>
-    <row r="239" customHeight="1" spans="1:8">
-      <c r="A239" s="114"/>
-      <c r="B239" s="1"/>
-      <c r="C239" s="3"/>
-      <c r="D239" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="E239" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="F239" s="3"/>
-      <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
+      <c r="D238" s="100" t="s">
+        <v>496</v>
+      </c>
+      <c r="E238" s="100" t="s">
+        <v>587</v>
+      </c>
+      <c r="F238" s="100"/>
+      <c r="G238" s="100"/>
+      <c r="H238" s="100"/>
     </row>
     <row r="240" customHeight="1" spans="1:8">
-      <c r="A240" s="114"/>
-      <c r="B240" s="1"/>
+      <c r="A240" s="110" t="s">
+        <v>588</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>589</v>
+      </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3" t="s">
-        <v>185</v>
+        <v>590</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
       <c r="H240" s="3"/>
     </row>
     <row r="241" customHeight="1" spans="1:8">
-      <c r="A241" s="114"/>
-      <c r="B241" s="1" t="s">
-        <v>585</v>
-      </c>
+      <c r="A241" s="110"/>
+      <c r="B241" s="1"/>
       <c r="C241" s="3"/>
       <c r="D241" s="3" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
       <c r="H241" s="3"/>
     </row>
     <row r="242" customHeight="1" spans="1:8">
-      <c r="A242" s="114"/>
+      <c r="A242" s="110"/>
       <c r="B242" s="1"/>
       <c r="C242" s="3"/>
       <c r="D242" s="3" t="s">
-        <v>462</v>
+        <v>593</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>587</v>
+        <v>510</v>
       </c>
       <c r="F242" s="3"/>
       <c r="G242" s="3"/>
       <c r="H242" s="3"/>
     </row>
     <row r="243" customHeight="1" spans="1:8">
-      <c r="A243" s="114"/>
-      <c r="B243" s="1" t="s">
-        <v>588</v>
-      </c>
+      <c r="A243" s="110"/>
+      <c r="B243" s="1"/>
       <c r="C243" s="3"/>
       <c r="D243" s="3" t="s">
-        <v>589</v>
+        <v>185</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="F243" s="3"/>
       <c r="G243" s="3"/>
       <c r="H243" s="3"/>
     </row>
     <row r="244" customHeight="1" spans="1:8">
-      <c r="A244" s="114"/>
-      <c r="B244" s="1"/>
+      <c r="A244" s="110"/>
+      <c r="B244" s="1" t="s">
+        <v>594</v>
+      </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="E244" s="23" t="s">
         <v>591</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>595</v>
       </c>
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
       <c r="H244" s="3"/>
     </row>
     <row r="245" customHeight="1" spans="1:8">
-      <c r="A245" s="114"/>
+      <c r="A245" s="110"/>
       <c r="B245" s="1"/>
       <c r="C245" s="3"/>
       <c r="D245" s="3" t="s">
-        <v>592</v>
+        <v>462</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F245" s="3"/>
       <c r="G245" s="3"/>
       <c r="H245" s="3"/>
     </row>
     <row r="246" customHeight="1" spans="1:8">
-      <c r="A246" s="114"/>
+      <c r="A246" s="110"/>
       <c r="B246" s="1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>596</v>
+        <v>40</v>
       </c>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
       <c r="H246" s="3"/>
     </row>
     <row r="247" customHeight="1" spans="1:8">
-      <c r="A247" s="114"/>
+      <c r="A247" s="110"/>
       <c r="B247" s="1"/>
       <c r="C247" s="3"/>
       <c r="D247" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="E247" s="3" t="s">
-        <v>510</v>
+        <v>599</v>
+      </c>
+      <c r="E247" s="23" t="s">
+        <v>600</v>
       </c>
       <c r="F247" s="3"/>
       <c r="G247" s="3"/>
       <c r="H247" s="3"/>
     </row>
     <row r="248" customHeight="1" spans="1:8">
-      <c r="A248" s="114"/>
+      <c r="A248" s="110"/>
       <c r="B248" s="1"/>
       <c r="C248" s="3"/>
       <c r="D248" s="3" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>186</v>
+        <v>602</v>
       </c>
       <c r="F248" s="3"/>
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
     </row>
     <row r="249" customHeight="1" spans="1:8">
-      <c r="A249" s="114"/>
+      <c r="A249" s="110"/>
       <c r="B249" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
     </row>
     <row r="250" customHeight="1" spans="1:8">
-      <c r="A250" s="114"/>
+      <c r="A250" s="110"/>
       <c r="B250" s="1"/>
       <c r="C250" s="3"/>
       <c r="D250" s="3" t="s">
-        <v>342</v>
+        <v>606</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
       <c r="H250" s="3"/>
     </row>
     <row r="251" customHeight="1" spans="1:8">
-      <c r="A251" s="114"/>
-      <c r="B251" s="1" t="s">
-        <v>603</v>
-      </c>
+      <c r="A251" s="110"/>
+      <c r="B251" s="1"/>
       <c r="C251" s="3"/>
       <c r="D251" s="3" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>605</v>
+        <v>186</v>
       </c>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
       <c r="H251" s="3"/>
     </row>
     <row r="252" customHeight="1" spans="1:8">
-      <c r="A252" s="114"/>
-      <c r="B252" s="1"/>
+      <c r="A252" s="110"/>
+      <c r="B252" s="1" t="s">
+        <v>608</v>
+      </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="F252" s="3"/>
       <c r="G252" s="3"/>
       <c r="H252" s="3"/>
     </row>
     <row r="253" customHeight="1" spans="1:8">
-      <c r="A253" s="114"/>
+      <c r="A253" s="110"/>
       <c r="B253" s="1"/>
       <c r="C253" s="3"/>
       <c r="D253" s="3" t="s">
-        <v>608</v>
+        <v>342</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>186</v>
+        <v>611</v>
       </c>
       <c r="F253" s="3"/>
       <c r="G253" s="3"/>
       <c r="H253" s="3"/>
     </row>
     <row r="254" customHeight="1" spans="1:8">
-      <c r="A254" s="114"/>
+      <c r="A254" s="110"/>
       <c r="B254" s="1" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
       <c r="H254" s="3"/>
     </row>
     <row r="255" customHeight="1" spans="1:8">
-      <c r="A255" s="114"/>
+      <c r="A255" s="110"/>
       <c r="B255" s="1"/>
       <c r="C255" s="3"/>
       <c r="D255" s="3" t="s">
-        <v>462</v>
+        <v>615</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="F255" s="3"/>
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
     </row>
     <row r="256" customHeight="1" spans="1:8">
-      <c r="A256" s="114"/>
+      <c r="A256" s="110"/>
       <c r="B256" s="1"/>
       <c r="C256" s="3"/>
       <c r="D256" s="3" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="E256" s="3" t="s">
         <v>186</v>
@@ -8905,166 +8967,210 @@
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
     </row>
+    <row r="257" customHeight="1" spans="1:8">
+      <c r="A257" s="110"/>
+      <c r="B257" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
+      <c r="H257" s="3"/>
+    </row>
     <row r="258" customHeight="1" spans="1:8">
-      <c r="A258" s="115" t="s">
-        <v>614</v>
-      </c>
-      <c r="B258" s="1" t="s">
-        <v>615</v>
-      </c>
+      <c r="A258" s="110"/>
+      <c r="B258" s="1"/>
       <c r="C258" s="3"/>
-      <c r="D258" s="101" t="s">
-        <v>616</v>
-      </c>
-      <c r="E258" s="101" t="s">
-        <v>617</v>
-      </c>
-      <c r="F258" s="101"/>
-      <c r="G258" s="101" t="s">
+      <c r="D258" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="F258" s="3"/>
+      <c r="G258" s="3"/>
+      <c r="H258" s="3"/>
+    </row>
+    <row r="259" customHeight="1" spans="1:8">
+      <c r="A259" s="110"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F259" s="3"/>
+      <c r="G259" s="3"/>
+      <c r="H259" s="3"/>
+    </row>
+    <row r="261" customHeight="1" spans="1:8">
+      <c r="A261" s="111" t="s">
+        <v>623</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C261" s="3"/>
+      <c r="D261" s="100" t="s">
+        <v>625</v>
+      </c>
+      <c r="E261" s="100" t="s">
+        <v>626</v>
+      </c>
+      <c r="F261" s="100"/>
+      <c r="G261" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="H258" s="101" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="259" customHeight="1" spans="1:8">
-      <c r="A259" s="115"/>
-      <c r="B259" s="36" t="s">
-        <v>619</v>
-      </c>
-      <c r="C259" s="3"/>
-      <c r="D259" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="E259" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="F259" s="3"/>
-      <c r="G259" s="23" t="s">
-        <v>620</v>
-      </c>
-      <c r="H259" s="28" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="260" customHeight="1" spans="1:8">
-      <c r="A260" s="115"/>
-      <c r="B260" s="36" t="s">
-        <v>622</v>
-      </c>
-      <c r="C260" s="3"/>
-      <c r="D260" s="23" t="s">
-        <v>623</v>
-      </c>
-      <c r="E260" s="23" t="s">
+      <c r="H261" s="100" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="262" customHeight="1" spans="1:8">
+      <c r="A262" s="111"/>
+      <c r="B262" s="36" t="s">
+        <v>628</v>
+  